--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -451,9 +451,10 @@
     <numFmt formatCode="@" numFmtId="166"/>
     <numFmt formatCode="MM/DD/YYYY" numFmtId="167"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -474,20 +475,28 @@
     </font>
     <font>
       <name val="Times New Roman"/>
+      <charset val="1"/>
       <family val="1"/>
       <b val="true"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Times New Roman"/>
+      <charset val="1"/>
       <family val="1"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Times New Roman"/>
+      <charset val="1"/>
       <family val="1"/>
       <color rgb="00000000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
@@ -873,7 +882,7 @@
                   <c:v>0.186746987951807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.340361445783133</c:v>
+                  <c:v>0.340361445783132</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.409638554216867</c:v>
@@ -1026,11 +1035,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="46758814"/>
-        <c:axId val="49566215"/>
+        <c:axId val="25342952"/>
+        <c:axId val="54964860"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46758814"/>
+        <c:axId val="25342952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49566215"/>
+        <c:crossAx val="54964860"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1052,7 +1061,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49566215"/>
+        <c:axId val="54964860"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1069,7 +1078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46758814"/>
+        <c:crossAx val="25342952"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -1106,15 +1115,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>149400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:colOff>176400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>52920</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:colOff>79560</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1122,8 +1131,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="149400" y="2841840"/>
-        <a:ext cx="8536320" cy="2434320"/>
+        <a:off x="176400" y="2341080"/>
+        <a:ext cx="8578440" cy="2265120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1148,9 +1157,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="2" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.443137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="2" width="11.8666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -1185,15 +1194,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="3.63529411764706"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="46.5254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="6.9921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="39.8666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="17.2313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.13333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="2" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="3.65490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="46.7607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.02745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="40.0666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="17.321568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="17.3450980392157"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.18039215686274"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="17.3450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="2" width="11.8666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -2365,12 +2374,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="15.8470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.3490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.1490196078431"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="5" width="19.9333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="2" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="15.9254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.443137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.2313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="5" width="20.0313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="2" width="11.8666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
@@ -2426,7 +2435,7 @@
       </c>
       <c r="G2" s="21" t="n">
         <f aca="false">SUMIF(_cs, A2, _cpidgo)</f>
-        <v>0.036144578313253</v>
+        <v>0.0361445783132529</v>
       </c>
       <c r="H2" s="21" t="inlineStr">
         <f aca="false">G2</f>
@@ -2883,26 +2892,26 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="L3" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B22" activeCellId="0" pane="topLeft" sqref="B22"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="P10" activeCellId="0" pane="topLeft" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="3.63529411764706"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="46.5254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="6.9921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="39.8666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="7" style="2" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="17.2313725490196"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="9.13333333333333"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="17" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="17.843137254902"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="17" width="17.2666666666667"/>
-    <col collapsed="false" hidden="false" max="1023" min="21" style="2" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="3.65490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="46.7607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.02745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="40.0666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="7" style="2" width="17.3450980392157"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="17.321568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="17.3450980392157"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="9.18039215686274"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="17" width="17.3450980392157"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="17.9333333333333"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="17" width="17.3450980392157"/>
+    <col collapsed="false" hidden="false" max="1023" min="21" style="2" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.8666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -5,27 +5,30 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="456" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="456" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Totales" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Proyecto" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Recursos" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Ciclo1" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="totales" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="proyecto" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="recursos" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ciclo-1" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="recursos-ciclo-1" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="_che" vbProcedure="false">Proyecto!$F$3:$F$44</definedName>
-    <definedName function="false" hidden="false" name="_cpidge" vbProcedure="false">Proyecto!$G$3:$G$44</definedName>
-    <definedName function="false" hidden="false" name="_cpidgo" vbProcedure="false">Proyecto!$I$3:$I$44</definedName>
-    <definedName function="false" hidden="false" name="_cs" vbProcedure="false">Proyecto!$H$3:$H$44</definedName>
-    <definedName function="false" hidden="false" name="_vtdhe" vbProcedure="false">Totales!$B$1</definedName>
+    <definedName function="false" hidden="false" name="_cc1pidge" vbProcedure="false">'ciclo-1'!$M$4:$M$22</definedName>
+    <definedName function="false" hidden="false" name="_cc1s" vbProcedure="false">'ciclo-1'!$R$4:$R$22</definedName>
+    <definedName function="false" hidden="false" name="_che" vbProcedure="false">proyecto!$F$3:$F$44</definedName>
+    <definedName function="false" hidden="false" name="_cpidge" vbProcedure="false">proyecto!$G$3:$G$44</definedName>
+    <definedName function="false" hidden="false" name="_cpidgo" vbProcedure="false">proyecto!$I$3:$I$44</definedName>
+    <definedName function="false" hidden="false" name="_cs" vbProcedure="false">proyecto!$H$3:$H$44</definedName>
+    <definedName function="false" hidden="false" name="_vtdhe" vbProcedure="false">totales!$B$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="138">
   <si>
     <t>Total de Horas Estimadas</t>
   </si>
@@ -794,7 +797,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -807,7 +810,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Recursos!$F$1</c:f>
+              <c:f>recursos!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -830,7 +833,7 @@
           <c:marker/>
           <c:cat>
             <c:strRef>
-              <c:f>Recursos!$A$2:$A$13</c:f>
+              <c:f>recursos!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -874,7 +877,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Recursos!$F$2:$F$13</c:f>
+              <c:f>recursos!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -882,7 +885,7 @@
                   <c:v>0.186746987951807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.340361445783132</c:v>
+                  <c:v>0.340361445783133</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.409638554216867</c:v>
@@ -923,7 +926,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Recursos!$H$1</c:f>
+              <c:f>recursos!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -946,7 +949,7 @@
           <c:marker/>
           <c:cat>
             <c:strRef>
-              <c:f>Recursos!$A$2:$A$13</c:f>
+              <c:f>recursos!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -990,56 +993,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Recursos!$H$2:$H$13</c:f>
+              <c:f>recursos!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.036144578313253</c:v>
+                  <c:v>0.108433734939759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.036144578313253</c:v>
+                  <c:v>0.108433734939759</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.036144578313253</c:v>
+                  <c:v>0.108433734939759</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.036144578313253</c:v>
+                  <c:v>0.108433734939759</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.036144578313253</c:v>
+                  <c:v>0.108433734939759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.036144578313253</c:v>
+                  <c:v>0.108433734939759</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.036144578313253</c:v>
+                  <c:v>0.108433734939759</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.036144578313253</c:v>
+                  <c:v>0.108433734939759</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.036144578313253</c:v>
+                  <c:v>0.108433734939759</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.036144578313253</c:v>
+                  <c:v>0.108433734939759</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.036144578313253</c:v>
+                  <c:v>0.108433734939759</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.036144578313253</c:v>
+                  <c:v>0.108433734939759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="25342952"/>
-        <c:axId val="54964860"/>
+        <c:axId val="62575359"/>
+        <c:axId val="84323697"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25342952"/>
+        <c:axId val="62575359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54964860"/>
+        <c:crossAx val="84323697"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1061,7 +1064,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54964860"/>
+        <c:axId val="84323697"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1081,227 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="25342952"/>
+        <c:crossAx val="62575359"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'recursos-ciclo-1'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje Acumulado de Ganacias Estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'recursos-ciclo-1'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'recursos-ciclo-1'!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.186746987951807</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.340361445783133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.409638554216867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.614457831325301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'recursos-ciclo-1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje Acumulado de Ganancias Obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'recursos-ciclo-1'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'recursos-ciclo-1'!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.00903614457831325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0331325301204819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0963855421686747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.108433734939759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="22166120"/>
+        <c:axId val="84290611"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="22166120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84290611"/>
+        <c:crossesAt val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84290611"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="22166120"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -1115,15 +1338,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>176400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:colOff>278280</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>79560</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:colOff>180360</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1131,8 +1354,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="176400" y="2341080"/>
-        <a:ext cx="8578440" cy="2265120"/>
+        <a:off x="278280" y="2549520"/>
+        <a:ext cx="8708040" cy="3539160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>667440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>43560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>569520</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="667440" y="1413720"/>
+        <a:ext cx="8708040" cy="3539160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1152,14 +1410,14 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.443137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="2" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.8235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="2" width="12.0470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -1190,19 +1448,19 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="C1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G6" activeCellId="0" pane="topLeft" sqref="G6"/>
+      <selection activeCell="I13" activeCellId="0" pane="topLeft" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="3.65490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="46.7607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.02745098039216"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="40.0666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="17.321568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="17.3450980392157"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.18039215686274"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="17.3450980392157"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="2" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="3.70980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="47.4627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.13725490196079"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="40.6627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="17.5921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.31372549019608"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="2" width="12.0470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -1444,7 +1702,12 @@
       <c r="H9" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="14" t="inlineStr">
+        <f aca="false">G9</f>
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10" s="13">
       <c r="A10" s="10" t="n">
@@ -1527,9 +1790,14 @@
       <c r="H12" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="14"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="13" s="13">
+      <c r="I12" s="14" t="inlineStr">
+        <f aca="false">G12</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="13" s="13">
       <c r="A13" s="10" t="n">
         <v>11</v>
       </c>
@@ -1657,7 +1925,7 @@
       </c>
       <c r="I17" s="14"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="18" s="13">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="18" s="13">
       <c r="A18" s="10" t="n">
         <v>16</v>
       </c>
@@ -2370,16 +2638,16 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H17" activeCellId="0" pane="topLeft" sqref="H17"/>
+      <selection activeCell="B6" activeCellId="0" pane="topLeft" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="15.9254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.443137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.2313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="5" width="20.0313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="2" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="12.0470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="16.1607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.721568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.5019607843137"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="5" width="20.3333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="2" width="12.0470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
@@ -2435,7 +2703,7 @@
       </c>
       <c r="G2" s="21" t="n">
         <f aca="false">SUMIF(_cs, A2, _cpidgo)</f>
-        <v>0.0361445783132529</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="H2" s="21" t="inlineStr">
         <f aca="false">G2</f>
@@ -2892,26 +3160,25 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="P10" activeCellId="0" pane="topLeft" sqref="P10"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="K1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="M4" activeCellId="0" pane="topLeft" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="3.65490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="46.7607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.02745098039216"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="40.0666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="7" style="2" width="17.3450980392157"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="17.321568627451"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="17.3450980392157"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="9.18039215686274"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="17" width="17.3450980392157"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="17.9333333333333"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="17" width="17.3450980392157"/>
-    <col collapsed="false" hidden="false" max="1023" min="21" style="2" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="3.70980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="47.4627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.13725490196079"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="40.6627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="12.0470588235294"/>
+    <col collapsed="false" hidden="false" max="11" min="7" style="2" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="17.5921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="9.31372549019608"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="17" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.2078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="12.0470588235294"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="17" width="17.6196078431373"/>
+    <col collapsed="false" hidden="false" max="1023" min="21" style="2" width="12.0470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -3394,9 +3661,18 @@
       <c r="P10" s="35" t="n">
         <v>41902</v>
       </c>
-      <c r="Q10" s="41"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="35"/>
+      <c r="Q10" s="41" t="n">
+        <v>13</v>
+      </c>
+      <c r="R10" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" s="40" t="n">
+        <v>41917</v>
+      </c>
+      <c r="T10" s="35" t="n">
+        <v>41917</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11" s="13">
       <c r="A11" s="36" t="n">
@@ -3540,11 +3816,20 @@
       <c r="P13" s="35" t="n">
         <v>41905</v>
       </c>
-      <c r="Q13" s="41"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="35"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="14" s="13">
+      <c r="Q13" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" s="40" t="n">
+        <v>41921</v>
+      </c>
+      <c r="T13" s="35" t="n">
+        <v>41921</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="14" s="13">
       <c r="A14" s="36" t="n">
         <v>11</v>
       </c>
@@ -3784,7 +4069,7 @@
       <c r="S18" s="40"/>
       <c r="T18" s="35"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="19" s="13">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="19" s="13">
       <c r="A19" s="36" t="n">
         <v>16</v>
       </c>
@@ -3985,4 +4270,215 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H12" activeCellId="0" pane="topLeft" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="12.0470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="16.1607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.721568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.5019607843137"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="5" width="20.3333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="2" width="12.0470588235294"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
+      <c r="A2" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="n">
+        <v>41898</v>
+      </c>
+      <c r="C2" s="19" t="n">
+        <f aca="false">7*5</f>
+        <v>35</v>
+      </c>
+      <c r="D2" s="19" t="n">
+        <f aca="false">SUMIF(_cs, A2, _che)</f>
+        <v>31</v>
+      </c>
+      <c r="E2" s="21" t="n">
+        <f aca="false">SUMIF(_cs, A2, _cpidge)</f>
+        <v>0.186746987951807</v>
+      </c>
+      <c r="F2" s="21" t="inlineStr">
+        <f aca="false">E2</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G2" s="21" t="n">
+        <f aca="false">SUMIF(_cc1s, A2, _cc1pidge)</f>
+        <v>0.00903614457831325</v>
+      </c>
+      <c r="H2" s="21" t="inlineStr">
+        <f aca="false">G2</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
+      <c r="A3" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="inlineStr">
+        <f aca="false">B2+7</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C3" s="19" t="n">
+        <f aca="false">7*5</f>
+        <v>35</v>
+      </c>
+      <c r="D3" s="19" t="n">
+        <f aca="false">SUMIF(_cs, A3, _che)</f>
+        <v>25.5</v>
+      </c>
+      <c r="E3" s="21" t="n">
+        <f aca="false">SUMIF(_cs, A3, _cpidge)</f>
+        <v>0.153614457831325</v>
+      </c>
+      <c r="F3" s="21" t="inlineStr">
+        <f aca="false">E3+F2</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G3" s="21" t="n">
+        <f aca="false">SUMIF(_cc1s, A3, _cc1pidge)</f>
+        <v>0.0240963855421687</v>
+      </c>
+      <c r="H3" s="21" t="inlineStr">
+        <f aca="false">G3+H2</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
+      <c r="A4" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="inlineStr">
+        <f aca="false">B3+7</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C4" s="19" t="n">
+        <f aca="false">7*5</f>
+        <v>35</v>
+      </c>
+      <c r="D4" s="19" t="n">
+        <f aca="false">SUMIF(_cs, A4, _che)</f>
+        <v>11.5</v>
+      </c>
+      <c r="E4" s="21" t="n">
+        <f aca="false">SUMIF(_cs, A4, _cpidge)</f>
+        <v>0.0692771084337349</v>
+      </c>
+      <c r="F4" s="21" t="inlineStr">
+        <f aca="false">E4+F3</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G4" s="21" t="n">
+        <f aca="false">SUMIF(_cc1s, A4, _cc1pidge)</f>
+        <v>0.0632530120481928</v>
+      </c>
+      <c r="H4" s="21" t="inlineStr">
+        <f aca="false">G4+H3</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
+      <c r="A5" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="inlineStr">
+        <f aca="false">B4+7</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C5" s="19" t="n">
+        <f aca="false">7*5</f>
+        <v>35</v>
+      </c>
+      <c r="D5" s="19" t="n">
+        <f aca="false">SUMIF(_cs, A5, _che)</f>
+        <v>34</v>
+      </c>
+      <c r="E5" s="21" t="n">
+        <f aca="false">SUMIF(_cs, A5, _cpidge)</f>
+        <v>0.204819277108434</v>
+      </c>
+      <c r="F5" s="21" t="inlineStr">
+        <f aca="false">E5+F4</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G5" s="21" t="n">
+        <f aca="false">SUMIF(_cc1s, A5, _cc1pidge)</f>
+        <v>0.0120481927710843</v>
+      </c>
+      <c r="H5" s="21" t="inlineStr">
+        <f aca="false">G5+H4</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="456" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="4" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="456" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="totales" sheetId="1" state="visible" r:id="rId2"/>
@@ -797,7 +797,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -885,7 +885,7 @@
                   <c:v>0.186746987951807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.340361445783133</c:v>
+                  <c:v>0.340361445783132</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.409638554216867</c:v>
@@ -1038,11 +1038,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62575359"/>
-        <c:axId val="84323697"/>
+        <c:axId val="6215064"/>
+        <c:axId val="81978594"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62575359"/>
+        <c:axId val="6215064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,7 +1050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84323697"/>
+        <c:crossAx val="81978594"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1064,7 +1064,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84323697"/>
+        <c:axId val="81978594"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +1081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62575359"/>
+        <c:crossAx val="6215064"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -1113,7 +1113,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1177,7 +1177,7 @@
                   <c:v>0.186746987951807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.340361445783133</c:v>
+                  <c:v>0.340361445783132</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.409638554216867</c:v>
@@ -1258,11 +1258,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="22166120"/>
-        <c:axId val="84290611"/>
+        <c:axId val="21470182"/>
+        <c:axId val="50872393"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="22166120"/>
+        <c:axId val="21470182"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,7 +1270,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84290611"/>
+        <c:crossAx val="50872393"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1284,7 +1284,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84290611"/>
+        <c:axId val="50872393"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,7 +1301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="22166120"/>
+        <c:crossAx val="21470182"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -1338,15 +1338,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>278280</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:colOff>305280</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>207000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1354,8 +1354,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="278280" y="2549520"/>
-        <a:ext cx="8708040" cy="3539160"/>
+        <a:off x="305280" y="2073240"/>
+        <a:ext cx="8751600" cy="3285360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1373,15 +1373,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>667440</xdr:colOff>
+      <xdr:colOff>545760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>569520</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:colOff>447480</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1389,8 +1389,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="667440" y="1413720"/>
-        <a:ext cx="8708040" cy="3539160"/>
+        <a:off x="545760" y="1500840"/>
+        <a:ext cx="8751600" cy="3297600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1410,14 +1410,14 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.8235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="2" width="12.0470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.9490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="2" width="12.1098039215686"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -1452,15 +1452,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="3.70980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="47.4627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.13725490196079"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="40.6627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="17.5921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.31372549019608"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="2" width="12.0470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="3.72549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="47.6980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.17254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="40.8627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="17.6823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.36078431372549"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="2" width="12.1098039215686"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="15" s="13">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15" s="13">
       <c r="A15" s="10" t="n">
         <v>13</v>
       </c>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="26" s="13">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26" s="13">
       <c r="A26" s="10" t="n">
         <v>24</v>
       </c>
@@ -2642,12 +2642,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="12.0470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="16.1607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.721568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.5019607843137"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="5" width="20.3333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="2" width="12.0470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="12.1098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="16.243137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.8117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.5921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="5" width="20.4313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="2" width="12.1098039215686"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
@@ -3161,24 +3161,25 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="K1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="M4" activeCellId="0" pane="topLeft" sqref="M4"/>
+      <selection activeCell="S12" activeCellId="0" pane="topLeft" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="3.70980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="47.4627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.13725490196079"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="40.6627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="12.0470588235294"/>
-    <col collapsed="false" hidden="false" max="11" min="7" style="2" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="17.5921568627451"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="9.31372549019608"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="17" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.2078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="12.0470588235294"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="17" width="17.6196078431373"/>
-    <col collapsed="false" hidden="false" max="1023" min="21" style="2" width="12.0470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="3.72549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="47.6980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.17254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="40.8627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="12.1098039215686"/>
+    <col collapsed="false" hidden="false" max="11" min="7" style="2" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="17.6823529411765"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="9.36078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="17" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.2980392156863"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="12.1098039215686"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="17" width="17.7098039215686"/>
+    <col collapsed="false" hidden="false" max="1023" min="21" style="2" width="12.1098039215686"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -3933,7 +3934,7 @@
       <c r="S15" s="40"/>
       <c r="T15" s="35"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="16" s="13">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16" s="13">
       <c r="A16" s="36" t="n">
         <v>13</v>
       </c>
@@ -4279,17 +4280,17 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="H12" activeCellId="0" pane="topLeft" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="12.0470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="16.1607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.721568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.5019607843137"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="5" width="20.3333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="2" width="12.0470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="12.1098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="16.243137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.8117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.5921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="5" width="20.4313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="2" width="12.1098039215686"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="4" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="456" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="456" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="totales" sheetId="1" state="visible" r:id="rId2"/>
@@ -516,7 +516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
@@ -536,55 +536,6 @@
       <right/>
       <top style="hair"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="hair"/>
-      <right/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="hair"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="hair"/>
-      <right/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -613,7 +564,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="32">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
@@ -661,70 +612,27 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="167" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="6" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="6" numFmtId="167" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="6" numFmtId="167" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="167" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="6" numFmtId="167" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="167" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="0" fontId="6" numFmtId="166" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="0" fontId="6" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="0" fontId="6" numFmtId="167" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="6" numFmtId="167" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -797,7 +705,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -810,7 +718,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>recursos!$F$1</c:f>
+              <c:f>'recursos-ciclo-1'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -833,9 +741,9 @@
           <c:marker/>
           <c:cat>
             <c:strRef>
-              <c:f>recursos!$A$2:$A$13</c:f>
+              <c:f>'recursos-ciclo-1'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -847,75 +755,27 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>recursos!$F$2:$F$13</c:f>
+              <c:f>'recursos-ciclo-1'!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.186746987951807</c:v>
+                  <c:v>0.191616766467066</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.340361445783132</c:v>
+                  <c:v>0.344311377245509</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.409638554216867</c:v>
+                  <c:v>0.413173652694611</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.614457831325301</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.837349397590361</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0.616766467065868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -926,7 +786,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>recursos!$H$1</c:f>
+              <c:f>'recursos-ciclo-1'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -949,9 +809,9 @@
           <c:marker/>
           <c:cat>
             <c:strRef>
-              <c:f>recursos!$A$2:$A$13</c:f>
+              <c:f>'recursos-ciclo-1'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -963,86 +823,38 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>recursos!$H$2:$H$13</c:f>
+              <c:f>'recursos-ciclo-1'!$H$2:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.108433734939759</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.108433734939759</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.108433734939759</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.108433734939759</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.108433734939759</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.108433734939759</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.108433734939759</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.108433734939759</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.108433734939759</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.108433734939759</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.108433734939759</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.108433734939759</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="6215064"/>
-        <c:axId val="81978594"/>
+        <c:axId val="7905354"/>
+        <c:axId val="66762409"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="6215064"/>
+        <c:axId val="7905354"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,7 +862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81978594"/>
+        <c:crossAx val="66762409"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1064,7 +876,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81978594"/>
+        <c:axId val="66762409"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +893,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="6215064"/>
+        <c:crossAx val="7905354"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -1113,7 +925,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1126,7 +938,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'recursos-ciclo-1'!$F$1</c:f>
+              <c:f>recursos!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1149,9 +961,9 @@
           <c:marker/>
           <c:cat>
             <c:strRef>
-              <c:f>'recursos-ciclo-1'!$A$2:$A$5</c:f>
+              <c:f>recursos!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1163,27 +975,75 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'recursos-ciclo-1'!$F$2:$F$5</c:f>
+              <c:f>recursos!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.186746987951807</c:v>
+                  <c:v>0.191616766467066</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.340361445783132</c:v>
+                  <c:v>0.344311377245509</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.409638554216867</c:v>
+                  <c:v>0.413173652694611</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.614457831325301</c:v>
+                  <c:v>0.616766467065868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.838323353293413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1194,7 +1054,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'recursos-ciclo-1'!$H$1</c:f>
+              <c:f>recursos!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1217,9 +1077,9 @@
           <c:marker/>
           <c:cat>
             <c:strRef>
-              <c:f>'recursos-ciclo-1'!$A$2:$A$5</c:f>
+              <c:f>recursos!$A$2:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1231,38 +1091,86 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'recursos-ciclo-1'!$H$2:$H$5</c:f>
+              <c:f>recursos!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.00903614457831325</c:v>
+                  <c:v>0.11377245508982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0331325301204819</c:v>
+                  <c:v>0.11377245508982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0963855421686747</c:v>
+                  <c:v>0.11377245508982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.108433734939759</c:v>
+                  <c:v>0.11377245508982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11377245508982</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11377245508982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11377245508982</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11377245508982</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11377245508982</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11377245508982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11377245508982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11377245508982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="21470182"/>
-        <c:axId val="50872393"/>
+        <c:axId val="77806698"/>
+        <c:axId val="41858882"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="21470182"/>
+        <c:axId val="77806698"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,7 +1178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50872393"/>
+        <c:crossAx val="41858882"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1284,7 +1192,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50872393"/>
+        <c:axId val="41858882"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,7 +1209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="21470182"/>
+        <c:crossAx val="77806698"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -1338,15 +1246,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>305280</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:colOff>311760</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>207000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:colOff>213120</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1354,8 +1262,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="305280" y="2073240"/>
-        <a:ext cx="8751600" cy="3285360"/>
+        <a:off x="311760" y="3059640"/>
+        <a:ext cx="8796960" cy="3067560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1373,15 +1281,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>545760</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:colOff>288360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>447480</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:colOff>189720</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1389,8 +1297,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="545760" y="1500840"/>
-        <a:ext cx="8751600" cy="3297600"/>
+        <a:off x="288360" y="1925280"/>
+        <a:ext cx="8796960" cy="3067920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1415,9 +1323,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.9490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="2" width="12.1098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.0745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="2" width="12.1725490196078"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -1426,7 +1334,7 @@
       </c>
       <c r="B1" s="2" t="n">
         <f aca="false">SUM(_che)</f>
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1447,20 +1355,20 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="C1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I13" activeCellId="0" pane="topLeft" sqref="I13"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A8" activeCellId="0" pane="topLeft" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="47.6980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.17254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="40.8627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="17.6823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.36078431372549"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="2" width="12.1098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="3.74509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="47.9333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.2078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="41.0705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="17.7725490196078"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="17.8"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.4078431372549"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="17.8"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="2" width="12.1725490196078"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -1526,7 +1434,7 @@
       </c>
       <c r="G3" s="14" t="n">
         <f aca="false">F3/_vtdhe</f>
-        <v>0.00301204819277108</v>
+        <v>0.0029940119760479</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>1</v>
@@ -1555,7 +1463,7 @@
       </c>
       <c r="G4" s="14" t="n">
         <f aca="false">F4/_vtdhe</f>
-        <v>0.00301204819277108</v>
+        <v>0.0029940119760479</v>
       </c>
       <c r="H4" s="13" t="n">
         <v>1</v>
@@ -1584,7 +1492,7 @@
       </c>
       <c r="G5" s="14" t="n">
         <f aca="false">F5/_vtdhe</f>
-        <v>0.00301204819277108</v>
+        <v>0.0029940119760479</v>
       </c>
       <c r="H5" s="13" t="n">
         <v>1</v>
@@ -1611,7 +1519,7 @@
       </c>
       <c r="G6" s="14" t="n">
         <f aca="false">F6/_vtdhe</f>
-        <v>0.0602409638554217</v>
+        <v>0.0598802395209581</v>
       </c>
       <c r="H6" s="13" t="n">
         <v>1</v>
@@ -1637,7 +1545,7 @@
       </c>
       <c r="G7" s="14" t="n">
         <f aca="false">F7/_vtdhe</f>
-        <v>0.0120481927710843</v>
+        <v>0.0119760479041916</v>
       </c>
       <c r="H7" s="13" t="n">
         <v>1</v>
@@ -1662,11 +1570,11 @@
         <v>24</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="14" t="n">
         <f aca="false">F8/_vtdhe</f>
-        <v>0.0120481927710843</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="H8" s="13" t="n">
         <v>1</v>
@@ -1697,7 +1605,7 @@
       </c>
       <c r="G9" s="14" t="n">
         <f aca="false">F9/_vtdhe</f>
-        <v>0.0602409638554217</v>
+        <v>0.0598802395209581</v>
       </c>
       <c r="H9" s="13" t="n">
         <v>1</v>
@@ -1728,7 +1636,7 @@
       </c>
       <c r="G10" s="14" t="n">
         <f aca="false">F10/_vtdhe</f>
-        <v>0.0180722891566265</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="H10" s="13" t="n">
         <v>1</v>
@@ -1754,7 +1662,7 @@
       </c>
       <c r="G11" s="14" t="n">
         <f aca="false">F11/_vtdhe</f>
-        <v>0.00301204819277108</v>
+        <v>0.0029940119760479</v>
       </c>
       <c r="H11" s="13" t="n">
         <v>1</v>
@@ -1785,7 +1693,7 @@
       </c>
       <c r="G12" s="14" t="n">
         <f aca="false">F12/_vtdhe</f>
-        <v>0.0120481927710843</v>
+        <v>0.0119760479041916</v>
       </c>
       <c r="H12" s="13" t="n">
         <v>1</v>
@@ -1816,7 +1724,7 @@
       </c>
       <c r="G13" s="14" t="n">
         <f aca="false">F13/_vtdhe</f>
-        <v>0.0602409638554217</v>
+        <v>0.0598802395209581</v>
       </c>
       <c r="H13" s="13" t="n">
         <v>2</v>
@@ -1840,7 +1748,7 @@
       </c>
       <c r="G14" s="14" t="n">
         <f aca="false">F14/_vtdhe</f>
-        <v>0.0602409638554217</v>
+        <v>0.0598802395209581</v>
       </c>
       <c r="H14" s="13" t="n">
         <v>2</v>
@@ -1866,7 +1774,7 @@
       </c>
       <c r="G15" s="14" t="n">
         <f aca="false">F15/_vtdhe</f>
-        <v>0.0180722891566265</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="H15" s="13" t="n">
         <v>2</v>
@@ -1892,7 +1800,7 @@
       </c>
       <c r="G16" s="14" t="n">
         <f aca="false">F16/_vtdhe</f>
-        <v>0.00301204819277108</v>
+        <v>0.0029940119760479</v>
       </c>
       <c r="H16" s="13" t="n">
         <v>2</v>
@@ -1918,7 +1826,7 @@
       </c>
       <c r="G17" s="14" t="n">
         <f aca="false">F17/_vtdhe</f>
-        <v>0.0120481927710843</v>
+        <v>0.0119760479041916</v>
       </c>
       <c r="H17" s="13" t="n">
         <v>2</v>
@@ -1944,7 +1852,7 @@
       </c>
       <c r="G18" s="14" t="n">
         <f aca="false">F18/_vtdhe</f>
-        <v>0.036144578313253</v>
+        <v>0.0359281437125748</v>
       </c>
       <c r="H18" s="13" t="n">
         <v>3</v>
@@ -1970,7 +1878,7 @@
       </c>
       <c r="G19" s="14" t="n">
         <f aca="false">F19/_vtdhe</f>
-        <v>0.0180722891566265</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="H19" s="13" t="n">
         <v>3</v>
@@ -1996,7 +1904,7 @@
       </c>
       <c r="G20" s="14" t="n">
         <f aca="false">F20/_vtdhe</f>
-        <v>0.00301204819277108</v>
+        <v>0.0029940119760479</v>
       </c>
       <c r="H20" s="13" t="n">
         <v>3</v>
@@ -2022,7 +1930,7 @@
       </c>
       <c r="G21" s="14" t="n">
         <f aca="false">F21/_vtdhe</f>
-        <v>0.0120481927710843</v>
+        <v>0.0119760479041916</v>
       </c>
       <c r="H21" s="16" t="n">
         <v>3</v>
@@ -2046,7 +1954,7 @@
       </c>
       <c r="G22" s="14" t="n">
         <f aca="false">F22/_vtdhe</f>
-        <v>0.0150602409638554</v>
+        <v>0.0149700598802395</v>
       </c>
       <c r="H22" s="13" t="n">
         <v>4</v>
@@ -2072,7 +1980,7 @@
       </c>
       <c r="G23" s="14" t="n">
         <f aca="false">F23/_vtdhe</f>
-        <v>0.0180722891566265</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="H23" s="13" t="n">
         <v>4</v>
@@ -2098,7 +2006,7 @@
       </c>
       <c r="G24" s="14" t="n">
         <f aca="false">F24/_vtdhe</f>
-        <v>0.0301204819277108</v>
+        <v>0.029940119760479</v>
       </c>
       <c r="H24" s="13" t="n">
         <v>4</v>
@@ -2124,7 +2032,7 @@
       </c>
       <c r="G25" s="14" t="n">
         <f aca="false">F25/_vtdhe</f>
-        <v>0.0602409638554217</v>
+        <v>0.0598802395209581</v>
       </c>
       <c r="H25" s="13" t="n">
         <v>4</v>
@@ -2150,7 +2058,7 @@
       </c>
       <c r="G26" s="14" t="n">
         <f aca="false">F26/_vtdhe</f>
-        <v>0.0301204819277108</v>
+        <v>0.029940119760479</v>
       </c>
       <c r="H26" s="13" t="n">
         <v>4</v>
@@ -2176,7 +2084,7 @@
       </c>
       <c r="G27" s="14" t="n">
         <f aca="false">F27/_vtdhe</f>
-        <v>0.0180722891566265</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="H27" s="13" t="n">
         <v>4</v>
@@ -2202,7 +2110,7 @@
       </c>
       <c r="G28" s="14" t="n">
         <f aca="false">F28/_vtdhe</f>
-        <v>0.0180722891566265</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="H28" s="13" t="n">
         <v>4</v>
@@ -2228,7 +2136,7 @@
       </c>
       <c r="G29" s="14" t="n">
         <f aca="false">F29/_vtdhe</f>
-        <v>0.00301204819277108</v>
+        <v>0.0029940119760479</v>
       </c>
       <c r="H29" s="13" t="n">
         <v>4</v>
@@ -2254,7 +2162,7 @@
       </c>
       <c r="G30" s="14" t="n">
         <f aca="false">F30/_vtdhe</f>
-        <v>0.0120481927710843</v>
+        <v>0.0119760479041916</v>
       </c>
       <c r="H30" s="13" t="n">
         <v>4</v>
@@ -2280,7 +2188,7 @@
       </c>
       <c r="G31" s="14" t="n">
         <f aca="false">F31/_vtdhe</f>
-        <v>0.0602409638554217</v>
+        <v>0.0598802395209581</v>
       </c>
       <c r="H31" s="13" t="n">
         <v>5</v>
@@ -2306,7 +2214,7 @@
       </c>
       <c r="G32" s="14" t="n">
         <f aca="false">F32/_vtdhe</f>
-        <v>0.0180722891566265</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="H32" s="13" t="n">
         <v>5</v>
@@ -2332,7 +2240,7 @@
       </c>
       <c r="G33" s="14" t="n">
         <f aca="false">F33/_vtdhe</f>
-        <v>0.00301204819277108</v>
+        <v>0.0029940119760479</v>
       </c>
       <c r="H33" s="13" t="n">
         <v>5</v>
@@ -2358,7 +2266,7 @@
       </c>
       <c r="G34" s="14" t="n">
         <f aca="false">F34/_vtdhe</f>
-        <v>0.0120481927710843</v>
+        <v>0.0119760479041916</v>
       </c>
       <c r="H34" s="13" t="n">
         <v>5</v>
@@ -2384,7 +2292,7 @@
       </c>
       <c r="G35" s="14" t="n">
         <f aca="false">F35/_vtdhe</f>
-        <v>0.036144578313253</v>
+        <v>0.0359281437125748</v>
       </c>
       <c r="H35" s="13" t="n">
         <v>5</v>
@@ -2410,7 +2318,7 @@
       </c>
       <c r="G36" s="14" t="n">
         <f aca="false">F36/_vtdhe</f>
-        <v>0.0180722891566265</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="H36" s="13" t="n">
         <v>5</v>
@@ -2434,7 +2342,7 @@
       </c>
       <c r="G37" s="14" t="n">
         <f aca="false">F37/_vtdhe</f>
-        <v>0.0602409638554217</v>
+        <v>0.0598802395209581</v>
       </c>
       <c r="H37" s="13" t="n">
         <v>5</v>
@@ -2460,7 +2368,7 @@
       </c>
       <c r="G38" s="14" t="n">
         <f aca="false">F38/_vtdhe</f>
-        <v>0.00301204819277108</v>
+        <v>0.0029940119760479</v>
       </c>
       <c r="H38" s="13" t="n">
         <v>5</v>
@@ -2486,7 +2394,7 @@
       </c>
       <c r="G39" s="14" t="n">
         <f aca="false">F39/_vtdhe</f>
-        <v>0.0120481927710843</v>
+        <v>0.0119760479041916</v>
       </c>
       <c r="H39" s="13" t="n">
         <v>5</v>
@@ -2510,7 +2418,7 @@
       </c>
       <c r="G40" s="14" t="n">
         <f aca="false">F40/_vtdhe</f>
-        <v>0.0180722891566265</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="H40" s="13" t="n">
         <v>6</v>
@@ -2536,7 +2444,7 @@
       </c>
       <c r="G41" s="14" t="n">
         <f aca="false">F41/_vtdhe</f>
-        <v>0.0180722891566265</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="H41" s="13" t="n">
         <v>6</v>
@@ -2562,7 +2470,7 @@
       </c>
       <c r="G42" s="14" t="n">
         <f aca="false">F42/_vtdhe</f>
-        <v>0.0301204819277108</v>
+        <v>0.029940119760479</v>
       </c>
       <c r="H42" s="13" t="n">
         <v>6</v>
@@ -2584,7 +2492,7 @@
       </c>
       <c r="G43" s="14" t="n">
         <f aca="false">F43/_vtdhe</f>
-        <v>0.036144578313253</v>
+        <v>0.0359281437125748</v>
       </c>
       <c r="H43" s="13" t="n">
         <v>6</v>
@@ -2608,7 +2516,7 @@
       </c>
       <c r="G44" s="14" t="n">
         <f aca="false">F44/_vtdhe</f>
-        <v>0.0602409638554217</v>
+        <v>0.0598802395209581</v>
       </c>
       <c r="H44" s="13" t="n">
         <v>6</v>
@@ -2638,16 +2546,16 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B6" activeCellId="0" pane="topLeft" sqref="B6"/>
+      <selection activeCell="B5" activeCellId="0" pane="topLeft" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="12.1098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="16.243137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.8117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.5921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="5" width="20.4313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="2" width="12.1098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="12.1725490196078"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="16.3254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.9019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.6823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="5" width="20.5411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="2" width="12.1725490196078"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
@@ -2689,11 +2597,11 @@
       </c>
       <c r="D2" s="19" t="n">
         <f aca="false">SUMIF(_cs, A2, _che)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="21" t="n">
         <f aca="false">SUMIF(_cs, A2, _cpidge)</f>
-        <v>0.186746987951807</v>
+        <v>0.191616766467066</v>
       </c>
       <c r="F2" s="21" t="inlineStr">
         <f aca="false">E2</f>
@@ -2703,7 +2611,7 @@
       </c>
       <c r="G2" s="21" t="n">
         <f aca="false">SUMIF(_cs, A2, _cpidgo)</f>
-        <v>0.108433734939759</v>
+        <v>0.11377245508982</v>
       </c>
       <c r="H2" s="21" t="inlineStr">
         <f aca="false">G2</f>
@@ -2732,7 +2640,7 @@
       </c>
       <c r="E3" s="21" t="n">
         <f aca="false">SUMIF(_cs, A3, _cpidge)</f>
-        <v>0.153614457831325</v>
+        <v>0.152694610778443</v>
       </c>
       <c r="F3" s="21" t="inlineStr">
         <f aca="false">E3+F2</f>
@@ -2771,7 +2679,7 @@
       </c>
       <c r="E4" s="21" t="n">
         <f aca="false">SUMIF(_cs, A4, _cpidge)</f>
-        <v>0.0692771084337349</v>
+        <v>0.0688622754491018</v>
       </c>
       <c r="F4" s="21" t="inlineStr">
         <f aca="false">E4+F3</f>
@@ -2810,7 +2718,7 @@
       </c>
       <c r="E5" s="21" t="n">
         <f aca="false">SUMIF(_cs, A5, _cpidge)</f>
-        <v>0.204819277108434</v>
+        <v>0.203592814371257</v>
       </c>
       <c r="F5" s="21" t="inlineStr">
         <f aca="false">E5+F4</f>
@@ -2849,7 +2757,7 @@
       </c>
       <c r="E6" s="21" t="n">
         <f aca="false">SUMIF(_cs, A6, _cpidge)</f>
-        <v>0.22289156626506</v>
+        <v>0.221556886227545</v>
       </c>
       <c r="F6" s="21" t="inlineStr">
         <f aca="false">E6+F5</f>
@@ -2888,7 +2796,7 @@
       </c>
       <c r="E7" s="21" t="n">
         <f aca="false">SUMIF(_cs, A7, _cpidge)</f>
-        <v>0.162650602409639</v>
+        <v>0.161676646706587</v>
       </c>
       <c r="F7" s="21" t="inlineStr">
         <f aca="false">E7+F6</f>
@@ -3160,26 +3068,26 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="K1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="S12" activeCellId="0" pane="topLeft" sqref="S12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="J1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="Q5" activeCellId="0" pane="topLeft" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="47.6980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.17254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="40.8627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="12.1098039215686"/>
-    <col collapsed="false" hidden="false" max="11" min="7" style="2" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="17.6823529411765"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="9.36078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="17" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.2980392156863"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="12.1098039215686"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="17" width="17.7098039215686"/>
-    <col collapsed="false" hidden="false" max="1023" min="21" style="2" width="12.1098039215686"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="3.74509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="4" width="47.9333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.2078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="41.0705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="12.1725490196078"/>
+    <col collapsed="false" hidden="false" max="11" min="7" style="2" width="17.8"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="17.7725490196078"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="17.8"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="9.4078431372549"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="17" width="17.8"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="18.3882352941176"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="12.1725490196078"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="17" width="17.8"/>
+    <col collapsed="false" hidden="false" max="1023" min="21" style="2" width="12.1725490196078"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -3312,44 +3220,36 @@
         <v>1</v>
       </c>
       <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28" t="n">
+      <c r="H4" s="27"/>
+      <c r="I4" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29" t="n">
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27" t="n">
         <f aca="false">SUM(G4:K4)</f>
         <v>0.5</v>
       </c>
-      <c r="M4" s="30" t="n">
+      <c r="M4" s="28" t="n">
         <f aca="false">L4/_vtdhe</f>
-        <v>0.00301204819277108</v>
-      </c>
-      <c r="N4" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="31" t="n">
+        <v>0.0029940119760479</v>
+      </c>
+      <c r="N4" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="29" t="n">
         <v>41899</v>
       </c>
-      <c r="P4" s="32" t="n">
+      <c r="P4" s="29" t="n">
         <v>41899</v>
       </c>
-      <c r="Q4" s="33" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R4" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="34" t="n">
-        <v>41899</v>
-      </c>
-      <c r="T4" s="35" t="n">
-        <v>41899</v>
-      </c>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5" s="13">
-      <c r="A5" s="36" t="n">
+      <c r="A5" s="23" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -3360,49 +3260,39 @@
       <c r="E5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39" t="n">
+      <c r="F5" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="29" t="n">
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="27" t="n">
         <f aca="false">SUM(G5:K5)</f>
         <v>0.5</v>
       </c>
-      <c r="M5" s="30" t="n">
+      <c r="M5" s="28" t="n">
         <f aca="false">L5/_vtdhe</f>
-        <v>0.00301204819277108</v>
+        <v>0.0029940119760479</v>
       </c>
       <c r="N5" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="40" t="n">
+      <c r="O5" s="31" t="n">
         <v>41899</v>
       </c>
-      <c r="P5" s="35" t="n">
+      <c r="P5" s="29" t="n">
         <v>41899</v>
       </c>
-      <c r="Q5" s="41" t="n">
-        <f aca="false">40/60</f>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="R5" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="34" t="n">
-        <v>41899</v>
-      </c>
-      <c r="T5" s="35" t="n">
-        <v>41899</v>
-      </c>
+      <c r="Q5" s="16"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6" s="13">
-      <c r="A6" s="36" t="n">
+      <c r="A6" s="23" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -3413,49 +3303,39 @@
       <c r="E6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39" t="n">
+      <c r="F6" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="29" t="n">
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27" t="n">
         <f aca="false">SUM(G6:K6)</f>
         <v>0.5</v>
       </c>
-      <c r="M6" s="30" t="n">
+      <c r="M6" s="28" t="n">
         <f aca="false">L6/_vtdhe</f>
-        <v>0.00301204819277108</v>
+        <v>0.0029940119760479</v>
       </c>
       <c r="N6" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="O6" s="40" t="n">
+      <c r="O6" s="31" t="n">
         <v>41899</v>
       </c>
-      <c r="P6" s="35" t="n">
+      <c r="P6" s="29" t="n">
         <v>41899</v>
       </c>
-      <c r="Q6" s="41" t="n">
-        <f aca="false">25/60</f>
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R6" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="40" t="n">
-        <v>41899</v>
-      </c>
-      <c r="T6" s="35" t="n">
-        <v>41899</v>
-      </c>
+      <c r="Q6" s="16"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="29"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="7" s="13">
-      <c r="A7" s="36" t="n">
+      <c r="A7" s="23" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -3464,47 +3344,47 @@
       <c r="C7" s="12"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="37" t="n">
+      <c r="F7" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="G7" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" s="29" t="n">
+      <c r="G7" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="27" t="n">
         <f aca="false">SUM(G7:K7)</f>
         <v>10</v>
       </c>
-      <c r="M7" s="30" t="n">
+      <c r="M7" s="28" t="n">
         <f aca="false">L7/_vtdhe</f>
-        <v>0.0602409638554217</v>
+        <v>0.0598802395209581</v>
       </c>
       <c r="N7" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="40" t="n">
+      <c r="O7" s="31" t="n">
         <v>41900</v>
       </c>
-      <c r="P7" s="35" t="n">
+      <c r="P7" s="29" t="n">
         <v>41900</v>
       </c>
-      <c r="Q7" s="41"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="35"/>
+      <c r="Q7" s="16"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="29"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8" s="13">
-      <c r="A8" s="36" t="n">
+      <c r="A8" s="23" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -3517,51 +3397,41 @@
       <c r="E8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="29" t="n">
+      <c r="F8" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27" t="n">
         <f aca="false">SUM(G8:K8)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="30" t="n">
+      <c r="M8" s="28" t="n">
         <f aca="false">L8/_vtdhe</f>
-        <v>0.0120481927710843</v>
+        <v>0.0119760479041916</v>
       </c>
       <c r="N8" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="O8" s="40" t="n">
+      <c r="O8" s="31" t="n">
         <v>41901</v>
       </c>
-      <c r="P8" s="35" t="n">
+      <c r="P8" s="29" t="n">
         <v>41901</v>
       </c>
-      <c r="Q8" s="41" t="n">
-        <f aca="false">(35+35)/60</f>
-        <v>1.16666666666667</v>
-      </c>
-      <c r="R8" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" s="40" t="n">
-        <v>41905</v>
-      </c>
-      <c r="T8" s="35" t="n">
-        <v>41905</v>
-      </c>
+      <c r="Q8" s="16"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="29"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9" s="13">
-      <c r="A9" s="36" t="n">
+      <c r="A9" s="23" t="n">
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -3572,49 +3442,41 @@
       <c r="E9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="29" t="n">
+      <c r="F9" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27" t="n">
         <f aca="false">SUM(G9:K9)</f>
-        <v>2</v>
-      </c>
-      <c r="M9" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" s="28" t="n">
         <f aca="false">L9/_vtdhe</f>
-        <v>0.0120481927710843</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="N9" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="O9" s="40" t="n">
+      <c r="O9" s="31" t="n">
         <v>41902</v>
       </c>
-      <c r="P9" s="35" t="n">
+      <c r="P9" s="29" t="n">
         <v>41902</v>
       </c>
-      <c r="Q9" s="41" t="n">
-        <f aca="false">(45+72)/60</f>
-        <v>1.95</v>
-      </c>
-      <c r="R9" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" s="40" t="n">
-        <v>41910</v>
-      </c>
-      <c r="T9" s="35" t="n">
-        <v>41912</v>
-      </c>
+      <c r="Q9" s="16"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="29"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="10" s="13">
-      <c r="A10" s="36" t="n">
+      <c r="A10" s="23" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -3627,56 +3489,47 @@
       <c r="E10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="37" t="n">
+      <c r="F10" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="G10" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" s="29" t="n">
+      <c r="G10" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" s="27" t="n">
         <f aca="false">SUM(G10:K10)</f>
         <v>10</v>
       </c>
-      <c r="M10" s="30" t="n">
+      <c r="M10" s="28" t="n">
         <f aca="false">L10/_vtdhe</f>
-        <v>0.0602409638554217</v>
+        <v>0.0598802395209581</v>
       </c>
       <c r="N10" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="O10" s="40" t="n">
+      <c r="O10" s="31" t="n">
         <v>41902</v>
       </c>
-      <c r="P10" s="35" t="n">
+      <c r="P10" s="29" t="n">
         <v>41902</v>
       </c>
-      <c r="Q10" s="41" t="n">
-        <v>13</v>
-      </c>
-      <c r="R10" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" s="40" t="n">
-        <v>41917</v>
-      </c>
-      <c r="T10" s="35" t="n">
-        <v>41917</v>
-      </c>
+      <c r="Q10" s="16"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="29"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11" s="13">
-      <c r="A11" s="36" t="n">
+      <c r="A11" s="23" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -3689,43 +3542,43 @@
       <c r="E11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="37" t="n">
+      <c r="F11" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="29" t="n">
+      <c r="G11" s="27"/>
+      <c r="H11" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27" t="n">
         <f aca="false">SUM(G11:K11)</f>
         <v>3</v>
       </c>
-      <c r="M11" s="30" t="n">
+      <c r="M11" s="28" t="n">
         <f aca="false">L11/_vtdhe</f>
-        <v>0.0180722891566265</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="N11" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="O11" s="40" t="n">
+      <c r="O11" s="31" t="n">
         <v>41903</v>
       </c>
-      <c r="P11" s="35" t="n">
+      <c r="P11" s="29" t="n">
         <v>41903</v>
       </c>
-      <c r="Q11" s="41"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="35"/>
+      <c r="Q11" s="16"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="29"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12" s="13">
-      <c r="A12" s="36" t="n">
+      <c r="A12" s="23" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -3738,49 +3591,39 @@
       <c r="E12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39" t="n">
+      <c r="F12" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="29" t="n">
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="27" t="n">
         <f aca="false">SUM(G12:K12)</f>
         <v>0.5</v>
       </c>
-      <c r="M12" s="30" t="n">
+      <c r="M12" s="28" t="n">
         <f aca="false">L12/_vtdhe</f>
-        <v>0.00301204819277108</v>
+        <v>0.0029940119760479</v>
       </c>
       <c r="N12" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="O12" s="40" t="n">
+      <c r="O12" s="31" t="n">
         <v>41903</v>
       </c>
-      <c r="P12" s="35" t="n">
+      <c r="P12" s="29" t="n">
         <v>41903</v>
       </c>
-      <c r="Q12" s="41" t="n">
-        <f aca="false">23/60</f>
-        <v>0.383333333333333</v>
-      </c>
-      <c r="R12" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" s="40" t="n">
-        <v>41913</v>
-      </c>
-      <c r="T12" s="35" t="n">
-        <v>41913</v>
-      </c>
+      <c r="Q12" s="16"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="29"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13" s="13">
-      <c r="A13" s="36" t="n">
+      <c r="A13" s="23" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -3793,45 +3636,36 @@
       <c r="E13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" s="30" t="n">
+      <c r="F13" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" s="28" t="n">
         <f aca="false">L13/_vtdhe</f>
-        <v>0.0120481927710843</v>
+        <v>0.0119760479041916</v>
       </c>
       <c r="N13" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="O13" s="40" t="n">
+      <c r="O13" s="31" t="n">
         <v>41905</v>
       </c>
-      <c r="P13" s="35" t="n">
+      <c r="P13" s="29" t="n">
         <v>41905</v>
       </c>
-      <c r="Q13" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" s="40" t="n">
-        <v>41921</v>
-      </c>
-      <c r="T13" s="35" t="n">
-        <v>41921</v>
-      </c>
+      <c r="Q13" s="16"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="29"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="14" s="13">
-      <c r="A14" s="36" t="n">
+      <c r="A14" s="23" t="n">
         <v>11</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -3844,47 +3678,47 @@
       <c r="E14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="37" t="n">
+      <c r="F14" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" s="29" t="n">
+      <c r="G14" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" s="27" t="n">
         <f aca="false">SUM(G14:K14)</f>
         <v>10</v>
       </c>
-      <c r="M14" s="30" t="n">
+      <c r="M14" s="28" t="n">
         <f aca="false">L14/_vtdhe</f>
-        <v>0.0602409638554217</v>
+        <v>0.0598802395209581</v>
       </c>
       <c r="N14" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="O14" s="40" t="n">
+      <c r="O14" s="31" t="n">
         <v>41906</v>
       </c>
-      <c r="P14" s="35" t="n">
+      <c r="P14" s="29" t="n">
         <v>41906</v>
       </c>
-      <c r="Q14" s="41"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="35"/>
+      <c r="Q14" s="16"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="29"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="15" s="13">
-      <c r="A15" s="36" t="n">
+      <c r="A15" s="23" t="n">
         <v>12</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -3895,47 +3729,47 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="37" t="n">
+      <c r="F15" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="G15" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" s="29" t="n">
+      <c r="G15" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="27" t="n">
         <f aca="false">SUM(G15:K15)</f>
         <v>10</v>
       </c>
-      <c r="M15" s="30" t="n">
+      <c r="M15" s="28" t="n">
         <f aca="false">L15/_vtdhe</f>
-        <v>0.0602409638554217</v>
+        <v>0.0598802395209581</v>
       </c>
       <c r="N15" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="O15" s="40" t="n">
+      <c r="O15" s="31" t="n">
         <v>41907</v>
       </c>
-      <c r="P15" s="35" t="n">
+      <c r="P15" s="29" t="n">
         <v>41907</v>
       </c>
-      <c r="Q15" s="41"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="35"/>
+      <c r="Q15" s="16"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="29"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="16" s="13">
-      <c r="A16" s="36" t="n">
+      <c r="A16" s="23" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -3948,43 +3782,43 @@
       <c r="E16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="37" t="n">
+      <c r="F16" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="29" t="n">
+      <c r="G16" s="27"/>
+      <c r="H16" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="27" t="n">
         <f aca="false">SUM(G16:K16)</f>
         <v>3</v>
       </c>
-      <c r="M16" s="30" t="n">
+      <c r="M16" s="28" t="n">
         <f aca="false">L16/_vtdhe</f>
-        <v>0.0180722891566265</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="N16" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="O16" s="40" t="n">
+      <c r="O16" s="31" t="n">
         <v>41908</v>
       </c>
-      <c r="P16" s="35" t="n">
+      <c r="P16" s="29" t="n">
         <v>41908</v>
       </c>
-      <c r="Q16" s="41"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="35"/>
+      <c r="Q16" s="16"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="29"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="17" s="13">
-      <c r="A17" s="36" t="n">
+      <c r="A17" s="23" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -3997,39 +3831,39 @@
       <c r="E17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39" t="n">
+      <c r="F17" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="29" t="n">
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="27" t="n">
         <f aca="false">SUM(G17:K17)</f>
         <v>0.5</v>
       </c>
-      <c r="M17" s="30" t="n">
+      <c r="M17" s="28" t="n">
         <f aca="false">L17/_vtdhe</f>
-        <v>0.00301204819277108</v>
+        <v>0.0029940119760479</v>
       </c>
       <c r="N17" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="O17" s="40" t="n">
+      <c r="O17" s="31" t="n">
         <v>41910</v>
       </c>
-      <c r="P17" s="35" t="n">
+      <c r="P17" s="29" t="n">
         <v>41910</v>
       </c>
-      <c r="Q17" s="41"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="35"/>
+      <c r="Q17" s="16"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="29"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18" s="13">
-      <c r="A18" s="36" t="n">
+      <c r="A18" s="23" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -4042,36 +3876,36 @@
       <c r="E18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="M18" s="30" t="n">
+      <c r="F18" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" s="28" t="n">
         <f aca="false">L18/_vtdhe</f>
-        <v>0.0120481927710843</v>
+        <v>0.0119760479041916</v>
       </c>
       <c r="N18" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="O18" s="40" t="n">
+      <c r="O18" s="31" t="n">
         <v>41912</v>
       </c>
-      <c r="P18" s="35" t="n">
+      <c r="P18" s="29" t="n">
         <v>41912</v>
       </c>
-      <c r="Q18" s="41"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="35"/>
+      <c r="Q18" s="16"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="29"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="19" s="13">
-      <c r="A19" s="36" t="n">
+      <c r="A19" s="23" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -4084,43 +3918,43 @@
       <c r="E19" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="37" t="n">
+      <c r="F19" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="29" t="n">
+      <c r="G19" s="27"/>
+      <c r="H19" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="27" t="n">
         <f aca="false">SUM(G19:K19)</f>
         <v>3</v>
       </c>
-      <c r="M19" s="30" t="n">
+      <c r="M19" s="28" t="n">
         <f aca="false">L19/_vtdhe</f>
-        <v>0.0180722891566265</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="N19" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="O19" s="40" t="n">
+      <c r="O19" s="31" t="n">
         <v>41913</v>
       </c>
-      <c r="P19" s="35" t="n">
+      <c r="P19" s="29" t="n">
         <v>41913</v>
       </c>
-      <c r="Q19" s="41"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="35"/>
+      <c r="Q19" s="16"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="29"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20" s="13">
-      <c r="A20" s="36" t="n">
+      <c r="A20" s="23" t="n">
         <v>17</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -4133,43 +3967,43 @@
       <c r="E20" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="37" t="n">
+      <c r="F20" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="G20" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="29" t="n">
+      <c r="G20" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27" t="n">
         <f aca="false">SUM(G20:K20)</f>
         <v>3</v>
       </c>
-      <c r="M20" s="30" t="n">
+      <c r="M20" s="28" t="n">
         <f aca="false">L20/_vtdhe</f>
-        <v>0.0180722891566265</v>
+        <v>0.0179640718562874</v>
       </c>
       <c r="N20" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="O20" s="40" t="n">
+      <c r="O20" s="31" t="n">
         <v>41913</v>
       </c>
-      <c r="P20" s="35" t="n">
+      <c r="P20" s="29" t="n">
         <v>41913</v>
       </c>
-      <c r="Q20" s="41"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="35"/>
+      <c r="Q20" s="16"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="29"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="21" s="13">
-      <c r="A21" s="36" t="n">
+      <c r="A21" s="23" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -4182,79 +4016,79 @@
       <c r="E21" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39" t="n">
+      <c r="F21" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="29" t="n">
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27" t="n">
         <f aca="false">SUM(G21:K21)</f>
         <v>0.5</v>
       </c>
-      <c r="M21" s="30" t="n">
+      <c r="M21" s="28" t="n">
         <f aca="false">L21/_vtdhe</f>
-        <v>0.00301204819277108</v>
+        <v>0.0029940119760479</v>
       </c>
       <c r="N21" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="O21" s="40" t="n">
+      <c r="O21" s="31" t="n">
         <v>41913</v>
       </c>
-      <c r="P21" s="35" t="n">
+      <c r="P21" s="29" t="n">
         <v>41913</v>
       </c>
-      <c r="Q21" s="41"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="35"/>
+      <c r="Q21" s="16"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="29"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22" s="13">
-      <c r="A22" s="42" t="n">
+      <c r="A22" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="45" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47" t="n">
-        <v>2</v>
-      </c>
-      <c r="M22" s="48" t="n">
+      <c r="F22" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" s="28" t="n">
         <f aca="false">L22/_vtdhe</f>
-        <v>0.0120481927710843</v>
-      </c>
-      <c r="N22" s="49" t="n">
+        <v>0.0119760479041916</v>
+      </c>
+      <c r="N22" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="O22" s="50" t="n">
+      <c r="O22" s="29" t="n">
         <v>41915</v>
       </c>
-      <c r="P22" s="51" t="n">
+      <c r="P22" s="29" t="n">
         <v>41915</v>
       </c>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="51"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4280,17 +4114,17 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H12" activeCellId="0" pane="topLeft" sqref="H12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H10" activeCellId="0" pane="topLeft" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="12.1098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="16.243137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.8117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.5921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="5" width="20.4313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="2" width="12.1098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="12.1725490196078"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="16.3254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.9019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.6823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="5" width="20.5411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="2" width="12.1725490196078"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
@@ -4332,11 +4166,11 @@
       </c>
       <c r="D2" s="19" t="n">
         <f aca="false">SUMIF(_cs, A2, _che)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="21" t="n">
         <f aca="false">SUMIF(_cs, A2, _cpidge)</f>
-        <v>0.186746987951807</v>
+        <v>0.191616766467066</v>
       </c>
       <c r="F2" s="21" t="inlineStr">
         <f aca="false">E2</f>
@@ -4346,7 +4180,7 @@
       </c>
       <c r="G2" s="21" t="n">
         <f aca="false">SUMIF(_cc1s, A2, _cc1pidge)</f>
-        <v>0.00903614457831325</v>
+        <v>0</v>
       </c>
       <c r="H2" s="21" t="inlineStr">
         <f aca="false">G2</f>
@@ -4375,7 +4209,7 @@
       </c>
       <c r="E3" s="21" t="n">
         <f aca="false">SUMIF(_cs, A3, _cpidge)</f>
-        <v>0.153614457831325</v>
+        <v>0.152694610778443</v>
       </c>
       <c r="F3" s="21" t="inlineStr">
         <f aca="false">E3+F2</f>
@@ -4385,7 +4219,7 @@
       </c>
       <c r="G3" s="21" t="n">
         <f aca="false">SUMIF(_cc1s, A3, _cc1pidge)</f>
-        <v>0.0240963855421687</v>
+        <v>0</v>
       </c>
       <c r="H3" s="21" t="inlineStr">
         <f aca="false">G3+H2</f>
@@ -4414,7 +4248,7 @@
       </c>
       <c r="E4" s="21" t="n">
         <f aca="false">SUMIF(_cs, A4, _cpidge)</f>
-        <v>0.0692771084337349</v>
+        <v>0.0688622754491018</v>
       </c>
       <c r="F4" s="21" t="inlineStr">
         <f aca="false">E4+F3</f>
@@ -4424,7 +4258,7 @@
       </c>
       <c r="G4" s="21" t="n">
         <f aca="false">SUMIF(_cc1s, A4, _cc1pidge)</f>
-        <v>0.0632530120481928</v>
+        <v>0</v>
       </c>
       <c r="H4" s="21" t="inlineStr">
         <f aca="false">G4+H3</f>
@@ -4453,7 +4287,7 @@
       </c>
       <c r="E5" s="21" t="n">
         <f aca="false">SUMIF(_cs, A5, _cpidge)</f>
-        <v>0.204819277108434</v>
+        <v>0.203592814371257</v>
       </c>
       <c r="F5" s="21" t="inlineStr">
         <f aca="false">E5+F4</f>
@@ -4463,7 +4297,7 @@
       </c>
       <c r="G5" s="21" t="n">
         <f aca="false">SUMIF(_cc1s, A5, _cc1pidge)</f>
-        <v>0.0120481927710843</v>
+        <v>0</v>
       </c>
       <c r="H5" s="21" t="inlineStr">
         <f aca="false">G5+H4</f>

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="439" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="439" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="tareas" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
   <si>
     <t>Id</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Semana</t>
   </si>
   <si>
-    <t>Experimiento GitHub #1.</t>
+    <t>Ver video tutorial de GitHub.</t>
   </si>
   <si>
     <t>Realizar el lanzamiento del ciclo #1 de TSPi.</t>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>Porcentaje individual de ganacias obtenidas</t>
+  </si>
+  <si>
+    <t>Horas Trabajadas</t>
+  </si>
+  <si>
+    <t>Totales</t>
   </si>
 </sst>
 </file>
@@ -231,7 +237,7 @@
     <numFmt formatCode="@" numFmtId="166"/>
     <numFmt formatCode="MM/DD/YYYY" numFmtId="167"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -272,6 +278,11 @@
       <family val="1"/>
       <color rgb="00000000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="13"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -340,7 +351,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
@@ -426,6 +437,11 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -498,10 +514,28 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Ganacias Estimadas vs Ganacias Obtenidas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -511,7 +545,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'recursos-ciclo1'!$F$1</c:f>
+              <c:f>'recursos-ciclo1'!$F$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -556,13 +590,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.217522658610272</c:v>
+                  <c:v>0.351219512195122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.419939577039275</c:v>
+                  <c:v>0.678048780487805</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.619335347432024</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,7 +607,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'recursos-ciclo1'!$H$1</c:f>
+              <c:f>'recursos-ciclo1'!$I$1:$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -613,29 +647,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'recursos-ciclo1'!$H$2:$H$4</c:f>
+              <c:f>'recursos-ciclo1'!$I$2:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0936555891238671</c:v>
+                  <c:v>0.151219512195122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.175226586102719</c:v>
+                  <c:v>0.282926829268293</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.392749244712991</c:v>
+                  <c:v>0.634146341463415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82622093"/>
-        <c:axId val="85619649"/>
+        <c:axId val="35292534"/>
+        <c:axId val="74360889"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82622093"/>
+        <c:axId val="35292534"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -643,7 +677,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85619649"/>
+        <c:crossAx val="74360889"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -657,7 +691,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85619649"/>
+        <c:axId val="74360889"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,8 +708,440 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82622093"/>
+        <c:crossAx val="35292534"/>
         <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Horas Estimadas vs Horas Trabajadas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'recursos-ciclo1'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'recursos-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'recursos-ciclo1'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'recursos-ciclo1'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'recursos-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'recursos-ciclo1'!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.5166666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.1166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.8833333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="96533322"/>
+        <c:axId val="19260892"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="96533322"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="19260892"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="19260892"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96533322"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Ganancias Estimadas vs Ganancias Obtenidas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'recursos-ciclo1'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje Individual de Ganacias Estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'recursos-ciclo1'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'recursos-ciclo1'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.351219512195122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.326829268292683</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.321951219512195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'recursos-ciclo1'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje Individual de Ganancias Obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'recursos-ciclo1'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'recursos-ciclo1'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.151219512195122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.131707317073171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.351219512195122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="92886555"/>
+        <c:axId val="96787227"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="92886555"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96787227"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96787227"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92886555"/>
+        <c:crosses val="autoZero"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -711,15 +1177,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>781920</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:colOff>31680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1036800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:colOff>282960</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -727,12 +1193,72 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="781920" y="1807560"/>
-        <a:ext cx="7894440" cy="2621160"/>
+        <a:off x="31680" y="1517040"/>
+        <a:ext cx="7930080" cy="2794320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>391680</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1445400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>65880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="391680" y="4835160"/>
+        <a:ext cx="5762160" cy="3241800"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647280</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>87480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>458280</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>11160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6840720" y="4780440"/>
+        <a:ext cx="5752080" cy="3241800"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -748,19 +1274,19 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E3" activeCellId="0" pane="topLeft" sqref="E3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="C1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F1" activeCellId="0" pane="topLeft" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="39.8666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="39.8666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.2549019607843"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="21.2549019607843"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="4" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="40.0666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="40.0666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.3607843137255"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="21.3607843137255"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="4" width="11.8666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -1657,16 +2183,16 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C26" activeCellId="0" pane="topLeft" sqref="C26"/>
+      <selection activeCell="D6" activeCellId="0" pane="topLeft" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="12.4823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="16.7333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="19.3725490196078"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="18.1333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="23" width="21.0470588235294"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="21" width="12.4823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="12.5450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="16.8235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="19.4705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="18.2235294117647"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="23" width="21.1529411764706"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="21" width="12.5450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
@@ -1707,22 +2233,12 @@
         <v>35</v>
       </c>
       <c r="D2" s="25" t="n">
-        <f aca="false">SUMIF(tareas!H3:H45,A2,tareas!F3:F45)</f>
+        <f aca="false">'recursos-ciclo1'!D2</f>
         <v>36</v>
       </c>
-      <c r="E2" s="27" t="inlineStr">
-        <f aca="false">'recursos-ciclo1'!E2</f>
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="E2" s="27"/>
       <c r="F2" s="27"/>
-      <c r="G2" s="27" t="inlineStr">
-        <f aca="false">'recursos-ciclo1'!G2</f>
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
@@ -1740,22 +2256,12 @@
         <v>35</v>
       </c>
       <c r="D3" s="25" t="n">
-        <f aca="false">SUMIF(tareas!H3:H45,A3,tareas!F3:F45)</f>
+        <f aca="false">'recursos-ciclo1'!D3</f>
         <v>33.5</v>
       </c>
-      <c r="E3" s="27" t="inlineStr">
-        <f aca="false">'recursos-ciclo1'!E3</f>
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="E3" s="27"/>
       <c r="F3" s="27"/>
-      <c r="G3" s="27" t="inlineStr">
-        <f aca="false">'recursos-ciclo1'!G3</f>
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="G3" s="27"/>
       <c r="H3" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
@@ -1773,22 +2279,12 @@
         <v>35</v>
       </c>
       <c r="D4" s="25" t="n">
-        <f aca="false">SUMIF(tareas!H3:H45,A4,tareas!F3:F45)</f>
+        <f aca="false">'recursos-ciclo1'!D4</f>
         <v>33</v>
       </c>
-      <c r="E4" s="27" t="inlineStr">
-        <f aca="false">'recursos-ciclo1'!E4</f>
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="E4" s="27"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="27" t="inlineStr">
-        <f aca="false">'recursos-ciclo1'!G4</f>
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="G4" s="27"/>
       <c r="H4" s="27"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
@@ -1805,10 +2301,7 @@
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D5" s="25" t="n">
-        <f aca="false">SUMIF(tareas!H3:H45,A5,tareas!F3:F45)</f>
-        <v>37.5</v>
-      </c>
+      <c r="D5" s="25"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
@@ -1828,10 +2321,7 @@
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D6" s="25" t="n">
-        <f aca="false">SUMIF(tareas!H3:H45,A6,tareas!F3:F45)</f>
-        <v>25.5</v>
-      </c>
+      <c r="D6" s="25"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
@@ -1975,26 +2465,26 @@
   </sheetPr>
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="C1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E4" activeCellId="0" pane="topLeft" sqref="E4"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="O1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="R1" activeCellId="0" pane="topLeft" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="39.8666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="39.8666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.2549019607843"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="21.2549019607843"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="4" width="2.66666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="10" style="1" width="19.9333333333333"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="2.66666666666667"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="21.2549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="4" width="2.66666666666667"/>
-    <col collapsed="false" hidden="false" max="24" min="20" style="4" width="19.9333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="4" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="40.0666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="40.0666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.3607843137255"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="21.3607843137255"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="4" width="2.68627450980392"/>
+    <col collapsed="false" hidden="false" max="14" min="10" style="1" width="20.0313725490196"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="2.68627450980392"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="21.3607843137255"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="4" width="2.68627450980392"/>
+    <col collapsed="false" hidden="false" max="24" min="20" style="4" width="20.0313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="4" width="11.8666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -2033,8 +2523,8 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="28" t="n">
-        <f aca="false">tareas!F1</f>
-        <v>165.5</v>
+        <f aca="false">SUM(F4:F27)</f>
+        <v>102.5</v>
       </c>
       <c r="G2" s="9" t="inlineStr">
         <f aca="false">SUM(G4:G27)</f>
@@ -2175,7 +2665,7 @@
       </c>
       <c r="G4" s="9" t="n">
         <f aca="false">F4/F2</f>
-        <v>0.0453172205438066</v>
+        <v>0.0731707317073171</v>
       </c>
       <c r="H4" s="14" t="n">
         <v>1</v>
@@ -2197,10 +2687,12 @@
       </c>
       <c r="P4" s="1" t="n">
         <f aca="false">SUM(T4:X4)</f>
-        <v>4.46666666666666</v>
+        <v>4.46666666666667</v>
       </c>
       <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
+      <c r="R4" s="29" t="n">
+        <v>1</v>
+      </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="n">
@@ -2235,7 +2727,7 @@
       </c>
       <c r="G5" s="9" t="n">
         <f aca="false">F5/F2</f>
-        <v>0.0302114803625378</v>
+        <v>0.0487804878048781</v>
       </c>
       <c r="H5" s="14" t="n">
         <v>1</v>
@@ -2257,7 +2749,7 @@
       </c>
       <c r="P5" s="1" t="n">
         <f aca="false">SUM(T5:X5)</f>
-        <v>5.08333333333335</v>
+        <v>5.08333333333333</v>
       </c>
       <c r="Q5" s="3" t="inlineStr">
         <f aca="false">G5</f>
@@ -2305,7 +2797,7 @@
       </c>
       <c r="G6" s="9" t="n">
         <f aca="false">F6/F2</f>
-        <v>0.0302114803625378</v>
+        <v>0.0487804878048781</v>
       </c>
       <c r="H6" s="14" t="n">
         <v>1</v>
@@ -2375,7 +2867,7 @@
       </c>
       <c r="G7" s="9" t="n">
         <f aca="false">F7/F2</f>
-        <v>0.0120845921450151</v>
+        <v>0.0195121951219512</v>
       </c>
       <c r="H7" s="14" t="n">
         <v>1</v>
@@ -2421,7 +2913,7 @@
       </c>
       <c r="G8" s="9" t="n">
         <f aca="false">F8/F2</f>
-        <v>0.00302114803625378</v>
+        <v>0.00487804878048781</v>
       </c>
       <c r="H8" s="19" t="n">
         <v>1</v>
@@ -2471,7 +2963,7 @@
       </c>
       <c r="G9" s="9" t="n">
         <f aca="false">F9/F2</f>
-        <v>0.00302114803625378</v>
+        <v>0.00487804878048781</v>
       </c>
       <c r="H9" s="18" t="n">
         <v>1</v>
@@ -2521,7 +3013,7 @@
       </c>
       <c r="G10" s="9" t="n">
         <f aca="false">F10/F2</f>
-        <v>0.00302114803625378</v>
+        <v>0.00487804878048781</v>
       </c>
       <c r="H10" s="18" t="n">
         <v>1</v>
@@ -2571,7 +3063,7 @@
       </c>
       <c r="G11" s="9" t="n">
         <f aca="false">F11/F2</f>
-        <v>0.0120845921450151</v>
+        <v>0.0195121951219512</v>
       </c>
       <c r="H11" s="18" t="n">
         <v>1</v>
@@ -2622,7 +3114,7 @@
       </c>
       <c r="G12" s="9" t="n">
         <f aca="false">F12/F2</f>
-        <v>0.0181268882175227</v>
+        <v>0.0292682926829268</v>
       </c>
       <c r="H12" s="18" t="n">
         <v>1</v>
@@ -2677,7 +3169,7 @@
       </c>
       <c r="G13" s="9" t="n">
         <f aca="false">F13/F2</f>
-        <v>0.0604229607250755</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="H13" s="18" t="n">
         <v>1</v>
@@ -2702,7 +3194,9 @@
         <v>1.86666666666667</v>
       </c>
       <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
+      <c r="R13" s="30" t="n">
+        <v>1</v>
+      </c>
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
@@ -2725,7 +3219,7 @@
       </c>
       <c r="G14" s="3" t="n">
         <f aca="false">F14/F2</f>
-        <v>0.0906344410876133</v>
+        <v>0.146341463414634</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>2</v>
@@ -2750,7 +3244,9 @@
         <v>2.83333333333333</v>
       </c>
       <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
+      <c r="R14" s="29" t="n">
+        <v>2</v>
+      </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1" t="n">
         <f aca="false">80/60</f>
@@ -2779,7 +3275,7 @@
       </c>
       <c r="G15" s="9" t="n">
         <f aca="false">F15/F2</f>
-        <v>0.0604229607250755</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="H15" s="18" t="n">
         <v>2</v>
@@ -2849,7 +3345,7 @@
       </c>
       <c r="G16" s="9" t="n">
         <f aca="false">F16/F2</f>
-        <v>0.0120845921450151</v>
+        <v>0.0195121951219512</v>
       </c>
       <c r="H16" s="18" t="n">
         <v>2</v>
@@ -2913,7 +3409,7 @@
       </c>
       <c r="G17" s="9" t="n">
         <f aca="false">F17/F2</f>
-        <v>0.0120845921450151</v>
+        <v>0.0195121951219512</v>
       </c>
       <c r="H17" s="18" t="n">
         <v>2</v>
@@ -2950,7 +3446,7 @@
       </c>
       <c r="G18" s="9" t="n">
         <f aca="false">F18/F2</f>
-        <v>0.0241691842900302</v>
+        <v>0.0390243902439024</v>
       </c>
       <c r="H18" s="18" t="n">
         <v>2</v>
@@ -2989,7 +3485,7 @@
       </c>
       <c r="G19" s="9" t="n">
         <f aca="false">F19/F2</f>
-        <v>0.00302114803625378</v>
+        <v>0.00487804878048781</v>
       </c>
       <c r="H19" s="18" t="n">
         <v>2</v>
@@ -3038,7 +3534,7 @@
       </c>
       <c r="G20" s="9" t="n">
         <f aca="false">F20/F2</f>
-        <v>0.0120845921450151</v>
+        <v>0.0195121951219512</v>
       </c>
       <c r="H20" s="18" t="n">
         <v>3</v>
@@ -3089,7 +3585,7 @@
       </c>
       <c r="G21" s="9" t="n">
         <f aca="false">F21/F2</f>
-        <v>0.0604229607250755</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="H21" s="18" t="n">
         <v>3</v>
@@ -3111,7 +3607,7 @@
       </c>
       <c r="P21" s="1" t="n">
         <f aca="false">SUM(T21:X21)</f>
-        <v>8.16666666666665</v>
+        <v>8.16666666666667</v>
       </c>
       <c r="Q21" s="31" t="inlineStr">
         <f aca="false">G21</f>
@@ -3156,7 +3652,7 @@
       </c>
       <c r="G22" s="9" t="n">
         <f aca="false">F22/F2</f>
-        <v>0.0120845921450151</v>
+        <v>0.0195121951219512</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>3</v>
@@ -3211,7 +3707,7 @@
       </c>
       <c r="G23" s="9" t="n">
         <f aca="false">F23/F2</f>
-        <v>0.0181268882175227</v>
+        <v>0.0292682926829268</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>3</v>
@@ -3269,7 +3765,7 @@
       </c>
       <c r="G24" s="9" t="n">
         <f aca="false">F24/F2</f>
-        <v>0.0120845921450151</v>
+        <v>0.0195121951219512</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>3</v>
@@ -3318,7 +3814,7 @@
       </c>
       <c r="G25" s="9" t="n">
         <f aca="false">F25/F2</f>
-        <v>0.0241691842900302</v>
+        <v>0.0390243902439024</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>3</v>
@@ -3364,7 +3860,7 @@
       </c>
       <c r="G26" s="9" t="n">
         <f aca="false">F26/F2</f>
-        <v>0.0302114803625378</v>
+        <v>0.0487804878048781</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>3</v>
@@ -3431,7 +3927,7 @@
       </c>
       <c r="G27" s="9" t="n">
         <f aca="false">F27/F2</f>
-        <v>0.0302114803625378</v>
+        <v>0.0487804878048781</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>3</v>
@@ -3456,7 +3952,9 @@
         <v>0</v>
       </c>
       <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
+      <c r="R27" s="29" t="n">
+        <v>3</v>
+      </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -3492,19 +3990,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F16" activeCellId="0" pane="topLeft" sqref="F16"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="K28" activeCellId="0" pane="topLeft" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="12.4823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="16.7333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="19.3725490196078"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="18.1333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="23" width="21.0470588235294"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="21" width="12.4823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="12.5450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="16.8235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="19.4705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="18.2235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="5" style="23" width="21.1529411764706"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="21" width="12.5450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
@@ -3527,9 +4025,12 @@
         <v>55</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3550,7 +4051,7 @@
       </c>
       <c r="E2" s="27" t="n">
         <f aca="false">SUMIF('tareas-ciclo1'!H4:H27,A2,'tareas-ciclo1'!G4:G27)</f>
-        <v>0.217522658610272</v>
+        <v>0.351219512195122</v>
       </c>
       <c r="F2" s="27" t="inlineStr">
         <f aca="false">E2</f>
@@ -3558,12 +4059,16 @@
           <t/>
         </is>
       </c>
-      <c r="G2" s="27" t="n">
+      <c r="G2" s="33" t="n">
+        <f aca="false">SUMIF('tareas-ciclo1'!R4:R27,A2,'tareas-ciclo1'!P4:P27)</f>
+        <v>19.5166666666667</v>
+      </c>
+      <c r="H2" s="27" t="n">
         <f aca="false">SUMIF('tareas-ciclo1'!R4:R27,A2,'tareas-ciclo1'!Q4:Q27)</f>
-        <v>0.0936555891238671</v>
-      </c>
-      <c r="H2" s="27" t="inlineStr">
-        <f aca="false">G2</f>
+        <v>0.151219512195122</v>
+      </c>
+      <c r="I2" s="27" t="inlineStr">
+        <f aca="false">H2</f>
         <is>
           <t/>
         </is>
@@ -3589,7 +4094,7 @@
       </c>
       <c r="E3" s="27" t="n">
         <f aca="false">SUMIF('tareas-ciclo1'!H4:H27,A3,'tareas-ciclo1'!G4:G27)</f>
-        <v>0.202416918429003</v>
+        <v>0.326829268292683</v>
       </c>
       <c r="F3" s="27" t="inlineStr">
         <f aca="false">E3+F2</f>
@@ -3597,12 +4102,16 @@
           <t/>
         </is>
       </c>
-      <c r="G3" s="27" t="n">
+      <c r="G3" s="33" t="n">
+        <f aca="false">SUMIF('tareas-ciclo1'!R4:R27,A3,'tareas-ciclo1'!P4:P27)</f>
+        <v>15.1166666666667</v>
+      </c>
+      <c r="H3" s="27" t="n">
         <f aca="false">SUMIF('tareas-ciclo1'!R4:R27,A3,'tareas-ciclo1'!Q4:Q27)</f>
-        <v>0.081570996978852</v>
-      </c>
-      <c r="H3" s="27" t="inlineStr">
-        <f aca="false">G3+H2</f>
+        <v>0.131707317073171</v>
+      </c>
+      <c r="I3" s="27" t="inlineStr">
+        <f aca="false">H3+I2</f>
         <is>
           <t/>
         </is>
@@ -3628,7 +4137,7 @@
       </c>
       <c r="E4" s="27" t="n">
         <f aca="false">SUMIF('tareas-ciclo1'!H4:H27,A4,'tareas-ciclo1'!G4:G27)</f>
-        <v>0.199395770392749</v>
+        <v>0.321951219512195</v>
       </c>
       <c r="F4" s="27" t="inlineStr">
         <f aca="false">E4+F3</f>
@@ -3636,15 +4145,40 @@
           <t/>
         </is>
       </c>
-      <c r="G4" s="27" t="n">
+      <c r="G4" s="33" t="n">
+        <f aca="false">SUMIF('tareas-ciclo1'!R4:R27,A4,'tareas-ciclo1'!P4:P27)</f>
+        <v>39.8833333333333</v>
+      </c>
+      <c r="H4" s="27" t="n">
         <f aca="false">SUMIF('tareas-ciclo1'!R4:R27,A4,'tareas-ciclo1'!Q4:Q27)</f>
-        <v>0.217522658610272</v>
-      </c>
-      <c r="H4" s="27" t="inlineStr">
-        <f aca="false">G4+H3</f>
+        <v>0.351219512195122</v>
+      </c>
+      <c r="I4" s="27" t="inlineStr">
+        <f aca="false">H4+I3</f>
         <is>
           <t/>
         </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
+      <c r="C5" s="0"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+      <c r="A6" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="21" t="n">
+        <f aca="false">SUM(C2:C4)</f>
+        <v>105</v>
+      </c>
+      <c r="D6" s="21" t="n">
+        <f aca="false">SUM(D2:D4)</f>
+        <v>102.5</v>
+      </c>
+      <c r="G6" s="34" t="n">
+        <f aca="false">SUM(G2:G4)</f>
+        <v>74.5166666666667</v>
       </c>
     </row>
   </sheetData>

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="439" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="439" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="tareas" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="122">
   <si>
     <t>Id</t>
   </si>
@@ -26,9 +26,6 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Pid</t>
-  </si>
-  <si>
     <t>Criterio de entrada</t>
   </si>
   <si>
@@ -47,72 +44,180 @@
     <t>Ver video tutorial de GitHub.</t>
   </si>
   <si>
+    <t>Cada integrante del equipo conoce las funcionalidades básicas de GitHub.</t>
+  </si>
+  <si>
     <t>Realizar el lanzamiento del ciclo #1 de TSPi.</t>
   </si>
   <si>
+    <t>Todos los integrantes del equipo han leído los capítulos 1, 2, 3 y el apéndice A del libro Introducción a TSP.</t>
+  </si>
+  <si>
+    <t>Cada integrante del equipo completo la forma INFO; Los roles fueron asignados; Se acordó que días se entregarían los reportes semanales.</t>
+  </si>
+  <si>
     <t>Definir la estrategía de desarrollo del ciclo #1 de TSPi.</t>
   </si>
   <si>
+    <t>Todos los integrantes del equipo han leído el capítulo 4 del libro Introducción a TSP.</t>
+  </si>
+  <si>
+    <t>La estrategía de desarrollo fue documentada.</t>
+  </si>
+  <si>
     <t>Elaborar el plan del ciclo #1 de TSPi.</t>
   </si>
   <si>
+    <t>El equipo ha definido la estrategía de desarrollo y cada integrante del equipo ha leído el capítulo 5 del libro Introducción a TSP.</t>
+  </si>
+  <si>
+    <t>Las formas TASK y SCHEDULE para el equipo y cada integrante fueron completadas; Se completaron las formas SUMP, SUMQ y SUMS.</t>
+  </si>
+  <si>
     <t>Crear la plantilla para las agendas de las reuniones con los clientes.</t>
   </si>
   <si>
+    <t>La plantilla para las agendas de las reuniones con los fue creada.</t>
+  </si>
+  <si>
     <t>Crear la plantilla para las minutas de las reuniones con los clientes.</t>
   </si>
   <si>
+    <t>La plantilla para las minutdas de las reuniones con los clientes fue creada.</t>
+  </si>
+  <si>
     <t>Crear la agenda para la reunión #1 con el cliente.</t>
   </si>
   <si>
+    <t>La plantilla para al agenda de los clientes ha sido creada.</t>
+  </si>
+  <si>
+    <t>La agenda para la reunión #1 con el cliente fue creada.</t>
+  </si>
+  <si>
     <t>Reunión #1 con el cliente.</t>
   </si>
   <si>
+    <t>La agenda para la reunión #1 con el cliente ha sido creada y envíada al cliente.</t>
+  </si>
+  <si>
+    <t>La minuta de la reunión #1 con el cliente fue creada.</t>
+  </si>
+  <si>
     <t>Crear el esquema del documento de requerimientos.</t>
   </si>
   <si>
-    <t>Experimento RedMine #1.</t>
-  </si>
-  <si>
-    <t>Experimiento Ruby on Rails #1.</t>
+    <t>El esquema del documento de requerimientos fue creado.</t>
+  </si>
+  <si>
+    <t>Instalar y configurar RedMine.</t>
+  </si>
+  <si>
+    <t>Cada integrante del equipo ha instalado y configurador RedMine.</t>
+  </si>
+  <si>
+    <t>Instalar y configurar Ruby on Rails.</t>
+  </si>
+  <si>
+    <t>Cada integrante del equipo ha instalado y configurado Ruby on Rails.</t>
   </si>
   <si>
     <t>Reunión de equipo para analizar la minuta de la reunión #1 con el cliente.</t>
   </si>
   <si>
+    <t>La minuta de la reunión #1 del cliente ha sido creada.</t>
+  </si>
+  <si>
     <t>Crear el borrador #1 del diagrama de casos de uso.</t>
   </si>
   <si>
+    <t>La reunión de equipo para analizar la minuta de la reunión #1 con el cliente ha sido completada.</t>
+  </si>
+  <si>
+    <t>El borrador #1 del diagrama de casos de uso fue creado.</t>
+  </si>
+  <si>
     <t>Crear el borrador #1 del documento de los escenarios.</t>
   </si>
   <si>
+    <t>El borrador #1 del documento de los escenarios fue creado.</t>
+  </si>
+  <si>
     <t>Crear el borrador #1 del documento de requerimientos.</t>
   </si>
   <si>
+    <t>El borrador #1 del diagrama de casos de uso ha sido creado; El borrador #1 del documento de escenarios ha sido creado.</t>
+  </si>
+  <si>
+    <t>El borrador #1 del documento de requerimientos fue creado.</t>
+  </si>
+  <si>
     <t>Crear la agenda para la reunión #2 con el cliente.</t>
   </si>
   <si>
+    <t>La agenda para la reunión #2 con el cliente fue creada.</t>
+  </si>
+  <si>
     <t>Reunión #2 con el cliente.</t>
   </si>
   <si>
+    <t>La agenda para la reunión #2 con el cliente ha sido creada y envíada al cliente.</t>
+  </si>
+  <si>
+    <t>La minuta de la reunión #2 con el cliente fue creada.</t>
+  </si>
+  <si>
     <t>Reunión de equipo para analizar la minuta de la reunión #2 con el cliente.</t>
   </si>
   <si>
+    <t>La minuta de la reunión #2 del cliente ha sido creada.</t>
+  </si>
+  <si>
     <t>Crear la versión final del diagrama de casos de uso.</t>
   </si>
   <si>
+    <t>El borrador #1 del diagrama de casos de uso ha sido creado; La reunión de equipo para analizar la minuta de la reunión #2 con el cliente ha sido completada.</t>
+  </si>
+  <si>
+    <t>La versión final del diagrama de casos de uso fue creado.</t>
+  </si>
+  <si>
     <t>Extender los casos de uso.</t>
   </si>
   <si>
+    <t>La versión final del diagrama de casos de uso ha sido creada.</t>
+  </si>
+  <si>
+    <t>Los casos de uso fueron extendidos.</t>
+  </si>
+  <si>
     <t>Crear la versión final del documento de los escenarios.</t>
   </si>
   <si>
+    <t>El borrador #1 del documento de escenarios ha sido creado; La reunión de equipo para analizar la  minuta de la reunión #2 con el cliente ha sido completada.</t>
+  </si>
+  <si>
+    <t>La versión final del documento de los escenarios fue creada.</t>
+  </si>
+  <si>
     <t>Crear la versión final del documento de requerimientos.</t>
   </si>
   <si>
+    <t>Los casos de uso han sido extendidos; La versión final del documento de escenarios ha sido creado.</t>
+  </si>
+  <si>
+    <t>La versión final del documento de requerimientos fue creada.</t>
+  </si>
+  <si>
     <t>Elaborar el reporte de cierre del ciclo #1 de TSPi.</t>
   </si>
   <si>
+    <t>Todos los integrantes del equipo han leído los capítulos 10, 16, 17 y 18 del libro Introducción a TSP.</t>
+  </si>
+  <si>
+    <t>Cada integrante del equipo completo la forma PEER; El reporte del ciclo #1 fue creado.</t>
+  </si>
+  <si>
     <t>Realizar el lanzamiento del ciclo #2 de TSPi.</t>
   </si>
   <si>
@@ -125,39 +230,90 @@
     <t>Crear el esquema del documento de arquitectura.</t>
   </si>
   <si>
+    <t>El esquema del documento de arquitectura fue creado.</t>
+  </si>
+  <si>
     <t>Reunión de equipo para analizar la versión final del documento de requerimientos.</t>
   </si>
   <si>
     <t>Documentar las tácticas a utilizar para la arquitectura.</t>
   </si>
   <si>
+    <t>La reunión de equipo para analizar la versión final del documento de requerimientos ha sido completada.</t>
+  </si>
+  <si>
+    <t>Las tácticas a utilizar fueron documentadas.</t>
+  </si>
+  <si>
     <t>Crear el borrador #1 del diagrama de contexto de la arquitectura.</t>
   </si>
   <si>
+    <t>El borrador #1 del diagrama de contexto de la arquitectura fue creado.</t>
+  </si>
+  <si>
     <t>Crear el borrador #1 de la vista estática de la arquitectura.</t>
   </si>
   <si>
+    <t>El borrador #1 de la vista estática de la arquitectura fue creado.</t>
+  </si>
+  <si>
     <t>Crear el borrador #1 del documento de arquitecutra.</t>
   </si>
   <si>
+    <t>El esquema del documento de arquitectura ha sido creado;Las tácticas a utilizar han sido documentadas; El borrador #1 del diagrama de contexto ha sido creado; El borrador #1 de la vista estática de la arquitectura ha sido creado.</t>
+  </si>
+  <si>
+    <t>El borrador #1 del documento de la arquitectura ha sido creado.</t>
+  </si>
+  <si>
     <t>Crear la agenda para la reunión #3 con el cliente.</t>
   </si>
   <si>
+    <t>La agenda para la reunión #3 con el cliente fue creada.</t>
+  </si>
+  <si>
     <t>Reunión #3 con el cliente.</t>
   </si>
   <si>
+    <t>La agenda para la reunión #3 con el cliente ha sido creada y envíada al cliente.</t>
+  </si>
+  <si>
+    <t>La minuta de la reunión #3 con el cliente fue creada.</t>
+  </si>
+  <si>
     <t>Realizar la presentación de mitad de curso.</t>
   </si>
   <si>
+    <t>La versión final del documento de requerimientos ha sido creada; El borrador #1 del documento de la arquitectura ha sido creada.</t>
+  </si>
+  <si>
+    <t>La minuta de la presentación de mitad del curso fue creada.</t>
+  </si>
+  <si>
     <t>Reunión de equipo para analizar la minuta de la reunión #3 con el cliente.</t>
   </si>
   <si>
+    <t>La minuta de la reunión #3 del cliente ha sido creada.</t>
+  </si>
+  <si>
     <t>Crear la versión final del diagrama de contexto de la arquitectura.</t>
   </si>
   <si>
+    <t>El borrador #1 del diagrama de contexto de la arquitectura ha sido creado; La reunión para analizar la minuta de la reunión #3 con el cliente ha sido completada.</t>
+  </si>
+  <si>
+    <t>La versión final del diagrama de contexto de la arquitectura fue creado.</t>
+  </si>
+  <si>
     <t>Crear la versión final de la vista estática de la arquitectura.</t>
   </si>
   <si>
+    <t>El borrador #1 de la vista estática de la arquitectura ha sido creada; La reunión para analizar la minuta de la reunión #3 con el cliente ha sido completada.</t>
+  </si>
+  <si>
+    <t>La versión final de la vista estática de la arquitectura fue creada.</t>
+  </si>
+  <si>
     <t>Crear la versión final de la vista dinámica de la arquitectura.</t>
   </si>
   <si>
@@ -219,6 +375,9 @@
   </si>
   <si>
     <t>Porcentaje individual de ganacias obtenidas</t>
+  </si>
+  <si>
+    <t>Instalar y configurar Ruby On Rails.</t>
   </si>
   <si>
     <t>Horas Trabajadas</t>
@@ -231,11 +390,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="0.00%" numFmtId="165"/>
-    <numFmt formatCode="@" numFmtId="166"/>
-    <numFmt formatCode="MM/DD/YYYY" numFmtId="167"/>
+    <numFmt formatCode="MM/DD/YYYY" numFmtId="166"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -282,6 +440,7 @@
     <font>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="true"/>
       <sz val="13"/>
     </font>
     <font>
@@ -351,7 +510,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
@@ -401,9 +560,6 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
@@ -414,13 +570,13 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="167" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="166" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="167" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
@@ -438,10 +594,10 @@
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -514,7 +670,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -529,7 +685,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Ganacias Estimadas vs Ganacias Obtenidas</a:t>
             </a:r>
           </a:p>
@@ -590,10 +746,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.351219512195122</c:v>
+                  <c:v>0.369230769230769</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.678048780487805</c:v>
+                  <c:v>0.712820512820513</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -652,24 +808,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.151219512195122</c:v>
+                  <c:v>0.158974358974359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.282926829268293</c:v>
+                  <c:v>0.297435897435897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.634146341463415</c:v>
+                  <c:v>0.666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="35292534"/>
-        <c:axId val="74360889"/>
+        <c:axId val="43782003"/>
+        <c:axId val="10740855"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35292534"/>
+        <c:axId val="43782003"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74360889"/>
+        <c:crossAx val="10740855"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -691,7 +847,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74360889"/>
+        <c:axId val="10740855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -708,7 +864,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35292534"/>
+        <c:crossAx val="43782003"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -740,7 +896,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -755,7 +911,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Horas Estimadas vs Horas Trabajadas</a:t>
             </a:r>
           </a:p>
@@ -816,7 +972,7 @@
                   <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,7 +1021,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.5166666666667</c:v>
+                  <c:v>17.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15.1166666666667</c:v>
@@ -878,11 +1034,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="96533322"/>
-        <c:axId val="19260892"/>
+        <c:axId val="29293049"/>
+        <c:axId val="79430176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96533322"/>
+        <c:axId val="29293049"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -890,8 +1046,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="19260892"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="79430176"/>
+        <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -904,7 +1060,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19260892"/>
+        <c:axId val="79430176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,8 +1077,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96533322"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="29293049"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -953,7 +1109,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -968,7 +1124,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Ganancias Estimadas vs Ganancias Obtenidas</a:t>
             </a:r>
           </a:p>
@@ -1026,13 +1182,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.351219512195122</c:v>
+                  <c:v>0.369230769230769</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.326829268292683</c:v>
+                  <c:v>0.343589743589744</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.321951219512195</c:v>
+                  <c:v>0.287179487179487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,24 +1240,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.151219512195122</c:v>
+                  <c:v>0.158974358974359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.131707317073171</c:v>
+                  <c:v>0.138461538461538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.351219512195122</c:v>
+                  <c:v>0.369230769230769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="92886555"/>
-        <c:axId val="96787227"/>
+        <c:axId val="78708088"/>
+        <c:axId val="85952357"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92886555"/>
+        <c:axId val="78708088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,8 +1265,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96787227"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="85952357"/>
+        <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1123,7 +1279,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96787227"/>
+        <c:axId val="85952357"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,8 +1296,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92886555"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="78708088"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -1177,15 +1333,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>31680</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:colOff>185040</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>282960</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:colOff>435960</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1193,8 +1349,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="31680" y="1517040"/>
-        <a:ext cx="7930080" cy="2794320"/>
+        <a:off x="185040" y="1882800"/>
+        <a:ext cx="7966800" cy="2601000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1207,15 +1363,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>391680</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1445400</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:colOff>1429920</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1223,8 +1379,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="391680" y="4835160"/>
-        <a:ext cx="5762160" cy="3241800"/>
+        <a:off x="376560" y="5593680"/>
+        <a:ext cx="5784480" cy="3012120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1237,15 +1393,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>647280</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:colOff>758520</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>458280</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:colOff>569160</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1253,8 +1409,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6840720" y="4780440"/>
-        <a:ext cx="5752080" cy="3241800"/>
+        <a:off x="6981840" y="5582520"/>
+        <a:ext cx="5779800" cy="3012120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1272,40 +1428,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="1:45"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="C1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F1" activeCellId="0" pane="topLeft" sqref="F1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A14" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C3" activeCellId="0" pane="topLeft" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="40.0666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="40.0666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.3607843137255"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="21.3607843137255"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="4" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="40.2666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.4705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="21.4705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="4" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.9294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="5"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8" t="n">
+      <c r="E1" s="8" t="n">
+        <f aca="false">SUM(E3:E45)</f>
+        <v>165.5</v>
+      </c>
+      <c r="F1" s="9" t="inlineStr">
         <f aca="false">SUM(F3:F45)</f>
-        <v>165.5</v>
-      </c>
-      <c r="G1" s="9" t="inlineStr">
-        <f aca="false">SUM(G3:G45)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="2">
       <c r="A2" s="11" t="s">
@@ -1314,7 +1468,7 @@
       <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -1323,56 +1477,57 @@
       <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="3">
+      <c r="A3" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="3">
-      <c r="A3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="8" t="n">
+      <c r="E3" s="8" t="n">
         <f aca="false">1.5*5</f>
         <v>7.5</v>
       </c>
-      <c r="G3" s="9" t="n">
-        <f aca="false">F3/F1</f>
+      <c r="F3" s="9" t="n">
+        <f aca="false">E3/E1</f>
         <v>0.0453172205438066</v>
       </c>
-      <c r="H3" s="14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+      <c r="G3" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="4">
       <c r="A4" s="14" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="8" t="n">
+      <c r="C4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="n">
-        <f aca="false">F4/F1</f>
+      <c r="F4" s="9" t="n">
+        <f aca="false">E4/E1</f>
         <v>0.0302114803625378</v>
       </c>
-      <c r="H4" s="14" t="n">
+      <c r="G4" s="14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,445 +1536,530 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G5" s="9" t="n">
-        <f aca="false">F5/F1</f>
+      <c r="F5" s="9" t="n">
+        <f aca="false">E5/E1</f>
         <v>0.0302114803625378</v>
       </c>
-      <c r="H5" s="14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+      <c r="G5" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="6">
       <c r="A6" s="14" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <f aca="false">F6/F1</f>
+        <v>15</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <f aca="false">E6/E1</f>
         <v>0.0120845921450151</v>
       </c>
-      <c r="H6" s="14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="7" s="20">
+      <c r="G6" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="7" s="19">
       <c r="A7" s="14" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="G7" s="9" t="n">
-        <f aca="false">F7/F1</f>
+      <c r="F7" s="9" t="n">
+        <f aca="false">E7/E1</f>
         <v>0.00302114803625378</v>
       </c>
-      <c r="H7" s="19" t="n">
-        <v>1</v>
-      </c>
+      <c r="G7" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="8" s="20">
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="8" s="19">
       <c r="A8" s="14" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="G8" s="9" t="n">
-        <f aca="false">F8/F1</f>
+      <c r="F8" s="9" t="n">
+        <f aca="false">E8/E1</f>
         <v>0.00302114803625378</v>
       </c>
-      <c r="H8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9" s="20">
+      <c r="G8" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="AMJ8" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="9" s="19">
       <c r="A9" s="14" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="G9" s="9" t="n">
-        <f aca="false">F9/F1</f>
+      <c r="F9" s="9" t="n">
+        <f aca="false">E9/E1</f>
         <v>0.00302114803625378</v>
       </c>
-      <c r="H9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10" s="20">
+      <c r="G9" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="AMJ9" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="10" s="19">
       <c r="A10" s="14" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="9" t="n">
-        <f aca="false">F10/F1</f>
+        <v>25</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <f aca="false">E10/E1</f>
         <v>0.0120845921450151</v>
       </c>
-      <c r="H10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="11" s="20">
+      <c r="G10" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="AMJ10" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="11" s="19">
       <c r="A11" s="14" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="9" t="n">
-        <f aca="false">F11/F1</f>
+      <c r="F11" s="9" t="n">
+        <f aca="false">E11/E1</f>
         <v>0.0181268882175227</v>
       </c>
-      <c r="H11" s="18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12" s="20">
+      <c r="G11" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ11" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="12" s="19">
       <c r="A12" s="14" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="C12" s="0"/>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="G12" s="9" t="n">
-        <f aca="false">F12/F1</f>
+      <c r="F12" s="9" t="n">
+        <f aca="false">E12/E1</f>
         <v>0.0604229607250755</v>
       </c>
-      <c r="H12" s="18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13">
+      <c r="G12" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ12" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="13">
       <c r="A13" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="1" t="n">
+      <c r="B13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G13" s="3" t="n">
-        <f aca="false">F13/F1</f>
+      <c r="F13" s="3" t="n">
+        <f aca="false">E13/E1</f>
         <v>0.0906344410876133</v>
       </c>
-      <c r="H13" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="14" s="20">
+      <c r="G13" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="14" s="19">
       <c r="A14" s="14" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="18" t="n">
+      <c r="E14" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="G14" s="9" t="n">
-        <f aca="false">F14/F1</f>
+      <c r="F14" s="9" t="n">
+        <f aca="false">E14/E1</f>
         <v>0.0604229607250755</v>
       </c>
-      <c r="H14" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="15" s="20">
+      <c r="G14" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AMJ14" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="15" s="19">
       <c r="A15" s="14" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="9" t="n">
-        <f aca="false">F15/F1</f>
+        <v>36</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <f aca="false">E15/E1</f>
         <v>0.0120845921450151</v>
       </c>
-      <c r="H15" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="16" s="20">
+      <c r="G15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AMJ15" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="16" s="19">
       <c r="A16" s="14" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="9" t="n">
-        <f aca="false">F16/F1</f>
+        <v>39</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <f aca="false">E16/E1</f>
         <v>0.0120845921450151</v>
       </c>
-      <c r="H16" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="17" s="20">
+      <c r="G16" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AMJ16" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="17" s="19">
       <c r="A17" s="14" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="18" t="n">
+        <v>41</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="G17" s="9" t="n">
-        <f aca="false">F17/F1</f>
+      <c r="F17" s="9" t="n">
+        <f aca="false">E17/E1</f>
         <v>0.0241691842900302</v>
       </c>
-      <c r="H17" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="18" s="20">
+      <c r="G17" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AMJ17" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="18" s="19">
       <c r="A18" s="14" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18" t="n">
+      <c r="D18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="G18" s="9" t="n">
-        <f aca="false">F18/F1</f>
+      <c r="F18" s="9" t="n">
+        <f aca="false">E18/E1</f>
         <v>0.00302114803625378</v>
       </c>
-      <c r="H18" s="18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19" s="20">
+      <c r="G18" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AMJ18" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="19" s="19">
       <c r="A19" s="14" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" s="9" t="n">
-        <f aca="false">F19/F1</f>
+        <v>46</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <f aca="false">E19/E1</f>
         <v>0.0120845921450151</v>
       </c>
-      <c r="H19" s="18" t="n">
+      <c r="G19" s="17" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="20" s="20">
+      <c r="AMJ19" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="20" s="19">
       <c r="A20" s="14" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="18" t="n">
+      <c r="E20" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="G20" s="9" t="n">
-        <f aca="false">F20/F1</f>
+      <c r="F20" s="9" t="n">
+        <f aca="false">E20/E1</f>
         <v>0.0604229607250755</v>
       </c>
-      <c r="H20" s="18" t="n">
+      <c r="G20" s="17" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="21">
+      <c r="AMJ20" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.65" outlineLevel="0" r="21">
       <c r="A21" s="14" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" s="9" t="n">
-        <f aca="false">F21/F1</f>
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <f aca="false">E21/E1</f>
         <v>0.0120845921450151</v>
       </c>
-      <c r="H21" s="1" t="n">
+      <c r="G21" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="22">
       <c r="A22" s="14" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G22" s="9" t="n">
-        <f aca="false">F22/F1</f>
+      <c r="F22" s="9" t="n">
+        <f aca="false">E22/E1</f>
         <v>0.0181268882175227</v>
       </c>
-      <c r="H22" s="1" t="n">
+      <c r="G22" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.65" outlineLevel="0" r="23">
       <c r="A23" s="14" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" s="9" t="n">
-        <f aca="false">F23/F1</f>
+        <v>57</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <f aca="false">E23/E1</f>
         <v>0.0120845921450151</v>
       </c>
-      <c r="H23" s="1" t="n">
+      <c r="G23" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="24">
       <c r="A24" s="14" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G24" s="9" t="n">
-        <f aca="false">F24/F1</f>
+      <c r="F24" s="9" t="n">
+        <f aca="false">E24/E1</f>
         <v>0.0241691842900302</v>
       </c>
-      <c r="H24" s="1" t="n">
+      <c r="G24" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="25">
       <c r="A25" s="14" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G25" s="9" t="n">
-        <f aca="false">F25/F1</f>
+      <c r="F25" s="9" t="n">
+        <f aca="false">E25/E1</f>
         <v>0.0302114803625378</v>
       </c>
-      <c r="H25" s="1" t="n">
+      <c r="G25" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="26">
       <c r="A26" s="14" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G26" s="9" t="n">
-        <f aca="false">F26/F1</f>
+      <c r="F26" s="9" t="n">
+        <f aca="false">E26/E1</f>
         <v>0.0302114803625378</v>
       </c>
-      <c r="H26" s="1" t="n">
-        <v>3</v>
+      <c r="G26" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="27">
@@ -1827,52 +2067,67 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G27" s="9" t="n">
-        <f aca="false">F27/F1</f>
+      <c r="F27" s="9" t="n">
+        <f aca="false">E27/E1</f>
         <v>0.0302114803625378</v>
       </c>
-      <c r="H27" s="1" t="n">
+      <c r="G27" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="28">
       <c r="A28" s="14" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" s="9" t="n">
-        <f aca="false">F28/F1</f>
+        <v>68</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <f aca="false">E28/E1</f>
         <v>0.0120845921450151</v>
       </c>
-      <c r="H28" s="1" t="n">
+      <c r="G28" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="29">
       <c r="A29" s="14" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G29" s="9" t="n">
-        <f aca="false">F29/F1</f>
+      <c r="F29" s="9" t="n">
+        <f aca="false">E29/E1</f>
         <v>0.0181268882175227</v>
       </c>
-      <c r="H29" s="1" t="n">
+      <c r="G29" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1881,142 +2136,187 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="G30" s="9" t="n">
-        <f aca="false">F30/F1</f>
+      <c r="F30" s="9" t="n">
+        <f aca="false">E30/E1</f>
         <v>0.0604229607250755</v>
       </c>
-      <c r="H30" s="1" t="n">
+      <c r="G30" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="31">
       <c r="A31" s="14" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="9" t="n">
-        <f aca="false">F31/F1</f>
+        <v>72</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <f aca="false">E31/E1</f>
         <v>0.00604229607250755</v>
       </c>
-      <c r="H31" s="1" t="n">
+      <c r="G31" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="32">
       <c r="A32" s="14" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" s="9" t="n">
-        <f aca="false">F32/F1</f>
+        <v>75</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <f aca="false">E32/E1</f>
         <v>0.0120845921450151</v>
       </c>
-      <c r="H32" s="1" t="n">
+      <c r="G32" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="33">
       <c r="A33" s="14" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G33" s="9" t="n">
-        <f aca="false">F33/F1</f>
+      <c r="F33" s="9" t="n">
+        <f aca="false">E33/E1</f>
         <v>0.0302114803625378</v>
       </c>
-      <c r="H33" s="1" t="n">
+      <c r="G33" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="34">
       <c r="A34" s="14" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G34" s="9" t="n">
-        <f aca="false">F34/F1</f>
+      <c r="F34" s="9" t="n">
+        <f aca="false">E34/E1</f>
         <v>0.0241691842900302</v>
       </c>
-      <c r="H34" s="1" t="n">
+      <c r="G34" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="35">
       <c r="A35" s="14" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="G35" s="3" t="n">
-        <f aca="false">F35/F1</f>
+      <c r="F35" s="3" t="n">
+        <f aca="false">E35/E1</f>
         <v>0.00302114803625378</v>
       </c>
-      <c r="H35" s="1" t="n">
+      <c r="G35" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="36">
       <c r="A36" s="14" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" s="3" t="n">
-        <f aca="false">F36/F1</f>
+        <v>84</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <f aca="false">E36/E1</f>
         <v>0.0120845921450151</v>
       </c>
-      <c r="H36" s="1" t="n">
+      <c r="G36" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="37">
       <c r="A37" s="14" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G37" s="3" t="n">
-        <f aca="false">F37/F1</f>
+      <c r="F37" s="3" t="n">
+        <f aca="false">E37/E1</f>
         <v>0.0181268882175227</v>
       </c>
-      <c r="H37" s="1" t="n">
+      <c r="G37" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2025,52 +2325,67 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G38" s="3" t="n">
-        <f aca="false">F38/F1</f>
+      <c r="F38" s="3" t="n">
+        <f aca="false">E38/E1</f>
         <v>0.0302114803625378</v>
       </c>
-      <c r="H38" s="1" t="n">
+      <c r="G38" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.65" outlineLevel="0" r="39">
       <c r="A39" s="14" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3" t="n">
-        <f aca="false">F39/F1</f>
+        <v>92</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <f aca="false">E39/E1</f>
         <v>0.00604229607250755</v>
       </c>
-      <c r="H39" s="1" t="n">
+      <c r="G39" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="40">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.65" outlineLevel="0" r="40">
       <c r="A40" s="14" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G40" s="3" t="n">
-        <f aca="false">F40/F1</f>
+      <c r="F40" s="3" t="n">
+        <f aca="false">E40/E1</f>
         <v>0.0302114803625378</v>
       </c>
-      <c r="H40" s="1" t="n">
+      <c r="G40" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2079,16 +2394,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="E41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G41" s="3" t="n">
-        <f aca="false">F41/F1</f>
+      <c r="F41" s="3" t="n">
+        <f aca="false">E41/E1</f>
         <v>0.0241691842900302</v>
       </c>
-      <c r="H41" s="1" t="n">
+      <c r="G41" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2097,16 +2412,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="E42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G42" s="3" t="n">
-        <f aca="false">F42/F1</f>
+      <c r="F42" s="3" t="n">
+        <f aca="false">E42/E1</f>
         <v>0.0241691842900302</v>
       </c>
-      <c r="H42" s="1" t="n">
+      <c r="G42" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2115,16 +2430,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G43" s="3" t="n">
-        <f aca="false">F43/F1</f>
+      <c r="F43" s="3" t="n">
+        <f aca="false">E43/E1</f>
         <v>0.0241691842900302</v>
       </c>
-      <c r="H43" s="1" t="n">
+      <c r="G43" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2133,16 +2448,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="E44" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="G44" s="3" t="n">
-        <f aca="false">F44/F1</f>
+      <c r="F44" s="3" t="n">
+        <f aca="false">E44/E1</f>
         <v>0.00302114803625378</v>
       </c>
-      <c r="H44" s="1" t="n">
+      <c r="G44" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2151,16 +2466,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" s="3" t="n">
-        <f aca="false">F45/F1</f>
+        <v>102</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <f aca="false">E45/E1</f>
         <v>0.0120845921450151</v>
       </c>
-      <c r="H45" s="1" t="n">
+      <c r="G45" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2187,265 +2502,265 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="12.5450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="16.8235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="19.4705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="18.2235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="23" width="21.1529411764706"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="21" width="12.5450980392157"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="12.6078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="16.9019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="19.5647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="18.3137254901961"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="22" width="21.2549019607843"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="20" width="12.6078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
       <c r="A1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>51</v>
+        <v>6</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
-      <c r="A2" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26" t="n">
+      <c r="A2" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="n">
         <v>41902</v>
       </c>
-      <c r="C2" s="25" t="n">
+      <c r="C2" s="24" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D2" s="25" t="n">
+      <c r="D2" s="24" t="n">
         <f aca="false">'recursos-ciclo1'!D2</f>
         <v>36</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
-      <c r="A3" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="26" t="inlineStr">
+      <c r="A3" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="inlineStr">
         <f aca="false">B2+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C3" s="25" t="n">
+      <c r="C3" s="24" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D3" s="25" t="n">
+      <c r="D3" s="24" t="n">
         <f aca="false">'recursos-ciclo1'!D3</f>
         <v>33.5</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
-      <c r="A4" s="25" t="n">
+      <c r="A4" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <f aca="false">B3+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C4" s="25" t="n">
+      <c r="C4" s="24" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D4" s="25" t="n">
+      <c r="D4" s="24" t="n">
         <f aca="false">'recursos-ciclo1'!D4</f>
-        <v>33</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+        <v>28</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
-      <c r="A5" s="25" t="n">
+      <c r="A5" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="inlineStr">
+      <c r="B5" s="25" t="inlineStr">
         <f aca="false">B4+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C5" s="25" t="n">
+      <c r="C5" s="24" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="6">
-      <c r="A6" s="25" t="n">
+      <c r="A6" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="inlineStr">
+      <c r="B6" s="25" t="inlineStr">
         <f aca="false">B5+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="24" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="7">
-      <c r="A7" s="25" t="n">
+      <c r="A7" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="inlineStr">
+      <c r="B7" s="25" t="inlineStr">
         <f aca="false">B6+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C7" s="25" t="n">
+      <c r="C7" s="24" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="8">
-      <c r="A8" s="25" t="n">
+      <c r="A8" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="inlineStr">
+      <c r="B8" s="25" t="inlineStr">
         <f aca="false">B7+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C8" s="25" t="n">
+      <c r="C8" s="24" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="9">
-      <c r="A9" s="25" t="n">
+      <c r="A9" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="26" t="inlineStr">
+      <c r="B9" s="25" t="inlineStr">
         <f aca="false">B8+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C9" s="25" t="n">
+      <c r="C9" s="24" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="10">
-      <c r="A10" s="25" t="n">
+      <c r="A10" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="26" t="inlineStr">
+      <c r="B10" s="25" t="inlineStr">
         <f aca="false">B9+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C10" s="25" t="n">
+      <c r="C10" s="24" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="11">
-      <c r="A11" s="25" t="n">
+      <c r="A11" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="26" t="inlineStr">
+      <c r="B11" s="25" t="inlineStr">
         <f aca="false">B10+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C11" s="25" t="n">
+      <c r="C11" s="24" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="12">
-      <c r="A12" s="25" t="n">
+      <c r="A12" s="24" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="26" t="inlineStr">
+      <c r="B12" s="25" t="inlineStr">
         <f aca="false">B11+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C12" s="25" t="n">
+      <c r="C12" s="24" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2463,33 +2778,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X27"/>
+  <dimension ref="1:26"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="O1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="R1" activeCellId="0" pane="topLeft" sqref="R1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A7" activeCellId="0" pane="topLeft" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="40.0666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="40.0666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.3607843137255"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="21.3607843137255"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="4" width="2.68627450980392"/>
-    <col collapsed="false" hidden="false" max="14" min="10" style="1" width="20.0313725490196"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="2.68627450980392"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="1" width="21.3607843137255"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="4" width="2.68627450980392"/>
-    <col collapsed="false" hidden="false" max="24" min="20" style="4" width="20.0313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="4" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.56470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="40.2666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.4705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="21.4705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="2.70588235294118"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="20.1333333333333"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="4" width="2.70588235294118"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="21.4705882352941"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="4" width="2.70588235294118"/>
+    <col collapsed="false" hidden="false" max="23" min="19" style="4" width="20.1333333333333"/>
+    <col collapsed="false" hidden="false" max="1023" min="24" style="4" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.9294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
       <c r="A1" s="11" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2503,10 +2817,10 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="P1" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="O1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
@@ -2514,74 +2828,72 @@
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
       <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="2">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="28" t="n">
-        <f aca="false">SUM(F4:F27)</f>
-        <v>102.5</v>
-      </c>
-      <c r="G2" s="9" t="inlineStr">
-        <f aca="false">SUM(G4:G27)</f>
+      <c r="E2" s="27" t="n">
+        <f aca="false">SUM(E4:E26)</f>
+        <v>97.5</v>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <f aca="false">SUM(F4:F26)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="H2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="I2" s="1" t="n">
+        <f aca="false">SUM(I4:I26)</f>
+        <v>18</v>
+      </c>
       <c r="J2" s="1" t="n">
-        <f aca="false">SUM(J4:J27)</f>
-        <v>19</v>
+        <f aca="false">SUM(J4:J26)</f>
+        <v>26.5</v>
       </c>
       <c r="K2" s="1" t="n">
-        <f aca="false">SUM(K4:K27)</f>
-        <v>27.5</v>
+        <f aca="false">SUM(K4:K26)</f>
+        <v>15.5</v>
       </c>
       <c r="L2" s="1" t="n">
-        <f aca="false">SUM(L4:L27)</f>
-        <v>16.5</v>
+        <f aca="false">SUM(L4:L26)</f>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="n">
-        <f aca="false">SUM(M4:M27)</f>
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <f aca="false">SUM(N4:N27)</f>
-        <v>14.5</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <f aca="false">SUM(P4:P27)</f>
-        <v>74.5166666666667</v>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <f aca="false">SUM(Q4:Q27)</f>
+        <f aca="false">SUM(M4:M26)</f>
+        <v>13.5</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <f aca="false">SUM(O4:O26)</f>
+        <v>72.65</v>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <f aca="false">SUM(P4:P26)</f>
         <is>
           <t/>
         </is>
       </c>
+      <c r="S2" s="1" t="n">
+        <f aca="false">SUM(S4:S26)</f>
+        <v>14.5333333333333</v>
+      </c>
       <c r="T2" s="1" t="n">
-        <f aca="false">SUM(T4:T20)</f>
-        <v>9.6</v>
+        <f aca="false">SUM(T4:T26)</f>
+        <v>16.0666666666667</v>
       </c>
       <c r="U2" s="1" t="n">
-        <f aca="false">SUM(U4:U20)</f>
-        <v>9.88333333333333</v>
+        <f aca="false">SUM(U4:U26)</f>
+        <v>12.8</v>
       </c>
       <c r="V2" s="1" t="n">
-        <f aca="false">SUM(V4:V20)</f>
-        <v>8.68333333333333</v>
+        <f aca="false">SUM(V4:V26)</f>
+        <v>16.6166666666667</v>
       </c>
       <c r="W2" s="1" t="n">
-        <f aca="false">SUM(W4:W20)</f>
-        <v>14.3666666666667</v>
-      </c>
-      <c r="X2" s="1" t="n">
-        <f aca="false">SUM(X4:X20)</f>
-        <v>8.51666666666667</v>
+        <f aca="false">SUM(W4:W26)</f>
+        <v>12.6333333333333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="3">
@@ -2591,7 +2903,7 @@
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -2600,75 +2912,76 @@
       <c r="E3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="4">
+      <c r="A4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
-      <c r="A4" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="8" t="n">
+      <c r="E4" s="8" t="n">
         <f aca="false">1.5*5</f>
         <v>7.5</v>
       </c>
-      <c r="G4" s="9" t="n">
-        <f aca="false">F4/F2</f>
-        <v>0.0731707317073171</v>
-      </c>
-      <c r="H4" s="14" t="n">
-        <v>1</v>
+      <c r="F4" s="9" t="n">
+        <f aca="false">E4/E2</f>
+        <v>0.0769230769230769</v>
+      </c>
+      <c r="G4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>1.5</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>1.5</v>
@@ -2682,54 +2995,57 @@
       <c r="M4" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="N4" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <f aca="false">SUM(T4:X4)</f>
+      <c r="O4" s="1" t="n">
+        <f aca="false">SUM(S4:W4)</f>
         <v>4.46666666666667</v>
       </c>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29" t="n">
-        <v>1</v>
-      </c>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1" t="n">
+      <c r="T4" s="1" t="n">
         <f aca="false">20/60</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="U4" s="1" t="n">
         <f aca="false">65/60</f>
         <v>1.08333333333333</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="V4" s="1" t="n">
         <f aca="false">113/60</f>
         <v>1.88333333333333</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="W4" s="1" t="n">
         <f aca="false">(30+40)/60</f>
         <v>1.16666666666667</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="5">
       <c r="A5" s="14" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="8" t="n">
+      <c r="C5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G5" s="9" t="n">
-        <f aca="false">F5/F2</f>
-        <v>0.0487804878048781</v>
-      </c>
-      <c r="H5" s="14" t="n">
+      <c r="F5" s="9" t="n">
+        <f aca="false">E5/E2</f>
+        <v>0.0512820512820513</v>
+      </c>
+      <c r="G5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="n">
@@ -2744,23 +3060,24 @@
       <c r="M5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="n">
-        <f aca="false">SUM(T5:X5)</f>
+      <c r="O5" s="1" t="n">
+        <f aca="false">SUM(S5:W5)</f>
         <v>5.08333333333333</v>
       </c>
-      <c r="Q5" s="3" t="inlineStr">
-        <f aca="false">G5</f>
+      <c r="P5" s="3" t="inlineStr">
+        <f aca="false">F5</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="R5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1"/>
+      <c r="Q5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="n">
+        <f aca="false">61/60</f>
+        <v>1.01666666666667</v>
+      </c>
       <c r="T5" s="1" t="n">
         <f aca="false">61/60</f>
         <v>1.01666666666667</v>
@@ -2777,29 +3094,31 @@
         <f aca="false">61/60</f>
         <v>1.01666666666667</v>
       </c>
-      <c r="X5" s="1" t="n">
-        <f aca="false">61/60</f>
-        <v>1.01666666666667</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="6">
       <c r="A6" s="14" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="9" t="n">
-        <f aca="false">F6/F2</f>
-        <v>0.0487804878048781</v>
-      </c>
-      <c r="H6" s="14" t="n">
+      <c r="F6" s="9" t="n">
+        <f aca="false">E6/E2</f>
+        <v>0.0512820512820513</v>
+      </c>
+      <c r="G6" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="1" t="n">
@@ -2814,23 +3133,24 @@
       <c r="M6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1" t="n">
-        <f aca="false">SUM(T6:X6)</f>
+      <c r="O6" s="1" t="n">
+        <f aca="false">SUM(S6:W6)</f>
         <v>3.75</v>
       </c>
-      <c r="Q6" s="3" t="inlineStr">
-        <f aca="false">G6</f>
+      <c r="P6" s="3" t="inlineStr">
+        <f aca="false">F6</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="R6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1"/>
+      <c r="Q6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="n">
+        <f aca="false">45/60</f>
+        <v>0.75</v>
+      </c>
       <c r="T6" s="1" t="n">
         <f aca="false">45/60</f>
         <v>0.75</v>
@@ -2847,382 +3167,400 @@
         <f aca="false">45/60</f>
         <v>0.75</v>
       </c>
-      <c r="X6" s="1" t="n">
-        <f aca="false">45/60</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="7">
       <c r="A7" s="14" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <f aca="false">F7/F2</f>
-        <v>0.0195121951219512</v>
-      </c>
-      <c r="H7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" s="1" t="n">
-        <f aca="false">SUM(T7:X7)</f>
+        <v>15</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <f aca="false">E7/E2</f>
+        <v>0.0205128205128205</v>
+      </c>
+      <c r="G7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <f aca="false">SUM(S7:W7)</f>
         <v>1.85</v>
       </c>
-      <c r="Q7" s="3" t="inlineStr">
-        <f aca="false">G7</f>
+      <c r="P7" s="3" t="inlineStr">
+        <f aca="false">F7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="R7" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1" t="n">
+      <c r="V7" s="1" t="n">
         <f aca="false">111/60</f>
         <v>1.85</v>
       </c>
-      <c r="X7" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="8" s="20">
+      <c r="W7" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="8" s="19">
       <c r="A8" s="14" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="G8" s="9" t="n">
-        <f aca="false">F8/F2</f>
-        <v>0.00487804878048781</v>
-      </c>
-      <c r="H8" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="18"/>
+      <c r="F8" s="9" t="n">
+        <f aca="false">E8/E2</f>
+        <v>0.00512820512820513</v>
+      </c>
+      <c r="G8" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1" t="n">
+      <c r="L8" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="N8" s="18"/>
-      <c r="P8" s="1" t="n">
-        <f aca="false">SUM(T8:X8)</f>
+      <c r="M8" s="17"/>
+      <c r="O8" s="1" t="n">
+        <f aca="false">SUM(S8:W8)</f>
         <v>0.25</v>
       </c>
-      <c r="Q8" s="3" t="inlineStr">
-        <f aca="false">G8</f>
+      <c r="P8" s="3" t="inlineStr">
+        <f aca="false">F8</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="R8" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18" t="n">
+      <c r="Q8" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17" t="n">
         <f aca="false">15/60</f>
         <v>0.25</v>
       </c>
-      <c r="X8" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="9" s="20">
+      <c r="W8" s="17"/>
+      <c r="AMJ8" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="9" s="19">
       <c r="A9" s="14" t="n">
         <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="G9" s="9" t="n">
-        <f aca="false">F9/F2</f>
-        <v>0.00487804878048781</v>
-      </c>
-      <c r="H9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="n">
+      <c r="F9" s="9" t="n">
+        <f aca="false">E9/E2</f>
+        <v>0.00512820512820513</v>
+      </c>
+      <c r="G9" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="N9" s="18"/>
-      <c r="P9" s="1" t="n">
-        <f aca="false">SUM(T9:X9)</f>
+      <c r="M9" s="17"/>
+      <c r="O9" s="1" t="n">
+        <f aca="false">SUM(S9:W9)</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="Q9" s="3" t="inlineStr">
-        <f aca="false">G9</f>
+      <c r="P9" s="3" t="inlineStr">
+        <f aca="false">F9</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="R9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18" t="n">
+      <c r="Q9" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17" t="n">
         <f aca="false">40/60</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="X9" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10" s="20">
+      <c r="W9" s="17"/>
+      <c r="AMJ9" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="10" s="19">
       <c r="A10" s="14" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="G10" s="9" t="n">
-        <f aca="false">F10/F2</f>
-        <v>0.00487804878048781</v>
-      </c>
-      <c r="H10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1" t="n">
+      <c r="F10" s="9" t="n">
+        <f aca="false">E10/E2</f>
+        <v>0.00512820512820513</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="P10" s="1" t="n">
-        <f aca="false">SUM(T10:X10)</f>
+      <c r="M10" s="17"/>
+      <c r="O10" s="1" t="n">
+        <f aca="false">SUM(S10:W10)</f>
         <v>0.416666666666667</v>
       </c>
-      <c r="Q10" s="3" t="inlineStr">
-        <f aca="false">G10</f>
+      <c r="P10" s="3" t="inlineStr">
+        <f aca="false">F10</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="R10" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18" t="n">
+      <c r="Q10" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17" t="n">
         <f aca="false">25/60</f>
         <v>0.416666666666667</v>
       </c>
-      <c r="X10" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11" s="20">
+      <c r="W10" s="17"/>
+      <c r="AMJ10" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="11" s="19">
       <c r="A11" s="14" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="9" t="n">
-        <f aca="false">F11/F2</f>
-        <v>0.0195121951219512</v>
-      </c>
-      <c r="H11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="P11" s="1" t="n">
-        <f aca="false">SUM(T11:X11)</f>
+        <v>25</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <f aca="false">E11/E2</f>
+        <v>0.0205128205128205</v>
+      </c>
+      <c r="G11" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="O11" s="1" t="n">
+        <f aca="false">SUM(S11:W11)</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="Q11" s="3" t="inlineStr">
-        <f aca="false">G11</f>
+      <c r="P11" s="3" t="inlineStr">
+        <f aca="false">F11</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="R11" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18" t="n">
+      <c r="Q11" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17" t="n">
         <f aca="false">35/60</f>
         <v>0.583333333333333</v>
       </c>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18" t="n">
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17" t="n">
         <f aca="false">35/60</f>
         <v>0.583333333333333</v>
       </c>
-      <c r="X11" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="12" s="20">
+      <c r="W11" s="17"/>
+      <c r="AMJ11" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="12" s="19">
       <c r="A12" s="14" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="9" t="n">
-        <f aca="false">F12/F2</f>
-        <v>0.0292682926829268</v>
-      </c>
-      <c r="H12" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18" t="n">
+      <c r="F12" s="9" t="n">
+        <f aca="false">E12/E2</f>
+        <v>0.0307692307692308</v>
+      </c>
+      <c r="G12" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17" t="n">
         <v>1.5</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18" t="n">
+      <c r="K12" s="17"/>
+      <c r="L12" s="17" t="n">
         <v>1.5</v>
       </c>
-      <c r="N12" s="18"/>
-      <c r="P12" s="1" t="n">
-        <f aca="false">SUM(T12:X12)</f>
+      <c r="M12" s="17"/>
+      <c r="O12" s="1" t="n">
+        <f aca="false">SUM(S12:W12)</f>
         <v>3.9</v>
       </c>
-      <c r="Q12" s="3" t="inlineStr">
-        <f aca="false">G12</f>
+      <c r="P12" s="3" t="inlineStr">
+        <f aca="false">F12</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="R12" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18" t="n">
+      <c r="Q12" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17" t="n">
         <f aca="false">(45+72)/60</f>
         <v>1.95</v>
       </c>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18" t="n">
+      <c r="U12" s="17"/>
+      <c r="V12" s="17" t="n">
         <f aca="false">(45+72)/60</f>
         <v>1.95</v>
       </c>
-      <c r="X12" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="13" s="20">
+      <c r="W12" s="17"/>
+      <c r="AMJ12" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="13" s="19">
       <c r="A13" s="14" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="C13" s="0"/>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="G13" s="9" t="n">
-        <f aca="false">F13/F2</f>
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="H13" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" s="1" t="n">
-        <f aca="false">SUM(T13:X13)</f>
-        <v>1.86666666666667</v>
-      </c>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18" t="n">
-        <f aca="false">112/60</f>
-        <v>1.86666666666667</v>
-      </c>
-      <c r="X13" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+      <c r="F13" s="9" t="n">
+        <f aca="false">E13/E2</f>
+        <v>0.102564102564103</v>
+      </c>
+      <c r="G13" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <f aca="false">SUM(S13:W13)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="AMJ13" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="14">
       <c r="A14" s="14" t="n">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G14" s="3" t="n">
-        <f aca="false">F14/F2</f>
-        <v>0.146341463414634</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>2</v>
+      <c r="F14" s="3" t="n">
+        <f aca="false">E14/E2</f>
+        <v>0.153846153846154</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="n">
         <v>3</v>
@@ -3236,444 +3574,475 @@
       <c r="M14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="N14" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="P14" s="1" t="n">
-        <f aca="false">SUM(T14:X14)</f>
+      <c r="O14" s="1" t="n">
+        <f aca="false">SUM(S14:W14)</f>
         <v>2.83333333333333</v>
       </c>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1" t="n">
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1" t="n">
         <f aca="false">80/60</f>
         <v>1.33333333333333</v>
       </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1" t="n">
+      <c r="T14" s="1"/>
+      <c r="U14" s="1" t="n">
         <f aca="false">90/60</f>
         <v>1.5</v>
       </c>
+      <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="15" s="20">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="15" s="19">
       <c r="A15" s="14" t="n">
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="18" t="n">
+      <c r="E15" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="G15" s="9" t="n">
-        <f aca="false">F15/F2</f>
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="H15" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" s="1" t="n">
-        <f aca="false">SUM(T15:X15)</f>
+      <c r="F15" s="9" t="n">
+        <f aca="false">E15/E2</f>
+        <v>0.102564102564103</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <f aca="false">SUM(S15:W15)</f>
         <v>8</v>
       </c>
-      <c r="Q15" s="31" t="inlineStr">
-        <f aca="false">G15</f>
+      <c r="P15" s="30" t="inlineStr">
+        <f aca="false">F15</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="R15" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18" t="n">
+      <c r="Q15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17" t="n">
         <f aca="false">120/60</f>
         <v>2</v>
       </c>
-      <c r="U15" s="18" t="n">
+      <c r="T15" s="17" t="n">
         <f aca="false">90/60</f>
         <v>1.5</v>
       </c>
-      <c r="V15" s="18" t="n">
+      <c r="U15" s="17" t="n">
         <f aca="false">90/60</f>
         <v>1.5</v>
       </c>
-      <c r="W15" s="18" t="n">
+      <c r="V15" s="17" t="n">
         <f aca="false">90/60</f>
         <v>1.5</v>
       </c>
-      <c r="X15" s="18" t="n">
+      <c r="W15" s="17" t="n">
         <f aca="false">90/60</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="16" s="20">
+      <c r="AMJ15" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="16" s="19">
       <c r="A16" s="14" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="9" t="n">
-        <f aca="false">F16/F2</f>
-        <v>0.0195121951219512</v>
-      </c>
-      <c r="H16" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="18"/>
-      <c r="P16" s="14" t="n">
-        <f aca="false">SUM(T16:X16)</f>
+        <v>36</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <f aca="false">E16/E2</f>
+        <v>0.0205128205128205</v>
+      </c>
+      <c r="G16" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="O16" s="14" t="n">
+        <f aca="false">SUM(S16:W16)</f>
         <v>15.4166666666667</v>
       </c>
-      <c r="Q16" s="32" t="inlineStr">
-        <f aca="false">SUM(G16:G18)</f>
+      <c r="P16" s="31" t="inlineStr">
+        <f aca="false">SUM(F16:F18)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="R16" s="32" t="n">
+      <c r="Q16" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="S16" s="18"/>
-      <c r="T16" s="19" t="n">
+      <c r="R16" s="17"/>
+      <c r="S16" s="18" t="n">
         <f aca="false">(40+75+90)/60</f>
         <v>3.41666666666667</v>
       </c>
-      <c r="U16" s="19" t="n">
+      <c r="T16" s="18" t="n">
         <f aca="false">(75+45+140)/60</f>
         <v>4.33333333333333</v>
       </c>
-      <c r="V16" s="19" t="n">
+      <c r="U16" s="18" t="n">
         <f aca="false">(120+50)/60</f>
         <v>2.83333333333333</v>
       </c>
-      <c r="W16" s="19" t="n">
+      <c r="V16" s="18" t="n">
         <f aca="false">75/60</f>
         <v>1.25</v>
       </c>
-      <c r="X16" s="19" t="n">
+      <c r="W16" s="18" t="n">
         <f aca="false">(140+75)/60</f>
         <v>3.58333333333333</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="17" s="20">
+      <c r="AMJ16" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="17" s="19">
       <c r="A17" s="14" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="9" t="n">
-        <f aca="false">F17/F2</f>
-        <v>0.0195121951219512</v>
-      </c>
-      <c r="H17" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
+        <v>39</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <f aca="false">E17/E2</f>
+        <v>0.0205128205128205</v>
+      </c>
+      <c r="G17" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="17"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="18" s="20">
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="AMJ17" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="18" s="19">
       <c r="A18" s="14" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18" t="n">
+        <v>41</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="G18" s="9" t="n">
-        <f aca="false">F18/F2</f>
-        <v>0.0390243902439024</v>
-      </c>
-      <c r="H18" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
+      <c r="F18" s="9" t="n">
+        <f aca="false">E18/E2</f>
+        <v>0.041025641025641</v>
+      </c>
+      <c r="G18" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="17"/>
       <c r="S18" s="18"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="19" s="20">
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="AMJ18" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="19" s="19">
       <c r="A19" s="14" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="18" t="n">
+      <c r="D19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="G19" s="9" t="n">
-        <f aca="false">F19/F2</f>
-        <v>0.00487804878048781</v>
-      </c>
-      <c r="H19" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="M19" s="18" t="n">
+      <c r="F19" s="9" t="n">
+        <f aca="false">E19/E2</f>
+        <v>0.00512820512820513</v>
+      </c>
+      <c r="G19" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="L19" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="N19" s="18"/>
-      <c r="P19" s="1" t="n">
-        <f aca="false">SUM(T19:X19)</f>
+      <c r="M19" s="17"/>
+      <c r="O19" s="1" t="n">
+        <f aca="false">SUM(S19:W19)</f>
         <v>0.383333333333333</v>
       </c>
-      <c r="Q19" s="31" t="inlineStr">
-        <f aca="false">G19</f>
+      <c r="P19" s="30" t="inlineStr">
+        <f aca="false">F19</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="R19" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18" t="n">
+      <c r="Q19" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17" t="n">
         <f aca="false">23/60</f>
         <v>0.383333333333333</v>
       </c>
-      <c r="X19" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="20" s="20">
+      <c r="W19" s="17"/>
+      <c r="AMJ19" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="20" s="19">
       <c r="A20" s="14" t="n">
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" s="9" t="n">
-        <f aca="false">F20/F2</f>
-        <v>0.0195121951219512</v>
-      </c>
-      <c r="H20" s="18" t="n">
+        <v>46</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <f aca="false">E20/E2</f>
+        <v>0.0205128205128205</v>
+      </c>
+      <c r="G20" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="P20" s="1" t="n">
-        <f aca="false">SUM(T20:X20)</f>
-        <v>1</v>
-      </c>
-      <c r="Q20" s="31" t="inlineStr">
-        <f aca="false">G20</f>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="O20" s="1" t="n">
+        <f aca="false">SUM(S20:W20)</f>
+        <v>1</v>
+      </c>
+      <c r="P20" s="30" t="inlineStr">
+        <f aca="false">F20</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="R20" s="18" t="n">
+      <c r="Q20" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18" t="n">
+      <c r="R20" s="17"/>
+      <c r="S20" s="17" t="n">
         <f aca="false">30/60</f>
         <v>0.5</v>
       </c>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18" t="n">
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17" t="n">
         <f aca="false">30/60</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="21" s="20">
+      <c r="AMJ20" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="21" s="19">
       <c r="A21" s="14" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="18" t="n">
+      <c r="E21" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="G21" s="9" t="n">
-        <f aca="false">F21/F2</f>
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="H21" s="18" t="n">
+      <c r="F21" s="9" t="n">
+        <f aca="false">E21/E2</f>
+        <v>0.102564102564103</v>
+      </c>
+      <c r="G21" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="L21" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M21" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="N21" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P21" s="1" t="n">
-        <f aca="false">SUM(T21:X21)</f>
+      <c r="I21" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <f aca="false">SUM(S21:W21)</f>
         <v>8.16666666666667</v>
       </c>
-      <c r="Q21" s="31" t="inlineStr">
-        <f aca="false">G21</f>
+      <c r="P21" s="30" t="inlineStr">
+        <f aca="false">F21</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="R21" s="18" t="n">
+      <c r="Q21" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18" t="n">
+      <c r="R21" s="17"/>
+      <c r="S21" s="17" t="n">
         <f aca="false">98/60</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="U21" s="18" t="n">
+      <c r="T21" s="17" t="n">
         <f aca="false">98/60</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="V21" s="18" t="n">
+      <c r="U21" s="17" t="n">
         <f aca="false">98/60</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="W21" s="18" t="n">
+      <c r="V21" s="17" t="n">
         <f aca="false">98/60</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="X21" s="18" t="n">
+      <c r="W21" s="17" t="n">
         <f aca="false">98/60</f>
         <v>1.63333333333333</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="22">
+      <c r="AMJ21" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.65" outlineLevel="0" r="22">
       <c r="A22" s="14" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" s="9" t="n">
-        <f aca="false">F22/F2</f>
-        <v>0.0195121951219512</v>
-      </c>
-      <c r="H22" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <f aca="false">E22/E2</f>
+        <v>0.0205128205128205</v>
+      </c>
+      <c r="G22" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="K22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P22" s="1" t="n">
-        <f aca="false">SUM(T22:X22)</f>
+      <c r="J22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <f aca="false">SUM(S22:W22)</f>
         <v>2.5</v>
       </c>
-      <c r="Q22" s="31" t="inlineStr">
-        <f aca="false">G22</f>
+      <c r="P22" s="30" t="inlineStr">
+        <f aca="false">F22</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="R22" s="1" t="n">
+      <c r="Q22" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="S22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1" t="n">
+        <f aca="false">30/60</f>
+        <v>0.5</v>
+      </c>
       <c r="T22" s="1" t="n">
         <f aca="false">30/60</f>
         <v>0.5</v>
@@ -3690,48 +4059,54 @@
         <f aca="false">30/60</f>
         <v>0.5</v>
       </c>
-      <c r="X22" s="1" t="n">
-        <f aca="false">30/60</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="23">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="23">
       <c r="A23" s="14" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G23" s="9" t="n">
-        <f aca="false">F23/F2</f>
-        <v>0.0292682926829268</v>
-      </c>
-      <c r="H23" s="1" t="n">
+      <c r="F23" s="9" t="n">
+        <f aca="false">E23/E2</f>
+        <v>0.0307692307692308</v>
+      </c>
+      <c r="G23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>1.5</v>
       </c>
       <c r="J23" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="K23" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P23" s="1" t="n">
-        <f aca="false">SUM(T23:X23)</f>
+      <c r="O23" s="1" t="n">
+        <f aca="false">SUM(S23:W23)</f>
         <v>6.25</v>
       </c>
-      <c r="Q23" s="31" t="inlineStr">
-        <f aca="false">G23</f>
+      <c r="P23" s="30" t="inlineStr">
+        <f aca="false">F23</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="R23" s="1" t="n">
+      <c r="Q23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="S23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1" t="n">
+        <f aca="false">75/60</f>
+        <v>1.25</v>
+      </c>
       <c r="T23" s="1" t="n">
         <f aca="false">75/60</f>
         <v>1.25</v>
@@ -3748,123 +4123,140 @@
         <f aca="false">75/60</f>
         <v>1.25</v>
       </c>
-      <c r="X23" s="1" t="n">
-        <f aca="false">75/60</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="24">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.65" outlineLevel="0" r="24">
       <c r="A24" s="14" t="n">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" s="9" t="n">
-        <f aca="false">F24/F2</f>
-        <v>0.0195121951219512</v>
-      </c>
-      <c r="H24" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <f aca="false">E24/E2</f>
+        <v>0.0205128205128205</v>
+      </c>
+      <c r="G24" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="I24" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="1" t="n">
-        <f aca="false">SUM(T24:X24)</f>
+      <c r="O24" s="1" t="n">
+        <f aca="false">SUM(S24:W24)</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="Q24" s="31" t="inlineStr">
-        <f aca="false">G24</f>
+      <c r="P24" s="30" t="inlineStr">
+        <f aca="false">F24</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="R24" s="1" t="n">
+      <c r="Q24" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="S24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1" t="n">
+        <f aca="false">49/60</f>
+        <v>0.816666666666667</v>
+      </c>
       <c r="T24" s="1" t="n">
         <f aca="false">49/60</f>
         <v>0.816666666666667</v>
       </c>
-      <c r="U24" s="1" t="n">
-        <f aca="false">49/60</f>
-        <v>0.816666666666667</v>
-      </c>
+      <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="25">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="25">
       <c r="A25" s="14" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G25" s="9" t="n">
-        <f aca="false">F25/F2</f>
-        <v>0.0390243902439024</v>
-      </c>
-      <c r="H25" s="1" t="n">
+      <c r="F25" s="9" t="n">
+        <f aca="false">E25/E2</f>
+        <v>0.041025641025641</v>
+      </c>
+      <c r="G25" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="I25" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="J25" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K25" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P25" s="1" t="n">
-        <f aca="false">SUM(T25:X25)</f>
+      <c r="O25" s="1" t="n">
+        <f aca="false">SUM(S25:W25)</f>
         <v>1.25</v>
       </c>
-      <c r="Q25" s="31" t="inlineStr">
-        <f aca="false">G25</f>
+      <c r="P25" s="30" t="inlineStr">
+        <f aca="false">F25</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="R25" s="1" t="n">
+      <c r="Q25" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1" t="n">
+      <c r="T25" s="1" t="n">
         <f aca="false">75/60</f>
         <v>1.25</v>
       </c>
+      <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="26">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="26">
       <c r="A26" s="14" t="n">
         <v>23</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G26" s="9" t="n">
-        <f aca="false">F26/F2</f>
-        <v>0.0487804878048781</v>
-      </c>
-      <c r="H26" s="1" t="n">
+      <c r="F26" s="9" t="n">
+        <f aca="false">E26/E2</f>
+        <v>0.0512820512820513</v>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="I26" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="J26" s="1" t="n">
         <v>1</v>
       </c>
@@ -3877,23 +4269,24 @@
       <c r="M26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="1" t="n">
-        <f aca="false">SUM(T26:X26)</f>
+      <c r="O26" s="1" t="n">
+        <f aca="false">SUM(S26:W26)</f>
         <v>3.66666666666667</v>
       </c>
-      <c r="Q26" s="31" t="inlineStr">
-        <f aca="false">G26</f>
+      <c r="P26" s="30" t="inlineStr">
+        <f aca="false">F26</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="R26" s="1" t="n">
+      <c r="Q26" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="S26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1" t="n">
+        <f aca="false">44/60</f>
+        <v>0.733333333333333</v>
+      </c>
       <c r="T26" s="1" t="n">
         <f aca="false">44/60</f>
         <v>0.733333333333333</v>
@@ -3910,70 +4303,19 @@
         <f aca="false">44/60</f>
         <v>0.733333333333333</v>
       </c>
-      <c r="X26" s="1" t="n">
-        <f aca="false">44/60</f>
-        <v>0.733333333333333</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="27">
-      <c r="A27" s="14" t="n">
-        <v>24</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G27" s="9" t="n">
-        <f aca="false">F27/F2</f>
-        <v>0.0487804878048781</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="1" t="n">
-        <f aca="false">SUM(T27:X27)</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="O16:O18"/>
     <mergeCell ref="P16:P18"/>
     <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="S16:S18"/>
     <mergeCell ref="T16:T18"/>
     <mergeCell ref="U16:U18"/>
     <mergeCell ref="V16:V18"/>
     <mergeCell ref="W16:W18"/>
-    <mergeCell ref="X16:X18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3992,82 +4334,82 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K28" activeCellId="0" pane="topLeft" sqref="K28"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G7" activeCellId="0" pane="topLeft" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="12.5450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="16.8235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="19.4705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="18.2235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="23" width="21.1529411764706"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="21" width="12.5450980392157"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="12.6078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="16.9019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="19.5647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="18.3137254901961"/>
+    <col collapsed="false" hidden="false" max="9" min="5" style="22" width="21.2549019607843"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="20" width="12.6078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
       <c r="A1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>51</v>
+        <v>6</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
-      <c r="A2" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26" t="n">
+      <c r="A2" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="n">
         <v>41902</v>
       </c>
-      <c r="C2" s="25" t="n">
+      <c r="C2" s="24" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D2" s="25" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!H3:H45,A2,'tareas-ciclo1'!F3:F45)</f>
+      <c r="D2" s="24" t="n">
+        <f aca="false">SUMIF('tareas-ciclo1'!G3:G44,A2,'tareas-ciclo1'!E3:E44)</f>
         <v>36</v>
       </c>
-      <c r="E2" s="27" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!H4:H27,A2,'tareas-ciclo1'!G4:G27)</f>
-        <v>0.351219512195122</v>
-      </c>
-      <c r="F2" s="27" t="inlineStr">
+      <c r="E2" s="26" t="n">
+        <f aca="false">SUMIF('tareas-ciclo1'!G4:G26,A2,'tareas-ciclo1'!F4:F26)</f>
+        <v>0.369230769230769</v>
+      </c>
+      <c r="F2" s="26" t="inlineStr">
         <f aca="false">E2</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G2" s="33" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!R4:R27,A2,'tareas-ciclo1'!P4:P27)</f>
-        <v>19.5166666666667</v>
-      </c>
-      <c r="H2" s="27" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!R4:R27,A2,'tareas-ciclo1'!Q4:Q27)</f>
-        <v>0.151219512195122</v>
-      </c>
-      <c r="I2" s="27" t="inlineStr">
+      <c r="G2" s="32" t="n">
+        <f aca="false">SUMIF('tareas-ciclo1'!Q4:Q26,A2,'tareas-ciclo1'!O4:O26)</f>
+        <v>17.65</v>
+      </c>
+      <c r="H2" s="26" t="n">
+        <f aca="false">SUMIF('tareas-ciclo1'!Q4:Q26,A2,'tareas-ciclo1'!P4:P26)</f>
+        <v>0.158974358974359</v>
+      </c>
+      <c r="I2" s="26" t="inlineStr">
         <f aca="false">H2</f>
         <is>
           <t/>
@@ -4075,42 +4417,42 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
-      <c r="A3" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="26" t="inlineStr">
+      <c r="A3" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="inlineStr">
         <f aca="false">B2+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C3" s="25" t="n">
+      <c r="C3" s="24" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D3" s="25" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!H3:H45,A3,'tareas-ciclo1'!F3:F45)</f>
+      <c r="D3" s="24" t="n">
+        <f aca="false">SUMIF('tareas-ciclo1'!G3:G44,A3,'tareas-ciclo1'!E3:E44)</f>
         <v>33.5</v>
       </c>
-      <c r="E3" s="27" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!H4:H27,A3,'tareas-ciclo1'!G4:G27)</f>
-        <v>0.326829268292683</v>
-      </c>
-      <c r="F3" s="27" t="inlineStr">
+      <c r="E3" s="26" t="n">
+        <f aca="false">SUMIF('tareas-ciclo1'!G4:G26,A3,'tareas-ciclo1'!F4:F26)</f>
+        <v>0.343589743589744</v>
+      </c>
+      <c r="F3" s="26" t="inlineStr">
         <f aca="false">E3+F2</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G3" s="33" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!R4:R27,A3,'tareas-ciclo1'!P4:P27)</f>
+      <c r="G3" s="32" t="n">
+        <f aca="false">SUMIF('tareas-ciclo1'!Q4:Q26,A3,'tareas-ciclo1'!O4:O26)</f>
         <v>15.1166666666667</v>
       </c>
-      <c r="H3" s="27" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!R4:R27,A3,'tareas-ciclo1'!Q4:Q27)</f>
-        <v>0.131707317073171</v>
-      </c>
-      <c r="I3" s="27" t="inlineStr">
+      <c r="H3" s="26" t="n">
+        <f aca="false">SUMIF('tareas-ciclo1'!Q4:Q26,A3,'tareas-ciclo1'!P4:P26)</f>
+        <v>0.138461538461538</v>
+      </c>
+      <c r="I3" s="26" t="inlineStr">
         <f aca="false">H3+I2</f>
         <is>
           <t/>
@@ -4118,67 +4460,63 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
-      <c r="A4" s="25" t="n">
+      <c r="A4" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <f aca="false">B3+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C4" s="25" t="n">
+      <c r="C4" s="24" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D4" s="25" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!H3:H45,A4,'tareas-ciclo1'!F3:F45)</f>
-        <v>33</v>
-      </c>
-      <c r="E4" s="27" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!H4:H27,A4,'tareas-ciclo1'!G4:G27)</f>
-        <v>0.321951219512195</v>
-      </c>
-      <c r="F4" s="27" t="inlineStr">
+      <c r="D4" s="24" t="n">
+        <f aca="false">SUMIF('tareas-ciclo1'!G3:G44,A4,'tareas-ciclo1'!E3:E44)</f>
+        <v>28</v>
+      </c>
+      <c r="E4" s="26" t="n">
+        <f aca="false">SUMIF('tareas-ciclo1'!G4:G26,A4,'tareas-ciclo1'!F4:F26)</f>
+        <v>0.287179487179487</v>
+      </c>
+      <c r="F4" s="26" t="inlineStr">
         <f aca="false">E4+F3</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G4" s="33" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!R4:R27,A4,'tareas-ciclo1'!P4:P27)</f>
+      <c r="G4" s="32" t="n">
+        <f aca="false">SUMIF('tareas-ciclo1'!Q4:Q26,A4,'tareas-ciclo1'!O4:O26)</f>
         <v>39.8833333333333</v>
       </c>
-      <c r="H4" s="27" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!R4:R27,A4,'tareas-ciclo1'!Q4:Q27)</f>
-        <v>0.351219512195122</v>
-      </c>
-      <c r="I4" s="27" t="inlineStr">
+      <c r="H4" s="26" t="n">
+        <f aca="false">SUMIF('tareas-ciclo1'!Q4:Q26,A4,'tareas-ciclo1'!P4:P26)</f>
+        <v>0.369230769230769</v>
+      </c>
+      <c r="I4" s="26" t="inlineStr">
         <f aca="false">H4+I3</f>
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
-      <c r="C5" s="0"/>
-      <c r="G5" s="34"/>
-    </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
-      <c r="A6" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="21" t="n">
+      <c r="A6" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="20" t="n">
         <f aca="false">SUM(C2:C4)</f>
         <v>105</v>
       </c>
-      <c r="D6" s="21" t="n">
+      <c r="D6" s="20" t="n">
         <f aca="false">SUM(D2:D4)</f>
-        <v>102.5</v>
+        <v>97.5</v>
       </c>
       <c r="G6" s="34" t="n">
         <f aca="false">SUM(G2:G4)</f>
-        <v>74.5166666666667</v>
+        <v>72.65</v>
       </c>
     </row>
   </sheetData>

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -5,20 +5,40 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="439" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="4" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="439" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="tareas" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="recursos" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="tareas-ciclo1" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="recursos-ciclo1" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="tiempo-ciclo1" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" name="_1hedm" vbProcedure="false">'tareas-ciclo1'!$J$4:$J$26</definedName>
+    <definedName function="false" hidden="false" name="_1hepm" vbProcedure="false">'tareas-ciclo1'!$L$4:$L$26</definedName>
+    <definedName function="false" hidden="false" name="_1hepqm" vbProcedure="false">'tareas-ciclo1'!$K$4:$K$26</definedName>
+    <definedName function="false" hidden="false" name="_1hesm" vbProcedure="false">'tareas-ciclo1'!$M$4:$M$26</definedName>
+    <definedName function="false" hidden="false" name="_1hetl" vbProcedure="false">'tareas-ciclo1'!$I$4:$I$26</definedName>
+    <definedName function="false" hidden="false" name="_1PIDGE" vbProcedure="false">'tareas-ciclo1'!$F$4:$F$26</definedName>
+    <definedName function="false" hidden="false" name="_1PIDGO" vbProcedure="false">'tareas-ciclo1'!$P$4:$P$26</definedName>
+    <definedName function="false" hidden="false" name="_1SE" vbProcedure="false">'tareas-ciclo1'!$G$4:$G$26</definedName>
+    <definedName function="false" hidden="false" name="_1SR" vbProcedure="false">'tareas-ciclo1'!$Q$4:$Q$26</definedName>
+    <definedName function="false" hidden="false" name="_1TDHE" vbProcedure="false">'tareas-ciclo1'!$E$4:$E$26</definedName>
+    <definedName function="false" hidden="false" name="_1TDHT" vbProcedure="false">'tareas-ciclo1'!$O$4:$O$26</definedName>
+    <definedName function="false" hidden="false" name="_gPIDGE" vbProcedure="false">tareas!$F$3:$F$45</definedName>
+    <definedName function="false" hidden="false" name="_gPIDGO" vbProcedure="false">tareas!$J$3:$J$45</definedName>
+    <definedName function="false" hidden="false" name="_gSE" vbProcedure="false">tareas!$G$3:$G$45</definedName>
+    <definedName function="false" hidden="false" name="_gSR" vbProcedure="false">tareas!$K$3:$K$45</definedName>
+    <definedName function="false" hidden="false" name="_gTDHE" vbProcedure="false">tareas!$E$3:$E$45</definedName>
+    <definedName function="false" hidden="false" name="_gTDHT" vbProcedure="false">tareas!$I$3:$I$45</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
   <si>
     <t>Id</t>
   </si>
@@ -41,6 +61,12 @@
     <t>Semana</t>
   </si>
   <si>
+    <t>Total de horas trabajadas</t>
+  </si>
+  <si>
+    <t>Porcentaje individual de ganancias obtenidas</t>
+  </si>
+  <si>
     <t>Ver video tutorial de GitHub.</t>
   </si>
   <si>
@@ -344,12 +370,18 @@
     <t>Porcentaje Acumulado de Ganacias Estimadas</t>
   </si>
   <si>
+    <t>Horas Trabajadas</t>
+  </si>
+  <si>
     <t>Porcentaje Individual de Ganancias Obtenidas</t>
   </si>
   <si>
     <t>Porcentaje Acumulado de Ganancias Obtenidas</t>
   </si>
   <si>
+    <t>Totales</t>
+  </si>
+  <si>
     <t>Plan</t>
   </si>
   <si>
@@ -371,19 +403,46 @@
     <t>Support Manager</t>
   </si>
   <si>
-    <t>Total de horas trabajadas</t>
-  </si>
-  <si>
     <t>Porcentaje individual de ganacias obtenidas</t>
   </si>
   <si>
     <t>Instalar y configurar Ruby On Rails.</t>
   </si>
   <si>
-    <t>Horas Trabajadas</t>
-  </si>
-  <si>
-    <t>Totales</t>
+    <t>Horas Estimadas Team Leader</t>
+  </si>
+  <si>
+    <t>Horas Estimadas Development Manager</t>
+  </si>
+  <si>
+    <t>Horas Estimadas Process/Quality Manager</t>
+  </si>
+  <si>
+    <t>Horas Estimadas Planning Manager</t>
+  </si>
+  <si>
+    <t>Horas Estimadas Support Manager</t>
+  </si>
+  <si>
+    <t>Total de Horas Estimadas</t>
+  </si>
+  <si>
+    <t>Horas Trabajadas Team Leader</t>
+  </si>
+  <si>
+    <t>Horas Trabajadas Development Manager</t>
+  </si>
+  <si>
+    <t>Horas Trabajadas Process/Quality Manager</t>
+  </si>
+  <si>
+    <t>Horas Trabajadas Planning Manager</t>
+  </si>
+  <si>
+    <t>Horas Trabajadas Support Manager</t>
+  </si>
+  <si>
+    <t>Total de Horas Trabajadas</t>
   </si>
 </sst>
 </file>
@@ -395,7 +454,7 @@
     <numFmt formatCode="0.00%" numFmtId="165"/>
     <numFmt formatCode="MM/DD/YYYY" numFmtId="166"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -440,13 +499,18 @@
     <font>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="true"/>
       <sz val="13"/>
     </font>
     <font>
       <name val="Arial"/>
       <family val="2"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="true"/>
+      <sz val="13"/>
     </font>
   </fonts>
   <fills count="4">
@@ -464,8 +528,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF420E"/>
+        <fgColor rgb="00E6E6E6"/>
+        <bgColor rgb="00FFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -510,7 +574,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
@@ -569,6 +633,12 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
@@ -578,8 +648,13 @@
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
@@ -587,17 +662,15 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -610,7 +683,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00E6E6E6"/>
       <rgbColor rgb="00FF0000"/>
       <rgbColor rgb="0000FF00"/>
       <rgbColor rgb="000000FF"/>
@@ -652,7 +725,7 @@
       <rgbColor rgb="003366FF"/>
       <rgbColor rgb="0033CCCC"/>
       <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FFD320"/>
       <rgbColor rgb="00FF9900"/>
       <rgbColor rgb="00FF420E"/>
       <rgbColor rgb="00666699"/>
@@ -670,7 +743,741 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart155.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Ganancias Estimadas vs Ganancias Obtenidas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>recursos!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje Acumulado de Ganacias Estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker/>
+          <c:cat>
+            <c:strRef>
+              <c:f>recursos!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>recursos!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.217522658610272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.419939577039275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.589123867069486</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.845921450151057</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>recursos!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje Acumulado de Ganancias Obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker/>
+          <c:cat>
+            <c:strRef>
+              <c:f>recursos!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>recursos!$I$2:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.138972809667674</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.220543806646526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.438066465256798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.438066465256798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.438066465256798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.438066465256798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.438066465256798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.438066465256798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.438066465256798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.438066465256798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.438066465256798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="48913181"/>
+        <c:axId val="15193612"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="48913181"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="15193612"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="15193612"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48913181"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart156.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Horas Disponibles vs Horas Estimadas vs Horas Trabajadas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>recursos!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Disponibles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>recursos!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>recursos!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>recursos!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>recursos!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>recursos!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>recursos!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>recursos!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>recursos!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>17.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.1166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.8833333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="15400964"/>
+        <c:axId val="72341899"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="15400964"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72341899"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="72341899"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="15400964"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart157.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -808,24 +1615,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.158974358974359</c:v>
+                  <c:v>0.235897435897436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.297435897435897</c:v>
+                  <c:v>0.374358974358974</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.666666666666667</c:v>
+                  <c:v>0.743589743589744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="43782003"/>
-        <c:axId val="10740855"/>
+        <c:axId val="2890276"/>
+        <c:axId val="70533176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43782003"/>
+        <c:axId val="2890276"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,7 +1640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10740855"/>
+        <c:crossAx val="70533176"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -847,7 +1654,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10740855"/>
+        <c:axId val="70533176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +1671,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43782003"/>
+        <c:crossAx val="2890276"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -896,7 +1703,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart158.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -912,7 +1719,7 @@
             </a:pPr>
             <a:r>
               <a:rPr b="1" sz="1300"/>
-              <a:t>Horas Estimadas vs Horas Trabajadas</a:t>
+              <a:t>Ganancias Estimadas vs Ganancias Obtenidas</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -928,11 +1735,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'recursos-ciclo1'!$D$1</c:f>
+              <c:f>'recursos-ciclo1'!$E$1:$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Horas Estimadas</c:v>
+                  <c:v>Porcentaje Individual de Ganacias Estimadas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -944,9 +1751,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'recursos-ciclo1'!$A$2:$A$4</c:f>
+              <c:f>'recursos-ciclo1'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -955,24 +1762,27 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'recursos-ciclo1'!$D$2:$D$4</c:f>
+              <c:f>'recursos-ciclo1'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>0.369230769230769</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.5</c:v>
+                  <c:v>0.343589743589744</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>0.287179487179487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -983,11 +1793,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'recursos-ciclo1'!$G$1</c:f>
+              <c:f>'recursos-ciclo1'!$H$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Horas Trabajadas</c:v>
+                  <c:v>Porcentaje Individual de Ganancias Obtenidas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -999,9 +1809,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'recursos-ciclo1'!$A$2:$A$4</c:f>
+              <c:f>'recursos-ciclo1'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1010,35 +1820,38 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'recursos-ciclo1'!$G$2:$G$4</c:f>
+              <c:f>'recursos-ciclo1'!$H$2:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>17.65</c:v>
+                  <c:v>0.235897435897436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.1166666666667</c:v>
+                  <c:v>0.138461538461538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.8833333333333</c:v>
+                  <c:v>0.369230769230769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="29293049"/>
-        <c:axId val="79430176"/>
+        <c:axId val="31790695"/>
+        <c:axId val="28589913"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29293049"/>
+        <c:axId val="31790695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79430176"/>
+        <c:crossAx val="28589913"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1060,7 +1873,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79430176"/>
+        <c:axId val="28589913"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,7 +1890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="29293049"/>
+        <c:crossAx val="31790695"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -1109,7 +1922,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart159.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1124,8 +1937,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1300"/>
-              <a:t>Ganancias Estimadas vs Ganancias Obtenidas</a:t>
+              <a:rPr sz="1300"/>
+              <a:t>Team Leader</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1141,11 +1954,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'recursos-ciclo1'!$E$1</c:f>
+              <c:f>'tiempo-ciclo1'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Porcentaje Individual de Ganacias Estimadas</c:v>
+                  <c:v>Horas Estimadas Team Leader</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1157,9 +1970,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'recursos-ciclo1'!$A$2:$A$5</c:f>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1168,27 +1981,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'recursos-ciclo1'!$E$2:$E$4</c:f>
+              <c:f>'tiempo-ciclo1'!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.369230769230769</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.343589743589744</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.287179487179487</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,11 +2009,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'recursos-ciclo1'!$H$1</c:f>
+              <c:f>'tiempo-ciclo1'!$I$1:$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Porcentaje Individual de Ganancias Obtenidas</c:v>
+                  <c:v>Horas Trabajadas Team Leader</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1215,9 +2025,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'recursos-ciclo1'!$A$2:$A$5</c:f>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1226,38 +2036,35 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'recursos-ciclo1'!$H$2:$H$4</c:f>
+              <c:f>'tiempo-ciclo1'!$I$2:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.158974358974359</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.138461538461538</c:v>
+                  <c:v>7.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.369230769230769</c:v>
+                  <c:v>5.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="78708088"/>
-        <c:axId val="85952357"/>
+        <c:axId val="23603586"/>
+        <c:axId val="50725992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78708088"/>
+        <c:axId val="23603586"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,8 +2072,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85952357"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="50725992"/>
+        <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1279,7 +2086,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85952357"/>
+        <c:axId val="50725992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,8 +2103,1039 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78708088"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="23603586"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart160.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Development Manager</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Estimadas Development Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$J$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas Development Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$J$2:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="14111205"/>
+        <c:axId val="3823844"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="14111205"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="3823844"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="3823844"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="14111205"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart161.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Process/Quality Manager</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Estimadas Process/Quality Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$K$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas Process/Quality Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$K$2:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="9283474"/>
+        <c:axId val="84767138"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="9283474"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84767138"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84767138"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="9283474"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart162.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Planning Manager</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Estimadas Planning Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$L$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas Planning Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$L$2:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="71839073"/>
+        <c:axId val="38165250"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="71839073"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38165250"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38165250"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71839073"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart163.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Support Manager</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Estimadas Support Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$M$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas Support Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$M$2:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="97629270"/>
+        <c:axId val="67564194"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="97629270"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67564194"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67564194"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97629270"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart164.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Horas Estimadas vs Horas Trabajadas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total de Horas Estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total de Horas Trabajadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$N$2:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="48242007"/>
+        <c:axId val="65681085"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="48242007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65681085"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65681085"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48242007"/>
+        <c:crosses val="autoZero"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -1333,15 +3171,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>185040</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:colOff>222120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>435960</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202320</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1349,8 +3187,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="185040" y="1882800"/>
-        <a:ext cx="7966800" cy="2601000"/>
+        <a:off x="222120" y="3197880"/>
+        <a:ext cx="10734480" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1363,15 +3201,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:colOff>296280</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1429920</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1379,8 +3217,138 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="376560" y="5593680"/>
-        <a:ext cx="5784480" cy="3012120"/>
+        <a:off x="296280" y="7170840"/>
+        <a:ext cx="10692000" cy="3711240"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>244080</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>494640</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>164160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="244080" y="1700640"/>
+        <a:ext cx="8004960" cy="2807280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>260640</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>5400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>442800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>18000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="260640" y="4872960"/>
+        <a:ext cx="7936560" cy="2806920"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>253440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>18720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>814680</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>116280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="253440" y="2251080"/>
+        <a:ext cx="5762880" cy="3241080"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>358920</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>920160</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="358920" y="5731560"/>
+        <a:ext cx="5762880" cy="3240720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1392,29 +3360,119 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>758520</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>353880</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>569160</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>911880</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="6" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6981840" y="5582520"/>
-        <a:ext cx="5779800" cy="3012120"/>
+        <a:off x="353880" y="9296280"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>388800</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>54720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>946800</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="388800" y="12939480"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431640</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>32040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>989640</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>128520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="431640" y="16583760"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>155520</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>146520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>245880</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>68040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7551720" y="2204280"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1428,20 +3486,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A14" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C3" activeCellId="0" pane="topLeft" sqref="C3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.9294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="40.2666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.4705882352941"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="21.4705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.9294117647059"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="4" width="11.9294117647059"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.56470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="40.4627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.5803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="21.5803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.9843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="2.60392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.6156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="21.6156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.9843137254902"/>
+    <col collapsed="false" hidden="false" max="1023" min="12" style="4" width="11.9843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.9843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -1460,6 +3522,16 @@
         </is>
       </c>
       <c r="G1" s="10"/>
+      <c r="I1" s="1" t="n">
+        <f aca="false">SUM(I3:I45)</f>
+        <v>72.65</v>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <f aca="false">SUM(J3:J45)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="2">
       <c r="A2" s="11" t="s">
@@ -1483,17 +3555,26 @@
       <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="I2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="3">
       <c r="A3" s="14" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="8" t="n">
         <f aca="false">1.5*5</f>
@@ -1506,19 +3587,33 @@
       <c r="G3" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="I3" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!O4</f>
+        <v>4.46666666666667</v>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <f aca="false">F3</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!Q4</f>
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="4">
       <c r="A4" s="14" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>5</v>
@@ -1530,19 +3625,33 @@
       <c r="G4" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="I4" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!O5</f>
+        <v>5.08333333333333</v>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <f aca="false">F4</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!Q5</f>
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="5">
       <c r="A5" s="14" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="8" t="n">
         <v>5</v>
@@ -1554,19 +3663,33 @@
       <c r="G5" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="I5" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!O6</f>
+        <v>3.75</v>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <f aca="false">F5</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K5" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!Q6</f>
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="6">
       <c r="A6" s="14" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="8" t="n">
         <v>2</v>
@@ -1578,17 +3701,31 @@
       <c r="G6" s="14" t="n">
         <v>1</v>
       </c>
+      <c r="I6" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!O7</f>
+        <v>1.85</v>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <f aca="false">F6</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K6" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!Q7</f>
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="7" s="19">
       <c r="A7" s="14" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="17" t="n">
         <v>0.5</v>
@@ -1600,20 +3737,31 @@
       <c r="G7" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="AMJ7" s="0"/>
+      <c r="I7" s="17" t="n">
+        <f aca="false">'tareas-ciclo1'!O8</f>
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <f aca="false">F7</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K7" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!Q8</f>
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="8" s="19">
       <c r="A8" s="14" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="17" t="n">
         <v>0.5</v>
@@ -1625,21 +3773,33 @@
       <c r="G8" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="AMJ8" s="0"/>
+      <c r="I8" s="17" t="n">
+        <f aca="false">'tareas-ciclo1'!O9</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J8" s="20" t="inlineStr">
+        <f aca="false">F8</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K8" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!Q9</f>
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="9" s="19">
       <c r="A9" s="14" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="17" t="n">
         <v>0.5</v>
@@ -1651,21 +3811,33 @@
       <c r="G9" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="AMJ9" s="0"/>
+      <c r="I9" s="17" t="n">
+        <f aca="false">'tareas-ciclo1'!O10</f>
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J9" s="20" t="inlineStr">
+        <f aca="false">F9</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K9" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!Q10</f>
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="10" s="19">
       <c r="A10" s="14" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="17" t="n">
         <v>2</v>
@@ -1677,19 +3849,31 @@
       <c r="G10" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="AMJ10" s="0"/>
+      <c r="I10" s="17" t="n">
+        <f aca="false">'tareas-ciclo1'!O11</f>
+        <v>1.16666666666667</v>
+      </c>
+      <c r="J10" s="20" t="inlineStr">
+        <f aca="false">F10</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K10" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!Q11</f>
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="11" s="19">
       <c r="A11" s="14" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="17" t="n">
         <v>3</v>
@@ -1701,18 +3885,30 @@
       <c r="G11" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="AMJ11" s="0"/>
+      <c r="I11" s="17" t="n">
+        <f aca="false">'tareas-ciclo1'!O12</f>
+        <v>3.9</v>
+      </c>
+      <c r="J11" s="20" t="inlineStr">
+        <f aca="false">F11</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K11" s="17" t="n">
+        <f aca="false">'tareas-ciclo1'!Q12</f>
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="12" s="19">
       <c r="A12" s="14" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="0"/>
+        <v>32</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" s="17" t="n">
         <v>10</v>
@@ -1724,17 +3920,25 @@
       <c r="G12" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="AMJ12" s="0"/>
+      <c r="I12" s="17" t="n">
+        <f aca="false">'tareas-ciclo1'!O13</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="17" t="n">
+        <f aca="false">'tareas-ciclo1'!Q13</f>
+        <v>1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="13">
       <c r="A13" s="14" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>15</v>
@@ -1746,16 +3950,24 @@
       <c r="G13" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="I13" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!O14</f>
+        <v>2.83333333333333</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!Q14</f>
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="14" s="19">
       <c r="A14" s="14" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17" t="n">
@@ -1768,20 +3980,33 @@
       <c r="G14" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="AMJ14" s="0"/>
+      <c r="I14" s="17" t="n">
+        <f aca="false">'tareas-ciclo1'!O15</f>
+        <v>8</v>
+      </c>
+      <c r="J14" s="20" t="inlineStr">
+        <f aca="false">F14</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K14" s="17" t="n">
+        <f aca="false">'tareas-ciclo1'!Q15</f>
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="15" s="19">
       <c r="A15" s="14" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E15" s="17" t="n">
         <v>2</v>
@@ -1793,20 +4018,33 @@
       <c r="G15" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="AMJ15" s="0"/>
+      <c r="I15" s="17" t="n">
+        <f aca="false">'tareas-ciclo1'!O16</f>
+        <v>15.4166666666667</v>
+      </c>
+      <c r="J15" s="20" t="inlineStr">
+        <f aca="false">SUM(F15:F17)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K15" s="21" t="n">
+        <f aca="false">'tareas-ciclo1'!Q16</f>
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="16" s="19">
       <c r="A16" s="14" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="D16" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" s="17" t="n">
         <v>2</v>
@@ -1818,20 +4056,22 @@
       <c r="G16" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="AMJ16" s="0"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="17" s="19">
       <c r="A17" s="14" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" s="17" t="n">
         <v>4</v>
@@ -1843,20 +4083,22 @@
       <c r="G17" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="AMJ17" s="0"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="18" s="19">
       <c r="A18" s="14" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" s="17" t="n">
         <v>0.5</v>
@@ -1868,20 +4110,33 @@
       <c r="G18" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="AMJ18" s="0"/>
+      <c r="I18" s="17" t="n">
+        <f aca="false">'tareas-ciclo1'!O19</f>
+        <v>0.383333333333333</v>
+      </c>
+      <c r="J18" s="20" t="inlineStr">
+        <f aca="false">F18</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K18" s="17" t="n">
+        <f aca="false">'tareas-ciclo1'!Q19</f>
+        <v>2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="19" s="19">
       <c r="A19" s="14" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E19" s="17" t="n">
         <v>2</v>
@@ -1893,17 +4148,30 @@
       <c r="G19" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="AMJ19" s="0"/>
+      <c r="I19" s="17" t="n">
+        <f aca="false">'tareas-ciclo1'!O20</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="20" t="inlineStr">
+        <f aca="false">F19</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K19" s="17" t="n">
+        <f aca="false">'tareas-ciclo1'!Q20</f>
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="20" s="19">
       <c r="A20" s="14" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="17" t="n">
@@ -1916,20 +4184,33 @@
       <c r="G20" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="AMJ20" s="0"/>
+      <c r="I20" s="17" t="n">
+        <f aca="false">'tareas-ciclo1'!O21</f>
+        <v>8.16666666666667</v>
+      </c>
+      <c r="J20" s="20" t="inlineStr">
+        <f aca="false">F20</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K20" s="17" t="n">
+        <f aca="false">'tareas-ciclo1'!Q21</f>
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.65" outlineLevel="0" r="21">
       <c r="A21" s="14" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>2</v>
@@ -1941,19 +4222,33 @@
       <c r="G21" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="I21" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!O22</f>
+        <v>2.5</v>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <f aca="false">F21</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K21" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!Q22</f>
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="22">
       <c r="A22" s="14" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>3</v>
@@ -1965,19 +4260,33 @@
       <c r="G22" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="I22" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!O23</f>
+        <v>6.25</v>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <f aca="false">F22</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K22" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!Q23</f>
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.65" outlineLevel="0" r="23">
       <c r="A23" s="14" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>2</v>
@@ -1989,19 +4298,33 @@
       <c r="G23" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="24">
+      <c r="I23" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!O24</f>
+        <v>1.63333333333333</v>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <f aca="false">F23</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K23" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!Q24</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="24">
       <c r="A24" s="14" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>4</v>
@@ -2013,19 +4336,33 @@
       <c r="G24" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="I24" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!O25</f>
+        <v>1.25</v>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <f aca="false">F24</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K24" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!Q25</f>
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="25">
       <c r="A25" s="14" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>5</v>
@@ -2037,19 +4374,33 @@
       <c r="G25" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="I25" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!O26</f>
+        <v>3.66666666666667</v>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <f aca="false">F25</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K25" s="1" t="n">
+        <f aca="false">'tareas-ciclo1'!Q26</f>
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="26">
       <c r="A26" s="14" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>5</v>
@@ -2067,13 +4418,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>5</v>
@@ -2091,13 +4442,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>2</v>
@@ -2115,10 +4466,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>3</v>
@@ -2136,10 +4487,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>10</v>
@@ -2157,13 +4508,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>1</v>
@@ -2181,13 +4532,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>2</v>
@@ -2205,13 +4556,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>5</v>
@@ -2229,13 +4580,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>4</v>
@@ -2253,13 +4604,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>0.5</v>
@@ -2277,13 +4628,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>2</v>
@@ -2301,13 +4652,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>3</v>
@@ -2325,10 +4676,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>5</v>
@@ -2346,13 +4697,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E39" s="1" t="n">
         <v>1</v>
@@ -2370,13 +4721,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>5</v>
@@ -2394,7 +4745,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>4</v>
@@ -2412,7 +4763,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>4</v>
@@ -2430,7 +4781,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>4</v>
@@ -2448,7 +4799,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>0.5</v>
@@ -2466,7 +4817,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>2</v>
@@ -2480,6 +4831,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
@@ -2495,272 +4851,536 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D6" activeCellId="0" pane="topLeft" sqref="D6"/>
+      <selection activeCell="I50" activeCellId="0" pane="topLeft" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="12.6078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="16.9019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="19.5647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="18.3137254901961"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="22" width="21.2549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="20" width="12.6078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="12.6705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="16.9843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="19.6627450980392"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.4039215686275"/>
+    <col collapsed="false" hidden="false" max="9" min="5" style="24" width="21.3607843137255"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="22" width="12.6705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>103</v>
+      <c r="B1" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
-      <c r="A2" s="24" t="n">
+      <c r="A2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="n">
+      <c r="B2" s="27" t="n">
         <v>41902</v>
       </c>
-      <c r="C2" s="24" t="n">
+      <c r="C2" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D2" s="24" t="n">
-        <f aca="false">'recursos-ciclo1'!D2</f>
+      <c r="D2" s="26" t="n">
+        <f aca="false">SUMIF(_gSE,A2,_gTDHE)</f>
         <v>36</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="E2" s="28" t="n">
+        <f aca="false">SUMIF(_gSE,A2,_gPIDGE)</f>
+        <v>0.217522658610272</v>
+      </c>
+      <c r="F2" s="28" t="inlineStr">
+        <f aca="false">E2</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G2" s="29" t="n">
+        <f aca="false">SUMIF(_gSR,A2,_gTDHT)</f>
+        <v>17.65</v>
+      </c>
+      <c r="H2" s="28" t="n">
+        <f aca="false">SUMIF(_gSR,A2,_gPIDGO)</f>
+        <v>0.138972809667674</v>
+      </c>
+      <c r="I2" s="28" t="inlineStr">
+        <f aca="false">H2</f>
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
-      <c r="A3" s="24" t="n">
+      <c r="A3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="inlineStr">
+      <c r="B3" s="27" t="inlineStr">
         <f aca="false">B2+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C3" s="24" t="n">
+      <c r="C3" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D3" s="24" t="n">
-        <f aca="false">'recursos-ciclo1'!D3</f>
+      <c r="D3" s="26" t="n">
+        <f aca="false">SUMIF(_gSE,A3,_gTDHE)</f>
         <v>33.5</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="E3" s="28" t="n">
+        <f aca="false">SUMIF(_gSE,A3,_gPIDGE)</f>
+        <v>0.202416918429003</v>
+      </c>
+      <c r="F3" s="28" t="inlineStr">
+        <f aca="false">E3+F2</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G3" s="29" t="n">
+        <f aca="false">SUMIF(_gSR,A3,_gTDHT)</f>
+        <v>15.1166666666667</v>
+      </c>
+      <c r="H3" s="28" t="n">
+        <f aca="false">SUMIF(_gSR,A3,_gPIDGO)</f>
+        <v>0.081570996978852</v>
+      </c>
+      <c r="I3" s="28" t="inlineStr">
+        <f aca="false">H3+I2</f>
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
-      <c r="A4" s="24" t="n">
+      <c r="A4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="inlineStr">
+      <c r="B4" s="27" t="inlineStr">
         <f aca="false">B3+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C4" s="24" t="n">
+      <c r="C4" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D4" s="24" t="n">
-        <f aca="false">'recursos-ciclo1'!D4</f>
+      <c r="D4" s="26" t="n">
+        <f aca="false">SUMIF(_gSE,A4,_gTDHE)</f>
         <v>28</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="E4" s="28" t="n">
+        <f aca="false">SUMIF(_gSE,A4,_gPIDGE)</f>
+        <v>0.169184290030211</v>
+      </c>
+      <c r="F4" s="28" t="inlineStr">
+        <f aca="false">E4+F3</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G4" s="29" t="n">
+        <f aca="false">SUMIF(_gSR,A4,_gTDHT)</f>
+        <v>39.8833333333333</v>
+      </c>
+      <c r="H4" s="28" t="n">
+        <f aca="false">SUMIF(_gSR,A4,_gPIDGO)</f>
+        <v>0.217522658610272</v>
+      </c>
+      <c r="I4" s="28" t="inlineStr">
+        <f aca="false">H4+I3</f>
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
-      <c r="A5" s="24" t="n">
+      <c r="A5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="inlineStr">
+      <c r="B5" s="27" t="inlineStr">
         <f aca="false">B4+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C5" s="24" t="n">
+      <c r="C5" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="D5" s="26" t="n">
+        <f aca="false">SUMIF(_gSE,A5,_gTDHE)</f>
+        <v>42.5</v>
+      </c>
+      <c r="E5" s="28" t="n">
+        <f aca="false">SUMIF(_gSE,A5,_gPIDGE)</f>
+        <v>0.256797583081571</v>
+      </c>
+      <c r="F5" s="28" t="inlineStr">
+        <f aca="false">E5+F4</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G5" s="29" t="n">
+        <f aca="false">SUMIF(_gSR,A5,_gTDHT)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="28" t="n">
+        <f aca="false">SUMIF(_gSR,A5,_gPIDGO)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="28" t="inlineStr">
+        <f aca="false">H5+I4</f>
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="6">
-      <c r="A6" s="24" t="n">
+      <c r="A6" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="inlineStr">
+      <c r="B6" s="27" t="inlineStr">
         <f aca="false">B5+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="C6" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="D6" s="26" t="n">
+        <f aca="false">SUMIF(_gSE,A6,_gTDHE)</f>
+        <v>25.5</v>
+      </c>
+      <c r="E6" s="28" t="n">
+        <f aca="false">SUMIF(_gSE,A6,_gPIDGE)</f>
+        <v>0.154078549848943</v>
+      </c>
+      <c r="F6" s="28" t="inlineStr">
+        <f aca="false">E6+F5</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G6" s="29" t="n">
+        <f aca="false">SUMIF(_gSR,A6,_gTDHT)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="28" t="n">
+        <f aca="false">SUMIF(_gSR,A6,_gPIDGO)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="28" t="inlineStr">
+        <f aca="false">H6+I5</f>
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="7">
-      <c r="A7" s="24" t="n">
+      <c r="A7" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="25" t="inlineStr">
+      <c r="B7" s="27" t="inlineStr">
         <f aca="false">B6+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C7" s="24" t="n">
+      <c r="C7" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="D7" s="26" t="n">
+        <f aca="false">SUMIF(_gSE,A7,_gTDHE)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="28" t="n">
+        <f aca="false">SUMIF(_gSE,A7,_gPIDGE)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="28" t="inlineStr">
+        <f aca="false">E7+F6</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G7" s="29" t="n">
+        <f aca="false">SUMIF(_gSR,A7,_gTDHT)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="28" t="n">
+        <f aca="false">SUMIF(_gSR,A7,_gPIDGO)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="28" t="inlineStr">
+        <f aca="false">H7+I6</f>
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="8">
-      <c r="A8" s="24" t="n">
+      <c r="A8" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="inlineStr">
+      <c r="B8" s="27" t="inlineStr">
         <f aca="false">B7+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C8" s="24" t="n">
+      <c r="C8" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="D8" s="26" t="n">
+        <f aca="false">SUMIF(_gSE,A8,_gTDHE)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="28" t="n">
+        <f aca="false">SUMIF(_gSE,A8,_gPIDGE)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="28" t="inlineStr">
+        <f aca="false">E8+F7</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G8" s="29" t="n">
+        <f aca="false">SUMIF(_gSR,A8,_gTDHT)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="28" t="n">
+        <f aca="false">SUMIF(_gSR,A8,_gPIDGO)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="28" t="inlineStr">
+        <f aca="false">H8+I7</f>
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="9">
-      <c r="A9" s="24" t="n">
+      <c r="A9" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="inlineStr">
+      <c r="B9" s="27" t="inlineStr">
         <f aca="false">B8+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C9" s="24" t="n">
+      <c r="C9" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="D9" s="26" t="n">
+        <f aca="false">SUMIF(_gSE,A9,_gTDHE)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="28" t="n">
+        <f aca="false">SUMIF(_gSE,A9,_gPIDGE)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="28" t="inlineStr">
+        <f aca="false">E9+F8</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G9" s="29" t="n">
+        <f aca="false">SUMIF(_gSR,A9,_gTDHT)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="28" t="n">
+        <f aca="false">SUMIF(_gSR,A9,_gPIDGO)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="28" t="inlineStr">
+        <f aca="false">H9+I8</f>
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="10">
-      <c r="A10" s="24" t="n">
+      <c r="A10" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="inlineStr">
+      <c r="B10" s="27" t="inlineStr">
         <f aca="false">B9+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C10" s="24" t="n">
+      <c r="C10" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="D10" s="26" t="n">
+        <f aca="false">SUMIF(_gSE,A10,_gTDHE)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="28" t="n">
+        <f aca="false">SUMIF(_gSE,A10,_gPIDGE)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="28" t="inlineStr">
+        <f aca="false">E10+F9</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G10" s="29" t="n">
+        <f aca="false">SUMIF(_gSR,A10,_gTDHT)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="28" t="n">
+        <f aca="false">SUMIF(_gSR,A10,_gPIDGO)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="28" t="inlineStr">
+        <f aca="false">H10+I9</f>
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="11">
-      <c r="A11" s="24" t="n">
+      <c r="A11" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="inlineStr">
+      <c r="B11" s="27" t="inlineStr">
         <f aca="false">B10+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C11" s="24" t="n">
+      <c r="C11" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="D11" s="26" t="n">
+        <f aca="false">SUMIF(_gSE,A11,_gTDHE)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="28" t="n">
+        <f aca="false">SUMIF(_gSE,A11,_gPIDGE)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="28" t="inlineStr">
+        <f aca="false">E11+F10</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G11" s="29" t="n">
+        <f aca="false">SUMIF(_gSR,A11,_gTDHT)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="28" t="n">
+        <f aca="false">SUMIF(_gSR,A11,_gPIDGO)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="28" t="inlineStr">
+        <f aca="false">H11+I10</f>
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="12">
-      <c r="A12" s="24" t="n">
+      <c r="A12" s="26" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="inlineStr">
+      <c r="B12" s="27" t="inlineStr">
         <f aca="false">B11+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C12" s="24" t="n">
+      <c r="C12" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="D12" s="26" t="n">
+        <f aca="false">SUMIF(_gSE,A12,_gTDHE)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="28" t="n">
+        <f aca="false">SUMIF(_gSE,A12,_gPIDGE)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="28" t="inlineStr">
+        <f aca="false">E12+F11</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G12" s="29" t="n">
+        <f aca="false">SUMIF(_gSR,A12,_gTDHT)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="28" t="n">
+        <f aca="false">SUMIF(_gSR,A12,_gPIDGO)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="28" t="inlineStr">
+        <f aca="false">H12+I11</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+      <c r="A14" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="22" t="n">
+        <f aca="false">SUM(C2:C12)</f>
+        <v>385</v>
+      </c>
+      <c r="D14" s="22" t="n">
+        <f aca="false">SUM(D2:D12)</f>
+        <v>165.5</v>
+      </c>
+      <c r="G14" s="30" t="n">
+        <f aca="false">SUM(G2:G12)</f>
+        <v>72.65</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2770,6 +5390,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2778,32 +5399,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:26"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A7" activeCellId="0" pane="topLeft" sqref="A7"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="F19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="M4" activeCellId="0" pane="topLeft" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.56470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="40.2666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.4705882352941"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="21.4705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.9294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="2.70588235294118"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="20.1333333333333"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="4" width="2.70588235294118"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="21.4705882352941"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="11.9294117647059"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="4" width="2.70588235294118"/>
-    <col collapsed="false" hidden="false" max="23" min="19" style="4" width="20.1333333333333"/>
-    <col collapsed="false" hidden="false" max="1023" min="24" style="4" width="11.9294117647059"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.58039215686275"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="40.4627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.5803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="21.5803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.9843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="2.71372549019608"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="20.2313725490196"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="4" width="2.71372549019608"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="21.5803921568627"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="11.9843137254902"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="4" width="2.71372549019608"/>
+    <col collapsed="false" hidden="false" max="23" min="19" style="4" width="20.2313725490196"/>
+    <col collapsed="false" hidden="false" max="1023" min="24" style="4" width="11.9843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.9843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
       <c r="A1" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2818,7 +5439,7 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="O1" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
@@ -2834,7 +5455,7 @@
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="27" t="n">
+      <c r="E2" s="31" t="n">
         <f aca="false">SUM(E4:E26)</f>
         <v>97.5</v>
       </c>
@@ -2847,7 +5468,7 @@
       <c r="G2" s="10"/>
       <c r="I2" s="1" t="n">
         <f aca="false">SUM(I4:I26)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="n">
         <f aca="false">SUM(J4:J26)</f>
@@ -2859,11 +5480,11 @@
       </c>
       <c r="L2" s="1" t="n">
         <f aca="false">SUM(L4:L26)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="1" t="n">
         <f aca="false">SUM(M4:M26)</f>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="O2" s="1" t="n">
         <f aca="false">SUM(O4:O26)</f>
@@ -2919,43 +5540,43 @@
         <v>6</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="4">
@@ -2963,11 +5584,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="8" t="n">
         <f aca="false">1.5*5</f>
@@ -2999,8 +5620,13 @@
         <f aca="false">SUM(S4:W4)</f>
         <v>4.46666666666667</v>
       </c>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28" t="n">
+      <c r="P4" s="32" t="inlineStr">
+        <f aca="false">F4</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q4" s="32" t="n">
         <v>1</v>
       </c>
       <c r="R4" s="1"/>
@@ -3027,13 +5653,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="8" t="n">
         <v>5</v>
@@ -3100,13 +5726,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" s="8" t="n">
         <v>5</v>
@@ -3173,13 +5799,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" s="8" t="n">
         <v>2</v>
@@ -3222,11 +5848,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" s="17" t="n">
         <v>0.5</v>
@@ -3267,18 +5893,17 @@
         <v>0.25</v>
       </c>
       <c r="W8" s="17"/>
-      <c r="AMJ8" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="9" s="19">
       <c r="A9" s="14" t="n">
         <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" s="17" t="n">
         <v>0.5</v>
@@ -3319,20 +5944,19 @@
         <v>0.666666666666667</v>
       </c>
       <c r="W9" s="17"/>
-      <c r="AMJ9" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="10" s="19">
       <c r="A10" s="14" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" s="17" t="n">
         <v>0.5</v>
@@ -3373,20 +5997,19 @@
         <v>0.416666666666667</v>
       </c>
       <c r="W10" s="17"/>
-      <c r="AMJ10" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="11" s="19">
       <c r="A11" s="14" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="17" t="n">
         <v>2</v>
@@ -3398,10 +6021,14 @@
       <c r="G11" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="J11" s="17"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="17"/>
+      <c r="L11" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="M11" s="17"/>
       <c r="O11" s="1" t="n">
         <f aca="false">SUM(S11:W11)</f>
@@ -3428,18 +6055,17 @@
         <v>0.583333333333333</v>
       </c>
       <c r="W11" s="17"/>
-      <c r="AMJ11" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="12" s="19">
       <c r="A12" s="14" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="17" t="n">
         <v>3</v>
@@ -3485,18 +6111,16 @@
         <v>1.95</v>
       </c>
       <c r="W12" s="17"/>
-      <c r="AMJ12" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="13" s="19">
       <c r="A13" s="14" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="0"/>
+        <v>32</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" s="17" t="n">
         <v>10</v>
@@ -3523,12 +6147,12 @@
       <c r="M13" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="O13" s="33" t="n">
         <f aca="false">SUM(S13:W13)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29" t="n">
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="17"/>
@@ -3537,17 +6161,16 @@
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
-      <c r="AMJ13" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="14">
       <c r="A14" s="14" t="n">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>15</v>
@@ -3574,12 +6197,12 @@
       <c r="M14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="O14" s="1" t="n">
+      <c r="O14" s="33" t="n">
         <f aca="false">SUM(S14:W14)</f>
         <v>2.83333333333333</v>
       </c>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28" t="n">
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33" t="n">
         <v>2</v>
       </c>
       <c r="R14" s="1"/>
@@ -3600,10 +6223,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17" t="n">
@@ -3635,7 +6258,7 @@
         <f aca="false">SUM(S15:W15)</f>
         <v>8</v>
       </c>
-      <c r="P15" s="30" t="inlineStr">
+      <c r="P15" s="20" t="inlineStr">
         <f aca="false">F15</f>
         <is>
           <t/>
@@ -3665,20 +6288,19 @@
         <f aca="false">90/60</f>
         <v>1.5</v>
       </c>
-      <c r="AMJ15" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="16" s="19">
       <c r="A16" s="14" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16" s="17" t="n">
         <v>2</v>
@@ -3703,13 +6325,13 @@
         <f aca="false">SUM(S16:W16)</f>
         <v>15.4166666666667</v>
       </c>
-      <c r="P16" s="31" t="inlineStr">
+      <c r="P16" s="35" t="inlineStr">
         <f aca="false">SUM(F16:F18)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q16" s="31" t="n">
+      <c r="Q16" s="36" t="n">
         <v>3</v>
       </c>
       <c r="R16" s="17"/>
@@ -3733,20 +6355,19 @@
         <f aca="false">(140+75)/60</f>
         <v>3.58333333333333</v>
       </c>
-      <c r="AMJ16" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="17" s="19">
       <c r="A17" s="14" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="D17" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" s="17" t="n">
         <v>2</v>
@@ -3766,28 +6387,27 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
       <c r="R17" s="17"/>
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
       <c r="U17" s="18"/>
       <c r="V17" s="18"/>
       <c r="W17" s="18"/>
-      <c r="AMJ17" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="18" s="19">
       <c r="A18" s="14" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" s="17" t="n">
         <v>4</v>
@@ -3809,28 +6429,27 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="O18" s="14"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
       <c r="R18" s="17"/>
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
       <c r="U18" s="18"/>
       <c r="V18" s="18"/>
       <c r="W18" s="18"/>
-      <c r="AMJ18" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="19" s="19">
       <c r="A19" s="14" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E19" s="17" t="n">
         <v>0.5</v>
@@ -3852,7 +6471,7 @@
         <f aca="false">SUM(S19:W19)</f>
         <v>0.383333333333333</v>
       </c>
-      <c r="P19" s="30" t="inlineStr">
+      <c r="P19" s="20" t="inlineStr">
         <f aca="false">F19</f>
         <is>
           <t/>
@@ -3870,20 +6489,19 @@
         <v>0.383333333333333</v>
       </c>
       <c r="W19" s="17"/>
-      <c r="AMJ19" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="20" s="19">
       <c r="A20" s="14" t="n">
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E20" s="17" t="n">
         <v>2</v>
@@ -3895,16 +6513,20 @@
       <c r="G20" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="I20" s="17"/>
+      <c r="I20" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+      <c r="M20" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="O20" s="1" t="n">
         <f aca="false">SUM(S20:W20)</f>
         <v>1</v>
       </c>
-      <c r="P20" s="30" t="inlineStr">
+      <c r="P20" s="20" t="inlineStr">
         <f aca="false">F20</f>
         <is>
           <t/>
@@ -3925,17 +6547,16 @@
         <f aca="false">30/60</f>
         <v>0.5</v>
       </c>
-      <c r="AMJ20" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="21" s="19">
       <c r="A21" s="14" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="17" t="n">
@@ -3967,7 +6588,7 @@
         <f aca="false">SUM(S21:W21)</f>
         <v>8.16666666666667</v>
       </c>
-      <c r="P21" s="30" t="inlineStr">
+      <c r="P21" s="20" t="inlineStr">
         <f aca="false">F21</f>
         <is>
           <t/>
@@ -3997,20 +6618,19 @@
         <f aca="false">98/60</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="AMJ21" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.65" outlineLevel="0" r="22">
       <c r="A22" s="14" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>2</v>
@@ -4029,7 +6649,7 @@
         <f aca="false">SUM(S22:W22)</f>
         <v>2.5</v>
       </c>
-      <c r="P22" s="30" t="inlineStr">
+      <c r="P22" s="20" t="inlineStr">
         <f aca="false">F22</f>
         <is>
           <t/>
@@ -4065,13 +6685,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>3</v>
@@ -4093,7 +6713,7 @@
         <f aca="false">SUM(S23:W23)</f>
         <v>6.25</v>
       </c>
-      <c r="P23" s="30" t="inlineStr">
+      <c r="P23" s="20" t="inlineStr">
         <f aca="false">F23</f>
         <is>
           <t/>
@@ -4129,13 +6749,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>2</v>
@@ -4157,7 +6777,7 @@
         <f aca="false">SUM(S24:W24)</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="P24" s="30" t="inlineStr">
+      <c r="P24" s="20" t="inlineStr">
         <f aca="false">F24</f>
         <is>
           <t/>
@@ -4179,18 +6799,18 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="25">
       <c r="A25" s="14" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>4</v>
@@ -4212,7 +6832,7 @@
         <f aca="false">SUM(S25:W25)</f>
         <v>1.25</v>
       </c>
-      <c r="P25" s="30" t="inlineStr">
+      <c r="P25" s="20" t="inlineStr">
         <f aca="false">F25</f>
         <is>
           <t/>
@@ -4236,13 +6856,13 @@
         <v>23</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>5</v>
@@ -4273,7 +6893,7 @@
         <f aca="false">SUM(S26:W26)</f>
         <v>3.66666666666667</v>
       </c>
-      <c r="P26" s="30" t="inlineStr">
+      <c r="P26" s="20" t="inlineStr">
         <f aca="false">F26</f>
         <is>
           <t/>
@@ -4335,81 +6955,84 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G7" activeCellId="0" pane="topLeft" sqref="G7"/>
+      <selection activeCell="I6" activeCellId="0" pane="topLeft" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="12.6078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="16.9019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="19.5647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="18.3137254901961"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="22" width="21.2549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="20" width="12.6078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="12.6705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="16.9843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="19.6627450980392"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.4039215686275"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="24" width="21.3607843137255"/>
+    <col collapsed="false" hidden="true" max="7" min="7" style="24" width="0"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="24" width="21.3607843137255"/>
+    <col collapsed="false" hidden="false" max="1014" min="10" style="22" width="12.6705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="12.6705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>103</v>
+      <c r="B1" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
-      <c r="A2" s="24" t="n">
+      <c r="A2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="n">
+      <c r="B2" s="27" t="n">
         <v>41902</v>
       </c>
-      <c r="C2" s="24" t="n">
+      <c r="C2" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D2" s="24" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!G3:G44,A2,'tareas-ciclo1'!E3:E44)</f>
+      <c r="D2" s="26" t="n">
+        <f aca="false">SUMIF(_1SE,A2,_1TDHE)</f>
         <v>36</v>
       </c>
-      <c r="E2" s="26" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!G4:G26,A2,'tareas-ciclo1'!F4:F26)</f>
+      <c r="E2" s="28" t="n">
+        <f aca="false">SUMIF(_1SE,A2,_1PIDGE)</f>
         <v>0.369230769230769</v>
       </c>
-      <c r="F2" s="26" t="inlineStr">
+      <c r="F2" s="28" t="inlineStr">
         <f aca="false">E2</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G2" s="32" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!Q4:Q26,A2,'tareas-ciclo1'!O4:O26)</f>
+      <c r="G2" s="29" t="n">
+        <f aca="false">SUMIF(_1SR,A2,_1TDHT)</f>
         <v>17.65</v>
       </c>
-      <c r="H2" s="26" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!Q4:Q26,A2,'tareas-ciclo1'!P4:P26)</f>
-        <v>0.158974358974359</v>
-      </c>
-      <c r="I2" s="26" t="inlineStr">
+      <c r="H2" s="28" t="n">
+        <f aca="false">SUMIF(_1SR,A2,_1PIDGO)</f>
+        <v>0.235897435897436</v>
+      </c>
+      <c r="I2" s="28" t="inlineStr">
         <f aca="false">H2</f>
         <is>
           <t/>
@@ -4417,42 +7040,42 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
-      <c r="A3" s="24" t="n">
+      <c r="A3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="inlineStr">
+      <c r="B3" s="27" t="inlineStr">
         <f aca="false">B2+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C3" s="24" t="n">
+      <c r="C3" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D3" s="24" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!G3:G44,A3,'tareas-ciclo1'!E3:E44)</f>
+      <c r="D3" s="26" t="n">
+        <f aca="false">SUMIF(_1SE,A3,_1TDHE)</f>
         <v>33.5</v>
       </c>
-      <c r="E3" s="26" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!G4:G26,A3,'tareas-ciclo1'!F4:F26)</f>
+      <c r="E3" s="28" t="n">
+        <f aca="false">SUMIF(_1SE,A3,_1PIDGE)</f>
         <v>0.343589743589744</v>
       </c>
-      <c r="F3" s="26" t="inlineStr">
+      <c r="F3" s="28" t="inlineStr">
         <f aca="false">E3+F2</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G3" s="32" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!Q4:Q26,A3,'tareas-ciclo1'!O4:O26)</f>
+      <c r="G3" s="29" t="n">
+        <f aca="false">SUMIF(_1SR,A3,_1TDHT)</f>
         <v>15.1166666666667</v>
       </c>
-      <c r="H3" s="26" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!Q4:Q26,A3,'tareas-ciclo1'!P4:P26)</f>
+      <c r="H3" s="28" t="n">
+        <f aca="false">SUMIF(_1SR,A3,_1PIDGO)</f>
         <v>0.138461538461538</v>
       </c>
-      <c r="I3" s="26" t="inlineStr">
+      <c r="I3" s="28" t="inlineStr">
         <f aca="false">H3+I2</f>
         <is>
           <t/>
@@ -4460,63 +7083,336 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
-      <c r="A4" s="24" t="n">
+      <c r="A4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="inlineStr">
+      <c r="B4" s="27" t="inlineStr">
         <f aca="false">B3+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C4" s="24" t="n">
+      <c r="C4" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D4" s="24" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!G3:G44,A4,'tareas-ciclo1'!E3:E44)</f>
+      <c r="D4" s="26" t="n">
+        <f aca="false">SUMIF(_1SE,A4,_1TDHE)</f>
         <v>28</v>
       </c>
-      <c r="E4" s="26" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!G4:G26,A4,'tareas-ciclo1'!F4:F26)</f>
+      <c r="E4" s="28" t="n">
+        <f aca="false">SUMIF(_1SE,A4,_1PIDGE)</f>
         <v>0.287179487179487</v>
       </c>
-      <c r="F4" s="26" t="inlineStr">
+      <c r="F4" s="28" t="inlineStr">
         <f aca="false">E4+F3</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G4" s="32" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!Q4:Q26,A4,'tareas-ciclo1'!O4:O26)</f>
+      <c r="G4" s="29" t="n">
+        <f aca="false">SUMIF(_1SR,A4,_1TDHT)</f>
         <v>39.8833333333333</v>
       </c>
-      <c r="H4" s="26" t="n">
-        <f aca="false">SUMIF('tareas-ciclo1'!Q4:Q26,A4,'tareas-ciclo1'!P4:P26)</f>
+      <c r="H4" s="28" t="n">
+        <f aca="false">SUMIF(_1SR,A4,_1PIDGO)</f>
         <v>0.369230769230769</v>
       </c>
-      <c r="I4" s="26" t="inlineStr">
+      <c r="I4" s="28" t="inlineStr">
         <f aca="false">H4+I3</f>
         <is>
           <t/>
         </is>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
+      <c r="G5" s="30"/>
+    </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
-      <c r="A6" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="20" t="n">
+      <c r="A6" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="22" t="n">
         <f aca="false">SUM(C2:C4)</f>
         <v>105</v>
       </c>
-      <c r="D6" s="20" t="n">
+      <c r="D6" s="22" t="n">
         <f aca="false">SUM(D2:D4)</f>
         <v>97.5</v>
       </c>
-      <c r="G6" s="34" t="n">
+      <c r="G6" s="30" t="n">
         <f aca="false">SUM(G2:G4)</f>
         <v>72.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G13" activeCellId="0" pane="topLeft" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="2" style="22" width="15.6274509803922"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="2.60392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="22" width="15.6274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="22" width="11.5764705882353"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.65" outlineLevel="0" r="1">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
+      <c r="A2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="n">
+        <f aca="false">SUMIF(_1SE,A2,_1hetl)</f>
+        <v>6.5</v>
+      </c>
+      <c r="C2" s="26" t="n">
+        <f aca="false">SUMIF(_1SE,A2,_1hedm)</f>
+        <v>7</v>
+      </c>
+      <c r="D2" s="26" t="n">
+        <f aca="false">SUMIF(_1SE,A2,_1hepqm)</f>
+        <v>5.5</v>
+      </c>
+      <c r="E2" s="26" t="n">
+        <f aca="false">SUMIF(_1SE,A2,_1hepm)</f>
+        <v>11.5</v>
+      </c>
+      <c r="F2" s="26" t="n">
+        <f aca="false">SUMIF(_1SE,A2,_1hesm)</f>
+        <v>5.5</v>
+      </c>
+      <c r="G2" s="26" t="n">
+        <f aca="false">SUM(B2:F2)</f>
+        <v>36</v>
+      </c>
+      <c r="I2" s="26" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J2" s="26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K2" s="26" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="L2" s="26" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="M2" s="26" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="N2" s="26" t="n">
+        <f aca="false">SUM(I2:M2)</f>
+        <v>21.07</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
+      <c r="A3" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26" t="n">
+        <f aca="false">SUMIF(_1SE,A3,_1hetl)</f>
+        <v>5</v>
+      </c>
+      <c r="C3" s="26" t="n">
+        <f aca="false">SUMIF(_1SE,A3,_1hedm)</f>
+        <v>10</v>
+      </c>
+      <c r="D3" s="26" t="n">
+        <f aca="false">SUMIF(_1SE,A3,_1hepqm)</f>
+        <v>7</v>
+      </c>
+      <c r="E3" s="26" t="n">
+        <f aca="false">SUMIF(_1SE,A3,_1hepm)</f>
+        <v>6.5</v>
+      </c>
+      <c r="F3" s="26" t="n">
+        <f aca="false">SUMIF(_1SE,A3,_1hesm)</f>
+        <v>5</v>
+      </c>
+      <c r="G3" s="26" t="n">
+        <f aca="false">SUM(B3:F3)</f>
+        <v>33.5</v>
+      </c>
+      <c r="I3" s="26" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="J3" s="26" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="K3" s="26" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="L3" s="26" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="M3" s="26" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="N3" s="26" t="n">
+        <f aca="false">SUM(I3:M3)</f>
+        <v>29.03</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
+      <c r="A4" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26" t="n">
+        <f aca="false">SUMIF(_1SE,A4,_1hetl)</f>
+        <v>8.5</v>
+      </c>
+      <c r="C4" s="26" t="n">
+        <f aca="false">SUMIF(_1SE,A4,_1hedm)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D4" s="26" t="n">
+        <f aca="false">SUMIF(_1SE,A4,_1hepqm)</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="26" t="n">
+        <f aca="false">SUMIF(_1SE,A4,_1hepm)</f>
+        <v>3</v>
+      </c>
+      <c r="F4" s="26" t="n">
+        <f aca="false">SUMIF(_1SE,A4,_1hesm)</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="26" t="n">
+        <f aca="false">SUM(B4:F4)</f>
+        <v>28</v>
+      </c>
+      <c r="I4" s="26" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="J4" s="26" t="n">
+        <v>8.72</v>
+      </c>
+      <c r="K4" s="26" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="L4" s="26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="M4" s="26" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="N4" s="26" t="n">
+        <f aca="false">SUM(I4:M4)</f>
+        <v>40.64</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5" s="22"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+      <c r="A6" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="22" t="n">
+        <f aca="false">SUM(B2:B4)</f>
+        <v>20</v>
+      </c>
+      <c r="C6" s="22" t="n">
+        <f aca="false">SUM(C2:C4)</f>
+        <v>26.5</v>
+      </c>
+      <c r="D6" s="22" t="n">
+        <f aca="false">SUM(D2:D4)</f>
+        <v>15.5</v>
+      </c>
+      <c r="E6" s="22" t="n">
+        <f aca="false">SUM(E2:E4)</f>
+        <v>21</v>
+      </c>
+      <c r="F6" s="22" t="n">
+        <f aca="false">SUM(F2:F4)</f>
+        <v>14.5</v>
+      </c>
+      <c r="G6" s="22" t="n">
+        <f aca="false">SUM(G2:G4)</f>
+        <v>97.5</v>
+      </c>
+      <c r="I6" s="22" t="n">
+        <f aca="false">SUM(I2:I4)</f>
+        <v>15.11</v>
+      </c>
+      <c r="J6" s="22" t="n">
+        <f aca="false">SUM(J2:J4)</f>
+        <v>18.1</v>
+      </c>
+      <c r="K6" s="22" t="n">
+        <f aca="false">SUM(K2:K4)</f>
+        <v>19.38</v>
+      </c>
+      <c r="L6" s="22" t="n">
+        <f aca="false">SUM(L2:L4)</f>
+        <v>22.34</v>
+      </c>
+      <c r="M6" s="22" t="n">
+        <f aca="false">SUM(M2:M4)</f>
+        <v>15.81</v>
+      </c>
+      <c r="N6" s="22" t="n">
+        <f aca="false">SUM(N2:N4)</f>
+        <v>90.74</v>
       </c>
     </row>
   </sheetData>

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -454,7 +454,7 @@
     <numFmt formatCode="0.00%" numFmtId="165"/>
     <numFmt formatCode="MM/DD/YYYY" numFmtId="166"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -499,18 +499,13 @@
     <font>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="true"/>
       <sz val="13"/>
     </font>
     <font>
       <name val="Arial"/>
       <family val="2"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <b val="true"/>
-      <sz val="13"/>
     </font>
   </fonts>
   <fills count="4">
@@ -574,7 +569,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
@@ -621,6 +616,9 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
@@ -636,7 +634,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
@@ -648,24 +646,13 @@
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0">
@@ -690,7 +677,7 @@
       <rgbColor rgb="00FFFF00"/>
       <rgbColor rgb="00FF00FF"/>
       <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="007E0021"/>
       <rgbColor rgb="00008000"/>
       <rgbColor rgb="00000080"/>
       <rgbColor rgb="00808000"/>
@@ -714,7 +701,7 @@
       <rgbColor rgb="00800000"/>
       <rgbColor rgb="00008080"/>
       <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="0000B8FF"/>
       <rgbColor rgb="00CCFFFF"/>
       <rgbColor rgb="00CCFFCC"/>
       <rgbColor rgb="00FFFF99"/>
@@ -731,7 +718,7 @@
       <rgbColor rgb="00666699"/>
       <rgbColor rgb="00969696"/>
       <rgbColor rgb="00004586"/>
-      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00579D1C"/>
       <rgbColor rgb="00003300"/>
       <rgbColor rgb="00333300"/>
       <rgbColor rgb="00993300"/>
@@ -743,7 +730,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart155.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -758,7 +745,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Ganancias Estimadas vs Ganancias Obtenidas</a:t>
             </a:r>
           </a:p>
@@ -990,11 +977,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="48913181"/>
-        <c:axId val="15193612"/>
+        <c:axId val="58807470"/>
+        <c:axId val="9345397"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48913181"/>
+        <c:axId val="58807470"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,8 +989,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="15193612"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="9345397"/>
+        <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1016,7 +1003,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15193612"/>
+        <c:axId val="9345397"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,8 +1020,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48913181"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="58807470"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -1065,7 +1052,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart156.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1080,7 +1067,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Horas Disponibles vs Horas Estimadas vs Horas Trabajadas</a:t>
             </a:r>
           </a:p>
@@ -1402,11 +1389,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="15400964"/>
-        <c:axId val="72341899"/>
+        <c:axId val="14217580"/>
+        <c:axId val="20667980"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15400964"/>
+        <c:axId val="14217580"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,8 +1401,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72341899"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="20667980"/>
+        <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1428,7 +1415,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72341899"/>
+        <c:axId val="20667980"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,8 +1432,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="15400964"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="14217580"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -1477,7 +1464,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart157.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1621,18 +1608,18 @@
                   <c:v>0.374358974358974</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.743589743589744</c:v>
+                  <c:v>0.743589743589743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="2890276"/>
-        <c:axId val="70533176"/>
+        <c:axId val="90399656"/>
+        <c:axId val="67441229"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2890276"/>
+        <c:axId val="90399656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,7 +1627,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70533176"/>
+        <c:crossAx val="67441229"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1654,7 +1641,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70533176"/>
+        <c:axId val="67441229"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,7 +1658,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2890276"/>
+        <c:crossAx val="90399656"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -1703,7 +1690,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart158.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1847,11 +1834,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="31790695"/>
-        <c:axId val="28589913"/>
+        <c:axId val="12858955"/>
+        <c:axId val="97040498"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31790695"/>
+        <c:axId val="12858955"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1859,7 +1846,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="28589913"/>
+        <c:crossAx val="97040498"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1873,7 +1860,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28589913"/>
+        <c:axId val="97040498"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1890,7 +1877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="31790695"/>
+        <c:crossAx val="12858955"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -1922,7 +1909,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart159.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1937,7 +1924,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Team Leader</a:t>
             </a:r>
           </a:p>
@@ -2060,11 +2047,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="23603586"/>
-        <c:axId val="50725992"/>
+        <c:axId val="9831491"/>
+        <c:axId val="38958556"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="23603586"/>
+        <c:axId val="9831491"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,8 +2059,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50725992"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="38958556"/>
+        <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2086,7 +2073,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50725992"/>
+        <c:axId val="38958556"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,8 +2090,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="23603586"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="9831491"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -2135,7 +2122,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart160.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2150,7 +2137,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Development Manager</a:t>
             </a:r>
           </a:p>
@@ -2273,11 +2260,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="14111205"/>
-        <c:axId val="3823844"/>
+        <c:axId val="55636552"/>
+        <c:axId val="96718647"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="14111205"/>
+        <c:axId val="55636552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2285,8 +2272,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="3823844"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="96718647"/>
+        <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2299,7 +2286,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3823844"/>
+        <c:axId val="96718647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,8 +2303,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="14111205"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="55636552"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -2348,7 +2335,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart161.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2363,7 +2350,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Process/Quality Manager</a:t>
             </a:r>
           </a:p>
@@ -2452,11 +2439,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="9283474"/>
-        <c:axId val="84767138"/>
+        <c:axId val="54964556"/>
+        <c:axId val="82855311"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="9283474"/>
+        <c:axId val="54964556"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2464,8 +2451,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84767138"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="82855311"/>
+        <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2478,7 +2465,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84767138"/>
+        <c:axId val="82855311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2495,8 +2482,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="9283474"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="54964556"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -2527,7 +2514,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart162.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2542,7 +2529,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Planning Manager</a:t>
             </a:r>
           </a:p>
@@ -2665,11 +2652,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="71839073"/>
-        <c:axId val="38165250"/>
+        <c:axId val="42665869"/>
+        <c:axId val="53620963"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71839073"/>
+        <c:axId val="42665869"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2677,8 +2664,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38165250"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="53620963"/>
+        <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2691,7 +2678,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38165250"/>
+        <c:axId val="53620963"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2708,8 +2695,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71839073"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="42665869"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -2740,7 +2727,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart163.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2755,7 +2742,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Support Manager</a:t>
             </a:r>
           </a:p>
@@ -2878,11 +2865,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="97629270"/>
-        <c:axId val="67564194"/>
+        <c:axId val="50658730"/>
+        <c:axId val="64270945"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97629270"/>
+        <c:axId val="50658730"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2890,8 +2877,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67564194"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="64270945"/>
+        <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2904,7 +2891,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67564194"/>
+        <c:axId val="64270945"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2921,8 +2908,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97629270"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="50658730"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -2953,7 +2940,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart164.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2968,7 +2955,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Horas Estimadas vs Horas Trabajadas</a:t>
             </a:r>
           </a:p>
@@ -3091,11 +3078,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="48242007"/>
-        <c:axId val="65681085"/>
+        <c:axId val="34601567"/>
+        <c:axId val="42590453"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48242007"/>
+        <c:axId val="34601567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3103,8 +3090,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65681085"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="42590453"/>
+        <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3117,7 +3104,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65681085"/>
+        <c:axId val="42590453"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3134,7 +3121,367 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48242007"/>
+        <c:crossAx val="34601567"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas Team Leader</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas Development Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$J$2:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas Process/Quality Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$K$2:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas Planning Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$L$2:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas Support Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00b8ff"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$M$2:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="25199999"/>
+        <c:axId val="77744924"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="25199999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77744924"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77744924"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="25199999"/>
         <c:crosses val="autoZero"/>
         <c:spPr>
           <a:ln>
@@ -3171,15 +3518,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>222120</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:colOff>249120</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>202320</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:colOff>228960</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3187,8 +3534,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="222120" y="3197880"/>
-        <a:ext cx="10734480" cy="3241800"/>
+        <a:off x="249120" y="2667960"/>
+        <a:ext cx="10788120" cy="3024360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3201,15 +3548,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>296280</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:colOff>323280</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>234000</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:colOff>260640</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3217,8 +3564,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="296280" y="7170840"/>
-        <a:ext cx="10692000" cy="3711240"/>
+        <a:off x="323280" y="6363720"/>
+        <a:ext cx="10745640" cy="3457440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3236,15 +3583,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>244080</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:colOff>228960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>494640</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:colOff>479160</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3252,8 +3599,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="244080" y="1700640"/>
-        <a:ext cx="8004960" cy="2807280"/>
+        <a:off x="228960" y="1508400"/>
+        <a:ext cx="8043480" cy="2613960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3266,15 +3613,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>260640</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:colOff>287640</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>442800</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:colOff>469440</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3282,8 +3629,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="260640" y="4872960"/>
-        <a:ext cx="7936560" cy="2806920"/>
+        <a:off x="287640" y="4222800"/>
+        <a:ext cx="7975080" cy="2613240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3301,15 +3648,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>253440</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:colOff>280440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>814680</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:colOff>841320</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3317,8 +3664,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="253440" y="2251080"/>
-        <a:ext cx="5762880" cy="3241080"/>
+        <a:off x="280440" y="1635120"/>
+        <a:ext cx="5789160" cy="3023280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3331,15 +3678,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>358920</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:colOff>385920</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>920160</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:colOff>946800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3347,8 +3694,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="358920" y="5731560"/>
-        <a:ext cx="5762880" cy="3240720"/>
+        <a:off x="385920" y="4874040"/>
+        <a:ext cx="5789160" cy="3023280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3361,15 +3708,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>353880</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:colOff>380880</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>911880</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:colOff>938520</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3377,8 +3724,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="353880" y="9296280"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="380880" y="8197560"/>
+        <a:ext cx="5785920" cy="3022200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3391,15 +3738,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>388800</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:colOff>415800</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>946800</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:colOff>973440</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3407,8 +3754,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="388800" y="12939480"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="415800" y="11587320"/>
+        <a:ext cx="5785920" cy="3022200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3421,15 +3768,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>431640</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:colOff>458640</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>989640</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:colOff>1016280</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3437,8 +3784,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="431640" y="16583760"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="458640" y="14978520"/>
+        <a:ext cx="5785920" cy="3022200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3451,15 +3798,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>155520</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:colOff>182520</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>245880</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:colOff>272520</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3467,12 +3814,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7551720" y="2204280"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="7616880" y="1600560"/>
+        <a:ext cx="5788440" cy="3009600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>61920</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>140760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>306720</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>59760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7679880" y="5002920"/>
+        <a:ext cx="5759640" cy="3236760"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3489,21 +3866,20 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.56470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="40.4627450980392"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.5803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="21.5803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.9843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="2.60392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.6156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="21.6156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.9843137254902"/>
-    <col collapsed="false" hidden="false" max="1023" min="12" style="4" width="11.9843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.9843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.58039215686275"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="40.6627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.6901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="21.6901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.0470588235294"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="2.6156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.7254901960784"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="21.7254901960784"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.0470588235294"/>
+    <col collapsed="false" hidden="false" max="1023" min="12" style="4" width="12.0470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -3589,7 +3965,7 @@
       </c>
       <c r="I3" s="1" t="n">
         <f aca="false">'tareas-ciclo1'!O4</f>
-        <v>4.46666666666667</v>
+        <v>4.46666666666666</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <f aca="false">F3</f>
@@ -3597,9 +3973,11 @@
           <t/>
         </is>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="16" t="inlineStr">
         <f aca="false">'tareas-ciclo1'!Q4</f>
-        <v>1</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="4">
@@ -3627,7 +4005,7 @@
       </c>
       <c r="I4" s="1" t="n">
         <f aca="false">'tareas-ciclo1'!O5</f>
-        <v>5.08333333333333</v>
+        <v>5.08333333333335</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <f aca="false">F4</f>
@@ -3716,28 +4094,28 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="7" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="7" s="20">
       <c r="A7" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="17" t="n">
+      <c r="E7" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="F7" s="9" t="n">
         <f aca="false">E7/E1</f>
         <v>0.00302114803625378</v>
       </c>
-      <c r="G7" s="18" t="n">
+      <c r="G7" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="17" t="n">
+      <c r="I7" s="18" t="n">
         <f aca="false">'tareas-ciclo1'!O8</f>
         <v>0.25</v>
       </c>
@@ -3752,32 +4130,32 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="8" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="8" s="20">
       <c r="A8" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="17" t="n">
+      <c r="E8" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="F8" s="9" t="n">
         <f aca="false">E8/E1</f>
         <v>0.00302114803625378</v>
       </c>
-      <c r="G8" s="17" t="n">
+      <c r="G8" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="17" t="n">
+      <c r="I8" s="18" t="n">
         <f aca="false">'tareas-ciclo1'!O9</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="J8" s="20" t="inlineStr">
+      <c r="J8" s="21" t="inlineStr">
         <f aca="false">F8</f>
         <is>
           <t/>
@@ -3788,34 +4166,34 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="9" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="9" s="20">
       <c r="A9" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="17" t="n">
+      <c r="E9" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="F9" s="9" t="n">
         <f aca="false">E9/E1</f>
         <v>0.00302114803625378</v>
       </c>
-      <c r="G9" s="17" t="n">
+      <c r="G9" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="17" t="n">
+      <c r="I9" s="18" t="n">
         <f aca="false">'tareas-ciclo1'!O10</f>
         <v>0.416666666666667</v>
       </c>
-      <c r="J9" s="20" t="inlineStr">
+      <c r="J9" s="21" t="inlineStr">
         <f aca="false">F9</f>
         <is>
           <t/>
@@ -3826,34 +4204,34 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="10" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="10" s="20">
       <c r="A10" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="17" t="n">
+      <c r="E10" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F10" s="9" t="n">
         <f aca="false">E10/E1</f>
         <v>0.0120845921450151</v>
       </c>
-      <c r="G10" s="17" t="n">
+      <c r="G10" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="17" t="n">
+      <c r="I10" s="18" t="n">
         <f aca="false">'tareas-ciclo1'!O11</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J10" s="20" t="inlineStr">
+      <c r="J10" s="21" t="inlineStr">
         <f aca="false">F10</f>
         <is>
           <t/>
@@ -3864,68 +4242,68 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="11" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="11" s="20">
       <c r="A11" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="17" t="n">
+      <c r="E11" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="9" t="n">
         <f aca="false">E11/E1</f>
         <v>0.0181268882175227</v>
       </c>
-      <c r="G11" s="17" t="n">
+      <c r="G11" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="17" t="n">
+      <c r="I11" s="18" t="n">
         <f aca="false">'tareas-ciclo1'!O12</f>
         <v>3.9</v>
       </c>
-      <c r="J11" s="20" t="inlineStr">
+      <c r="J11" s="21" t="inlineStr">
         <f aca="false">F11</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K11" s="17" t="n">
+      <c r="K11" s="18" t="n">
         <f aca="false">'tareas-ciclo1'!Q12</f>
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="12" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="12" s="20">
       <c r="A12" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="17" t="n">
+      <c r="E12" s="18" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="9" t="n">
         <f aca="false">E12/E1</f>
         <v>0.0604229607250755</v>
       </c>
-      <c r="G12" s="17" t="n">
+      <c r="G12" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="17" t="n">
+      <c r="I12" s="18" t="n">
         <f aca="false">'tareas-ciclo1'!O13</f>
         <v>0</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="17" t="n">
+      <c r="J12" s="21"/>
+      <c r="K12" s="18" t="n">
         <f aca="false">'tareas-ciclo1'!Q13</f>
         <v>1</v>
       </c>
@@ -3934,10 +4312,10 @@
       <c r="A13" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="1" t="n">
@@ -3959,242 +4337,242 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="14" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="14" s="20">
       <c r="A14" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17" t="n">
+      <c r="D14" s="17"/>
+      <c r="E14" s="18" t="n">
         <v>10</v>
       </c>
       <c r="F14" s="9" t="n">
         <f aca="false">E14/E1</f>
         <v>0.0604229607250755</v>
       </c>
-      <c r="G14" s="17" t="n">
+      <c r="G14" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="I14" s="17" t="n">
+      <c r="I14" s="18" t="n">
         <f aca="false">'tareas-ciclo1'!O15</f>
         <v>8</v>
       </c>
-      <c r="J14" s="20" t="inlineStr">
+      <c r="J14" s="21" t="inlineStr">
         <f aca="false">F14</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K14" s="17" t="n">
+      <c r="K14" s="18" t="n">
         <f aca="false">'tareas-ciclo1'!Q15</f>
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="15" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="15" s="20">
       <c r="A15" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="17" t="n">
+      <c r="E15" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F15" s="9" t="n">
         <f aca="false">E15/E1</f>
         <v>0.0120845921450151</v>
       </c>
-      <c r="G15" s="17" t="n">
+      <c r="G15" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="I15" s="17" t="n">
+      <c r="I15" s="19" t="n">
         <f aca="false">'tareas-ciclo1'!O16</f>
         <v>15.4166666666667</v>
       </c>
-      <c r="J15" s="20" t="inlineStr">
+      <c r="J15" s="22" t="inlineStr">
         <f aca="false">SUM(F15:F17)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K15" s="21" t="n">
+      <c r="K15" s="19" t="n">
         <f aca="false">'tareas-ciclo1'!Q16</f>
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="16" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="16" s="20">
       <c r="A16" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="17" t="n">
+      <c r="E16" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F16" s="9" t="n">
         <f aca="false">E16/E1</f>
         <v>0.0120845921450151</v>
       </c>
-      <c r="G16" s="17" t="n">
+      <c r="G16" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="17" s="19">
+      <c r="I16" s="19"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="17" s="20">
       <c r="A17" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="17" t="n">
+      <c r="E17" s="18" t="n">
         <v>4</v>
       </c>
       <c r="F17" s="9" t="n">
         <f aca="false">E17/E1</f>
         <v>0.0241691842900302</v>
       </c>
-      <c r="G17" s="17" t="n">
+      <c r="G17" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="18" s="19">
+      <c r="I17" s="19"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="18" s="20">
       <c r="A18" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="17" t="n">
+      <c r="E18" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="F18" s="9" t="n">
         <f aca="false">E18/E1</f>
         <v>0.00302114803625378</v>
       </c>
-      <c r="G18" s="17" t="n">
+      <c r="G18" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" s="17" t="n">
+      <c r="I18" s="18" t="n">
         <f aca="false">'tareas-ciclo1'!O19</f>
         <v>0.383333333333333</v>
       </c>
-      <c r="J18" s="20" t="inlineStr">
+      <c r="J18" s="21" t="inlineStr">
         <f aca="false">F18</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K18" s="17" t="n">
+      <c r="K18" s="18" t="n">
         <f aca="false">'tareas-ciclo1'!Q19</f>
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="19" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="19" s="20">
       <c r="A19" s="14" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="17" t="n">
+      <c r="E19" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F19" s="9" t="n">
         <f aca="false">E19/E1</f>
         <v>0.0120845921450151</v>
       </c>
-      <c r="G19" s="17" t="n">
+      <c r="G19" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="I19" s="17" t="n">
+      <c r="I19" s="18" t="n">
         <f aca="false">'tareas-ciclo1'!O20</f>
         <v>1</v>
       </c>
-      <c r="J19" s="20" t="inlineStr">
+      <c r="J19" s="21" t="inlineStr">
         <f aca="false">F19</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K19" s="17" t="n">
+      <c r="K19" s="18" t="n">
         <f aca="false">'tareas-ciclo1'!Q20</f>
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="20" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="20" s="20">
       <c r="A20" s="14" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17" t="n">
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="n">
         <v>10</v>
       </c>
       <c r="F20" s="9" t="n">
         <f aca="false">E20/E1</f>
         <v>0.0604229607250755</v>
       </c>
-      <c r="G20" s="17" t="n">
+      <c r="G20" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="I20" s="17" t="n">
+      <c r="I20" s="18" t="n">
         <f aca="false">'tareas-ciclo1'!O21</f>
-        <v>8.16666666666667</v>
-      </c>
-      <c r="J20" s="20" t="inlineStr">
+        <v>8.16666666666665</v>
+      </c>
+      <c r="J20" s="21" t="inlineStr">
         <f aca="false">F20</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K20" s="17" t="n">
+      <c r="K20" s="18" t="n">
         <f aca="false">'tareas-ciclo1'!Q21</f>
         <v>3</v>
       </c>
@@ -4355,7 +4733,7 @@
       <c r="A25" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -4393,7 +4771,7 @@
       <c r="A26" s="14" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -4606,10 +4984,10 @@
       <c r="B35" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="17" t="s">
         <v>85</v>
       </c>
       <c r="E35" s="1" t="n">
@@ -4630,10 +5008,10 @@
       <c r="B36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="17" t="s">
         <v>88</v>
       </c>
       <c r="E36" s="1" t="n">
@@ -4678,7 +5056,7 @@
       <c r="B38" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="17" t="s">
         <v>93</v>
       </c>
       <c r="E38" s="1" t="n">
@@ -4853,24 +5231,24 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="I50" activeCellId="0" pane="topLeft" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="12.6705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="16.9843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="19.6627450980392"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.4039215686275"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="24" width="21.3607843137255"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="22" width="12.6705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="12.7333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="17.0666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="19.7607843137255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="18.4941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="5" style="25" width="21.4705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="23" width="12.7333333333333"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>105</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -4896,25 +5274,25 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
-      <c r="A2" s="26" t="n">
+      <c r="A2" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="n">
+      <c r="B2" s="28" t="n">
         <v>41902</v>
       </c>
-      <c r="C2" s="26" t="n">
+      <c r="C2" s="27" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D2" s="26" t="n">
+      <c r="D2" s="27" t="n">
         <f aca="false">SUMIF(_gSE,A2,_gTDHE)</f>
         <v>36</v>
       </c>
-      <c r="E2" s="28" t="n">
+      <c r="E2" s="29" t="n">
         <f aca="false">SUMIF(_gSE,A2,_gPIDGE)</f>
         <v>0.217522658610272</v>
       </c>
-      <c r="F2" s="28" t="inlineStr">
+      <c r="F2" s="29" t="inlineStr">
         <f aca="false">E2</f>
         <is>
           <t/>
@@ -4924,11 +5302,11 @@
         <f aca="false">SUMIF(_gSR,A2,_gTDHT)</f>
         <v>17.65</v>
       </c>
-      <c r="H2" s="28" t="n">
+      <c r="H2" s="29" t="n">
         <f aca="false">SUMIF(_gSR,A2,_gPIDGO)</f>
         <v>0.138972809667674</v>
       </c>
-      <c r="I2" s="28" t="inlineStr">
+      <c r="I2" s="29" t="inlineStr">
         <f aca="false">H2</f>
         <is>
           <t/>
@@ -4936,28 +5314,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
-      <c r="A3" s="26" t="n">
+      <c r="A3" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="inlineStr">
+      <c r="B3" s="28" t="inlineStr">
         <f aca="false">B2+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C3" s="26" t="n">
+      <c r="C3" s="27" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D3" s="26" t="n">
+      <c r="D3" s="27" t="n">
         <f aca="false">SUMIF(_gSE,A3,_gTDHE)</f>
         <v>33.5</v>
       </c>
-      <c r="E3" s="28" t="n">
+      <c r="E3" s="29" t="n">
         <f aca="false">SUMIF(_gSE,A3,_gPIDGE)</f>
         <v>0.202416918429003</v>
       </c>
-      <c r="F3" s="28" t="inlineStr">
+      <c r="F3" s="29" t="inlineStr">
         <f aca="false">E3+F2</f>
         <is>
           <t/>
@@ -4967,11 +5345,11 @@
         <f aca="false">SUMIF(_gSR,A3,_gTDHT)</f>
         <v>15.1166666666667</v>
       </c>
-      <c r="H3" s="28" t="n">
+      <c r="H3" s="29" t="n">
         <f aca="false">SUMIF(_gSR,A3,_gPIDGO)</f>
         <v>0.081570996978852</v>
       </c>
-      <c r="I3" s="28" t="inlineStr">
+      <c r="I3" s="29" t="inlineStr">
         <f aca="false">H3+I2</f>
         <is>
           <t/>
@@ -4979,28 +5357,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
-      <c r="A4" s="26" t="n">
+      <c r="A4" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="inlineStr">
+      <c r="B4" s="28" t="inlineStr">
         <f aca="false">B3+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C4" s="26" t="n">
+      <c r="C4" s="27" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D4" s="26" t="n">
+      <c r="D4" s="27" t="n">
         <f aca="false">SUMIF(_gSE,A4,_gTDHE)</f>
         <v>28</v>
       </c>
-      <c r="E4" s="28" t="n">
+      <c r="E4" s="29" t="n">
         <f aca="false">SUMIF(_gSE,A4,_gPIDGE)</f>
         <v>0.169184290030211</v>
       </c>
-      <c r="F4" s="28" t="inlineStr">
+      <c r="F4" s="29" t="inlineStr">
         <f aca="false">E4+F3</f>
         <is>
           <t/>
@@ -5010,11 +5388,11 @@
         <f aca="false">SUMIF(_gSR,A4,_gTDHT)</f>
         <v>39.8833333333333</v>
       </c>
-      <c r="H4" s="28" t="n">
+      <c r="H4" s="29" t="n">
         <f aca="false">SUMIF(_gSR,A4,_gPIDGO)</f>
         <v>0.217522658610272</v>
       </c>
-      <c r="I4" s="28" t="inlineStr">
+      <c r="I4" s="29" t="inlineStr">
         <f aca="false">H4+I3</f>
         <is>
           <t/>
@@ -5022,28 +5400,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
-      <c r="A5" s="26" t="n">
+      <c r="A5" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="inlineStr">
+      <c r="B5" s="28" t="inlineStr">
         <f aca="false">B4+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C5" s="26" t="n">
+      <c r="C5" s="27" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D5" s="26" t="n">
+      <c r="D5" s="27" t="n">
         <f aca="false">SUMIF(_gSE,A5,_gTDHE)</f>
         <v>42.5</v>
       </c>
-      <c r="E5" s="28" t="n">
+      <c r="E5" s="29" t="n">
         <f aca="false">SUMIF(_gSE,A5,_gPIDGE)</f>
         <v>0.256797583081571</v>
       </c>
-      <c r="F5" s="28" t="inlineStr">
+      <c r="F5" s="29" t="inlineStr">
         <f aca="false">E5+F4</f>
         <is>
           <t/>
@@ -5053,11 +5431,11 @@
         <f aca="false">SUMIF(_gSR,A5,_gTDHT)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="28" t="n">
+      <c r="H5" s="29" t="n">
         <f aca="false">SUMIF(_gSR,A5,_gPIDGO)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="28" t="inlineStr">
+      <c r="I5" s="29" t="inlineStr">
         <f aca="false">H5+I4</f>
         <is>
           <t/>
@@ -5065,28 +5443,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="6">
-      <c r="A6" s="26" t="n">
+      <c r="A6" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="inlineStr">
+      <c r="B6" s="28" t="inlineStr">
         <f aca="false">B5+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C6" s="26" t="n">
+      <c r="C6" s="27" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D6" s="26" t="n">
+      <c r="D6" s="27" t="n">
         <f aca="false">SUMIF(_gSE,A6,_gTDHE)</f>
         <v>25.5</v>
       </c>
-      <c r="E6" s="28" t="n">
+      <c r="E6" s="29" t="n">
         <f aca="false">SUMIF(_gSE,A6,_gPIDGE)</f>
         <v>0.154078549848943</v>
       </c>
-      <c r="F6" s="28" t="inlineStr">
+      <c r="F6" s="29" t="inlineStr">
         <f aca="false">E6+F5</f>
         <is>
           <t/>
@@ -5096,11 +5474,11 @@
         <f aca="false">SUMIF(_gSR,A6,_gTDHT)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="28" t="n">
+      <c r="H6" s="29" t="n">
         <f aca="false">SUMIF(_gSR,A6,_gPIDGO)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="28" t="inlineStr">
+      <c r="I6" s="29" t="inlineStr">
         <f aca="false">H6+I5</f>
         <is>
           <t/>
@@ -5108,28 +5486,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="7">
-      <c r="A7" s="26" t="n">
+      <c r="A7" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="inlineStr">
+      <c r="B7" s="28" t="inlineStr">
         <f aca="false">B6+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C7" s="26" t="n">
+      <c r="C7" s="27" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D7" s="26" t="n">
+      <c r="D7" s="27" t="n">
         <f aca="false">SUMIF(_gSE,A7,_gTDHE)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="28" t="n">
+      <c r="E7" s="29" t="n">
         <f aca="false">SUMIF(_gSE,A7,_gPIDGE)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="28" t="inlineStr">
+      <c r="F7" s="29" t="inlineStr">
         <f aca="false">E7+F6</f>
         <is>
           <t/>
@@ -5139,11 +5517,11 @@
         <f aca="false">SUMIF(_gSR,A7,_gTDHT)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="28" t="n">
+      <c r="H7" s="29" t="n">
         <f aca="false">SUMIF(_gSR,A7,_gPIDGO)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="28" t="inlineStr">
+      <c r="I7" s="29" t="inlineStr">
         <f aca="false">H7+I6</f>
         <is>
           <t/>
@@ -5151,28 +5529,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="8">
-      <c r="A8" s="26" t="n">
+      <c r="A8" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="inlineStr">
+      <c r="B8" s="28" t="inlineStr">
         <f aca="false">B7+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C8" s="26" t="n">
+      <c r="C8" s="27" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D8" s="26" t="n">
+      <c r="D8" s="27" t="n">
         <f aca="false">SUMIF(_gSE,A8,_gTDHE)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="28" t="n">
+      <c r="E8" s="29" t="n">
         <f aca="false">SUMIF(_gSE,A8,_gPIDGE)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="28" t="inlineStr">
+      <c r="F8" s="29" t="inlineStr">
         <f aca="false">E8+F7</f>
         <is>
           <t/>
@@ -5182,11 +5560,11 @@
         <f aca="false">SUMIF(_gSR,A8,_gTDHT)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="28" t="n">
+      <c r="H8" s="29" t="n">
         <f aca="false">SUMIF(_gSR,A8,_gPIDGO)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="28" t="inlineStr">
+      <c r="I8" s="29" t="inlineStr">
         <f aca="false">H8+I7</f>
         <is>
           <t/>
@@ -5194,28 +5572,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="9">
-      <c r="A9" s="26" t="n">
+      <c r="A9" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="27" t="inlineStr">
+      <c r="B9" s="28" t="inlineStr">
         <f aca="false">B8+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C9" s="26" t="n">
+      <c r="C9" s="27" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D9" s="26" t="n">
+      <c r="D9" s="27" t="n">
         <f aca="false">SUMIF(_gSE,A9,_gTDHE)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="28" t="n">
+      <c r="E9" s="29" t="n">
         <f aca="false">SUMIF(_gSE,A9,_gPIDGE)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="28" t="inlineStr">
+      <c r="F9" s="29" t="inlineStr">
         <f aca="false">E9+F8</f>
         <is>
           <t/>
@@ -5225,11 +5603,11 @@
         <f aca="false">SUMIF(_gSR,A9,_gTDHT)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="28" t="n">
+      <c r="H9" s="29" t="n">
         <f aca="false">SUMIF(_gSR,A9,_gPIDGO)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="28" t="inlineStr">
+      <c r="I9" s="29" t="inlineStr">
         <f aca="false">H9+I8</f>
         <is>
           <t/>
@@ -5237,28 +5615,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="10">
-      <c r="A10" s="26" t="n">
+      <c r="A10" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="inlineStr">
+      <c r="B10" s="28" t="inlineStr">
         <f aca="false">B9+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C10" s="26" t="n">
+      <c r="C10" s="27" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D10" s="26" t="n">
+      <c r="D10" s="27" t="n">
         <f aca="false">SUMIF(_gSE,A10,_gTDHE)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="28" t="n">
+      <c r="E10" s="29" t="n">
         <f aca="false">SUMIF(_gSE,A10,_gPIDGE)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="28" t="inlineStr">
+      <c r="F10" s="29" t="inlineStr">
         <f aca="false">E10+F9</f>
         <is>
           <t/>
@@ -5268,11 +5646,11 @@
         <f aca="false">SUMIF(_gSR,A10,_gTDHT)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="28" t="n">
+      <c r="H10" s="29" t="n">
         <f aca="false">SUMIF(_gSR,A10,_gPIDGO)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="28" t="inlineStr">
+      <c r="I10" s="29" t="inlineStr">
         <f aca="false">H10+I9</f>
         <is>
           <t/>
@@ -5280,28 +5658,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="11">
-      <c r="A11" s="26" t="n">
+      <c r="A11" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="27" t="inlineStr">
+      <c r="B11" s="28" t="inlineStr">
         <f aca="false">B10+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C11" s="26" t="n">
+      <c r="C11" s="27" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D11" s="26" t="n">
+      <c r="D11" s="27" t="n">
         <f aca="false">SUMIF(_gSE,A11,_gTDHE)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="28" t="n">
+      <c r="E11" s="29" t="n">
         <f aca="false">SUMIF(_gSE,A11,_gPIDGE)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="28" t="inlineStr">
+      <c r="F11" s="29" t="inlineStr">
         <f aca="false">E11+F10</f>
         <is>
           <t/>
@@ -5311,11 +5689,11 @@
         <f aca="false">SUMIF(_gSR,A11,_gTDHT)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="28" t="n">
+      <c r="H11" s="29" t="n">
         <f aca="false">SUMIF(_gSR,A11,_gPIDGO)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="28" t="inlineStr">
+      <c r="I11" s="29" t="inlineStr">
         <f aca="false">H11+I10</f>
         <is>
           <t/>
@@ -5323,28 +5701,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="12">
-      <c r="A12" s="26" t="n">
+      <c r="A12" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="27" t="inlineStr">
+      <c r="B12" s="28" t="inlineStr">
         <f aca="false">B11+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C12" s="26" t="n">
+      <c r="C12" s="27" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D12" s="26" t="n">
+      <c r="D12" s="27" t="n">
         <f aca="false">SUMIF(_gSE,A12,_gTDHE)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="28" t="n">
+      <c r="E12" s="29" t="n">
         <f aca="false">SUMIF(_gSE,A12,_gPIDGE)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="28" t="inlineStr">
+      <c r="F12" s="29" t="inlineStr">
         <f aca="false">E12+F11</f>
         <is>
           <t/>
@@ -5354,32 +5732,34 @@
         <f aca="false">SUMIF(_gSR,A12,_gTDHT)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="28" t="n">
+      <c r="H12" s="29" t="n">
         <f aca="false">SUMIF(_gSR,A12,_gPIDGO)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="28" t="inlineStr">
+      <c r="I12" s="29" t="inlineStr">
         <f aca="false">H12+I11</f>
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="14">
       <c r="A14" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="22" t="n">
+      <c r="C14" s="23" t="n">
         <f aca="false">SUM(C2:C12)</f>
         <v>385</v>
       </c>
-      <c r="D14" s="22" t="n">
+      <c r="D14" s="23" t="n">
         <f aca="false">SUM(D2:D12)</f>
         <v>165.5</v>
       </c>
-      <c r="G14" s="30" t="n">
+      <c r="G14" s="25" t="inlineStr">
         <f aca="false">SUM(G2:G12)</f>
-        <v>72.65</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5401,25 +5781,24 @@
   </sheetPr>
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="F19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="M4" activeCellId="0" pane="topLeft" sqref="M4"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="L27" activeCellId="0" pane="topLeft" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.58039215686275"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="40.4627450980392"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.5803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="21.5803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.9843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="2.71372549019608"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="20.2313725490196"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="4" width="2.71372549019608"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="21.5803921568627"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="11.9843137254902"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="4" width="2.71372549019608"/>
-    <col collapsed="false" hidden="false" max="23" min="19" style="4" width="20.2313725490196"/>
-    <col collapsed="false" hidden="false" max="1023" min="24" style="4" width="11.9843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.9843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.6"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="40.6627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.6901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="21.6901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.0470588235294"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="2.73333333333333"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="20.3333333333333"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="4" width="2.73333333333333"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="21.6901960784314"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="12.0470588235294"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="4" width="2.73333333333333"/>
+    <col collapsed="false" hidden="false" max="23" min="19" style="4" width="20.3333333333333"/>
+    <col collapsed="false" hidden="false" max="1023" min="24" style="4" width="12.0470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -5455,7 +5834,7 @@
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="31" t="n">
+      <c r="E2" s="30" t="n">
         <f aca="false">SUM(E4:E26)</f>
         <v>97.5</v>
       </c>
@@ -5618,15 +5997,15 @@
       </c>
       <c r="O4" s="1" t="n">
         <f aca="false">SUM(S4:W4)</f>
-        <v>4.46666666666667</v>
-      </c>
-      <c r="P4" s="32" t="inlineStr">
+        <v>4.46666666666666</v>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
         <f aca="false">F4</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q4" s="32" t="n">
+      <c r="Q4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="R4" s="1"/>
@@ -5688,7 +6067,7 @@
       </c>
       <c r="O5" s="1" t="n">
         <f aca="false">SUM(S5:W5)</f>
-        <v>5.08333333333333</v>
+        <v>5.08333333333335</v>
       </c>
       <c r="P5" s="3" t="inlineStr">
         <f aca="false">F5</f>
@@ -5843,34 +6222,34 @@
       </c>
       <c r="W7" s="1"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="8" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="8" s="20">
       <c r="A8" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="17" t="n">
+      <c r="E8" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="F8" s="9" t="n">
         <f aca="false">E8/E2</f>
         <v>0.00512820512820513</v>
       </c>
-      <c r="G8" s="18" t="n">
+      <c r="G8" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="M8" s="17"/>
+      <c r="M8" s="18"/>
       <c r="O8" s="1" t="n">
         <f aca="false">SUM(S8:W8)</f>
         <v>0.25</v>
@@ -5881,47 +6260,47 @@
           <t/>
         </is>
       </c>
-      <c r="Q8" s="17" t="n">
+      <c r="Q8" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17" t="n">
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18" t="n">
         <f aca="false">15/60</f>
         <v>0.25</v>
       </c>
-      <c r="W8" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="9" s="19">
+      <c r="W8" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="9" s="20">
       <c r="A9" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="17" t="n">
+      <c r="E9" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="F9" s="9" t="n">
         <f aca="false">E9/E2</f>
         <v>0.00512820512820513</v>
       </c>
-      <c r="G9" s="17" t="n">
+      <c r="G9" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="M9" s="17"/>
+      <c r="M9" s="18"/>
       <c r="O9" s="1" t="n">
         <f aca="false">SUM(S9:W9)</f>
         <v>0.666666666666667</v>
@@ -5932,49 +6311,49 @@
           <t/>
         </is>
       </c>
-      <c r="Q9" s="17" t="n">
+      <c r="Q9" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17" t="n">
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18" t="n">
         <f aca="false">40/60</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="W9" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="10" s="19">
+      <c r="W9" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="10" s="20">
       <c r="A10" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="17" t="n">
+      <c r="E10" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="F10" s="9" t="n">
         <f aca="false">E10/E2</f>
         <v>0.00512820512820513</v>
       </c>
-      <c r="G10" s="17" t="n">
+      <c r="G10" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="M10" s="17"/>
+      <c r="M10" s="18"/>
       <c r="O10" s="1" t="n">
         <f aca="false">SUM(S10:W10)</f>
         <v>0.416666666666667</v>
@@ -5985,51 +6364,51 @@
           <t/>
         </is>
       </c>
-      <c r="Q10" s="17" t="n">
+      <c r="Q10" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17" t="n">
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18" t="n">
         <f aca="false">25/60</f>
         <v>0.416666666666667</v>
       </c>
-      <c r="W10" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="11" s="19">
+      <c r="W10" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="11" s="20">
       <c r="A11" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="17" t="n">
+      <c r="E11" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F11" s="9" t="n">
         <f aca="false">E11/E2</f>
         <v>0.0205128205128205</v>
       </c>
-      <c r="G11" s="17" t="n">
+      <c r="G11" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="17" t="n">
+      <c r="I11" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="17" t="n">
+      <c r="L11" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="M11" s="17"/>
+      <c r="M11" s="18"/>
       <c r="O11" s="1" t="n">
         <f aca="false">SUM(S11:W11)</f>
         <v>1.16666666666667</v>
@@ -6040,52 +6419,52 @@
           <t/>
         </is>
       </c>
-      <c r="Q11" s="17" t="n">
+      <c r="Q11" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17" t="n">
+      <c r="R11" s="18"/>
+      <c r="S11" s="18" t="n">
         <f aca="false">35/60</f>
         <v>0.583333333333333</v>
       </c>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17" t="n">
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18" t="n">
         <f aca="false">35/60</f>
         <v>0.583333333333333</v>
       </c>
-      <c r="W11" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="12" s="19">
+      <c r="W11" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="12" s="20">
       <c r="A12" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="17" t="n">
+      <c r="E12" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F12" s="9" t="n">
         <f aca="false">E12/E2</f>
         <v>0.0307692307692308</v>
       </c>
-      <c r="G12" s="17" t="n">
+      <c r="G12" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17" t="n">
+      <c r="I12" s="18"/>
+      <c r="J12" s="18" t="n">
         <v>1.5</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17" t="n">
+      <c r="K12" s="18"/>
+      <c r="L12" s="18" t="n">
         <v>1.5</v>
       </c>
-      <c r="M12" s="17"/>
+      <c r="M12" s="18"/>
       <c r="O12" s="1" t="n">
         <f aca="false">SUM(S12:W12)</f>
         <v>3.9</v>
@@ -6096,71 +6475,71 @@
           <t/>
         </is>
       </c>
-      <c r="Q12" s="17" t="n">
+      <c r="Q12" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17" t="n">
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18" t="n">
         <f aca="false">(45+72)/60</f>
         <v>1.95</v>
       </c>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17" t="n">
+      <c r="U12" s="18"/>
+      <c r="V12" s="18" t="n">
         <f aca="false">(45+72)/60</f>
         <v>1.95</v>
       </c>
-      <c r="W12" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="13" s="19">
+      <c r="W12" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="13" s="20">
       <c r="A13" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="17" t="n">
+      <c r="E13" s="18" t="n">
         <v>10</v>
       </c>
       <c r="F13" s="9" t="n">
         <f aca="false">E13/E2</f>
         <v>0.102564102564103</v>
       </c>
-      <c r="G13" s="17" t="n">
+      <c r="G13" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="17" t="n">
+      <c r="I13" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="17" t="n">
+      <c r="J13" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="17" t="n">
+      <c r="K13" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="17" t="n">
+      <c r="L13" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="M13" s="17" t="n">
+      <c r="M13" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="O13" s="33" t="n">
+      <c r="O13" s="31" t="n">
         <f aca="false">SUM(S13:W13)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34" t="n">
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="14">
       <c r="A14" s="14" t="n">
@@ -6169,7 +6548,7 @@
       <c r="B14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="1" t="n">
@@ -6197,12 +6576,12 @@
       <c r="M14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="O14" s="33" t="n">
+      <c r="O14" s="31" t="n">
         <f aca="false">SUM(S14:W14)</f>
         <v>2.83333333333333</v>
       </c>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33" t="n">
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31" t="n">
         <v>2</v>
       </c>
       <c r="R14" s="1"/>
@@ -6218,403 +6597,403 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="15" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="15" s="20">
       <c r="A15" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17" t="n">
+      <c r="D15" s="17"/>
+      <c r="E15" s="18" t="n">
         <v>10</v>
       </c>
       <c r="F15" s="9" t="n">
         <f aca="false">E15/E2</f>
         <v>0.102564102564103</v>
       </c>
-      <c r="G15" s="17" t="n">
+      <c r="G15" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="I15" s="17" t="n">
+      <c r="I15" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="17" t="n">
+      <c r="J15" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="K15" s="17" t="n">
+      <c r="K15" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="L15" s="17" t="n">
+      <c r="L15" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="M15" s="17" t="n">
+      <c r="M15" s="18" t="n">
         <v>2</v>
       </c>
       <c r="O15" s="1" t="n">
         <f aca="false">SUM(S15:W15)</f>
         <v>8</v>
       </c>
-      <c r="P15" s="20" t="inlineStr">
+      <c r="P15" s="21" t="inlineStr">
         <f aca="false">F15</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q15" s="17" t="n">
+      <c r="Q15" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17" t="n">
+      <c r="R15" s="18"/>
+      <c r="S15" s="18" t="n">
         <f aca="false">120/60</f>
         <v>2</v>
       </c>
-      <c r="T15" s="17" t="n">
+      <c r="T15" s="18" t="n">
         <f aca="false">90/60</f>
         <v>1.5</v>
       </c>
-      <c r="U15" s="17" t="n">
+      <c r="U15" s="18" t="n">
         <f aca="false">90/60</f>
         <v>1.5</v>
       </c>
-      <c r="V15" s="17" t="n">
+      <c r="V15" s="18" t="n">
         <f aca="false">90/60</f>
         <v>1.5</v>
       </c>
-      <c r="W15" s="17" t="n">
+      <c r="W15" s="18" t="n">
         <f aca="false">90/60</f>
         <v>1.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="16" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="16" s="20">
       <c r="A16" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="17" t="n">
+      <c r="E16" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F16" s="9" t="n">
         <f aca="false">E16/E2</f>
         <v>0.0205128205128205</v>
       </c>
-      <c r="G16" s="17" t="n">
+      <c r="G16" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17" t="n">
+      <c r="I16" s="18"/>
+      <c r="J16" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17" t="n">
+      <c r="K16" s="18"/>
+      <c r="L16" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="M16" s="17"/>
+      <c r="M16" s="18"/>
       <c r="O16" s="14" t="n">
         <f aca="false">SUM(S16:W16)</f>
         <v>15.4166666666667</v>
       </c>
-      <c r="P16" s="35" t="inlineStr">
+      <c r="P16" s="22" t="inlineStr">
         <f aca="false">SUM(F16:F18)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q16" s="36" t="n">
+      <c r="Q16" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="18" t="n">
+      <c r="R16" s="18"/>
+      <c r="S16" s="19" t="n">
         <f aca="false">(40+75+90)/60</f>
         <v>3.41666666666667</v>
       </c>
-      <c r="T16" s="18" t="n">
+      <c r="T16" s="19" t="n">
         <f aca="false">(75+45+140)/60</f>
         <v>4.33333333333333</v>
       </c>
-      <c r="U16" s="18" t="n">
+      <c r="U16" s="19" t="n">
         <f aca="false">(120+50)/60</f>
         <v>2.83333333333333</v>
       </c>
-      <c r="V16" s="18" t="n">
+      <c r="V16" s="19" t="n">
         <f aca="false">75/60</f>
         <v>1.25</v>
       </c>
-      <c r="W16" s="18" t="n">
+      <c r="W16" s="19" t="n">
         <f aca="false">(140+75)/60</f>
         <v>3.58333333333333</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="17" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="17" s="20">
       <c r="A17" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="17" t="n">
+      <c r="E17" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F17" s="9" t="n">
         <f aca="false">E17/E2</f>
         <v>0.0205128205128205</v>
       </c>
-      <c r="G17" s="17" t="n">
+      <c r="G17" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17" t="n">
+      <c r="I17" s="18"/>
+      <c r="J17" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="18" s="19">
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="18" s="20">
       <c r="A18" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="17" t="n">
+      <c r="E18" s="18" t="n">
         <v>4</v>
       </c>
       <c r="F18" s="9" t="n">
         <f aca="false">E18/E2</f>
         <v>0.041025641025641</v>
       </c>
-      <c r="G18" s="17" t="n">
+      <c r="G18" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17" t="n">
+      <c r="I18" s="18"/>
+      <c r="J18" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="K18" s="17" t="n">
+      <c r="K18" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
       <c r="O18" s="14"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="19" s="19">
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="19" s="20">
       <c r="A19" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="17" t="n">
+      <c r="E19" s="18" t="n">
         <v>0.5</v>
       </c>
       <c r="F19" s="9" t="n">
         <f aca="false">E19/E2</f>
         <v>0.00512820512820513</v>
       </c>
-      <c r="G19" s="17" t="n">
+      <c r="G19" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="L19" s="17" t="n">
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="L19" s="18" t="n">
         <v>0.5</v>
       </c>
-      <c r="M19" s="17"/>
+      <c r="M19" s="18"/>
       <c r="O19" s="1" t="n">
         <f aca="false">SUM(S19:W19)</f>
         <v>0.383333333333333</v>
       </c>
-      <c r="P19" s="20" t="inlineStr">
+      <c r="P19" s="21" t="inlineStr">
         <f aca="false">F19</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q19" s="17" t="n">
+      <c r="Q19" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17" t="n">
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18" t="n">
         <f aca="false">23/60</f>
         <v>0.383333333333333</v>
       </c>
-      <c r="W19" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="20" s="19">
+      <c r="W19" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="20" s="20">
       <c r="A20" s="14" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="17" t="n">
+      <c r="E20" s="18" t="n">
         <v>2</v>
       </c>
       <c r="F20" s="9" t="n">
         <f aca="false">E20/E2</f>
         <v>0.0205128205128205</v>
       </c>
-      <c r="G20" s="17" t="n">
+      <c r="G20" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="I20" s="17" t="n">
+      <c r="I20" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17" t="n">
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18" t="n">
         <v>1</v>
       </c>
       <c r="O20" s="1" t="n">
         <f aca="false">SUM(S20:W20)</f>
         <v>1</v>
       </c>
-      <c r="P20" s="20" t="inlineStr">
+      <c r="P20" s="21" t="inlineStr">
         <f aca="false">F20</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q20" s="17" t="n">
+      <c r="Q20" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17" t="n">
+      <c r="R20" s="18"/>
+      <c r="S20" s="18" t="n">
         <f aca="false">30/60</f>
         <v>0.5</v>
       </c>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17" t="n">
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18" t="n">
         <f aca="false">30/60</f>
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="21" s="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="21" s="20">
       <c r="A21" s="14" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17" t="n">
+      <c r="D21" s="17"/>
+      <c r="E21" s="18" t="n">
         <v>10</v>
       </c>
       <c r="F21" s="9" t="n">
         <f aca="false">E21/E2</f>
         <v>0.102564102564103</v>
       </c>
-      <c r="G21" s="17" t="n">
+      <c r="G21" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="I21" s="17" t="n">
+      <c r="I21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="J21" s="17" t="n">
+      <c r="J21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="K21" s="17" t="n">
+      <c r="K21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="L21" s="17" t="n">
+      <c r="L21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="M21" s="17" t="n">
+      <c r="M21" s="18" t="n">
         <v>2</v>
       </c>
       <c r="O21" s="1" t="n">
         <f aca="false">SUM(S21:W21)</f>
-        <v>8.16666666666667</v>
-      </c>
-      <c r="P21" s="20" t="inlineStr">
+        <v>8.16666666666665</v>
+      </c>
+      <c r="P21" s="21" t="inlineStr">
         <f aca="false">F21</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q21" s="17" t="n">
+      <c r="Q21" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17" t="n">
+      <c r="R21" s="18"/>
+      <c r="S21" s="18" t="n">
         <f aca="false">98/60</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="T21" s="17" t="n">
+      <c r="T21" s="18" t="n">
         <f aca="false">98/60</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="U21" s="17" t="n">
+      <c r="U21" s="18" t="n">
         <f aca="false">98/60</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="V21" s="17" t="n">
+      <c r="V21" s="18" t="n">
         <f aca="false">98/60</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="W21" s="17" t="n">
+      <c r="W21" s="18" t="n">
         <f aca="false">98/60</f>
         <v>1.63333333333333</v>
       </c>
@@ -6649,7 +7028,7 @@
         <f aca="false">SUM(S22:W22)</f>
         <v>2.5</v>
       </c>
-      <c r="P22" s="20" t="inlineStr">
+      <c r="P22" s="21" t="inlineStr">
         <f aca="false">F22</f>
         <is>
           <t/>
@@ -6713,7 +7092,7 @@
         <f aca="false">SUM(S23:W23)</f>
         <v>6.25</v>
       </c>
-      <c r="P23" s="20" t="inlineStr">
+      <c r="P23" s="21" t="inlineStr">
         <f aca="false">F23</f>
         <is>
           <t/>
@@ -6777,7 +7156,7 @@
         <f aca="false">SUM(S24:W24)</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="P24" s="20" t="inlineStr">
+      <c r="P24" s="21" t="inlineStr">
         <f aca="false">F24</f>
         <is>
           <t/>
@@ -6832,7 +7211,7 @@
         <f aca="false">SUM(S25:W25)</f>
         <v>1.25</v>
       </c>
-      <c r="P25" s="20" t="inlineStr">
+      <c r="P25" s="21" t="inlineStr">
         <f aca="false">F25</f>
         <is>
           <t/>
@@ -6855,7 +7234,7 @@
       <c r="A26" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -6893,7 +7272,7 @@
         <f aca="false">SUM(S26:W26)</f>
         <v>3.66666666666667</v>
       </c>
-      <c r="P26" s="20" t="inlineStr">
+      <c r="P26" s="21" t="inlineStr">
         <f aca="false">F26</f>
         <is>
           <t/>
@@ -6955,26 +7334,26 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I6" activeCellId="0" pane="topLeft" sqref="I6"/>
+      <selection activeCell="I16" activeCellId="0" pane="topLeft" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="12.6705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="16.9843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="19.6627450980392"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.4039215686275"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="24" width="21.3607843137255"/>
-    <col collapsed="false" hidden="true" max="7" min="7" style="24" width="0"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="24" width="21.3607843137255"/>
-    <col collapsed="false" hidden="false" max="1014" min="10" style="22" width="12.6705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="12.6705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="12.7333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="17.0666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="19.7607843137255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="18.4941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="25" width="21.4705882352941"/>
+    <col collapsed="false" hidden="true" max="7" min="7" style="25" width="0"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="25" width="21.4705882352941"/>
+    <col collapsed="false" hidden="false" max="1014" min="10" style="23" width="12.7333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="12.7333333333333"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>105</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -7000,25 +7379,25 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
-      <c r="A2" s="26" t="n">
+      <c r="A2" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="n">
+      <c r="B2" s="28" t="n">
         <v>41902</v>
       </c>
-      <c r="C2" s="26" t="n">
+      <c r="C2" s="27" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D2" s="26" t="n">
+      <c r="D2" s="27" t="n">
         <f aca="false">SUMIF(_1SE,A2,_1TDHE)</f>
         <v>36</v>
       </c>
-      <c r="E2" s="28" t="n">
+      <c r="E2" s="29" t="n">
         <f aca="false">SUMIF(_1SE,A2,_1PIDGE)</f>
         <v>0.369230769230769</v>
       </c>
-      <c r="F2" s="28" t="inlineStr">
+      <c r="F2" s="29" t="inlineStr">
         <f aca="false">E2</f>
         <is>
           <t/>
@@ -7028,11 +7407,11 @@
         <f aca="false">SUMIF(_1SR,A2,_1TDHT)</f>
         <v>17.65</v>
       </c>
-      <c r="H2" s="28" t="n">
+      <c r="H2" s="29" t="n">
         <f aca="false">SUMIF(_1SR,A2,_1PIDGO)</f>
         <v>0.235897435897436</v>
       </c>
-      <c r="I2" s="28" t="inlineStr">
+      <c r="I2" s="29" t="inlineStr">
         <f aca="false">H2</f>
         <is>
           <t/>
@@ -7040,28 +7419,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
-      <c r="A3" s="26" t="n">
+      <c r="A3" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="inlineStr">
+      <c r="B3" s="28" t="inlineStr">
         <f aca="false">B2+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C3" s="26" t="n">
+      <c r="C3" s="27" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D3" s="26" t="n">
+      <c r="D3" s="27" t="n">
         <f aca="false">SUMIF(_1SE,A3,_1TDHE)</f>
         <v>33.5</v>
       </c>
-      <c r="E3" s="28" t="n">
+      <c r="E3" s="29" t="n">
         <f aca="false">SUMIF(_1SE,A3,_1PIDGE)</f>
         <v>0.343589743589744</v>
       </c>
-      <c r="F3" s="28" t="inlineStr">
+      <c r="F3" s="29" t="inlineStr">
         <f aca="false">E3+F2</f>
         <is>
           <t/>
@@ -7071,11 +7450,11 @@
         <f aca="false">SUMIF(_1SR,A3,_1TDHT)</f>
         <v>15.1166666666667</v>
       </c>
-      <c r="H3" s="28" t="n">
+      <c r="H3" s="29" t="n">
         <f aca="false">SUMIF(_1SR,A3,_1PIDGO)</f>
-        <v>0.138461538461538</v>
-      </c>
-      <c r="I3" s="28" t="inlineStr">
+        <v>0.138461538461539</v>
+      </c>
+      <c r="I3" s="29" t="inlineStr">
         <f aca="false">H3+I2</f>
         <is>
           <t/>
@@ -7083,28 +7462,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
-      <c r="A4" s="26" t="n">
+      <c r="A4" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="inlineStr">
+      <c r="B4" s="28" t="inlineStr">
         <f aca="false">B3+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C4" s="26" t="n">
+      <c r="C4" s="27" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D4" s="26" t="n">
+      <c r="D4" s="27" t="n">
         <f aca="false">SUMIF(_1SE,A4,_1TDHE)</f>
         <v>28</v>
       </c>
-      <c r="E4" s="28" t="n">
+      <c r="E4" s="29" t="n">
         <f aca="false">SUMIF(_1SE,A4,_1PIDGE)</f>
         <v>0.287179487179487</v>
       </c>
-      <c r="F4" s="28" t="inlineStr">
+      <c r="F4" s="29" t="inlineStr">
         <f aca="false">E4+F3</f>
         <is>
           <t/>
@@ -7114,35 +7493,34 @@
         <f aca="false">SUMIF(_1SR,A4,_1TDHT)</f>
         <v>39.8833333333333</v>
       </c>
-      <c r="H4" s="28" t="n">
+      <c r="H4" s="29" t="n">
         <f aca="false">SUMIF(_1SR,A4,_1PIDGO)</f>
-        <v>0.369230769230769</v>
-      </c>
-      <c r="I4" s="28" t="inlineStr">
+        <v>0.36923076923077</v>
+      </c>
+      <c r="I4" s="29" t="inlineStr">
         <f aca="false">H4+I3</f>
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
-      <c r="G5" s="30"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
-      <c r="A6" s="37" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="6">
+      <c r="A6" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="22" t="n">
+      <c r="C6" s="23" t="n">
         <f aca="false">SUM(C2:C4)</f>
         <v>105</v>
       </c>
-      <c r="D6" s="22" t="n">
+      <c r="D6" s="23" t="n">
         <f aca="false">SUM(D2:D4)</f>
         <v>97.5</v>
       </c>
-      <c r="G6" s="30" t="n">
+      <c r="G6" s="25" t="inlineStr">
         <f aca="false">SUM(G2:G4)</f>
-        <v>72.65</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -7164,16 +7542,16 @@
   </sheetPr>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G13" activeCellId="0" pane="topLeft" sqref="G13"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G38" activeCellId="0" pane="topLeft" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="2" style="22" width="15.6274509803922"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="2.60392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="22" width="15.6274509803922"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="22" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="2" style="23" width="15.7098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="2.6156862745098"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="23" width="15.7098039215686"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="23" width="11.6313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.65" outlineLevel="0" r="1">
@@ -7218,199 +7596,199 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
-      <c r="A2" s="26" t="n">
+      <c r="A2" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="n">
+      <c r="B2" s="27" t="n">
         <f aca="false">SUMIF(_1SE,A2,_1hetl)</f>
         <v>6.5</v>
       </c>
-      <c r="C2" s="26" t="n">
+      <c r="C2" s="27" t="n">
         <f aca="false">SUMIF(_1SE,A2,_1hedm)</f>
         <v>7</v>
       </c>
-      <c r="D2" s="26" t="n">
+      <c r="D2" s="27" t="n">
         <f aca="false">SUMIF(_1SE,A2,_1hepqm)</f>
         <v>5.5</v>
       </c>
-      <c r="E2" s="26" t="n">
+      <c r="E2" s="27" t="n">
         <f aca="false">SUMIF(_1SE,A2,_1hepm)</f>
         <v>11.5</v>
       </c>
-      <c r="F2" s="26" t="n">
+      <c r="F2" s="27" t="n">
         <f aca="false">SUMIF(_1SE,A2,_1hesm)</f>
         <v>5.5</v>
       </c>
-      <c r="G2" s="26" t="n">
+      <c r="G2" s="27" t="n">
         <f aca="false">SUM(B2:F2)</f>
         <v>36</v>
       </c>
-      <c r="I2" s="26" t="n">
+      <c r="I2" s="27" t="n">
         <v>2.35</v>
       </c>
-      <c r="J2" s="26" t="n">
+      <c r="J2" s="27" t="n">
         <v>2.1</v>
       </c>
-      <c r="K2" s="26" t="n">
+      <c r="K2" s="27" t="n">
         <v>3.93</v>
       </c>
-      <c r="L2" s="26" t="n">
+      <c r="L2" s="27" t="n">
         <v>7.42</v>
       </c>
-      <c r="M2" s="26" t="n">
+      <c r="M2" s="27" t="n">
         <v>5.27</v>
       </c>
-      <c r="N2" s="26" t="n">
+      <c r="N2" s="27" t="n">
         <f aca="false">SUM(I2:M2)</f>
         <v>21.07</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
-      <c r="A3" s="26" t="n">
+      <c r="A3" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="n">
+      <c r="B3" s="27" t="n">
         <f aca="false">SUMIF(_1SE,A3,_1hetl)</f>
         <v>5</v>
       </c>
-      <c r="C3" s="26" t="n">
+      <c r="C3" s="27" t="n">
         <f aca="false">SUMIF(_1SE,A3,_1hedm)</f>
         <v>10</v>
       </c>
-      <c r="D3" s="26" t="n">
+      <c r="D3" s="27" t="n">
         <f aca="false">SUMIF(_1SE,A3,_1hepqm)</f>
         <v>7</v>
       </c>
-      <c r="E3" s="26" t="n">
+      <c r="E3" s="27" t="n">
         <f aca="false">SUMIF(_1SE,A3,_1hepm)</f>
         <v>6.5</v>
       </c>
-      <c r="F3" s="26" t="n">
+      <c r="F3" s="27" t="n">
         <f aca="false">SUMIF(_1SE,A3,_1hesm)</f>
         <v>5</v>
       </c>
-      <c r="G3" s="26" t="n">
+      <c r="G3" s="27" t="n">
         <f aca="false">SUM(B3:F3)</f>
         <v>33.5</v>
       </c>
-      <c r="I3" s="26" t="n">
+      <c r="I3" s="27" t="n">
         <v>7.33</v>
       </c>
-      <c r="J3" s="26" t="n">
+      <c r="J3" s="27" t="n">
         <v>7.28</v>
       </c>
-      <c r="K3" s="26" t="n">
+      <c r="K3" s="27" t="n">
         <v>5.33</v>
       </c>
-      <c r="L3" s="26" t="n">
+      <c r="L3" s="27" t="n">
         <v>4.42</v>
       </c>
-      <c r="M3" s="26" t="n">
+      <c r="M3" s="27" t="n">
         <v>4.67</v>
       </c>
-      <c r="N3" s="26" t="n">
+      <c r="N3" s="27" t="n">
         <f aca="false">SUM(I3:M3)</f>
         <v>29.03</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
-      <c r="A4" s="26" t="n">
+      <c r="A4" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="n">
+      <c r="B4" s="27" t="n">
         <f aca="false">SUMIF(_1SE,A4,_1hetl)</f>
         <v>8.5</v>
       </c>
-      <c r="C4" s="26" t="n">
+      <c r="C4" s="27" t="n">
         <f aca="false">SUMIF(_1SE,A4,_1hedm)</f>
         <v>9.5</v>
       </c>
-      <c r="D4" s="26" t="n">
+      <c r="D4" s="27" t="n">
         <f aca="false">SUMIF(_1SE,A4,_1hepqm)</f>
         <v>3</v>
       </c>
-      <c r="E4" s="26" t="n">
+      <c r="E4" s="27" t="n">
         <f aca="false">SUMIF(_1SE,A4,_1hepm)</f>
         <v>3</v>
       </c>
-      <c r="F4" s="26" t="n">
+      <c r="F4" s="27" t="n">
         <f aca="false">SUMIF(_1SE,A4,_1hesm)</f>
         <v>4</v>
       </c>
-      <c r="G4" s="26" t="n">
+      <c r="G4" s="27" t="n">
         <f aca="false">SUM(B4:F4)</f>
         <v>28</v>
       </c>
-      <c r="I4" s="26" t="n">
+      <c r="I4" s="27" t="n">
         <v>5.43</v>
       </c>
-      <c r="J4" s="26" t="n">
+      <c r="J4" s="27" t="n">
         <v>8.72</v>
       </c>
-      <c r="K4" s="26" t="n">
+      <c r="K4" s="27" t="n">
         <v>10.12</v>
       </c>
-      <c r="L4" s="26" t="n">
+      <c r="L4" s="27" t="n">
         <v>10.5</v>
       </c>
-      <c r="M4" s="26" t="n">
+      <c r="M4" s="27" t="n">
         <v>5.87</v>
       </c>
-      <c r="N4" s="26" t="n">
+      <c r="N4" s="27" t="n">
         <f aca="false">SUM(I4:M4)</f>
         <v>40.64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5" s="22"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
-      <c r="A6" s="37" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5" s="23"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="6">
+      <c r="A6" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="22" t="n">
+      <c r="B6" s="23" t="n">
         <f aca="false">SUM(B2:B4)</f>
         <v>20</v>
       </c>
-      <c r="C6" s="22" t="n">
+      <c r="C6" s="23" t="n">
         <f aca="false">SUM(C2:C4)</f>
         <v>26.5</v>
       </c>
-      <c r="D6" s="22" t="n">
+      <c r="D6" s="23" t="n">
         <f aca="false">SUM(D2:D4)</f>
         <v>15.5</v>
       </c>
-      <c r="E6" s="22" t="n">
+      <c r="E6" s="23" t="n">
         <f aca="false">SUM(E2:E4)</f>
         <v>21</v>
       </c>
-      <c r="F6" s="22" t="n">
+      <c r="F6" s="23" t="n">
         <f aca="false">SUM(F2:F4)</f>
         <v>14.5</v>
       </c>
-      <c r="G6" s="22" t="n">
+      <c r="G6" s="23" t="n">
         <f aca="false">SUM(G2:G4)</f>
         <v>97.5</v>
       </c>
-      <c r="I6" s="22" t="n">
+      <c r="I6" s="23" t="n">
         <f aca="false">SUM(I2:I4)</f>
         <v>15.11</v>
       </c>
-      <c r="J6" s="22" t="n">
+      <c r="J6" s="23" t="n">
         <f aca="false">SUM(J2:J4)</f>
         <v>18.1</v>
       </c>
-      <c r="K6" s="22" t="n">
+      <c r="K6" s="23" t="n">
         <f aca="false">SUM(K2:K4)</f>
         <v>19.38</v>
       </c>
-      <c r="L6" s="22" t="n">
+      <c r="L6" s="23" t="n">
         <f aca="false">SUM(L2:L4)</f>
         <v>22.34</v>
       </c>
-      <c r="M6" s="22" t="n">
+      <c r="M6" s="23" t="n">
         <f aca="false">SUM(M2:M4)</f>
         <v>15.81</v>
       </c>
-      <c r="N6" s="22" t="n">
+      <c r="N6" s="23" t="n">
         <f aca="false">SUM(N2:N4)</f>
         <v>90.74</v>
       </c>

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="4" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="439" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="439" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="tareas" sheetId="1" state="visible" r:id="rId2"/>
@@ -569,7 +569,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
@@ -616,9 +616,6 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
@@ -646,6 +643,8 @@
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
@@ -730,7 +729,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -830,16 +829,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.217522658610272</c:v>
+                  <c:v>0.220183486238532</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.419939577039275</c:v>
+                  <c:v>0.425076452599388</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.589123867069486</c:v>
+                  <c:v>0.596330275229358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.845921450151057</c:v>
+                  <c:v>0.844036697247706</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -940,48 +939,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.138972809667674</c:v>
+                  <c:v>0.140672782874618</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.220543806646526</c:v>
+                  <c:v>0.223241590214067</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.438066465256798</c:v>
+                  <c:v>0.443425076452599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.438066465256798</c:v>
+                  <c:v>0.443425076452599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.438066465256798</c:v>
+                  <c:v>0.443425076452599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.438066465256798</c:v>
+                  <c:v>0.443425076452599</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.438066465256798</c:v>
+                  <c:v>0.443425076452599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.438066465256798</c:v>
+                  <c:v>0.443425076452599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.438066465256798</c:v>
+                  <c:v>0.443425076452599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.438066465256798</c:v>
+                  <c:v>0.443425076452599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.438066465256798</c:v>
+                  <c:v>0.443425076452599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58807470"/>
-        <c:axId val="9345397"/>
+        <c:axId val="52477798"/>
+        <c:axId val="18198914"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58807470"/>
+        <c:axId val="52477798"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -989,7 +988,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="9345397"/>
+        <c:crossAx val="18198914"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1003,7 +1002,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9345397"/>
+        <c:axId val="18198914"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1019,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58807470"/>
+        <c:crossAx val="52477798"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -1052,7 +1051,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1258,7 +1257,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.5</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>25.5</c:v>
@@ -1389,11 +1388,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="14217580"/>
-        <c:axId val="20667980"/>
+        <c:axId val="32871529"/>
+        <c:axId val="46502873"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="14217580"/>
+        <c:axId val="32871529"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="20667980"/>
+        <c:crossAx val="46502873"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1415,7 +1414,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20667980"/>
+        <c:axId val="46502873"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +1431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="14217580"/>
+        <c:crossAx val="32871529"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -1464,7 +1463,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1605,21 +1604,21 @@
                   <c:v>0.235897435897436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.374358974358974</c:v>
+                  <c:v>0.374358974358975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.743589743589743</c:v>
+                  <c:v>0.743589743589745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90399656"/>
-        <c:axId val="67441229"/>
+        <c:axId val="67798587"/>
+        <c:axId val="40039017"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90399656"/>
+        <c:axId val="67798587"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1627,7 +1626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67441229"/>
+        <c:crossAx val="40039017"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1641,7 +1640,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67441229"/>
+        <c:axId val="40039017"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,7 +1657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90399656"/>
+        <c:crossAx val="67798587"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -1690,7 +1689,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1824,21 +1823,21 @@
                   <c:v>0.235897435897436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.138461538461538</c:v>
+                  <c:v>0.138461538461539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.369230769230769</c:v>
+                  <c:v>0.36923076923077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="12858955"/>
-        <c:axId val="97040498"/>
+        <c:axId val="78292454"/>
+        <c:axId val="57181481"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="12858955"/>
+        <c:axId val="78292454"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1846,7 +1845,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97040498"/>
+        <c:crossAx val="57181481"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1860,7 +1859,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97040498"/>
+        <c:axId val="57181481"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1877,7 +1876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12858955"/>
+        <c:crossAx val="78292454"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -1909,7 +1908,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2047,11 +2046,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="9831491"/>
-        <c:axId val="38958556"/>
+        <c:axId val="38884848"/>
+        <c:axId val="50668725"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="9831491"/>
+        <c:axId val="38884848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38958556"/>
+        <c:crossAx val="50668725"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -2073,7 +2072,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38958556"/>
+        <c:axId val="50668725"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2090,7 +2089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="9831491"/>
+        <c:crossAx val="38884848"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -2122,7 +2121,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2260,11 +2259,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="55636552"/>
-        <c:axId val="96718647"/>
+        <c:axId val="24361275"/>
+        <c:axId val="44977840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55636552"/>
+        <c:axId val="24361275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2272,7 +2271,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96718647"/>
+        <c:crossAx val="44977840"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -2286,7 +2285,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96718647"/>
+        <c:axId val="44977840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2303,7 +2302,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55636552"/>
+        <c:crossAx val="24361275"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -2335,7 +2334,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2439,11 +2438,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="54964556"/>
-        <c:axId val="82855311"/>
+        <c:axId val="70230140"/>
+        <c:axId val="37968845"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54964556"/>
+        <c:axId val="70230140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +2450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82855311"/>
+        <c:crossAx val="37968845"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -2465,7 +2464,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82855311"/>
+        <c:axId val="37968845"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2482,7 +2481,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54964556"/>
+        <c:crossAx val="70230140"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -2514,7 +2513,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2652,11 +2651,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="42665869"/>
-        <c:axId val="53620963"/>
+        <c:axId val="60508736"/>
+        <c:axId val="46114025"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42665869"/>
+        <c:axId val="60508736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2664,7 +2663,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53620963"/>
+        <c:crossAx val="46114025"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -2678,7 +2677,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53620963"/>
+        <c:axId val="46114025"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2695,7 +2694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42665869"/>
+        <c:crossAx val="60508736"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -2727,7 +2726,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2865,11 +2864,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="50658730"/>
-        <c:axId val="64270945"/>
+        <c:axId val="30862117"/>
+        <c:axId val="55355452"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50658730"/>
+        <c:axId val="30862117"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2877,7 +2876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64270945"/>
+        <c:crossAx val="55355452"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -2891,7 +2890,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64270945"/>
+        <c:axId val="55355452"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2908,7 +2907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50658730"/>
+        <c:crossAx val="30862117"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -2940,7 +2939,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3078,11 +3077,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="34601567"/>
-        <c:axId val="42590453"/>
+        <c:axId val="72280498"/>
+        <c:axId val="77427935"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="34601567"/>
+        <c:axId val="72280498"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3090,7 +3089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42590453"/>
+        <c:crossAx val="77427935"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -3104,7 +3103,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42590453"/>
+        <c:axId val="77427935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3121,7 +3120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34601567"/>
+        <c:crossAx val="72280498"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -3153,7 +3152,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3438,11 +3437,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="25199999"/>
-        <c:axId val="77744924"/>
+        <c:axId val="9654239"/>
+        <c:axId val="66301838"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="25199999"/>
+        <c:axId val="9654239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3450,8 +3449,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77744924"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="66301838"/>
+        <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3464,7 +3463,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77744924"/>
+        <c:axId val="66301838"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3481,8 +3480,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="25199999"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="9654239"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -3518,15 +3517,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:colOff>430200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>228960</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:colOff>409320</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3534,8 +3533,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="249120" y="2667960"/>
-        <a:ext cx="10788120" cy="3024360"/>
+        <a:off x="430200" y="3189960"/>
+        <a:ext cx="10895400" cy="2594520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3548,15 +3547,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>323280</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:colOff>408960</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>117360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>260640</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:colOff>345600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3564,8 +3563,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="323280" y="6363720"/>
-        <a:ext cx="10745640" cy="3457440"/>
+        <a:off x="408960" y="7429680"/>
+        <a:ext cx="10852920" cy="2998440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3583,15 +3582,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228960</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:colOff>282960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>479160</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:colOff>532440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3599,8 +3598,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="228960" y="1508400"/>
-        <a:ext cx="8043480" cy="2613960"/>
+        <a:off x="282960" y="709560"/>
+        <a:ext cx="8120160" cy="2248200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3613,15 +3612,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>287640</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:colOff>341640</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>469440</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:colOff>522720</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3629,8 +3628,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="287640" y="4222800"/>
-        <a:ext cx="7975080" cy="2613240"/>
+        <a:off x="341640" y="3047040"/>
+        <a:ext cx="8051760" cy="2262240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3648,15 +3647,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>280440</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:colOff>334440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>530640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>841320</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:colOff>894600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3664,8 +3663,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="280440" y="1635120"/>
-        <a:ext cx="5789160" cy="3023280"/>
+        <a:off x="334440" y="530640"/>
+        <a:ext cx="5842440" cy="2609280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3678,15 +3677,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>385920</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:colOff>439920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>946800</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:colOff>1000080</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3694,8 +3693,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="385920" y="4874040"/>
-        <a:ext cx="5789160" cy="3023280"/>
+        <a:off x="439920" y="3319920"/>
+        <a:ext cx="5842440" cy="2624760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3708,15 +3707,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>380880</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:colOff>434880</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>938520</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:colOff>991800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3724,8 +3723,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="380880" y="8197560"/>
-        <a:ext cx="5785920" cy="3022200"/>
+        <a:off x="434880" y="6197040"/>
+        <a:ext cx="5839200" cy="2623320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3738,15 +3737,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>415800</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:colOff>469800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>973440</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:colOff>1026720</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3754,8 +3753,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="415800" y="11587320"/>
-        <a:ext cx="5785920" cy="3022200"/>
+        <a:off x="469800" y="9140760"/>
+        <a:ext cx="5839200" cy="2623320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3768,15 +3767,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>458640</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:colOff>512640</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1016280</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:colOff>1069560</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3784,8 +3783,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="458640" y="14978520"/>
-        <a:ext cx="5785920" cy="3022200"/>
+        <a:off x="512640" y="12085200"/>
+        <a:ext cx="5839200" cy="2611440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3797,16 +3796,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>182520</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>51840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>496080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>272520</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:colOff>325800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3814,8 +3813,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7616880" y="1600560"/>
-        <a:ext cx="5788440" cy="3009600"/>
+        <a:off x="7749000" y="496080"/>
+        <a:ext cx="5846040" cy="2595600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3828,15 +3827,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>61920</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:colOff>115920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>306720</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:colOff>360000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3844,8 +3843,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7679880" y="5002920"/>
-        <a:ext cx="5759640" cy="3236760"/>
+        <a:off x="7813080" y="3436560"/>
+        <a:ext cx="5816160" cy="2801880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3865,21 +3864,22 @@
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A22" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E30" activeCellId="0" pane="topLeft" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.58039215686275"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="40.6627450980392"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.6901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="21.6901960784314"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.0470588235294"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="2.6156862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.7254901960784"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="21.7254901960784"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.0470588235294"/>
-    <col collapsed="false" hidden="false" max="1023" min="12" style="4" width="12.0470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.61960784313725"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="41.0705882352941"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.9058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="21.9058823529412"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.1725490196078"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="2.65098039215686"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.9411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="21.9411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.1725490196078"/>
+    <col collapsed="false" hidden="false" max="1023" min="12" style="4" width="12.1725490196078"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -3889,7 +3889,7 @@
       <c r="D1" s="7"/>
       <c r="E1" s="8" t="n">
         <f aca="false">SUM(E3:E45)</f>
-        <v>165.5</v>
+        <v>163.5</v>
       </c>
       <c r="F1" s="9" t="inlineStr">
         <f aca="false">SUM(F3:F45)</f>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="F3" s="9" t="n">
         <f aca="false">E3/E1</f>
-        <v>0.0453172205438066</v>
+        <v>0.0458715596330275</v>
       </c>
       <c r="G3" s="14" t="n">
         <v>1</v>
@@ -3973,7 +3973,7 @@
           <t/>
         </is>
       </c>
-      <c r="K3" s="16" t="inlineStr">
+      <c r="K3" s="3" t="inlineStr">
         <f aca="false">'tareas-ciclo1'!Q4</f>
         <is>
           <t/>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="F4" s="9" t="n">
         <f aca="false">E4/E1</f>
-        <v>0.0302114803625378</v>
+        <v>0.0305810397553517</v>
       </c>
       <c r="G4" s="14" t="n">
         <v>1</v>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="F5" s="9" t="n">
         <f aca="false">E5/E1</f>
-        <v>0.0302114803625378</v>
+        <v>0.0305810397553517</v>
       </c>
       <c r="G5" s="14" t="n">
         <v>1</v>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="F6" s="9" t="n">
         <f aca="false">E6/E1</f>
-        <v>0.0120845921450151</v>
+        <v>0.0122324159021407</v>
       </c>
       <c r="G6" s="14" t="n">
         <v>1</v>
@@ -4094,28 +4094,28 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="7" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="7" s="19">
       <c r="A7" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="18" t="n">
+      <c r="E7" s="17" t="n">
         <v>0.5</v>
       </c>
       <c r="F7" s="9" t="n">
         <f aca="false">E7/E1</f>
-        <v>0.00302114803625378</v>
-      </c>
-      <c r="G7" s="19" t="n">
+        <v>0.00305810397553517</v>
+      </c>
+      <c r="G7" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="18" t="n">
+      <c r="I7" s="17" t="n">
         <f aca="false">'tareas-ciclo1'!O8</f>
         <v>0.25</v>
       </c>
@@ -4130,32 +4130,32 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="8" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="8" s="19">
       <c r="A8" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="18" t="n">
+      <c r="E8" s="17" t="n">
         <v>0.5</v>
       </c>
       <c r="F8" s="9" t="n">
         <f aca="false">E8/E1</f>
-        <v>0.00302114803625378</v>
-      </c>
-      <c r="G8" s="18" t="n">
+        <v>0.00305810397553517</v>
+      </c>
+      <c r="G8" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="18" t="n">
+      <c r="I8" s="17" t="n">
         <f aca="false">'tareas-ciclo1'!O9</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="J8" s="21" t="inlineStr">
+      <c r="J8" s="20" t="inlineStr">
         <f aca="false">F8</f>
         <is>
           <t/>
@@ -4166,34 +4166,34 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="9" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="9" s="19">
       <c r="A9" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="17" t="n">
         <v>0.5</v>
       </c>
       <c r="F9" s="9" t="n">
         <f aca="false">E9/E1</f>
-        <v>0.00302114803625378</v>
-      </c>
-      <c r="G9" s="18" t="n">
+        <v>0.00305810397553517</v>
+      </c>
+      <c r="G9" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="18" t="n">
+      <c r="I9" s="17" t="n">
         <f aca="false">'tareas-ciclo1'!O10</f>
         <v>0.416666666666667</v>
       </c>
-      <c r="J9" s="21" t="inlineStr">
+      <c r="J9" s="20" t="inlineStr">
         <f aca="false">F9</f>
         <is>
           <t/>
@@ -4204,34 +4204,34 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="10" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="10" s="19">
       <c r="A10" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="18" t="n">
+      <c r="E10" s="17" t="n">
         <v>2</v>
       </c>
       <c r="F10" s="9" t="n">
         <f aca="false">E10/E1</f>
-        <v>0.0120845921450151</v>
-      </c>
-      <c r="G10" s="18" t="n">
+        <v>0.0122324159021407</v>
+      </c>
+      <c r="G10" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="18" t="n">
+      <c r="I10" s="17" t="n">
         <f aca="false">'tareas-ciclo1'!O11</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J10" s="21" t="inlineStr">
+      <c r="J10" s="20" t="inlineStr">
         <f aca="false">F10</f>
         <is>
           <t/>
@@ -4242,68 +4242,68 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="11" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="11" s="19">
       <c r="A11" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="18" t="n">
+      <c r="E11" s="17" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="9" t="n">
         <f aca="false">E11/E1</f>
-        <v>0.0181268882175227</v>
-      </c>
-      <c r="G11" s="18" t="n">
+        <v>0.018348623853211</v>
+      </c>
+      <c r="G11" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="18" t="n">
+      <c r="I11" s="17" t="n">
         <f aca="false">'tareas-ciclo1'!O12</f>
         <v>3.9</v>
       </c>
-      <c r="J11" s="21" t="inlineStr">
+      <c r="J11" s="20" t="inlineStr">
         <f aca="false">F11</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K11" s="18" t="n">
+      <c r="K11" s="17" t="n">
         <f aca="false">'tareas-ciclo1'!Q12</f>
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="12" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="12" s="19">
       <c r="A12" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="18" t="n">
+      <c r="E12" s="17" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="9" t="n">
         <f aca="false">E12/E1</f>
-        <v>0.0604229607250755</v>
-      </c>
-      <c r="G12" s="18" t="n">
+        <v>0.0611620795107034</v>
+      </c>
+      <c r="G12" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="18" t="n">
+      <c r="I12" s="17" t="n">
         <f aca="false">'tareas-ciclo1'!O13</f>
         <v>0</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="18" t="n">
+      <c r="J12" s="20"/>
+      <c r="K12" s="17" t="n">
         <f aca="false">'tareas-ciclo1'!Q13</f>
         <v>1</v>
       </c>
@@ -4312,10 +4312,10 @@
       <c r="A13" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="1" t="n">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="F13" s="3" t="n">
         <f aca="false">E13/E1</f>
-        <v>0.0906344410876133</v>
+        <v>0.091743119266055</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>2</v>
@@ -4337,242 +4337,242 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="14" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="14" s="19">
       <c r="A14" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18" t="n">
+      <c r="D14" s="16"/>
+      <c r="E14" s="17" t="n">
         <v>10</v>
       </c>
       <c r="F14" s="9" t="n">
         <f aca="false">E14/E1</f>
-        <v>0.0604229607250755</v>
-      </c>
-      <c r="G14" s="18" t="n">
+        <v>0.0611620795107034</v>
+      </c>
+      <c r="G14" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I14" s="18" t="n">
+      <c r="I14" s="17" t="n">
         <f aca="false">'tareas-ciclo1'!O15</f>
         <v>8</v>
       </c>
-      <c r="J14" s="21" t="inlineStr">
+      <c r="J14" s="20" t="inlineStr">
         <f aca="false">F14</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K14" s="18" t="n">
+      <c r="K14" s="17" t="n">
         <f aca="false">'tareas-ciclo1'!Q15</f>
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="15" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="15" s="19">
       <c r="A15" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="18" t="n">
+      <c r="E15" s="17" t="n">
         <v>2</v>
       </c>
       <c r="F15" s="9" t="n">
         <f aca="false">E15/E1</f>
-        <v>0.0120845921450151</v>
-      </c>
-      <c r="G15" s="18" t="n">
+        <v>0.0122324159021407</v>
+      </c>
+      <c r="G15" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I15" s="19" t="n">
+      <c r="I15" s="18" t="n">
         <f aca="false">'tareas-ciclo1'!O16</f>
         <v>15.4166666666667</v>
       </c>
-      <c r="J15" s="22" t="inlineStr">
+      <c r="J15" s="21" t="inlineStr">
         <f aca="false">SUM(F15:F17)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K15" s="19" t="n">
+      <c r="K15" s="18" t="n">
         <f aca="false">'tareas-ciclo1'!Q16</f>
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="16" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="16" s="19">
       <c r="A16" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="18" t="n">
+      <c r="E16" s="17" t="n">
         <v>2</v>
       </c>
       <c r="F16" s="9" t="n">
         <f aca="false">E16/E1</f>
-        <v>0.0120845921450151</v>
-      </c>
-      <c r="G16" s="18" t="n">
+        <v>0.0122324159021407</v>
+      </c>
+      <c r="G16" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="17" s="20">
+      <c r="I16" s="18"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="17" s="19">
       <c r="A17" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="18" t="n">
+      <c r="E17" s="17" t="n">
         <v>4</v>
       </c>
       <c r="F17" s="9" t="n">
         <f aca="false">E17/E1</f>
-        <v>0.0241691842900302</v>
-      </c>
-      <c r="G17" s="18" t="n">
+        <v>0.0244648318042813</v>
+      </c>
+      <c r="G17" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="18" s="20">
+      <c r="I17" s="18"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="18" s="19">
       <c r="A18" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="18" t="n">
+      <c r="E18" s="17" t="n">
         <v>0.5</v>
       </c>
       <c r="F18" s="9" t="n">
         <f aca="false">E18/E1</f>
-        <v>0.00302114803625378</v>
-      </c>
-      <c r="G18" s="18" t="n">
+        <v>0.00305810397553517</v>
+      </c>
+      <c r="G18" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I18" s="18" t="n">
+      <c r="I18" s="17" t="n">
         <f aca="false">'tareas-ciclo1'!O19</f>
         <v>0.383333333333333</v>
       </c>
-      <c r="J18" s="21" t="inlineStr">
+      <c r="J18" s="20" t="inlineStr">
         <f aca="false">F18</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K18" s="18" t="n">
+      <c r="K18" s="17" t="n">
         <f aca="false">'tareas-ciclo1'!Q19</f>
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="19" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="19" s="19">
       <c r="A19" s="14" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="18" t="n">
+      <c r="E19" s="17" t="n">
         <v>2</v>
       </c>
       <c r="F19" s="9" t="n">
         <f aca="false">E19/E1</f>
-        <v>0.0120845921450151</v>
-      </c>
-      <c r="G19" s="18" t="n">
+        <v>0.0122324159021407</v>
+      </c>
+      <c r="G19" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="I19" s="18" t="n">
+      <c r="I19" s="17" t="n">
         <f aca="false">'tareas-ciclo1'!O20</f>
         <v>1</v>
       </c>
-      <c r="J19" s="21" t="inlineStr">
+      <c r="J19" s="20" t="inlineStr">
         <f aca="false">F19</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K19" s="18" t="n">
+      <c r="K19" s="17" t="n">
         <f aca="false">'tareas-ciclo1'!Q20</f>
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="20" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="20" s="19">
       <c r="A20" s="14" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18" t="n">
+      <c r="D20" s="16"/>
+      <c r="E20" s="17" t="n">
         <v>10</v>
       </c>
       <c r="F20" s="9" t="n">
         <f aca="false">E20/E1</f>
-        <v>0.0604229607250755</v>
-      </c>
-      <c r="G20" s="18" t="n">
+        <v>0.0611620795107034</v>
+      </c>
+      <c r="G20" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="I20" s="18" t="n">
+      <c r="I20" s="17" t="n">
         <f aca="false">'tareas-ciclo1'!O21</f>
         <v>8.16666666666665</v>
       </c>
-      <c r="J20" s="21" t="inlineStr">
+      <c r="J20" s="20" t="inlineStr">
         <f aca="false">F20</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="K20" s="18" t="n">
+      <c r="K20" s="17" t="n">
         <f aca="false">'tareas-ciclo1'!Q21</f>
         <v>3</v>
       </c>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="F21" s="9" t="n">
         <f aca="false">E21/E1</f>
-        <v>0.0120845921450151</v>
+        <v>0.0122324159021407</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>3</v>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F22" s="9" t="n">
         <f aca="false">E22/E1</f>
-        <v>0.0181268882175227</v>
+        <v>0.018348623853211</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>3</v>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="F23" s="9" t="n">
         <f aca="false">E23/E1</f>
-        <v>0.0120845921450151</v>
+        <v>0.0122324159021407</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>3</v>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="F24" s="9" t="n">
         <f aca="false">E24/E1</f>
-        <v>0.0241691842900302</v>
+        <v>0.0244648318042813</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>3</v>
@@ -4733,7 +4733,7 @@
       <c r="A25" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="F25" s="9" t="n">
         <f aca="false">E25/E1</f>
-        <v>0.0302114803625378</v>
+        <v>0.0305810397553517</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>3</v>
@@ -4771,7 +4771,7 @@
       <c r="A26" s="14" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="F26" s="9" t="n">
         <f aca="false">E26/E1</f>
-        <v>0.0302114803625378</v>
+        <v>0.0305810397553517</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>4</v>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="F27" s="9" t="n">
         <f aca="false">E27/E1</f>
-        <v>0.0302114803625378</v>
+        <v>0.0305810397553517</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>4</v>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="F28" s="9" t="n">
         <f aca="false">E28/E1</f>
-        <v>0.0120845921450151</v>
+        <v>0.0122324159021407</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>4</v>
@@ -4850,11 +4850,11 @@
         <v>72</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" s="9" t="n">
         <f aca="false">E29/E1</f>
-        <v>0.0181268882175227</v>
+        <v>0.00611620795107034</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>4</v>
@@ -4875,7 +4875,7 @@
       </c>
       <c r="F30" s="9" t="n">
         <f aca="false">E30/E1</f>
-        <v>0.0604229607250755</v>
+        <v>0.0611620795107034</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>4</v>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="F31" s="9" t="n">
         <f aca="false">E31/E1</f>
-        <v>0.00604229607250755</v>
+        <v>0.00611620795107034</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>4</v>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="F32" s="9" t="n">
         <f aca="false">E32/E1</f>
-        <v>0.0120845921450151</v>
+        <v>0.0122324159021407</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>4</v>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="F33" s="9" t="n">
         <f aca="false">E33/E1</f>
-        <v>0.0302114803625378</v>
+        <v>0.0305810397553517</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>4</v>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="F34" s="9" t="n">
         <f aca="false">E34/E1</f>
-        <v>0.0241691842900302</v>
+        <v>0.0244648318042813</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>4</v>
@@ -4984,10 +4984,10 @@
       <c r="B35" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>85</v>
       </c>
       <c r="E35" s="1" t="n">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="F35" s="3" t="n">
         <f aca="false">E35/E1</f>
-        <v>0.00302114803625378</v>
+        <v>0.00305810397553517</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>4</v>
@@ -5008,10 +5008,10 @@
       <c r="B36" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>88</v>
       </c>
       <c r="E36" s="1" t="n">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="F36" s="3" t="n">
         <f aca="false">E36/E1</f>
-        <v>0.0120845921450151</v>
+        <v>0.0122324159021407</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>4</v>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="F37" s="3" t="n">
         <f aca="false">E37/E1</f>
-        <v>0.0181268882175227</v>
+        <v>0.018348623853211</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>4</v>
@@ -5056,7 +5056,7 @@
       <c r="B38" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>93</v>
       </c>
       <c r="E38" s="1" t="n">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="F38" s="3" t="n">
         <f aca="false">E38/E1</f>
-        <v>0.0302114803625378</v>
+        <v>0.0305810397553517</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>5</v>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="F39" s="3" t="n">
         <f aca="false">E39/E1</f>
-        <v>0.00604229607250755</v>
+        <v>0.00611620795107034</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>5</v>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="F40" s="3" t="n">
         <f aca="false">E40/E1</f>
-        <v>0.0302114803625378</v>
+        <v>0.0305810397553517</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>5</v>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="F41" s="3" t="n">
         <f aca="false">E41/E1</f>
-        <v>0.0241691842900302</v>
+        <v>0.0244648318042813</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>5</v>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="F42" s="3" t="n">
         <f aca="false">E42/E1</f>
-        <v>0.0241691842900302</v>
+        <v>0.0244648318042813</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>5</v>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="F43" s="3" t="n">
         <f aca="false">E43/E1</f>
-        <v>0.0241691842900302</v>
+        <v>0.0244648318042813</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>5</v>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="F44" s="3" t="n">
         <f aca="false">E44/E1</f>
-        <v>0.00302114803625378</v>
+        <v>0.00305810397553517</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>5</v>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="F45" s="3" t="n">
         <f aca="false">E45/E1</f>
-        <v>0.0120845921450151</v>
+        <v>0.0122324159021407</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>5</v>
@@ -5231,24 +5231,24 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I50" activeCellId="0" pane="topLeft" sqref="I50"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G15" activeCellId="0" pane="topLeft" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="12.7333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="17.0666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="19.7607843137255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="18.4941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="25" width="21.4705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="23" width="12.7333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="12.8627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="17.2313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="19.9607843137255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.678431372549"/>
+    <col collapsed="false" hidden="false" max="9" min="5" style="24" width="21.6901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="22" width="12.8627450980392"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>105</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -5274,25 +5274,25 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
-      <c r="A2" s="27" t="n">
+      <c r="A2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="n">
+      <c r="B2" s="27" t="n">
         <v>41902</v>
       </c>
-      <c r="C2" s="27" t="n">
+      <c r="C2" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D2" s="27" t="n">
+      <c r="D2" s="26" t="n">
         <f aca="false">SUMIF(_gSE,A2,_gTDHE)</f>
         <v>36</v>
       </c>
-      <c r="E2" s="29" t="n">
+      <c r="E2" s="28" t="n">
         <f aca="false">SUMIF(_gSE,A2,_gPIDGE)</f>
-        <v>0.217522658610272</v>
-      </c>
-      <c r="F2" s="29" t="inlineStr">
+        <v>0.220183486238532</v>
+      </c>
+      <c r="F2" s="28" t="inlineStr">
         <f aca="false">E2</f>
         <is>
           <t/>
@@ -5302,11 +5302,11 @@
         <f aca="false">SUMIF(_gSR,A2,_gTDHT)</f>
         <v>17.65</v>
       </c>
-      <c r="H2" s="29" t="n">
+      <c r="H2" s="28" t="n">
         <f aca="false">SUMIF(_gSR,A2,_gPIDGO)</f>
-        <v>0.138972809667674</v>
-      </c>
-      <c r="I2" s="29" t="inlineStr">
+        <v>0.140672782874618</v>
+      </c>
+      <c r="I2" s="28" t="inlineStr">
         <f aca="false">H2</f>
         <is>
           <t/>
@@ -5314,28 +5314,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
-      <c r="A3" s="27" t="n">
+      <c r="A3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="inlineStr">
+      <c r="B3" s="27" t="inlineStr">
         <f aca="false">B2+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C3" s="27" t="n">
+      <c r="C3" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D3" s="27" t="n">
+      <c r="D3" s="26" t="n">
         <f aca="false">SUMIF(_gSE,A3,_gTDHE)</f>
         <v>33.5</v>
       </c>
-      <c r="E3" s="29" t="n">
+      <c r="E3" s="28" t="n">
         <f aca="false">SUMIF(_gSE,A3,_gPIDGE)</f>
-        <v>0.202416918429003</v>
-      </c>
-      <c r="F3" s="29" t="inlineStr">
+        <v>0.204892966360856</v>
+      </c>
+      <c r="F3" s="28" t="inlineStr">
         <f aca="false">E3+F2</f>
         <is>
           <t/>
@@ -5345,11 +5345,11 @@
         <f aca="false">SUMIF(_gSR,A3,_gTDHT)</f>
         <v>15.1166666666667</v>
       </c>
-      <c r="H3" s="29" t="n">
+      <c r="H3" s="28" t="n">
         <f aca="false">SUMIF(_gSR,A3,_gPIDGO)</f>
-        <v>0.081570996978852</v>
-      </c>
-      <c r="I3" s="29" t="inlineStr">
+        <v>0.0825688073394496</v>
+      </c>
+      <c r="I3" s="28" t="inlineStr">
         <f aca="false">H3+I2</f>
         <is>
           <t/>
@@ -5357,28 +5357,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
-      <c r="A4" s="27" t="n">
+      <c r="A4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="inlineStr">
+      <c r="B4" s="27" t="inlineStr">
         <f aca="false">B3+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="26" t="n">
         <f aca="false">SUMIF(_gSE,A4,_gTDHE)</f>
         <v>28</v>
       </c>
-      <c r="E4" s="29" t="n">
+      <c r="E4" s="28" t="n">
         <f aca="false">SUMIF(_gSE,A4,_gPIDGE)</f>
-        <v>0.169184290030211</v>
-      </c>
-      <c r="F4" s="29" t="inlineStr">
+        <v>0.171253822629969</v>
+      </c>
+      <c r="F4" s="28" t="inlineStr">
         <f aca="false">E4+F3</f>
         <is>
           <t/>
@@ -5388,11 +5388,11 @@
         <f aca="false">SUMIF(_gSR,A4,_gTDHT)</f>
         <v>39.8833333333333</v>
       </c>
-      <c r="H4" s="29" t="n">
+      <c r="H4" s="28" t="n">
         <f aca="false">SUMIF(_gSR,A4,_gPIDGO)</f>
-        <v>0.217522658610272</v>
-      </c>
-      <c r="I4" s="29" t="inlineStr">
+        <v>0.220183486238532</v>
+      </c>
+      <c r="I4" s="28" t="inlineStr">
         <f aca="false">H4+I3</f>
         <is>
           <t/>
@@ -5400,28 +5400,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
-      <c r="A5" s="27" t="n">
+      <c r="A5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="inlineStr">
+      <c r="B5" s="27" t="inlineStr">
         <f aca="false">B4+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C5" s="27" t="n">
+      <c r="C5" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D5" s="27" t="n">
+      <c r="D5" s="26" t="n">
         <f aca="false">SUMIF(_gSE,A5,_gTDHE)</f>
-        <v>42.5</v>
-      </c>
-      <c r="E5" s="29" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="E5" s="28" t="n">
         <f aca="false">SUMIF(_gSE,A5,_gPIDGE)</f>
-        <v>0.256797583081571</v>
-      </c>
-      <c r="F5" s="29" t="inlineStr">
+        <v>0.247706422018349</v>
+      </c>
+      <c r="F5" s="28" t="inlineStr">
         <f aca="false">E5+F4</f>
         <is>
           <t/>
@@ -5431,11 +5431,11 @@
         <f aca="false">SUMIF(_gSR,A5,_gTDHT)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="29" t="n">
+      <c r="H5" s="28" t="n">
         <f aca="false">SUMIF(_gSR,A5,_gPIDGO)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="29" t="inlineStr">
+      <c r="I5" s="28" t="inlineStr">
         <f aca="false">H5+I4</f>
         <is>
           <t/>
@@ -5443,28 +5443,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="6">
-      <c r="A6" s="27" t="n">
+      <c r="A6" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="inlineStr">
+      <c r="B6" s="27" t="inlineStr">
         <f aca="false">B5+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="26" t="n">
         <f aca="false">SUMIF(_gSE,A6,_gTDHE)</f>
         <v>25.5</v>
       </c>
-      <c r="E6" s="29" t="n">
+      <c r="E6" s="28" t="n">
         <f aca="false">SUMIF(_gSE,A6,_gPIDGE)</f>
-        <v>0.154078549848943</v>
-      </c>
-      <c r="F6" s="29" t="inlineStr">
+        <v>0.155963302752294</v>
+      </c>
+      <c r="F6" s="28" t="inlineStr">
         <f aca="false">E6+F5</f>
         <is>
           <t/>
@@ -5474,11 +5474,11 @@
         <f aca="false">SUMIF(_gSR,A6,_gTDHT)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="29" t="n">
+      <c r="H6" s="28" t="n">
         <f aca="false">SUMIF(_gSR,A6,_gPIDGO)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="29" t="inlineStr">
+      <c r="I6" s="28" t="inlineStr">
         <f aca="false">H6+I5</f>
         <is>
           <t/>
@@ -5486,28 +5486,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="7">
-      <c r="A7" s="27" t="n">
+      <c r="A7" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="inlineStr">
+      <c r="B7" s="27" t="inlineStr">
         <f aca="false">B6+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C7" s="27" t="n">
+      <c r="C7" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D7" s="27" t="n">
+      <c r="D7" s="26" t="n">
         <f aca="false">SUMIF(_gSE,A7,_gTDHE)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="29" t="n">
+      <c r="E7" s="28" t="n">
         <f aca="false">SUMIF(_gSE,A7,_gPIDGE)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="29" t="inlineStr">
+      <c r="F7" s="28" t="inlineStr">
         <f aca="false">E7+F6</f>
         <is>
           <t/>
@@ -5517,11 +5517,11 @@
         <f aca="false">SUMIF(_gSR,A7,_gTDHT)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="29" t="n">
+      <c r="H7" s="28" t="n">
         <f aca="false">SUMIF(_gSR,A7,_gPIDGO)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="29" t="inlineStr">
+      <c r="I7" s="28" t="inlineStr">
         <f aca="false">H7+I6</f>
         <is>
           <t/>
@@ -5529,28 +5529,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="8">
-      <c r="A8" s="27" t="n">
+      <c r="A8" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="28" t="inlineStr">
+      <c r="B8" s="27" t="inlineStr">
         <f aca="false">B7+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="26" t="n">
         <f aca="false">SUMIF(_gSE,A8,_gTDHE)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="29" t="n">
+      <c r="E8" s="28" t="n">
         <f aca="false">SUMIF(_gSE,A8,_gPIDGE)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="29" t="inlineStr">
+      <c r="F8" s="28" t="inlineStr">
         <f aca="false">E8+F7</f>
         <is>
           <t/>
@@ -5560,11 +5560,11 @@
         <f aca="false">SUMIF(_gSR,A8,_gTDHT)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="29" t="n">
+      <c r="H8" s="28" t="n">
         <f aca="false">SUMIF(_gSR,A8,_gPIDGO)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="29" t="inlineStr">
+      <c r="I8" s="28" t="inlineStr">
         <f aca="false">H8+I7</f>
         <is>
           <t/>
@@ -5572,28 +5572,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="9">
-      <c r="A9" s="27" t="n">
+      <c r="A9" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="28" t="inlineStr">
+      <c r="B9" s="27" t="inlineStr">
         <f aca="false">B8+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C9" s="27" t="n">
+      <c r="C9" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="26" t="n">
         <f aca="false">SUMIF(_gSE,A9,_gTDHE)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="29" t="n">
+      <c r="E9" s="28" t="n">
         <f aca="false">SUMIF(_gSE,A9,_gPIDGE)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="29" t="inlineStr">
+      <c r="F9" s="28" t="inlineStr">
         <f aca="false">E9+F8</f>
         <is>
           <t/>
@@ -5603,11 +5603,11 @@
         <f aca="false">SUMIF(_gSR,A9,_gTDHT)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="29" t="n">
+      <c r="H9" s="28" t="n">
         <f aca="false">SUMIF(_gSR,A9,_gPIDGO)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="29" t="inlineStr">
+      <c r="I9" s="28" t="inlineStr">
         <f aca="false">H9+I8</f>
         <is>
           <t/>
@@ -5615,28 +5615,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="10">
-      <c r="A10" s="27" t="n">
+      <c r="A10" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="inlineStr">
+      <c r="B10" s="27" t="inlineStr">
         <f aca="false">B9+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C10" s="27" t="n">
+      <c r="C10" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D10" s="26" t="n">
         <f aca="false">SUMIF(_gSE,A10,_gTDHE)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="29" t="n">
+      <c r="E10" s="28" t="n">
         <f aca="false">SUMIF(_gSE,A10,_gPIDGE)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="29" t="inlineStr">
+      <c r="F10" s="28" t="inlineStr">
         <f aca="false">E10+F9</f>
         <is>
           <t/>
@@ -5646,11 +5646,11 @@
         <f aca="false">SUMIF(_gSR,A10,_gTDHT)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="29" t="n">
+      <c r="H10" s="28" t="n">
         <f aca="false">SUMIF(_gSR,A10,_gPIDGO)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="29" t="inlineStr">
+      <c r="I10" s="28" t="inlineStr">
         <f aca="false">H10+I9</f>
         <is>
           <t/>
@@ -5658,28 +5658,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="11">
-      <c r="A11" s="27" t="n">
+      <c r="A11" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="28" t="inlineStr">
+      <c r="B11" s="27" t="inlineStr">
         <f aca="false">B10+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C11" s="27" t="n">
+      <c r="C11" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D11" s="27" t="n">
+      <c r="D11" s="26" t="n">
         <f aca="false">SUMIF(_gSE,A11,_gTDHE)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="29" t="n">
+      <c r="E11" s="28" t="n">
         <f aca="false">SUMIF(_gSE,A11,_gPIDGE)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="29" t="inlineStr">
+      <c r="F11" s="28" t="inlineStr">
         <f aca="false">E11+F10</f>
         <is>
           <t/>
@@ -5689,11 +5689,11 @@
         <f aca="false">SUMIF(_gSR,A11,_gTDHT)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="29" t="n">
+      <c r="H11" s="28" t="n">
         <f aca="false">SUMIF(_gSR,A11,_gPIDGO)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="29" t="inlineStr">
+      <c r="I11" s="28" t="inlineStr">
         <f aca="false">H11+I10</f>
         <is>
           <t/>
@@ -5701,28 +5701,28 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="12">
-      <c r="A12" s="27" t="n">
+      <c r="A12" s="26" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="28" t="inlineStr">
+      <c r="B12" s="27" t="inlineStr">
         <f aca="false">B11+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D12" s="27" t="n">
+      <c r="D12" s="26" t="n">
         <f aca="false">SUMIF(_gSE,A12,_gTDHE)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="29" t="n">
+      <c r="E12" s="28" t="n">
         <f aca="false">SUMIF(_gSE,A12,_gPIDGE)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="29" t="inlineStr">
+      <c r="F12" s="28" t="inlineStr">
         <f aca="false">E12+F11</f>
         <is>
           <t/>
@@ -5732,34 +5732,32 @@
         <f aca="false">SUMIF(_gSR,A12,_gTDHT)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="29" t="n">
+      <c r="H12" s="28" t="n">
         <f aca="false">SUMIF(_gSR,A12,_gPIDGO)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="29" t="inlineStr">
+      <c r="I12" s="28" t="inlineStr">
         <f aca="false">H12+I11</f>
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
       <c r="A14" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="23" t="n">
+      <c r="C14" s="22" t="n">
         <f aca="false">SUM(C2:C12)</f>
         <v>385</v>
       </c>
-      <c r="D14" s="23" t="n">
+      <c r="D14" s="22" t="n">
         <f aca="false">SUM(D2:D12)</f>
-        <v>165.5</v>
-      </c>
-      <c r="G14" s="25" t="inlineStr">
+        <v>163.5</v>
+      </c>
+      <c r="G14" s="30" t="n">
         <f aca="false">SUM(G2:G12)</f>
-        <is>
-          <t/>
-        </is>
+        <v>72.65</v>
       </c>
     </row>
   </sheetData>
@@ -5786,19 +5784,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.6"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="40.6627450980392"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.6901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="21.6901960784314"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.0470588235294"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="2.73333333333333"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="20.3333333333333"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="4" width="2.73333333333333"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="21.6901960784314"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="12.0470588235294"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="4" width="2.73333333333333"/>
-    <col collapsed="false" hidden="false" max="23" min="19" style="4" width="20.3333333333333"/>
-    <col collapsed="false" hidden="false" max="1023" min="24" style="4" width="12.0470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.63529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="41.0705882352941"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.9058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="21.9058823529412"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.1725490196078"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="2.76862745098039"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="1" width="20.5411764705882"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="4" width="2.76862745098039"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="21.9058823529412"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="12.1725490196078"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="4" width="2.76862745098039"/>
+    <col collapsed="false" hidden="false" max="23" min="19" style="4" width="20.5411764705882"/>
+    <col collapsed="false" hidden="false" max="1023" min="24" style="4" width="12.1725490196078"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -5834,7 +5833,7 @@
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="30" t="n">
+      <c r="E2" s="31" t="n">
         <f aca="false">SUM(E4:E26)</f>
         <v>97.5</v>
       </c>
@@ -6222,34 +6221,34 @@
       </c>
       <c r="W7" s="1"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="8" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="8" s="19">
       <c r="A8" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="18" t="n">
+      <c r="E8" s="17" t="n">
         <v>0.5</v>
       </c>
       <c r="F8" s="9" t="n">
         <f aca="false">E8/E2</f>
         <v>0.00512820512820513</v>
       </c>
-      <c r="G8" s="19" t="n">
+      <c r="G8" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="18"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="M8" s="18"/>
+      <c r="M8" s="17"/>
       <c r="O8" s="1" t="n">
         <f aca="false">SUM(S8:W8)</f>
         <v>0.25</v>
@@ -6260,47 +6259,47 @@
           <t/>
         </is>
       </c>
-      <c r="Q8" s="18" t="n">
+      <c r="Q8" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18" t="n">
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17" t="n">
         <f aca="false">15/60</f>
         <v>0.25</v>
       </c>
-      <c r="W8" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="9" s="20">
+      <c r="W8" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="9" s="19">
       <c r="A9" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="18" t="n">
+      <c r="E9" s="17" t="n">
         <v>0.5</v>
       </c>
       <c r="F9" s="9" t="n">
         <f aca="false">E9/E2</f>
         <v>0.00512820512820513</v>
       </c>
-      <c r="G9" s="18" t="n">
+      <c r="G9" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="M9" s="18"/>
+      <c r="M9" s="17"/>
       <c r="O9" s="1" t="n">
         <f aca="false">SUM(S9:W9)</f>
         <v>0.666666666666667</v>
@@ -6311,49 +6310,49 @@
           <t/>
         </is>
       </c>
-      <c r="Q9" s="18" t="n">
+      <c r="Q9" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18" t="n">
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17" t="n">
         <f aca="false">40/60</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="W9" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="10" s="20">
+      <c r="W9" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="10" s="19">
       <c r="A10" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="18" t="n">
+      <c r="E10" s="17" t="n">
         <v>0.5</v>
       </c>
       <c r="F10" s="9" t="n">
         <f aca="false">E10/E2</f>
         <v>0.00512820512820513</v>
       </c>
-      <c r="G10" s="18" t="n">
+      <c r="G10" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="M10" s="18"/>
+      <c r="M10" s="17"/>
       <c r="O10" s="1" t="n">
         <f aca="false">SUM(S10:W10)</f>
         <v>0.416666666666667</v>
@@ -6364,51 +6363,51 @@
           <t/>
         </is>
       </c>
-      <c r="Q10" s="18" t="n">
+      <c r="Q10" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18" t="n">
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17" t="n">
         <f aca="false">25/60</f>
         <v>0.416666666666667</v>
       </c>
-      <c r="W10" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="11" s="20">
+      <c r="W10" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="11" s="19">
       <c r="A11" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="18" t="n">
+      <c r="E11" s="17" t="n">
         <v>2</v>
       </c>
       <c r="F11" s="9" t="n">
         <f aca="false">E11/E2</f>
         <v>0.0205128205128205</v>
       </c>
-      <c r="G11" s="18" t="n">
+      <c r="G11" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="18" t="n">
+      <c r="I11" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="18"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="18" t="n">
+      <c r="L11" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="M11" s="18"/>
+      <c r="M11" s="17"/>
       <c r="O11" s="1" t="n">
         <f aca="false">SUM(S11:W11)</f>
         <v>1.16666666666667</v>
@@ -6419,52 +6418,52 @@
           <t/>
         </is>
       </c>
-      <c r="Q11" s="18" t="n">
+      <c r="Q11" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18" t="n">
+      <c r="R11" s="17"/>
+      <c r="S11" s="17" t="n">
         <f aca="false">35/60</f>
         <v>0.583333333333333</v>
       </c>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18" t="n">
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17" t="n">
         <f aca="false">35/60</f>
         <v>0.583333333333333</v>
       </c>
-      <c r="W11" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="12" s="20">
+      <c r="W11" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="12" s="19">
       <c r="A12" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="18" t="n">
+      <c r="E12" s="17" t="n">
         <v>3</v>
       </c>
       <c r="F12" s="9" t="n">
         <f aca="false">E12/E2</f>
         <v>0.0307692307692308</v>
       </c>
-      <c r="G12" s="18" t="n">
+      <c r="G12" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18" t="n">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17" t="n">
         <v>1.5</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18" t="n">
+      <c r="K12" s="17"/>
+      <c r="L12" s="17" t="n">
         <v>1.5</v>
       </c>
-      <c r="M12" s="18"/>
+      <c r="M12" s="17"/>
       <c r="O12" s="1" t="n">
         <f aca="false">SUM(S12:W12)</f>
         <v>3.9</v>
@@ -6475,71 +6474,71 @@
           <t/>
         </is>
       </c>
-      <c r="Q12" s="18" t="n">
+      <c r="Q12" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18" t="n">
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17" t="n">
         <f aca="false">(45+72)/60</f>
         <v>1.95</v>
       </c>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18" t="n">
+      <c r="U12" s="17"/>
+      <c r="V12" s="17" t="n">
         <f aca="false">(45+72)/60</f>
         <v>1.95</v>
       </c>
-      <c r="W12" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="13" s="20">
+      <c r="W12" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="13" s="19">
       <c r="A13" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="18" t="n">
+      <c r="E13" s="17" t="n">
         <v>10</v>
       </c>
       <c r="F13" s="9" t="n">
         <f aca="false">E13/E2</f>
         <v>0.102564102564103</v>
       </c>
-      <c r="G13" s="18" t="n">
+      <c r="G13" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="18" t="n">
+      <c r="I13" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="18" t="n">
+      <c r="J13" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="18" t="n">
+      <c r="K13" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="18" t="n">
+      <c r="L13" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="M13" s="18" t="n">
+      <c r="M13" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="O13" s="31" t="n">
+      <c r="O13" s="32" t="n">
         <f aca="false">SUM(S13:W13)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32" t="n">
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="14">
       <c r="A14" s="14" t="n">
@@ -6548,7 +6547,7 @@
       <c r="B14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="1" t="n">
@@ -6576,12 +6575,12 @@
       <c r="M14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="O14" s="31" t="n">
+      <c r="O14" s="32" t="n">
         <f aca="false">SUM(S14:W14)</f>
         <v>2.83333333333333</v>
       </c>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31" t="n">
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32" t="n">
         <v>2</v>
       </c>
       <c r="R14" s="1"/>
@@ -6597,403 +6596,403 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="15" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="15" s="19">
       <c r="A15" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18" t="n">
+      <c r="D15" s="16"/>
+      <c r="E15" s="17" t="n">
         <v>10</v>
       </c>
       <c r="F15" s="9" t="n">
         <f aca="false">E15/E2</f>
         <v>0.102564102564103</v>
       </c>
-      <c r="G15" s="18" t="n">
+      <c r="G15" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I15" s="18" t="n">
+      <c r="I15" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="18" t="n">
+      <c r="J15" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="K15" s="18" t="n">
+      <c r="K15" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="L15" s="18" t="n">
+      <c r="L15" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="M15" s="18" t="n">
+      <c r="M15" s="17" t="n">
         <v>2</v>
       </c>
       <c r="O15" s="1" t="n">
         <f aca="false">SUM(S15:W15)</f>
         <v>8</v>
       </c>
-      <c r="P15" s="21" t="inlineStr">
+      <c r="P15" s="20" t="inlineStr">
         <f aca="false">F15</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q15" s="18" t="n">
+      <c r="Q15" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18" t="n">
+      <c r="R15" s="17"/>
+      <c r="S15" s="17" t="n">
         <f aca="false">120/60</f>
         <v>2</v>
       </c>
-      <c r="T15" s="18" t="n">
+      <c r="T15" s="17" t="n">
         <f aca="false">90/60</f>
         <v>1.5</v>
       </c>
-      <c r="U15" s="18" t="n">
+      <c r="U15" s="17" t="n">
         <f aca="false">90/60</f>
         <v>1.5</v>
       </c>
-      <c r="V15" s="18" t="n">
+      <c r="V15" s="17" t="n">
         <f aca="false">90/60</f>
         <v>1.5</v>
       </c>
-      <c r="W15" s="18" t="n">
+      <c r="W15" s="17" t="n">
         <f aca="false">90/60</f>
         <v>1.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="16" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="16" s="19">
       <c r="A16" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="18" t="n">
+      <c r="E16" s="17" t="n">
         <v>2</v>
       </c>
       <c r="F16" s="9" t="n">
         <f aca="false">E16/E2</f>
         <v>0.0205128205128205</v>
       </c>
-      <c r="G16" s="18" t="n">
+      <c r="G16" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18" t="n">
+      <c r="I16" s="17"/>
+      <c r="J16" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18" t="n">
+      <c r="K16" s="17"/>
+      <c r="L16" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="M16" s="18"/>
+      <c r="M16" s="17"/>
       <c r="O16" s="14" t="n">
         <f aca="false">SUM(S16:W16)</f>
         <v>15.4166666666667</v>
       </c>
-      <c r="P16" s="22" t="inlineStr">
+      <c r="P16" s="21" t="inlineStr">
         <f aca="false">SUM(F16:F18)</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q16" s="19" t="n">
+      <c r="Q16" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="R16" s="18"/>
-      <c r="S16" s="19" t="n">
+      <c r="R16" s="17"/>
+      <c r="S16" s="18" t="n">
         <f aca="false">(40+75+90)/60</f>
         <v>3.41666666666667</v>
       </c>
-      <c r="T16" s="19" t="n">
+      <c r="T16" s="18" t="n">
         <f aca="false">(75+45+140)/60</f>
         <v>4.33333333333333</v>
       </c>
-      <c r="U16" s="19" t="n">
+      <c r="U16" s="18" t="n">
         <f aca="false">(120+50)/60</f>
         <v>2.83333333333333</v>
       </c>
-      <c r="V16" s="19" t="n">
+      <c r="V16" s="18" t="n">
         <f aca="false">75/60</f>
         <v>1.25</v>
       </c>
-      <c r="W16" s="19" t="n">
+      <c r="W16" s="18" t="n">
         <f aca="false">(140+75)/60</f>
         <v>3.58333333333333</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="17" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="17" s="19">
       <c r="A17" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="18" t="n">
+      <c r="E17" s="17" t="n">
         <v>2</v>
       </c>
       <c r="F17" s="9" t="n">
         <f aca="false">E17/E2</f>
         <v>0.0205128205128205</v>
       </c>
-      <c r="G17" s="18" t="n">
+      <c r="G17" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18" t="n">
+      <c r="I17" s="17"/>
+      <c r="J17" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="18" s="20">
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="18" s="19">
       <c r="A18" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="18" t="n">
+      <c r="E18" s="17" t="n">
         <v>4</v>
       </c>
       <c r="F18" s="9" t="n">
         <f aca="false">E18/E2</f>
         <v>0.041025641025641</v>
       </c>
-      <c r="G18" s="18" t="n">
+      <c r="G18" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18" t="n">
+      <c r="I18" s="17"/>
+      <c r="J18" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="K18" s="18" t="n">
+      <c r="K18" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
       <c r="O18" s="14"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="19" s="20">
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="19" s="19">
       <c r="A19" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="18" t="n">
+      <c r="E19" s="17" t="n">
         <v>0.5</v>
       </c>
       <c r="F19" s="9" t="n">
         <f aca="false">E19/E2</f>
         <v>0.00512820512820513</v>
       </c>
-      <c r="G19" s="18" t="n">
+      <c r="G19" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="L19" s="18" t="n">
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="L19" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="M19" s="18"/>
+      <c r="M19" s="17"/>
       <c r="O19" s="1" t="n">
         <f aca="false">SUM(S19:W19)</f>
         <v>0.383333333333333</v>
       </c>
-      <c r="P19" s="21" t="inlineStr">
+      <c r="P19" s="20" t="inlineStr">
         <f aca="false">F19</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q19" s="18" t="n">
+      <c r="Q19" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18" t="n">
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17" t="n">
         <f aca="false">23/60</f>
         <v>0.383333333333333</v>
       </c>
-      <c r="W19" s="18"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="20" s="20">
+      <c r="W19" s="17"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="20" s="19">
       <c r="A20" s="14" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="18" t="n">
+      <c r="E20" s="17" t="n">
         <v>2</v>
       </c>
       <c r="F20" s="9" t="n">
         <f aca="false">E20/E2</f>
         <v>0.0205128205128205</v>
       </c>
-      <c r="G20" s="18" t="n">
+      <c r="G20" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="I20" s="18" t="n">
+      <c r="I20" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18" t="n">
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17" t="n">
         <v>1</v>
       </c>
       <c r="O20" s="1" t="n">
         <f aca="false">SUM(S20:W20)</f>
         <v>1</v>
       </c>
-      <c r="P20" s="21" t="inlineStr">
+      <c r="P20" s="20" t="inlineStr">
         <f aca="false">F20</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q20" s="18" t="n">
+      <c r="Q20" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18" t="n">
+      <c r="R20" s="17"/>
+      <c r="S20" s="17" t="n">
         <f aca="false">30/60</f>
         <v>0.5</v>
       </c>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18" t="n">
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17" t="n">
         <f aca="false">30/60</f>
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="21" s="20">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="21" s="19">
       <c r="A21" s="14" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18" t="n">
+      <c r="D21" s="16"/>
+      <c r="E21" s="17" t="n">
         <v>10</v>
       </c>
       <c r="F21" s="9" t="n">
         <f aca="false">E21/E2</f>
         <v>0.102564102564103</v>
       </c>
-      <c r="G21" s="18" t="n">
+      <c r="G21" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="I21" s="18" t="n">
+      <c r="I21" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="J21" s="18" t="n">
+      <c r="J21" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="K21" s="18" t="n">
+      <c r="K21" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="L21" s="18" t="n">
+      <c r="L21" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="M21" s="18" t="n">
+      <c r="M21" s="17" t="n">
         <v>2</v>
       </c>
       <c r="O21" s="1" t="n">
         <f aca="false">SUM(S21:W21)</f>
         <v>8.16666666666665</v>
       </c>
-      <c r="P21" s="21" t="inlineStr">
+      <c r="P21" s="20" t="inlineStr">
         <f aca="false">F21</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q21" s="18" t="n">
+      <c r="Q21" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18" t="n">
+      <c r="R21" s="17"/>
+      <c r="S21" s="17" t="n">
         <f aca="false">98/60</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="T21" s="18" t="n">
+      <c r="T21" s="17" t="n">
         <f aca="false">98/60</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="U21" s="18" t="n">
+      <c r="U21" s="17" t="n">
         <f aca="false">98/60</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="V21" s="18" t="n">
+      <c r="V21" s="17" t="n">
         <f aca="false">98/60</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="W21" s="18" t="n">
+      <c r="W21" s="17" t="n">
         <f aca="false">98/60</f>
         <v>1.63333333333333</v>
       </c>
@@ -7028,7 +7027,7 @@
         <f aca="false">SUM(S22:W22)</f>
         <v>2.5</v>
       </c>
-      <c r="P22" s="21" t="inlineStr">
+      <c r="P22" s="20" t="inlineStr">
         <f aca="false">F22</f>
         <is>
           <t/>
@@ -7092,7 +7091,7 @@
         <f aca="false">SUM(S23:W23)</f>
         <v>6.25</v>
       </c>
-      <c r="P23" s="21" t="inlineStr">
+      <c r="P23" s="20" t="inlineStr">
         <f aca="false">F23</f>
         <is>
           <t/>
@@ -7156,7 +7155,7 @@
         <f aca="false">SUM(S24:W24)</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="P24" s="21" t="inlineStr">
+      <c r="P24" s="20" t="inlineStr">
         <f aca="false">F24</f>
         <is>
           <t/>
@@ -7211,7 +7210,7 @@
         <f aca="false">SUM(S25:W25)</f>
         <v>1.25</v>
       </c>
-      <c r="P25" s="21" t="inlineStr">
+      <c r="P25" s="20" t="inlineStr">
         <f aca="false">F25</f>
         <is>
           <t/>
@@ -7234,7 +7233,7 @@
       <c r="A26" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -7272,7 +7271,7 @@
         <f aca="false">SUM(S26:W26)</f>
         <v>3.66666666666667</v>
       </c>
-      <c r="P26" s="21" t="inlineStr">
+      <c r="P26" s="20" t="inlineStr">
         <f aca="false">F26</f>
         <is>
           <t/>
@@ -7338,22 +7337,22 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="12.7333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="17.0666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="19.7607843137255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="18.4941176470588"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="25" width="21.4705882352941"/>
-    <col collapsed="false" hidden="true" max="7" min="7" style="25" width="0"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="25" width="21.4705882352941"/>
-    <col collapsed="false" hidden="false" max="1014" min="10" style="23" width="12.7333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="12.7333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="12.8627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="17.2313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="19.9607843137255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="18.678431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="24" width="21.6901960784314"/>
+    <col collapsed="false" hidden="true" max="7" min="7" style="24" width="0"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="24" width="21.6901960784314"/>
+    <col collapsed="false" hidden="false" max="1014" min="10" style="22" width="12.8627450980392"/>
+    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="12.8627450980392"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>105</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -7379,39 +7378,39 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
-      <c r="A2" s="27" t="n">
+      <c r="A2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="n">
+      <c r="B2" s="27" t="n">
         <v>41902</v>
       </c>
-      <c r="C2" s="27" t="n">
+      <c r="C2" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D2" s="27" t="n">
+      <c r="D2" s="26" t="n">
         <f aca="false">SUMIF(_1SE,A2,_1TDHE)</f>
         <v>36</v>
       </c>
-      <c r="E2" s="29" t="n">
+      <c r="E2" s="28" t="n">
         <f aca="false">SUMIF(_1SE,A2,_1PIDGE)</f>
         <v>0.369230769230769</v>
       </c>
-      <c r="F2" s="29" t="inlineStr">
+      <c r="F2" s="28" t="inlineStr">
         <f aca="false">E2</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G2" s="29" t="n">
+      <c r="G2" s="28" t="n">
         <f aca="false">SUMIF(_1SR,A2,_1TDHT)</f>
         <v>17.65</v>
       </c>
-      <c r="H2" s="29" t="n">
+      <c r="H2" s="28" t="n">
         <f aca="false">SUMIF(_1SR,A2,_1PIDGO)</f>
         <v>0.235897435897436</v>
       </c>
-      <c r="I2" s="29" t="inlineStr">
+      <c r="I2" s="28" t="inlineStr">
         <f aca="false">H2</f>
         <is>
           <t/>
@@ -7419,42 +7418,42 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
-      <c r="A3" s="27" t="n">
+      <c r="A3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="inlineStr">
+      <c r="B3" s="27" t="inlineStr">
         <f aca="false">B2+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C3" s="27" t="n">
+      <c r="C3" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D3" s="27" t="n">
+      <c r="D3" s="26" t="n">
         <f aca="false">SUMIF(_1SE,A3,_1TDHE)</f>
         <v>33.5</v>
       </c>
-      <c r="E3" s="29" t="n">
+      <c r="E3" s="28" t="n">
         <f aca="false">SUMIF(_1SE,A3,_1PIDGE)</f>
         <v>0.343589743589744</v>
       </c>
-      <c r="F3" s="29" t="inlineStr">
+      <c r="F3" s="28" t="inlineStr">
         <f aca="false">E3+F2</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G3" s="29" t="n">
+      <c r="G3" s="28" t="n">
         <f aca="false">SUMIF(_1SR,A3,_1TDHT)</f>
         <v>15.1166666666667</v>
       </c>
-      <c r="H3" s="29" t="n">
+      <c r="H3" s="28" t="n">
         <f aca="false">SUMIF(_1SR,A3,_1PIDGO)</f>
         <v>0.138461538461539</v>
       </c>
-      <c r="I3" s="29" t="inlineStr">
+      <c r="I3" s="28" t="inlineStr">
         <f aca="false">H3+I2</f>
         <is>
           <t/>
@@ -7462,42 +7461,42 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
-      <c r="A4" s="27" t="n">
+      <c r="A4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="inlineStr">
+      <c r="B4" s="27" t="inlineStr">
         <f aca="false">B3+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="26" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="26" t="n">
         <f aca="false">SUMIF(_1SE,A4,_1TDHE)</f>
         <v>28</v>
       </c>
-      <c r="E4" s="29" t="n">
+      <c r="E4" s="28" t="n">
         <f aca="false">SUMIF(_1SE,A4,_1PIDGE)</f>
         <v>0.287179487179487</v>
       </c>
-      <c r="F4" s="29" t="inlineStr">
+      <c r="F4" s="28" t="inlineStr">
         <f aca="false">E4+F3</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G4" s="29" t="n">
+      <c r="G4" s="28" t="n">
         <f aca="false">SUMIF(_1SR,A4,_1TDHT)</f>
         <v>39.8833333333333</v>
       </c>
-      <c r="H4" s="29" t="n">
+      <c r="H4" s="28" t="n">
         <f aca="false">SUMIF(_1SR,A4,_1PIDGO)</f>
         <v>0.36923076923077</v>
       </c>
-      <c r="I4" s="29" t="inlineStr">
+      <c r="I4" s="28" t="inlineStr">
         <f aca="false">H4+I3</f>
         <is>
           <t/>
@@ -7505,18 +7504,18 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="6">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="23" t="n">
+      <c r="C6" s="22" t="n">
         <f aca="false">SUM(C2:C4)</f>
         <v>105</v>
       </c>
-      <c r="D6" s="23" t="n">
+      <c r="D6" s="22" t="n">
         <f aca="false">SUM(D2:D4)</f>
         <v>97.5</v>
       </c>
-      <c r="G6" s="25" t="inlineStr">
+      <c r="G6" s="24" t="inlineStr">
         <f aca="false">SUM(G2:G4)</f>
         <is>
           <t/>
@@ -7542,16 +7541,16 @@
   </sheetPr>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="G38" activeCellId="0" pane="topLeft" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="2" style="23" width="15.7098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="2.6156862745098"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="23" width="15.7098039215686"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="23" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="2" style="22" width="15.8745098039216"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="2.65098039215686"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="22" width="15.8745098039216"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="22" width="11.7490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.65" outlineLevel="0" r="1">
@@ -7596,199 +7595,199 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
-      <c r="A2" s="27" t="n">
+      <c r="A2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="n">
+      <c r="B2" s="26" t="n">
         <f aca="false">SUMIF(_1SE,A2,_1hetl)</f>
         <v>6.5</v>
       </c>
-      <c r="C2" s="27" t="n">
+      <c r="C2" s="26" t="n">
         <f aca="false">SUMIF(_1SE,A2,_1hedm)</f>
         <v>7</v>
       </c>
-      <c r="D2" s="27" t="n">
+      <c r="D2" s="26" t="n">
         <f aca="false">SUMIF(_1SE,A2,_1hepqm)</f>
         <v>5.5</v>
       </c>
-      <c r="E2" s="27" t="n">
+      <c r="E2" s="26" t="n">
         <f aca="false">SUMIF(_1SE,A2,_1hepm)</f>
         <v>11.5</v>
       </c>
-      <c r="F2" s="27" t="n">
+      <c r="F2" s="26" t="n">
         <f aca="false">SUMIF(_1SE,A2,_1hesm)</f>
         <v>5.5</v>
       </c>
-      <c r="G2" s="27" t="n">
+      <c r="G2" s="26" t="n">
         <f aca="false">SUM(B2:F2)</f>
         <v>36</v>
       </c>
-      <c r="I2" s="27" t="n">
+      <c r="I2" s="26" t="n">
         <v>2.35</v>
       </c>
-      <c r="J2" s="27" t="n">
+      <c r="J2" s="26" t="n">
         <v>2.1</v>
       </c>
-      <c r="K2" s="27" t="n">
+      <c r="K2" s="26" t="n">
         <v>3.93</v>
       </c>
-      <c r="L2" s="27" t="n">
+      <c r="L2" s="26" t="n">
         <v>7.42</v>
       </c>
-      <c r="M2" s="27" t="n">
+      <c r="M2" s="26" t="n">
         <v>5.27</v>
       </c>
-      <c r="N2" s="27" t="n">
+      <c r="N2" s="26" t="n">
         <f aca="false">SUM(I2:M2)</f>
         <v>21.07</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
-      <c r="A3" s="27" t="n">
+      <c r="A3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="n">
+      <c r="B3" s="26" t="n">
         <f aca="false">SUMIF(_1SE,A3,_1hetl)</f>
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="n">
+      <c r="C3" s="26" t="n">
         <f aca="false">SUMIF(_1SE,A3,_1hedm)</f>
         <v>10</v>
       </c>
-      <c r="D3" s="27" t="n">
+      <c r="D3" s="26" t="n">
         <f aca="false">SUMIF(_1SE,A3,_1hepqm)</f>
         <v>7</v>
       </c>
-      <c r="E3" s="27" t="n">
+      <c r="E3" s="26" t="n">
         <f aca="false">SUMIF(_1SE,A3,_1hepm)</f>
         <v>6.5</v>
       </c>
-      <c r="F3" s="27" t="n">
+      <c r="F3" s="26" t="n">
         <f aca="false">SUMIF(_1SE,A3,_1hesm)</f>
         <v>5</v>
       </c>
-      <c r="G3" s="27" t="n">
+      <c r="G3" s="26" t="n">
         <f aca="false">SUM(B3:F3)</f>
         <v>33.5</v>
       </c>
-      <c r="I3" s="27" t="n">
+      <c r="I3" s="26" t="n">
         <v>7.33</v>
       </c>
-      <c r="J3" s="27" t="n">
+      <c r="J3" s="26" t="n">
         <v>7.28</v>
       </c>
-      <c r="K3" s="27" t="n">
+      <c r="K3" s="26" t="n">
         <v>5.33</v>
       </c>
-      <c r="L3" s="27" t="n">
+      <c r="L3" s="26" t="n">
         <v>4.42</v>
       </c>
-      <c r="M3" s="27" t="n">
+      <c r="M3" s="26" t="n">
         <v>4.67</v>
       </c>
-      <c r="N3" s="27" t="n">
+      <c r="N3" s="26" t="n">
         <f aca="false">SUM(I3:M3)</f>
         <v>29.03</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
-      <c r="A4" s="27" t="n">
+      <c r="A4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="n">
+      <c r="B4" s="26" t="n">
         <f aca="false">SUMIF(_1SE,A4,_1hetl)</f>
         <v>8.5</v>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="26" t="n">
         <f aca="false">SUMIF(_1SE,A4,_1hedm)</f>
         <v>9.5</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="26" t="n">
         <f aca="false">SUMIF(_1SE,A4,_1hepqm)</f>
         <v>3</v>
       </c>
-      <c r="E4" s="27" t="n">
+      <c r="E4" s="26" t="n">
         <f aca="false">SUMIF(_1SE,A4,_1hepm)</f>
         <v>3</v>
       </c>
-      <c r="F4" s="27" t="n">
+      <c r="F4" s="26" t="n">
         <f aca="false">SUMIF(_1SE,A4,_1hesm)</f>
         <v>4</v>
       </c>
-      <c r="G4" s="27" t="n">
+      <c r="G4" s="26" t="n">
         <f aca="false">SUM(B4:F4)</f>
         <v>28</v>
       </c>
-      <c r="I4" s="27" t="n">
+      <c r="I4" s="26" t="n">
         <v>5.43</v>
       </c>
-      <c r="J4" s="27" t="n">
+      <c r="J4" s="26" t="n">
         <v>8.72</v>
       </c>
-      <c r="K4" s="27" t="n">
+      <c r="K4" s="26" t="n">
         <v>10.12</v>
       </c>
-      <c r="L4" s="27" t="n">
+      <c r="L4" s="26" t="n">
         <v>10.5</v>
       </c>
-      <c r="M4" s="27" t="n">
+      <c r="M4" s="26" t="n">
         <v>5.87</v>
       </c>
-      <c r="N4" s="27" t="n">
+      <c r="N4" s="26" t="n">
         <f aca="false">SUM(I4:M4)</f>
         <v>40.64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5" s="23"/>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5" s="22"/>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="6">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="23" t="n">
+      <c r="B6" s="22" t="n">
         <f aca="false">SUM(B2:B4)</f>
         <v>20</v>
       </c>
-      <c r="C6" s="23" t="n">
+      <c r="C6" s="22" t="n">
         <f aca="false">SUM(C2:C4)</f>
         <v>26.5</v>
       </c>
-      <c r="D6" s="23" t="n">
+      <c r="D6" s="22" t="n">
         <f aca="false">SUM(D2:D4)</f>
         <v>15.5</v>
       </c>
-      <c r="E6" s="23" t="n">
+      <c r="E6" s="22" t="n">
         <f aca="false">SUM(E2:E4)</f>
         <v>21</v>
       </c>
-      <c r="F6" s="23" t="n">
+      <c r="F6" s="22" t="n">
         <f aca="false">SUM(F2:F4)</f>
         <v>14.5</v>
       </c>
-      <c r="G6" s="23" t="n">
+      <c r="G6" s="22" t="n">
         <f aca="false">SUM(G2:G4)</f>
         <v>97.5</v>
       </c>
-      <c r="I6" s="23" t="n">
+      <c r="I6" s="22" t="n">
         <f aca="false">SUM(I2:I4)</f>
         <v>15.11</v>
       </c>
-      <c r="J6" s="23" t="n">
+      <c r="J6" s="22" t="n">
         <f aca="false">SUM(J2:J4)</f>
         <v>18.1</v>
       </c>
-      <c r="K6" s="23" t="n">
+      <c r="K6" s="22" t="n">
         <f aca="false">SUM(K2:K4)</f>
         <v>19.38</v>
       </c>
-      <c r="L6" s="23" t="n">
+      <c r="L6" s="22" t="n">
         <f aca="false">SUM(L2:L4)</f>
         <v>22.34</v>
       </c>
-      <c r="M6" s="23" t="n">
+      <c r="M6" s="22" t="n">
         <f aca="false">SUM(M2:M4)</f>
         <v>15.81</v>
       </c>
-      <c r="N6" s="23" t="n">
+      <c r="N6" s="22" t="n">
         <f aca="false">SUM(N2:N4)</f>
         <v>90.74</v>
       </c>

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="439" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="439" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="tareas" sheetId="1" state="visible" r:id="rId2"/>
@@ -569,7 +569,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
@@ -652,17 +652,12 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="166" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
     </xf>
@@ -756,7 +751,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -975,39 +970,39 @@
                   <c:v>0.434131736526946</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.550898203592814</c:v>
+                  <c:v>0.61377245508982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.550898203592814</c:v>
+                  <c:v>0.643712574850299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.550898203592814</c:v>
+                  <c:v>0.643712574850299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.550898203592814</c:v>
+                  <c:v>0.643712574850299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.550898203592814</c:v>
+                  <c:v>0.643712574850299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.550898203592814</c:v>
+                  <c:v>0.643712574850299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.550898203592814</c:v>
+                  <c:v>0.643712574850299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.550898203592814</c:v>
+                  <c:v>0.643712574850299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="40750970"/>
-        <c:axId val="13519087"/>
+        <c:axId val="80968279"/>
+        <c:axId val="61650744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40750970"/>
+        <c:axId val="80968279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,7 +1010,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13519087"/>
+        <c:crossAx val="61650744"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1029,7 +1024,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13519087"/>
+        <c:axId val="61650744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1041,1203 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40750970"/>
+        <c:crossAx val="80968279"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1300"/>
+              <a:t>Ganacias Estimadas vs Ganacias Obtenidas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'recursos-ciclo2'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje Acumulado de Ganacias Estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'recursos-ciclo2'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'recursos-ciclo2'!$F$2:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.503597122302158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'recursos-ciclo2'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje Acumulado de Ganancias Obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'recursos-ciclo2'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'recursos-ciclo2'!$I$2:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.431654676258993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.503597122302158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="24916625"/>
+        <c:axId val="13863536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="24916625"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="13863536"/>
+        <c:crossesAt val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="13863536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="24916625"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1300"/>
+              <a:t>Ganancias Estimadas vs Ganancias Obtenidas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'recursos-ciclo2'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje Individual de Ganacias Estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'recursos-ciclo2'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'recursos-ciclo2'!$E$2:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.503597122302158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.496402877697842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'recursos-ciclo2'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje Individual de Ganancias Obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'recursos-ciclo2'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'recursos-ciclo2'!$H$2:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.431654676258993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0719424460431655</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="76152909"/>
+        <c:axId val="81105647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="76152909"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81105647"/>
+        <c:crossesAt val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81105647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76152909"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1300"/>
+              <a:t>Horas Estimadas vs Horas Trabajadas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo2'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total de Horas Estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo2'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo2'!$G$2:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo2'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total de Horas Trabajadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo2'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo2'!$N$2:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>37.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="84198343"/>
+        <c:axId val="20769794"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="84198343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20769794"/>
+        <c:crossesAt val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="20769794"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84198343"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1300"/>
+              <a:t>Horas Trabajadas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo2'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas Team Leader</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo2'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo2'!$I$2:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo2'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas Development Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo2'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo2'!$J$2:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo2'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas Process/Quality Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo2'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo2'!$K$2:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo2'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas Planning Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo2'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo2'!$L$2:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo2'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas Support Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00b8ff"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo2'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo2'!$M$2:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="87497437"/>
+        <c:axId val="74435909"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="87497437"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74435909"/>
+        <c:crossesAt val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74435909"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87497437"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1300"/>
+              <a:t>Ganacias Estimadas vs Ganacias Obtenidas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'recursos-ciclo1'!$F$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje Acumulado de Ganacias Estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'recursos-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'recursos-ciclo1'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.369230769230769</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.712820512820513</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'recursos-ciclo1'!$I$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje Acumulado de Ganancias Obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'recursos-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'recursos-ciclo1'!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.235897435897436</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.374358974358975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.743589743589745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="26857355"/>
+        <c:axId val="40713872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="26857355"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40713872"/>
+        <c:crossesAt val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40713872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="26857355"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -1094,7 +2285,7 @@
             </a:pPr>
             <a:r>
               <a:rPr b="1" sz="1300"/>
-              <a:t>Horas Disponibles vs Horas Estimadas vs Horas Trabajadas</a:t>
+              <a:t>Ganancias Estimadas vs Ganancias Obtenidas</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1110,11 +2301,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>recursos!$C$1:$C$1</c:f>
+              <c:f>'recursos-ciclo1'!$E$1:$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Horas Disponibles</c:v>
+                  <c:v>Porcentaje Individual de Ganacias Estimadas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1126,9 +2317,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>recursos!$A$2:$A$12</c:f>
+              <c:f>'recursos-ciclo1'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1139,70 +2330,25 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>recursos!$C$2:$C$12</c:f>
+              <c:f>'recursos-ciclo1'!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>0.369230769230769</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>0.343589743589744</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
+                  <c:v>0.287179487179487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,11 +2359,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>recursos!$D$1:$D$1</c:f>
+              <c:f>'recursos-ciclo1'!$H$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Horas Estimadas</c:v>
+                  <c:v>Porcentaje Individual de Ganancias Obtenidas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1229,9 +2375,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>recursos!$A$2:$A$12</c:f>
+              <c:f>'recursos-ciclo1'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1242,184 +2388,36 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>recursos!$D$2:$D$12</c:f>
+              <c:f>'recursos-ciclo1'!$H$2:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>0.235897435897436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.5</c:v>
+                  <c:v>0.138461538461539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>recursos!$G$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Horas Trabajadas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>recursos!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>recursos!$G$2:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>17.65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.1166666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.8833333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.8166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.36923076923077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="27122120"/>
-        <c:axId val="87094105"/>
+        <c:axId val="66923963"/>
+        <c:axId val="66846092"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="27122120"/>
+        <c:axId val="66923963"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +2425,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87094105"/>
+        <c:crossAx val="66846092"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1441,7 +2439,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87094105"/>
+        <c:axId val="66846092"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1458,7 +2456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="27122120"/>
+        <c:crossAx val="66923963"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -1506,7 +2504,7 @@
             </a:pPr>
             <a:r>
               <a:rPr b="1" sz="1300"/>
-              <a:t>Ganacias Estimadas vs Ganacias Obtenidas</a:t>
+              <a:t>Horas Estimadas vs Horas Trabajadas</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1514,18 +2512,19 @@
     </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'recursos-ciclo2'!$F$1</c:f>
+              <c:f>'tiempo-ciclo1'!$G$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Porcentaje Acumulado de Ganacias Estimadas</c:v>
+                  <c:v>Total de Horas Estimadas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1534,39 +2533,38 @@
             <a:solidFill>
               <a:srgbClr val="004586"/>
             </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
           </c:spPr>
-          <c:marker/>
           <c:cat>
             <c:strRef>
-              <c:f>'recursos-ciclo2'!$A$2:$A$3</c:f>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'recursos-ciclo2'!$F$2:$F$3</c:f>
+              <c:f>'tiempo-ciclo1'!$G$2:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.503597122302158</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1577,11 +2575,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'recursos-ciclo2'!$I$1</c:f>
+              <c:f>'tiempo-ciclo1'!$N$1:$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Porcentaje Acumulado de Ganancias Obtenidas</c:v>
+                  <c:v>Total de Horas Trabajadas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1590,50 +2588,49 @@
             <a:solidFill>
               <a:srgbClr val="ff420e"/>
             </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
           </c:spPr>
-          <c:marker/>
           <c:cat>
             <c:strRef>
-              <c:f>'recursos-ciclo2'!$A$2:$A$3</c:f>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'recursos-ciclo2'!$I$2:$I$3</c:f>
+              <c:f>'tiempo-ciclo1'!$N$2:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.280575539568345</c:v>
+                  <c:v>21.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.280575539568345</c:v>
+                  <c:v>29.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="94682172"/>
-        <c:axId val="99965754"/>
-      </c:lineChart>
+        <c:gapWidth val="100"/>
+        <c:axId val="1572561"/>
+        <c:axId val="74769617"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="94682172"/>
+        <c:axId val="1572561"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1641,7 +2638,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99965754"/>
+        <c:crossAx val="74769617"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1655,7 +2652,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99965754"/>
+        <c:axId val="74769617"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1672,7 +2669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94682172"/>
+        <c:crossAx val="1572561"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -1708,91 +2705,21 @@
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1300"/>
-              <a:t>Ganancias Estimadas vs Ganancias Obtenidas</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'recursos-ciclo2'!$E$1</c:f>
+              <c:f>'tiempo-ciclo1'!$I$1:$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Porcentaje Individual de Ganacias Estimadas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'recursos-ciclo2'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'recursos-ciclo2'!$E$2:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.503597122302158</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.496402877697842</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'recursos-ciclo2'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Porcentaje Individual de Ganancias Obtenidas</c:v>
+                  <c:v>Horas Trabajadas Team Leader</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1804,43 +2731,266 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'recursos-ciclo2'!$A$2:$A$4</c:f>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'recursos-ciclo2'!$H$2:$H$3</c:f>
+              <c:f>'tiempo-ciclo1'!$I$2:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.280575539568345</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$J$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas Development Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$J$2:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$K$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas Process/Quality Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$K$2:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$L$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas Planning Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$L$2:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$M$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Trabajadas Support Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00b8ff"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tiempo-ciclo1'!$M$2:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="8171440"/>
-        <c:axId val="97784307"/>
+        <c:axId val="32819813"/>
+        <c:axId val="57433423"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="8171440"/>
+        <c:axId val="32819813"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,7 +2998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97784307"/>
+        <c:crossAx val="57433423"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1862,7 +3012,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97784307"/>
+        <c:axId val="57433423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1879,1574 +3029,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="8171440"/>
-        <c:crossesAt val="0"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:spPr/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart85.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1300"/>
-              <a:t>Horas Estimadas vs Horas Trabajadas</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tiempo-ciclo2'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total de Horas Estimadas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'tiempo-ciclo2'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'tiempo-ciclo2'!$G$2:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tiempo-ciclo2'!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total de Horas Trabajadas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'tiempo-ciclo2'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'tiempo-ciclo2'!$N$2:$N$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>10.8166666666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:axId val="2235910"/>
-        <c:axId val="96984879"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2235910"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96984879"/>
-        <c:crossesAt val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="96984879"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2235910"/>
-        <c:crossesAt val="0"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:spPr/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart86.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1300"/>
-              <a:t>Horas Trabajadas</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tiempo-ciclo2'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Horas Trabajadas Team Leader</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'tiempo-ciclo2'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'tiempo-ciclo2'!$I$2:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.91666666666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tiempo-ciclo2'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Horas Trabajadas Development Manager</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7e0021"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'tiempo-ciclo2'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'tiempo-ciclo2'!$J$2:$J$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tiempo-ciclo2'!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Horas Trabajadas Process/Quality Manager</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'tiempo-ciclo2'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'tiempo-ciclo2'!$K$2:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tiempo-ciclo2'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Horas Trabajadas Planning Manager</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'tiempo-ciclo2'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'tiempo-ciclo2'!$L$2:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tiempo-ciclo2'!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Horas Trabajadas Support Manager</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00b8ff"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'tiempo-ciclo2'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'tiempo-ciclo2'!$M$2:$M$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:axId val="93342527"/>
-        <c:axId val="98930069"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="93342527"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98930069"/>
-        <c:crossesAt val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="98930069"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93342527"/>
-        <c:crossesAt val="0"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:spPr/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart87.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1300"/>
-              <a:t>Ganacias Estimadas vs Ganacias Obtenidas</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'recursos-ciclo1'!$F$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Porcentaje Acumulado de Ganacias Estimadas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'recursos-ciclo1'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'recursos-ciclo1'!$F$2:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.369230769230769</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.712820512820513</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'recursos-ciclo1'!$I$1:$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Porcentaje Acumulado de Ganancias Obtenidas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'recursos-ciclo1'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'recursos-ciclo1'!$I$2:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.235897435897436</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.374358974358974</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.743589743589743</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="23837915"/>
-        <c:axId val="33195014"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="23837915"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33195014"/>
-        <c:crossesAt val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="33195014"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="23837915"/>
-        <c:crossesAt val="0"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:spPr/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart88.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1300"/>
-              <a:t>Ganancias Estimadas vs Ganancias Obtenidas</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'recursos-ciclo1'!$E$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Porcentaje Individual de Ganacias Estimadas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'recursos-ciclo1'!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'recursos-ciclo1'!$E$2:$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.369230769230769</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.343589743589744</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.287179487179487</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'recursos-ciclo1'!$H$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Porcentaje Individual de Ganancias Obtenidas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'recursos-ciclo1'!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'recursos-ciclo1'!$H$2:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.235897435897436</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.138461538461538</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.369230769230769</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:axId val="13798234"/>
-        <c:axId val="76805126"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="13798234"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76805126"/>
-        <c:crossesAt val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="76805126"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13798234"/>
-        <c:crossesAt val="0"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:spPr/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart89.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1300"/>
-              <a:t>Horas Estimadas vs Horas Trabajadas</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tiempo-ciclo1'!$G$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total de Horas Estimadas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'tiempo-ciclo1'!$G$2:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tiempo-ciclo1'!$N$1:$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total de Horas Trabajadas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'tiempo-ciclo1'!$N$2:$N$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>21.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:axId val="62609088"/>
-        <c:axId val="43135976"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="62609088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43135976"/>
-        <c:crossesAt val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="43135976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62609088"/>
-        <c:crossesAt val="0"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:spPr/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart90.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tiempo-ciclo1'!$I$1:$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Horas Trabajadas Team Leader</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'tiempo-ciclo1'!$I$2:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.33</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tiempo-ciclo1'!$J$1:$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Horas Trabajadas Development Manager</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7e0021"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'tiempo-ciclo1'!$J$2:$J$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tiempo-ciclo1'!$K$1:$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Horas Trabajadas Process/Quality Manager</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'tiempo-ciclo1'!$K$2:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.93</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.33</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tiempo-ciclo1'!$L$1:$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Horas Trabajadas Planning Manager</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'tiempo-ciclo1'!$L$2:$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7.42</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.42</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'tiempo-ciclo1'!$M$1:$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Horas Trabajadas Support Manager</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00b8ff"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'tiempo-ciclo1'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'tiempo-ciclo1'!$M$2:$M$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5.27</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.67</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.87</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:axId val="64850579"/>
-        <c:axId val="46351293"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="64850579"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46351293"/>
-        <c:crossesAt val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="46351293"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64850579"/>
+        <c:crossAx val="32819813"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -3483,15 +3066,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:colOff>294840</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>435960</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>689760</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3499,42 +3082,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="457200" y="3598560"/>
-        <a:ext cx="10950120" cy="2966760"/>
+        <a:off x="294840" y="3361320"/>
+        <a:ext cx="11114280" cy="3502440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>435960</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>372240</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="435960" y="8149680"/>
-        <a:ext cx="10907640" cy="3438360"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3548,24 +3101,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>203760</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:colOff>801720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>452880</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>838440</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="1" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="203760" y="1703880"/>
-        <a:ext cx="8159760" cy="3011040"/>
+        <a:off x="801720" y="2035080"/>
+        <a:ext cx="8282160" cy="3388680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3578,24 +3131,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>336960</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:colOff>786960</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>164520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>517680</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>751320</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="2" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="336960" y="5226840"/>
-        <a:ext cx="8091360" cy="3746880"/>
+        <a:off x="786960" y="6439320"/>
+        <a:ext cx="8209800" cy="3034440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3613,24 +3166,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>413280</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:colOff>378720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>976680</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:colOff>941040</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPr id="3" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="413280" y="1625400"/>
-        <a:ext cx="5873040" cy="3315960"/>
+        <a:off x="378720" y="2125080"/>
+        <a:ext cx="5952600" cy="3368160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3643,24 +3196,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>789840</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:colOff>817920</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>847440</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:colOff>874440</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvPr id="4" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7219800" y="1582200"/>
-        <a:ext cx="5845320" cy="3283920"/>
+        <a:off x="7345440" y="2072160"/>
+        <a:ext cx="5933520" cy="3562560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3678,24 +3231,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>203760</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:colOff>284760</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>452880</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:colOff>532800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvPr id="5" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="203760" y="1703880"/>
-        <a:ext cx="8159760" cy="3011040"/>
+        <a:off x="284760" y="512640"/>
+        <a:ext cx="8278200" cy="2400480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3708,24 +3261,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>336960</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:colOff>417960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>517680</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:colOff>597600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvPr id="6" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="336960" y="5226840"/>
-        <a:ext cx="8091360" cy="3746880"/>
+        <a:off x="417960" y="3317760"/>
+        <a:ext cx="8209800" cy="3021840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3743,24 +3296,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>413280</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:colOff>494280</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>511920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>976680</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:colOff>1056600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>61560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvPr id="7" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="413280" y="1625400"/>
-        <a:ext cx="5873040" cy="2426400"/>
+        <a:off x="494280" y="511920"/>
+        <a:ext cx="5952600" cy="1442880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3773,24 +3326,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>789840</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:colOff>870840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>480960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>847440</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:colOff>927360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvPr id="8" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7219800" y="1582200"/>
-        <a:ext cx="5845320" cy="2607840"/>
+        <a:off x="7398360" y="480960"/>
+        <a:ext cx="5933520" cy="1599840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3810,22 +3363,22 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="D25" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D31" activeCellId="0" pane="topLeft" sqref="D31"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="F23" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="J34" activeCellId="2" pane="topLeft" sqref="D:D G:G J34"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.63529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="41.278431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.0156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="22.0156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.2352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="2.66666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.0509803921569"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="22.0509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.2352941176471"/>
-    <col collapsed="false" hidden="false" max="1023" min="12" style="4" width="12.2352941176471"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.69019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="41.9019607843137"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.3411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="22.3411764705882"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="2.71372549019608"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.3764705882353"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="22.3764705882353"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="1023" min="12" style="4" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.77254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -3846,7 +3399,7 @@
       <c r="G1" s="10"/>
       <c r="I1" s="1" t="n">
         <f aca="false">SUM(_gtdht)</f>
-        <v>83.4666666666667</v>
+        <v>101.616666666667</v>
       </c>
       <c r="J1" s="3" t="inlineStr">
         <f aca="false">SUM(_gpidgo)</f>
@@ -4815,7 +4368,7 @@
       </c>
       <c r="I28" s="1" t="n">
         <f aca="false">SUMIF(_2tid,A28,_2tdht)</f>
-        <v>2.08333333333333</v>
+        <v>2.08333333333334</v>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <f aca="false">IF(ISBLANK(LOOKUP(A28,_2tid,_2pidgo)),0,F28)</f>
@@ -4888,15 +4441,17 @@
       </c>
       <c r="I30" s="1" t="n">
         <f aca="false">SUMIF(_2tid,A30,_2tdht)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
         <f aca="false">IF(ISBLANK(LOOKUP(A30,_2tid,_2pidgo)),0,F30)</f>
-        <v>0</v>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="K30" s="1" t="n">
         <f aca="false">LOOKUP(A30,_2tid,_2sr)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="31">
@@ -4922,15 +4477,17 @@
       </c>
       <c r="I31" s="1" t="n">
         <f aca="false">SUMIF(_2tid,A31,_2tdht)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="3" t="n">
+        <v>9.41666666666665</v>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
         <f aca="false">IF(ISBLANK(LOOKUP(A31,_2tid,_2pidgo)),0,F31)</f>
-        <v>0</v>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="K31" s="1" t="n">
         <f aca="false">LOOKUP(A31,_2tid,_2sr)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="32">
@@ -4996,7 +4553,7 @@
       </c>
       <c r="I33" s="1" t="n">
         <f aca="false">SUMIF(_2tid,A33,_2tdht)</f>
-        <v>0.733333333333333</v>
+        <v>0.733333333333334</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <f aca="false">IF(ISBLANK(LOOKUP(A33,_2tid,_2pidgo)),0,F33)</f>
@@ -5028,15 +4585,17 @@
       </c>
       <c r="I34" s="1" t="n">
         <f aca="false">SUMIF(_2tid,A34,_2tdht)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
         <f aca="false">IF(ISBLANK(LOOKUP(A34,_2tid,_2pidgo)),0,F34)</f>
-        <v>0</v>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="K34" s="1" t="n">
         <f aca="false">LOOKUP(A34,_2tid,_2sr)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="35">
@@ -5090,15 +4649,17 @@
       </c>
       <c r="I36" s="1" t="n">
         <f aca="false">SUMIF(_2tid,A36,_2tdht)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="3" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
         <f aca="false">IF(ISBLANK(LOOKUP(A36,_2tid,_2pidgo)),0,F36)</f>
-        <v>0</v>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="K36" s="1" t="n">
         <f aca="false">LOOKUP(A36,_2tid,_2sr)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="37">
@@ -5120,15 +4681,17 @@
       </c>
       <c r="I37" s="1" t="n">
         <f aca="false">SUMIF(_2tid,A37,_2tdht)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="3" t="n">
+        <v>0.566666666666667</v>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
         <f aca="false">IF(ISBLANK(LOOKUP(A37,_2tid,_2pidgo)),0,F37)</f>
-        <v>0</v>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="K37" s="1" t="n">
         <f aca="false">LOOKUP(A37,_2tid,_2sr)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="38">
@@ -5150,15 +4713,17 @@
       </c>
       <c r="I38" s="1" t="n">
         <f aca="false">SUMIF(_2tid,A38,_2tdht)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="3" t="n">
+        <v>1.31666666666667</v>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
         <f aca="false">IF(ISBLANK(LOOKUP(A38,_2tid,_2pidgo)),0,F38)</f>
-        <v>0</v>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="K38" s="1" t="n">
         <f aca="false">LOOKUP(A38,_2tid,_2sr)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="39">
@@ -5330,7 +4895,7 @@
       </c>
       <c r="I44" s="1" t="n">
         <f aca="false">SUMIF(_2tid,A44,_2tdht)</f>
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="J44" s="3" t="n">
         <f aca="false">IF(ISBLANK(LOOKUP(A44,_2tid,_2pidgo)),0,F44)</f>
@@ -5338,7 +4903,7 @@
       </c>
       <c r="K44" s="1" t="n">
         <f aca="false">LOOKUP(A44,_2tid,_2sr)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="45">
@@ -5479,26 +5044,26 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A37" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G1" activeCellId="1" pane="topLeft" sqref="D:D G:G"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="12.9254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="17.321568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="20.0588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="18.7764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="29" width="21.7960784313725"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="30" width="21.7960784313725"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="29" width="21.7960784313725"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="27" width="12.9254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="13.1137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="17.5921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="20.3686274509804"/>
+    <col collapsed="false" hidden="true" max="4" min="4" style="27" width="0"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="29" width="22.121568627451"/>
+    <col collapsed="false" hidden="true" max="7" min="7" style="27" width="0"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="29" width="22.121568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="27" width="13.1137254901961"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>94</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -5513,7 +5078,7 @@
       <c r="F1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="12" t="s">
         <v>99</v>
       </c>
       <c r="H1" s="13" t="s">
@@ -5524,39 +5089,39 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
-      <c r="A2" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="34" t="n">
+      <c r="A2" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="n">
         <v>41902</v>
       </c>
-      <c r="C2" s="33" t="n">
+      <c r="C2" s="31" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D2" s="33" t="n">
+      <c r="D2" s="31" t="n">
         <f aca="false">SUMIF(_gse,A2,_gtdhe)</f>
         <v>36</v>
       </c>
-      <c r="E2" s="35" t="n">
+      <c r="E2" s="33" t="n">
         <f aca="false">SUMIF(_gse,A2,_gpidge)</f>
         <v>0.215568862275449</v>
       </c>
-      <c r="F2" s="35" t="inlineStr">
+      <c r="F2" s="33" t="inlineStr">
         <f aca="false">E2</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G2" s="36" t="n">
+      <c r="G2" s="31" t="n">
         <f aca="false">SUMIF(_gsr,A2,_gtdht)</f>
         <v>17.65</v>
       </c>
-      <c r="H2" s="35" t="n">
+      <c r="H2" s="33" t="n">
         <f aca="false">SUMIF(_gsr,A2,_gpidgo)</f>
         <v>0.137724550898204</v>
       </c>
-      <c r="I2" s="35" t="inlineStr">
+      <c r="I2" s="33" t="inlineStr">
         <f aca="false">H2</f>
         <is>
           <t/>
@@ -5564,42 +5129,42 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
-      <c r="A3" s="33" t="n">
+      <c r="A3" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="inlineStr">
+      <c r="B3" s="32" t="inlineStr">
         <f aca="false">B2+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C3" s="33" t="n">
+      <c r="C3" s="31" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D3" s="33" t="n">
+      <c r="D3" s="31" t="n">
         <f aca="false">SUMIF(_gse,A3,_gtdhe)</f>
         <v>33.5</v>
       </c>
-      <c r="E3" s="35" t="n">
+      <c r="E3" s="33" t="n">
         <f aca="false">SUMIF(_gse,A3,_gpidge)</f>
         <v>0.20059880239521</v>
       </c>
-      <c r="F3" s="35" t="inlineStr">
+      <c r="F3" s="33" t="inlineStr">
         <f aca="false">E3+F2</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G3" s="36" t="n">
+      <c r="G3" s="31" t="n">
         <f aca="false">SUMIF(_gsr,A3,_gtdht)</f>
         <v>15.1166666666667</v>
       </c>
-      <c r="H3" s="35" t="n">
+      <c r="H3" s="33" t="n">
         <f aca="false">SUMIF(_gsr,A3,_gpidgo)</f>
         <v>0.0808383233532934</v>
       </c>
-      <c r="I3" s="35" t="inlineStr">
+      <c r="I3" s="33" t="inlineStr">
         <f aca="false">H3+I2</f>
         <is>
           <t/>
@@ -5607,42 +5172,42 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
-      <c r="A4" s="33" t="n">
+      <c r="A4" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="inlineStr">
+      <c r="B4" s="32" t="inlineStr">
         <f aca="false">B3+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C4" s="33" t="n">
+      <c r="C4" s="31" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D4" s="33" t="n">
+      <c r="D4" s="31" t="n">
         <f aca="false">SUMIF(_gse,A4,_gtdhe)</f>
         <v>28</v>
       </c>
-      <c r="E4" s="35" t="n">
+      <c r="E4" s="33" t="n">
         <f aca="false">SUMIF(_gse,A4,_gpidge)</f>
         <v>0.167664670658683</v>
       </c>
-      <c r="F4" s="35" t="inlineStr">
+      <c r="F4" s="33" t="inlineStr">
         <f aca="false">E4+F3</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G4" s="36" t="n">
+      <c r="G4" s="31" t="n">
         <f aca="false">SUMIF(_gsr,A4,_gtdht)</f>
         <v>39.8833333333333</v>
       </c>
-      <c r="H4" s="35" t="n">
+      <c r="H4" s="33" t="n">
         <f aca="false">SUMIF(_gsr,A4,_gpidgo)</f>
         <v>0.215568862275449</v>
       </c>
-      <c r="I4" s="35" t="inlineStr">
+      <c r="I4" s="33" t="inlineStr">
         <f aca="false">H4+I3</f>
         <is>
           <t/>
@@ -5650,42 +5215,42 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
-      <c r="A5" s="33" t="n">
+      <c r="A5" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="inlineStr">
+      <c r="B5" s="32" t="inlineStr">
         <f aca="false">B4+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C5" s="33" t="n">
+      <c r="C5" s="31" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D5" s="33" t="n">
+      <c r="D5" s="31" t="n">
         <f aca="false">SUMIF(_gse,A5,_gtdhe)</f>
         <v>35</v>
       </c>
-      <c r="E5" s="35" t="n">
+      <c r="E5" s="33" t="n">
         <f aca="false">SUMIF(_gse,A5,_gpidge)</f>
         <v>0.209580838323353</v>
       </c>
-      <c r="F5" s="35" t="inlineStr">
+      <c r="F5" s="33" t="inlineStr">
         <f aca="false">E5+F4</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G5" s="36" t="n">
+      <c r="G5" s="31" t="n">
         <f aca="false">SUMIF(_gsr,A5,_gtdht)</f>
-        <v>10.8166666666667</v>
-      </c>
-      <c r="H5" s="35" t="n">
+        <v>23.4833333333333</v>
+      </c>
+      <c r="H5" s="33" t="n">
         <f aca="false">SUMIF(_gsr,A5,_gpidgo)</f>
-        <v>0.116766467065868</v>
-      </c>
-      <c r="I5" s="35" t="inlineStr">
+        <v>0.179640718562874</v>
+      </c>
+      <c r="I5" s="33" t="inlineStr">
         <f aca="false">H5+I4</f>
         <is>
           <t/>
@@ -5693,42 +5258,42 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="6">
-      <c r="A6" s="33" t="n">
+      <c r="A6" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="inlineStr">
+      <c r="B6" s="32" t="inlineStr">
         <f aca="false">B5+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C6" s="33" t="n">
+      <c r="C6" s="31" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D6" s="33" t="n">
+      <c r="D6" s="31" t="n">
         <f aca="false">SUMIF(_gse,A6,_gtdhe)</f>
         <v>34.5</v>
       </c>
-      <c r="E6" s="35" t="n">
+      <c r="E6" s="33" t="n">
         <f aca="false">SUMIF(_gse,A6,_gpidge)</f>
         <v>0.206586826347305</v>
       </c>
-      <c r="F6" s="35" t="inlineStr">
+      <c r="F6" s="33" t="inlineStr">
         <f aca="false">E6+F5</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G6" s="36" t="n">
+      <c r="G6" s="31" t="n">
         <f aca="false">SUMIF(_gsr,A6,_gtdht)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="35" t="n">
+        <v>5.48333333333333</v>
+      </c>
+      <c r="H6" s="33" t="n">
         <f aca="false">SUMIF(_gsr,A6,_gpidgo)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="35" t="inlineStr">
+        <v>0.029940119760479</v>
+      </c>
+      <c r="I6" s="33" t="inlineStr">
         <f aca="false">H6+I5</f>
         <is>
           <t/>
@@ -5736,42 +5301,42 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="7">
-      <c r="A7" s="33" t="n">
+      <c r="A7" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="inlineStr">
+      <c r="B7" s="32" t="inlineStr">
         <f aca="false">B6+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C7" s="33" t="n">
+      <c r="C7" s="31" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D7" s="33" t="n">
+      <c r="D7" s="31" t="n">
         <f aca="false">SUMIF(_gse,A7,_gtdhe)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="35" t="n">
+      <c r="E7" s="33" t="n">
         <f aca="false">SUMIF(_gse,A7,_gpidge)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="35" t="inlineStr">
+      <c r="F7" s="33" t="inlineStr">
         <f aca="false">E7+F6</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G7" s="36" t="n">
+      <c r="G7" s="31" t="n">
         <f aca="false">SUMIF(_gsr,A7,_gtdht)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="35" t="n">
+      <c r="H7" s="33" t="n">
         <f aca="false">SUMIF(_gsr,A7,_gpidgo)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="35" t="inlineStr">
+      <c r="I7" s="33" t="inlineStr">
         <f aca="false">H7+I6</f>
         <is>
           <t/>
@@ -5779,42 +5344,42 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="8">
-      <c r="A8" s="33" t="n">
+      <c r="A8" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="inlineStr">
+      <c r="B8" s="32" t="inlineStr">
         <f aca="false">B7+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C8" s="33" t="n">
+      <c r="C8" s="31" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D8" s="33" t="n">
+      <c r="D8" s="31" t="n">
         <f aca="false">SUMIF(_gse,A8,_gtdhe)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="35" t="n">
+      <c r="E8" s="33" t="n">
         <f aca="false">SUMIF(_gse,A8,_gpidge)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="35" t="inlineStr">
+      <c r="F8" s="33" t="inlineStr">
         <f aca="false">E8+F7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G8" s="36" t="n">
+      <c r="G8" s="31" t="n">
         <f aca="false">SUMIF(_gsr,A8,_gtdht)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="35" t="n">
+      <c r="H8" s="33" t="n">
         <f aca="false">SUMIF(_gsr,A8,_gpidgo)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="35" t="inlineStr">
+      <c r="I8" s="33" t="inlineStr">
         <f aca="false">H8+I7</f>
         <is>
           <t/>
@@ -5822,42 +5387,42 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="9">
-      <c r="A9" s="33" t="n">
+      <c r="A9" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="inlineStr">
+      <c r="B9" s="32" t="inlineStr">
         <f aca="false">B8+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C9" s="33" t="n">
+      <c r="C9" s="31" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D9" s="33" t="n">
+      <c r="D9" s="31" t="n">
         <f aca="false">SUMIF(_gse,A9,_gtdhe)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="35" t="n">
+      <c r="E9" s="33" t="n">
         <f aca="false">SUMIF(_gse,A9,_gpidge)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="35" t="inlineStr">
+      <c r="F9" s="33" t="inlineStr">
         <f aca="false">E9+F8</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G9" s="36" t="n">
+      <c r="G9" s="31" t="n">
         <f aca="false">SUMIF(_gsr,A9,_gtdht)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="35" t="n">
+      <c r="H9" s="33" t="n">
         <f aca="false">SUMIF(_gsr,A9,_gpidgo)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="35" t="inlineStr">
+      <c r="I9" s="33" t="inlineStr">
         <f aca="false">H9+I8</f>
         <is>
           <t/>
@@ -5865,42 +5430,42 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="10">
-      <c r="A10" s="33" t="n">
+      <c r="A10" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="inlineStr">
+      <c r="B10" s="32" t="inlineStr">
         <f aca="false">B9+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C10" s="33" t="n">
+      <c r="C10" s="31" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D10" s="33" t="n">
+      <c r="D10" s="31" t="n">
         <f aca="false">SUMIF(_gse,A10,_gtdhe)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="35" t="n">
+      <c r="E10" s="33" t="n">
         <f aca="false">SUMIF(_gse,A10,_gpidge)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="35" t="inlineStr">
+      <c r="F10" s="33" t="inlineStr">
         <f aca="false">E10+F9</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G10" s="36" t="n">
+      <c r="G10" s="31" t="n">
         <f aca="false">SUMIF(_gsr,A10,_gtdht)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="35" t="n">
+      <c r="H10" s="33" t="n">
         <f aca="false">SUMIF(_gsr,A10,_gpidgo)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="35" t="inlineStr">
+      <c r="I10" s="33" t="inlineStr">
         <f aca="false">H10+I9</f>
         <is>
           <t/>
@@ -5908,42 +5473,42 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="11">
-      <c r="A11" s="33" t="n">
+      <c r="A11" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="inlineStr">
+      <c r="B11" s="32" t="inlineStr">
         <f aca="false">B10+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C11" s="33" t="n">
+      <c r="C11" s="31" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D11" s="33" t="n">
+      <c r="D11" s="31" t="n">
         <f aca="false">SUMIF(_gse,A11,_gtdhe)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="35" t="n">
+      <c r="E11" s="33" t="n">
         <f aca="false">SUMIF(_gse,A11,_gpidge)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="35" t="inlineStr">
+      <c r="F11" s="33" t="inlineStr">
         <f aca="false">E11+F10</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G11" s="36" t="n">
+      <c r="G11" s="31" t="n">
         <f aca="false">SUMIF(_gsr,A11,_gtdht)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="35" t="n">
+      <c r="H11" s="33" t="n">
         <f aca="false">SUMIF(_gsr,A11,_gpidgo)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="35" t="inlineStr">
+      <c r="I11" s="33" t="inlineStr">
         <f aca="false">H11+I10</f>
         <is>
           <t/>
@@ -5951,49 +5516,49 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="12">
-      <c r="A12" s="33" t="n">
+      <c r="A12" s="31" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="inlineStr">
+      <c r="B12" s="32" t="inlineStr">
         <f aca="false">B11+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C12" s="33" t="n">
+      <c r="C12" s="31" t="n">
         <f aca="false">7*5</f>
         <v>35</v>
       </c>
-      <c r="D12" s="33" t="n">
+      <c r="D12" s="31" t="n">
         <f aca="false">SUMIF(_gse,A12,_gtdhe)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="35" t="n">
+      <c r="E12" s="33" t="n">
         <f aca="false">SUMIF(_gse,A12,_gpidge)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="35" t="inlineStr">
+      <c r="F12" s="33" t="inlineStr">
         <f aca="false">E12+F11</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G12" s="36" t="n">
+      <c r="G12" s="31" t="n">
         <f aca="false">SUMIF(_gsr,A12,_gtdht)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="35" t="n">
+      <c r="H12" s="33" t="n">
         <f aca="false">SUMIF(_gsr,A12,_gpidgo)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="35" t="inlineStr">
+      <c r="I12" s="33" t="inlineStr">
         <f aca="false">H12+I11</f>
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="14">
       <c r="A14" s="11" t="s">
         <v>102</v>
       </c>
@@ -6005,9 +5570,9 @@
         <f aca="false">SUM(D2:D12)</f>
         <v>167</v>
       </c>
-      <c r="G14" s="30" t="n">
+      <c r="G14" s="27" t="n">
         <f aca="false">SUM(G2:G12)</f>
-        <v>83.4666666666666</v>
+        <v>101.616666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6029,26 +5594,26 @@
   </sheetPr>
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="K1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="T3" activeCellId="0" pane="topLeft" sqref="T3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A15" activeCellId="2" pane="topLeft" sqref="D:D G:G A15"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.65490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.0156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="22.0156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.2352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="2.7843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="20.6392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="2.7843137254902"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="22.0156862745098"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="12.2352941176471"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="2.7843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="16" style="4" width="20.6392156862745"/>
-    <col collapsed="false" hidden="false" max="1020" min="21" style="4" width="12.2352941176471"/>
-    <col collapsed="false" hidden="false" max="1021" min="1021" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="1023" min="1022" style="0" width="12.2352941176471"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.70980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="22.3411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="2.83921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="20.9450980392157"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="2.83921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="22.3411764705882"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="2.83921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="16" style="4" width="20.9450980392157"/>
+    <col collapsed="false" hidden="false" max="1020" min="21" style="4" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="1021" min="1021" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1023" min="1022" style="0" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.77254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -6078,7 +5643,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="2">
       <c r="A2" s="5"/>
-      <c r="B2" s="37" t="n">
+      <c r="B2" s="34" t="n">
         <f aca="false">SUM(_2tdhe)</f>
         <v>69.5</v>
       </c>
@@ -6111,7 +5676,7 @@
       </c>
       <c r="L2" s="1" t="n">
         <f aca="false">SUM(_2tdht)</f>
-        <v>10.8166666666667</v>
+        <v>28.9666666666667</v>
       </c>
       <c r="M2" s="3" t="inlineStr">
         <f aca="false">SUM(_2pidgo)</f>
@@ -6121,23 +5686,23 @@
       </c>
       <c r="P2" s="1" t="n">
         <f aca="false">SUM(_2tltdht)</f>
-        <v>1.91666666666667</v>
+        <v>7.05</v>
       </c>
       <c r="Q2" s="1" t="n">
         <f aca="false">SUM(_2dmtdht)</f>
-        <v>1.55</v>
+        <v>5.8</v>
       </c>
       <c r="R2" s="1" t="n">
         <f aca="false">SUM(_2pqmtdht)</f>
-        <v>1.55</v>
+        <v>5.95</v>
       </c>
       <c r="S2" s="1" t="n">
         <f aca="false">SUM(_2pmtdht)</f>
-        <v>4.25</v>
+        <v>6.73333333333333</v>
       </c>
       <c r="T2" s="1" t="n">
         <f aca="false">SUM(_2smtdht)</f>
-        <v>1.55</v>
+        <v>3.43333333333333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="3">
@@ -6228,7 +5793,7 @@
         <f aca="false">SUM(P4:T4)</f>
         <v>2.5</v>
       </c>
-      <c r="M4" s="38" t="inlineStr">
+      <c r="M4" s="3" t="inlineStr">
         <f aca="false">C4</f>
         <is>
           <t/>
@@ -6291,9 +5856,9 @@
       </c>
       <c r="L5" s="1" t="n">
         <f aca="false">SUM(P5:T5)</f>
-        <v>2.08333333333333</v>
-      </c>
-      <c r="M5" s="38" t="inlineStr">
+        <v>2.08333333333334</v>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
         <f aca="false">C5</f>
         <is>
           <t/>
@@ -6346,7 +5911,7 @@
         <f aca="false">SUM(P6:T6)</f>
         <v>1.91666666666667</v>
       </c>
-      <c r="M6" s="38" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <f aca="false">C6</f>
         <is>
           <t/>
@@ -6381,7 +5946,20 @@
       </c>
       <c r="L7" s="1" t="n">
         <f aca="false">SUM(P7:T7)</f>
-        <v>0</v>
+        <v>0.416666666666667</v>
+      </c>
+      <c r="M7" s="35" t="inlineStr">
+        <f aca="false">C7</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <f aca="false">25/60</f>
+        <v>0.416666666666667</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8" s="1">
@@ -6417,7 +5995,36 @@
       </c>
       <c r="L8" s="1" t="n">
         <f aca="false">SUM(P8:T8)</f>
-        <v>0</v>
+        <v>9.41666666666665</v>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <f aca="false">C8</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <f aca="false">113/60</f>
+        <v>1.88333333333333</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <f aca="false">113/60</f>
+        <v>1.88333333333333</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <f aca="false">113/60</f>
+        <v>1.88333333333333</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <f aca="false">113/60</f>
+        <v>1.88333333333333</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <f aca="false">113/60</f>
+        <v>1.88333333333333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="9" s="1">
@@ -6443,7 +6050,7 @@
         <f aca="false">SUM(P9:T9)</f>
         <v>0.416666666666667</v>
       </c>
-      <c r="M9" s="38" t="inlineStr">
+      <c r="M9" s="3" t="inlineStr">
         <f aca="false">C9</f>
         <is>
           <t/>
@@ -6481,9 +6088,9 @@
       </c>
       <c r="L10" s="1" t="n">
         <f aca="false">SUM(P10:T10)</f>
-        <v>0.733333333333333</v>
-      </c>
-      <c r="M10" s="38" t="inlineStr">
+        <v>0.733333333333334</v>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
         <f aca="false">C10</f>
         <is>
           <t/>
@@ -6522,7 +6129,20 @@
       </c>
       <c r="L11" s="1" t="n">
         <f aca="false">SUM(P11:T11)</f>
-        <v>0</v>
+        <v>3.25</v>
+      </c>
+      <c r="M11" s="35" t="inlineStr">
+        <f aca="false">C11</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <f aca="false">195/60</f>
+        <v>3.25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="12" s="1">
@@ -6560,7 +6180,7 @@
         <f aca="false">SUM(P12:T12)</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="M12" s="38" t="inlineStr">
+      <c r="M12" s="3" t="inlineStr">
         <f aca="false">C12</f>
         <is>
           <t/>
@@ -6611,7 +6231,20 @@
       </c>
       <c r="L13" s="1" t="n">
         <f aca="false">SUM(P13:T13)</f>
-        <v>0</v>
+        <v>0.583333333333333</v>
+      </c>
+      <c r="M13" s="35" t="inlineStr">
+        <f aca="false">C13</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <f aca="false">35/60</f>
+        <v>0.583333333333333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="14" s="1">
@@ -6635,7 +6268,20 @@
       </c>
       <c r="L14" s="1" t="n">
         <f aca="false">SUM(P14:T14)</f>
-        <v>0</v>
+        <v>0.566666666666667</v>
+      </c>
+      <c r="M14" s="35" t="inlineStr">
+        <f aca="false">C14</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <f aca="false">34/60</f>
+        <v>0.566666666666667</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="15" s="1">
@@ -6659,7 +6305,20 @@
       </c>
       <c r="L15" s="1" t="n">
         <f aca="false">SUM(P15:T15)</f>
-        <v>0</v>
+        <v>1.31666666666667</v>
+      </c>
+      <c r="M15" s="35" t="inlineStr">
+        <f aca="false">C15</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <f aca="false">79/60</f>
+        <v>1.31666666666667</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="16" s="1">
@@ -6815,7 +6474,22 @@
       </c>
       <c r="L21" s="1" t="n">
         <f aca="false">SUM(P21:T21)</f>
-        <v>0</v>
+        <v>2.6</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <f aca="false">63/60</f>
+        <v>1.05</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <f aca="false">57/60</f>
+        <v>0.95</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <f aca="false">36/60</f>
+        <v>0.6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="22" s="1">
@@ -6964,26 +6638,26 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G6" activeCellId="0" pane="topLeft" sqref="G6"/>
+      <selection activeCell="H3" activeCellId="2" pane="topLeft" sqref="D:D G:G H3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="12.9254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="17.321568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="20.0588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="18.7764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="29" width="21.7960784313725"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="30" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="29" width="21.7960784313725"/>
-    <col collapsed="false" hidden="false" max="1014" min="10" style="27" width="12.9254901960784"/>
-    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="12.9254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="13.1137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="17.5921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="20.3686274509804"/>
+    <col collapsed="false" hidden="true" max="4" min="4" style="27" width="0"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="29" width="22.121568627451"/>
+    <col collapsed="false" hidden="true" max="7" min="7" style="27" width="0"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="29" width="22.121568627451"/>
+    <col collapsed="false" hidden="false" max="1014" min="10" style="27" width="13.1137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>94</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -6998,7 +6672,7 @@
       <c r="F1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="12" t="s">
         <v>99</v>
       </c>
       <c r="H1" s="13" t="s">
@@ -7009,39 +6683,39 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
-      <c r="A2" s="33" t="n">
+      <c r="A2" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="B2" s="34" t="n">
+      <c r="B2" s="32" t="n">
         <v>41902</v>
       </c>
-      <c r="C2" s="33" t="n">
+      <c r="C2" s="31" t="n">
         <f aca="false">LOOKUP(A2,_grs,_grtdhd)</f>
         <v>35</v>
       </c>
-      <c r="D2" s="33" t="n">
+      <c r="D2" s="31" t="n">
         <f aca="false">LOOKUP(A2,_grs,_grtdhe)</f>
         <v>35</v>
       </c>
-      <c r="E2" s="35" t="n">
+      <c r="E2" s="33" t="n">
         <f aca="false">SUMIF(_2se,A2,_2pidge)</f>
         <v>0.503597122302158</v>
       </c>
-      <c r="F2" s="35" t="inlineStr">
+      <c r="F2" s="33" t="inlineStr">
         <f aca="false">E2</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G2" s="36" t="n">
+      <c r="G2" s="31" t="n">
         <f aca="false">SUMIF(_2sr,A2,_2tdht)</f>
-        <v>10.8166666666667</v>
-      </c>
-      <c r="H2" s="35" t="n">
+        <v>23.4833333333333</v>
+      </c>
+      <c r="H2" s="33" t="n">
         <f aca="false">SUMIF(_2sr,A2,_2pidgo)</f>
-        <v>0.280575539568345</v>
-      </c>
-      <c r="I2" s="35" t="inlineStr">
+        <v>0.431654676258993</v>
+      </c>
+      <c r="I2" s="33" t="inlineStr">
         <f aca="false">H2</f>
         <is>
           <t/>
@@ -7049,50 +6723,50 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
-      <c r="A3" s="33" t="n">
+      <c r="A3" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="B3" s="34" t="inlineStr">
+      <c r="B3" s="32" t="inlineStr">
         <f aca="false">B2+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C3" s="33" t="n">
+      <c r="C3" s="31" t="n">
         <f aca="false">LOOKUP(A3,_grs,_grtdhd)</f>
         <v>35</v>
       </c>
-      <c r="D3" s="33" t="n">
+      <c r="D3" s="31" t="n">
         <f aca="false">LOOKUP(A3,_grs,_grtdhe)</f>
         <v>34.5</v>
       </c>
-      <c r="E3" s="35" t="n">
+      <c r="E3" s="33" t="n">
         <f aca="false">SUMIF(_2se,A3,_2pidge)</f>
         <v>0.496402877697842</v>
       </c>
-      <c r="F3" s="35" t="inlineStr">
+      <c r="F3" s="33" t="inlineStr">
         <f aca="false">E3+F2</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G3" s="36" t="n">
+      <c r="G3" s="31" t="n">
         <f aca="false">SUMIF(_2sr,A3,_2tdht)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="35" t="n">
+        <v>5.48333333333333</v>
+      </c>
+      <c r="H3" s="33" t="n">
         <f aca="false">SUMIF(_2sr,A3,_2pidgo)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="35" t="inlineStr">
+        <v>0.0719424460431655</v>
+      </c>
+      <c r="I3" s="33" t="inlineStr">
         <f aca="false">H3+I2</f>
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
-      <c r="A5" s="39" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="5">
+      <c r="A5" s="36" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="27" t="n">
@@ -7103,9 +6777,9 @@
         <f aca="false">SUM(D2:D3)</f>
         <v>69.5</v>
       </c>
-      <c r="G5" s="30" t="n">
+      <c r="G5" s="27" t="n">
         <f aca="false">SUM(G2:G3)</f>
-        <v>10.8166666666667</v>
+        <v>28.9666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -7128,15 +6802,15 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="M2" activeCellId="0" pane="topLeft" sqref="M2"/>
+      <selection activeCell="D5" activeCellId="0" pane="topLeft" sqref="D:D G:G"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="2" style="27" width="15.9529411764706"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="2.66666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="27" width="15.9529411764706"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="27" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="11.9843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="2" style="27" width="16.2"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="2.71372549019608"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="27" width="16.2"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="27" width="11.9843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.65" outlineLevel="0" r="1">
@@ -7181,114 +6855,105 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
-      <c r="A2" s="33" t="n">
+      <c r="A2" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="B2" s="33" t="n">
+      <c r="B2" s="31" t="n">
         <f aca="false">SUMIF(_2se,A2,_2tltdhe)</f>
         <v>8.5</v>
       </c>
-      <c r="C2" s="33" t="n">
+      <c r="C2" s="31" t="n">
         <f aca="false">SUMIF(_2se,A2,_2dmtdhe)</f>
         <v>7.5</v>
       </c>
-      <c r="D2" s="33" t="n">
+      <c r="D2" s="31" t="n">
         <f aca="false">SUMIF(_2se,A2,_2pqmtdhe)</f>
         <v>6.5</v>
       </c>
-      <c r="E2" s="33" t="n">
+      <c r="E2" s="31" t="n">
         <f aca="false">SUMIF(_2se,A2,_2pmtdhe)</f>
         <v>8</v>
       </c>
-      <c r="F2" s="33" t="n">
+      <c r="F2" s="31" t="n">
         <f aca="false">SUMIF(_2se,A2,_2smtdhe)</f>
         <v>4.5</v>
       </c>
-      <c r="G2" s="33" t="n">
+      <c r="G2" s="31" t="n">
         <f aca="false">SUM(B2:F2)</f>
         <v>35</v>
       </c>
-      <c r="I2" s="33" t="n">
-        <f aca="false">SUMIF(_2sr,A2,_2tltdht)</f>
-        <v>1.91666666666667</v>
-      </c>
-      <c r="J2" s="33" t="n">
-        <f aca="false">SUMIF(_2sr,A2,_2dmtdht)</f>
-        <v>1.55</v>
-      </c>
-      <c r="K2" s="33" t="n">
-        <f aca="false">SUMIF(_2sr,A2,_2pqmtdht)</f>
-        <v>1.55</v>
-      </c>
-      <c r="L2" s="33" t="n">
-        <f aca="false">SUMIF(_2sr,A2,_2pmtdht)</f>
-        <v>4.25</v>
-      </c>
-      <c r="M2" s="33" t="n">
-        <f aca="false">SUMIF(_2sr,A2,_2smtdht)</f>
-        <v>1.55</v>
-      </c>
-      <c r="N2" s="33" t="n">
+      <c r="I2" s="31" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="J2" s="31" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="K2" s="31" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="L2" s="31" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="M2" s="31" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="N2" s="31" t="n">
         <f aca="false">SUM(I2:M2)</f>
-        <v>10.8166666666667</v>
+        <v>37.46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
-      <c r="A3" s="33" t="n">
+      <c r="A3" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="B3" s="33" t="n">
+      <c r="B3" s="31" t="n">
         <f aca="false">SUMIF(_2se,A3,_2tltdhe)</f>
         <v>7</v>
       </c>
-      <c r="C3" s="33" t="n">
+      <c r="C3" s="31" t="n">
         <f aca="false">SUMIF(_2se,A3,_2dmtdhe)</f>
         <v>6</v>
       </c>
-      <c r="D3" s="33" t="n">
+      <c r="D3" s="31" t="n">
         <f aca="false">SUMIF(_2se,A3,_2pqmtdhe)</f>
         <v>5.5</v>
       </c>
-      <c r="E3" s="33" t="n">
+      <c r="E3" s="31" t="n">
         <f aca="false">SUMIF(_2se,A3,_2pmtdhe)</f>
         <v>5</v>
       </c>
-      <c r="F3" s="33" t="n">
+      <c r="F3" s="31" t="n">
         <f aca="false">SUMIF(_2se,A3,_2smtdhe)</f>
         <v>11</v>
       </c>
-      <c r="G3" s="33" t="n">
+      <c r="G3" s="31" t="n">
         <f aca="false">SUM(B3:F3)</f>
         <v>34.5</v>
       </c>
-      <c r="I3" s="33" t="n">
-        <f aca="false">SUMIF(_2sr,A3,_2tltdht)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="33" t="n">
-        <f aca="false">SUMIF(_2sr,A3,_2dmtdht)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="33" t="n">
-        <f aca="false">SUMIF(_2sr,A3,_2pqmtdht)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="33" t="n">
+      <c r="I3" s="31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J3" s="31" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K3" s="31" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="L3" s="31" t="n">
         <f aca="false">SUMIF(_2sr,A3,_2pmtdht)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="33" t="n">
-        <f aca="false">SUMIF(_2sr,A3,_2smtdht)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M3" s="31" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="N3" s="31" t="n">
         <f aca="false">SUM(I3:M3)</f>
-        <v>0</v>
+        <v>12.51</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4" s="27"/>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="5">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="36" t="s">
         <v>102</v>
       </c>
       <c r="B5" s="27" t="n">
@@ -7317,27 +6982,27 @@
       </c>
       <c r="I5" s="27" t="n">
         <f aca="false">SUM(I2:I3)</f>
-        <v>1.91666666666667</v>
+        <v>11.58</v>
       </c>
       <c r="J5" s="27" t="n">
         <f aca="false">SUM(J2:J3)</f>
-        <v>1.55</v>
+        <v>5.84</v>
       </c>
       <c r="K5" s="27" t="n">
         <f aca="false">SUM(K2:K3)</f>
-        <v>1.55</v>
+        <v>6.55</v>
       </c>
       <c r="L5" s="27" t="n">
         <f aca="false">SUM(L2:L3)</f>
-        <v>4.25</v>
+        <v>6.73</v>
       </c>
       <c r="M5" s="27" t="n">
         <f aca="false">SUM(M2:M3)</f>
-        <v>1.55</v>
+        <v>19.27</v>
       </c>
       <c r="N5" s="27" t="n">
         <f aca="false">SUM(N2:N3)</f>
-        <v>10.8166666666667</v>
+        <v>49.97</v>
       </c>
     </row>
   </sheetData>
@@ -7360,25 +7025,25 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C12" activeCellId="0" pane="topLeft" sqref="C12"/>
+      <selection activeCell="C12" activeCellId="2" pane="topLeft" sqref="D:D G:G C12"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.65490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.0156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="22.0156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.2352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="2.7843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="20.6392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="2.7843137254902"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="22.0156862745098"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="12.2352941176471"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="2.7843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="16" style="4" width="20.6392156862745"/>
-    <col collapsed="false" hidden="false" max="1020" min="21" style="4" width="12.2352941176471"/>
-    <col collapsed="false" hidden="false" max="1021" min="1021" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="1023" min="1022" style="0" width="12.2352941176471"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.70980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="22.3411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="2.83921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="1" width="20.9450980392157"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="2.83921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="22.3411764705882"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="4" width="2.83921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="16" style="4" width="20.9450980392157"/>
+    <col collapsed="false" hidden="false" max="1020" min="21" style="4" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="1021" min="1021" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1023" min="1022" style="0" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.77254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -7408,7 +7073,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="2">
       <c r="A2" s="5"/>
-      <c r="B2" s="37" t="n">
+      <c r="B2" s="34" t="n">
         <f aca="false">SUM(_1tdhe)</f>
         <v>97.5</v>
       </c>
@@ -8031,12 +7696,12 @@
       <c r="J13" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="40" t="n">
+      <c r="L13" s="37" t="n">
         <f aca="false">SUM(P13:T13)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41" t="n">
+      <c r="M13" s="38"/>
+      <c r="N13" s="38" t="n">
         <v>1</v>
       </c>
       <c r="O13" s="17"/>
@@ -8077,12 +7742,12 @@
       <c r="J14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="L14" s="40" t="n">
+      <c r="L14" s="37" t="n">
         <f aca="false">SUM(P14:T14)</f>
         <v>2.83333333333333</v>
       </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40" t="n">
+      <c r="M14" s="37"/>
+      <c r="N14" s="37" t="n">
         <v>2</v>
       </c>
       <c r="O14" s="1"/>
@@ -8133,7 +7798,7 @@
         <f aca="false">SUM(P15:T15)</f>
         <v>8</v>
       </c>
-      <c r="M15" s="42" t="inlineStr">
+      <c r="M15" s="39" t="inlineStr">
         <f aca="false">C15</f>
         <is>
           <t/>
@@ -8193,7 +7858,7 @@
         <f aca="false">SUM(P16:T16)</f>
         <v>15.4166666666667</v>
       </c>
-      <c r="M16" s="43" t="inlineStr">
+      <c r="M16" s="40" t="inlineStr">
         <f aca="false">C16</f>
         <is>
           <t/>
@@ -8248,7 +7913,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="L17" s="14"/>
-      <c r="M17" s="43" t="inlineStr">
+      <c r="M17" s="40" t="inlineStr">
         <f aca="false">C17</f>
         <is>
           <t/>
@@ -8290,7 +7955,7 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="L18" s="14"/>
-      <c r="M18" s="43" t="inlineStr">
+      <c r="M18" s="40" t="inlineStr">
         <f aca="false">C18</f>
         <is>
           <t/>
@@ -8332,7 +7997,7 @@
         <f aca="false">SUM(P19:T19)</f>
         <v>0.383333333333333</v>
       </c>
-      <c r="M19" s="42" t="inlineStr">
+      <c r="M19" s="39" t="inlineStr">
         <f aca="false">C19</f>
         <is>
           <t/>
@@ -8380,7 +8045,7 @@
         <f aca="false">SUM(P20:T20)</f>
         <v>1</v>
       </c>
-      <c r="M20" s="42" t="inlineStr">
+      <c r="M20" s="39" t="inlineStr">
         <f aca="false">C20</f>
         <is>
           <t/>
@@ -8437,7 +8102,7 @@
         <f aca="false">SUM(P21:T21)</f>
         <v>8.16666666666665</v>
       </c>
-      <c r="M21" s="42" t="inlineStr">
+      <c r="M21" s="39" t="inlineStr">
         <f aca="false">C21</f>
         <is>
           <t/>
@@ -8491,7 +8156,7 @@
         <f aca="false">SUM(P22:T22)</f>
         <v>2.5</v>
       </c>
-      <c r="M22" s="42" t="inlineStr">
+      <c r="M22" s="39" t="inlineStr">
         <f aca="false">C22</f>
         <is>
           <t/>
@@ -8548,7 +8213,7 @@
         <f aca="false">SUM(P23:T23)</f>
         <v>6.25</v>
       </c>
-      <c r="M23" s="42" t="inlineStr">
+      <c r="M23" s="39" t="inlineStr">
         <f aca="false">C23</f>
         <is>
           <t/>
@@ -8605,7 +8270,7 @@
         <f aca="false">SUM(P24:T24)</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="M24" s="42" t="inlineStr">
+      <c r="M24" s="39" t="inlineStr">
         <f aca="false">C24</f>
         <is>
           <t/>
@@ -8653,7 +8318,7 @@
         <f aca="false">SUM(P25:T25)</f>
         <v>1.25</v>
       </c>
-      <c r="M25" s="42" t="inlineStr">
+      <c r="M25" s="39" t="inlineStr">
         <f aca="false">C25</f>
         <is>
           <t/>
@@ -8707,7 +8372,7 @@
         <f aca="false">SUM(P26:T26)</f>
         <v>3.66666666666667</v>
       </c>
-      <c r="M26" s="42" t="inlineStr">
+      <c r="M26" s="39" t="inlineStr">
         <f aca="false">C26</f>
         <is>
           <t/>
@@ -8761,26 +8426,26 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I2" activeCellId="0" pane="topLeft" sqref="I2"/>
+      <selection activeCell="I2" activeCellId="2" pane="topLeft" sqref="D:D G:G I2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="12.9254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="17.321568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="20.0588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="18.7764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="29" width="21.7960784313725"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="29" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="29" width="21.7960784313725"/>
-    <col collapsed="false" hidden="false" max="1014" min="10" style="27" width="12.9254901960784"/>
-    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="12.9254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="13.1137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="17.5921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="20.3686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="19.0549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="29" width="22.121568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="29" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="29" width="22.121568627451"/>
+    <col collapsed="false" hidden="false" max="1014" min="10" style="27" width="13.1137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="39.15" outlineLevel="0" r="1">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>94</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -8806,39 +8471,39 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
-      <c r="A2" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="34" t="n">
+      <c r="A2" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="n">
         <v>41902</v>
       </c>
-      <c r="C2" s="33" t="n">
+      <c r="C2" s="31" t="n">
         <f aca="false">LOOKUP(A2,_grs,_grtdhd)</f>
         <v>35</v>
       </c>
-      <c r="D2" s="33" t="n">
+      <c r="D2" s="31" t="n">
         <f aca="false">LOOKUP(A2,_grs,_grtdhe)</f>
         <v>36</v>
       </c>
-      <c r="E2" s="35" t="n">
+      <c r="E2" s="33" t="n">
         <f aca="false">SUMIF(_1se,A2,_1pidge)</f>
         <v>0.369230769230769</v>
       </c>
-      <c r="F2" s="35" t="inlineStr">
+      <c r="F2" s="33" t="inlineStr">
         <f aca="false">E2</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G2" s="35" t="n">
+      <c r="G2" s="33" t="n">
         <f aca="false">SUMIF(_1sr,A2,_1tdht)</f>
         <v>17.65</v>
       </c>
-      <c r="H2" s="35" t="n">
+      <c r="H2" s="33" t="n">
         <f aca="false">SUMIF(_1sr,A2,_1pidgo)</f>
         <v>0.235897435897436</v>
       </c>
-      <c r="I2" s="35" t="inlineStr">
+      <c r="I2" s="33" t="inlineStr">
         <f aca="false">H2</f>
         <is>
           <t/>
@@ -8846,42 +8511,42 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
-      <c r="A3" s="33" t="n">
+      <c r="A3" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="inlineStr">
+      <c r="B3" s="32" t="inlineStr">
         <f aca="false">B2+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C3" s="33" t="n">
+      <c r="C3" s="31" t="n">
         <f aca="false">LOOKUP(A3,_grs,_grtdhd)</f>
         <v>35</v>
       </c>
-      <c r="D3" s="33" t="n">
+      <c r="D3" s="31" t="n">
         <f aca="false">LOOKUP(A3,_grs,_grtdhe)</f>
         <v>33.5</v>
       </c>
-      <c r="E3" s="35" t="n">
+      <c r="E3" s="33" t="n">
         <f aca="false">SUMIF(_1se,A3,_1pidge)</f>
         <v>0.343589743589744</v>
       </c>
-      <c r="F3" s="35" t="inlineStr">
+      <c r="F3" s="33" t="inlineStr">
         <f aca="false">E3+F2</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G3" s="35" t="n">
+      <c r="G3" s="33" t="n">
         <f aca="false">SUMIF(_1sr,A3,_1tdht)</f>
         <v>15.1166666666667</v>
       </c>
-      <c r="H3" s="35" t="n">
+      <c r="H3" s="33" t="n">
         <f aca="false">SUMIF(_1sr,A3,_1pidgo)</f>
         <v>0.138461538461539</v>
       </c>
-      <c r="I3" s="35" t="inlineStr">
+      <c r="I3" s="33" t="inlineStr">
         <f aca="false">H3+I2</f>
         <is>
           <t/>
@@ -8889,42 +8554,42 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
-      <c r="A4" s="33" t="n">
+      <c r="A4" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="inlineStr">
+      <c r="B4" s="32" t="inlineStr">
         <f aca="false">B3+7</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="C4" s="33" t="n">
+      <c r="C4" s="31" t="n">
         <f aca="false">LOOKUP(A4,_grs,_grtdhd)</f>
         <v>35</v>
       </c>
-      <c r="D4" s="33" t="n">
+      <c r="D4" s="31" t="n">
         <f aca="false">LOOKUP(A4,_grs,_grtdhe)</f>
         <v>28</v>
       </c>
-      <c r="E4" s="35" t="n">
+      <c r="E4" s="33" t="n">
         <f aca="false">SUMIF(_1se,A4,_1pidge)</f>
         <v>0.287179487179487</v>
       </c>
-      <c r="F4" s="35" t="inlineStr">
+      <c r="F4" s="33" t="inlineStr">
         <f aca="false">E4+F3</f>
         <is>
           <t/>
         </is>
       </c>
-      <c r="G4" s="35" t="n">
+      <c r="G4" s="33" t="n">
         <f aca="false">SUMIF(_1sr,A4,_1tdht)</f>
         <v>39.8833333333333</v>
       </c>
-      <c r="H4" s="35" t="n">
+      <c r="H4" s="33" t="n">
         <f aca="false">SUMIF(_1sr,A4,_1pidgo)</f>
         <v>0.36923076923077</v>
       </c>
-      <c r="I4" s="35" t="inlineStr">
+      <c r="I4" s="33" t="inlineStr">
         <f aca="false">H4+I3</f>
         <is>
           <t/>
@@ -8932,7 +8597,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="6">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="36" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="27" t="n">
@@ -8970,15 +8635,15 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
+      <selection activeCell="A6" activeCellId="2" pane="topLeft" sqref="D:D G:G A6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="2" style="27" width="15.9529411764706"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="2.66666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="27" width="15.9529411764706"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="27" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="11.9843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="2" style="27" width="16.2"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="2.71372549019608"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="27" width="16.2"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="27" width="11.9843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.65" outlineLevel="0" r="1">
@@ -9023,152 +8688,152 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
-      <c r="A2" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="n">
+      <c r="A2" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="n">
         <f aca="false">SUMIF(_1se,A2,_1tltdhe)</f>
         <v>6.5</v>
       </c>
-      <c r="C2" s="33" t="n">
+      <c r="C2" s="31" t="n">
         <f aca="false">SUMIF(_1se,A2,_1dmtdhe)</f>
         <v>7</v>
       </c>
-      <c r="D2" s="33" t="n">
+      <c r="D2" s="31" t="n">
         <f aca="false">SUMIF(_1se,A2,_1pqmtdhe)</f>
         <v>5.5</v>
       </c>
-      <c r="E2" s="33" t="n">
+      <c r="E2" s="31" t="n">
         <f aca="false">SUMIF(_1se,A2,_1pmtdhe)</f>
         <v>11.5</v>
       </c>
-      <c r="F2" s="33" t="n">
+      <c r="F2" s="31" t="n">
         <f aca="false">SUMIF(_1se,A2,_1smtdhe)</f>
         <v>5.5</v>
       </c>
-      <c r="G2" s="33" t="n">
+      <c r="G2" s="31" t="n">
         <f aca="false">SUM(B2:F2)</f>
         <v>36</v>
       </c>
-      <c r="I2" s="33" t="n">
+      <c r="I2" s="31" t="n">
         <v>2.35</v>
       </c>
-      <c r="J2" s="33" t="n">
+      <c r="J2" s="31" t="n">
         <v>2.1</v>
       </c>
-      <c r="K2" s="33" t="n">
+      <c r="K2" s="31" t="n">
         <v>3.93</v>
       </c>
-      <c r="L2" s="33" t="n">
+      <c r="L2" s="31" t="n">
         <v>7.42</v>
       </c>
-      <c r="M2" s="33" t="n">
+      <c r="M2" s="31" t="n">
         <v>5.27</v>
       </c>
-      <c r="N2" s="33" t="n">
+      <c r="N2" s="31" t="n">
         <f aca="false">SUM(I2:M2)</f>
         <v>21.07</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="3">
-      <c r="A3" s="33" t="n">
+      <c r="A3" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="n">
+      <c r="B3" s="31" t="n">
         <f aca="false">SUMIF(_1se,A3,_1tltdhe)</f>
         <v>5</v>
       </c>
-      <c r="C3" s="33" t="n">
+      <c r="C3" s="31" t="n">
         <f aca="false">SUMIF(_1se,A3,_1dmtdhe)</f>
         <v>10</v>
       </c>
-      <c r="D3" s="33" t="n">
+      <c r="D3" s="31" t="n">
         <f aca="false">SUMIF(_1se,A3,_1pqmtdhe)</f>
         <v>7</v>
       </c>
-      <c r="E3" s="33" t="n">
+      <c r="E3" s="31" t="n">
         <f aca="false">SUMIF(_1se,A3,_1pmtdhe)</f>
         <v>6.5</v>
       </c>
-      <c r="F3" s="33" t="n">
+      <c r="F3" s="31" t="n">
         <f aca="false">SUMIF(_1se,A3,_1smtdhe)</f>
         <v>5</v>
       </c>
-      <c r="G3" s="33" t="n">
+      <c r="G3" s="31" t="n">
         <f aca="false">SUM(B3:F3)</f>
         <v>33.5</v>
       </c>
-      <c r="I3" s="33" t="n">
+      <c r="I3" s="31" t="n">
         <v>7.33</v>
       </c>
-      <c r="J3" s="33" t="n">
+      <c r="J3" s="31" t="n">
         <v>7.28</v>
       </c>
-      <c r="K3" s="33" t="n">
+      <c r="K3" s="31" t="n">
         <v>5.33</v>
       </c>
-      <c r="L3" s="33" t="n">
+      <c r="L3" s="31" t="n">
         <v>4.42</v>
       </c>
-      <c r="M3" s="33" t="n">
+      <c r="M3" s="31" t="n">
         <v>4.67</v>
       </c>
-      <c r="N3" s="33" t="n">
+      <c r="N3" s="31" t="n">
         <f aca="false">SUM(I3:M3)</f>
         <v>29.03</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
-      <c r="A4" s="33" t="n">
+      <c r="A4" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="n">
+      <c r="B4" s="31" t="n">
         <f aca="false">SUMIF(_1se,A4,_1tltdhe)</f>
         <v>8.5</v>
       </c>
-      <c r="C4" s="33" t="n">
+      <c r="C4" s="31" t="n">
         <f aca="false">SUMIF(_1se,A4,_1dmtdhe)</f>
         <v>9.5</v>
       </c>
-      <c r="D4" s="33" t="n">
+      <c r="D4" s="31" t="n">
         <f aca="false">SUMIF(_1se,A4,_1pqmtdhe)</f>
         <v>3</v>
       </c>
-      <c r="E4" s="33" t="n">
+      <c r="E4" s="31" t="n">
         <f aca="false">SUMIF(_1se,A4,_1pmtdhe)</f>
         <v>3</v>
       </c>
-      <c r="F4" s="33" t="n">
+      <c r="F4" s="31" t="n">
         <f aca="false">SUMIF(_1se,A4,_1smtdhe)</f>
         <v>4</v>
       </c>
-      <c r="G4" s="33" t="n">
+      <c r="G4" s="31" t="n">
         <f aca="false">SUM(B4:F4)</f>
         <v>28</v>
       </c>
-      <c r="I4" s="33" t="n">
+      <c r="I4" s="31" t="n">
         <v>5.43</v>
       </c>
-      <c r="J4" s="33" t="n">
+      <c r="J4" s="31" t="n">
         <v>8.72</v>
       </c>
-      <c r="K4" s="33" t="n">
+      <c r="K4" s="31" t="n">
         <v>10.12</v>
       </c>
-      <c r="L4" s="33" t="n">
+      <c r="L4" s="31" t="n">
         <v>10.5</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="31" t="n">
         <v>5.87</v>
       </c>
-      <c r="N4" s="33" t="n">
+      <c r="N4" s="31" t="n">
         <f aca="false">SUM(I4:M4)</f>
         <v>40.64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5" s="27"/>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="6">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="36" t="s">
         <v>102</v>
       </c>
       <c r="B6" s="27" t="n">

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="439" activeTab="5"/>
+    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="439" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ganancias" sheetId="1" r:id="rId1"/>
@@ -674,24 +674,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="204251136"/>
-        <c:axId val="204252672"/>
+        <c:axId val="78458880"/>
+        <c:axId val="78460416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="204251136"/>
+        <c:axId val="78458880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204252672"/>
+        <c:crossAx val="78460416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204252672"/>
+        <c:axId val="78460416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +699,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204251136"/>
+        <c:crossAx val="78458880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -712,7 +712,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -874,7 +874,7 @@
                   <c:v>33.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.85</c:v>
+                  <c:v>42.766666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -898,24 +898,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="292230656"/>
-        <c:axId val="292252288"/>
+        <c:axId val="78875264"/>
+        <c:axId val="78885248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="292230656"/>
+        <c:axId val="78875264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292252288"/>
+        <c:crossAx val="78885248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292252288"/>
+        <c:axId val="78885248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -923,7 +923,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292230656"/>
+        <c:crossAx val="78875264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -936,7 +936,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1647,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1973,11 +1973,11 @@
         <v>5.7833333333333332</v>
       </c>
       <c r="P6" s="8">
-        <v>9.7666666666666675</v>
+        <v>19.683333333333334</v>
       </c>
       <c r="Q6" s="8">
         <f t="shared" si="1"/>
-        <v>32.85</v>
+        <v>42.766666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2254,7 +2254,7 @@
         <v>35.5</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" ref="F14:J14" si="2">SUM(F2:F12)</f>
+        <f t="shared" ref="F14:I14" si="2">SUM(F2:F12)</f>
         <v>40.5</v>
       </c>
       <c r="G14" s="7">
@@ -2274,28 +2274,28 @@
         <v>188</v>
       </c>
       <c r="L14" s="7">
-        <f>SUM(L2:L12)</f>
+        <f t="shared" ref="L14:Q14" si="3">SUM(L2:L12)</f>
         <v>30.593333333333334</v>
       </c>
       <c r="M14" s="7">
-        <f>SUM(M2:M12)</f>
+        <f t="shared" si="3"/>
         <v>29.926666666666666</v>
       </c>
       <c r="N14" s="7">
-        <f>SUM(N2:N12)</f>
+        <f t="shared" si="3"/>
         <v>27.813333333333333</v>
       </c>
       <c r="O14" s="7">
-        <f>SUM(O2:O12)</f>
+        <f t="shared" si="3"/>
         <v>33.623333333333335</v>
       </c>
       <c r="P14" s="7">
-        <f>SUM(P2:P12)</f>
-        <v>38.543333333333329</v>
+        <f t="shared" si="3"/>
+        <v>48.459999999999994</v>
       </c>
       <c r="Q14" s="7">
-        <f>SUM(Q2:Q12)</f>
-        <v>160.5</v>
+        <f t="shared" si="3"/>
+        <v>170.41666666666669</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2314,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="D38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
@@ -52974,7 +52974,7 @@
   <dimension ref="A1:AMK23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -54004,7 +54004,7 @@
       </c>
       <c r="P16" s="16">
         <f t="shared" si="0"/>
-        <v>5.2666666666666666</v>
+        <v>12.183333333333332</v>
       </c>
       <c r="Q16" s="15">
         <f t="shared" si="1"/>
@@ -54026,7 +54026,7 @@
         <v>0.48333333333333334</v>
       </c>
       <c r="X16" s="16">
-        <v>3.8166666666666669</v>
+        <v>10.733333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="25.5">
@@ -54243,7 +54243,7 @@
       </c>
       <c r="P20" s="16">
         <f t="shared" si="0"/>
-        <v>11.916666666666668</v>
+        <v>14.916666666666668</v>
       </c>
       <c r="Q20" s="15">
         <f t="shared" si="1"/>
@@ -54265,7 +54265,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="16">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -54495,7 +54495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="439" activeTab="1"/>
+    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="439" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ganancias" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
   <si>
     <t>Semana</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Elaborar el mockup de la vista para la asignación de la disponibilidad de los recursos.</t>
   </si>
   <si>
-    <t>Elaborar el mockup de la vista paraver la calendarización de uno o más recursos.</t>
-  </si>
-  <si>
     <t>Completar el mockup de la vista de calendarización.</t>
   </si>
   <si>
@@ -241,6 +238,27 @@
   </si>
   <si>
     <t>Trabajadas</t>
+  </si>
+  <si>
+    <t>Elaborar el mockup de la vista para ver la calendarización de uno o más recursos.</t>
+  </si>
+  <si>
+    <t>Elaborar el pseudocódigo del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Elaborar el algoritmo de construcción del grafo a partir del archivo csv.</t>
+  </si>
+  <si>
+    <t>Configurar el repositorio global de la aplicación.</t>
+  </si>
+  <si>
+    <t>Configurar el repositorio local de la aplicación.</t>
+  </si>
+  <si>
+    <t>Crear la agenda para la reunión #4 con el cliente.</t>
+  </si>
+  <si>
+    <t>Reunión #4 con el cliente.</t>
   </si>
 </sst>
 </file>
@@ -580,37 +598,37 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.19148936170212766</c:v>
+                  <c:v>0.1751824817518248</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36968085106382975</c:v>
+                  <c:v>0.33819951338199505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5186170212765957</c:v>
+                  <c:v>0.47445255474452547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70478723404255317</c:v>
+                  <c:v>0.64476885644768844</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88297872340425532</c:v>
+                  <c:v>0.80778588807785878</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.97566909975669092</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -637,61 +655,61 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.1223404255319149</c:v>
+                  <c:v>0.1119221411192214</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19414893617021278</c:v>
+                  <c:v>0.17761557177615572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38563829787234044</c:v>
+                  <c:v>0.35279805352798055</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5186170212765957</c:v>
+                  <c:v>0.47445255474452552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73670212765957444</c:v>
+                  <c:v>0.67396593673965932</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73670212765957444</c:v>
+                  <c:v>0.67396593673965932</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.73670212765957444</c:v>
+                  <c:v>0.67396593673965932</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73670212765957444</c:v>
+                  <c:v>0.67396593673965932</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.73670212765957444</c:v>
+                  <c:v>0.67396593673965932</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.73670212765957444</c:v>
+                  <c:v>0.67396593673965932</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.73670212765957444</c:v>
+                  <c:v>0.67396593673965932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78458880"/>
-        <c:axId val="78460416"/>
+        <c:axId val="66384640"/>
+        <c:axId val="66386176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78458880"/>
+        <c:axId val="66384640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78460416"/>
+        <c:crossAx val="66386176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78460416"/>
+        <c:axId val="66386176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +717,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78458880"/>
+        <c:crossAx val="66384640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -712,7 +730,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -820,10 +838,10 @@
                   <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -874,7 +892,7 @@
                   <c:v>33.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.766666666666666</c:v>
+                  <c:v>44.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -898,24 +916,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78875264"/>
-        <c:axId val="78885248"/>
+        <c:axId val="66219392"/>
+        <c:axId val="66225280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78875264"/>
+        <c:axId val="66219392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78885248"/>
+        <c:crossAx val="66225280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78885248"/>
+        <c:axId val="66225280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -923,7 +941,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78875264"/>
+        <c:crossAx val="66219392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -936,7 +954,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1300,7 +1318,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1346,20 +1364,20 @@
       <c r="C2" s="37"/>
       <c r="D2" s="5">
         <f>SUMIF(tareas!$G:$G,A2,tareas!$F:$F)</f>
-        <v>0.19148936170212766</v>
+        <v>0.1751824817518248</v>
       </c>
       <c r="E2" s="6">
         <f>D2</f>
-        <v>0.19148936170212766</v>
+        <v>0.1751824817518248</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="6">
         <f>SUMIF(tareas!$J:$J,A2,tareas!$I:$I)</f>
-        <v>0.1223404255319149</v>
+        <v>0.1119221411192214</v>
       </c>
       <c r="H2" s="6">
         <f>G2</f>
-        <v>0.1223404255319149</v>
+        <v>0.1119221411192214</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1373,20 +1391,20 @@
       <c r="C3" s="37"/>
       <c r="D3" s="5">
         <f>SUMIF(tareas!$G:$G,A3,tareas!$F:$F)</f>
-        <v>0.17819148936170209</v>
+        <v>0.16301703163017028</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E12" si="1">D3+E2</f>
-        <v>0.36968085106382975</v>
+        <v>0.33819951338199505</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="6">
         <f>SUMIF(tareas!$J:$J,A3,tareas!$I:$I)</f>
-        <v>7.1808510638297879E-2</v>
+        <v>6.569343065693431E-2</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H12" si="2">G3+H2</f>
-        <v>0.19414893617021278</v>
+        <v>0.17761557177615572</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1400,20 +1418,20 @@
       <c r="C4" s="37"/>
       <c r="D4" s="5">
         <f>SUMIF(tareas!$G:$G,A4,tareas!$F:$F)</f>
-        <v>0.14893617021276595</v>
+        <v>0.13625304136253041</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>0.5186170212765957</v>
+        <v>0.47445255474452547</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="6">
         <f>SUMIF(tareas!$J:$J,A4,tareas!$I:$I)</f>
-        <v>0.19148936170212766</v>
+        <v>0.17518248175182483</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="2"/>
-        <v>0.38563829787234044</v>
+        <v>0.35279805352798055</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1427,20 +1445,20 @@
       <c r="C5" s="37"/>
       <c r="D5" s="5">
         <f>SUMIF(tareas!$G:$G,A5,tareas!$F:$F)</f>
-        <v>0.18617021276595747</v>
+        <v>0.170316301703163</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>0.70478723404255317</v>
+        <v>0.64476885644768844</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="6">
         <f>SUMIF(tareas!$J:$J,A5,tareas!$I:$I)</f>
-        <v>0.13297872340425532</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="2"/>
-        <v>0.5186170212765957</v>
+        <v>0.47445255474452552</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1454,20 +1472,20 @@
       <c r="C6" s="37"/>
       <c r="D6" s="5">
         <f>SUMIF(tareas!$G:$G,A6,tareas!$F:$F)</f>
-        <v>0.17819148936170212</v>
+        <v>0.16301703163017031</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>0.88297872340425532</v>
+        <v>0.80778588807785878</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="6">
         <f>SUMIF(tareas!$J:$J,A6,tareas!$I:$I)</f>
-        <v>0.21808510638297876</v>
+        <v>0.19951338199513383</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="2"/>
-        <v>0.73670212765957444</v>
+        <v>0.67396593673965932</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1481,11 +1499,11 @@
       <c r="C7" s="37"/>
       <c r="D7" s="5">
         <f>SUMIF(tareas!$G:$G,A7,tareas!$F:$F)</f>
-        <v>0.11702127659574468</v>
+        <v>0.16788321167883211</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.97566909975669092</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="6">
@@ -1494,7 +1512,7 @@
       </c>
       <c r="H7" s="6">
         <f t="shared" si="2"/>
-        <v>0.73670212765957444</v>
+        <v>0.67396593673965932</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1508,11 +1526,11 @@
       <c r="C8" s="37"/>
       <c r="D8" s="5">
         <f>SUMIF(tareas!$G:$G,A8,tareas!$F:$F)</f>
-        <v>0</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="6">
@@ -1521,7 +1539,7 @@
       </c>
       <c r="H8" s="6">
         <f t="shared" si="2"/>
-        <v>0.73670212765957444</v>
+        <v>0.67396593673965932</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1539,7 +1557,7 @@
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="6">
@@ -1548,7 +1566,7 @@
       </c>
       <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>0.73670212765957444</v>
+        <v>0.67396593673965932</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1566,7 +1584,7 @@
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="6">
@@ -1575,7 +1593,7 @@
       </c>
       <c r="H10" s="6">
         <f t="shared" si="2"/>
-        <v>0.73670212765957444</v>
+        <v>0.67396593673965932</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1593,7 +1611,7 @@
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="6">
@@ -1602,7 +1620,7 @@
       </c>
       <c r="H11" s="6">
         <f t="shared" si="2"/>
-        <v>0.73670212765957444</v>
+        <v>0.67396593673965932</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1620,7 +1638,7 @@
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="6">
@@ -1629,7 +1647,7 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" si="2"/>
-        <v>0.73670212765957444</v>
+        <v>0.67396593673965932</v>
       </c>
     </row>
   </sheetData>
@@ -1647,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1669,7 +1687,7 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="33"/>
       <c r="E1" s="9" t="s">
@@ -1688,7 +1706,7 @@
         <v>60</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K1" s="33"/>
       <c r="L1" s="9" t="s">
@@ -1707,7 +1725,7 @@
         <v>60</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1961,7 +1979,7 @@
         <v>33.5</v>
       </c>
       <c r="L6" s="8">
-        <v>4.6500000000000004</v>
+        <v>6.4833333333333334</v>
       </c>
       <c r="M6" s="8">
         <v>7.0166666666666666</v>
@@ -1977,7 +1995,7 @@
       </c>
       <c r="Q6" s="8">
         <f t="shared" si="1"/>
-        <v>42.766666666666666</v>
+        <v>44.599999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1991,28 +2009,28 @@
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="8">
-        <f>SUMIF('1'!$G:$G,A7,'1'!$I:$I)</f>
-        <v>0</v>
+        <f>SUMIF('3'!$G:$G,A7,'3'!$I:$I)</f>
+        <v>7</v>
       </c>
       <c r="F7" s="8">
-        <f>SUMIF('1'!$G:$G,A7,'1'!$J:$J)</f>
-        <v>0</v>
+        <f>SUMIF('3'!$G:$G,A7,'3'!$J:$J)</f>
+        <v>7</v>
       </c>
       <c r="G7" s="8">
-        <f>SUMIF('1'!$G:$G,A7,'1'!$K:$K)</f>
-        <v>0</v>
+        <f>SUMIF('3'!$G:$G,A7,'3'!$K:$K)</f>
+        <v>6.5</v>
       </c>
       <c r="H7" s="8">
-        <f>SUMIF('1'!$G:$G,A7,'1'!$L:$L)</f>
-        <v>0</v>
+        <f>SUMIF('3'!$G:$G,A7,'3'!$L:$L)</f>
+        <v>7.5</v>
       </c>
       <c r="I7" s="8">
-        <f>SUMIF('1'!$G:$G,A7,'1'!$M:$M)</f>
-        <v>0</v>
+        <f>SUMIF('3'!$G:$G,A7,'3'!$M:$M)</f>
+        <v>6.5</v>
       </c>
       <c r="J7" s="8">
         <f>SUMIF(tareas!G:G,A7,tareas!E:E)</f>
-        <v>22</v>
+        <v>34.5</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -2035,28 +2053,28 @@
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="8">
-        <f>SUMIF('1'!$G:$G,A8,'1'!$I:$I)</f>
-        <v>0</v>
+        <f>SUMIF('3'!$G:$G,A8,'3'!$I:$I)</f>
+        <v>1</v>
       </c>
       <c r="F8" s="8">
-        <f>SUMIF('1'!$G:$G,A8,'1'!$J:$J)</f>
-        <v>0</v>
+        <f>SUMIF('3'!$G:$G,A8,'3'!$J:$J)</f>
+        <v>1</v>
       </c>
       <c r="G8" s="8">
-        <f>SUMIF('1'!$G:$G,A8,'1'!$K:$K)</f>
-        <v>0</v>
+        <f>SUMIF('3'!$G:$G,A8,'3'!$K:$K)</f>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
-        <f>SUMIF('1'!$G:$G,A8,'1'!$L:$L)</f>
-        <v>0</v>
+        <f>SUMIF('3'!$G:$G,A8,'3'!$L:$L)</f>
+        <v>1</v>
       </c>
       <c r="I8" s="8">
-        <f>SUMIF('1'!$G:$G,A8,'1'!$M:$M)</f>
-        <v>0</v>
+        <f>SUMIF('3'!$G:$G,A8,'3'!$M:$M)</f>
+        <v>1</v>
       </c>
       <c r="J8" s="8">
         <f>SUMIF(tareas!G:G,A8,tareas!E:E)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -2251,31 +2269,31 @@
       </c>
       <c r="E14" s="7">
         <f>SUM(E2:E12)</f>
-        <v>35.5</v>
+        <v>43.5</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" ref="F14:I14" si="2">SUM(F2:F12)</f>
-        <v>40.5</v>
+        <v>48.5</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="2"/>
-        <v>34.5</v>
+        <v>43</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>35.5</v>
       </c>
       <c r="J14" s="7">
         <f>SUM(J2:J12)</f>
-        <v>188</v>
+        <v>205.5</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" ref="L14:Q14" si="3">SUM(L2:L12)</f>
-        <v>30.593333333333334</v>
+        <v>32.426666666666669</v>
       </c>
       <c r="M14" s="7">
         <f t="shared" si="3"/>
@@ -2295,13 +2313,13 @@
       </c>
       <c r="Q14" s="7">
         <f t="shared" si="3"/>
-        <v>170.41666666666669</v>
+        <v>172.25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="7">
         <f>J14-SUM(E14:I14)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2312,10 +2330,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK54"/>
+  <dimension ref="A1:AMK60"/>
   <sheetViews>
-    <sheetView topLeftCell="D38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
@@ -2374,14 +2392,14 @@
       </c>
       <c r="F2" s="15">
         <f>E2/tiempo!$J$14</f>
-        <v>3.9893617021276598E-2</v>
+        <v>3.6496350364963501E-2</v>
       </c>
       <c r="G2" s="18">
         <v>1</v>
       </c>
       <c r="I2" s="15">
         <f>IF(ISBLANK(LOOKUP(A2,'1'!$A:$A,'1'!$R:$R)),0,F2)</f>
-        <v>3.9893617021276598E-2</v>
+        <v>3.6496350364963501E-2</v>
       </c>
       <c r="J2" s="16">
         <f>LOOKUP(A2,'1'!$A:$A,'1'!$R:$R)</f>
@@ -3415,14 +3433,14 @@
       </c>
       <c r="F3" s="15">
         <f>E3/tiempo!$J$14</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="G3" s="18">
         <v>1</v>
       </c>
       <c r="I3" s="15">
         <f>IF(ISBLANK(LOOKUP(A3,'1'!$A:$A,'1'!$R:$R)),0,F3)</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="J3" s="16">
         <f>LOOKUP(A3,'1'!$A:$A,'1'!$R:$R)</f>
@@ -4456,14 +4474,14 @@
       </c>
       <c r="F4" s="15">
         <f>E4/tiempo!$J$14</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="G4" s="18">
         <v>1</v>
       </c>
       <c r="I4" s="15">
         <f>IF(ISBLANK(LOOKUP(A4,'1'!$A:$A,'1'!$R:$R)),0,F4)</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="J4" s="16">
         <f>LOOKUP(A4,'1'!$A:$A,'1'!$R:$R)</f>
@@ -5497,14 +5515,14 @@
       </c>
       <c r="F5" s="15">
         <f>E5/tiempo!$J$14</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="G5" s="18">
         <v>1</v>
       </c>
       <c r="I5" s="15">
         <f>IF(ISBLANK(LOOKUP(A5,'1'!$A:$A,'1'!$R:$R)),0,F5)</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="J5" s="16">
         <f>LOOKUP(A5,'1'!$A:$A,'1'!$R:$R)</f>
@@ -6538,14 +6556,14 @@
       </c>
       <c r="F6" s="15">
         <f>E6/tiempo!$J$14</f>
-        <v>2.6595744680851063E-3</v>
+        <v>2.4330900243309003E-3</v>
       </c>
       <c r="G6" s="22">
         <v>1</v>
       </c>
       <c r="I6" s="15">
         <f>IF(ISBLANK(LOOKUP(A6,'1'!$A:$A,'1'!$R:$R)),0,F6)</f>
-        <v>2.6595744680851063E-3</v>
+        <v>2.4330900243309003E-3</v>
       </c>
       <c r="J6" s="16">
         <f>LOOKUP(A6,'1'!$A:$A,'1'!$R:$R)</f>
@@ -7579,14 +7597,14 @@
       </c>
       <c r="F7" s="15">
         <f>E7/tiempo!$J$14</f>
-        <v>2.6595744680851063E-3</v>
+        <v>2.4330900243309003E-3</v>
       </c>
       <c r="G7" s="21">
         <v>1</v>
       </c>
       <c r="I7" s="15">
         <f>IF(ISBLANK(LOOKUP(A7,'1'!$A:$A,'1'!$R:$R)),0,F7)</f>
-        <v>2.6595744680851063E-3</v>
+        <v>2.4330900243309003E-3</v>
       </c>
       <c r="J7" s="16">
         <f>LOOKUP(A7,'1'!$A:$A,'1'!$R:$R)</f>
@@ -8620,14 +8638,14 @@
       </c>
       <c r="F8" s="15">
         <f>E8/tiempo!$J$14</f>
-        <v>2.6595744680851063E-3</v>
+        <v>2.4330900243309003E-3</v>
       </c>
       <c r="G8" s="21">
         <v>1</v>
       </c>
       <c r="I8" s="15">
         <f>IF(ISBLANK(LOOKUP(A8,'1'!$A:$A,'1'!$R:$R)),0,F8)</f>
-        <v>2.6595744680851063E-3</v>
+        <v>2.4330900243309003E-3</v>
       </c>
       <c r="J8" s="16">
         <f>LOOKUP(A8,'1'!$A:$A,'1'!$R:$R)</f>
@@ -9661,14 +9679,14 @@
       </c>
       <c r="F9" s="15">
         <f>E9/tiempo!$J$14</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="G9" s="21">
         <v>1</v>
       </c>
       <c r="I9" s="15">
         <f>IF(ISBLANK(LOOKUP(A9,'1'!$A:$A,'1'!$R:$R)),0,F9)</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="J9" s="16">
         <f>LOOKUP(A9,'1'!$A:$A,'1'!$R:$R)</f>
@@ -10702,14 +10720,14 @@
       </c>
       <c r="F10" s="15">
         <f>E10/tiempo!$J$14</f>
-        <v>1.5957446808510637E-2</v>
+        <v>1.4598540145985401E-2</v>
       </c>
       <c r="G10" s="21">
         <v>1</v>
       </c>
       <c r="I10" s="15">
         <f>IF(ISBLANK(LOOKUP(A10,'1'!$A:$A,'1'!$R:$R)),0,F10)</f>
-        <v>1.5957446808510637E-2</v>
+        <v>1.4598540145985401E-2</v>
       </c>
       <c r="J10" s="16">
         <f>LOOKUP(A10,'1'!$A:$A,'1'!$R:$R)</f>
@@ -11743,7 +11761,7 @@
       </c>
       <c r="F11" s="15">
         <f>E11/tiempo!$J$14</f>
-        <v>5.3191489361702128E-2</v>
+        <v>4.8661800486618008E-2</v>
       </c>
       <c r="G11" s="21">
         <v>1</v>
@@ -12777,7 +12795,7 @@
       </c>
       <c r="F12" s="15">
         <f>E12/tiempo!$J$14</f>
-        <v>7.9787234042553196E-2</v>
+        <v>7.2992700729927001E-2</v>
       </c>
       <c r="G12" s="16">
         <v>2</v>
@@ -13811,14 +13829,14 @@
       </c>
       <c r="F13" s="15">
         <f>E13/tiempo!$J$14</f>
-        <v>5.3191489361702128E-2</v>
+        <v>4.8661800486618008E-2</v>
       </c>
       <c r="G13" s="21">
         <v>2</v>
       </c>
       <c r="I13" s="15">
         <f>IF(ISBLANK(LOOKUP(A13,'1'!$A:$A,'1'!$R:$R)),0,F13)</f>
-        <v>5.3191489361702128E-2</v>
+        <v>4.8661800486618008E-2</v>
       </c>
       <c r="J13" s="16">
         <f>LOOKUP(A13,'1'!$A:$A,'1'!$R:$R)</f>
@@ -14852,14 +14870,14 @@
       </c>
       <c r="F14" s="15">
         <f>E14/tiempo!$J$14</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="G14" s="21">
         <v>2</v>
       </c>
       <c r="I14" s="15">
         <f>IF(ISBLANK(LOOKUP(A14,'1'!$A:$A,'1'!$R:$R)),0,F14)</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="J14" s="16">
         <f>LOOKUP(A14,'1'!$A:$A,'1'!$R:$R)</f>
@@ -15893,14 +15911,14 @@
       </c>
       <c r="F15" s="15">
         <f>E15/tiempo!$J$14</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="G15" s="21">
         <v>2</v>
       </c>
       <c r="I15" s="15">
         <f>IF(ISBLANK(LOOKUP(A15,'1'!$A:$A,'1'!$R:$R)),0,F15)</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="J15" s="16">
         <f>LOOKUP(A15,'1'!$A:$A,'1'!$R:$R)</f>
@@ -16934,14 +16952,14 @@
       </c>
       <c r="F16" s="15">
         <f>E16/tiempo!$J$14</f>
-        <v>2.1276595744680851E-2</v>
+        <v>1.9464720194647202E-2</v>
       </c>
       <c r="G16" s="21">
         <v>2</v>
       </c>
       <c r="I16" s="15">
         <f>IF(ISBLANK(LOOKUP(A16,'1'!$A:$A,'1'!$R:$R)),0,F16)</f>
-        <v>2.1276595744680851E-2</v>
+        <v>1.9464720194647202E-2</v>
       </c>
       <c r="J16" s="16">
         <f>LOOKUP(A16,'1'!$A:$A,'1'!$R:$R)</f>
@@ -17975,14 +17993,14 @@
       </c>
       <c r="F17" s="15">
         <f>E17/tiempo!$J$14</f>
-        <v>2.6595744680851063E-3</v>
+        <v>2.4330900243309003E-3</v>
       </c>
       <c r="G17" s="21">
         <v>2</v>
       </c>
       <c r="I17" s="15">
         <f>IF(ISBLANK(LOOKUP(A17,'1'!$A:$A,'1'!$R:$R)),0,F17)</f>
-        <v>2.6595744680851063E-3</v>
+        <v>2.4330900243309003E-3</v>
       </c>
       <c r="J17" s="16">
         <f>LOOKUP(A17,'1'!$A:$A,'1'!$R:$R)</f>
@@ -19016,14 +19034,14 @@
       </c>
       <c r="F18" s="15">
         <f>E18/tiempo!$J$14</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="G18" s="21">
         <v>3</v>
       </c>
       <c r="I18" s="15">
         <f>IF(ISBLANK(LOOKUP(A18,'1'!$A:$A,'1'!$R:$R)),0,F18)</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="J18" s="16">
         <f>LOOKUP(A18,'1'!$A:$A,'1'!$R:$R)</f>
@@ -20057,14 +20075,14 @@
       </c>
       <c r="F19" s="15">
         <f>E19/tiempo!$J$14</f>
-        <v>5.3191489361702128E-2</v>
+        <v>4.8661800486618008E-2</v>
       </c>
       <c r="G19" s="21">
         <v>3</v>
       </c>
       <c r="I19" s="15">
         <f>IF(ISBLANK(LOOKUP(A19,'1'!$A:$A,'1'!$R:$R)),0,F19)</f>
-        <v>5.3191489361702128E-2</v>
+        <v>4.8661800486618008E-2</v>
       </c>
       <c r="J19" s="16">
         <f>LOOKUP(A19,'1'!$A:$A,'1'!$R:$R)</f>
@@ -21098,14 +21116,14 @@
       </c>
       <c r="F20" s="15">
         <f>E20/tiempo!$J$14</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="G20" s="16">
         <v>3</v>
       </c>
       <c r="I20" s="15">
         <f>IF(ISBLANK(LOOKUP(A20,'1'!$A:$A,'1'!$R:$R)),0,F20)</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="J20" s="16">
         <f>LOOKUP(A20,'1'!$A:$A,'1'!$R:$R)</f>
@@ -22139,14 +22157,14 @@
       </c>
       <c r="F21" s="15">
         <f>E21/tiempo!$J$14</f>
-        <v>1.5957446808510637E-2</v>
+        <v>1.4598540145985401E-2</v>
       </c>
       <c r="G21" s="16">
         <v>3</v>
       </c>
       <c r="I21" s="15">
         <f>IF(ISBLANK(LOOKUP(A21,'1'!$A:$A,'1'!$R:$R)),0,F21)</f>
-        <v>1.5957446808510637E-2</v>
+        <v>1.4598540145985401E-2</v>
       </c>
       <c r="J21" s="16">
         <f>LOOKUP(A21,'1'!$A:$A,'1'!$R:$R)</f>
@@ -23180,14 +23198,14 @@
       </c>
       <c r="F22" s="15">
         <f>E22/tiempo!$J$14</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="G22" s="16">
         <v>3</v>
       </c>
       <c r="I22" s="15">
         <f>IF(ISBLANK(LOOKUP(A22,'1'!$A:$A,'1'!$R:$R)),0,F22)</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="J22" s="16">
         <f>LOOKUP(A22,'1'!$A:$A,'1'!$R:$R)</f>
@@ -24221,14 +24239,14 @@
       </c>
       <c r="F23" s="15">
         <f>E23/tiempo!$J$14</f>
-        <v>2.1276595744680851E-2</v>
+        <v>1.9464720194647202E-2</v>
       </c>
       <c r="G23" s="16">
         <v>3</v>
       </c>
       <c r="I23" s="15">
         <f>IF(ISBLANK(LOOKUP(A23,'1'!$A:$A,'1'!$R:$R)),0,F23)</f>
-        <v>2.1276595744680851E-2</v>
+        <v>1.9464720194647202E-2</v>
       </c>
       <c r="J23" s="16">
         <f>LOOKUP(A23,'1'!$A:$A,'1'!$R:$R)</f>
@@ -25262,14 +25280,14 @@
       </c>
       <c r="F24" s="15">
         <f>E24/tiempo!$J$14</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="G24" s="16">
         <v>3</v>
       </c>
       <c r="I24" s="15">
         <f>IF(ISBLANK(LOOKUP(A24,'1'!$A:$A,'1'!$R:$R)),0,F24)</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="J24" s="16">
         <f>LOOKUP(A24,'1'!$A:$A,'1'!$R:$R)</f>
@@ -27330,14 +27348,14 @@
       </c>
       <c r="F26" s="15">
         <f>E26/tiempo!$J$14</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="G26" s="16">
         <v>4</v>
       </c>
       <c r="I26" s="15">
         <f>IF(ISBLANK(LOOKUP(A26,'2'!$A:$A,'2'!$R:$R)),0,F26)</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="J26" s="16">
         <f>LOOKUP(A26,'2'!$A:$A,'2'!$R:$R)</f>
@@ -28371,14 +28389,14 @@
       </c>
       <c r="F27" s="15">
         <f>E27/tiempo!$J$14</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="G27" s="16">
         <v>4</v>
       </c>
       <c r="I27" s="15">
         <f>IF(ISBLANK(LOOKUP(A27,'2'!$A:$A,'2'!$R:$R)),0,F27)</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="J27" s="16">
         <f>LOOKUP(A27,'2'!$A:$A,'2'!$R:$R)</f>
@@ -29412,14 +29430,14 @@
       </c>
       <c r="F28" s="15">
         <f>E28/tiempo!$J$14</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="G28" s="16">
         <v>4</v>
       </c>
       <c r="I28" s="15">
         <f>IF(ISBLANK(LOOKUP(A28,'2'!$A:$A,'2'!$R:$R)),0,F28)</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="J28" s="16">
         <f>LOOKUP(A28,'2'!$A:$A,'2'!$R:$R)</f>
@@ -30453,14 +30471,14 @@
       </c>
       <c r="F29" s="15">
         <f>E29/tiempo!$J$14</f>
-        <v>2.6595744680851063E-3</v>
+        <v>2.4330900243309003E-3</v>
       </c>
       <c r="G29" s="16">
         <v>4</v>
       </c>
       <c r="I29" s="15">
         <f>IF(ISBLANK(LOOKUP(A29,'2'!$A:$A,'2'!$R:$R)),0,F29)</f>
-        <v>2.6595744680851063E-3</v>
+        <v>2.4330900243309003E-3</v>
       </c>
       <c r="J29" s="16">
         <f>LOOKUP(A29,'2'!$A:$A,'2'!$R:$R)</f>
@@ -31495,14 +31513,14 @@
       </c>
       <c r="F30" s="15">
         <f>E30/tiempo!$J$14</f>
-        <v>3.9893617021276598E-2</v>
+        <v>3.6496350364963501E-2</v>
       </c>
       <c r="G30" s="16">
         <v>4</v>
       </c>
       <c r="I30" s="15">
         <f>IF(ISBLANK(LOOKUP(A30,'2'!$A:$A,'2'!$R:$R)),0,F30)</f>
-        <v>3.9893617021276598E-2</v>
+        <v>3.6496350364963501E-2</v>
       </c>
       <c r="J30" s="16">
         <f>LOOKUP(A30,'2'!$A:$A,'2'!$R:$R)</f>
@@ -32536,14 +32554,14 @@
       </c>
       <c r="F31" s="15">
         <f>E31/tiempo!$J$14</f>
-        <v>2.6595744680851063E-3</v>
+        <v>2.4330900243309003E-3</v>
       </c>
       <c r="G31" s="16">
         <v>4</v>
       </c>
       <c r="I31" s="15">
         <f>IF(ISBLANK(LOOKUP(A31,'2'!$A:$A,'2'!$R:$R)),0,F31)</f>
-        <v>2.6595744680851063E-3</v>
+        <v>2.4330900243309003E-3</v>
       </c>
       <c r="J31" s="16">
         <f>LOOKUP(A31,'2'!$A:$A,'2'!$R:$R)</f>
@@ -33577,14 +33595,14 @@
       </c>
       <c r="F32" s="15">
         <f>E32/tiempo!$J$14</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="G32" s="16">
         <v>4</v>
       </c>
       <c r="I32" s="15">
         <f>IF(ISBLANK(LOOKUP(A32,'2'!$A:$A,'2'!$R:$R)),0,F32)</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="J32" s="16">
         <f>LOOKUP(A32,'2'!$A:$A,'2'!$R:$R)</f>
@@ -34618,14 +34636,14 @@
       </c>
       <c r="F33" s="15">
         <f>E33/tiempo!$J$14</f>
-        <v>1.5957446808510637E-2</v>
+        <v>1.4598540145985401E-2</v>
       </c>
       <c r="G33" s="16">
         <v>4</v>
       </c>
       <c r="I33" s="15">
         <f>IF(ISBLANK(LOOKUP(A33,'2'!$A:$A,'2'!$R:$R)),0,F33)</f>
-        <v>1.5957446808510637E-2</v>
+        <v>1.4598540145985401E-2</v>
       </c>
       <c r="J33" s="16">
         <f>LOOKUP(A33,'2'!$A:$A,'2'!$R:$R)</f>
@@ -35659,14 +35677,14 @@
       </c>
       <c r="F34" s="15">
         <f>E34/tiempo!$J$14</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="G34" s="16">
         <v>4</v>
       </c>
       <c r="I34" s="15">
         <f>IF(ISBLANK(LOOKUP(A34,'2'!$A:$A,'2'!$R:$R)),0,F34)</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="J34" s="16">
         <f>LOOKUP(A34,'2'!$A:$A,'2'!$R:$R)</f>
@@ -36700,14 +36718,14 @@
       </c>
       <c r="F35" s="15">
         <f>E35/tiempo!$J$14</f>
-        <v>2.6595744680851063E-3</v>
+        <v>2.4330900243309003E-3</v>
       </c>
       <c r="G35" s="16">
         <v>4</v>
       </c>
       <c r="I35" s="15">
         <f>IF(ISBLANK(LOOKUP(A35,'2'!$A:$A,'2'!$R:$R)),0,F35)</f>
-        <v>2.6595744680851063E-3</v>
+        <v>2.4330900243309003E-3</v>
       </c>
       <c r="J35" s="16">
         <f>LOOKUP(A35,'2'!$A:$A,'2'!$R:$R)</f>
@@ -37741,14 +37759,14 @@
       </c>
       <c r="F36" s="15">
         <f>E36/tiempo!$J$14</f>
-        <v>5.3191489361702126E-3</v>
+        <v>4.8661800486618006E-3</v>
       </c>
       <c r="G36" s="16">
         <v>4</v>
       </c>
       <c r="I36" s="15">
         <f>IF(ISBLANK(LOOKUP(A36,'2'!$A:$A,'2'!$R:$R)),0,F36)</f>
-        <v>5.3191489361702126E-3</v>
+        <v>4.8661800486618006E-3</v>
       </c>
       <c r="J36" s="16">
         <f>LOOKUP(A36,'2'!$A:$A,'2'!$R:$R)</f>
@@ -38782,14 +38800,14 @@
       </c>
       <c r="F37" s="15">
         <f>E37/tiempo!$J$14</f>
-        <v>1.5957446808510637E-2</v>
+        <v>1.4598540145985401E-2</v>
       </c>
       <c r="G37" s="16">
         <v>4</v>
       </c>
       <c r="I37" s="15">
         <f>IF(ISBLANK(LOOKUP(A37,'2'!$A:$A,'2'!$R:$R)),0,F37)</f>
-        <v>1.5957446808510637E-2</v>
+        <v>1.4598540145985401E-2</v>
       </c>
       <c r="J37" s="16">
         <f>LOOKUP(A37,'2'!$A:$A,'2'!$R:$R)</f>
@@ -39823,14 +39841,14 @@
       </c>
       <c r="F38" s="15">
         <f>E38/tiempo!$J$14</f>
-        <v>5.3191489361702126E-3</v>
+        <v>4.8661800486618006E-3</v>
       </c>
       <c r="G38" s="16">
         <v>5</v>
       </c>
       <c r="I38" s="15">
         <f>IF(ISBLANK(LOOKUP(A38,'2'!$A:$A,'2'!$R:$R)),0,F38)</f>
-        <v>5.3191489361702126E-3</v>
+        <v>4.8661800486618006E-3</v>
       </c>
       <c r="J38" s="16">
         <f>LOOKUP(A38,'2'!$A:$A,'2'!$R:$R)</f>
@@ -40864,14 +40882,14 @@
       </c>
       <c r="F39" s="15">
         <f>E39/tiempo!$J$14</f>
-        <v>2.1276595744680851E-2</v>
+        <v>1.9464720194647202E-2</v>
       </c>
       <c r="G39" s="16">
         <v>5</v>
       </c>
       <c r="I39" s="15">
         <f>IF(ISBLANK(LOOKUP(A39,'2'!$A:$A,'2'!$R:$R)),0,F39)</f>
-        <v>2.1276595744680851E-2</v>
+        <v>1.9464720194647202E-2</v>
       </c>
       <c r="J39" s="16">
         <f>LOOKUP(A39,'2'!$A:$A,'2'!$R:$R)</f>
@@ -41905,14 +41923,14 @@
       </c>
       <c r="F40" s="15">
         <f>E40/tiempo!$J$14</f>
-        <v>2.1276595744680851E-2</v>
+        <v>1.9464720194647202E-2</v>
       </c>
       <c r="G40" s="16">
         <v>5</v>
       </c>
       <c r="I40" s="15">
         <f>IF(ISBLANK(LOOKUP(A40,'2'!$A:$A,'2'!$R:$R)),0,F40)</f>
-        <v>2.1276595744680851E-2</v>
+        <v>1.9464720194647202E-2</v>
       </c>
       <c r="J40" s="16">
         <f>LOOKUP(A40,'2'!$A:$A,'2'!$R:$R)</f>
@@ -42946,7 +42964,7 @@
       </c>
       <c r="F41" s="15">
         <f>E41/tiempo!$J$14</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="G41" s="16">
         <v>5</v>
@@ -43980,7 +43998,7 @@
       </c>
       <c r="F42" s="15">
         <f>E42/tiempo!$J$14</f>
-        <v>2.6595744680851063E-3</v>
+        <v>2.4330900243309003E-3</v>
       </c>
       <c r="G42" s="16">
         <v>5</v>
@@ -45014,14 +45032,14 @@
       </c>
       <c r="F43" s="15">
         <f>E43/tiempo!$J$14</f>
-        <v>2.1276595744680851E-2</v>
+        <v>1.9464720194647202E-2</v>
       </c>
       <c r="G43" s="16">
         <v>5</v>
       </c>
       <c r="I43" s="15">
         <f>IF(ISBLANK(LOOKUP(A43,'2'!$A:$A,'2'!$R:$R)),0,F43)</f>
-        <v>2.1276595744680851E-2</v>
+        <v>1.9464720194647202E-2</v>
       </c>
       <c r="J43" s="16">
         <f>LOOKUP(A43,'2'!$A:$A,'2'!$R:$R)</f>
@@ -46055,14 +46073,14 @@
       </c>
       <c r="F44" s="15">
         <f>E44/tiempo!$J$14</f>
-        <v>1.5957446808510637E-2</v>
+        <v>1.4598540145985401E-2</v>
       </c>
       <c r="G44" s="16">
         <v>5</v>
       </c>
       <c r="I44" s="15">
         <f>IF(ISBLANK(LOOKUP(A44,'2'!$A:$A,'2'!$R:$R)),0,F44)</f>
-        <v>1.5957446808510637E-2</v>
+        <v>1.4598540145985401E-2</v>
       </c>
       <c r="J44" s="16">
         <f>LOOKUP(A44,'2'!$A:$A,'2'!$R:$R)</f>
@@ -47096,14 +47114,14 @@
       </c>
       <c r="F45" s="15">
         <f>E45/tiempo!$J$14</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="G45" s="16">
         <v>5</v>
       </c>
       <c r="I45" s="15">
         <f>IF(ISBLANK(LOOKUP(A45,'2'!$A:$A,'2'!$R:$R)),0,F45)</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="J45" s="16">
         <f>LOOKUP(A45,'2'!$A:$A,'2'!$R:$R)</f>
@@ -48137,14 +48155,14 @@
       </c>
       <c r="F46" s="15">
         <f>E46/tiempo!$J$14</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="G46" s="16">
         <v>5</v>
       </c>
       <c r="I46" s="15">
         <f>IF(ISBLANK(LOOKUP(A46,'2'!$A:$A,'2'!$R:$R)),0,F46)</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="J46" s="16">
         <f>LOOKUP(A46,'2'!$A:$A,'2'!$R:$R)</f>
@@ -49178,14 +49196,14 @@
       </c>
       <c r="F47" s="15">
         <f>E47/tiempo!$J$14</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="G47" s="16">
         <v>5</v>
       </c>
       <c r="I47" s="15">
         <f>IF(ISBLANK(LOOKUP(A47,'2'!$A:$A,'2'!$R:$R)),0,F47)</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="J47" s="16">
         <f>LOOKUP(A47,'2'!$A:$A,'2'!$R:$R)</f>
@@ -51246,7 +51264,7 @@
       </c>
       <c r="F49" s="15">
         <f>E49/tiempo!$J$14</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="G49" s="16">
         <v>6</v>
@@ -51264,7 +51282,7 @@
       </c>
       <c r="F50" s="15">
         <f>E50/tiempo!$J$14</f>
-        <v>2.6595744680851064E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="G50" s="16">
         <v>6</v>
@@ -51282,7 +51300,7 @@
       </c>
       <c r="F51" s="15">
         <f>E51/tiempo!$J$14</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="G51" s="16">
         <v>6</v>
@@ -51293,14 +51311,14 @@
         <v>49</v>
       </c>
       <c r="B52" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E52" s="16">
         <v>2</v>
       </c>
       <c r="F52" s="15">
         <f>E52/tiempo!$J$14</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="G52" s="16">
         <v>6</v>
@@ -51318,7 +51336,7 @@
       </c>
       <c r="F53" s="15">
         <f>E53/tiempo!$J$14</f>
-        <v>1.0638297872340425E-2</v>
+        <v>9.7323600973236012E-3</v>
       </c>
       <c r="G53" s="16">
         <v>6</v>
@@ -51329,17 +51347,125 @@
         <v>51</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E54" s="16">
         <v>6</v>
       </c>
       <c r="F54" s="15">
         <f>E54/tiempo!$J$14</f>
-        <v>3.1914893617021274E-2</v>
+        <v>2.9197080291970802E-2</v>
       </c>
       <c r="G54" s="16">
         <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="25.5">
+      <c r="A55" s="16">
+        <v>52</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="16">
+        <v>3</v>
+      </c>
+      <c r="F55" s="15">
+        <f>E55/tiempo!$J$14</f>
+        <v>1.4598540145985401E-2</v>
+      </c>
+      <c r="G55" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="25.5">
+      <c r="A56" s="16">
+        <v>53</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="16">
+        <v>4</v>
+      </c>
+      <c r="F56" s="15">
+        <f>E56/tiempo!$J$14</f>
+        <v>1.9464720194647202E-2</v>
+      </c>
+      <c r="G56" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="25.5">
+      <c r="A57" s="16">
+        <v>54</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="16">
+        <v>3</v>
+      </c>
+      <c r="F57" s="15">
+        <f>E57/tiempo!$J$14</f>
+        <v>1.4598540145985401E-2</v>
+      </c>
+      <c r="G57" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="25.5">
+      <c r="A58" s="16">
+        <v>55</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="F58" s="15">
+        <f>E58/tiempo!$J$14</f>
+        <v>2.4330900243309003E-3</v>
+      </c>
+      <c r="G58" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="16">
+        <v>56</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="16">
+        <v>2</v>
+      </c>
+      <c r="F59" s="15">
+        <f>E59/tiempo!$J$14</f>
+        <v>9.7323600973236012E-3</v>
+      </c>
+      <c r="G59" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="25.5">
+      <c r="A60" s="16">
+        <v>57</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="16">
+        <v>5</v>
+      </c>
+      <c r="F60" s="15">
+        <f>E60/tiempo!$J$14</f>
+        <v>2.4330900243309004E-2</v>
+      </c>
+      <c r="G60" s="16">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -52973,8 +53099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -53940,7 +54066,7 @@
       </c>
       <c r="P15" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="Q15" s="15">
         <f t="shared" si="1"/>
@@ -53950,7 +54076,7 @@
         <v>5</v>
       </c>
       <c r="T15" s="16">
-        <v>0</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="U15" s="16">
         <v>0</v>
@@ -54495,8 +54621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -54600,98 +54726,469 @@
         <f>LOOKUP(A2,tareas!$A:$A,tareas!$E:$E)</f>
         <v>5</v>
       </c>
+      <c r="F2" s="15">
+        <f>E2/SUM(tiempo!$J$7:$J$8)</f>
+        <v>0.12658227848101267</v>
+      </c>
       <c r="G2" s="19">
         <f>LOOKUP(A2,tareas!$A:$A,tareas!$G:$G)</f>
         <v>6</v>
       </c>
       <c r="H2" s="18"/>
+      <c r="I2" s="16">
+        <f>$E$2/5</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="16">
+        <f t="shared" ref="J2:M2" si="0">$E$2/5</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L2" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M2" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="Q2" s="15"/>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20"/>
-      <c r="E3" s="19"/>
-      <c r="G3" s="19"/>
+    <row r="3" spans="1:24" ht="25.5">
+      <c r="A3" s="18">
+        <v>47</v>
+      </c>
+      <c r="B3" s="20" t="str">
+        <f>LOOKUP(A3,tareas!$A:$A,tareas!$B:$B)</f>
+        <v>Definir la estrategía de desarrolo del ciclo #3 de TSPi.</v>
+      </c>
+      <c r="C3" s="17">
+        <f>LOOKUP(A3,tareas!$A:$A,tareas!$C:$C)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <f>LOOKUP(A3,tareas!$A:$A,tareas!$D:$D)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
+        <f>LOOKUP(A3,tareas!$A:$A,tareas!$E:$E)</f>
+        <v>5</v>
+      </c>
+      <c r="F3" s="15">
+        <f>E3/SUM(tiempo!$J$7:$J$8)</f>
+        <v>0.12658227848101267</v>
+      </c>
+      <c r="G3" s="19">
+        <f>LOOKUP(A3,tareas!$A:$A,tareas!$G:$G)</f>
+        <v>6</v>
+      </c>
       <c r="H3" s="18"/>
+      <c r="I3" s="16">
+        <f>$E$3/5</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="16">
+        <f t="shared" ref="J3:M3" si="1">$E$3/5</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L3" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20"/>
-      <c r="E4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="A4" s="18">
+        <v>48</v>
+      </c>
+      <c r="B4" s="20" t="str">
+        <f>LOOKUP(A4,tareas!$A:$A,tareas!$B:$B)</f>
+        <v>Elaborar el plan del ciclo #3 de TSPi.</v>
+      </c>
+      <c r="C4" s="17">
+        <f>LOOKUP(A4,tareas!$A:$A,tareas!$C:$C)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <f>LOOKUP(A4,tareas!$A:$A,tareas!$D:$D)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <f>LOOKUP(A4,tareas!$A:$A,tareas!$E:$E)</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="15">
+        <f>E4/SUM(tiempo!$J$7:$J$8)</f>
+        <v>5.0632911392405063E-2</v>
+      </c>
+      <c r="G4" s="19">
+        <f>LOOKUP(A4,tareas!$A:$A,tareas!$G:$G)</f>
+        <v>6</v>
+      </c>
       <c r="H4" s="18"/>
+      <c r="L4" s="16">
+        <f>E4</f>
+        <v>2</v>
+      </c>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="G5" s="19"/>
+    <row r="5" spans="1:24" ht="25.5">
+      <c r="A5" s="18">
+        <v>49</v>
+      </c>
+      <c r="B5" s="20" t="str">
+        <f>LOOKUP(A5,tareas!$A:$A,tareas!$B:$B)</f>
+        <v>Completar el mockup de la vista de calendarización.</v>
+      </c>
+      <c r="C5" s="17">
+        <f>LOOKUP(A5,tareas!$A:$A,tareas!$C:$C)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="17">
+        <f>LOOKUP(A5,tareas!$A:$A,tareas!$D:$D)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
+        <f>LOOKUP(A5,tareas!$A:$A,tareas!$E:$E)</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="15">
+        <f>E5/SUM(tiempo!$J$7:$J$8)</f>
+        <v>5.0632911392405063E-2</v>
+      </c>
+      <c r="G5" s="19">
+        <f>LOOKUP(A5,tareas!$A:$A,tareas!$G:$G)</f>
+        <v>6</v>
+      </c>
       <c r="H5" s="18"/>
+      <c r="J5" s="16">
+        <f>$E$5/2</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="16">
+        <f>$E$5/2</f>
+        <v>1</v>
+      </c>
       <c r="Q5" s="15"/>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20"/>
-      <c r="E6" s="19"/>
-      <c r="G6" s="19"/>
+    <row r="6" spans="1:24" ht="38.25">
+      <c r="A6" s="18">
+        <v>50</v>
+      </c>
+      <c r="B6" s="20" t="str">
+        <f>LOOKUP(A6,tareas!$A:$A,tareas!$B:$B)</f>
+        <v>Elaborar el mockup de la vista para la asignación de la disponibilidad de los recursos.</v>
+      </c>
+      <c r="C6" s="17">
+        <f>LOOKUP(A6,tareas!$A:$A,tareas!$C:$C)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
+        <f>LOOKUP(A6,tareas!$A:$A,tareas!$D:$D)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <f>LOOKUP(A6,tareas!$A:$A,tareas!$E:$E)</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="15">
+        <f>E6/SUM(tiempo!$J$7:$J$8)</f>
+        <v>5.0632911392405063E-2</v>
+      </c>
+      <c r="G6" s="19">
+        <f>LOOKUP(A6,tareas!$A:$A,tareas!$G:$G)</f>
+        <v>6</v>
+      </c>
       <c r="H6" s="22"/>
+      <c r="K6" s="16">
+        <f>E6</f>
+        <v>2</v>
+      </c>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="E7" s="19"/>
-      <c r="G7" s="19"/>
+    <row r="7" spans="1:24" ht="25.5">
+      <c r="A7" s="18">
+        <v>51</v>
+      </c>
+      <c r="B7" s="20" t="str">
+        <f>LOOKUP(A7,tareas!$A:$A,tareas!$B:$B)</f>
+        <v>Elaborar el mockup de la vista para ver la calendarización de uno o más recursos.</v>
+      </c>
+      <c r="C7" s="17">
+        <f>LOOKUP(A7,tareas!$A:$A,tareas!$C:$C)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <f>LOOKUP(A7,tareas!$A:$A,tareas!$D:$D)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <f>LOOKUP(A7,tareas!$A:$A,tareas!$E:$E)</f>
+        <v>6</v>
+      </c>
+      <c r="F7" s="15">
+        <f>E7/SUM(tiempo!$J$7:$J$8)</f>
+        <v>0.15189873417721519</v>
+      </c>
+      <c r="G7" s="19">
+        <f>LOOKUP(A7,tareas!$A:$A,tareas!$G:$G)</f>
+        <v>6</v>
+      </c>
       <c r="H7" s="21"/>
+      <c r="I7" s="16">
+        <f>$E$7/2</f>
+        <v>3</v>
+      </c>
+      <c r="J7" s="16">
+        <f>$E$7/2</f>
+        <v>3</v>
+      </c>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20"/>
-      <c r="E8" s="19"/>
-      <c r="G8" s="19"/>
+    <row r="8" spans="1:24" ht="25.5">
+      <c r="A8" s="18">
+        <v>52</v>
+      </c>
+      <c r="B8" s="20" t="str">
+        <f>LOOKUP(A8,tareas!$A:$A,tareas!$B:$B)</f>
+        <v>Elaborar el pseudocódigo del algoritmo de calendarización.</v>
+      </c>
+      <c r="C8" s="17">
+        <f>LOOKUP(A8,tareas!$A:$A,tareas!$C:$C)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <f>LOOKUP(A8,tareas!$A:$A,tareas!$D:$D)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="19">
+        <f>LOOKUP(A8,tareas!$A:$A,tareas!$E:$E)</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="15">
+        <f>E8/SUM(tiempo!$J$7:$J$8)</f>
+        <v>7.5949367088607597E-2</v>
+      </c>
+      <c r="G8" s="19">
+        <f>LOOKUP(A8,tareas!$A:$A,tareas!$G:$G)</f>
+        <v>6</v>
+      </c>
       <c r="H8" s="21"/>
+      <c r="K8" s="16">
+        <f>$E$8/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="M8" s="16">
+        <f>$E$8/2</f>
+        <v>1.5</v>
+      </c>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
-      <c r="E9" s="19"/>
-      <c r="G9" s="19"/>
+    <row r="9" spans="1:24" ht="25.5">
+      <c r="A9" s="18">
+        <v>53</v>
+      </c>
+      <c r="B9" s="20" t="str">
+        <f>LOOKUP(A9,tareas!$A:$A,tareas!$B:$B)</f>
+        <v>Elaborar el algoritmo de construcción del grafo a partir del archivo csv.</v>
+      </c>
+      <c r="C9" s="17">
+        <f>LOOKUP(A9,tareas!$A:$A,tareas!$C:$C)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <f>LOOKUP(A9,tareas!$A:$A,tareas!$D:$D)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <f>LOOKUP(A9,tareas!$A:$A,tareas!$E:$E)</f>
+        <v>4</v>
+      </c>
+      <c r="F9" s="15">
+        <f>E9/SUM(tiempo!$J$7:$J$8)</f>
+        <v>0.10126582278481013</v>
+      </c>
+      <c r="G9" s="19">
+        <f>LOOKUP(A9,tareas!$A:$A,tareas!$G:$G)</f>
+        <v>6</v>
+      </c>
       <c r="H9" s="21"/>
+      <c r="I9" s="16">
+        <f>$E$9/2</f>
+        <v>2</v>
+      </c>
+      <c r="L9" s="16">
+        <f>$E$9/2</f>
+        <v>2</v>
+      </c>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20"/>
-      <c r="E10" s="19"/>
-      <c r="G10" s="19"/>
+    <row r="10" spans="1:24" ht="25.5">
+      <c r="A10" s="18">
+        <v>54</v>
+      </c>
+      <c r="B10" s="20" t="str">
+        <f>LOOKUP(A10,tareas!$A:$A,tareas!$B:$B)</f>
+        <v>Configurar el repositorio global de la aplicación.</v>
+      </c>
+      <c r="C10" s="17">
+        <f>LOOKUP(A10,tareas!$A:$A,tareas!$C:$C)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <f>LOOKUP(A10,tareas!$A:$A,tareas!$D:$D)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <f>LOOKUP(A10,tareas!$A:$A,tareas!$E:$E)</f>
+        <v>3</v>
+      </c>
+      <c r="F10" s="15">
+        <f>E10/SUM(tiempo!$J$7:$J$8)</f>
+        <v>7.5949367088607597E-2</v>
+      </c>
+      <c r="G10" s="19">
+        <f>LOOKUP(A10,tareas!$A:$A,tareas!$G:$G)</f>
+        <v>6</v>
+      </c>
       <c r="H10" s="21"/>
+      <c r="M10" s="16">
+        <f>$E$10</f>
+        <v>3</v>
+      </c>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20"/>
-      <c r="E11" s="19"/>
-      <c r="G11" s="19"/>
+    <row r="11" spans="1:24" ht="25.5">
+      <c r="A11" s="18">
+        <v>55</v>
+      </c>
+      <c r="B11" s="20" t="str">
+        <f>LOOKUP(A11,tareas!$A:$A,tareas!$B:$B)</f>
+        <v>Crear la agenda para la reunión #4 con el cliente.</v>
+      </c>
+      <c r="C11" s="17">
+        <f>LOOKUP(A11,tareas!$A:$A,tareas!$C:$C)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
+        <f>LOOKUP(A11,tareas!$A:$A,tareas!$D:$D)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <f>LOOKUP(A11,tareas!$A:$A,tareas!$E:$E)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="15">
+        <f>E11/SUM(tiempo!$J$7:$J$8)</f>
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="G11" s="19">
+        <f>LOOKUP(A11,tareas!$A:$A,tareas!$G:$G)</f>
+        <v>6</v>
+      </c>
       <c r="H11" s="21"/>
+      <c r="L11" s="16">
+        <f>$E$11</f>
+        <v>0.5</v>
+      </c>
       <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="18"/>
-      <c r="B12" s="20"/>
-      <c r="E12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="A12" s="18">
+        <v>56</v>
+      </c>
+      <c r="B12" s="20" t="str">
+        <f>LOOKUP(A12,tareas!$A:$A,tareas!$B:$B)</f>
+        <v>Reunión #4 con el cliente.</v>
+      </c>
+      <c r="C12" s="17">
+        <f>LOOKUP(A12,tareas!$A:$A,tareas!$C:$C)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
+        <f>LOOKUP(A12,tareas!$A:$A,tareas!$D:$D)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <f>LOOKUP(A12,tareas!$A:$A,tareas!$E:$E)</f>
+        <v>2</v>
+      </c>
+      <c r="F12" s="15">
+        <f>E12/SUM(tiempo!$J$7:$J$8)</f>
+        <v>5.0632911392405063E-2</v>
+      </c>
+      <c r="G12" s="19">
+        <f>LOOKUP(A12,tareas!$A:$A,tareas!$G:$G)</f>
+        <v>6</v>
+      </c>
+      <c r="J12" s="16">
+        <v>1</v>
+      </c>
+      <c r="K12" s="16">
+        <v>1</v>
+      </c>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="18"/>
-      <c r="B13" s="20"/>
-      <c r="E13" s="19"/>
-      <c r="G13" s="19"/>
+    <row r="13" spans="1:24" ht="25.5">
+      <c r="A13" s="18">
+        <v>57</v>
+      </c>
+      <c r="B13" s="20" t="str">
+        <f>LOOKUP(A13,tareas!$A:$A,tareas!$B:$B)</f>
+        <v>Configurar el repositorio local de la aplicación.</v>
+      </c>
+      <c r="C13" s="17">
+        <f>LOOKUP(A13,tareas!$A:$A,tareas!$C:$C)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="17">
+        <f>LOOKUP(A13,tareas!$A:$A,tareas!$D:$D)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <f>LOOKUP(A13,tareas!$A:$A,tareas!$E:$E)</f>
+        <v>5</v>
+      </c>
+      <c r="F13" s="15">
+        <f>E13/SUM(tiempo!$J$7:$J$8)</f>
+        <v>0.12658227848101267</v>
+      </c>
+      <c r="G13" s="19">
+        <f>LOOKUP(A13,tareas!$A:$A,tareas!$G:$G)</f>
+        <v>7</v>
+      </c>
       <c r="H13" s="21"/>
+      <c r="I13" s="16">
+        <f>$E$13/5</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="16">
+        <f t="shared" ref="J13:M13" si="2">$E$13/5</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:24">

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="439" activeTab="5"/>
+    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="439" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ganancias" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="146">
   <si>
     <t>Semana</t>
   </si>
@@ -61,15 +61,6 @@
   </si>
   <si>
     <t>Ver video tutorial de GitHub.</t>
-  </si>
-  <si>
-    <t>Realizar el lanzamiento del ciclo #1 de TSPi.</t>
-  </si>
-  <si>
-    <t>Definir la estrategía de desarrollo del ciclo #1 de TSPi.</t>
-  </si>
-  <si>
-    <t>Elaborar el plan del ciclo #1 de TSPi.</t>
   </si>
   <si>
     <t>Crear la plantilla para las agendas de las reuniones con los clientes.</t>
@@ -120,18 +111,6 @@
     <t>Crear la versión final del documento de requerimientos.</t>
   </si>
   <si>
-    <t>Elaborar el reporte de cierre del ciclo #1 de TSPi.</t>
-  </si>
-  <si>
-    <t>Realizar el lanzamiento del ciclo #2 de TSPi.</t>
-  </si>
-  <si>
-    <t>Definir la estrategía de desarrolo del ciclo #2 de TSPi.</t>
-  </si>
-  <si>
-    <t>Elaborar el plan del ciclo #2 de TSPi.</t>
-  </si>
-  <si>
     <t>Crear el esquema del documento de arquitectura.</t>
   </si>
   <si>
@@ -162,13 +141,7 @@
     <t>Documentar las tácticas y patrones a utilizar en el documento de arquitectura.</t>
   </si>
   <si>
-    <t>Elaborar el modelo físico de data de la arquitectura.</t>
-  </si>
-  <si>
     <t>Elaborar el diagrama de flujo del algoritmo de calendarización.</t>
-  </si>
-  <si>
-    <t>Elaborar el diagrama de la estructura de archivos del plug-in.</t>
   </si>
   <si>
     <t>Elaborar la conclusión del documento de arquitectura.</t>
@@ -181,12 +154,6 @@
   </si>
   <si>
     <t>Presentar al equipo el framework Rails.</t>
-  </si>
-  <si>
-    <t>Mockup de la vista de la calendarización.</t>
-  </si>
-  <si>
-    <t>Elaborar el reporte de cierre del ciclo #2 de TSPi.</t>
   </si>
   <si>
     <t>Team Leader</t>
@@ -216,37 +183,13 @@
     <t>Process/Quality Manager</t>
   </si>
   <si>
-    <t>Realizar el lanzamiento del ciclo #3 de TSPi.</t>
-  </si>
-  <si>
-    <t>Definir la estrategía de desarrolo del ciclo #3 de TSPi.</t>
-  </si>
-  <si>
-    <t>Elaborar el plan del ciclo #3 de TSPi.</t>
-  </si>
-  <si>
     <t>Elaborar el mockup de la vista para la asignación de la disponibilidad de los recursos.</t>
-  </si>
-  <si>
-    <t>Completar el mockup de la vista de calendarización.</t>
-  </si>
-  <si>
-    <t>Disponibles</t>
-  </si>
-  <si>
-    <t>Estimadas</t>
-  </si>
-  <si>
-    <t>Trabajadas</t>
   </si>
   <si>
     <t>Elaborar el mockup de la vista para ver la calendarización de uno o más recursos.</t>
   </si>
   <si>
     <t>Elaborar el pseudocódigo del algoritmo de calendarización.</t>
-  </si>
-  <si>
-    <t>Elaborar el algoritmo de construcción del grafo a partir del archivo csv.</t>
   </si>
   <si>
     <t>Configurar el repositorio global de la aplicación.</t>
@@ -259,6 +202,261 @@
   </si>
   <si>
     <t>Reunión #4 con el cliente.</t>
+  </si>
+  <si>
+    <t>Elaborar el mokcup de la vista de la calendarización.</t>
+  </si>
+  <si>
+    <t>Elaborar el algoritmo de construcción de la estructura a partir del archivo csv.</t>
+  </si>
+  <si>
+    <t>Horas Disponibles</t>
+  </si>
+  <si>
+    <t>Horas Estimadas</t>
+  </si>
+  <si>
+    <t>Horas Trabajadas</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo creo un resumen con los detalles del tutorial.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo completó la forma INFO. El equipo llego a un acuerdo con los goles del ciclo 1 y la fecha en que serán entregados los reportes semanales.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado un ciclo preeviamente. Cada miembro del equipo ha leído el capítulo correspondiente a su rol.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado un ciclo preeviamente.</t>
+  </si>
+  <si>
+    <t>Todos los miembros del equipo han leído los capítulos 1, 2, 3 y el apéndice A del libro Introduction to TSPi.</t>
+  </si>
+  <si>
+    <t>Todos los miembros del equipo han leído el capítulo 4 del libro Introduction to TSPi. El equipo ha completado el lanzamiento del ciclo #1.</t>
+  </si>
+  <si>
+    <t>El equipo estimó el tamaño y el tiempo de producción de los elementos a producir en el ciclo #1. El equipo definió el diseño conceptual del proyecto y completó la forma STRAT. El equipo documentó los riesgos y problemas encontrados.</t>
+  </si>
+  <si>
+    <t>El equipo estimó el tamaño y el tiempo de producción de los elementos a producir en el ciclo #1. El equipo definió actualizó el diseño conceptual del proyecto y completó la forma STRAT. El equipo actualizó el documento los riesgos y problemas.</t>
+  </si>
+  <si>
+    <t>Todos los miembros del equipo han leído el capítulo 5 del libro Introduction to TSPi. El equipo ha completado la estrategía de desarrollo del ciclo #1.</t>
+  </si>
+  <si>
+    <t>Definir la estrategía de desarrollo del ciclo #1.</t>
+  </si>
+  <si>
+    <t>Realizar el lanzamiento del ciclo #1.</t>
+  </si>
+  <si>
+    <t>Elaborar el plan del ciclo #1.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado y actualizado el plan de un ciclo preevio.</t>
+  </si>
+  <si>
+    <t>Elaborar el reporte de cierre del ciclo #1.</t>
+  </si>
+  <si>
+    <t>Elaborar el reporte de cierre del ciclo #2.</t>
+  </si>
+  <si>
+    <t>Se creó la plantilla para la agenda de las reuniones con los clientes.</t>
+  </si>
+  <si>
+    <t>Se creó la plantilla para las minutas de las reuniones con los clientes.</t>
+  </si>
+  <si>
+    <t>Se ha creado la plantilla para las agendas de las reuniones con los cliente.</t>
+  </si>
+  <si>
+    <t>Se creó la agenda para la reunión #1 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se ha creado y enviado la agenda para la reunión #1 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se creó la minuta de la reunión #1 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se creó el esquema del documento de requerimientos.</t>
+  </si>
+  <si>
+    <t>Se completaron las formas TASK y SCHEDULE para el equipo y cada miembro de este. El equipo completo las formas SUMP, SUMQ y SUMS.</t>
+  </si>
+  <si>
+    <t>Se ha creado la minuta de la reunión #1 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se ha identificado y documentado una lista de actores y casos de uso.</t>
+  </si>
+  <si>
+    <t>Se creó el borrador #1 del diagrama de casos de uso.</t>
+  </si>
+  <si>
+    <t>Se creó el borrador #1 del documento de los escenarios.</t>
+  </si>
+  <si>
+    <t>Se identificó y documentó una lista de actores y casos de uso, y de escenarios.</t>
+  </si>
+  <si>
+    <t>Se creó el borrador #1 del documento de requerimientos.</t>
+  </si>
+  <si>
+    <t>Se ha creado el borrador #1 del diagrama de casos de uso y del documento de escenarios. Se ha creado el esquema del documento de requerimientos.</t>
+  </si>
+  <si>
+    <t>Se creó la agenda para la reunión #2 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se ha creado y enviado la agenda para la reunión #2 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se ha creado la minuta de la reunión #2 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se actualizó la lista de actores, casos de uso y de escenarios.</t>
+  </si>
+  <si>
+    <t>Se ha actualizado la lista de actores, casos de uso y escenarios. Se ha creado el borrador #1 del diagrama de casos de uso.</t>
+  </si>
+  <si>
+    <t>Se creó la versión final del diagrama de casos de uso.</t>
+  </si>
+  <si>
+    <t>Se ha creado la versión final del diagrama de casos de uso.</t>
+  </si>
+  <si>
+    <t>Se creó el documento de los casos de uso extendidos.</t>
+  </si>
+  <si>
+    <t>Se ha actualizado la lista de actores, casos de uso y escenarios. Se ha creado el borrador #1 del documento de los escenarios.</t>
+  </si>
+  <si>
+    <t>Se creó la versión final del documento de los escenarios.</t>
+  </si>
+  <si>
+    <t>Se ha creado el borrador #1 del documento de requerimientos. Se ha creado la versión final del diagrama de casos de uso y del documento de escenarios. Se ha creado el documento de los casos de uso extendidos.</t>
+  </si>
+  <si>
+    <t>Se creó la versión final del documento de requerimientos.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo ha leído los capítulos 10, 16, 17 y 18 del libro Introduction to TSPi. El equipo ha completado los productos especificados. El equipo ha acumulado toda la información y ha completado todas las formas requeridas.</t>
+  </si>
+  <si>
+    <t>El equipo ha completado los productos especificados. El equipo ha acumulado toda la información y ha completado todas las formas requeridas.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo completó la forma PEER. Se creó el reporte del ciclo correspondiente. Se completaron las formas SUMP y SUMQ para el sistema y todos sus componentes.</t>
+  </si>
+  <si>
+    <t>Elaborar el reporte de cierre del ciclo #3.</t>
+  </si>
+  <si>
+    <t>Realizar el lanzamiento del ciclo #3.</t>
+  </si>
+  <si>
+    <t>Definir la estrategía de desarrolo del ciclo #3.</t>
+  </si>
+  <si>
+    <t>Elaborar el plan del ciclo #3.</t>
+  </si>
+  <si>
+    <t>Realizar el lanzamiento del ciclo #2.</t>
+  </si>
+  <si>
+    <t>Definir la estrategía de desarrolo del ciclo #2.</t>
+  </si>
+  <si>
+    <t>Elaborar el plan del ciclo #2.</t>
+  </si>
+  <si>
+    <t>Se creó el esquema del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se ha creado la versión final del documento de requerimientos.</t>
+  </si>
+  <si>
+    <t>Se creó la agenda para la reunión #3 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se creó la minuta de la reunión #2 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se ha creado y enviado la agenda para la reunión #3 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se creó la minuta de la reunión #3 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se creó una presentación con los detalles de la arquitectura y el funcionamiento de RedMine.</t>
+  </si>
+  <si>
+    <t>Se ha creado una presentación con los detalles de la arquitectura y el funcionamiento de RedMine.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo creó un resumen con los detalles de la presentación.</t>
+  </si>
+  <si>
+    <t>Se elaboró la introducción del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se elaboró el fondo del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se elaboró el diagrama de contexto de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Se creó un documento el cuál especifica las tácticas y patrones que serán utilizados, así como también, las vistas y estilos que serán utilizadas para demostrar el uso de las tácticas y patrones.</t>
+  </si>
+  <si>
+    <t>Se ha completado la reunión de equipo para analizar la versión final del documento de requerimientos. Se ha creado el esquema del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se ha completado la reunión de equipo para analizar la versión final del documento de requerimientos. Se ha creado el esquema del documento de arquitectura. Se ha elaborado la introducción del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se ha completado la reunión de equipo para analizar la versión final del documento de requerimientos.</t>
+  </si>
+  <si>
+    <t>Se documentaron las tácticas y patrones a utilizar.</t>
+  </si>
+  <si>
+    <t>Elaborar diagrama del modelo físico de data de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Se creó el diagrama del modelo físico de data.</t>
+  </si>
+  <si>
+    <t>Se creó el diagrama de flujo del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Se creó el diagrama de la estructura de archivos.</t>
+  </si>
+  <si>
+    <t>Elaborar el diagrama de la estructura de archivos de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Se elaboró la conclusión del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se han elaborado el fondo, documentado las tácticas y patrones, y diagramado las vistas de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo creó un resumen con los detalles del tutorial.</t>
+  </si>
+  <si>
+    <t>Se creó una presentación con los detalles de la arquitectura y el funcionamiento de Ruby on Rails.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo ha creado un resumen con los detalles del tutorial básico de ruby. Se ha creado una presentación con los detalles de la arquitectura y el funcionamiento de Ruby on Rails.</t>
+  </si>
+  <si>
+    <t>Se elaboró el mockup de la vista de la calendarización.</t>
   </si>
 </sst>
 </file>
@@ -363,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -467,29 +665,23 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -598,37 +790,37 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.1751824817518248</c:v>
+                  <c:v>0.17955112219451372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33819951338199505</c:v>
+                  <c:v>0.34663341645885287</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47445255474452547</c:v>
+                  <c:v>0.486284289276808</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64476885644768844</c:v>
+                  <c:v>0.6608478802992519</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80778588807785878</c:v>
+                  <c:v>0.82793017456359097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97566909975669092</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,61 +847,61 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.1119221411192214</c:v>
+                  <c:v>0.11471321695760599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17761557177615572</c:v>
+                  <c:v>0.18204488778054861</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35279805352798055</c:v>
+                  <c:v>0.36159600997506236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47445255474452552</c:v>
+                  <c:v>0.486284289276808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67396593673965932</c:v>
+                  <c:v>0.69077306733167088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67396593673965932</c:v>
+                  <c:v>0.69077306733167088</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67396593673965932</c:v>
+                  <c:v>0.69077306733167088</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.67396593673965932</c:v>
+                  <c:v>0.69077306733167088</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67396593673965932</c:v>
+                  <c:v>0.69077306733167088</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67396593673965932</c:v>
+                  <c:v>0.69077306733167088</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67396593673965932</c:v>
+                  <c:v>0.69077306733167088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66384640"/>
-        <c:axId val="66386176"/>
+        <c:axId val="72039424"/>
+        <c:axId val="72045312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66384640"/>
+        <c:axId val="72039424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66386176"/>
+        <c:crossAx val="72045312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66386176"/>
+        <c:axId val="72045312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +909,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66384640"/>
+        <c:crossAx val="72039424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -730,13 +922,180 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ganancias!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje individual de ganancias estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>ganancias!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.17955112219451372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16708229426433915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13965087281795513</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17456359102244393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16708229426433913</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.172069825436409</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ganancias!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje individual de ganancias obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>ganancias!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.11471321695760599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7331670822942641E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17955112219451372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12468827930174564</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20448877805486287</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="135852800"/>
+        <c:axId val="137906816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="135852800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="137906816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="137906816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135852800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -754,7 +1113,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Disponibles</c:v>
+                  <c:v>Horas Disponibles</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -811,7 +1170,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Estimadas</c:v>
+                  <c:v>Horas Estimadas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -841,7 +1200,7 @@
                   <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -868,7 +1227,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trabajadas</c:v>
+                  <c:v>Horas Trabajadas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -916,24 +1275,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="66219392"/>
-        <c:axId val="66225280"/>
+        <c:axId val="72357760"/>
+        <c:axId val="72359296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66219392"/>
+        <c:axId val="72357760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66225280"/>
+        <c:crossAx val="72359296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66225280"/>
+        <c:axId val="72359296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +1300,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66219392"/>
+        <c:crossAx val="72357760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -954,7 +1313,117 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total de horas disponibles</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>tiempo!$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Total de horas estimadas</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>tiempo!$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Total de horas trabajadas</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>tiempo!$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>172.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="102144256"/>
+        <c:axId val="102158336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="102144256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102158336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102158336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102144256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -992,6 +1461,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1006,7 +1505,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
+      <xdr:colOff>714375</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
@@ -1022,6 +1521,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1318,7 +1847,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1364,20 +1893,20 @@
       <c r="C2" s="37"/>
       <c r="D2" s="5">
         <f>SUMIF(tareas!$G:$G,A2,tareas!$F:$F)</f>
-        <v>0.1751824817518248</v>
+        <v>0.17955112219451372</v>
       </c>
       <c r="E2" s="6">
         <f>D2</f>
-        <v>0.1751824817518248</v>
+        <v>0.17955112219451372</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="6">
         <f>SUMIF(tareas!$J:$J,A2,tareas!$I:$I)</f>
-        <v>0.1119221411192214</v>
+        <v>0.11471321695760599</v>
       </c>
       <c r="H2" s="6">
         <f>G2</f>
-        <v>0.1119221411192214</v>
+        <v>0.11471321695760599</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1391,20 +1920,20 @@
       <c r="C3" s="37"/>
       <c r="D3" s="5">
         <f>SUMIF(tareas!$G:$G,A3,tareas!$F:$F)</f>
-        <v>0.16301703163017028</v>
+        <v>0.16708229426433915</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E12" si="1">D3+E2</f>
-        <v>0.33819951338199505</v>
+        <v>0.34663341645885287</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="6">
         <f>SUMIF(tareas!$J:$J,A3,tareas!$I:$I)</f>
-        <v>6.569343065693431E-2</v>
+        <v>6.7331670822942641E-2</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H12" si="2">G3+H2</f>
-        <v>0.17761557177615572</v>
+        <v>0.18204488778054861</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1418,20 +1947,20 @@
       <c r="C4" s="37"/>
       <c r="D4" s="5">
         <f>SUMIF(tareas!$G:$G,A4,tareas!$F:$F)</f>
-        <v>0.13625304136253041</v>
+        <v>0.13965087281795513</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>0.47445255474452547</v>
+        <v>0.486284289276808</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="6">
         <f>SUMIF(tareas!$J:$J,A4,tareas!$I:$I)</f>
-        <v>0.17518248175182483</v>
+        <v>0.17955112219451372</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="2"/>
-        <v>0.35279805352798055</v>
+        <v>0.36159600997506236</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1445,20 +1974,20 @@
       <c r="C5" s="37"/>
       <c r="D5" s="5">
         <f>SUMIF(tareas!$G:$G,A5,tareas!$F:$F)</f>
-        <v>0.170316301703163</v>
+        <v>0.17456359102244393</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>0.64476885644768844</v>
+        <v>0.6608478802992519</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="6">
         <f>SUMIF(tareas!$J:$J,A5,tareas!$I:$I)</f>
-        <v>0.121654501216545</v>
+        <v>0.12468827930174564</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="2"/>
-        <v>0.47445255474452552</v>
+        <v>0.486284289276808</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1472,20 +2001,20 @@
       <c r="C6" s="37"/>
       <c r="D6" s="5">
         <f>SUMIF(tareas!$G:$G,A6,tareas!$F:$F)</f>
-        <v>0.16301703163017031</v>
+        <v>0.16708229426433913</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>0.80778588807785878</v>
+        <v>0.82793017456359097</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="6">
         <f>SUMIF(tareas!$J:$J,A6,tareas!$I:$I)</f>
-        <v>0.19951338199513383</v>
+        <v>0.20448877805486287</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="2"/>
-        <v>0.67396593673965932</v>
+        <v>0.69077306733167088</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1499,11 +2028,11 @@
       <c r="C7" s="37"/>
       <c r="D7" s="5">
         <f>SUMIF(tareas!$G:$G,A7,tareas!$F:$F)</f>
-        <v>0.16788321167883211</v>
+        <v>0.172069825436409</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>0.97566909975669092</v>
+        <v>1</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="6">
@@ -1512,7 +2041,7 @@
       </c>
       <c r="H7" s="6">
         <f t="shared" si="2"/>
-        <v>0.67396593673965932</v>
+        <v>0.69077306733167088</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1526,11 +2055,11 @@
       <c r="C8" s="37"/>
       <c r="D8" s="5">
         <f>SUMIF(tareas!$G:$G,A8,tareas!$F:$F)</f>
-        <v>2.4330900243309004E-2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="6">
@@ -1539,7 +2068,7 @@
       </c>
       <c r="H8" s="6">
         <f t="shared" si="2"/>
-        <v>0.67396593673965932</v>
+        <v>0.69077306733167088</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1557,7 +2086,7 @@
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="6">
@@ -1566,7 +2095,7 @@
       </c>
       <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>0.67396593673965932</v>
+        <v>0.69077306733167088</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1584,7 +2113,7 @@
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="6">
@@ -1593,7 +2122,7 @@
       </c>
       <c r="H10" s="6">
         <f t="shared" si="2"/>
-        <v>0.67396593673965932</v>
+        <v>0.69077306733167088</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1611,7 +2140,7 @@
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="6">
@@ -1620,7 +2149,7 @@
       </c>
       <c r="H11" s="6">
         <f t="shared" si="2"/>
-        <v>0.67396593673965932</v>
+        <v>0.69077306733167088</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1638,7 +2167,7 @@
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="6">
@@ -1647,7 +2176,7 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" si="2"/>
-        <v>0.67396593673965932</v>
+        <v>0.69077306733167088</v>
       </c>
     </row>
   </sheetData>
@@ -1666,7 +2195,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1687,45 +2216,45 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D1" s="33"/>
       <c r="E1" s="9" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="K1" s="33"/>
       <c r="L1" s="9" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2010,23 +2539,23 @@
       <c r="D7" s="32"/>
       <c r="E7" s="8">
         <f>SUMIF('3'!$G:$G,A7,'3'!$I:$I)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F7" s="8">
         <f>SUMIF('3'!$G:$G,A7,'3'!$J:$J)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
         <f>SUMIF('3'!$G:$G,A7,'3'!$K:$K)</f>
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="8">
         <f>SUMIF('3'!$G:$G,A7,'3'!$L:$L)</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="8">
         <f>SUMIF('3'!$G:$G,A7,'3'!$M:$M)</f>
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="J7" s="8">
         <f>SUMIF(tareas!G:G,A7,tareas!E:E)</f>
@@ -2054,27 +2583,27 @@
       <c r="D8" s="32"/>
       <c r="E8" s="8">
         <f>SUMIF('3'!$G:$G,A8,'3'!$I:$I)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="8">
         <f>SUMIF('3'!$G:$G,A8,'3'!$J:$J)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8">
         <f>SUMIF('3'!$G:$G,A8,'3'!$K:$K)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="8">
         <f>SUMIF('3'!$G:$G,A8,'3'!$L:$L)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="8">
         <f>SUMIF('3'!$G:$G,A8,'3'!$M:$M)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="8">
         <f>SUMIF(tareas!G:G,A8,tareas!E:E)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -2269,27 +2798,27 @@
       </c>
       <c r="E14" s="7">
         <f>SUM(E2:E12)</f>
-        <v>43.5</v>
+        <v>35.5</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" ref="F14:I14" si="2">SUM(F2:F12)</f>
-        <v>48.5</v>
+        <v>40.5</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>27.5</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>34.5</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="2"/>
-        <v>35.5</v>
+        <v>28</v>
       </c>
       <c r="J14" s="7">
         <f>SUM(J2:J12)</f>
-        <v>205.5</v>
+        <v>200.5</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" ref="L14:Q14" si="3">SUM(L2:L12)</f>
@@ -2319,7 +2848,7 @@
     <row r="15" spans="1:17">
       <c r="J15" s="7">
         <f>J14-SUM(E14:I14)</f>
-        <v>0</v>
+        <v>34.5</v>
       </c>
     </row>
   </sheetData>
@@ -2332,15 +2861,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK60"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="42" customWidth="1"/>
-    <col min="3" max="4" width="45.7109375" style="40" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="17" customWidth="1"/>
+    <col min="3" max="4" width="45.7109375" style="39" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="16" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="15" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="16" customWidth="1"/>
@@ -2376,15 +2905,18 @@
         <v>6</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1025">
+    <row r="2" spans="1:1025" ht="25.5">
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="42" t="s">
         <v>13</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="E2" s="19">
         <f>7.5</f>
@@ -2392,14 +2924,14 @@
       </c>
       <c r="F2" s="15">
         <f>E2/tiempo!$J$14</f>
-        <v>3.6496350364963501E-2</v>
+        <v>3.7406483790523692E-2</v>
       </c>
       <c r="G2" s="18">
         <v>1</v>
       </c>
       <c r="I2" s="15">
         <f>IF(ISBLANK(LOOKUP(A2,'1'!$A:$A,'1'!$R:$R)),0,F2)</f>
-        <v>3.6496350364963501E-2</v>
+        <v>3.7406483790523692E-2</v>
       </c>
       <c r="J2" s="16">
         <f>LOOKUP(A2,'1'!$A:$A,'1'!$R:$R)</f>
@@ -3421,26 +3953,32 @@
       <c r="AMJ2" s="16"/>
       <c r="AMK2" s="16"/>
     </row>
-    <row r="3" spans="1:1025">
+    <row r="3" spans="1:1025" ht="38.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>14</v>
+      <c r="B3" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="E3" s="19">
         <v>5</v>
       </c>
       <c r="F3" s="15">
         <f>E3/tiempo!$J$14</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="G3" s="18">
         <v>1</v>
       </c>
       <c r="I3" s="15">
         <f>IF(ISBLANK(LOOKUP(A3,'1'!$A:$A,'1'!$R:$R)),0,F3)</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="J3" s="16">
         <f>LOOKUP(A3,'1'!$A:$A,'1'!$R:$R)</f>
@@ -4462,26 +5000,32 @@
       <c r="AMJ3" s="16"/>
       <c r="AMK3" s="16"/>
     </row>
-    <row r="4" spans="1:1025" ht="25.5">
+    <row r="4" spans="1:1025" ht="63.75">
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>15</v>
+      <c r="B4" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="E4" s="19">
         <v>5</v>
       </c>
       <c r="F4" s="15">
         <f>E4/tiempo!$J$14</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="G4" s="18">
         <v>1</v>
       </c>
       <c r="I4" s="15">
         <f>IF(ISBLANK(LOOKUP(A4,'1'!$A:$A,'1'!$R:$R)),0,F4)</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="J4" s="16">
         <f>LOOKUP(A4,'1'!$A:$A,'1'!$R:$R)</f>
@@ -5503,26 +6047,32 @@
       <c r="AMJ4" s="16"/>
       <c r="AMK4" s="16"/>
     </row>
-    <row r="5" spans="1:1025">
+    <row r="5" spans="1:1025" ht="38.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>16</v>
+      <c r="B5" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>88</v>
       </c>
       <c r="E5" s="19">
         <v>2</v>
       </c>
       <c r="F5" s="15">
         <f>E5/tiempo!$J$14</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="G5" s="18">
         <v>1</v>
       </c>
       <c r="I5" s="15">
         <f>IF(ISBLANK(LOOKUP(A5,'1'!$A:$A,'1'!$R:$R)),0,F5)</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="J5" s="16">
         <f>LOOKUP(A5,'1'!$A:$A,'1'!$R:$R)</f>
@@ -6548,22 +7098,25 @@
       <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>17</v>
+      <c r="B6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>81</v>
       </c>
       <c r="E6" s="21">
         <v>0.5</v>
       </c>
       <c r="F6" s="15">
         <f>E6/tiempo!$J$14</f>
-        <v>2.4330900243309003E-3</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="G6" s="22">
         <v>1</v>
       </c>
       <c r="I6" s="15">
         <f>IF(ISBLANK(LOOKUP(A6,'1'!$A:$A,'1'!$R:$R)),0,F6)</f>
-        <v>2.4330900243309003E-3</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="J6" s="16">
         <f>LOOKUP(A6,'1'!$A:$A,'1'!$R:$R)</f>
@@ -7589,22 +8142,25 @@
       <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>18</v>
+      <c r="B7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>82</v>
       </c>
       <c r="E7" s="21">
         <v>0.5</v>
       </c>
       <c r="F7" s="15">
         <f>E7/tiempo!$J$14</f>
-        <v>2.4330900243309003E-3</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="G7" s="21">
         <v>1</v>
       </c>
       <c r="I7" s="15">
         <f>IF(ISBLANK(LOOKUP(A7,'1'!$A:$A,'1'!$R:$R)),0,F7)</f>
-        <v>2.4330900243309003E-3</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="J7" s="16">
         <f>LOOKUP(A7,'1'!$A:$A,'1'!$R:$R)</f>
@@ -8630,22 +9186,28 @@
       <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>19</v>
+      <c r="B8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>84</v>
       </c>
       <c r="E8" s="21">
         <v>0.5</v>
       </c>
       <c r="F8" s="15">
         <f>E8/tiempo!$J$14</f>
-        <v>2.4330900243309003E-3</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="G8" s="21">
         <v>1</v>
       </c>
       <c r="I8" s="15">
         <f>IF(ISBLANK(LOOKUP(A8,'1'!$A:$A,'1'!$R:$R)),0,F8)</f>
-        <v>2.4330900243309003E-3</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="J8" s="16">
         <f>LOOKUP(A8,'1'!$A:$A,'1'!$R:$R)</f>
@@ -9667,26 +10229,32 @@
       <c r="AMJ8" s="16"/>
       <c r="AMK8" s="16"/>
     </row>
-    <row r="9" spans="1:1025">
+    <row r="9" spans="1:1025" ht="25.5">
       <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>20</v>
+      <c r="B9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>86</v>
       </c>
       <c r="E9" s="21">
         <v>2</v>
       </c>
       <c r="F9" s="15">
         <f>E9/tiempo!$J$14</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="G9" s="21">
         <v>1</v>
       </c>
       <c r="I9" s="15">
         <f>IF(ISBLANK(LOOKUP(A9,'1'!$A:$A,'1'!$R:$R)),0,F9)</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="J9" s="16">
         <f>LOOKUP(A9,'1'!$A:$A,'1'!$R:$R)</f>
@@ -10712,22 +11280,25 @@
       <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>21</v>
+      <c r="B10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="E10" s="21">
         <v>3</v>
       </c>
       <c r="F10" s="15">
         <f>E10/tiempo!$J$14</f>
-        <v>1.4598540145985401E-2</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="G10" s="21">
         <v>1</v>
       </c>
       <c r="I10" s="15">
         <f>IF(ISBLANK(LOOKUP(A10,'1'!$A:$A,'1'!$R:$R)),0,F10)</f>
-        <v>1.4598540145985401E-2</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="J10" s="16">
         <f>LOOKUP(A10,'1'!$A:$A,'1'!$R:$R)</f>
@@ -11753,15 +12324,15 @@
       <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>62</v>
+      <c r="B11" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="21">
         <v>10</v>
       </c>
       <c r="F11" s="15">
         <f>E11/tiempo!$J$14</f>
-        <v>4.8661800486618008E-2</v>
+        <v>4.9875311720698257E-2</v>
       </c>
       <c r="G11" s="21">
         <v>1</v>
@@ -12787,15 +13358,15 @@
       <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>63</v>
+      <c r="B12" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="E12" s="16">
         <v>15</v>
       </c>
       <c r="F12" s="15">
         <f>E12/tiempo!$J$14</f>
-        <v>7.2992700729927001E-2</v>
+        <v>7.4812967581047385E-2</v>
       </c>
       <c r="G12" s="16">
         <v>2</v>
@@ -13821,22 +14392,28 @@
       <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>22</v>
+      <c r="B13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>93</v>
       </c>
       <c r="E13" s="21">
         <v>10</v>
       </c>
       <c r="F13" s="15">
         <f>E13/tiempo!$J$14</f>
-        <v>4.8661800486618008E-2</v>
+        <v>4.9875311720698257E-2</v>
       </c>
       <c r="G13" s="21">
         <v>2</v>
       </c>
       <c r="I13" s="15">
         <f>IF(ISBLANK(LOOKUP(A13,'1'!$A:$A,'1'!$R:$R)),0,F13)</f>
-        <v>4.8661800486618008E-2</v>
+        <v>4.9875311720698257E-2</v>
       </c>
       <c r="J13" s="16">
         <f>LOOKUP(A13,'1'!$A:$A,'1'!$R:$R)</f>
@@ -14862,22 +15439,28 @@
       <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>23</v>
+      <c r="B14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>91</v>
       </c>
       <c r="E14" s="21">
         <v>2</v>
       </c>
       <c r="F14" s="15">
         <f>E14/tiempo!$J$14</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="G14" s="21">
         <v>2</v>
       </c>
       <c r="I14" s="15">
         <f>IF(ISBLANK(LOOKUP(A14,'1'!$A:$A,'1'!$R:$R)),0,F14)</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="J14" s="16">
         <f>LOOKUP(A14,'1'!$A:$A,'1'!$R:$R)</f>
@@ -15903,22 +16486,28 @@
       <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>24</v>
+      <c r="B15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>92</v>
       </c>
       <c r="E15" s="21">
         <v>2</v>
       </c>
       <c r="F15" s="15">
         <f>E15/tiempo!$J$14</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="G15" s="21">
         <v>2</v>
       </c>
       <c r="I15" s="15">
         <f>IF(ISBLANK(LOOKUP(A15,'1'!$A:$A,'1'!$R:$R)),0,F15)</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="J15" s="16">
         <f>LOOKUP(A15,'1'!$A:$A,'1'!$R:$R)</f>
@@ -16940,26 +17529,32 @@
       <c r="AMJ15" s="16"/>
       <c r="AMK15" s="16"/>
     </row>
-    <row r="16" spans="1:1025" ht="25.5">
+    <row r="16" spans="1:1025" ht="38.25">
       <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="41" t="s">
-        <v>25</v>
+      <c r="B16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>94</v>
       </c>
       <c r="E16" s="21">
         <v>4</v>
       </c>
       <c r="F16" s="15">
         <f>E16/tiempo!$J$14</f>
-        <v>1.9464720194647202E-2</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="G16" s="21">
         <v>2</v>
       </c>
       <c r="I16" s="15">
         <f>IF(ISBLANK(LOOKUP(A16,'1'!$A:$A,'1'!$R:$R)),0,F16)</f>
-        <v>1.9464720194647202E-2</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="J16" s="16">
         <f>LOOKUP(A16,'1'!$A:$A,'1'!$R:$R)</f>
@@ -17985,22 +18580,28 @@
       <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>26</v>
+      <c r="B17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>96</v>
       </c>
       <c r="E17" s="21">
         <v>0.5</v>
       </c>
       <c r="F17" s="15">
         <f>E17/tiempo!$J$14</f>
-        <v>2.4330900243309003E-3</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="G17" s="21">
         <v>2</v>
       </c>
       <c r="I17" s="15">
         <f>IF(ISBLANK(LOOKUP(A17,'1'!$A:$A,'1'!$R:$R)),0,F17)</f>
-        <v>2.4330900243309003E-3</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="J17" s="16">
         <f>LOOKUP(A17,'1'!$A:$A,'1'!$R:$R)</f>
@@ -19022,26 +19623,32 @@
       <c r="AMJ17" s="16"/>
       <c r="AMK17" s="16"/>
     </row>
-    <row r="18" spans="1:1025">
+    <row r="18" spans="1:1025" ht="25.5">
       <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="41" t="s">
-        <v>27</v>
+      <c r="B18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>121</v>
       </c>
       <c r="E18" s="21">
         <v>2</v>
       </c>
       <c r="F18" s="15">
         <f>E18/tiempo!$J$14</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="G18" s="21">
         <v>3</v>
       </c>
       <c r="I18" s="15">
         <f>IF(ISBLANK(LOOKUP(A18,'1'!$A:$A,'1'!$R:$R)),0,F18)</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="J18" s="16">
         <f>LOOKUP(A18,'1'!$A:$A,'1'!$R:$R)</f>
@@ -20067,22 +20674,28 @@
       <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>28</v>
+      <c r="B19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="E19" s="21">
         <v>10</v>
       </c>
       <c r="F19" s="15">
         <f>E19/tiempo!$J$14</f>
-        <v>4.8661800486618008E-2</v>
+        <v>4.9875311720698257E-2</v>
       </c>
       <c r="G19" s="21">
         <v>3</v>
       </c>
       <c r="I19" s="15">
         <f>IF(ISBLANK(LOOKUP(A19,'1'!$A:$A,'1'!$R:$R)),0,F19)</f>
-        <v>4.8661800486618008E-2</v>
+        <v>4.9875311720698257E-2</v>
       </c>
       <c r="J19" s="16">
         <f>LOOKUP(A19,'1'!$A:$A,'1'!$R:$R)</f>
@@ -21104,26 +21717,32 @@
       <c r="AMJ19" s="16"/>
       <c r="AMK19" s="16"/>
     </row>
-    <row r="20" spans="1:1025" ht="25.5">
+    <row r="20" spans="1:1025" ht="38.25">
       <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>29</v>
+      <c r="B20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>101</v>
       </c>
       <c r="E20" s="16">
         <v>2</v>
       </c>
       <c r="F20" s="15">
         <f>E20/tiempo!$J$14</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="G20" s="16">
         <v>3</v>
       </c>
       <c r="I20" s="15">
         <f>IF(ISBLANK(LOOKUP(A20,'1'!$A:$A,'1'!$R:$R)),0,F20)</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="J20" s="16">
         <f>LOOKUP(A20,'1'!$A:$A,'1'!$R:$R)</f>
@@ -22145,26 +22764,32 @@
       <c r="AMJ20" s="16"/>
       <c r="AMK20" s="16"/>
     </row>
-    <row r="21" spans="1:1025">
+    <row r="21" spans="1:1025" ht="25.5">
       <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="42" t="s">
-        <v>30</v>
+      <c r="B21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>103</v>
       </c>
       <c r="E21" s="16">
         <v>3</v>
       </c>
       <c r="F21" s="15">
         <f>E21/tiempo!$J$14</f>
-        <v>1.4598540145985401E-2</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="G21" s="16">
         <v>3</v>
       </c>
       <c r="I21" s="15">
         <f>IF(ISBLANK(LOOKUP(A21,'1'!$A:$A,'1'!$R:$R)),0,F21)</f>
-        <v>1.4598540145985401E-2</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="J21" s="16">
         <f>LOOKUP(A21,'1'!$A:$A,'1'!$R:$R)</f>
@@ -23186,26 +23811,32 @@
       <c r="AMJ21" s="16"/>
       <c r="AMK21" s="16"/>
     </row>
-    <row r="22" spans="1:1025" ht="25.5">
+    <row r="22" spans="1:1025" ht="38.25">
       <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>31</v>
+      <c r="B22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>105</v>
       </c>
       <c r="E22" s="16">
         <v>2</v>
       </c>
       <c r="F22" s="15">
         <f>E22/tiempo!$J$14</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="G22" s="16">
         <v>3</v>
       </c>
       <c r="I22" s="15">
         <f>IF(ISBLANK(LOOKUP(A22,'1'!$A:$A,'1'!$R:$R)),0,F22)</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="J22" s="16">
         <f>LOOKUP(A22,'1'!$A:$A,'1'!$R:$R)</f>
@@ -24227,26 +24858,32 @@
       <c r="AMJ22" s="16"/>
       <c r="AMK22" s="16"/>
     </row>
-    <row r="23" spans="1:1025" ht="25.5">
+    <row r="23" spans="1:1025" ht="51">
       <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="B23" s="42" t="s">
-        <v>32</v>
+      <c r="B23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>107</v>
       </c>
       <c r="E23" s="16">
         <v>4</v>
       </c>
       <c r="F23" s="15">
         <f>E23/tiempo!$J$14</f>
-        <v>1.9464720194647202E-2</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="G23" s="16">
         <v>3</v>
       </c>
       <c r="I23" s="15">
         <f>IF(ISBLANK(LOOKUP(A23,'1'!$A:$A,'1'!$R:$R)),0,F23)</f>
-        <v>1.9464720194647202E-2</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="J23" s="16">
         <f>LOOKUP(A23,'1'!$A:$A,'1'!$R:$R)</f>
@@ -25268,26 +25905,32 @@
       <c r="AMJ23" s="16"/>
       <c r="AMK23" s="16"/>
     </row>
-    <row r="24" spans="1:1025" ht="25.5">
+    <row r="24" spans="1:1025" ht="63.75">
       <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>33</v>
+      <c r="B24" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>110</v>
       </c>
       <c r="E24" s="16">
         <v>5</v>
       </c>
       <c r="F24" s="15">
         <f>E24/tiempo!$J$14</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="G24" s="16">
         <v>3</v>
       </c>
       <c r="I24" s="15">
         <f>IF(ISBLANK(LOOKUP(A24,'1'!$A:$A,'1'!$R:$R)),0,F24)</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="J24" s="16">
         <f>LOOKUP(A24,'1'!$A:$A,'1'!$R:$R)</f>
@@ -26312,8 +26955,8 @@
     <row r="25" spans="1:1025" s="36" customFormat="1" ht="12.95" customHeight="1">
       <c r="A25" s="34"/>
       <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="35"/>
       <c r="F25" s="28"/>
       <c r="G25" s="35"/>
@@ -27336,26 +27979,32 @@
       <c r="AMJ25" s="29"/>
       <c r="AMK25" s="29"/>
     </row>
-    <row r="26" spans="1:1025">
+    <row r="26" spans="1:1025" ht="38.25">
       <c r="A26" s="18">
         <v>24</v>
       </c>
-      <c r="B26" s="41" t="s">
-        <v>34</v>
+      <c r="B26" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="E26" s="16">
         <v>5</v>
       </c>
       <c r="F26" s="15">
         <f>E26/tiempo!$J$14</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="G26" s="16">
         <v>4</v>
       </c>
       <c r="I26" s="15">
         <f>IF(ISBLANK(LOOKUP(A26,'2'!$A:$A,'2'!$R:$R)),0,F26)</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="J26" s="16">
         <f>LOOKUP(A26,'2'!$A:$A,'2'!$R:$R)</f>
@@ -28377,26 +29026,32 @@
       <c r="AMJ26" s="16"/>
       <c r="AMK26" s="16"/>
     </row>
-    <row r="27" spans="1:1025" ht="25.5">
+    <row r="27" spans="1:1025" ht="63.75">
       <c r="A27" s="18">
         <v>25</v>
       </c>
-      <c r="B27" s="42" t="s">
-        <v>35</v>
+      <c r="B27" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="E27" s="16">
         <v>5</v>
       </c>
       <c r="F27" s="15">
         <f>E27/tiempo!$J$14</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="G27" s="16">
         <v>4</v>
       </c>
       <c r="I27" s="15">
         <f>IF(ISBLANK(LOOKUP(A27,'2'!$A:$A,'2'!$R:$R)),0,F27)</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="J27" s="16">
         <f>LOOKUP(A27,'2'!$A:$A,'2'!$R:$R)</f>
@@ -29418,26 +30073,32 @@
       <c r="AMJ27" s="16"/>
       <c r="AMK27" s="16"/>
     </row>
-    <row r="28" spans="1:1025">
+    <row r="28" spans="1:1025" ht="38.25">
       <c r="A28" s="18">
         <v>26</v>
       </c>
-      <c r="B28" s="42" t="s">
-        <v>36</v>
+      <c r="B28" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>88</v>
       </c>
       <c r="E28" s="16">
         <v>2</v>
       </c>
       <c r="F28" s="15">
         <f>E28/tiempo!$J$14</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="G28" s="16">
         <v>4</v>
       </c>
       <c r="I28" s="15">
         <f>IF(ISBLANK(LOOKUP(A28,'2'!$A:$A,'2'!$R:$R)),0,F28)</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="J28" s="16">
         <f>LOOKUP(A28,'2'!$A:$A,'2'!$R:$R)</f>
@@ -30463,22 +31124,25 @@
       <c r="A29" s="18">
         <v>27</v>
       </c>
-      <c r="B29" s="42" t="s">
-        <v>37</v>
+      <c r="B29" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>118</v>
       </c>
       <c r="E29" s="16">
         <v>0.5</v>
       </c>
       <c r="F29" s="15">
         <f>E29/tiempo!$J$14</f>
-        <v>2.4330900243309003E-3</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="G29" s="16">
         <v>4</v>
       </c>
       <c r="I29" s="15">
         <f>IF(ISBLANK(LOOKUP(A29,'2'!$A:$A,'2'!$R:$R)),0,F29)</f>
-        <v>2.4330900243309003E-3</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="J29" s="16">
         <f>LOOKUP(A29,'2'!$A:$A,'2'!$R:$R)</f>
@@ -31500,12 +32164,18 @@
       <c r="AMJ29" s="16"/>
       <c r="AMK29" s="16"/>
     </row>
-    <row r="30" spans="1:1025" ht="25.5">
+    <row r="30" spans="1:1025" ht="51">
       <c r="A30" s="18">
         <v>28</v>
       </c>
-      <c r="B30" s="42" t="s">
-        <v>38</v>
+      <c r="B30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>130</v>
       </c>
       <c r="E30" s="16">
         <f>7.5</f>
@@ -31513,14 +32183,14 @@
       </c>
       <c r="F30" s="15">
         <f>E30/tiempo!$J$14</f>
-        <v>3.6496350364963501E-2</v>
+        <v>3.7406483790523692E-2</v>
       </c>
       <c r="G30" s="16">
         <v>4</v>
       </c>
       <c r="I30" s="15">
         <f>IF(ISBLANK(LOOKUP(A30,'2'!$A:$A,'2'!$R:$R)),0,F30)</f>
-        <v>3.6496350364963501E-2</v>
+        <v>3.7406483790523692E-2</v>
       </c>
       <c r="J30" s="16">
         <f>LOOKUP(A30,'2'!$A:$A,'2'!$R:$R)</f>
@@ -32546,22 +33216,28 @@
       <c r="A31" s="18">
         <v>29</v>
       </c>
-      <c r="B31" s="42" t="s">
-        <v>39</v>
+      <c r="B31" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>120</v>
       </c>
       <c r="E31" s="16">
         <v>0.5</v>
       </c>
       <c r="F31" s="15">
         <f>E31/tiempo!$J$14</f>
-        <v>2.4330900243309003E-3</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="G31" s="16">
         <v>4</v>
       </c>
       <c r="I31" s="15">
         <f>IF(ISBLANK(LOOKUP(A31,'2'!$A:$A,'2'!$R:$R)),0,F31)</f>
-        <v>2.4330900243309003E-3</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="J31" s="16">
         <f>LOOKUP(A31,'2'!$A:$A,'2'!$R:$R)</f>
@@ -33583,26 +34259,32 @@
       <c r="AMJ31" s="16"/>
       <c r="AMK31" s="16"/>
     </row>
-    <row r="32" spans="1:1025">
+    <row r="32" spans="1:1025" ht="25.5">
       <c r="A32" s="18">
         <v>30</v>
       </c>
-      <c r="B32" s="42" t="s">
-        <v>40</v>
+      <c r="B32" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>123</v>
       </c>
       <c r="E32" s="16">
         <v>2</v>
       </c>
       <c r="F32" s="15">
         <f>E32/tiempo!$J$14</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="G32" s="16">
         <v>4</v>
       </c>
       <c r="I32" s="15">
         <f>IF(ISBLANK(LOOKUP(A32,'2'!$A:$A,'2'!$R:$R)),0,F32)</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="J32" s="16">
         <f>LOOKUP(A32,'2'!$A:$A,'2'!$R:$R)</f>
@@ -34628,22 +35310,25 @@
       <c r="A33" s="18">
         <v>31</v>
       </c>
-      <c r="B33" s="42" t="s">
-        <v>41</v>
+      <c r="B33" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>124</v>
       </c>
       <c r="E33" s="16">
         <v>3</v>
       </c>
       <c r="F33" s="15">
         <f>E33/tiempo!$J$14</f>
-        <v>1.4598540145985401E-2</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="G33" s="16">
         <v>4</v>
       </c>
       <c r="I33" s="15">
         <f>IF(ISBLANK(LOOKUP(A33,'2'!$A:$A,'2'!$R:$R)),0,F33)</f>
-        <v>1.4598540145985401E-2</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="J33" s="16">
         <f>LOOKUP(A33,'2'!$A:$A,'2'!$R:$R)</f>
@@ -35669,22 +36354,28 @@
       <c r="A34" s="18">
         <v>32</v>
       </c>
-      <c r="B34" s="42" t="s">
-        <v>42</v>
+      <c r="B34" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="E34" s="16">
         <v>5</v>
       </c>
       <c r="F34" s="15">
         <f>E34/tiempo!$J$14</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="G34" s="16">
         <v>4</v>
       </c>
       <c r="I34" s="15">
         <f>IF(ISBLANK(LOOKUP(A34,'2'!$A:$A,'2'!$R:$R)),0,F34)</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="J34" s="16">
         <f>LOOKUP(A34,'2'!$A:$A,'2'!$R:$R)</f>
@@ -36706,26 +37397,32 @@
       <c r="AMJ34" s="16"/>
       <c r="AMK34" s="16"/>
     </row>
-    <row r="35" spans="1:1025" ht="25.5">
+    <row r="35" spans="1:1025" ht="38.25">
       <c r="A35" s="18">
         <v>33</v>
       </c>
-      <c r="B35" s="42" t="s">
-        <v>43</v>
+      <c r="B35" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>127</v>
       </c>
       <c r="E35" s="16">
         <v>0.5</v>
       </c>
       <c r="F35" s="15">
         <f>E35/tiempo!$J$14</f>
-        <v>2.4330900243309003E-3</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="G35" s="16">
         <v>4</v>
       </c>
       <c r="I35" s="15">
         <f>IF(ISBLANK(LOOKUP(A35,'2'!$A:$A,'2'!$R:$R)),0,F35)</f>
-        <v>2.4330900243309003E-3</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="J35" s="16">
         <f>LOOKUP(A35,'2'!$A:$A,'2'!$R:$R)</f>
@@ -37747,26 +38444,32 @@
       <c r="AMJ35" s="16"/>
       <c r="AMK35" s="16"/>
     </row>
-    <row r="36" spans="1:1025" ht="25.5">
+    <row r="36" spans="1:1025" ht="51">
       <c r="A36" s="18">
         <v>34</v>
       </c>
-      <c r="B36" s="42" t="s">
-        <v>44</v>
+      <c r="B36" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>128</v>
       </c>
       <c r="E36" s="16">
         <v>1</v>
       </c>
       <c r="F36" s="15">
         <f>E36/tiempo!$J$14</f>
-        <v>4.8661800486618006E-3</v>
+        <v>4.9875311720698253E-3</v>
       </c>
       <c r="G36" s="16">
         <v>4</v>
       </c>
       <c r="I36" s="15">
         <f>IF(ISBLANK(LOOKUP(A36,'2'!$A:$A,'2'!$R:$R)),0,F36)</f>
-        <v>4.8661800486618006E-3</v>
+        <v>4.9875311720698253E-3</v>
       </c>
       <c r="J36" s="16">
         <f>LOOKUP(A36,'2'!$A:$A,'2'!$R:$R)</f>
@@ -38788,26 +39491,32 @@
       <c r="AMJ36" s="16"/>
       <c r="AMK36" s="16"/>
     </row>
-    <row r="37" spans="1:1025" ht="25.5">
+    <row r="37" spans="1:1025" ht="38.25">
       <c r="A37" s="18">
         <v>35</v>
       </c>
-      <c r="B37" s="42" t="s">
-        <v>45</v>
+      <c r="B37" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="E37" s="16">
         <v>3</v>
       </c>
       <c r="F37" s="15">
         <f>E37/tiempo!$J$14</f>
-        <v>1.4598540145985401E-2</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="G37" s="16">
         <v>4</v>
       </c>
       <c r="I37" s="15">
         <f>IF(ISBLANK(LOOKUP(A37,'2'!$A:$A,'2'!$R:$R)),0,F37)</f>
-        <v>1.4598540145985401E-2</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="J37" s="16">
         <f>LOOKUP(A37,'2'!$A:$A,'2'!$R:$R)</f>
@@ -39829,26 +40538,32 @@
       <c r="AMJ37" s="16"/>
       <c r="AMK37" s="16"/>
     </row>
-    <row r="38" spans="1:1025" ht="25.5">
+    <row r="38" spans="1:1025" ht="38.25">
       <c r="A38" s="18">
         <v>36</v>
       </c>
-      <c r="B38" s="42" t="s">
-        <v>46</v>
+      <c r="B38" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>134</v>
       </c>
       <c r="E38" s="16">
         <v>1</v>
       </c>
       <c r="F38" s="15">
         <f>E38/tiempo!$J$14</f>
-        <v>4.8661800486618006E-3</v>
+        <v>4.9875311720698253E-3</v>
       </c>
       <c r="G38" s="16">
         <v>5</v>
       </c>
       <c r="I38" s="15">
         <f>IF(ISBLANK(LOOKUP(A38,'2'!$A:$A,'2'!$R:$R)),0,F38)</f>
-        <v>4.8661800486618006E-3</v>
+        <v>4.9875311720698253E-3</v>
       </c>
       <c r="J38" s="16">
         <f>LOOKUP(A38,'2'!$A:$A,'2'!$R:$R)</f>
@@ -40870,26 +41585,32 @@
       <c r="AMJ38" s="16"/>
       <c r="AMK38" s="16"/>
     </row>
-    <row r="39" spans="1:1025" ht="25.5">
+    <row r="39" spans="1:1025" ht="38.25">
       <c r="A39" s="18">
         <v>37</v>
       </c>
-      <c r="B39" s="42" t="s">
-        <v>47</v>
+      <c r="B39" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>136</v>
       </c>
       <c r="E39" s="16">
         <v>4</v>
       </c>
       <c r="F39" s="15">
         <f>E39/tiempo!$J$14</f>
-        <v>1.9464720194647202E-2</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="G39" s="16">
         <v>5</v>
       </c>
       <c r="I39" s="15">
         <f>IF(ISBLANK(LOOKUP(A39,'2'!$A:$A,'2'!$R:$R)),0,F39)</f>
-        <v>1.9464720194647202E-2</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="J39" s="16">
         <f>LOOKUP(A39,'2'!$A:$A,'2'!$R:$R)</f>
@@ -41911,26 +42632,32 @@
       <c r="AMJ39" s="16"/>
       <c r="AMK39" s="16"/>
     </row>
-    <row r="40" spans="1:1025" ht="25.5">
+    <row r="40" spans="1:1025" ht="38.25">
       <c r="A40" s="18">
         <v>38</v>
       </c>
-      <c r="B40" s="42" t="s">
-        <v>48</v>
+      <c r="B40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>137</v>
       </c>
       <c r="E40" s="16">
         <v>4</v>
       </c>
       <c r="F40" s="15">
         <f>E40/tiempo!$J$14</f>
-        <v>1.9464720194647202E-2</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="G40" s="16">
         <v>5</v>
       </c>
       <c r="I40" s="15">
         <f>IF(ISBLANK(LOOKUP(A40,'2'!$A:$A,'2'!$R:$R)),0,F40)</f>
-        <v>1.9464720194647202E-2</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="J40" s="16">
         <f>LOOKUP(A40,'2'!$A:$A,'2'!$R:$R)</f>
@@ -42952,19 +43679,25 @@
       <c r="AMJ40" s="16"/>
       <c r="AMK40" s="16"/>
     </row>
-    <row r="41" spans="1:1025" ht="25.5">
+    <row r="41" spans="1:1025" ht="38.25">
       <c r="A41" s="18">
         <v>39</v>
       </c>
-      <c r="B41" s="42" t="s">
-        <v>49</v>
+      <c r="B41" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>138</v>
       </c>
       <c r="E41" s="16">
         <v>2</v>
       </c>
       <c r="F41" s="15">
         <f>E41/tiempo!$J$14</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="G41" s="16">
         <v>5</v>
@@ -43990,15 +44723,21 @@
       <c r="A42" s="18">
         <v>40</v>
       </c>
-      <c r="B42" s="42" t="s">
-        <v>50</v>
+      <c r="B42" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>140</v>
       </c>
       <c r="E42" s="16">
         <v>0.5</v>
       </c>
       <c r="F42" s="15">
         <f>E42/tiempo!$J$14</f>
-        <v>2.4330900243309003E-3</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="G42" s="16">
         <v>5</v>
@@ -45020,26 +45759,29 @@
       <c r="AMJ42" s="16"/>
       <c r="AMK42" s="16"/>
     </row>
-    <row r="43" spans="1:1025">
+    <row r="43" spans="1:1025" ht="25.5">
       <c r="A43" s="18">
         <v>41</v>
       </c>
-      <c r="B43" s="42" t="s">
-        <v>51</v>
+      <c r="B43" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>142</v>
       </c>
       <c r="E43" s="16">
         <v>4</v>
       </c>
       <c r="F43" s="15">
         <f>E43/tiempo!$J$14</f>
-        <v>1.9464720194647202E-2</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="G43" s="16">
         <v>5</v>
       </c>
       <c r="I43" s="15">
         <f>IF(ISBLANK(LOOKUP(A43,'2'!$A:$A,'2'!$R:$R)),0,F43)</f>
-        <v>1.9464720194647202E-2</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="J43" s="16">
         <f>LOOKUP(A43,'2'!$A:$A,'2'!$R:$R)</f>
@@ -46065,22 +46807,25 @@
       <c r="A44" s="18">
         <v>42</v>
       </c>
-      <c r="B44" s="42" t="s">
-        <v>52</v>
+      <c r="B44" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>143</v>
       </c>
       <c r="E44" s="16">
         <v>3</v>
       </c>
       <c r="F44" s="15">
         <f>E44/tiempo!$J$14</f>
-        <v>1.4598540145985401E-2</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="G44" s="16">
         <v>5</v>
       </c>
       <c r="I44" s="15">
         <f>IF(ISBLANK(LOOKUP(A44,'2'!$A:$A,'2'!$R:$R)),0,F44)</f>
-        <v>1.4598540145985401E-2</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="J44" s="16">
         <f>LOOKUP(A44,'2'!$A:$A,'2'!$R:$R)</f>
@@ -47102,26 +47847,32 @@
       <c r="AMJ44" s="16"/>
       <c r="AMK44" s="16"/>
     </row>
-    <row r="45" spans="1:1025">
+    <row r="45" spans="1:1025" ht="51">
       <c r="A45" s="18">
         <v>43</v>
       </c>
-      <c r="B45" s="42" t="s">
-        <v>53</v>
+      <c r="B45" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="E45" s="16">
         <v>5</v>
       </c>
       <c r="F45" s="15">
         <f>E45/tiempo!$J$14</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="G45" s="16">
         <v>5</v>
       </c>
       <c r="I45" s="15">
         <f>IF(ISBLANK(LOOKUP(A45,'2'!$A:$A,'2'!$R:$R)),0,F45)</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="J45" s="16">
         <f>LOOKUP(A45,'2'!$A:$A,'2'!$R:$R)</f>
@@ -48143,26 +48894,32 @@
       <c r="AMJ45" s="16"/>
       <c r="AMK45" s="16"/>
     </row>
-    <row r="46" spans="1:1025">
+    <row r="46" spans="1:1025" ht="25.5">
       <c r="A46" s="18">
         <v>44</v>
       </c>
-      <c r="B46" s="42" t="s">
-        <v>54</v>
+      <c r="B46" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>145</v>
       </c>
       <c r="E46" s="16">
         <v>5</v>
       </c>
       <c r="F46" s="15">
         <f>E46/tiempo!$J$14</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="G46" s="16">
         <v>5</v>
       </c>
       <c r="I46" s="15">
         <f>IF(ISBLANK(LOOKUP(A46,'2'!$A:$A,'2'!$R:$R)),0,F46)</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="J46" s="16">
         <f>LOOKUP(A46,'2'!$A:$A,'2'!$R:$R)</f>
@@ -49184,26 +49941,32 @@
       <c r="AMJ46" s="16"/>
       <c r="AMK46" s="16"/>
     </row>
-    <row r="47" spans="1:1025" ht="25.5">
+    <row r="47" spans="1:1025" ht="51">
       <c r="A47" s="18">
         <v>45</v>
       </c>
-      <c r="B47" s="42" t="s">
-        <v>55</v>
+      <c r="B47" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>110</v>
       </c>
       <c r="E47" s="16">
         <v>5</v>
       </c>
       <c r="F47" s="15">
         <f>E47/tiempo!$J$14</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="G47" s="16">
         <v>5</v>
       </c>
       <c r="I47" s="15">
         <f>IF(ISBLANK(LOOKUP(A47,'2'!$A:$A,'2'!$R:$R)),0,F47)</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="J47" s="16">
         <f>LOOKUP(A47,'2'!$A:$A,'2'!$R:$R)</f>
@@ -50227,9 +50990,9 @@
     </row>
     <row r="48" spans="1:1025" s="36" customFormat="1">
       <c r="A48" s="29"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="29"/>
       <c r="F48" s="28"/>
       <c r="G48" s="29"/>
@@ -51252,220 +52015,207 @@
       <c r="AMJ48" s="30"/>
       <c r="AMK48" s="30"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="38.25">
       <c r="A49" s="16">
         <v>46</v>
       </c>
-      <c r="B49" s="41" t="s">
-        <v>65</v>
+      <c r="B49" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="E49" s="16">
         <v>5</v>
       </c>
       <c r="F49" s="15">
         <f>E49/tiempo!$J$14</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="G49" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="25.5">
+    <row r="50" spans="1:7" ht="63.75">
       <c r="A50" s="16">
         <v>47</v>
       </c>
-      <c r="B50" s="42" t="s">
-        <v>66</v>
+      <c r="B50" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="E50" s="16">
         <v>5</v>
       </c>
       <c r="F50" s="15">
         <f>E50/tiempo!$J$14</f>
-        <v>2.4330900243309004E-2</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="G50" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" ht="38.25">
       <c r="A51" s="16">
         <v>48</v>
       </c>
-      <c r="B51" s="42" t="s">
-        <v>67</v>
+      <c r="B51" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>88</v>
       </c>
       <c r="E51" s="16">
         <v>2</v>
       </c>
       <c r="F51" s="15">
         <f>E51/tiempo!$J$14</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="G51" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="25.5">
-      <c r="A52" s="16">
-        <v>49</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>69</v>
+    <row r="52" spans="1:7" ht="38.25">
+      <c r="B52" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="E52" s="16">
         <v>2</v>
       </c>
       <c r="F52" s="15">
         <f>E52/tiempo!$J$14</f>
-        <v>9.7323600973236012E-3</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="G52" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="38.25">
-      <c r="A53" s="16">
-        <v>50</v>
-      </c>
-      <c r="B53" s="42" t="s">
-        <v>68</v>
+    <row r="53" spans="1:7" ht="25.5">
+      <c r="B53" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="E53" s="16">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F53" s="15">
         <f>E53/tiempo!$J$14</f>
-        <v>9.7323600973236012E-3</v>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="G53" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="25.5">
-      <c r="A54" s="16">
-        <v>51</v>
-      </c>
-      <c r="B54" s="42" t="s">
-        <v>73</v>
+    <row r="54" spans="1:7">
+      <c r="B54" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="E54" s="16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F54" s="15">
         <f>E54/tiempo!$J$14</f>
-        <v>2.9197080291970802E-2</v>
+        <v>9.9750623441396506E-3</v>
       </c>
       <c r="G54" s="16">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="25.5">
-      <c r="A55" s="16">
-        <v>52</v>
-      </c>
-      <c r="B55" s="42" t="s">
-        <v>74</v>
+      <c r="B55" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="E55" s="16">
         <v>3</v>
       </c>
       <c r="F55" s="15">
         <f>E55/tiempo!$J$14</f>
-        <v>1.4598540145985401E-2</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="G55" s="16">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="25.5">
-      <c r="A56" s="16">
-        <v>53</v>
-      </c>
-      <c r="B56" s="42" t="s">
-        <v>75</v>
+      <c r="B56" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="E56" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" s="15">
         <f>E56/tiempo!$J$14</f>
-        <v>1.9464720194647202E-2</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="G56" s="16">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="25.5">
-      <c r="A57" s="16">
-        <v>54</v>
-      </c>
-      <c r="B57" s="42" t="s">
-        <v>76</v>
+      <c r="B57" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="E57" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" s="15">
         <f>E57/tiempo!$J$14</f>
-        <v>1.4598540145985401E-2</v>
+        <v>1.9950124688279301E-2</v>
       </c>
       <c r="G57" s="16">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="25.5">
-      <c r="A58" s="16">
-        <v>55</v>
-      </c>
-      <c r="B58" s="42" t="s">
-        <v>78</v>
+      <c r="B58" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="E58" s="16">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F58" s="15">
         <f>E58/tiempo!$J$14</f>
-        <v>2.4330900243309003E-3</v>
+        <v>1.4962593516209476E-2</v>
       </c>
       <c r="G58" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="16">
-        <v>56</v>
-      </c>
-      <c r="B59" s="42" t="s">
-        <v>79</v>
+    <row r="59" spans="1:7" ht="25.5">
+      <c r="B59" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="E59" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F59" s="15">
         <f>E59/tiempo!$J$14</f>
-        <v>9.7323600973236012E-3</v>
+        <v>2.4937655860349128E-2</v>
       </c>
       <c r="G59" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="25.5">
-      <c r="A60" s="16">
-        <v>57</v>
-      </c>
-      <c r="B60" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" s="16">
-        <v>5</v>
-      </c>
-      <c r="F60" s="15">
-        <f>E60/tiempo!$J$14</f>
-        <v>2.4330900243309004E-2</v>
-      </c>
-      <c r="G60" s="16">
-        <v>7</v>
+    <row r="60" spans="1:7" ht="51">
+      <c r="B60" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -51482,7 +52232,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -51526,19 +52278,19 @@
       </c>
       <c r="H1" s="23"/>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>5</v>
@@ -51547,25 +52299,25 @@
         <v>6</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" ht="25.5">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -51577,9 +52329,9 @@
         <f>LOOKUP(A2,tareas!$A:$A,tareas!$C:$C)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="17" t="str">
         <f>LOOKUP(A2,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Cada miembro del equipo creo un resumen con los detalles del tutorial.</v>
       </c>
       <c r="E2" s="24">
         <f>LOOKUP(A2,tareas!$A:$A,tareas!$E:$E)</f>
@@ -51641,21 +52393,21 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="25.5">
+    <row r="3" spans="1:24" ht="38.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="str">
         <f>LOOKUP(A3,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Realizar el lanzamiento del ciclo #1 de TSPi.</v>
-      </c>
-      <c r="C3" s="17">
+        <v>Realizar el lanzamiento del ciclo #1.</v>
+      </c>
+      <c r="C3" s="17" t="str">
         <f>LOOKUP(A3,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
+        <v>Todos los miembros del equipo han leído los capítulos 1, 2, 3 y el apéndice A del libro Introduction to TSPi.</v>
+      </c>
+      <c r="D3" s="17" t="str">
         <f>LOOKUP(A3,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Cada miembro del equipo completó la forma INFO. El equipo llego a un acuerdo con los goles del ciclo 1 y la fecha en que serán entregados los reportes semanales.</v>
       </c>
       <c r="E3" s="24">
         <f>LOOKUP(A3,tareas!$A:$A,tareas!$E:$E)</f>
@@ -51717,21 +52469,21 @@
         <v>1.0166666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="25.5">
+    <row r="4" spans="1:24" ht="63.75">
       <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="20" t="str">
         <f>LOOKUP(A4,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Definir la estrategía de desarrollo del ciclo #1 de TSPi.</v>
-      </c>
-      <c r="C4" s="17">
+        <v>Definir la estrategía de desarrollo del ciclo #1.</v>
+      </c>
+      <c r="C4" s="17" t="str">
         <f>LOOKUP(A4,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
+        <v>Todos los miembros del equipo han leído el capítulo 4 del libro Introduction to TSPi. El equipo ha completado el lanzamiento del ciclo #1.</v>
+      </c>
+      <c r="D4" s="17" t="str">
         <f>LOOKUP(A4,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>El equipo estimó el tamaño y el tiempo de producción de los elementos a producir en el ciclo #1. El equipo definió el diseño conceptual del proyecto y completó la forma STRAT. El equipo documentó los riesgos y problemas encontrados.</v>
       </c>
       <c r="E4" s="24">
         <f>LOOKUP(A4,tareas!$A:$A,tareas!$E:$E)</f>
@@ -51793,21 +52545,21 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" ht="38.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="20" t="str">
         <f>LOOKUP(A5,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Elaborar el plan del ciclo #1 de TSPi.</v>
-      </c>
-      <c r="C5" s="17">
+        <v>Elaborar el plan del ciclo #1.</v>
+      </c>
+      <c r="C5" s="17" t="str">
         <f>LOOKUP(A5,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="17">
+        <v>Todos los miembros del equipo han leído el capítulo 5 del libro Introduction to TSPi. El equipo ha completado la estrategía de desarrollo del ciclo #1.</v>
+      </c>
+      <c r="D5" s="17" t="str">
         <f>LOOKUP(A5,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se completaron las formas TASK y SCHEDULE para el equipo y cada miembro de este. El equipo completo las formas SUMP, SUMQ y SUMS.</v>
       </c>
       <c r="E5" s="24">
         <f>LOOKUP(A5,tareas!$A:$A,tareas!$E:$E)</f>
@@ -51865,9 +52617,9 @@
         <f>LOOKUP(A6,tareas!$A:$A,tareas!$C:$C)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="17" t="str">
         <f>LOOKUP(A6,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó la plantilla para la agenda de las reuniones con los clientes.</v>
       </c>
       <c r="E6" s="24">
         <f>LOOKUP(A6,tareas!$A:$A,tareas!$E:$E)</f>
@@ -51925,9 +52677,9 @@
         <f>LOOKUP(A7,tareas!$A:$A,tareas!$C:$C)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="17" t="str">
         <f>LOOKUP(A7,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó la plantilla para las minutas de las reuniones con los clientes.</v>
       </c>
       <c r="E7" s="24">
         <f>LOOKUP(A7,tareas!$A:$A,tareas!$E:$E)</f>
@@ -51981,13 +52733,13 @@
         <f>LOOKUP(A8,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Crear la agenda para la reunión #1 con el cliente.</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="17" t="str">
         <f>LOOKUP(A8,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="17">
+        <v>Se ha creado la plantilla para las agendas de las reuniones con los cliente.</v>
+      </c>
+      <c r="D8" s="17" t="str">
         <f>LOOKUP(A8,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó la agenda para la reunión #1 con el cliente.</v>
       </c>
       <c r="E8" s="24">
         <f>LOOKUP(A8,tareas!$A:$A,tareas!$E:$E)</f>
@@ -52041,13 +52793,13 @@
         <f>LOOKUP(A9,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Reunión #1 con el cliente.</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="17" t="str">
         <f>LOOKUP(A9,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="17">
+        <v>Se ha creado y enviado la agenda para la reunión #1 con el cliente.</v>
+      </c>
+      <c r="D9" s="17" t="str">
         <f>LOOKUP(A9,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó la minuta de la reunión #1 con el cliente.</v>
       </c>
       <c r="E9" s="24">
         <f>LOOKUP(A9,tareas!$A:$A,tareas!$E:$E)</f>
@@ -52109,9 +52861,9 @@
         <f>LOOKUP(A10,tareas!$A:$A,tareas!$C:$C)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="17" t="str">
         <f>LOOKUP(A10,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó el esquema del documento de requerimientos.</v>
       </c>
       <c r="E10" s="24">
         <f>LOOKUP(A10,tareas!$A:$A,tareas!$E:$E)</f>
@@ -52300,13 +53052,13 @@
         <f>LOOKUP(A13,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Reunión de equipo para analizar la minuta de la reunión #1 con el cliente.</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="17" t="str">
         <f>LOOKUP(A13,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="17">
+        <v>Se ha creado la minuta de la reunión #1 con el cliente.</v>
+      </c>
+      <c r="D13" s="17" t="str">
         <f>LOOKUP(A13,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se identificó y documentó una lista de actores y casos de uso, y de escenarios.</v>
       </c>
       <c r="E13" s="24">
         <f>LOOKUP(A13,tareas!$A:$A,tareas!$E:$E)</f>
@@ -52376,13 +53128,13 @@
         <f>LOOKUP(A14,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Crear el borrador #1 del diagrama de casos de uso.</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="17" t="str">
         <f>LOOKUP(A14,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="17">
+        <v>Se ha identificado y documentado una lista de actores y casos de uso.</v>
+      </c>
+      <c r="D14" s="17" t="str">
         <f>LOOKUP(A14,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó el borrador #1 del diagrama de casos de uso.</v>
       </c>
       <c r="E14" s="24">
         <f>LOOKUP(A14,tareas!$A:$A,tareas!$E:$E)</f>
@@ -52440,13 +53192,13 @@
         <f>LOOKUP(A15,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Crear el borrador #1 del documento de los escenarios.</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="17" t="str">
         <f>LOOKUP(A15,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="17">
+        <v>Se ha identificado y documentado una lista de actores y casos de uso.</v>
+      </c>
+      <c r="D15" s="17" t="str">
         <f>LOOKUP(A15,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó el borrador #1 del documento de los escenarios.</v>
       </c>
       <c r="E15" s="24">
         <f>LOOKUP(A15,tareas!$A:$A,tareas!$E:$E)</f>
@@ -52500,13 +53252,13 @@
         <f>LOOKUP(A16,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Crear el borrador #1 del documento de requerimientos.</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="17" t="str">
         <f>LOOKUP(A16,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="17">
+        <v>Se ha creado el borrador #1 del diagrama de casos de uso y del documento de escenarios. Se ha creado el esquema del documento de requerimientos.</v>
+      </c>
+      <c r="D16" s="17" t="str">
         <f>LOOKUP(A16,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó el borrador #1 del documento de requerimientos.</v>
       </c>
       <c r="E16" s="24">
         <f>LOOKUP(A16,tareas!$A:$A,tareas!$E:$E)</f>
@@ -52564,13 +53316,13 @@
         <f>LOOKUP(A17,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Crear la agenda para la reunión #2 con el cliente.</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="17" t="str">
         <f>LOOKUP(A17,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="17">
+        <v>Se ha creado la plantilla para las agendas de las reuniones con los cliente.</v>
+      </c>
+      <c r="D17" s="17" t="str">
         <f>LOOKUP(A17,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó la agenda para la reunión #2 con el cliente.</v>
       </c>
       <c r="E17" s="24">
         <f>LOOKUP(A17,tareas!$A:$A,tareas!$E:$E)</f>
@@ -52624,13 +53376,13 @@
         <f>LOOKUP(A18,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Reunión #2 con el cliente.</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="17" t="str">
         <f>LOOKUP(A18,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="17">
+        <v>Se ha creado y enviado la agenda para la reunión #2 con el cliente.</v>
+      </c>
+      <c r="D18" s="17" t="str">
         <f>LOOKUP(A18,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó la minuta de la reunión #2 con el cliente.</v>
       </c>
       <c r="E18" s="24">
         <f>LOOKUP(A18,tareas!$A:$A,tareas!$E:$E)</f>
@@ -52688,13 +53440,13 @@
         <f>LOOKUP(A19,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Reunión de equipo para analizar la minuta de la reunión #2 con el cliente.</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="17" t="str">
         <f>LOOKUP(A19,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="17">
+        <v>Se ha creado la minuta de la reunión #2 con el cliente.</v>
+      </c>
+      <c r="D19" s="17" t="str">
         <f>LOOKUP(A19,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se actualizó la lista de actores, casos de uso y de escenarios.</v>
       </c>
       <c r="E19" s="24">
         <f>LOOKUP(A19,tareas!$A:$A,tareas!$E:$E)</f>
@@ -52764,13 +53516,13 @@
         <f>LOOKUP(A20,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Crear la versión final del diagrama de casos de uso.</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="17" t="str">
         <f>LOOKUP(A20,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="17">
+        <v>Se ha actualizado la lista de actores, casos de uso y escenarios. Se ha creado el borrador #1 del diagrama de casos de uso.</v>
+      </c>
+      <c r="D20" s="17" t="str">
         <f>LOOKUP(A20,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó la versión final del diagrama de casos de uso.</v>
       </c>
       <c r="E20" s="24">
         <f>LOOKUP(A20,tareas!$A:$A,tareas!$E:$E)</f>
@@ -52823,13 +53575,13 @@
         <f>LOOKUP(A21,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Extender los casos de uso.</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="17" t="str">
         <f>LOOKUP(A21,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="17">
+        <v>Se ha creado la versión final del diagrama de casos de uso.</v>
+      </c>
+      <c r="D21" s="17" t="str">
         <f>LOOKUP(A21,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó el documento de los casos de uso extendidos.</v>
       </c>
       <c r="E21" s="24">
         <f>LOOKUP(A21,tareas!$A:$A,tareas!$E:$E)</f>
@@ -52886,13 +53638,13 @@
         <f>LOOKUP(A22,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Crear la versión final del documento de los escenarios.</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="17" t="str">
         <f>LOOKUP(A22,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="17">
+        <v>Se ha actualizado la lista de actores, casos de uso y escenarios. Se ha creado el borrador #1 del documento de los escenarios.</v>
+      </c>
+      <c r="D22" s="17" t="str">
         <f>LOOKUP(A22,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó la versión final del documento de los escenarios.</v>
       </c>
       <c r="E22" s="24">
         <f>LOOKUP(A22,tareas!$A:$A,tareas!$E:$E)</f>
@@ -52949,13 +53701,13 @@
         <f>LOOKUP(A23,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Crear la versión final del documento de requerimientos.</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="17" t="str">
         <f>LOOKUP(A23,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="17">
+        <v>Se ha creado el borrador #1 del documento de requerimientos. Se ha creado la versión final del diagrama de casos de uso y del documento de escenarios. Se ha creado el documento de los casos de uso extendidos.</v>
+      </c>
+      <c r="D23" s="17" t="str">
         <f>LOOKUP(A23,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó la versión final del documento de requerimientos.</v>
       </c>
       <c r="E23" s="24">
         <f>LOOKUP(A23,tareas!$A:$A,tareas!$E:$E)</f>
@@ -53010,15 +53762,15 @@
       </c>
       <c r="B24" s="20" t="str">
         <f>LOOKUP(A24,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Elaborar el reporte de cierre del ciclo #1 de TSPi.</v>
-      </c>
-      <c r="C24" s="17">
+        <v>Elaborar el reporte de cierre del ciclo #1.</v>
+      </c>
+      <c r="C24" s="17" t="str">
         <f>LOOKUP(A24,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="17">
+        <v>Cada miembro del equipo ha leído los capítulos 10, 16, 17 y 18 del libro Introduction to TSPi. El equipo ha completado los productos especificados. El equipo ha acumulado toda la información y ha completado todas las formas requeridas.</v>
+      </c>
+      <c r="D24" s="17" t="str">
         <f>LOOKUP(A24,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Cada miembro del equipo completó la forma PEER. Se creó el reporte del ciclo correspondiente. Se completaron las formas SUMP y SUMQ para el sistema y todos sus componentes.</v>
       </c>
       <c r="E24" s="24">
         <f>LOOKUP(A24,tareas!$A:$A,tareas!$E:$E)</f>
@@ -53099,8 +53851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -53145,19 +53897,19 @@
       </c>
       <c r="H1" s="23"/>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>5</v>
@@ -53166,22 +53918,22 @@
         <v>6</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -53190,15 +53942,15 @@
       </c>
       <c r="B2" s="20" t="str">
         <f>LOOKUP(A2,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Realizar el lanzamiento del ciclo #2 de TSPi.</v>
-      </c>
-      <c r="C2" s="17">
+        <v>Realizar el lanzamiento del ciclo #2.</v>
+      </c>
+      <c r="C2" s="17" t="str">
         <f>LOOKUP(A2,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="17">
+        <v>El equipo ha completado un ciclo preeviamente.</v>
+      </c>
+      <c r="D2" s="17" t="str">
         <f>LOOKUP(A2,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Cada miembro del equipo completó la forma INFO. El equipo llego a un acuerdo con los goles del ciclo 1 y la fecha en que serán entregados los reportes semanales.</v>
       </c>
       <c r="E2" s="19">
         <f>LOOKUP(A2,tareas!$A:$A,tareas!$E:$E)</f>
@@ -53260,21 +54012,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="25.5">
+    <row r="3" spans="1:24" ht="63.75">
       <c r="A3" s="18">
         <v>25</v>
       </c>
       <c r="B3" s="20" t="str">
         <f>LOOKUP(A3,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Definir la estrategía de desarrolo del ciclo #2 de TSPi.</v>
-      </c>
-      <c r="C3" s="17">
+        <v>Definir la estrategía de desarrolo del ciclo #2.</v>
+      </c>
+      <c r="C3" s="17" t="str">
         <f>LOOKUP(A3,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
+        <v>El equipo ha completado un ciclo preeviamente. Cada miembro del equipo ha leído el capítulo correspondiente a su rol.</v>
+      </c>
+      <c r="D3" s="17" t="str">
         <f>LOOKUP(A3,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>El equipo estimó el tamaño y el tiempo de producción de los elementos a producir en el ciclo #1. El equipo definió actualizó el diseño conceptual del proyecto y completó la forma STRAT. El equipo actualizó el documento los riesgos y problemas.</v>
       </c>
       <c r="E3" s="19">
         <f>LOOKUP(A3,tareas!$A:$A,tareas!$E:$E)</f>
@@ -53336,21 +54088,21 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" ht="38.25">
       <c r="A4" s="18">
         <v>26</v>
       </c>
       <c r="B4" s="20" t="str">
         <f>LOOKUP(A4,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Elaborar el plan del ciclo #2 de TSPi.</v>
-      </c>
-      <c r="C4" s="17">
+        <v>Elaborar el plan del ciclo #2.</v>
+      </c>
+      <c r="C4" s="17" t="str">
         <f>LOOKUP(A4,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
+        <v>El equipo ha completado y actualizado el plan de un ciclo preevio.</v>
+      </c>
+      <c r="D4" s="17" t="str">
         <f>LOOKUP(A4,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se completaron las formas TASK y SCHEDULE para el equipo y cada miembro de este. El equipo completo las formas SUMP, SUMQ y SUMS.</v>
       </c>
       <c r="E4" s="19">
         <f>LOOKUP(A4,tareas!$A:$A,tareas!$E:$E)</f>
@@ -53408,9 +54160,9 @@
         <f>LOOKUP(A5,tareas!$A:$A,tareas!$C:$C)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="17" t="str">
         <f>LOOKUP(A5,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó el esquema del documento de arquitectura.</v>
       </c>
       <c r="E5" s="19">
         <f>LOOKUP(A5,tareas!$A:$A,tareas!$E:$E)</f>
@@ -53456,7 +54208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="25.5">
+    <row r="6" spans="1:24" ht="38.25">
       <c r="A6" s="18">
         <v>28</v>
       </c>
@@ -53464,13 +54216,13 @@
         <f>LOOKUP(A6,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Reunión de equipo para analizar la versión final del documento de requerimientos.</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="17" t="str">
         <f>LOOKUP(A6,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="17">
+        <v>Se ha creado la versión final del documento de requerimientos.</v>
+      </c>
+      <c r="D6" s="17" t="str">
         <f>LOOKUP(A6,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó un documento el cuál especifica las tácticas y patrones que serán utilizados, así como también, las vistas y estilos que serán utilizadas para demostrar el uso de las tácticas y patrones.</v>
       </c>
       <c r="E6" s="19">
         <f>LOOKUP(A6,tareas!$A:$A,tareas!$E:$E)</f>
@@ -53540,13 +54292,13 @@
         <f>LOOKUP(A7,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Crear la agenda para la reunión #3 con el cliente.</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="17" t="str">
         <f>LOOKUP(A7,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
+        <v>Se ha creado la plantilla para las agendas de las reuniones con los cliente.</v>
+      </c>
+      <c r="D7" s="17" t="str">
         <f>LOOKUP(A7,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó la agenda para la reunión #3 con el cliente.</v>
       </c>
       <c r="E7" s="19">
         <f>LOOKUP(A7,tareas!$A:$A,tareas!$E:$E)</f>
@@ -53592,7 +54344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" ht="25.5">
       <c r="A8" s="18">
         <v>30</v>
       </c>
@@ -53600,13 +54352,13 @@
         <f>LOOKUP(A8,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Reunión #3 con el cliente.</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="17" t="str">
         <f>LOOKUP(A8,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="17">
+        <v>Se ha creado y enviado la agenda para la reunión #3 con el cliente.</v>
+      </c>
+      <c r="D8" s="17" t="str">
         <f>LOOKUP(A8,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó la minuta de la reunión #3 con el cliente.</v>
       </c>
       <c r="E8" s="19">
         <f>LOOKUP(A8,tareas!$A:$A,tareas!$E:$E)</f>
@@ -53668,9 +54420,9 @@
         <f>LOOKUP(A9,tareas!$A:$A,tareas!$C:$C)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="17" t="str">
         <f>LOOKUP(A9,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó una presentación con los detalles de la arquitectura y el funcionamiento de RedMine.</v>
       </c>
       <c r="E9" s="19">
         <f>LOOKUP(A9,tareas!$A:$A,tareas!$E:$E)</f>
@@ -53724,13 +54476,13 @@
         <f>LOOKUP(A10,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Presentar al equipo de la herramienta Redmine.</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="17" t="str">
         <f>LOOKUP(A10,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="17">
+        <v>Se ha creado una presentación con los detalles de la arquitectura y el funcionamiento de RedMine.</v>
+      </c>
+      <c r="D10" s="17" t="str">
         <f>LOOKUP(A10,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Cada miembro del equipo creó un resumen con los detalles de la presentación.</v>
       </c>
       <c r="E10" s="19">
         <f>LOOKUP(A10,tareas!$A:$A,tareas!$E:$E)</f>
@@ -53792,7 +54544,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="25.5">
+    <row r="11" spans="1:24" ht="38.25">
       <c r="A11" s="18">
         <v>33</v>
       </c>
@@ -53800,13 +54552,13 @@
         <f>LOOKUP(A11,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Elaborar la introducción del documento de arquitectura.</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="17" t="str">
         <f>LOOKUP(A11,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
+        <v>Se ha completado la reunión de equipo para analizar la versión final del documento de requerimientos. Se ha creado el esquema del documento de arquitectura.</v>
+      </c>
+      <c r="D11" s="17" t="str">
         <f>LOOKUP(A11,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se elaboró la introducción del documento de arquitectura.</v>
       </c>
       <c r="E11" s="19">
         <f>LOOKUP(A11,tareas!$A:$A,tareas!$E:$E)</f>
@@ -53852,7 +54604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="25.5">
+    <row r="12" spans="1:24" ht="51">
       <c r="A12" s="18">
         <v>34</v>
       </c>
@@ -53860,13 +54612,13 @@
         <f>LOOKUP(A12,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Elaborar el fondo del documento de arquitectura.</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="17" t="str">
         <f>LOOKUP(A12,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="17">
+        <v>Se ha completado la reunión de equipo para analizar la versión final del documento de requerimientos. Se ha creado el esquema del documento de arquitectura. Se ha elaborado la introducción del documento de arquitectura.</v>
+      </c>
+      <c r="D12" s="17" t="str">
         <f>LOOKUP(A12,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se elaboró el fondo del documento de arquitectura.</v>
       </c>
       <c r="E12" s="19">
         <f>LOOKUP(A12,tareas!$A:$A,tareas!$E:$E)</f>
@@ -53911,7 +54663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="25.5">
+    <row r="13" spans="1:24" ht="38.25">
       <c r="A13" s="18">
         <v>35</v>
       </c>
@@ -53919,13 +54671,13 @@
         <f>LOOKUP(A13,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Elaborar el diagrama de contexto de la arquitectura.</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="17" t="str">
         <f>LOOKUP(A13,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="17">
+        <v>Se ha completado la reunión de equipo para analizar la versión final del documento de requerimientos. Se ha creado el esquema del documento de arquitectura.</v>
+      </c>
+      <c r="D13" s="17" t="str">
         <f>LOOKUP(A13,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se elaboró el diagrama de contexto de la arquitectura.</v>
       </c>
       <c r="E13" s="19">
         <f>LOOKUP(A13,tareas!$A:$A,tareas!$E:$E)</f>
@@ -53971,7 +54723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="25.5">
+    <row r="14" spans="1:24" ht="38.25">
       <c r="A14" s="18">
         <v>36</v>
       </c>
@@ -53979,13 +54731,13 @@
         <f>LOOKUP(A14,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Documentar las tácticas y patrones a utilizar en el documento de arquitectura.</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="17" t="str">
         <f>LOOKUP(A14,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="17">
+        <v>Se ha completado la reunión de equipo para analizar la versión final del documento de requerimientos. Se ha creado el esquema del documento de arquitectura.</v>
+      </c>
+      <c r="D14" s="17" t="str">
         <f>LOOKUP(A14,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se documentaron las tácticas y patrones a utilizar.</v>
       </c>
       <c r="E14" s="19">
         <f>LOOKUP(A14,tareas!$A:$A,tareas!$E:$E)</f>
@@ -54031,21 +54783,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="25.5">
+    <row r="15" spans="1:24" ht="38.25">
       <c r="A15" s="18">
         <v>37</v>
       </c>
       <c r="B15" s="20" t="str">
         <f>LOOKUP(A15,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Elaborar el modelo físico de data de la arquitectura.</v>
-      </c>
-      <c r="C15" s="17">
+        <v>Elaborar diagrama del modelo físico de data de la arquitectura.</v>
+      </c>
+      <c r="C15" s="17" t="str">
         <f>LOOKUP(A15,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="17">
+        <v>Se ha completado la reunión de equipo para analizar la versión final del documento de requerimientos. Se ha creado el esquema del documento de arquitectura.</v>
+      </c>
+      <c r="D15" s="17" t="str">
         <f>LOOKUP(A15,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó el diagrama del modelo físico de data.</v>
       </c>
       <c r="E15" s="19">
         <f>LOOKUP(A15,tareas!$A:$A,tareas!$E:$E)</f>
@@ -54091,7 +54843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="25.5">
+    <row r="16" spans="1:24" ht="38.25">
       <c r="A16" s="18">
         <v>38</v>
       </c>
@@ -54099,13 +54851,13 @@
         <f>LOOKUP(A16,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Elaborar el diagrama de flujo del algoritmo de calendarización.</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="17" t="str">
         <f>LOOKUP(A16,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="17">
+        <v>Se ha completado la reunión de equipo para analizar la versión final del documento de requerimientos. Se ha creado el esquema del documento de arquitectura.</v>
+      </c>
+      <c r="D16" s="17" t="str">
         <f>LOOKUP(A16,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó el diagrama de flujo del algoritmo de calendarización.</v>
       </c>
       <c r="E16" s="19">
         <f>LOOKUP(A16,tareas!$A:$A,tareas!$E:$E)</f>
@@ -54155,21 +54907,21 @@
         <v>10.733333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="25.5">
+    <row r="17" spans="1:24" ht="38.25">
       <c r="A17" s="18">
         <v>39</v>
       </c>
       <c r="B17" s="20" t="str">
         <f>LOOKUP(A17,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Elaborar el diagrama de la estructura de archivos del plug-in.</v>
-      </c>
-      <c r="C17" s="17">
+        <v>Elaborar el diagrama de la estructura de archivos de la arquitectura.</v>
+      </c>
+      <c r="C17" s="17" t="str">
         <f>LOOKUP(A17,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="17">
+        <v>Se ha completado la reunión de equipo para analizar la versión final del documento de requerimientos. Se ha creado el esquema del documento de arquitectura.</v>
+      </c>
+      <c r="D17" s="17" t="str">
         <f>LOOKUP(A17,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó el diagrama de la estructura de archivos.</v>
       </c>
       <c r="E17" s="19">
         <f>LOOKUP(A17,tareas!$A:$A,tareas!$E:$E)</f>
@@ -54217,13 +54969,13 @@
         <f>LOOKUP(A18,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Elaborar la conclusión del documento de arquitectura.</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="17" t="str">
         <f>LOOKUP(A18,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="17">
+        <v>Se han elaborado el fondo, documentado las tácticas y patrones, y diagramado las vistas de la arquitectura.</v>
+      </c>
+      <c r="D18" s="17" t="str">
         <f>LOOKUP(A18,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se elaboró la conclusión del documento de arquitectura.</v>
       </c>
       <c r="E18" s="19">
         <f>LOOKUP(A18,tareas!$A:$A,tareas!$E:$E)</f>
@@ -54263,7 +55015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" ht="25.5">
       <c r="A19" s="18">
         <v>41</v>
       </c>
@@ -54275,9 +55027,9 @@
         <f>LOOKUP(A19,tareas!$A:$A,tareas!$C:$C)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="17" t="str">
         <f>LOOKUP(A19,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Cada miembro del equipo creó un resumen con los detalles del tutorial.</v>
       </c>
       <c r="E19" s="19">
         <f>LOOKUP(A19,tareas!$A:$A,tareas!$E:$E)</f>
@@ -54347,9 +55099,9 @@
         <f>LOOKUP(A20,tareas!$A:$A,tareas!$C:$C)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="17" t="str">
         <f>LOOKUP(A20,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se creó una presentación con los detalles de la arquitectura y el funcionamiento de Ruby on Rails.</v>
       </c>
       <c r="E20" s="19">
         <f>LOOKUP(A20,tareas!$A:$A,tareas!$E:$E)</f>
@@ -54394,7 +55146,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" ht="51">
       <c r="A21" s="18">
         <v>43</v>
       </c>
@@ -54402,13 +55154,13 @@
         <f>LOOKUP(A21,tareas!$A:$A,tareas!$B:$B)</f>
         <v>Presentar al equipo el framework Rails.</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="17" t="str">
         <f>LOOKUP(A21,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="17">
+        <v>Cada miembro del equipo ha creado un resumen con los detalles del tutorial básico de ruby. Se ha creado una presentación con los detalles de la arquitectura y el funcionamiento de Ruby on Rails.</v>
+      </c>
+      <c r="D21" s="17" t="str">
         <f>LOOKUP(A21,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Cada miembro del equipo creó un resumen con los detalles de la presentación.</v>
       </c>
       <c r="E21" s="19">
         <f>LOOKUP(A21,tareas!$A:$A,tareas!$E:$E)</f>
@@ -54469,21 +55221,21 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" ht="25.5">
       <c r="A22" s="18">
         <v>44</v>
       </c>
       <c r="B22" s="20" t="str">
         <f>LOOKUP(A22,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Mockup de la vista de la calendarización.</v>
-      </c>
-      <c r="C22" s="17">
+        <v>Elaborar el mokcup de la vista de la calendarización.</v>
+      </c>
+      <c r="C22" s="17" t="str">
         <f>LOOKUP(A22,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="17">
+        <v>Se ha completado la reunión de equipo para analizar la versión final del documento de requerimientos.</v>
+      </c>
+      <c r="D22" s="17" t="str">
         <f>LOOKUP(A22,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Se elaboró el mockup de la vista de la calendarización.</v>
       </c>
       <c r="E22" s="19">
         <f>LOOKUP(A22,tareas!$A:$A,tareas!$E:$E)</f>
@@ -54532,21 +55284,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="25.5">
+    <row r="23" spans="1:24" ht="51">
       <c r="A23" s="18">
         <v>45</v>
       </c>
       <c r="B23" s="20" t="str">
         <f>LOOKUP(A23,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Elaborar el reporte de cierre del ciclo #2 de TSPi.</v>
-      </c>
-      <c r="C23" s="17">
+        <v>Elaborar el reporte de cierre del ciclo #2.</v>
+      </c>
+      <c r="C23" s="17" t="str">
         <f>LOOKUP(A23,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="17">
+        <v>El equipo ha completado los productos especificados. El equipo ha acumulado toda la información y ha completado todas las formas requeridas.</v>
+      </c>
+      <c r="D23" s="17" t="str">
         <f>LOOKUP(A23,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
+        <v>Cada miembro del equipo completó la forma PEER. Se creó el reporte del ciclo correspondiente. Se completaron las formas SUMP y SUMQ para el sistema y todos sus componentes.</v>
       </c>
       <c r="E23" s="19">
         <f>LOOKUP(A23,tareas!$A:$A,tareas!$E:$E)</f>
@@ -54621,8 +55373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -54667,19 +55419,19 @@
       </c>
       <c r="H1" s="23"/>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>5</v>
@@ -54688,507 +55440,117 @@
         <v>6</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="18">
-        <v>46</v>
-      </c>
-      <c r="B2" s="20" t="str">
-        <f>LOOKUP(A2,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Realizar el lanzamiento del ciclo #3 de TSPi.</v>
-      </c>
-      <c r="C2" s="17">
-        <f>LOOKUP(A2,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="17">
-        <f>LOOKUP(A2,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="19">
-        <f>LOOKUP(A2,tareas!$A:$A,tareas!$E:$E)</f>
-        <v>5</v>
-      </c>
-      <c r="F2" s="15">
-        <f>E2/SUM(tiempo!$J$7:$J$8)</f>
-        <v>0.12658227848101267</v>
-      </c>
-      <c r="G2" s="19">
-        <f>LOOKUP(A2,tareas!$A:$A,tareas!$G:$G)</f>
-        <v>6</v>
-      </c>
+      <c r="A2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="18"/>
-      <c r="I2" s="16">
-        <f>$E$2/5</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="16">
-        <f t="shared" ref="J2:M2" si="0">$E$2/5</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L2" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M2" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="Q2" s="15"/>
     </row>
-    <row r="3" spans="1:24" ht="25.5">
-      <c r="A3" s="18">
-        <v>47</v>
-      </c>
-      <c r="B3" s="20" t="str">
-        <f>LOOKUP(A3,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Definir la estrategía de desarrolo del ciclo #3 de TSPi.</v>
-      </c>
-      <c r="C3" s="17">
-        <f>LOOKUP(A3,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
-        <f>LOOKUP(A3,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="19">
-        <f>LOOKUP(A3,tareas!$A:$A,tareas!$E:$E)</f>
-        <v>5</v>
-      </c>
-      <c r="F3" s="15">
-        <f>E3/SUM(tiempo!$J$7:$J$8)</f>
-        <v>0.12658227848101267</v>
-      </c>
-      <c r="G3" s="19">
-        <f>LOOKUP(A3,tareas!$A:$A,tareas!$G:$G)</f>
-        <v>6</v>
-      </c>
+    <row r="3" spans="1:24">
+      <c r="A3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="E3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="18"/>
-      <c r="I3" s="16">
-        <f>$E$3/5</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="16">
-        <f t="shared" ref="J3:M3" si="1">$E$3/5</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L3" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M3" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="18">
-        <v>48</v>
-      </c>
-      <c r="B4" s="20" t="str">
-        <f>LOOKUP(A4,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Elaborar el plan del ciclo #3 de TSPi.</v>
-      </c>
-      <c r="C4" s="17">
-        <f>LOOKUP(A4,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <f>LOOKUP(A4,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="19">
-        <f>LOOKUP(A4,tareas!$A:$A,tareas!$E:$E)</f>
-        <v>2</v>
-      </c>
-      <c r="F4" s="15">
-        <f>E4/SUM(tiempo!$J$7:$J$8)</f>
-        <v>5.0632911392405063E-2</v>
-      </c>
-      <c r="G4" s="19">
-        <f>LOOKUP(A4,tareas!$A:$A,tareas!$G:$G)</f>
-        <v>6</v>
-      </c>
+      <c r="A4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="E4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="18"/>
-      <c r="L4" s="16">
-        <f>E4</f>
-        <v>2</v>
-      </c>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="1:24" ht="25.5">
-      <c r="A5" s="18">
-        <v>49</v>
-      </c>
-      <c r="B5" s="20" t="str">
-        <f>LOOKUP(A5,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Completar el mockup de la vista de calendarización.</v>
-      </c>
-      <c r="C5" s="17">
-        <f>LOOKUP(A5,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="17">
-        <f>LOOKUP(A5,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="19">
-        <f>LOOKUP(A5,tareas!$A:$A,tareas!$E:$E)</f>
-        <v>2</v>
-      </c>
-      <c r="F5" s="15">
-        <f>E5/SUM(tiempo!$J$7:$J$8)</f>
-        <v>5.0632911392405063E-2</v>
-      </c>
-      <c r="G5" s="19">
-        <f>LOOKUP(A5,tareas!$A:$A,tareas!$G:$G)</f>
-        <v>6</v>
-      </c>
+    <row r="5" spans="1:24">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="E5" s="19"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="18"/>
-      <c r="J5" s="16">
-        <f>$E$5/2</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="16">
-        <f>$E$5/2</f>
-        <v>1</v>
-      </c>
       <c r="Q5" s="15"/>
     </row>
-    <row r="6" spans="1:24" ht="38.25">
-      <c r="A6" s="18">
-        <v>50</v>
-      </c>
-      <c r="B6" s="20" t="str">
-        <f>LOOKUP(A6,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Elaborar el mockup de la vista para la asignación de la disponibilidad de los recursos.</v>
-      </c>
-      <c r="C6" s="17">
-        <f>LOOKUP(A6,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="17">
-        <f>LOOKUP(A6,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="19">
-        <f>LOOKUP(A6,tareas!$A:$A,tareas!$E:$E)</f>
-        <v>2</v>
-      </c>
-      <c r="F6" s="15">
-        <f>E6/SUM(tiempo!$J$7:$J$8)</f>
-        <v>5.0632911392405063E-2</v>
-      </c>
-      <c r="G6" s="19">
-        <f>LOOKUP(A6,tareas!$A:$A,tareas!$G:$G)</f>
-        <v>6</v>
-      </c>
+    <row r="6" spans="1:24">
+      <c r="A6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="E6" s="19"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="22"/>
-      <c r="K6" s="16">
-        <f>E6</f>
-        <v>2</v>
-      </c>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="1:24" ht="25.5">
-      <c r="A7" s="18">
-        <v>51</v>
-      </c>
-      <c r="B7" s="20" t="str">
-        <f>LOOKUP(A7,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Elaborar el mockup de la vista para ver la calendarización de uno o más recursos.</v>
-      </c>
-      <c r="C7" s="17">
-        <f>LOOKUP(A7,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
-        <f>LOOKUP(A7,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="19">
-        <f>LOOKUP(A7,tareas!$A:$A,tareas!$E:$E)</f>
-        <v>6</v>
-      </c>
-      <c r="F7" s="15">
-        <f>E7/SUM(tiempo!$J$7:$J$8)</f>
-        <v>0.15189873417721519</v>
-      </c>
-      <c r="G7" s="19">
-        <f>LOOKUP(A7,tareas!$A:$A,tareas!$G:$G)</f>
-        <v>6</v>
-      </c>
+    <row r="7" spans="1:24">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="16">
-        <f>$E$7/2</f>
-        <v>3</v>
-      </c>
-      <c r="J7" s="16">
-        <f>$E$7/2</f>
-        <v>3</v>
-      </c>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:24" ht="25.5">
-      <c r="A8" s="18">
-        <v>52</v>
-      </c>
-      <c r="B8" s="20" t="str">
-        <f>LOOKUP(A8,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Elaborar el pseudocódigo del algoritmo de calendarización.</v>
-      </c>
-      <c r="C8" s="17">
-        <f>LOOKUP(A8,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="17">
-        <f>LOOKUP(A8,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="19">
-        <f>LOOKUP(A8,tareas!$A:$A,tareas!$E:$E)</f>
-        <v>3</v>
-      </c>
-      <c r="F8" s="15">
-        <f>E8/SUM(tiempo!$J$7:$J$8)</f>
-        <v>7.5949367088607597E-2</v>
-      </c>
-      <c r="G8" s="19">
-        <f>LOOKUP(A8,tareas!$A:$A,tareas!$G:$G)</f>
-        <v>6</v>
-      </c>
+    <row r="8" spans="1:24">
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="21"/>
-      <c r="K8" s="16">
-        <f>$E$8/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="M8" s="16">
-        <f>$E$8/2</f>
-        <v>1.5</v>
-      </c>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:24" ht="25.5">
-      <c r="A9" s="18">
-        <v>53</v>
-      </c>
-      <c r="B9" s="20" t="str">
-        <f>LOOKUP(A9,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Elaborar el algoritmo de construcción del grafo a partir del archivo csv.</v>
-      </c>
-      <c r="C9" s="17">
-        <f>LOOKUP(A9,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="17">
-        <f>LOOKUP(A9,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="19">
-        <f>LOOKUP(A9,tareas!$A:$A,tareas!$E:$E)</f>
-        <v>4</v>
-      </c>
-      <c r="F9" s="15">
-        <f>E9/SUM(tiempo!$J$7:$J$8)</f>
-        <v>0.10126582278481013</v>
-      </c>
-      <c r="G9" s="19">
-        <f>LOOKUP(A9,tareas!$A:$A,tareas!$G:$G)</f>
-        <v>6</v>
-      </c>
+    <row r="9" spans="1:24">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="E9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="16">
-        <f>$E$9/2</f>
-        <v>2</v>
-      </c>
-      <c r="L9" s="16">
-        <f>$E$9/2</f>
-        <v>2</v>
-      </c>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:24" ht="25.5">
-      <c r="A10" s="18">
-        <v>54</v>
-      </c>
-      <c r="B10" s="20" t="str">
-        <f>LOOKUP(A10,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Configurar el repositorio global de la aplicación.</v>
-      </c>
-      <c r="C10" s="17">
-        <f>LOOKUP(A10,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="17">
-        <f>LOOKUP(A10,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="19">
-        <f>LOOKUP(A10,tareas!$A:$A,tareas!$E:$E)</f>
-        <v>3</v>
-      </c>
-      <c r="F10" s="15">
-        <f>E10/SUM(tiempo!$J$7:$J$8)</f>
-        <v>7.5949367088607597E-2</v>
-      </c>
-      <c r="G10" s="19">
-        <f>LOOKUP(A10,tareas!$A:$A,tareas!$G:$G)</f>
-        <v>6</v>
-      </c>
+    <row r="10" spans="1:24">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="E10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="21"/>
-      <c r="M10" s="16">
-        <f>$E$10</f>
-        <v>3</v>
-      </c>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:24" ht="25.5">
-      <c r="A11" s="18">
-        <v>55</v>
-      </c>
-      <c r="B11" s="20" t="str">
-        <f>LOOKUP(A11,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Crear la agenda para la reunión #4 con el cliente.</v>
-      </c>
-      <c r="C11" s="17">
-        <f>LOOKUP(A11,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
-        <f>LOOKUP(A11,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
-        <f>LOOKUP(A11,tareas!$A:$A,tareas!$E:$E)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="15">
-        <f>E11/SUM(tiempo!$J$7:$J$8)</f>
-        <v>1.2658227848101266E-2</v>
-      </c>
-      <c r="G11" s="19">
-        <f>LOOKUP(A11,tareas!$A:$A,tareas!$G:$G)</f>
-        <v>6</v>
-      </c>
+    <row r="11" spans="1:24">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="E11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="21"/>
-      <c r="L11" s="16">
-        <f>$E$11</f>
-        <v>0.5</v>
-      </c>
       <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="18">
-        <v>56</v>
-      </c>
-      <c r="B12" s="20" t="str">
-        <f>LOOKUP(A12,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Reunión #4 con el cliente.</v>
-      </c>
-      <c r="C12" s="17">
-        <f>LOOKUP(A12,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="17">
-        <f>LOOKUP(A12,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="19">
-        <f>LOOKUP(A12,tareas!$A:$A,tareas!$E:$E)</f>
-        <v>2</v>
-      </c>
-      <c r="F12" s="15">
-        <f>E12/SUM(tiempo!$J$7:$J$8)</f>
-        <v>5.0632911392405063E-2</v>
-      </c>
-      <c r="G12" s="19">
-        <f>LOOKUP(A12,tareas!$A:$A,tareas!$G:$G)</f>
-        <v>6</v>
-      </c>
-      <c r="J12" s="16">
-        <v>1</v>
-      </c>
-      <c r="K12" s="16">
-        <v>1</v>
-      </c>
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="G12" s="19"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:24" ht="25.5">
-      <c r="A13" s="18">
-        <v>57</v>
-      </c>
-      <c r="B13" s="20" t="str">
-        <f>LOOKUP(A13,tareas!$A:$A,tareas!$B:$B)</f>
-        <v>Configurar el repositorio local de la aplicación.</v>
-      </c>
-      <c r="C13" s="17">
-        <f>LOOKUP(A13,tareas!$A:$A,tareas!$C:$C)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="17">
-        <f>LOOKUP(A13,tareas!$A:$A,tareas!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="19">
-        <f>LOOKUP(A13,tareas!$A:$A,tareas!$E:$E)</f>
-        <v>5</v>
-      </c>
-      <c r="F13" s="15">
-        <f>E13/SUM(tiempo!$J$7:$J$8)</f>
-        <v>0.12658227848101267</v>
-      </c>
-      <c r="G13" s="19">
-        <f>LOOKUP(A13,tareas!$A:$A,tareas!$G:$G)</f>
-        <v>7</v>
-      </c>
+    <row r="13" spans="1:24">
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
+      <c r="E13" s="19"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="16">
-        <f>$E$13/5</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="16">
-        <f t="shared" ref="J13:M13" si="2">$E$13/5</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="16">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="16">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M13" s="16">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:24">

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -13,13 +13,15 @@
     <sheet name="1" sheetId="3" r:id="rId4"/>
     <sheet name="2" sheetId="4" r:id="rId5"/>
     <sheet name="3" sheetId="6" r:id="rId6"/>
+    <sheet name="1-ganancias" sheetId="7" r:id="rId7"/>
+    <sheet name="2-ganancias" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="146">
   <si>
     <t>Semana</t>
   </si>
@@ -884,24 +886,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72039424"/>
-        <c:axId val="72045312"/>
+        <c:axId val="77680000"/>
+        <c:axId val="77685888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72039424"/>
+        <c:axId val="77680000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72045312"/>
+        <c:crossAx val="77685888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72045312"/>
+        <c:axId val="77685888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +911,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72039424"/>
+        <c:crossAx val="77680000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -922,7 +924,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1051,24 +1053,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="135852800"/>
-        <c:axId val="137906816"/>
+        <c:axId val="77706368"/>
+        <c:axId val="77707904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="135852800"/>
+        <c:axId val="77706368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137906816"/>
+        <c:crossAx val="77707904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137906816"/>
+        <c:axId val="77707904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +1078,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135852800"/>
+        <c:crossAx val="77706368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1089,7 +1091,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1275,24 +1277,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="72357760"/>
-        <c:axId val="72359296"/>
+        <c:axId val="77873152"/>
+        <c:axId val="77874688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72357760"/>
+        <c:axId val="77873152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72359296"/>
+        <c:crossAx val="77874688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72359296"/>
+        <c:axId val="77874688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1302,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72357760"/>
+        <c:crossAx val="77873152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1313,7 +1315,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1385,24 +1387,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="102144256"/>
-        <c:axId val="102158336"/>
+        <c:axId val="77908224"/>
+        <c:axId val="77914112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102144256"/>
+        <c:axId val="77908224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102158336"/>
+        <c:crossAx val="77914112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102158336"/>
+        <c:axId val="77914112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1412,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102144256"/>
+        <c:crossAx val="77908224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1423,7 +1425,471 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1-ganancias'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje acumulado de ganancias estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'1-ganancias'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.36923076923076925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71282051282051273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1-ganancias'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje acumulado de ganancias obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'1-ganancias'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.23589743589743592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37435897435897436</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74358974358974361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="65288448"/>
+        <c:axId val="65298432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65288448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65298432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65298432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65288448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1-ganancias'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje individual de ganancias estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'1-ganancias'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.36923076923076925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34358974358974353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28717948717948716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1-ganancias'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje individual de ganancias obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'1-ganancias'!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.23589743589743592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13846153846153847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3692307692307692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="67223552"/>
+        <c:axId val="67225088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="67223552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67225088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67225088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67223552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-ganancias'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje acumulado de ganancias estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'2-ganancias'!$E$2:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.51094890510948909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-ganancias'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje acumulado de ganancias obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'2-ganancias'!$H$2:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.36496350364963503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96350364963503654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="64504576"/>
+        <c:axId val="64506112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="64504576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64506112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64506112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64504576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-ganancias'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje individual de ganancias estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'2-ganancias'!$D$2:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.51094890510948909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48905109489051102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2-ganancias'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje individual de ganancias obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'2-ganancias'!$G$2:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.36496350364963503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59854014598540151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="64530688"/>
+        <c:axId val="64532480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="64530688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64532480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64532480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64530688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1499,13 +1965,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:colOff>200023</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
@@ -1529,19 +1995,149 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>200026</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1846,8 +2442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2194,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2861,8 +3457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
@@ -52233,7 +52829,7 @@
   <dimension ref="A1:AMK28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -52785,7 +53381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" ht="25.5">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -53244,7 +53840,7 @@
         <v>1.1944444444444442</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="25.5">
+    <row r="16" spans="1:24" ht="38.25">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -53368,7 +53964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" ht="25.5">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -53508,7 +54104,7 @@
         <v>1.6333333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="25.5">
+    <row r="20" spans="1:24" ht="38.25">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -53567,7 +54163,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" ht="25.5">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -53630,7 +54226,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="25.5">
+    <row r="22" spans="1:24" ht="38.25">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -53693,7 +54289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="25.5">
+    <row r="23" spans="1:24" ht="51">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -53756,7 +54352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="25.5">
+    <row r="24" spans="1:24" ht="63.75">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -53851,8 +54447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -53936,7 +54532,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" ht="38.25">
       <c r="A2" s="18">
         <v>24</v>
       </c>
@@ -54208,7 +54804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="38.25">
+    <row r="6" spans="1:24" ht="51">
       <c r="A6" s="18">
         <v>28</v>
       </c>
@@ -55637,4 +56233,246 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="32" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" style="32" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="57">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
+        <f>ganancias!A2</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <f>LOOKUP(A2,ganancias!A:A,ganancias!B:B)</f>
+        <v>41902</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="5">
+        <f>SUMIF('1'!$G:$G,A2,'1'!$F:$F)</f>
+        <v>0.36923076923076925</v>
+      </c>
+      <c r="E2" s="6">
+        <f>D2</f>
+        <v>0.36923076923076925</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="6">
+        <f>SUMIF('1'!$R:$R,A2,'1'!$Q:$Q)</f>
+        <v>0.23589743589743592</v>
+      </c>
+      <c r="H2" s="6">
+        <f>G2</f>
+        <v>0.23589743589743592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3">
+        <f>ganancias!A3</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <f>LOOKUP(A3,ganancias!A:A,ganancias!B:B)</f>
+        <v>41909</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="5">
+        <f>SUMIF('1'!$G:$G,A3,'1'!$F:$F)</f>
+        <v>0.34358974358974353</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E4" si="0">D3+E2</f>
+        <v>0.71282051282051273</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="6">
+        <f>SUMIF('1'!$R:$R,A3,'1'!$Q:$Q)</f>
+        <v>0.13846153846153847</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H4" si="1">G3+H2</f>
+        <v>0.37435897435897436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
+        <f>ganancias!A4</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <f>LOOKUP(A4,ganancias!A:A,ganancias!B:B)</f>
+        <v>41916</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="5">
+        <f>SUMIF('1'!$G:$G,A4,'1'!$F:$F)</f>
+        <v>0.28717948717948716</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="6">
+        <f>SUMIF('1'!$R:$R,A4,'1'!$Q:$Q)</f>
+        <v>0.3692307692307692</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="1"/>
+        <v>0.74358974358974361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="32" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" style="32" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="57">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
+        <f>ganancias!A5</f>
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <f>LOOKUP(A2,ganancias!A:A,ganancias!B:B)</f>
+        <v>41923</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="5">
+        <f>SUMIF('2'!$G:$G,A2,'2'!$F:$F)</f>
+        <v>0.51094890510948909</v>
+      </c>
+      <c r="E2" s="6">
+        <f>D2</f>
+        <v>0.51094890510948909</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="6">
+        <f>SUMIF('2'!$R:$R,A2,'2'!$Q:$Q)</f>
+        <v>0.36496350364963503</v>
+      </c>
+      <c r="H2" s="6">
+        <f>G2</f>
+        <v>0.36496350364963503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3">
+        <f>ganancias!A6</f>
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <f>LOOKUP(A3,ganancias!A:A,ganancias!B:B)</f>
+        <v>41930</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="5">
+        <f>SUMIF('2'!$G:$G,A3,'2'!$F:$F)</f>
+        <v>0.48905109489051102</v>
+      </c>
+      <c r="E3" s="6">
+        <f>D3+E2</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="6">
+        <f>SUMIF('2'!$R:$R,A3,'2'!$Q:$Q)</f>
+        <v>0.59854014598540151</v>
+      </c>
+      <c r="H3" s="6">
+        <f>G3+H2</f>
+        <v>0.96350364963503654</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="439" activeTab="2"/>
+    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="516" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ganancias" sheetId="1" r:id="rId1"/>
@@ -886,24 +886,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77680000"/>
-        <c:axId val="77685888"/>
+        <c:axId val="81232256"/>
+        <c:axId val="81233792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77680000"/>
+        <c:axId val="81232256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77685888"/>
+        <c:crossAx val="81233792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77685888"/>
+        <c:axId val="81233792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +911,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77680000"/>
+        <c:crossAx val="81232256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -924,7 +924,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1053,24 +1053,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77706368"/>
-        <c:axId val="77707904"/>
+        <c:axId val="81258368"/>
+        <c:axId val="81259904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77706368"/>
+        <c:axId val="81258368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77707904"/>
+        <c:crossAx val="81259904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77707904"/>
+        <c:axId val="81259904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1078,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77706368"/>
+        <c:crossAx val="81258368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1091,7 +1091,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1250,10 +1250,10 @@
                   <c:v>44.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.4</c:v>
+                  <c:v>33.56666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.599999999999994</c:v>
+                  <c:v>49.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1277,24 +1277,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77873152"/>
-        <c:axId val="77874688"/>
+        <c:axId val="81425152"/>
+        <c:axId val="81426688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77873152"/>
+        <c:axId val="81425152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77874688"/>
+        <c:crossAx val="81426688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77874688"/>
+        <c:axId val="81426688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,7 +1302,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77873152"/>
+        <c:crossAx val="81425152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1315,7 +1315,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1381,30 +1381,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>172.25</c:v>
+                  <c:v>176.98333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77908224"/>
-        <c:axId val="77914112"/>
+        <c:axId val="81456128"/>
+        <c:axId val="81531648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77908224"/>
+        <c:axId val="81456128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77914112"/>
+        <c:crossAx val="81531648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77914112"/>
+        <c:axId val="81531648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,7 +1412,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77908224"/>
+        <c:crossAx val="81456128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1425,7 +1425,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1506,24 +1506,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65288448"/>
-        <c:axId val="65298432"/>
+        <c:axId val="81713792"/>
+        <c:axId val="81797504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65288448"/>
+        <c:axId val="81713792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65298432"/>
+        <c:crossAx val="81797504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65298432"/>
+        <c:axId val="81797504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,7 +1531,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65288448"/>
+        <c:crossAx val="81713792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1544,7 +1544,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1625,24 +1625,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67223552"/>
-        <c:axId val="67225088"/>
+        <c:axId val="81813888"/>
+        <c:axId val="81815424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67223552"/>
+        <c:axId val="81813888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67225088"/>
+        <c:crossAx val="81815424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67225088"/>
+        <c:axId val="81815424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,7 +1650,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67223552"/>
+        <c:crossAx val="81813888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1663,7 +1663,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1738,24 +1738,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64504576"/>
-        <c:axId val="64506112"/>
+        <c:axId val="82028416"/>
+        <c:axId val="82029952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64504576"/>
+        <c:axId val="82028416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64506112"/>
+        <c:crossAx val="82029952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64506112"/>
+        <c:axId val="82029952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1763,7 +1763,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64504576"/>
+        <c:crossAx val="82028416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1776,7 +1776,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1851,24 +1851,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64530688"/>
-        <c:axId val="64532480"/>
+        <c:axId val="82050432"/>
+        <c:axId val="82060416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64530688"/>
+        <c:axId val="82050432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64532480"/>
+        <c:crossAx val="82060416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64532480"/>
+        <c:axId val="82060416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,7 +1876,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64530688"/>
+        <c:crossAx val="82050432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1889,7 +1889,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2030,15 +2030,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
+      <xdr:colOff>552449</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2790,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -3056,7 +3056,7 @@
         <v>2.8</v>
       </c>
       <c r="N5" s="8">
-        <v>2.8</v>
+        <v>2.9666666666666668</v>
       </c>
       <c r="O5" s="8">
         <v>5.5</v>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="Q5" s="8">
         <f t="shared" si="1"/>
-        <v>33.4</v>
+        <v>33.56666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3110,7 +3110,7 @@
         <v>7.0166666666666666</v>
       </c>
       <c r="N6" s="8">
-        <v>5.6333333333333337</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="O6" s="8">
         <v>5.7833333333333332</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="Q6" s="8">
         <f t="shared" si="1"/>
-        <v>44.599999999999994</v>
+        <v>49.166666666666671</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="N14" s="7">
         <f t="shared" si="3"/>
-        <v>27.813333333333333</v>
+        <v>32.546666666666667</v>
       </c>
       <c r="O14" s="7">
         <f t="shared" si="3"/>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="Q14" s="7">
         <f t="shared" si="3"/>
-        <v>172.25</v>
+        <v>176.98333333333335</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3457,8 +3457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
@@ -52828,8 +52828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -54447,8 +54447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -54659,7 +54659,7 @@
       </c>
       <c r="P3" s="16">
         <f t="shared" ref="P3:P23" si="0">SUM(T3:X3)</f>
-        <v>2.583333333333333</v>
+        <v>2.7499999999999996</v>
       </c>
       <c r="Q3" s="15">
         <f t="shared" ref="Q3:Q23" si="1">F3</f>
@@ -54675,7 +54675,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="V3" s="16">
-        <v>0.91666666666666663</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="W3" s="16">
         <v>0.41666666666666669</v>
@@ -54779,7 +54779,7 @@
       </c>
       <c r="P5" s="16">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="Q5" s="15">
         <f t="shared" si="1"/>
@@ -54795,7 +54795,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="16">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="W5" s="16">
         <v>0</v>
@@ -55115,7 +55115,7 @@
       </c>
       <c r="P10" s="16">
         <f t="shared" si="0"/>
-        <v>3.1666666666666665</v>
+        <v>4.0666666666666664</v>
       </c>
       <c r="Q10" s="15">
         <f t="shared" si="1"/>
@@ -55131,7 +55131,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="V10" s="16">
-        <v>0.6333333333333333</v>
+        <v>1.5333333333333334</v>
       </c>
       <c r="W10" s="16">
         <v>0.6333333333333333</v>
@@ -55175,7 +55175,7 @@
       </c>
       <c r="P11" s="16">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="Q11" s="15">
         <f t="shared" si="1"/>
@@ -55191,7 +55191,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="16">
-        <v>0.58333333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="W11" s="16">
         <v>0</v>
@@ -55234,7 +55234,7 @@
       </c>
       <c r="P12" s="16">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="Q12" s="15">
         <f t="shared" si="1"/>
@@ -55250,7 +55250,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="16">
-        <v>0.3</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="W12" s="16">
         <v>0</v>
@@ -56239,8 +56239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -56374,8 +56374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -2790,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="516" activeTab="1"/>
+    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="516" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ganancias" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="156">
   <si>
     <t>Semana</t>
   </si>
@@ -191,15 +191,6 @@
     <t>Elaborar el mockup de la vista para ver la calendarización de uno o más recursos.</t>
   </si>
   <si>
-    <t>Elaborar el pseudocódigo del algoritmo de calendarización.</t>
-  </si>
-  <si>
-    <t>Configurar el repositorio global de la aplicación.</t>
-  </si>
-  <si>
-    <t>Configurar el repositorio local de la aplicación.</t>
-  </si>
-  <si>
     <t>Crear la agenda para la reunión #4 con el cliente.</t>
   </si>
   <si>
@@ -207,9 +198,6 @@
   </si>
   <si>
     <t>Elaborar el mokcup de la vista de la calendarización.</t>
-  </si>
-  <si>
-    <t>Elaborar el algoritmo de construcción de la estructura a partir del archivo csv.</t>
   </si>
   <si>
     <t>Horas Disponibles</t>
@@ -459,6 +447,48 @@
   </si>
   <si>
     <t>Se elaboró el mockup de la vista de la calendarización.</t>
+  </si>
+  <si>
+    <t>Calcular el tiempo de corrida del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Elaborar el mockup de la vista para ver los eventos o excepciones de los recursos.</t>
+  </si>
+  <si>
+    <t>Elaborar el pseudocódigo del algoritmo de construcción del DAG a partir del archivo de excel.</t>
+  </si>
+  <si>
+    <t>Configurar el ambiente de desarrollo global.</t>
+  </si>
+  <si>
+    <t>Configurar el ambiente de desarrollo local.</t>
+  </si>
+  <si>
+    <t>Se elaboró el mockup de la vista para ver la calendarización de uno o más recursos.</t>
+  </si>
+  <si>
+    <t>Se ha creado y enviado la agenda para la reunión #4 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se creó la agenda para la reunión #4 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se creó la minuta de la reunión #4 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se elaboró el mockup de la vista para ver los eventos o excepciones de los recursos.</t>
+  </si>
+  <si>
+    <t>Se ha elaborado el diagrama de flujo del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Se elaboró el pseudocódigo del algoritmo de construcción del DAG a partir del archivo de excel.</t>
+  </si>
+  <si>
+    <t>Se elaboró el mockup de la vista para la asignación de la disponibilidad de los recursos.</t>
+  </si>
+  <si>
+    <t>Se documentó el tiempo de corrida del algoritmo de calendarización.</t>
   </si>
 </sst>
 </file>
@@ -792,22 +822,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.17955112219451372</c:v>
+                  <c:v>0.17433414043583537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34663341645885287</c:v>
+                  <c:v>0.33656174334140432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.486284289276808</c:v>
+                  <c:v>0.47215496368038734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6608478802992519</c:v>
+                  <c:v>0.64164648910411615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82793017456359097</c:v>
+                  <c:v>0.80387409200968518</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.97578692493946728</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -849,61 +879,61 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.11471321695760599</c:v>
+                  <c:v>0.11138014527845036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18204488778054861</c:v>
+                  <c:v>0.17675544794188863</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36159600997506236</c:v>
+                  <c:v>0.35108958837772397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.486284289276808</c:v>
+                  <c:v>0.4721549636803874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69077306733167088</c:v>
+                  <c:v>0.67070217917675545</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69077306733167088</c:v>
+                  <c:v>0.67070217917675545</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69077306733167088</c:v>
+                  <c:v>0.67070217917675545</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69077306733167088</c:v>
+                  <c:v>0.67070217917675545</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69077306733167088</c:v>
+                  <c:v>0.67070217917675545</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.69077306733167088</c:v>
+                  <c:v>0.67070217917675545</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.69077306733167088</c:v>
+                  <c:v>0.67070217917675545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81232256"/>
-        <c:axId val="81233792"/>
+        <c:axId val="73175424"/>
+        <c:axId val="73176960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81232256"/>
+        <c:axId val="73175424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81233792"/>
+        <c:crossAx val="73176960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81233792"/>
+        <c:axId val="73176960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,20 +941,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81232256"/>
+        <c:crossAx val="73175424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -960,25 +989,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.17955112219451372</c:v>
+                  <c:v>0.17433414043583537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16708229426433915</c:v>
+                  <c:v>0.16222760290556898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13965087281795513</c:v>
+                  <c:v>0.13559322033898305</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17456359102244393</c:v>
+                  <c:v>0.16949152542372881</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16708229426433913</c:v>
+                  <c:v>0.16222760290556901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.172069825436409</c:v>
+                  <c:v>0.1719128329297821</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.4213075060532687E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1017,19 +1046,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.11471321695760599</c:v>
+                  <c:v>0.11138014527845036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7331670822942641E-2</c:v>
+                  <c:v>6.5375302663438259E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17955112219451372</c:v>
+                  <c:v>0.17433414043583537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12468827930174564</c:v>
+                  <c:v>0.12106537530266342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20448877805486287</c:v>
+                  <c:v>0.19854721549636808</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1053,24 +1082,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81258368"/>
-        <c:axId val="81259904"/>
+        <c:axId val="73197440"/>
+        <c:axId val="73198976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81258368"/>
+        <c:axId val="73197440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81259904"/>
+        <c:crossAx val="73198976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81259904"/>
+        <c:axId val="73198976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,20 +1107,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81258368"/>
+        <c:crossAx val="73197440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1199,10 +1227,10 @@
                   <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.5</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1277,24 +1305,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81425152"/>
-        <c:axId val="81426688"/>
+        <c:axId val="73298688"/>
+        <c:axId val="73300224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81425152"/>
+        <c:axId val="73298688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81426688"/>
+        <c:crossAx val="73300224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81426688"/>
+        <c:axId val="73300224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,20 +1330,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81425152"/>
+        <c:crossAx val="73298688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1362,7 +1389,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>200.5</c:v>
+                  <c:v>206.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1387,24 +1414,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81456128"/>
-        <c:axId val="81531648"/>
+        <c:axId val="73329664"/>
+        <c:axId val="73409280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81456128"/>
+        <c:axId val="73329664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81531648"/>
+        <c:crossAx val="73409280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81531648"/>
+        <c:axId val="73409280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,20 +1439,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81456128"/>
+        <c:crossAx val="73329664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1506,24 +1532,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81713792"/>
-        <c:axId val="81797504"/>
+        <c:axId val="84073088"/>
+        <c:axId val="84156800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81713792"/>
+        <c:axId val="84073088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81797504"/>
+        <c:crossAx val="84156800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81797504"/>
+        <c:axId val="84156800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,20 +1557,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81713792"/>
+        <c:crossAx val="84073088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1625,24 +1650,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81813888"/>
-        <c:axId val="81815424"/>
+        <c:axId val="84173184"/>
+        <c:axId val="84174720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81813888"/>
+        <c:axId val="84173184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81815424"/>
+        <c:crossAx val="84174720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81815424"/>
+        <c:axId val="84174720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,20 +1675,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81813888"/>
+        <c:crossAx val="84173184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1738,24 +1762,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82028416"/>
-        <c:axId val="82029952"/>
+        <c:axId val="84387712"/>
+        <c:axId val="84389248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82028416"/>
+        <c:axId val="84387712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82029952"/>
+        <c:crossAx val="84389248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82029952"/>
+        <c:axId val="84389248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1763,20 +1787,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82028416"/>
+        <c:crossAx val="84387712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1851,24 +1874,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="82050432"/>
-        <c:axId val="82060416"/>
+        <c:axId val="84409728"/>
+        <c:axId val="84419712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82050432"/>
+        <c:axId val="84409728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82060416"/>
+        <c:crossAx val="84419712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82060416"/>
+        <c:axId val="84419712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,20 +1899,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82050432"/>
+        <c:crossAx val="84409728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2489,20 +2511,20 @@
       <c r="C2" s="37"/>
       <c r="D2" s="5">
         <f>SUMIF(tareas!$G:$G,A2,tareas!$F:$F)</f>
-        <v>0.17955112219451372</v>
+        <v>0.17433414043583537</v>
       </c>
       <c r="E2" s="6">
         <f>D2</f>
-        <v>0.17955112219451372</v>
+        <v>0.17433414043583537</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="6">
         <f>SUMIF(tareas!$J:$J,A2,tareas!$I:$I)</f>
-        <v>0.11471321695760599</v>
+        <v>0.11138014527845036</v>
       </c>
       <c r="H2" s="6">
         <f>G2</f>
-        <v>0.11471321695760599</v>
+        <v>0.11138014527845036</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2516,20 +2538,20 @@
       <c r="C3" s="37"/>
       <c r="D3" s="5">
         <f>SUMIF(tareas!$G:$G,A3,tareas!$F:$F)</f>
-        <v>0.16708229426433915</v>
+        <v>0.16222760290556898</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E12" si="1">D3+E2</f>
-        <v>0.34663341645885287</v>
+        <v>0.33656174334140432</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="6">
         <f>SUMIF(tareas!$J:$J,A3,tareas!$I:$I)</f>
-        <v>6.7331670822942641E-2</v>
+        <v>6.5375302663438259E-2</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H12" si="2">G3+H2</f>
-        <v>0.18204488778054861</v>
+        <v>0.17675544794188863</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2543,20 +2565,20 @@
       <c r="C4" s="37"/>
       <c r="D4" s="5">
         <f>SUMIF(tareas!$G:$G,A4,tareas!$F:$F)</f>
-        <v>0.13965087281795513</v>
+        <v>0.13559322033898305</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>0.486284289276808</v>
+        <v>0.47215496368038734</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="6">
         <f>SUMIF(tareas!$J:$J,A4,tareas!$I:$I)</f>
-        <v>0.17955112219451372</v>
+        <v>0.17433414043583537</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="2"/>
-        <v>0.36159600997506236</v>
+        <v>0.35108958837772397</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2570,20 +2592,20 @@
       <c r="C5" s="37"/>
       <c r="D5" s="5">
         <f>SUMIF(tareas!$G:$G,A5,tareas!$F:$F)</f>
-        <v>0.17456359102244393</v>
+        <v>0.16949152542372881</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>0.6608478802992519</v>
+        <v>0.64164648910411615</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="6">
         <f>SUMIF(tareas!$J:$J,A5,tareas!$I:$I)</f>
-        <v>0.12468827930174564</v>
+        <v>0.12106537530266342</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="2"/>
-        <v>0.486284289276808</v>
+        <v>0.4721549636803874</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2597,20 +2619,20 @@
       <c r="C6" s="37"/>
       <c r="D6" s="5">
         <f>SUMIF(tareas!$G:$G,A6,tareas!$F:$F)</f>
-        <v>0.16708229426433913</v>
+        <v>0.16222760290556901</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>0.82793017456359097</v>
+        <v>0.80387409200968518</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="6">
         <f>SUMIF(tareas!$J:$J,A6,tareas!$I:$I)</f>
-        <v>0.20448877805486287</v>
+        <v>0.19854721549636808</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="2"/>
-        <v>0.69077306733167088</v>
+        <v>0.67070217917675545</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2624,11 +2646,11 @@
       <c r="C7" s="37"/>
       <c r="D7" s="5">
         <f>SUMIF(tareas!$G:$G,A7,tareas!$F:$F)</f>
-        <v>0.172069825436409</v>
+        <v>0.1719128329297821</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.97578692493946728</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="6">
@@ -2637,7 +2659,7 @@
       </c>
       <c r="H7" s="6">
         <f t="shared" si="2"/>
-        <v>0.69077306733167088</v>
+        <v>0.67070217917675545</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2651,7 +2673,7 @@
       <c r="C8" s="37"/>
       <c r="D8" s="5">
         <f>SUMIF(tareas!$G:$G,A8,tareas!$F:$F)</f>
-        <v>0</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
@@ -2664,7 +2686,7 @@
       </c>
       <c r="H8" s="6">
         <f t="shared" si="2"/>
-        <v>0.69077306733167088</v>
+        <v>0.67070217917675545</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2691,7 +2713,7 @@
       </c>
       <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>0.69077306733167088</v>
+        <v>0.67070217917675545</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2718,7 +2740,7 @@
       </c>
       <c r="H10" s="6">
         <f t="shared" si="2"/>
-        <v>0.69077306733167088</v>
+        <v>0.67070217917675545</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2745,7 +2767,7 @@
       </c>
       <c r="H11" s="6">
         <f t="shared" si="2"/>
-        <v>0.69077306733167088</v>
+        <v>0.67070217917675545</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2772,7 +2794,7 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" si="2"/>
-        <v>0.69077306733167088</v>
+        <v>0.67070217917675545</v>
       </c>
     </row>
   </sheetData>
@@ -2790,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2812,7 +2834,7 @@
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D1" s="33"/>
       <c r="E1" s="9" t="s">
@@ -2831,7 +2853,7 @@
         <v>49</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K1" s="33"/>
       <c r="L1" s="9" t="s">
@@ -2850,7 +2872,7 @@
         <v>49</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3155,7 +3177,7 @@
       </c>
       <c r="J7" s="8">
         <f>SUMIF(tareas!G:G,A7,tareas!E:E)</f>
-        <v>34.5</v>
+        <v>35.5</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -3199,7 +3221,7 @@
       </c>
       <c r="J8" s="8">
         <f>SUMIF(tareas!G:G,A8,tareas!E:E)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -3414,7 +3436,7 @@
       </c>
       <c r="J14" s="7">
         <f>SUM(J2:J12)</f>
-        <v>200.5</v>
+        <v>206.5</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" ref="L14:Q14" si="3">SUM(L2:L12)</f>
@@ -3444,7 +3466,7 @@
     <row r="15" spans="1:17">
       <c r="J15" s="7">
         <f>J14-SUM(E14:I14)</f>
-        <v>34.5</v>
+        <v>40.5</v>
       </c>
     </row>
   </sheetData>
@@ -3455,10 +3477,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK60"/>
+  <dimension ref="A1:AMK61"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
@@ -3512,7 +3534,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E2" s="19">
         <f>7.5</f>
@@ -3520,14 +3542,14 @@
       </c>
       <c r="F2" s="15">
         <f>E2/tiempo!$J$14</f>
-        <v>3.7406483790523692E-2</v>
+        <v>3.6319612590799029E-2</v>
       </c>
       <c r="G2" s="18">
         <v>1</v>
       </c>
       <c r="I2" s="15">
         <f>IF(ISBLANK(LOOKUP(A2,'1'!$A:$A,'1'!$R:$R)),0,F2)</f>
-        <v>3.7406483790523692E-2</v>
+        <v>3.6319612590799029E-2</v>
       </c>
       <c r="J2" s="16">
         <f>LOOKUP(A2,'1'!$A:$A,'1'!$R:$R)</f>
@@ -4554,27 +4576,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E3" s="19">
         <v>5</v>
       </c>
       <c r="F3" s="15">
         <f>E3/tiempo!$J$14</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="G3" s="18">
         <v>1</v>
       </c>
       <c r="I3" s="15">
         <f>IF(ISBLANK(LOOKUP(A3,'1'!$A:$A,'1'!$R:$R)),0,F3)</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="J3" s="16">
         <f>LOOKUP(A3,'1'!$A:$A,'1'!$R:$R)</f>
@@ -5601,27 +5623,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E4" s="19">
         <v>5</v>
       </c>
       <c r="F4" s="15">
         <f>E4/tiempo!$J$14</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="G4" s="18">
         <v>1</v>
       </c>
       <c r="I4" s="15">
         <f>IF(ISBLANK(LOOKUP(A4,'1'!$A:$A,'1'!$R:$R)),0,F4)</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="J4" s="16">
         <f>LOOKUP(A4,'1'!$A:$A,'1'!$R:$R)</f>
@@ -6648,27 +6670,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E5" s="19">
         <v>2</v>
       </c>
       <c r="F5" s="15">
         <f>E5/tiempo!$J$14</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="G5" s="18">
         <v>1</v>
       </c>
       <c r="I5" s="15">
         <f>IF(ISBLANK(LOOKUP(A5,'1'!$A:$A,'1'!$R:$R)),0,F5)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="J5" s="16">
         <f>LOOKUP(A5,'1'!$A:$A,'1'!$R:$R)</f>
@@ -7698,21 +7720,21 @@
         <v>14</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E6" s="21">
         <v>0.5</v>
       </c>
       <c r="F6" s="15">
         <f>E6/tiempo!$J$14</f>
-        <v>2.4937655860349127E-3</v>
+        <v>2.4213075060532689E-3</v>
       </c>
       <c r="G6" s="22">
         <v>1</v>
       </c>
       <c r="I6" s="15">
         <f>IF(ISBLANK(LOOKUP(A6,'1'!$A:$A,'1'!$R:$R)),0,F6)</f>
-        <v>2.4937655860349127E-3</v>
+        <v>2.4213075060532689E-3</v>
       </c>
       <c r="J6" s="16">
         <f>LOOKUP(A6,'1'!$A:$A,'1'!$R:$R)</f>
@@ -8742,21 +8764,21 @@
         <v>15</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E7" s="21">
         <v>0.5</v>
       </c>
       <c r="F7" s="15">
         <f>E7/tiempo!$J$14</f>
-        <v>2.4937655860349127E-3</v>
+        <v>2.4213075060532689E-3</v>
       </c>
       <c r="G7" s="21">
         <v>1</v>
       </c>
       <c r="I7" s="15">
         <f>IF(ISBLANK(LOOKUP(A7,'1'!$A:$A,'1'!$R:$R)),0,F7)</f>
-        <v>2.4937655860349127E-3</v>
+        <v>2.4213075060532689E-3</v>
       </c>
       <c r="J7" s="16">
         <f>LOOKUP(A7,'1'!$A:$A,'1'!$R:$R)</f>
@@ -9786,24 +9808,24 @@
         <v>16</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E8" s="21">
         <v>0.5</v>
       </c>
       <c r="F8" s="15">
         <f>E8/tiempo!$J$14</f>
-        <v>2.4937655860349127E-3</v>
+        <v>2.4213075060532689E-3</v>
       </c>
       <c r="G8" s="21">
         <v>1</v>
       </c>
       <c r="I8" s="15">
         <f>IF(ISBLANK(LOOKUP(A8,'1'!$A:$A,'1'!$R:$R)),0,F8)</f>
-        <v>2.4937655860349127E-3</v>
+        <v>2.4213075060532689E-3</v>
       </c>
       <c r="J8" s="16">
         <f>LOOKUP(A8,'1'!$A:$A,'1'!$R:$R)</f>
@@ -10833,24 +10855,24 @@
         <v>17</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E9" s="21">
         <v>2</v>
       </c>
       <c r="F9" s="15">
         <f>E9/tiempo!$J$14</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="G9" s="21">
         <v>1</v>
       </c>
       <c r="I9" s="15">
         <f>IF(ISBLANK(LOOKUP(A9,'1'!$A:$A,'1'!$R:$R)),0,F9)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="J9" s="16">
         <f>LOOKUP(A9,'1'!$A:$A,'1'!$R:$R)</f>
@@ -11880,21 +11902,21 @@
         <v>18</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E10" s="21">
         <v>3</v>
       </c>
       <c r="F10" s="15">
         <f>E10/tiempo!$J$14</f>
-        <v>1.4962593516209476E-2</v>
+        <v>1.4527845036319613E-2</v>
       </c>
       <c r="G10" s="21">
         <v>1</v>
       </c>
       <c r="I10" s="15">
         <f>IF(ISBLANK(LOOKUP(A10,'1'!$A:$A,'1'!$R:$R)),0,F10)</f>
-        <v>1.4962593516209476E-2</v>
+        <v>1.4527845036319613E-2</v>
       </c>
       <c r="J10" s="16">
         <f>LOOKUP(A10,'1'!$A:$A,'1'!$R:$R)</f>
@@ -12928,7 +12950,7 @@
       </c>
       <c r="F11" s="15">
         <f>E11/tiempo!$J$14</f>
-        <v>4.9875311720698257E-2</v>
+        <v>4.8426150121065374E-2</v>
       </c>
       <c r="G11" s="21">
         <v>1</v>
@@ -13962,7 +13984,7 @@
       </c>
       <c r="F12" s="15">
         <f>E12/tiempo!$J$14</f>
-        <v>7.4812967581047385E-2</v>
+        <v>7.2639225181598058E-2</v>
       </c>
       <c r="G12" s="16">
         <v>2</v>
@@ -14992,24 +15014,24 @@
         <v>19</v>
       </c>
       <c r="C13" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="39" t="s">
         <v>89</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>93</v>
       </c>
       <c r="E13" s="21">
         <v>10</v>
       </c>
       <c r="F13" s="15">
         <f>E13/tiempo!$J$14</f>
-        <v>4.9875311720698257E-2</v>
+        <v>4.8426150121065374E-2</v>
       </c>
       <c r="G13" s="21">
         <v>2</v>
       </c>
       <c r="I13" s="15">
         <f>IF(ISBLANK(LOOKUP(A13,'1'!$A:$A,'1'!$R:$R)),0,F13)</f>
-        <v>4.9875311720698257E-2</v>
+        <v>4.8426150121065374E-2</v>
       </c>
       <c r="J13" s="16">
         <f>LOOKUP(A13,'1'!$A:$A,'1'!$R:$R)</f>
@@ -16039,24 +16061,24 @@
         <v>20</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E14" s="21">
         <v>2</v>
       </c>
       <c r="F14" s="15">
         <f>E14/tiempo!$J$14</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="G14" s="21">
         <v>2</v>
       </c>
       <c r="I14" s="15">
         <f>IF(ISBLANK(LOOKUP(A14,'1'!$A:$A,'1'!$R:$R)),0,F14)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="J14" s="16">
         <f>LOOKUP(A14,'1'!$A:$A,'1'!$R:$R)</f>
@@ -17086,24 +17108,24 @@
         <v>21</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E15" s="21">
         <v>2</v>
       </c>
       <c r="F15" s="15">
         <f>E15/tiempo!$J$14</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="G15" s="21">
         <v>2</v>
       </c>
       <c r="I15" s="15">
         <f>IF(ISBLANK(LOOKUP(A15,'1'!$A:$A,'1'!$R:$R)),0,F15)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="J15" s="16">
         <f>LOOKUP(A15,'1'!$A:$A,'1'!$R:$R)</f>
@@ -18133,24 +18155,24 @@
         <v>22</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E16" s="21">
         <v>4</v>
       </c>
       <c r="F16" s="15">
         <f>E16/tiempo!$J$14</f>
-        <v>1.9950124688279301E-2</v>
+        <v>1.9370460048426151E-2</v>
       </c>
       <c r="G16" s="21">
         <v>2</v>
       </c>
       <c r="I16" s="15">
         <f>IF(ISBLANK(LOOKUP(A16,'1'!$A:$A,'1'!$R:$R)),0,F16)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>1.9370460048426151E-2</v>
       </c>
       <c r="J16" s="16">
         <f>LOOKUP(A16,'1'!$A:$A,'1'!$R:$R)</f>
@@ -19180,24 +19202,24 @@
         <v>23</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E17" s="21">
         <v>0.5</v>
       </c>
       <c r="F17" s="15">
         <f>E17/tiempo!$J$14</f>
-        <v>2.4937655860349127E-3</v>
+        <v>2.4213075060532689E-3</v>
       </c>
       <c r="G17" s="21">
         <v>2</v>
       </c>
       <c r="I17" s="15">
         <f>IF(ISBLANK(LOOKUP(A17,'1'!$A:$A,'1'!$R:$R)),0,F17)</f>
-        <v>2.4937655860349127E-3</v>
+        <v>2.4213075060532689E-3</v>
       </c>
       <c r="J17" s="16">
         <f>LOOKUP(A17,'1'!$A:$A,'1'!$R:$R)</f>
@@ -20227,24 +20249,24 @@
         <v>24</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E18" s="21">
         <v>2</v>
       </c>
       <c r="F18" s="15">
         <f>E18/tiempo!$J$14</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="G18" s="21">
         <v>3</v>
       </c>
       <c r="I18" s="15">
         <f>IF(ISBLANK(LOOKUP(A18,'1'!$A:$A,'1'!$R:$R)),0,F18)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="J18" s="16">
         <f>LOOKUP(A18,'1'!$A:$A,'1'!$R:$R)</f>
@@ -21274,24 +21296,24 @@
         <v>25</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E19" s="21">
         <v>10</v>
       </c>
       <c r="F19" s="15">
         <f>E19/tiempo!$J$14</f>
-        <v>4.9875311720698257E-2</v>
+        <v>4.8426150121065374E-2</v>
       </c>
       <c r="G19" s="21">
         <v>3</v>
       </c>
       <c r="I19" s="15">
         <f>IF(ISBLANK(LOOKUP(A19,'1'!$A:$A,'1'!$R:$R)),0,F19)</f>
-        <v>4.9875311720698257E-2</v>
+        <v>4.8426150121065374E-2</v>
       </c>
       <c r="J19" s="16">
         <f>LOOKUP(A19,'1'!$A:$A,'1'!$R:$R)</f>
@@ -22321,24 +22343,24 @@
         <v>26</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E20" s="16">
         <v>2</v>
       </c>
       <c r="F20" s="15">
         <f>E20/tiempo!$J$14</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="G20" s="16">
         <v>3</v>
       </c>
       <c r="I20" s="15">
         <f>IF(ISBLANK(LOOKUP(A20,'1'!$A:$A,'1'!$R:$R)),0,F20)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="J20" s="16">
         <f>LOOKUP(A20,'1'!$A:$A,'1'!$R:$R)</f>
@@ -23368,24 +23390,24 @@
         <v>27</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E21" s="16">
         <v>3</v>
       </c>
       <c r="F21" s="15">
         <f>E21/tiempo!$J$14</f>
-        <v>1.4962593516209476E-2</v>
+        <v>1.4527845036319613E-2</v>
       </c>
       <c r="G21" s="16">
         <v>3</v>
       </c>
       <c r="I21" s="15">
         <f>IF(ISBLANK(LOOKUP(A21,'1'!$A:$A,'1'!$R:$R)),0,F21)</f>
-        <v>1.4962593516209476E-2</v>
+        <v>1.4527845036319613E-2</v>
       </c>
       <c r="J21" s="16">
         <f>LOOKUP(A21,'1'!$A:$A,'1'!$R:$R)</f>
@@ -24415,24 +24437,24 @@
         <v>28</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E22" s="16">
         <v>2</v>
       </c>
       <c r="F22" s="15">
         <f>E22/tiempo!$J$14</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="G22" s="16">
         <v>3</v>
       </c>
       <c r="I22" s="15">
         <f>IF(ISBLANK(LOOKUP(A22,'1'!$A:$A,'1'!$R:$R)),0,F22)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="J22" s="16">
         <f>LOOKUP(A22,'1'!$A:$A,'1'!$R:$R)</f>
@@ -25462,24 +25484,24 @@
         <v>29</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E23" s="16">
         <v>4</v>
       </c>
       <c r="F23" s="15">
         <f>E23/tiempo!$J$14</f>
-        <v>1.9950124688279301E-2</v>
+        <v>1.9370460048426151E-2</v>
       </c>
       <c r="G23" s="16">
         <v>3</v>
       </c>
       <c r="I23" s="15">
         <f>IF(ISBLANK(LOOKUP(A23,'1'!$A:$A,'1'!$R:$R)),0,F23)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>1.9370460048426151E-2</v>
       </c>
       <c r="J23" s="16">
         <f>LOOKUP(A23,'1'!$A:$A,'1'!$R:$R)</f>
@@ -26506,27 +26528,27 @@
         <v>23</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E24" s="16">
         <v>5</v>
       </c>
       <c r="F24" s="15">
         <f>E24/tiempo!$J$14</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="G24" s="16">
         <v>3</v>
       </c>
       <c r="I24" s="15">
         <f>IF(ISBLANK(LOOKUP(A24,'1'!$A:$A,'1'!$R:$R)),0,F24)</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="J24" s="16">
         <f>LOOKUP(A24,'1'!$A:$A,'1'!$R:$R)</f>
@@ -28580,27 +28602,27 @@
         <v>24</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E26" s="16">
         <v>5</v>
       </c>
       <c r="F26" s="15">
         <f>E26/tiempo!$J$14</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="G26" s="16">
         <v>4</v>
       </c>
       <c r="I26" s="15">
         <f>IF(ISBLANK(LOOKUP(A26,'2'!$A:$A,'2'!$R:$R)),0,F26)</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="J26" s="16">
         <f>LOOKUP(A26,'2'!$A:$A,'2'!$R:$R)</f>
@@ -29627,27 +29649,27 @@
         <v>25</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E27" s="16">
         <v>5</v>
       </c>
       <c r="F27" s="15">
         <f>E27/tiempo!$J$14</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="G27" s="16">
         <v>4</v>
       </c>
       <c r="I27" s="15">
         <f>IF(ISBLANK(LOOKUP(A27,'2'!$A:$A,'2'!$R:$R)),0,F27)</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="J27" s="16">
         <f>LOOKUP(A27,'2'!$A:$A,'2'!$R:$R)</f>
@@ -30674,27 +30696,27 @@
         <v>26</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E28" s="16">
         <v>2</v>
       </c>
       <c r="F28" s="15">
         <f>E28/tiempo!$J$14</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="G28" s="16">
         <v>4</v>
       </c>
       <c r="I28" s="15">
         <f>IF(ISBLANK(LOOKUP(A28,'2'!$A:$A,'2'!$R:$R)),0,F28)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="J28" s="16">
         <f>LOOKUP(A28,'2'!$A:$A,'2'!$R:$R)</f>
@@ -31724,21 +31746,21 @@
         <v>30</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E29" s="16">
         <v>0.5</v>
       </c>
       <c r="F29" s="15">
         <f>E29/tiempo!$J$14</f>
-        <v>2.4937655860349127E-3</v>
+        <v>2.4213075060532689E-3</v>
       </c>
       <c r="G29" s="16">
         <v>4</v>
       </c>
       <c r="I29" s="15">
         <f>IF(ISBLANK(LOOKUP(A29,'2'!$A:$A,'2'!$R:$R)),0,F29)</f>
-        <v>2.4937655860349127E-3</v>
+        <v>2.4213075060532689E-3</v>
       </c>
       <c r="J29" s="16">
         <f>LOOKUP(A29,'2'!$A:$A,'2'!$R:$R)</f>
@@ -32768,10 +32790,10 @@
         <v>31</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E30" s="16">
         <f>7.5</f>
@@ -32779,14 +32801,14 @@
       </c>
       <c r="F30" s="15">
         <f>E30/tiempo!$J$14</f>
-        <v>3.7406483790523692E-2</v>
+        <v>3.6319612590799029E-2</v>
       </c>
       <c r="G30" s="16">
         <v>4</v>
       </c>
       <c r="I30" s="15">
         <f>IF(ISBLANK(LOOKUP(A30,'2'!$A:$A,'2'!$R:$R)),0,F30)</f>
-        <v>3.7406483790523692E-2</v>
+        <v>3.6319612590799029E-2</v>
       </c>
       <c r="J30" s="16">
         <f>LOOKUP(A30,'2'!$A:$A,'2'!$R:$R)</f>
@@ -33816,24 +33838,24 @@
         <v>32</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E31" s="16">
         <v>0.5</v>
       </c>
       <c r="F31" s="15">
         <f>E31/tiempo!$J$14</f>
-        <v>2.4937655860349127E-3</v>
+        <v>2.4213075060532689E-3</v>
       </c>
       <c r="G31" s="16">
         <v>4</v>
       </c>
       <c r="I31" s="15">
         <f>IF(ISBLANK(LOOKUP(A31,'2'!$A:$A,'2'!$R:$R)),0,F31)</f>
-        <v>2.4937655860349127E-3</v>
+        <v>2.4213075060532689E-3</v>
       </c>
       <c r="J31" s="16">
         <f>LOOKUP(A31,'2'!$A:$A,'2'!$R:$R)</f>
@@ -34863,24 +34885,24 @@
         <v>33</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E32" s="16">
         <v>2</v>
       </c>
       <c r="F32" s="15">
         <f>E32/tiempo!$J$14</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="G32" s="16">
         <v>4</v>
       </c>
       <c r="I32" s="15">
         <f>IF(ISBLANK(LOOKUP(A32,'2'!$A:$A,'2'!$R:$R)),0,F32)</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="J32" s="16">
         <f>LOOKUP(A32,'2'!$A:$A,'2'!$R:$R)</f>
@@ -35910,21 +35932,21 @@
         <v>34</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E33" s="16">
         <v>3</v>
       </c>
       <c r="F33" s="15">
         <f>E33/tiempo!$J$14</f>
-        <v>1.4962593516209476E-2</v>
+        <v>1.4527845036319613E-2</v>
       </c>
       <c r="G33" s="16">
         <v>4</v>
       </c>
       <c r="I33" s="15">
         <f>IF(ISBLANK(LOOKUP(A33,'2'!$A:$A,'2'!$R:$R)),0,F33)</f>
-        <v>1.4962593516209476E-2</v>
+        <v>1.4527845036319613E-2</v>
       </c>
       <c r="J33" s="16">
         <f>LOOKUP(A33,'2'!$A:$A,'2'!$R:$R)</f>
@@ -36954,24 +36976,24 @@
         <v>35</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E34" s="16">
         <v>5</v>
       </c>
       <c r="F34" s="15">
         <f>E34/tiempo!$J$14</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="G34" s="16">
         <v>4</v>
       </c>
       <c r="I34" s="15">
         <f>IF(ISBLANK(LOOKUP(A34,'2'!$A:$A,'2'!$R:$R)),0,F34)</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="J34" s="16">
         <f>LOOKUP(A34,'2'!$A:$A,'2'!$R:$R)</f>
@@ -38001,24 +38023,24 @@
         <v>36</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E35" s="16">
         <v>0.5</v>
       </c>
       <c r="F35" s="15">
         <f>E35/tiempo!$J$14</f>
-        <v>2.4937655860349127E-3</v>
+        <v>2.4213075060532689E-3</v>
       </c>
       <c r="G35" s="16">
         <v>4</v>
       </c>
       <c r="I35" s="15">
         <f>IF(ISBLANK(LOOKUP(A35,'2'!$A:$A,'2'!$R:$R)),0,F35)</f>
-        <v>2.4937655860349127E-3</v>
+        <v>2.4213075060532689E-3</v>
       </c>
       <c r="J35" s="16">
         <f>LOOKUP(A35,'2'!$A:$A,'2'!$R:$R)</f>
@@ -39048,24 +39070,24 @@
         <v>37</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E36" s="16">
         <v>1</v>
       </c>
       <c r="F36" s="15">
         <f>E36/tiempo!$J$14</f>
-        <v>4.9875311720698253E-3</v>
+        <v>4.8426150121065378E-3</v>
       </c>
       <c r="G36" s="16">
         <v>4</v>
       </c>
       <c r="I36" s="15">
         <f>IF(ISBLANK(LOOKUP(A36,'2'!$A:$A,'2'!$R:$R)),0,F36)</f>
-        <v>4.9875311720698253E-3</v>
+        <v>4.8426150121065378E-3</v>
       </c>
       <c r="J36" s="16">
         <f>LOOKUP(A36,'2'!$A:$A,'2'!$R:$R)</f>
@@ -40095,24 +40117,24 @@
         <v>38</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E37" s="16">
         <v>3</v>
       </c>
       <c r="F37" s="15">
         <f>E37/tiempo!$J$14</f>
-        <v>1.4962593516209476E-2</v>
+        <v>1.4527845036319613E-2</v>
       </c>
       <c r="G37" s="16">
         <v>4</v>
       </c>
       <c r="I37" s="15">
         <f>IF(ISBLANK(LOOKUP(A37,'2'!$A:$A,'2'!$R:$R)),0,F37)</f>
-        <v>1.4962593516209476E-2</v>
+        <v>1.4527845036319613E-2</v>
       </c>
       <c r="J37" s="16">
         <f>LOOKUP(A37,'2'!$A:$A,'2'!$R:$R)</f>
@@ -41142,24 +41164,24 @@
         <v>39</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E38" s="16">
         <v>1</v>
       </c>
       <c r="F38" s="15">
         <f>E38/tiempo!$J$14</f>
-        <v>4.9875311720698253E-3</v>
+        <v>4.8426150121065378E-3</v>
       </c>
       <c r="G38" s="16">
         <v>5</v>
       </c>
       <c r="I38" s="15">
         <f>IF(ISBLANK(LOOKUP(A38,'2'!$A:$A,'2'!$R:$R)),0,F38)</f>
-        <v>4.9875311720698253E-3</v>
+        <v>4.8426150121065378E-3</v>
       </c>
       <c r="J38" s="16">
         <f>LOOKUP(A38,'2'!$A:$A,'2'!$R:$R)</f>
@@ -42186,27 +42208,27 @@
         <v>37</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E39" s="16">
         <v>4</v>
       </c>
       <c r="F39" s="15">
         <f>E39/tiempo!$J$14</f>
-        <v>1.9950124688279301E-2</v>
+        <v>1.9370460048426151E-2</v>
       </c>
       <c r="G39" s="16">
         <v>5</v>
       </c>
       <c r="I39" s="15">
         <f>IF(ISBLANK(LOOKUP(A39,'2'!$A:$A,'2'!$R:$R)),0,F39)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>1.9370460048426151E-2</v>
       </c>
       <c r="J39" s="16">
         <f>LOOKUP(A39,'2'!$A:$A,'2'!$R:$R)</f>
@@ -43236,24 +43258,24 @@
         <v>40</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E40" s="16">
         <v>4</v>
       </c>
       <c r="F40" s="15">
         <f>E40/tiempo!$J$14</f>
-        <v>1.9950124688279301E-2</v>
+        <v>1.9370460048426151E-2</v>
       </c>
       <c r="G40" s="16">
         <v>5</v>
       </c>
       <c r="I40" s="15">
         <f>IF(ISBLANK(LOOKUP(A40,'2'!$A:$A,'2'!$R:$R)),0,F40)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>1.9370460048426151E-2</v>
       </c>
       <c r="J40" s="16">
         <f>LOOKUP(A40,'2'!$A:$A,'2'!$R:$R)</f>
@@ -44280,20 +44302,20 @@
         <v>39</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E41" s="16">
         <v>2</v>
       </c>
       <c r="F41" s="15">
         <f>E41/tiempo!$J$14</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="G41" s="16">
         <v>5</v>
@@ -45323,17 +45345,17 @@
         <v>41</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E42" s="16">
         <v>0.5</v>
       </c>
       <c r="F42" s="15">
         <f>E42/tiempo!$J$14</f>
-        <v>2.4937655860349127E-3</v>
+        <v>2.4213075060532689E-3</v>
       </c>
       <c r="G42" s="16">
         <v>5</v>
@@ -46363,21 +46385,21 @@
         <v>42</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E43" s="16">
         <v>4</v>
       </c>
       <c r="F43" s="15">
         <f>E43/tiempo!$J$14</f>
-        <v>1.9950124688279301E-2</v>
+        <v>1.9370460048426151E-2</v>
       </c>
       <c r="G43" s="16">
         <v>5</v>
       </c>
       <c r="I43" s="15">
         <f>IF(ISBLANK(LOOKUP(A43,'2'!$A:$A,'2'!$R:$R)),0,F43)</f>
-        <v>1.9950124688279301E-2</v>
+        <v>1.9370460048426151E-2</v>
       </c>
       <c r="J43" s="16">
         <f>LOOKUP(A43,'2'!$A:$A,'2'!$R:$R)</f>
@@ -47407,21 +47429,21 @@
         <v>43</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E44" s="16">
         <v>3</v>
       </c>
       <c r="F44" s="15">
         <f>E44/tiempo!$J$14</f>
-        <v>1.4962593516209476E-2</v>
+        <v>1.4527845036319613E-2</v>
       </c>
       <c r="G44" s="16">
         <v>5</v>
       </c>
       <c r="I44" s="15">
         <f>IF(ISBLANK(LOOKUP(A44,'2'!$A:$A,'2'!$R:$R)),0,F44)</f>
-        <v>1.4962593516209476E-2</v>
+        <v>1.4527845036319613E-2</v>
       </c>
       <c r="J44" s="16">
         <f>LOOKUP(A44,'2'!$A:$A,'2'!$R:$R)</f>
@@ -48451,24 +48473,24 @@
         <v>44</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E45" s="16">
         <v>5</v>
       </c>
       <c r="F45" s="15">
         <f>E45/tiempo!$J$14</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="G45" s="16">
         <v>5</v>
       </c>
       <c r="I45" s="15">
         <f>IF(ISBLANK(LOOKUP(A45,'2'!$A:$A,'2'!$R:$R)),0,F45)</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="J45" s="16">
         <f>LOOKUP(A45,'2'!$A:$A,'2'!$R:$R)</f>
@@ -49495,27 +49517,27 @@
         <v>44</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E46" s="16">
         <v>5</v>
       </c>
       <c r="F46" s="15">
         <f>E46/tiempo!$J$14</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="G46" s="16">
         <v>5</v>
       </c>
       <c r="I46" s="15">
         <f>IF(ISBLANK(LOOKUP(A46,'2'!$A:$A,'2'!$R:$R)),0,F46)</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="J46" s="16">
         <f>LOOKUP(A46,'2'!$A:$A,'2'!$R:$R)</f>
@@ -50542,27 +50564,27 @@
         <v>45</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E47" s="16">
         <v>5</v>
       </c>
       <c r="F47" s="15">
         <f>E47/tiempo!$J$14</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="G47" s="16">
         <v>5</v>
       </c>
       <c r="I47" s="15">
         <f>IF(ISBLANK(LOOKUP(A47,'2'!$A:$A,'2'!$R:$R)),0,F47)</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="J47" s="16">
         <f>LOOKUP(A47,'2'!$A:$A,'2'!$R:$R)</f>
@@ -52616,20 +52638,20 @@
         <v>46</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E49" s="16">
         <v>5</v>
       </c>
       <c r="F49" s="15">
         <f>E49/tiempo!$J$14</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="G49" s="16">
         <v>6</v>
@@ -52640,20 +52662,20 @@
         <v>47</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E50" s="16">
         <v>5</v>
       </c>
       <c r="F50" s="15">
         <f>E50/tiempo!$J$14</f>
-        <v>2.4937655860349128E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="G50" s="16">
         <v>6</v>
@@ -52664,20 +52686,20 @@
         <v>48</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E51" s="16">
         <v>2</v>
       </c>
       <c r="F51" s="15">
         <f>E51/tiempo!$J$14</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="G51" s="16">
         <v>6</v>
@@ -52687,12 +52709,18 @@
       <c r="B52" s="17" t="s">
         <v>54</v>
       </c>
+      <c r="C52" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>154</v>
+      </c>
       <c r="E52" s="16">
         <v>2</v>
       </c>
       <c r="F52" s="15">
         <f>E52/tiempo!$J$14</f>
-        <v>9.9750623441396506E-3</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="G52" s="16">
         <v>6</v>
@@ -52700,29 +52728,41 @@
     </row>
     <row r="53" spans="1:7" ht="25.5">
       <c r="B53" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>147</v>
       </c>
       <c r="E53" s="16">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F53" s="15">
         <f>E53/tiempo!$J$14</f>
-        <v>2.4937655860349127E-3</v>
+        <v>1.4527845036319613E-2</v>
       </c>
       <c r="G53" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" ht="25.5">
       <c r="B54" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>149</v>
       </c>
       <c r="E54" s="16">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F54" s="15">
         <f>E54/tiempo!$J$14</f>
-        <v>9.9750623441396506E-3</v>
+        <v>2.4213075060532689E-3</v>
       </c>
       <c r="G54" s="16">
         <v>6</v>
@@ -52730,14 +52770,20 @@
     </row>
     <row r="55" spans="1:7" ht="25.5">
       <c r="B55" s="17" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>150</v>
       </c>
       <c r="E55" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" s="15">
         <f>E55/tiempo!$J$14</f>
-        <v>1.4962593516209476E-2</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="G55" s="16">
         <v>6</v>
@@ -52745,14 +52791,20 @@
     </row>
     <row r="56" spans="1:7" ht="25.5">
       <c r="B56" s="17" t="s">
-        <v>56</v>
+        <v>143</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>151</v>
       </c>
       <c r="E56" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" s="15">
         <f>E56/tiempo!$J$14</f>
-        <v>1.4962593516209476E-2</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="G56" s="16">
         <v>6</v>
@@ -52760,58 +52812,95 @@
     </row>
     <row r="57" spans="1:7" ht="25.5">
       <c r="B57" s="17" t="s">
-        <v>62</v>
+        <v>142</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>155</v>
       </c>
       <c r="E57" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F57" s="15">
         <f>E57/tiempo!$J$14</f>
-        <v>1.9950124688279301E-2</v>
+        <v>9.6852300242130755E-3</v>
       </c>
       <c r="G57" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="25.5">
+    <row r="58" spans="1:7" ht="38.25">
       <c r="B58" s="17" t="s">
-        <v>57</v>
+        <v>144</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>153</v>
       </c>
       <c r="E58" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58" s="15">
         <f>E58/tiempo!$J$14</f>
-        <v>1.4962593516209476E-2</v>
+        <v>1.9370460048426151E-2</v>
       </c>
       <c r="G58" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="25.5">
+    <row r="59" spans="1:7">
       <c r="B59" s="17" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="E59" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F59" s="15">
         <f>E59/tiempo!$J$14</f>
-        <v>2.4937655860349128E-2</v>
+        <v>1.4527845036319613E-2</v>
       </c>
       <c r="G59" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="51">
+    <row r="60" spans="1:7">
       <c r="B60" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" s="39" t="s">
-        <v>110</v>
+        <v>146</v>
+      </c>
+      <c r="E60" s="16">
+        <v>5</v>
+      </c>
+      <c r="F60" s="15">
+        <f>E60/tiempo!$J$14</f>
+        <v>2.4213075060532687E-2</v>
+      </c>
+      <c r="G60" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="51">
+      <c r="B61" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="16">
+        <v>5</v>
+      </c>
+      <c r="F61" s="15">
+        <f>E61/tiempo!$J$14</f>
+        <v>2.4213075060532687E-2</v>
+      </c>
+      <c r="G61" s="16">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecvasro\workspace\pucmm\isc-434-t\ppr\tspi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="516" activeTab="2"/>
+    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="516" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ganancias" sheetId="1" r:id="rId1"/>
@@ -16,12 +21,12 @@
     <sheet name="1-ganancias" sheetId="7" r:id="rId7"/>
     <sheet name="2-ganancias" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="178">
   <si>
     <t>Semana</t>
   </si>
@@ -455,15 +460,6 @@
     <t>Elaborar el mockup de la vista para ver los eventos o excepciones de los recursos.</t>
   </si>
   <si>
-    <t>Elaborar el pseudocódigo del algoritmo de construcción del DAG a partir del archivo de excel.</t>
-  </si>
-  <si>
-    <t>Configurar el ambiente de desarrollo global.</t>
-  </si>
-  <si>
-    <t>Configurar el ambiente de desarrollo local.</t>
-  </si>
-  <si>
     <t>Se elaboró el mockup de la vista para ver la calendarización de uno o más recursos.</t>
   </si>
   <si>
@@ -482,23 +478,98 @@
     <t>Se ha elaborado el diagrama de flujo del algoritmo de calendarización.</t>
   </si>
   <si>
-    <t>Se elaboró el pseudocódigo del algoritmo de construcción del DAG a partir del archivo de excel.</t>
-  </si>
-  <si>
     <t>Se elaboró el mockup de la vista para la asignación de la disponibilidad de los recursos.</t>
   </si>
   <si>
     <t>Se documentó el tiempo de corrida del algoritmo de calendarización.</t>
   </si>
+  <si>
+    <t>Configurar el ambiente global de desarrollo.</t>
+  </si>
+  <si>
+    <t>Configurar el ambiente local de desarrollo.</t>
+  </si>
+  <si>
+    <t>Se elaboró el mockup de la vista para la creación de un proyecto.</t>
+  </si>
+  <si>
+    <t>Elaborar el plan de calidad.</t>
+  </si>
+  <si>
+    <t>Crear la agenda para la reunión #5 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se creó la agenda para la reunión #5 con el cliente.</t>
+  </si>
+  <si>
+    <t>Reunión #5 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se creó la minuta de la reunión #5 con el cliente.</t>
+  </si>
+  <si>
+    <t>Elaborar el mokcup de la vista para la creación de un proyecto.</t>
+  </si>
+  <si>
+    <t>Elaborar el pseudocódigo del algoritmo de construcción de la estructura de calendarización a partir del archivo CSV.</t>
+  </si>
+  <si>
+    <t>Se elaboró el pseudocódigo del algoritmo de construcción de la estructura de calendarización a partir del archivo CSV.</t>
+  </si>
+  <si>
+    <t>Se elaboró una guía con todos los pasos para la configuración del ambiente global de desarrollo.</t>
+  </si>
+  <si>
+    <t>Se ha elaborado una guía con todos los pasos para la configuración del ambiente global de desarrollo.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo configuró su ambiente local de desarrollo.</t>
+  </si>
+  <si>
+    <t>Elaborar la versión final del diagrama de flujo del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Elaborar la versión final del modelo físico de data.</t>
+  </si>
+  <si>
+    <t>Elaborar la versión final del diagrama de contexto de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Se ha elaborado el borrador #1 del diagrama de flujo del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Se elaboró la versión final del diagrama de flujo del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Se ha elaborado el borrador #1 del modelo físico de data.</t>
+  </si>
+  <si>
+    <t>Se elaboró la versión final del modelo físico de data.</t>
+  </si>
+  <si>
+    <t>Se ha elaborado el borrador #1 del diagrama de contexto de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Se elaboró la versión final del diagrama de contexto de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Crear la versión final del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se han elaborado las versiones finales de todas las componentes del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se creó la versión final del documento de arquitectura.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -718,7 +789,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentual" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -790,17 +861,37 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -822,41 +913,42 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.17433414043583537</c:v>
+                  <c:v>0.15286624203821655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33656174334140432</c:v>
+                  <c:v>0.29511677282377918</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47215496368038734</c:v>
+                  <c:v>0.41401273885350315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64164648910411615</c:v>
+                  <c:v>0.56263269639065816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80387409200968518</c:v>
+                  <c:v>0.70488322717622076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97578692493946728</c:v>
+                  <c:v>0.85138004246284493</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0.99999999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -879,77 +971,98 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.11138014527845036</c:v>
+                  <c:v>9.7664543524416128E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17675544794188863</c:v>
+                  <c:v>0.15498938428874734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35108958837772397</c:v>
+                  <c:v>0.30785562632696389</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4721549636803874</c:v>
+                  <c:v>0.41401273885350315</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67070217917675545</c:v>
+                  <c:v>0.58811040339702758</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67070217917675545</c:v>
+                  <c:v>0.69426751592356684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67070217917675545</c:v>
+                  <c:v>0.69426751592356684</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.67070217917675545</c:v>
+                  <c:v>0.69426751592356684</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67070217917675545</c:v>
+                  <c:v>0.69426751592356684</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67070217917675545</c:v>
+                  <c:v>0.69426751592356684</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67070217917675545</c:v>
+                  <c:v>0.69426751592356684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="73175424"/>
-        <c:axId val="73176960"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1118757152"/>
+        <c:axId val="-1118756064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73175424"/>
+        <c:axId val="-1118757152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73176960"/>
+        <c:crossAx val="-1118756064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73176960"/>
+        <c:axId val="-1118756064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73175424"/>
+        <c:crossAx val="-1118757152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -961,13 +1074,25 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -982,6 +1107,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>ganancias!$D$2:$D$12</c:f>
@@ -989,25 +1115,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.17433414043583537</c:v>
+                  <c:v>0.15286624203821655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16222760290556898</c:v>
+                  <c:v>0.14225053078556263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13559322033898305</c:v>
+                  <c:v>0.11889596602972398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16949152542372881</c:v>
+                  <c:v>0.14861995753715498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16222760290556901</c:v>
+                  <c:v>0.14225053078556263</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1719128329297821</c:v>
+                  <c:v>0.1464968152866242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4213075060532687E-2</c:v>
+                  <c:v>0.14861995753715498</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1039,6 +1165,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>ganancias!$G$2:$G$12</c:f>
@@ -1046,22 +1173,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.11138014527845036</c:v>
+                  <c:v>9.7664543524416128E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5375302663438259E-2</c:v>
+                  <c:v>5.7324840764331211E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17433414043583537</c:v>
+                  <c:v>0.15286624203821655</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12106537530266342</c:v>
+                  <c:v>0.10615711252653927</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19854721549636808</c:v>
+                  <c:v>0.17409766454352441</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.10615711252653928</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1082,40 +1209,60 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="73197440"/>
-        <c:axId val="73198976"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-1118753344"/>
+        <c:axId val="-1118751712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73197440"/>
+        <c:axId val="-1118753344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73198976"/>
+        <c:crossAx val="-1118751712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73198976"/>
+        <c:axId val="-1118751712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73197440"/>
+        <c:crossAx val="-1118753344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1127,70 +1274,25 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tiempo!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Horas Disponibles</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>tiempo!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
@@ -1205,6 +1307,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>tiempo!$J$2:$J$12</c:f>
@@ -1227,10 +1330,10 @@
                   <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.5</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1262,6 +1365,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>tiempo!$Q$2:$Q$12</c:f>
@@ -1305,40 +1409,137 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="73298688"/>
-        <c:axId val="73300224"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-981170400"/>
+        <c:axId val="-981172576"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tiempo!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Disponibles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>tiempo!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-981170400"/>
+        <c:axId val="-981172576"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="73298688"/>
+        <c:axId val="-981170400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73300224"/>
+        <c:crossAx val="-981172576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73300224"/>
+        <c:axId val="-981172576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73298688"/>
+        <c:crossAx val="-981170400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1350,19 +1551,32 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Total de horas disponibles</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>tiempo!$C$14</c:f>
@@ -1382,6 +1596,7 @@
           <c:tx>
             <c:v>Total de horas estimadas</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>tiempo!$J$14</c:f>
@@ -1389,7 +1604,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>206.5</c:v>
+                  <c:v>235.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,6 +1616,7 @@
           <c:tx>
             <c:v>Total de horas trabajadas</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>tiempo!$Q$14</c:f>
@@ -1414,40 +1630,60 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="73329664"/>
-        <c:axId val="73409280"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-981174752"/>
+        <c:axId val="-981179648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73329664"/>
+        <c:axId val="-981174752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73409280"/>
+        <c:crossAx val="-981179648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73409280"/>
+        <c:axId val="-981179648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73329664"/>
+        <c:crossAx val="-981174752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1459,12 +1695,24 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1497,6 +1745,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1530,42 +1779,63 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="84073088"/>
-        <c:axId val="84156800"/>
+        <c:smooth val="0"/>
+        <c:axId val="-981176928"/>
+        <c:axId val="-981176384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84073088"/>
+        <c:axId val="-981176928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84156800"/>
+        <c:crossAx val="-981176384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84156800"/>
+        <c:axId val="-981176384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84073088"/>
+        <c:crossAx val="-981176928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1577,13 +1847,25 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1598,6 +1880,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'1-ganancias'!$D$2:$D$4</c:f>
@@ -1631,6 +1914,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'1-ganancias'!$G$2:$G$4</c:f>
@@ -1650,40 +1934,60 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84173184"/>
-        <c:axId val="84174720"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-981177472"/>
+        <c:axId val="-981169312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84173184"/>
+        <c:axId val="-981177472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84174720"/>
+        <c:crossAx val="-981169312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84174720"/>
+        <c:axId val="-981169312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84173184"/>
+        <c:crossAx val="-981177472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1695,12 +1999,24 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1730,6 +2046,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1760,42 +2077,63 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="84387712"/>
-        <c:axId val="84389248"/>
+        <c:smooth val="0"/>
+        <c:axId val="-981174208"/>
+        <c:axId val="-981181280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84387712"/>
+        <c:axId val="-981174208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84389248"/>
+        <c:crossAx val="-981181280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84389248"/>
+        <c:axId val="-981181280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84387712"/>
+        <c:crossAx val="-981174208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1807,13 +2145,25 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1828,6 +2178,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'2-ganancias'!$D$2:$D$3</c:f>
@@ -1858,6 +2209,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'2-ganancias'!$G$2:$G$3</c:f>
@@ -1874,40 +2226,60 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84409728"/>
-        <c:axId val="84419712"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-981167680"/>
+        <c:axId val="-981178560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84409728"/>
+        <c:axId val="-981167680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84419712"/>
+        <c:crossAx val="-981178560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84419712"/>
+        <c:axId val="-981178560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84409728"/>
+        <c:crossAx val="-981167680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2178,7 +2550,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2220,7 +2592,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2252,9 +2624,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2286,6 +2659,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2461,14 +2835,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="2.7109375" style="32" customWidth="1"/>
@@ -2479,7 +2853,7 @@
     <col min="1025" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="57">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2501,7 +2875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2511,23 +2885,23 @@
       <c r="C2" s="37"/>
       <c r="D2" s="5">
         <f>SUMIF(tareas!$G:$G,A2,tareas!$F:$F)</f>
-        <v>0.17433414043583537</v>
+        <v>0.15286624203821655</v>
       </c>
       <c r="E2" s="6">
         <f>D2</f>
-        <v>0.17433414043583537</v>
+        <v>0.15286624203821655</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="6">
         <f>SUMIF(tareas!$J:$J,A2,tareas!$I:$I)</f>
-        <v>0.11138014527845036</v>
+        <v>9.7664543524416128E-2</v>
       </c>
       <c r="H2" s="6">
         <f>G2</f>
-        <v>0.11138014527845036</v>
+        <v>9.7664543524416128E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2538,23 +2912,23 @@
       <c r="C3" s="37"/>
       <c r="D3" s="5">
         <f>SUMIF(tareas!$G:$G,A3,tareas!$F:$F)</f>
-        <v>0.16222760290556898</v>
+        <v>0.14225053078556263</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E12" si="1">D3+E2</f>
-        <v>0.33656174334140432</v>
+        <v>0.29511677282377918</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="6">
         <f>SUMIF(tareas!$J:$J,A3,tareas!$I:$I)</f>
-        <v>6.5375302663438259E-2</v>
+        <v>5.7324840764331211E-2</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H12" si="2">G3+H2</f>
-        <v>0.17675544794188863</v>
+        <v>0.15498938428874734</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2565,23 +2939,23 @@
       <c r="C4" s="37"/>
       <c r="D4" s="5">
         <f>SUMIF(tareas!$G:$G,A4,tareas!$F:$F)</f>
-        <v>0.13559322033898305</v>
+        <v>0.11889596602972398</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>0.47215496368038734</v>
+        <v>0.41401273885350315</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="6">
         <f>SUMIF(tareas!$J:$J,A4,tareas!$I:$I)</f>
-        <v>0.17433414043583537</v>
+        <v>0.15286624203821655</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="2"/>
-        <v>0.35108958837772397</v>
+        <v>0.30785562632696389</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2592,23 +2966,23 @@
       <c r="C5" s="37"/>
       <c r="D5" s="5">
         <f>SUMIF(tareas!$G:$G,A5,tareas!$F:$F)</f>
-        <v>0.16949152542372881</v>
+        <v>0.14861995753715498</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>0.64164648910411615</v>
+        <v>0.56263269639065816</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="6">
         <f>SUMIF(tareas!$J:$J,A5,tareas!$I:$I)</f>
-        <v>0.12106537530266342</v>
+        <v>0.10615711252653927</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="2"/>
-        <v>0.4721549636803874</v>
+        <v>0.41401273885350315</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2619,23 +2993,23 @@
       <c r="C6" s="37"/>
       <c r="D6" s="5">
         <f>SUMIF(tareas!$G:$G,A6,tareas!$F:$F)</f>
-        <v>0.16222760290556901</v>
+        <v>0.14225053078556263</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>0.80387409200968518</v>
+        <v>0.70488322717622076</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="6">
         <f>SUMIF(tareas!$J:$J,A6,tareas!$I:$I)</f>
-        <v>0.19854721549636808</v>
+        <v>0.17409766454352441</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="2"/>
-        <v>0.67070217917675545</v>
+        <v>0.58811040339702758</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2646,23 +3020,23 @@
       <c r="C7" s="37"/>
       <c r="D7" s="5">
         <f>SUMIF(tareas!$G:$G,A7,tareas!$F:$F)</f>
-        <v>0.1719128329297821</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>0.97578692493946728</v>
+        <v>0.85138004246284493</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="6">
         <f>SUMIF(tareas!$J:$J,A7,tareas!$I:$I)</f>
-        <v>0</v>
+        <v>0.10615711252653928</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="2"/>
-        <v>0.67070217917675545</v>
+        <v>0.69426751592356684</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2673,11 +3047,11 @@
       <c r="C8" s="37"/>
       <c r="D8" s="5">
         <f>SUMIF(tareas!$G:$G,A8,tareas!$F:$F)</f>
-        <v>2.4213075060532687E-2</v>
+        <v>0.14861995753715498</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="6">
@@ -2686,10 +3060,10 @@
       </c>
       <c r="H8" s="6">
         <f t="shared" si="2"/>
-        <v>0.67070217917675545</v>
+        <v>0.69426751592356684</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2704,7 +3078,7 @@
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="6">
@@ -2713,10 +3087,10 @@
       </c>
       <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>0.67070217917675545</v>
+        <v>0.69426751592356684</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2731,7 +3105,7 @@
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="6">
@@ -2740,10 +3114,10 @@
       </c>
       <c r="H10" s="6">
         <f t="shared" si="2"/>
-        <v>0.67070217917675545</v>
+        <v>0.69426751592356684</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2758,7 +3132,7 @@
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="6">
@@ -2767,10 +3141,10 @@
       </c>
       <c r="H11" s="6">
         <f t="shared" si="2"/>
-        <v>0.67070217917675545</v>
+        <v>0.69426751592356684</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2785,7 +3159,7 @@
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="6">
@@ -2794,7 +3168,7 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" si="2"/>
-        <v>0.67070217917675545</v>
+        <v>0.69426751592356684</v>
       </c>
     </row>
   </sheetData>
@@ -2809,14 +3183,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="32" customWidth="1"/>
@@ -2828,7 +3202,7 @@
     <col min="18" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="10" customFormat="1" ht="42.75">
+    <row r="1" spans="1:17" s="10" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2875,7 +3249,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <f>ganancias!A2</f>
         <v>1</v>
@@ -2929,7 +3303,7 @@
         <v>21.07</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <f>ganancias!A3</f>
         <v>2</v>
@@ -2983,7 +3357,7 @@
         <v>29.03</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <f>ganancias!A4</f>
         <v>3</v>
@@ -3037,7 +3411,7 @@
         <v>44.15</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <f>ganancias!A5</f>
         <v>4</v>
@@ -3091,7 +3465,7 @@
         <v>33.56666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <f>ganancias!A6</f>
         <v>5</v>
@@ -3145,7 +3519,7 @@
         <v>49.166666666666671</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f>ganancias!A7</f>
         <v>6</v>
@@ -3157,27 +3531,27 @@
       <c r="D7" s="32"/>
       <c r="E7" s="8">
         <f>SUMIF('3'!$G:$G,A7,'3'!$I:$I)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="8">
         <f>SUMIF('3'!$G:$G,A7,'3'!$J:$J)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G7" s="8">
         <f>SUMIF('3'!$G:$G,A7,'3'!$K:$K)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="8">
         <f>SUMIF('3'!$G:$G,A7,'3'!$L:$L)</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I7" s="8">
         <f>SUMIF('3'!$G:$G,A7,'3'!$M:$M)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" s="8">
         <f>SUMIF(tareas!G:G,A7,tareas!E:E)</f>
-        <v>35.5</v>
+        <v>34.5</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -3189,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f>ganancias!A8</f>
         <v>7</v>
@@ -3201,27 +3575,27 @@
       <c r="D8" s="32"/>
       <c r="E8" s="8">
         <f>SUMIF('3'!$G:$G,A8,'3'!$I:$I)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="F8" s="8">
         <f>SUMIF('3'!$G:$G,A8,'3'!$J:$J)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="G8" s="8">
         <f>SUMIF('3'!$G:$G,A8,'3'!$K:$K)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="H8" s="8">
         <f>SUMIF('3'!$G:$G,A8,'3'!$L:$L)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="8">
         <f>SUMIF('3'!$G:$G,A8,'3'!$M:$M)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J8" s="8">
         <f>SUMIF(tareas!G:G,A8,tareas!E:E)</f>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -3233,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f>ganancias!A9</f>
         <v>8</v>
@@ -3277,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <f>ganancias!A10</f>
         <v>9</v>
@@ -3321,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <f>ganancias!A11</f>
         <v>10</v>
@@ -3365,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <f>ganancias!A12</f>
         <v>11</v>
@@ -3409,34 +3783,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="7">
         <f>SUM(C2:C12)</f>
         <v>385</v>
       </c>
       <c r="E14" s="7">
         <f>SUM(E2:E12)</f>
-        <v>35.5</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" ref="F14:I14" si="2">SUM(F2:F12)</f>
-        <v>40.5</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="2"/>
-        <v>34.5</v>
+        <v>49</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>41.5</v>
       </c>
       <c r="J14" s="7">
         <f>SUM(J2:J12)</f>
-        <v>206.5</v>
+        <v>235.5</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" ref="L14:Q14" si="3">SUM(L2:L12)</f>
@@ -3463,10 +3837,10 @@
         <v>176.98333333333335</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J15" s="7">
         <f>J14-SUM(E14:I14)</f>
-        <v>40.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3476,14 +3850,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="17" customWidth="1"/>
@@ -3497,7 +3871,7 @@
     <col min="1026" max="16384" width="11.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="2" customFormat="1" ht="57">
+    <row r="1" spans="1:1025" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3526,7 +3900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1025" ht="25.5">
+    <row r="2" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -3542,14 +3916,14 @@
       </c>
       <c r="F2" s="15">
         <f>E2/tiempo!$J$14</f>
-        <v>3.6319612590799029E-2</v>
+        <v>3.1847133757961783E-2</v>
       </c>
       <c r="G2" s="18">
         <v>1</v>
       </c>
       <c r="I2" s="15">
         <f>IF(ISBLANK(LOOKUP(A2,'1'!$A:$A,'1'!$R:$R)),0,F2)</f>
-        <v>3.6319612590799029E-2</v>
+        <v>3.1847133757961783E-2</v>
       </c>
       <c r="J2" s="16">
         <f>LOOKUP(A2,'1'!$A:$A,'1'!$R:$R)</f>
@@ -4571,7 +4945,7 @@
       <c r="AMJ2" s="16"/>
       <c r="AMK2" s="16"/>
     </row>
-    <row r="3" spans="1:1025" ht="38.25">
+    <row r="3" spans="1:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -4589,14 +4963,14 @@
       </c>
       <c r="F3" s="15">
         <f>E3/tiempo!$J$14</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="G3" s="18">
         <v>1</v>
       </c>
       <c r="I3" s="15">
         <f>IF(ISBLANK(LOOKUP(A3,'1'!$A:$A,'1'!$R:$R)),0,F3)</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="J3" s="16">
         <f>LOOKUP(A3,'1'!$A:$A,'1'!$R:$R)</f>
@@ -5618,7 +5992,7 @@
       <c r="AMJ3" s="16"/>
       <c r="AMK3" s="16"/>
     </row>
-    <row r="4" spans="1:1025" ht="63.75">
+    <row r="4" spans="1:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -5636,14 +6010,14 @@
       </c>
       <c r="F4" s="15">
         <f>E4/tiempo!$J$14</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="G4" s="18">
         <v>1</v>
       </c>
       <c r="I4" s="15">
         <f>IF(ISBLANK(LOOKUP(A4,'1'!$A:$A,'1'!$R:$R)),0,F4)</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="J4" s="16">
         <f>LOOKUP(A4,'1'!$A:$A,'1'!$R:$R)</f>
@@ -6665,7 +7039,7 @@
       <c r="AMJ4" s="16"/>
       <c r="AMK4" s="16"/>
     </row>
-    <row r="5" spans="1:1025" ht="38.25">
+    <row r="5" spans="1:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -6683,14 +7057,14 @@
       </c>
       <c r="F5" s="15">
         <f>E5/tiempo!$J$14</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="G5" s="18">
         <v>1</v>
       </c>
       <c r="I5" s="15">
         <f>IF(ISBLANK(LOOKUP(A5,'1'!$A:$A,'1'!$R:$R)),0,F5)</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="J5" s="16">
         <f>LOOKUP(A5,'1'!$A:$A,'1'!$R:$R)</f>
@@ -7712,7 +8086,7 @@
       <c r="AMJ5" s="16"/>
       <c r="AMK5" s="16"/>
     </row>
-    <row r="6" spans="1:1025" ht="25.5">
+    <row r="6" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -7727,14 +8101,14 @@
       </c>
       <c r="F6" s="15">
         <f>E6/tiempo!$J$14</f>
-        <v>2.4213075060532689E-3</v>
+        <v>2.1231422505307855E-3</v>
       </c>
       <c r="G6" s="22">
         <v>1</v>
       </c>
       <c r="I6" s="15">
         <f>IF(ISBLANK(LOOKUP(A6,'1'!$A:$A,'1'!$R:$R)),0,F6)</f>
-        <v>2.4213075060532689E-3</v>
+        <v>2.1231422505307855E-3</v>
       </c>
       <c r="J6" s="16">
         <f>LOOKUP(A6,'1'!$A:$A,'1'!$R:$R)</f>
@@ -8756,7 +9130,7 @@
       <c r="AMJ6" s="16"/>
       <c r="AMK6" s="16"/>
     </row>
-    <row r="7" spans="1:1025" ht="25.5">
+    <row r="7" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -8771,14 +9145,14 @@
       </c>
       <c r="F7" s="15">
         <f>E7/tiempo!$J$14</f>
-        <v>2.4213075060532689E-3</v>
+        <v>2.1231422505307855E-3</v>
       </c>
       <c r="G7" s="21">
         <v>1</v>
       </c>
       <c r="I7" s="15">
         <f>IF(ISBLANK(LOOKUP(A7,'1'!$A:$A,'1'!$R:$R)),0,F7)</f>
-        <v>2.4213075060532689E-3</v>
+        <v>2.1231422505307855E-3</v>
       </c>
       <c r="J7" s="16">
         <f>LOOKUP(A7,'1'!$A:$A,'1'!$R:$R)</f>
@@ -9800,7 +10174,7 @@
       <c r="AMJ7" s="16"/>
       <c r="AMK7" s="16"/>
     </row>
-    <row r="8" spans="1:1025" ht="25.5">
+    <row r="8" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -9818,14 +10192,14 @@
       </c>
       <c r="F8" s="15">
         <f>E8/tiempo!$J$14</f>
-        <v>2.4213075060532689E-3</v>
+        <v>2.1231422505307855E-3</v>
       </c>
       <c r="G8" s="21">
         <v>1</v>
       </c>
       <c r="I8" s="15">
         <f>IF(ISBLANK(LOOKUP(A8,'1'!$A:$A,'1'!$R:$R)),0,F8)</f>
-        <v>2.4213075060532689E-3</v>
+        <v>2.1231422505307855E-3</v>
       </c>
       <c r="J8" s="16">
         <f>LOOKUP(A8,'1'!$A:$A,'1'!$R:$R)</f>
@@ -10847,7 +11221,7 @@
       <c r="AMJ8" s="16"/>
       <c r="AMK8" s="16"/>
     </row>
-    <row r="9" spans="1:1025" ht="25.5">
+    <row r="9" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -10865,14 +11239,14 @@
       </c>
       <c r="F9" s="15">
         <f>E9/tiempo!$J$14</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="G9" s="21">
         <v>1</v>
       </c>
       <c r="I9" s="15">
         <f>IF(ISBLANK(LOOKUP(A9,'1'!$A:$A,'1'!$R:$R)),0,F9)</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="J9" s="16">
         <f>LOOKUP(A9,'1'!$A:$A,'1'!$R:$R)</f>
@@ -11894,7 +12268,7 @@
       <c r="AMJ9" s="16"/>
       <c r="AMK9" s="16"/>
     </row>
-    <row r="10" spans="1:1025" ht="25.5">
+    <row r="10" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -11909,14 +12283,14 @@
       </c>
       <c r="F10" s="15">
         <f>E10/tiempo!$J$14</f>
-        <v>1.4527845036319613E-2</v>
+        <v>1.2738853503184714E-2</v>
       </c>
       <c r="G10" s="21">
         <v>1</v>
       </c>
       <c r="I10" s="15">
         <f>IF(ISBLANK(LOOKUP(A10,'1'!$A:$A,'1'!$R:$R)),0,F10)</f>
-        <v>1.4527845036319613E-2</v>
+        <v>1.2738853503184714E-2</v>
       </c>
       <c r="J10" s="16">
         <f>LOOKUP(A10,'1'!$A:$A,'1'!$R:$R)</f>
@@ -12938,7 +13312,7 @@
       <c r="AMJ10" s="16"/>
       <c r="AMK10" s="16"/>
     </row>
-    <row r="11" spans="1:1025">
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -12950,12 +13324,19 @@
       </c>
       <c r="F11" s="15">
         <f>E11/tiempo!$J$14</f>
-        <v>4.8426150121065374E-2</v>
+        <v>4.2462845010615709E-2</v>
       </c>
       <c r="G11" s="21">
         <v>1</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="15">
+        <f>IF(ISBLANK(LOOKUP(A11,'1'!$A:$A,'1'!$R:$R)),0,F11)</f>
+        <v>4.2462845010615709E-2</v>
+      </c>
+      <c r="J11" s="16">
+        <f>LOOKUP(A11,'1'!$A:$A,'1'!$R:$R)</f>
+        <v>6</v>
+      </c>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
@@ -13972,7 +14353,7 @@
       <c r="AMJ11" s="16"/>
       <c r="AMK11" s="16"/>
     </row>
-    <row r="12" spans="1:1025">
+    <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -13984,12 +14365,19 @@
       </c>
       <c r="F12" s="15">
         <f>E12/tiempo!$J$14</f>
-        <v>7.2639225181598058E-2</v>
+        <v>6.3694267515923567E-2</v>
       </c>
       <c r="G12" s="16">
         <v>2</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="15">
+        <f>IF(ISBLANK(LOOKUP(A12,'1'!$A:$A,'1'!$R:$R)),0,F12)</f>
+        <v>6.3694267515923567E-2</v>
+      </c>
+      <c r="J12" s="16">
+        <f>LOOKUP(A12,'1'!$A:$A,'1'!$R:$R)</f>
+        <v>6</v>
+      </c>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -15006,7 +15394,7 @@
       <c r="AMJ12" s="16"/>
       <c r="AMK12" s="16"/>
     </row>
-    <row r="13" spans="1:1025" ht="25.5">
+    <row r="13" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -15024,14 +15412,14 @@
       </c>
       <c r="F13" s="15">
         <f>E13/tiempo!$J$14</f>
-        <v>4.8426150121065374E-2</v>
+        <v>4.2462845010615709E-2</v>
       </c>
       <c r="G13" s="21">
         <v>2</v>
       </c>
       <c r="I13" s="15">
         <f>IF(ISBLANK(LOOKUP(A13,'1'!$A:$A,'1'!$R:$R)),0,F13)</f>
-        <v>4.8426150121065374E-2</v>
+        <v>4.2462845010615709E-2</v>
       </c>
       <c r="J13" s="16">
         <f>LOOKUP(A13,'1'!$A:$A,'1'!$R:$R)</f>
@@ -16053,7 +16441,7 @@
       <c r="AMJ13" s="16"/>
       <c r="AMK13" s="16"/>
     </row>
-    <row r="14" spans="1:1025" ht="25.5">
+    <row r="14" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -16071,14 +16459,14 @@
       </c>
       <c r="F14" s="15">
         <f>E14/tiempo!$J$14</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="G14" s="21">
         <v>2</v>
       </c>
       <c r="I14" s="15">
         <f>IF(ISBLANK(LOOKUP(A14,'1'!$A:$A,'1'!$R:$R)),0,F14)</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="J14" s="16">
         <f>LOOKUP(A14,'1'!$A:$A,'1'!$R:$R)</f>
@@ -17100,7 +17488,7 @@
       <c r="AMJ14" s="16"/>
       <c r="AMK14" s="16"/>
     </row>
-    <row r="15" spans="1:1025" ht="25.5">
+    <row r="15" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -17118,14 +17506,14 @@
       </c>
       <c r="F15" s="15">
         <f>E15/tiempo!$J$14</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="G15" s="21">
         <v>2</v>
       </c>
       <c r="I15" s="15">
         <f>IF(ISBLANK(LOOKUP(A15,'1'!$A:$A,'1'!$R:$R)),0,F15)</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="J15" s="16">
         <f>LOOKUP(A15,'1'!$A:$A,'1'!$R:$R)</f>
@@ -18147,7 +18535,7 @@
       <c r="AMJ15" s="16"/>
       <c r="AMK15" s="16"/>
     </row>
-    <row r="16" spans="1:1025" ht="38.25">
+    <row r="16" spans="1:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -18165,14 +18553,14 @@
       </c>
       <c r="F16" s="15">
         <f>E16/tiempo!$J$14</f>
-        <v>1.9370460048426151E-2</v>
+        <v>1.6985138004246284E-2</v>
       </c>
       <c r="G16" s="21">
         <v>2</v>
       </c>
       <c r="I16" s="15">
         <f>IF(ISBLANK(LOOKUP(A16,'1'!$A:$A,'1'!$R:$R)),0,F16)</f>
-        <v>1.9370460048426151E-2</v>
+        <v>1.6985138004246284E-2</v>
       </c>
       <c r="J16" s="16">
         <f>LOOKUP(A16,'1'!$A:$A,'1'!$R:$R)</f>
@@ -19194,7 +19582,7 @@
       <c r="AMJ16" s="16"/>
       <c r="AMK16" s="16"/>
     </row>
-    <row r="17" spans="1:1025" ht="25.5">
+    <row r="17" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -19212,14 +19600,14 @@
       </c>
       <c r="F17" s="15">
         <f>E17/tiempo!$J$14</f>
-        <v>2.4213075060532689E-3</v>
+        <v>2.1231422505307855E-3</v>
       </c>
       <c r="G17" s="21">
         <v>2</v>
       </c>
       <c r="I17" s="15">
         <f>IF(ISBLANK(LOOKUP(A17,'1'!$A:$A,'1'!$R:$R)),0,F17)</f>
-        <v>2.4213075060532689E-3</v>
+        <v>2.1231422505307855E-3</v>
       </c>
       <c r="J17" s="16">
         <f>LOOKUP(A17,'1'!$A:$A,'1'!$R:$R)</f>
@@ -20241,7 +20629,7 @@
       <c r="AMJ17" s="16"/>
       <c r="AMK17" s="16"/>
     </row>
-    <row r="18" spans="1:1025" ht="25.5">
+    <row r="18" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -20259,14 +20647,14 @@
       </c>
       <c r="F18" s="15">
         <f>E18/tiempo!$J$14</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="G18" s="21">
         <v>3</v>
       </c>
       <c r="I18" s="15">
         <f>IF(ISBLANK(LOOKUP(A18,'1'!$A:$A,'1'!$R:$R)),0,F18)</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="J18" s="16">
         <f>LOOKUP(A18,'1'!$A:$A,'1'!$R:$R)</f>
@@ -21288,7 +21676,7 @@
       <c r="AMJ18" s="16"/>
       <c r="AMK18" s="16"/>
     </row>
-    <row r="19" spans="1:1025" ht="25.5">
+    <row r="19" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -21306,14 +21694,14 @@
       </c>
       <c r="F19" s="15">
         <f>E19/tiempo!$J$14</f>
-        <v>4.8426150121065374E-2</v>
+        <v>4.2462845010615709E-2</v>
       </c>
       <c r="G19" s="21">
         <v>3</v>
       </c>
       <c r="I19" s="15">
         <f>IF(ISBLANK(LOOKUP(A19,'1'!$A:$A,'1'!$R:$R)),0,F19)</f>
-        <v>4.8426150121065374E-2</v>
+        <v>4.2462845010615709E-2</v>
       </c>
       <c r="J19" s="16">
         <f>LOOKUP(A19,'1'!$A:$A,'1'!$R:$R)</f>
@@ -22335,7 +22723,7 @@
       <c r="AMJ19" s="16"/>
       <c r="AMK19" s="16"/>
     </row>
-    <row r="20" spans="1:1025" ht="38.25">
+    <row r="20" spans="1:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -22353,14 +22741,14 @@
       </c>
       <c r="F20" s="15">
         <f>E20/tiempo!$J$14</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="G20" s="16">
         <v>3</v>
       </c>
       <c r="I20" s="15">
         <f>IF(ISBLANK(LOOKUP(A20,'1'!$A:$A,'1'!$R:$R)),0,F20)</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="J20" s="16">
         <f>LOOKUP(A20,'1'!$A:$A,'1'!$R:$R)</f>
@@ -23382,7 +23770,7 @@
       <c r="AMJ20" s="16"/>
       <c r="AMK20" s="16"/>
     </row>
-    <row r="21" spans="1:1025" ht="25.5">
+    <row r="21" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -23400,14 +23788,14 @@
       </c>
       <c r="F21" s="15">
         <f>E21/tiempo!$J$14</f>
-        <v>1.4527845036319613E-2</v>
+        <v>1.2738853503184714E-2</v>
       </c>
       <c r="G21" s="16">
         <v>3</v>
       </c>
       <c r="I21" s="15">
         <f>IF(ISBLANK(LOOKUP(A21,'1'!$A:$A,'1'!$R:$R)),0,F21)</f>
-        <v>1.4527845036319613E-2</v>
+        <v>1.2738853503184714E-2</v>
       </c>
       <c r="J21" s="16">
         <f>LOOKUP(A21,'1'!$A:$A,'1'!$R:$R)</f>
@@ -24429,7 +24817,7 @@
       <c r="AMJ21" s="16"/>
       <c r="AMK21" s="16"/>
     </row>
-    <row r="22" spans="1:1025" ht="38.25">
+    <row r="22" spans="1:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -24447,14 +24835,14 @@
       </c>
       <c r="F22" s="15">
         <f>E22/tiempo!$J$14</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="G22" s="16">
         <v>3</v>
       </c>
       <c r="I22" s="15">
         <f>IF(ISBLANK(LOOKUP(A22,'1'!$A:$A,'1'!$R:$R)),0,F22)</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="J22" s="16">
         <f>LOOKUP(A22,'1'!$A:$A,'1'!$R:$R)</f>
@@ -25476,7 +25864,7 @@
       <c r="AMJ22" s="16"/>
       <c r="AMK22" s="16"/>
     </row>
-    <row r="23" spans="1:1025" ht="51">
+    <row r="23" spans="1:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -25494,14 +25882,14 @@
       </c>
       <c r="F23" s="15">
         <f>E23/tiempo!$J$14</f>
-        <v>1.9370460048426151E-2</v>
+        <v>1.6985138004246284E-2</v>
       </c>
       <c r="G23" s="16">
         <v>3</v>
       </c>
       <c r="I23" s="15">
         <f>IF(ISBLANK(LOOKUP(A23,'1'!$A:$A,'1'!$R:$R)),0,F23)</f>
-        <v>1.9370460048426151E-2</v>
+        <v>1.6985138004246284E-2</v>
       </c>
       <c r="J23" s="16">
         <f>LOOKUP(A23,'1'!$A:$A,'1'!$R:$R)</f>
@@ -26523,7 +26911,7 @@
       <c r="AMJ23" s="16"/>
       <c r="AMK23" s="16"/>
     </row>
-    <row r="24" spans="1:1025" ht="63.75">
+    <row r="24" spans="1:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -26541,14 +26929,14 @@
       </c>
       <c r="F24" s="15">
         <f>E24/tiempo!$J$14</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="G24" s="16">
         <v>3</v>
       </c>
       <c r="I24" s="15">
         <f>IF(ISBLANK(LOOKUP(A24,'1'!$A:$A,'1'!$R:$R)),0,F24)</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="J24" s="16">
         <f>LOOKUP(A24,'1'!$A:$A,'1'!$R:$R)</f>
@@ -27570,7 +27958,7 @@
       <c r="AMJ24" s="16"/>
       <c r="AMK24" s="16"/>
     </row>
-    <row r="25" spans="1:1025" s="36" customFormat="1" ht="12.95" customHeight="1">
+    <row r="25" spans="1:1025" s="36" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34"/>
       <c r="B25" s="43"/>
       <c r="C25" s="40"/>
@@ -28597,7 +28985,7 @@
       <c r="AMJ25" s="29"/>
       <c r="AMK25" s="29"/>
     </row>
-    <row r="26" spans="1:1025" ht="38.25">
+    <row r="26" spans="1:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -28615,14 +29003,14 @@
       </c>
       <c r="F26" s="15">
         <f>E26/tiempo!$J$14</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="G26" s="16">
         <v>4</v>
       </c>
       <c r="I26" s="15">
         <f>IF(ISBLANK(LOOKUP(A26,'2'!$A:$A,'2'!$R:$R)),0,F26)</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="J26" s="16">
         <f>LOOKUP(A26,'2'!$A:$A,'2'!$R:$R)</f>
@@ -29644,7 +30032,7 @@
       <c r="AMJ26" s="16"/>
       <c r="AMK26" s="16"/>
     </row>
-    <row r="27" spans="1:1025" ht="63.75">
+    <row r="27" spans="1:1025" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -29662,14 +30050,14 @@
       </c>
       <c r="F27" s="15">
         <f>E27/tiempo!$J$14</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="G27" s="16">
         <v>4</v>
       </c>
       <c r="I27" s="15">
         <f>IF(ISBLANK(LOOKUP(A27,'2'!$A:$A,'2'!$R:$R)),0,F27)</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="J27" s="16">
         <f>LOOKUP(A27,'2'!$A:$A,'2'!$R:$R)</f>
@@ -30691,7 +31079,7 @@
       <c r="AMJ27" s="16"/>
       <c r="AMK27" s="16"/>
     </row>
-    <row r="28" spans="1:1025" ht="38.25">
+    <row r="28" spans="1:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -30709,14 +31097,14 @@
       </c>
       <c r="F28" s="15">
         <f>E28/tiempo!$J$14</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="G28" s="16">
         <v>4</v>
       </c>
       <c r="I28" s="15">
         <f>IF(ISBLANK(LOOKUP(A28,'2'!$A:$A,'2'!$R:$R)),0,F28)</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="J28" s="16">
         <f>LOOKUP(A28,'2'!$A:$A,'2'!$R:$R)</f>
@@ -31738,7 +32126,7 @@
       <c r="AMJ28" s="16"/>
       <c r="AMK28" s="16"/>
     </row>
-    <row r="29" spans="1:1025" ht="25.5">
+    <row r="29" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -31753,14 +32141,14 @@
       </c>
       <c r="F29" s="15">
         <f>E29/tiempo!$J$14</f>
-        <v>2.4213075060532689E-3</v>
+        <v>2.1231422505307855E-3</v>
       </c>
       <c r="G29" s="16">
         <v>4</v>
       </c>
       <c r="I29" s="15">
         <f>IF(ISBLANK(LOOKUP(A29,'2'!$A:$A,'2'!$R:$R)),0,F29)</f>
-        <v>2.4213075060532689E-3</v>
+        <v>2.1231422505307855E-3</v>
       </c>
       <c r="J29" s="16">
         <f>LOOKUP(A29,'2'!$A:$A,'2'!$R:$R)</f>
@@ -32782,7 +33170,7 @@
       <c r="AMJ29" s="16"/>
       <c r="AMK29" s="16"/>
     </row>
-    <row r="30" spans="1:1025" ht="51">
+    <row r="30" spans="1:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>28</v>
       </c>
@@ -32801,14 +33189,14 @@
       </c>
       <c r="F30" s="15">
         <f>E30/tiempo!$J$14</f>
-        <v>3.6319612590799029E-2</v>
+        <v>3.1847133757961783E-2</v>
       </c>
       <c r="G30" s="16">
         <v>4</v>
       </c>
       <c r="I30" s="15">
         <f>IF(ISBLANK(LOOKUP(A30,'2'!$A:$A,'2'!$R:$R)),0,F30)</f>
-        <v>3.6319612590799029E-2</v>
+        <v>3.1847133757961783E-2</v>
       </c>
       <c r="J30" s="16">
         <f>LOOKUP(A30,'2'!$A:$A,'2'!$R:$R)</f>
@@ -33830,7 +34218,7 @@
       <c r="AMJ30" s="16"/>
       <c r="AMK30" s="16"/>
     </row>
-    <row r="31" spans="1:1025" ht="25.5">
+    <row r="31" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <v>29</v>
       </c>
@@ -33848,14 +34236,14 @@
       </c>
       <c r="F31" s="15">
         <f>E31/tiempo!$J$14</f>
-        <v>2.4213075060532689E-3</v>
+        <v>2.1231422505307855E-3</v>
       </c>
       <c r="G31" s="16">
         <v>4</v>
       </c>
       <c r="I31" s="15">
         <f>IF(ISBLANK(LOOKUP(A31,'2'!$A:$A,'2'!$R:$R)),0,F31)</f>
-        <v>2.4213075060532689E-3</v>
+        <v>2.1231422505307855E-3</v>
       </c>
       <c r="J31" s="16">
         <f>LOOKUP(A31,'2'!$A:$A,'2'!$R:$R)</f>
@@ -34877,7 +35265,7 @@
       <c r="AMJ31" s="16"/>
       <c r="AMK31" s="16"/>
     </row>
-    <row r="32" spans="1:1025" ht="25.5">
+    <row r="32" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <v>30</v>
       </c>
@@ -34895,14 +35283,14 @@
       </c>
       <c r="F32" s="15">
         <f>E32/tiempo!$J$14</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="G32" s="16">
         <v>4</v>
       </c>
       <c r="I32" s="15">
         <f>IF(ISBLANK(LOOKUP(A32,'2'!$A:$A,'2'!$R:$R)),0,F32)</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="J32" s="16">
         <f>LOOKUP(A32,'2'!$A:$A,'2'!$R:$R)</f>
@@ -35924,7 +36312,7 @@
       <c r="AMJ32" s="16"/>
       <c r="AMK32" s="16"/>
     </row>
-    <row r="33" spans="1:1025" ht="25.5">
+    <row r="33" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <v>31</v>
       </c>
@@ -35939,14 +36327,14 @@
       </c>
       <c r="F33" s="15">
         <f>E33/tiempo!$J$14</f>
-        <v>1.4527845036319613E-2</v>
+        <v>1.2738853503184714E-2</v>
       </c>
       <c r="G33" s="16">
         <v>4</v>
       </c>
       <c r="I33" s="15">
         <f>IF(ISBLANK(LOOKUP(A33,'2'!$A:$A,'2'!$R:$R)),0,F33)</f>
-        <v>1.4527845036319613E-2</v>
+        <v>1.2738853503184714E-2</v>
       </c>
       <c r="J33" s="16">
         <f>LOOKUP(A33,'2'!$A:$A,'2'!$R:$R)</f>
@@ -36968,7 +37356,7 @@
       <c r="AMJ33" s="16"/>
       <c r="AMK33" s="16"/>
     </row>
-    <row r="34" spans="1:1025" ht="25.5">
+    <row r="34" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <v>32</v>
       </c>
@@ -36986,14 +37374,14 @@
       </c>
       <c r="F34" s="15">
         <f>E34/tiempo!$J$14</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="G34" s="16">
         <v>4</v>
       </c>
       <c r="I34" s="15">
         <f>IF(ISBLANK(LOOKUP(A34,'2'!$A:$A,'2'!$R:$R)),0,F34)</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="J34" s="16">
         <f>LOOKUP(A34,'2'!$A:$A,'2'!$R:$R)</f>
@@ -38015,7 +38403,7 @@
       <c r="AMJ34" s="16"/>
       <c r="AMK34" s="16"/>
     </row>
-    <row r="35" spans="1:1025" ht="38.25">
+    <row r="35" spans="1:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <v>33</v>
       </c>
@@ -38033,14 +38421,14 @@
       </c>
       <c r="F35" s="15">
         <f>E35/tiempo!$J$14</f>
-        <v>2.4213075060532689E-3</v>
+        <v>2.1231422505307855E-3</v>
       </c>
       <c r="G35" s="16">
         <v>4</v>
       </c>
       <c r="I35" s="15">
         <f>IF(ISBLANK(LOOKUP(A35,'2'!$A:$A,'2'!$R:$R)),0,F35)</f>
-        <v>2.4213075060532689E-3</v>
+        <v>2.1231422505307855E-3</v>
       </c>
       <c r="J35" s="16">
         <f>LOOKUP(A35,'2'!$A:$A,'2'!$R:$R)</f>
@@ -39062,7 +39450,7 @@
       <c r="AMJ35" s="16"/>
       <c r="AMK35" s="16"/>
     </row>
-    <row r="36" spans="1:1025" ht="51">
+    <row r="36" spans="1:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <v>34</v>
       </c>
@@ -39080,14 +39468,14 @@
       </c>
       <c r="F36" s="15">
         <f>E36/tiempo!$J$14</f>
-        <v>4.8426150121065378E-3</v>
+        <v>4.246284501061571E-3</v>
       </c>
       <c r="G36" s="16">
         <v>4</v>
       </c>
       <c r="I36" s="15">
         <f>IF(ISBLANK(LOOKUP(A36,'2'!$A:$A,'2'!$R:$R)),0,F36)</f>
-        <v>4.8426150121065378E-3</v>
+        <v>4.246284501061571E-3</v>
       </c>
       <c r="J36" s="16">
         <f>LOOKUP(A36,'2'!$A:$A,'2'!$R:$R)</f>
@@ -40109,7 +40497,7 @@
       <c r="AMJ36" s="16"/>
       <c r="AMK36" s="16"/>
     </row>
-    <row r="37" spans="1:1025" ht="38.25">
+    <row r="37" spans="1:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <v>35</v>
       </c>
@@ -40127,14 +40515,14 @@
       </c>
       <c r="F37" s="15">
         <f>E37/tiempo!$J$14</f>
-        <v>1.4527845036319613E-2</v>
+        <v>1.2738853503184714E-2</v>
       </c>
       <c r="G37" s="16">
         <v>4</v>
       </c>
       <c r="I37" s="15">
         <f>IF(ISBLANK(LOOKUP(A37,'2'!$A:$A,'2'!$R:$R)),0,F37)</f>
-        <v>1.4527845036319613E-2</v>
+        <v>1.2738853503184714E-2</v>
       </c>
       <c r="J37" s="16">
         <f>LOOKUP(A37,'2'!$A:$A,'2'!$R:$R)</f>
@@ -41156,7 +41544,7 @@
       <c r="AMJ37" s="16"/>
       <c r="AMK37" s="16"/>
     </row>
-    <row r="38" spans="1:1025" ht="38.25">
+    <row r="38" spans="1:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <v>36</v>
       </c>
@@ -41174,14 +41562,14 @@
       </c>
       <c r="F38" s="15">
         <f>E38/tiempo!$J$14</f>
-        <v>4.8426150121065378E-3</v>
+        <v>4.246284501061571E-3</v>
       </c>
       <c r="G38" s="16">
         <v>5</v>
       </c>
       <c r="I38" s="15">
         <f>IF(ISBLANK(LOOKUP(A38,'2'!$A:$A,'2'!$R:$R)),0,F38)</f>
-        <v>4.8426150121065378E-3</v>
+        <v>4.246284501061571E-3</v>
       </c>
       <c r="J38" s="16">
         <f>LOOKUP(A38,'2'!$A:$A,'2'!$R:$R)</f>
@@ -42203,7 +42591,7 @@
       <c r="AMJ38" s="16"/>
       <c r="AMK38" s="16"/>
     </row>
-    <row r="39" spans="1:1025" ht="38.25">
+    <row r="39" spans="1:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <v>37</v>
       </c>
@@ -42221,14 +42609,14 @@
       </c>
       <c r="F39" s="15">
         <f>E39/tiempo!$J$14</f>
-        <v>1.9370460048426151E-2</v>
+        <v>1.6985138004246284E-2</v>
       </c>
       <c r="G39" s="16">
         <v>5</v>
       </c>
       <c r="I39" s="15">
         <f>IF(ISBLANK(LOOKUP(A39,'2'!$A:$A,'2'!$R:$R)),0,F39)</f>
-        <v>1.9370460048426151E-2</v>
+        <v>1.6985138004246284E-2</v>
       </c>
       <c r="J39" s="16">
         <f>LOOKUP(A39,'2'!$A:$A,'2'!$R:$R)</f>
@@ -43250,7 +43638,7 @@
       <c r="AMJ39" s="16"/>
       <c r="AMK39" s="16"/>
     </row>
-    <row r="40" spans="1:1025" ht="38.25">
+    <row r="40" spans="1:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <v>38</v>
       </c>
@@ -43268,14 +43656,14 @@
       </c>
       <c r="F40" s="15">
         <f>E40/tiempo!$J$14</f>
-        <v>1.9370460048426151E-2</v>
+        <v>1.6985138004246284E-2</v>
       </c>
       <c r="G40" s="16">
         <v>5</v>
       </c>
       <c r="I40" s="15">
         <f>IF(ISBLANK(LOOKUP(A40,'2'!$A:$A,'2'!$R:$R)),0,F40)</f>
-        <v>1.9370460048426151E-2</v>
+        <v>1.6985138004246284E-2</v>
       </c>
       <c r="J40" s="16">
         <f>LOOKUP(A40,'2'!$A:$A,'2'!$R:$R)</f>
@@ -44297,7 +44685,7 @@
       <c r="AMJ40" s="16"/>
       <c r="AMK40" s="16"/>
     </row>
-    <row r="41" spans="1:1025" ht="38.25">
+    <row r="41" spans="1:1025" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <v>39</v>
       </c>
@@ -44315,7 +44703,7 @@
       </c>
       <c r="F41" s="15">
         <f>E41/tiempo!$J$14</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="G41" s="16">
         <v>5</v>
@@ -45337,7 +45725,7 @@
       <c r="AMJ41" s="16"/>
       <c r="AMK41" s="16"/>
     </row>
-    <row r="42" spans="1:1025" ht="25.5">
+    <row r="42" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <v>40</v>
       </c>
@@ -45355,7 +45743,7 @@
       </c>
       <c r="F42" s="15">
         <f>E42/tiempo!$J$14</f>
-        <v>2.4213075060532689E-3</v>
+        <v>2.1231422505307855E-3</v>
       </c>
       <c r="G42" s="16">
         <v>5</v>
@@ -46377,7 +46765,7 @@
       <c r="AMJ42" s="16"/>
       <c r="AMK42" s="16"/>
     </row>
-    <row r="43" spans="1:1025" ht="25.5">
+    <row r="43" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <v>41</v>
       </c>
@@ -46392,14 +46780,14 @@
       </c>
       <c r="F43" s="15">
         <f>E43/tiempo!$J$14</f>
-        <v>1.9370460048426151E-2</v>
+        <v>1.6985138004246284E-2</v>
       </c>
       <c r="G43" s="16">
         <v>5</v>
       </c>
       <c r="I43" s="15">
         <f>IF(ISBLANK(LOOKUP(A43,'2'!$A:$A,'2'!$R:$R)),0,F43)</f>
-        <v>1.9370460048426151E-2</v>
+        <v>1.6985138004246284E-2</v>
       </c>
       <c r="J43" s="16">
         <f>LOOKUP(A43,'2'!$A:$A,'2'!$R:$R)</f>
@@ -47421,7 +47809,7 @@
       <c r="AMJ43" s="16"/>
       <c r="AMK43" s="16"/>
     </row>
-    <row r="44" spans="1:1025" ht="25.5">
+    <row r="44" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <v>42</v>
       </c>
@@ -47436,14 +47824,14 @@
       </c>
       <c r="F44" s="15">
         <f>E44/tiempo!$J$14</f>
-        <v>1.4527845036319613E-2</v>
+        <v>1.2738853503184714E-2</v>
       </c>
       <c r="G44" s="16">
         <v>5</v>
       </c>
       <c r="I44" s="15">
         <f>IF(ISBLANK(LOOKUP(A44,'2'!$A:$A,'2'!$R:$R)),0,F44)</f>
-        <v>1.4527845036319613E-2</v>
+        <v>1.2738853503184714E-2</v>
       </c>
       <c r="J44" s="16">
         <f>LOOKUP(A44,'2'!$A:$A,'2'!$R:$R)</f>
@@ -48465,7 +48853,7 @@
       <c r="AMJ44" s="16"/>
       <c r="AMK44" s="16"/>
     </row>
-    <row r="45" spans="1:1025" ht="51">
+    <row r="45" spans="1:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <v>43</v>
       </c>
@@ -48483,14 +48871,14 @@
       </c>
       <c r="F45" s="15">
         <f>E45/tiempo!$J$14</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="G45" s="16">
         <v>5</v>
       </c>
       <c r="I45" s="15">
         <f>IF(ISBLANK(LOOKUP(A45,'2'!$A:$A,'2'!$R:$R)),0,F45)</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="J45" s="16">
         <f>LOOKUP(A45,'2'!$A:$A,'2'!$R:$R)</f>
@@ -49512,7 +49900,7 @@
       <c r="AMJ45" s="16"/>
       <c r="AMK45" s="16"/>
     </row>
-    <row r="46" spans="1:1025" ht="25.5">
+    <row r="46" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <v>44</v>
       </c>
@@ -49530,14 +49918,14 @@
       </c>
       <c r="F46" s="15">
         <f>E46/tiempo!$J$14</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="G46" s="16">
         <v>5</v>
       </c>
       <c r="I46" s="15">
         <f>IF(ISBLANK(LOOKUP(A46,'2'!$A:$A,'2'!$R:$R)),0,F46)</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="J46" s="16">
         <f>LOOKUP(A46,'2'!$A:$A,'2'!$R:$R)</f>
@@ -50559,7 +50947,7 @@
       <c r="AMJ46" s="16"/>
       <c r="AMK46" s="16"/>
     </row>
-    <row r="47" spans="1:1025" ht="51">
+    <row r="47" spans="1:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <v>45</v>
       </c>
@@ -50577,14 +50965,14 @@
       </c>
       <c r="F47" s="15">
         <f>E47/tiempo!$J$14</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="G47" s="16">
         <v>5</v>
       </c>
       <c r="I47" s="15">
         <f>IF(ISBLANK(LOOKUP(A47,'2'!$A:$A,'2'!$R:$R)),0,F47)</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="J47" s="16">
         <f>LOOKUP(A47,'2'!$A:$A,'2'!$R:$R)</f>
@@ -51606,7 +51994,7 @@
       <c r="AMJ47" s="16"/>
       <c r="AMK47" s="16"/>
     </row>
-    <row r="48" spans="1:1025" s="36" customFormat="1">
+    <row r="48" spans="1:1025" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="29"/>
       <c r="B48" s="44"/>
       <c r="C48" s="41"/>
@@ -52633,7 +53021,7 @@
       <c r="AMJ48" s="30"/>
       <c r="AMK48" s="30"/>
     </row>
-    <row r="49" spans="1:7" ht="38.25">
+    <row r="49" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>46</v>
       </c>
@@ -52651,13 +53039,13 @@
       </c>
       <c r="F49" s="15">
         <f>E49/tiempo!$J$14</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="G49" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="63.75">
+    <row r="50" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>47</v>
       </c>
@@ -52675,13 +53063,13 @@
       </c>
       <c r="F50" s="15">
         <f>E50/tiempo!$J$14</f>
-        <v>2.4213075060532687E-2</v>
+        <v>2.1231422505307854E-2</v>
       </c>
       <c r="G50" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="38.25">
+    <row r="51" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>48</v>
       </c>
@@ -52699,15 +53087,18 @@
       </c>
       <c r="F51" s="15">
         <f>E51/tiempo!$J$14</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="G51" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="38.25">
+    <row r="52" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="16">
+        <v>49</v>
+      </c>
       <c r="B52" s="17" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="C52" s="39" t="s">
         <v>129</v>
@@ -52720,186 +53111,409 @@
       </c>
       <c r="F52" s="15">
         <f>E52/tiempo!$J$14</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="G52" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="25.5">
+    <row r="53" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="16">
+        <v>50</v>
+      </c>
       <c r="B53" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="39" t="s">
         <v>129</v>
       </c>
       <c r="D53" s="39" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E53" s="16">
         <v>3</v>
       </c>
       <c r="F53" s="15">
         <f>E53/tiempo!$J$14</f>
-        <v>1.4527845036319613E-2</v>
+        <v>1.2738853503184714E-2</v>
       </c>
       <c r="G53" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="25.5">
+    <row r="54" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="16">
+        <v>51</v>
+      </c>
       <c r="B54" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E54" s="16">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F54" s="15">
         <f>E54/tiempo!$J$14</f>
-        <v>2.4213075060532689E-3</v>
+        <v>1.2738853503184714E-2</v>
       </c>
       <c r="G54" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="25.5">
+    <row r="55" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="16">
+        <v>52</v>
+      </c>
       <c r="B55" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D55" s="39" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E55" s="16">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F55" s="15">
         <f>E55/tiempo!$J$14</f>
-        <v>9.6852300242130755E-3</v>
+        <v>2.1231422505307855E-3</v>
       </c>
       <c r="G55" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="25.5">
+    <row r="56" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="16">
+        <v>53</v>
+      </c>
       <c r="B56" s="17" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E56" s="16">
         <v>2</v>
       </c>
       <c r="F56" s="15">
         <f>E56/tiempo!$J$14</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="G56" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="25.5">
+    <row r="57" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="16">
+        <v>54</v>
+      </c>
       <c r="B57" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E57" s="16">
         <v>2</v>
       </c>
       <c r="F57" s="15">
         <f>E57/tiempo!$J$14</f>
-        <v>9.6852300242130755E-3</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="G57" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="38.25">
+    <row r="58" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="16">
+        <v>55</v>
+      </c>
       <c r="B58" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E58" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F58" s="15">
         <f>E58/tiempo!$J$14</f>
-        <v>1.9370460048426151E-2</v>
+        <v>8.4925690021231421E-3</v>
       </c>
       <c r="G58" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="16">
+        <v>56</v>
+      </c>
       <c r="B59" s="17" t="s">
-        <v>145</v>
+        <v>161</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="E59" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59" s="15">
         <f>E59/tiempo!$J$14</f>
-        <v>1.4527845036319613E-2</v>
+        <v>1.6985138004246284E-2</v>
       </c>
       <c r="G59" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="16">
+        <v>57</v>
+      </c>
       <c r="B60" s="17" t="s">
-        <v>146</v>
+        <v>152</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>163</v>
       </c>
       <c r="E60" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60" s="15">
         <f>E60/tiempo!$J$14</f>
-        <v>2.4213075060532687E-2</v>
+        <v>1.6985138004246284E-2</v>
       </c>
       <c r="G60" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="51">
+    <row r="61" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
+        <v>58</v>
+      </c>
       <c r="B61" s="17" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="E61" s="16">
-        <v>5</v>
+        <f>7.5</f>
+        <v>7.5</v>
       </c>
       <c r="F61" s="15">
         <f>E61/tiempo!$J$14</f>
-        <v>2.4213075060532687E-2</v>
+        <v>3.1847133757961783E-2</v>
       </c>
       <c r="G61" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="16">
+        <v>59</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="16">
+        <v>4</v>
+      </c>
+      <c r="F62" s="15">
+        <f>E62/tiempo!$J$14</f>
+        <v>1.6985138004246284E-2</v>
+      </c>
+      <c r="G62" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="16">
+        <v>60</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E63" s="16">
+        <v>2</v>
+      </c>
+      <c r="F63" s="15">
+        <f>E63/tiempo!$J$14</f>
+        <v>8.4925690021231421E-3</v>
+      </c>
+      <c r="G63" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="16">
+        <v>61</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" s="16">
+        <v>2</v>
+      </c>
+      <c r="F64" s="15">
+        <f>E64/tiempo!$J$14</f>
+        <v>8.4925690021231421E-3</v>
+      </c>
+      <c r="G64" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="16">
+        <v>62</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E65" s="16">
+        <v>3</v>
+      </c>
+      <c r="F65" s="15">
+        <f>E65/tiempo!$J$14</f>
+        <v>1.2738853503184714E-2</v>
+      </c>
+      <c r="G65" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="16">
+        <v>63</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" s="16">
+        <v>9</v>
+      </c>
+      <c r="F66" s="15">
+        <f>E66/tiempo!$J$14</f>
+        <v>3.8216560509554139E-2</v>
+      </c>
+      <c r="G66" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="16">
+        <v>64</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="F67" s="15">
+        <f>E67/tiempo!$J$14</f>
+        <v>2.1231422505307855E-3</v>
+      </c>
+      <c r="G67" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="16">
+        <v>65</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="16">
+        <v>2</v>
+      </c>
+      <c r="F68" s="15">
+        <f>E68/tiempo!$J$14</f>
+        <v>8.4925690021231421E-3</v>
+      </c>
+      <c r="G68" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A69" s="16">
+        <v>66</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="16">
+        <v>5</v>
+      </c>
+      <c r="F69" s="15">
+        <f>E69/tiempo!$J$14</f>
+        <v>2.1231422505307854E-2</v>
+      </c>
+      <c r="G69" s="16">
         <v>7</v>
       </c>
     </row>
@@ -52914,14 +53528,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK28"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="17"/>
@@ -52939,7 +53553,7 @@
     <col min="1026" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="57">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -53002,7 +53616,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="25.5">
+    <row r="2" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -53078,7 +53692,7 @@
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="38.25">
+    <row r="3" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -53154,7 +53768,7 @@
         <v>1.0166666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="63.75">
+    <row r="4" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -53230,7 +53844,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="38.25">
+    <row r="5" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -53290,7 +53904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="25.5">
+    <row r="6" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -53350,7 +53964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="25.5">
+    <row r="7" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -53410,7 +54024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="25.5">
+    <row r="8" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -53470,7 +54084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="25.5">
+    <row r="9" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -53534,7 +54148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="25.5">
+    <row r="10" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -53598,7 +54212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -53647,7 +54261,13 @@
         <f>E11/5</f>
         <v>2</v>
       </c>
-      <c r="Q11" s="12"/>
+      <c r="Q11" s="12">
+        <f>F11</f>
+        <v>0.10256410256410256</v>
+      </c>
+      <c r="R11" s="11">
+        <v>6</v>
+      </c>
       <c r="T11" s="16">
         <v>0</v>
       </c>
@@ -53664,7 +54284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -53712,7 +54332,13 @@
         <f>E12/5</f>
         <v>3</v>
       </c>
-      <c r="Q12" s="12"/>
+      <c r="Q12" s="12">
+        <f>F12</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="R12" s="11">
+        <v>6</v>
+      </c>
       <c r="T12" s="16">
         <v>0</v>
       </c>
@@ -53729,7 +54355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="25.5">
+    <row r="13" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -53805,7 +54431,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="25.5">
+    <row r="14" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -53869,7 +54495,7 @@
         <v>1.1944444444444442</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="25.5">
+    <row r="15" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -53929,7 +54555,7 @@
         <v>1.1944444444444442</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="38.25">
+    <row r="16" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -53993,7 +54619,7 @@
         <v>1.1944444444444442</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="25.5">
+    <row r="17" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -54053,7 +54679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="25.5">
+    <row r="18" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -54117,7 +54743,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="25.5">
+    <row r="19" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -54193,7 +54819,7 @@
         <v>1.6333333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="38.25">
+    <row r="20" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -54252,7 +54878,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="25.5">
+    <row r="21" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -54315,7 +54941,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="38.25">
+    <row r="22" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -54378,7 +55004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="51">
+    <row r="23" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -54441,7 +55067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="63.75">
+    <row r="24" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -54516,7 +55142,7 @@
         <v>0.73333333333333328</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M28" s="11">
         <f>SUM(I26:M26)</f>
         <v>0</v>
@@ -54533,14 +55159,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="17" customWidth="1"/>
@@ -54558,7 +55184,7 @@
     <col min="1026" max="16384" width="32.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="57">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -54621,7 +55247,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="38.25">
+    <row r="2" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>24</v>
       </c>
@@ -54697,7 +55323,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="63.75">
+    <row r="3" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>25</v>
       </c>
@@ -54773,7 +55399,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="38.25">
+    <row r="4" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>26</v>
       </c>
@@ -54833,7 +55459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="25.5">
+    <row r="5" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>27</v>
       </c>
@@ -54893,7 +55519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="51">
+    <row r="6" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>28</v>
       </c>
@@ -54969,7 +55595,7 @@
         <v>1.8833333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="25.5">
+    <row r="7" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>29</v>
       </c>
@@ -55029,7 +55655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="25.5">
+    <row r="8" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>30</v>
       </c>
@@ -55093,7 +55719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="25.5">
+    <row r="9" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <v>31</v>
       </c>
@@ -55153,7 +55779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="25.5">
+    <row r="10" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <v>32</v>
       </c>
@@ -55229,7 +55855,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="38.25">
+    <row r="11" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <v>33</v>
       </c>
@@ -55289,7 +55915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="51">
+    <row r="12" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <v>34</v>
       </c>
@@ -55348,7 +55974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="38.25">
+    <row r="13" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>35</v>
       </c>
@@ -55408,7 +56034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="38.25">
+    <row r="14" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <v>36</v>
       </c>
@@ -55468,7 +56094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="38.25">
+    <row r="15" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>37</v>
       </c>
@@ -55528,7 +56154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="38.25">
+    <row r="16" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>38</v>
       </c>
@@ -55592,7 +56218,7 @@
         <v>10.733333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="38.25">
+    <row r="17" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <v>39</v>
       </c>
@@ -55646,7 +56272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="25.5">
+    <row r="18" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <v>40</v>
       </c>
@@ -55700,7 +56326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="25.5">
+    <row r="19" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>41</v>
       </c>
@@ -55772,7 +56398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="25.5">
+    <row r="20" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>42</v>
       </c>
@@ -55831,7 +56457,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="51">
+    <row r="21" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>43</v>
       </c>
@@ -55906,7 +56532,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="25.5">
+    <row r="22" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>44</v>
       </c>
@@ -55969,7 +56595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="51">
+    <row r="23" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>45</v>
       </c>
@@ -56055,14 +56681,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="17" customWidth="1"/>
@@ -56080,7 +56706,7 @@
     <col min="1026" max="16384" width="32.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="57">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -56143,171 +56769,822 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="18"/>
-      <c r="B2" s="20"/>
-      <c r="E2" s="19"/>
-      <c r="G2" s="19"/>
+    <row r="2" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
+        <v>46</v>
+      </c>
+      <c r="B2" s="20" t="str">
+        <f>LOOKUP(A2,tareas!A:A,tareas!B:B)</f>
+        <v>Realizar el lanzamiento del ciclo #3.</v>
+      </c>
+      <c r="C2" s="17" t="str">
+        <f>LOOKUP(A2,tareas!A:A,tareas!D:D)</f>
+        <v>Cada miembro del equipo completó la forma INFO. El equipo llego a un acuerdo con los goles del ciclo 1 y la fecha en que serán entregados los reportes semanales.</v>
+      </c>
+      <c r="D2" s="17" t="str">
+        <f>LOOKUP(A2,tareas!A:A,tareas!D:D)</f>
+        <v>Cada miembro del equipo completó la forma INFO. El equipo llego a un acuerdo con los goles del ciclo 1 y la fecha en que serán entregados los reportes semanales.</v>
+      </c>
+      <c r="E2" s="19">
+        <f>LOOKUP(A2,tareas!A:A,tareas!E:E)</f>
+        <v>5</v>
+      </c>
+      <c r="F2" s="15">
+        <f>E2/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>7.1942446043165464E-2</v>
+      </c>
+      <c r="G2" s="19">
+        <f>LOOKUP(A2,tareas!A:A,tareas!G:G)</f>
+        <v>6</v>
+      </c>
       <c r="H2" s="18"/>
+      <c r="I2" s="16">
+        <f>$E$2/5</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="16">
+        <f t="shared" ref="J2:M2" si="0">$E$2/5</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L2" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M2" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="Q2" s="15"/>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20"/>
-      <c r="E3" s="19"/>
-      <c r="G3" s="19"/>
+    <row r="3" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
+        <v>47</v>
+      </c>
+      <c r="B3" s="20" t="str">
+        <f>LOOKUP(A3,tareas!A:A,tareas!B:B)</f>
+        <v>Definir la estrategía de desarrolo del ciclo #3.</v>
+      </c>
+      <c r="C3" s="17" t="str">
+        <f>LOOKUP(A3,tareas!A:A,tareas!D:D)</f>
+        <v>El equipo estimó el tamaño y el tiempo de producción de los elementos a producir en el ciclo #1. El equipo definió actualizó el diseño conceptual del proyecto y completó la forma STRAT. El equipo actualizó el documento los riesgos y problemas.</v>
+      </c>
+      <c r="D3" s="17" t="str">
+        <f>LOOKUP(A3,tareas!A:A,tareas!D:D)</f>
+        <v>El equipo estimó el tamaño y el tiempo de producción de los elementos a producir en el ciclo #1. El equipo definió actualizó el diseño conceptual del proyecto y completó la forma STRAT. El equipo actualizó el documento los riesgos y problemas.</v>
+      </c>
+      <c r="E3" s="19">
+        <f>LOOKUP(A3,tareas!A:A,tareas!E:E)</f>
+        <v>5</v>
+      </c>
+      <c r="F3" s="15">
+        <f>E3/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>7.1942446043165464E-2</v>
+      </c>
+      <c r="G3" s="19">
+        <f>LOOKUP(A3,tareas!A:A,tareas!G:G)</f>
+        <v>6</v>
+      </c>
       <c r="H3" s="18"/>
+      <c r="I3" s="16">
+        <f>$E$3/5</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="16">
+        <f t="shared" ref="J3:M3" si="1">$E$3/5</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L3" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="Q3" s="15"/>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20"/>
-      <c r="E4" s="19"/>
-      <c r="G4" s="19"/>
+    <row r="4" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>48</v>
+      </c>
+      <c r="B4" s="20" t="str">
+        <f>LOOKUP(A4,tareas!A:A,tareas!B:B)</f>
+        <v>Elaborar el plan del ciclo #3.</v>
+      </c>
+      <c r="C4" s="17" t="str">
+        <f>LOOKUP(A4,tareas!A:A,tareas!D:D)</f>
+        <v>Se completaron las formas TASK y SCHEDULE para el equipo y cada miembro de este. El equipo completo las formas SUMP, SUMQ y SUMS.</v>
+      </c>
+      <c r="D4" s="17" t="str">
+        <f>LOOKUP(A4,tareas!A:A,tareas!D:D)</f>
+        <v>Se completaron las formas TASK y SCHEDULE para el equipo y cada miembro de este. El equipo completo las formas SUMP, SUMQ y SUMS.</v>
+      </c>
+      <c r="E4" s="19">
+        <f>LOOKUP(A4,tareas!A:A,tareas!E:E)</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="15">
+        <f>E4/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>2.8776978417266189E-2</v>
+      </c>
+      <c r="G4" s="19">
+        <f>LOOKUP(A4,tareas!A:A,tareas!G:G)</f>
+        <v>6</v>
+      </c>
       <c r="H4" s="18"/>
+      <c r="L4" s="16">
+        <f>E4</f>
+        <v>2</v>
+      </c>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="G5" s="19"/>
+    <row r="5" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>49</v>
+      </c>
+      <c r="B5" s="20" t="str">
+        <f>LOOKUP(A5,tareas!A:A,tareas!B:B)</f>
+        <v>Elaborar el mokcup de la vista para la creación de un proyecto.</v>
+      </c>
+      <c r="C5" s="17" t="str">
+        <f>LOOKUP(A5,tareas!A:A,tareas!D:D)</f>
+        <v>Se elaboró el mockup de la vista para la creación de un proyecto.</v>
+      </c>
+      <c r="D5" s="17" t="str">
+        <f>LOOKUP(A5,tareas!A:A,tareas!D:D)</f>
+        <v>Se elaboró el mockup de la vista para la creación de un proyecto.</v>
+      </c>
+      <c r="E5" s="19">
+        <f>LOOKUP(A5,tareas!A:A,tareas!E:E)</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="15">
+        <f>E5/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>2.8776978417266189E-2</v>
+      </c>
+      <c r="G5" s="19">
+        <f>LOOKUP(A5,tareas!A:A,tareas!G:G)</f>
+        <v>6</v>
+      </c>
       <c r="H5" s="18"/>
+      <c r="K5" s="16">
+        <f>E5</f>
+        <v>2</v>
+      </c>
       <c r="Q5" s="15"/>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20"/>
-      <c r="E6" s="19"/>
-      <c r="G6" s="19"/>
+    <row r="6" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>50</v>
+      </c>
+      <c r="B6" s="20" t="str">
+        <f>LOOKUP(A6,tareas!A:A,tareas!B:B)</f>
+        <v>Elaborar el mockup de la vista para la asignación de la disponibilidad de los recursos.</v>
+      </c>
+      <c r="C6" s="17" t="str">
+        <f>LOOKUP(A6,tareas!A:A,tareas!D:D)</f>
+        <v>Se elaboró el mockup de la vista para la asignación de la disponibilidad de los recursos.</v>
+      </c>
+      <c r="D6" s="17" t="str">
+        <f>LOOKUP(A6,tareas!A:A,tareas!D:D)</f>
+        <v>Se elaboró el mockup de la vista para la asignación de la disponibilidad de los recursos.</v>
+      </c>
+      <c r="E6" s="19">
+        <f>LOOKUP(A6,tareas!A:A,tareas!E:E)</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="15">
+        <f>E6/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>4.3165467625899283E-2</v>
+      </c>
+      <c r="G6" s="19">
+        <f>LOOKUP(A6,tareas!A:A,tareas!G:G)</f>
+        <v>6</v>
+      </c>
       <c r="H6" s="22"/>
+      <c r="J6" s="16">
+        <f>E6</f>
+        <v>3</v>
+      </c>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="E7" s="19"/>
-      <c r="G7" s="19"/>
+    <row r="7" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>51</v>
+      </c>
+      <c r="B7" s="20" t="str">
+        <f>LOOKUP(A7,tareas!A:A,tareas!B:B)</f>
+        <v>Elaborar el mockup de la vista para ver la calendarización de uno o más recursos.</v>
+      </c>
+      <c r="C7" s="17" t="str">
+        <f>LOOKUP(A7,tareas!A:A,tareas!D:D)</f>
+        <v>Se elaboró el mockup de la vista para ver la calendarización de uno o más recursos.</v>
+      </c>
+      <c r="D7" s="17" t="str">
+        <f>LOOKUP(A7,tareas!A:A,tareas!D:D)</f>
+        <v>Se elaboró el mockup de la vista para ver la calendarización de uno o más recursos.</v>
+      </c>
+      <c r="E7" s="19">
+        <f>LOOKUP(A7,tareas!A:A,tareas!E:E)</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="15">
+        <f>E7/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>4.3165467625899283E-2</v>
+      </c>
+      <c r="G7" s="19">
+        <f>LOOKUP(A7,tareas!A:A,tareas!G:G)</f>
+        <v>6</v>
+      </c>
       <c r="H7" s="21"/>
+      <c r="L7" s="16">
+        <f>E7</f>
+        <v>3</v>
+      </c>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20"/>
-      <c r="E8" s="19"/>
-      <c r="G8" s="19"/>
+    <row r="8" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
+        <v>52</v>
+      </c>
+      <c r="B8" s="20" t="str">
+        <f>LOOKUP(A8,tareas!A:A,tareas!B:B)</f>
+        <v>Crear la agenda para la reunión #4 con el cliente.</v>
+      </c>
+      <c r="C8" s="17" t="str">
+        <f>LOOKUP(A8,tareas!A:A,tareas!D:D)</f>
+        <v>Se creó la agenda para la reunión #4 con el cliente.</v>
+      </c>
+      <c r="D8" s="17" t="str">
+        <f>LOOKUP(A8,tareas!A:A,tareas!D:D)</f>
+        <v>Se creó la agenda para la reunión #4 con el cliente.</v>
+      </c>
+      <c r="E8" s="19">
+        <f>LOOKUP(A8,tareas!A:A,tareas!E:E)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="15">
+        <f>E8/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>7.1942446043165471E-3</v>
+      </c>
+      <c r="G8" s="19">
+        <f>LOOKUP(A8,tareas!A:A,tareas!G:G)</f>
+        <v>6</v>
+      </c>
       <c r="H8" s="21"/>
+      <c r="L8" s="16">
+        <f>E8</f>
+        <v>0.5</v>
+      </c>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
-      <c r="E9" s="19"/>
-      <c r="G9" s="19"/>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>53</v>
+      </c>
+      <c r="B9" s="20" t="str">
+        <f>LOOKUP(A9,tareas!A:A,tareas!B:B)</f>
+        <v>Reunión #4 con el cliente.</v>
+      </c>
+      <c r="C9" s="17" t="str">
+        <f>LOOKUP(A9,tareas!A:A,tareas!D:D)</f>
+        <v>Se creó la minuta de la reunión #4 con el cliente.</v>
+      </c>
+      <c r="D9" s="17" t="str">
+        <f>LOOKUP(A9,tareas!A:A,tareas!D:D)</f>
+        <v>Se creó la minuta de la reunión #4 con el cliente.</v>
+      </c>
+      <c r="E9" s="19">
+        <f>LOOKUP(A9,tareas!A:A,tareas!E:E)</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="15">
+        <f>E9/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>2.8776978417266189E-2</v>
+      </c>
+      <c r="G9" s="19">
+        <f>LOOKUP(A9,tareas!A:A,tareas!G:G)</f>
+        <v>6</v>
+      </c>
       <c r="H9" s="21"/>
+      <c r="I9" s="16">
+        <f>$E$9/2</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="16">
+        <f>$E$9/2</f>
+        <v>1</v>
+      </c>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20"/>
-      <c r="E10" s="19"/>
-      <c r="G10" s="19"/>
+    <row r="10" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>54</v>
+      </c>
+      <c r="B10" s="20" t="str">
+        <f>LOOKUP(A10,tareas!A:A,tareas!B:B)</f>
+        <v>Elaborar el mockup de la vista para ver los eventos o excepciones de los recursos.</v>
+      </c>
+      <c r="C10" s="17" t="str">
+        <f>LOOKUP(A10,tareas!A:A,tareas!D:D)</f>
+        <v>Se elaboró el mockup de la vista para ver los eventos o excepciones de los recursos.</v>
+      </c>
+      <c r="D10" s="17" t="str">
+        <f>LOOKUP(A10,tareas!A:A,tareas!D:D)</f>
+        <v>Se elaboró el mockup de la vista para ver los eventos o excepciones de los recursos.</v>
+      </c>
+      <c r="E10" s="19">
+        <f>LOOKUP(A10,tareas!A:A,tareas!E:E)</f>
+        <v>2</v>
+      </c>
+      <c r="F10" s="15">
+        <f>E10/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>2.8776978417266189E-2</v>
+      </c>
+      <c r="G10" s="19">
+        <f>LOOKUP(A10,tareas!A:A,tareas!G:G)</f>
+        <v>6</v>
+      </c>
       <c r="H10" s="21"/>
+      <c r="J10" s="16">
+        <f>E10</f>
+        <v>2</v>
+      </c>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20"/>
-      <c r="E11" s="19"/>
-      <c r="G11" s="19"/>
+    <row r="11" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>55</v>
+      </c>
+      <c r="B11" s="20" t="str">
+        <f>LOOKUP(A11,tareas!A:A,tareas!B:B)</f>
+        <v>Calcular el tiempo de corrida del algoritmo de calendarización.</v>
+      </c>
+      <c r="C11" s="17" t="str">
+        <f>LOOKUP(A11,tareas!A:A,tareas!D:D)</f>
+        <v>Se documentó el tiempo de corrida del algoritmo de calendarización.</v>
+      </c>
+      <c r="D11" s="17" t="str">
+        <f>LOOKUP(A11,tareas!A:A,tareas!D:D)</f>
+        <v>Se documentó el tiempo de corrida del algoritmo de calendarización.</v>
+      </c>
+      <c r="E11" s="19">
+        <f>LOOKUP(A11,tareas!A:A,tareas!E:E)</f>
+        <v>2</v>
+      </c>
+      <c r="F11" s="15">
+        <f>E11/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>2.8776978417266189E-2</v>
+      </c>
+      <c r="G11" s="19">
+        <f>LOOKUP(A11,tareas!A:A,tareas!G:G)</f>
+        <v>6</v>
+      </c>
       <c r="H11" s="21"/>
+      <c r="I11" s="16">
+        <f>E11</f>
+        <v>2</v>
+      </c>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="18"/>
-      <c r="B12" s="20"/>
-      <c r="E12" s="19"/>
-      <c r="G12" s="19"/>
+    <row r="12" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>56</v>
+      </c>
+      <c r="B12" s="20" t="str">
+        <f>LOOKUP(A12,tareas!A:A,tareas!B:B)</f>
+        <v>Elaborar el pseudocódigo del algoritmo de construcción de la estructura de calendarización a partir del archivo CSV.</v>
+      </c>
+      <c r="C12" s="17" t="str">
+        <f>LOOKUP(A12,tareas!A:A,tareas!D:D)</f>
+        <v>Se elaboró el pseudocódigo del algoritmo de construcción de la estructura de calendarización a partir del archivo CSV.</v>
+      </c>
+      <c r="D12" s="17" t="str">
+        <f>LOOKUP(A12,tareas!A:A,tareas!D:D)</f>
+        <v>Se elaboró el pseudocódigo del algoritmo de construcción de la estructura de calendarización a partir del archivo CSV.</v>
+      </c>
+      <c r="E12" s="19">
+        <f>LOOKUP(A12,tareas!A:A,tareas!E:E)</f>
+        <v>4</v>
+      </c>
+      <c r="F12" s="15">
+        <f>E12/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>5.7553956834532377E-2</v>
+      </c>
+      <c r="G12" s="19">
+        <f>LOOKUP(A12,tareas!A:A,tareas!G:G)</f>
+        <v>6</v>
+      </c>
+      <c r="J12" s="16">
+        <f>$E$12/2</f>
+        <v>2</v>
+      </c>
+      <c r="L12" s="16">
+        <f>$E$12/2</f>
+        <v>2</v>
+      </c>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="18"/>
-      <c r="B13" s="20"/>
-      <c r="E13" s="19"/>
-      <c r="G13" s="19"/>
+    <row r="13" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>57</v>
+      </c>
+      <c r="B13" s="20" t="str">
+        <f>LOOKUP(A13,tareas!A:A,tareas!B:B)</f>
+        <v>Configurar el ambiente global de desarrollo.</v>
+      </c>
+      <c r="C13" s="17" t="str">
+        <f>LOOKUP(A13,tareas!A:A,tareas!D:D)</f>
+        <v>Se elaboró una guía con todos los pasos para la configuración del ambiente global de desarrollo.</v>
+      </c>
+      <c r="D13" s="17" t="str">
+        <f>LOOKUP(A13,tareas!A:A,tareas!D:D)</f>
+        <v>Se elaboró una guía con todos los pasos para la configuración del ambiente global de desarrollo.</v>
+      </c>
+      <c r="E13" s="19">
+        <f>LOOKUP(A13,tareas!A:A,tareas!E:E)</f>
+        <v>4</v>
+      </c>
+      <c r="F13" s="15">
+        <f>E13/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>5.7553956834532377E-2</v>
+      </c>
+      <c r="G13" s="19">
+        <f>LOOKUP(A13,tareas!A:A,tareas!G:G)</f>
+        <v>6</v>
+      </c>
       <c r="H13" s="21"/>
+      <c r="M13" s="16">
+        <f>E13</f>
+        <v>4</v>
+      </c>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="18"/>
-      <c r="B14" s="20"/>
-      <c r="E14" s="19"/>
-      <c r="G14" s="19"/>
+    <row r="14" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>58</v>
+      </c>
+      <c r="B14" s="20" t="str">
+        <f>LOOKUP(A14,tareas!A:A,tareas!B:B)</f>
+        <v>Configurar el ambiente local de desarrollo.</v>
+      </c>
+      <c r="C14" s="17" t="str">
+        <f>LOOKUP(A14,tareas!A:A,tareas!D:D)</f>
+        <v>Cada miembro del equipo configuró su ambiente local de desarrollo.</v>
+      </c>
+      <c r="D14" s="17" t="str">
+        <f>LOOKUP(A14,tareas!A:A,tareas!D:D)</f>
+        <v>Cada miembro del equipo configuró su ambiente local de desarrollo.</v>
+      </c>
+      <c r="E14" s="19">
+        <f>LOOKUP(A14,tareas!A:A,tareas!E:E)</f>
+        <v>7.5</v>
+      </c>
+      <c r="F14" s="15">
+        <f>E14/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>0.1079136690647482</v>
+      </c>
+      <c r="G14" s="19">
+        <f>LOOKUP(A14,tareas!A:A,tareas!G:G)</f>
+        <v>7</v>
+      </c>
       <c r="H14" s="21"/>
+      <c r="I14" s="16">
+        <f>$E$14/5</f>
+        <v>1.5</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" ref="J14:M14" si="2">$E$14/5</f>
+        <v>1.5</v>
+      </c>
+      <c r="K14" s="16">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="18"/>
-      <c r="B15" s="20"/>
-      <c r="E15" s="19"/>
-      <c r="G15" s="19"/>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>59</v>
+      </c>
+      <c r="B15" s="20" t="str">
+        <f>LOOKUP(A15,tareas!A:A,tareas!B:B)</f>
+        <v>Elaborar el plan de calidad.</v>
+      </c>
+      <c r="C15" s="17">
+        <f>LOOKUP(A15,tareas!A:A,tareas!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <f>LOOKUP(A15,tareas!A:A,tareas!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <f>LOOKUP(A15,tareas!A:A,tareas!E:E)</f>
+        <v>4</v>
+      </c>
+      <c r="F15" s="15">
+        <f>E15/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>5.7553956834532377E-2</v>
+      </c>
+      <c r="G15" s="19">
+        <f>LOOKUP(A15,tareas!A:A,tareas!G:G)</f>
+        <v>7</v>
+      </c>
       <c r="H15" s="21"/>
+      <c r="K15" s="16">
+        <f>E15</f>
+        <v>4</v>
+      </c>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="18"/>
-      <c r="B16" s="20"/>
-      <c r="E16" s="19"/>
-      <c r="G16" s="19"/>
+    <row r="16" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
+        <v>60</v>
+      </c>
+      <c r="B16" s="20" t="str">
+        <f>LOOKUP(A16,tareas!A:A,tareas!B:B)</f>
+        <v>Elaborar la versión final del diagrama de flujo del algoritmo de calendarización.</v>
+      </c>
+      <c r="C16" s="17" t="str">
+        <f>LOOKUP(A16,tareas!A:A,tareas!D:D)</f>
+        <v>Se elaboró la versión final del diagrama de flujo del algoritmo de calendarización.</v>
+      </c>
+      <c r="D16" s="17" t="str">
+        <f>LOOKUP(A16,tareas!A:A,tareas!D:D)</f>
+        <v>Se elaboró la versión final del diagrama de flujo del algoritmo de calendarización.</v>
+      </c>
+      <c r="E16" s="19">
+        <f>LOOKUP(A16,tareas!A:A,tareas!E:E)</f>
+        <v>2</v>
+      </c>
+      <c r="F16" s="15">
+        <f>E16/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>2.8776978417266189E-2</v>
+      </c>
+      <c r="G16" s="19">
+        <f>LOOKUP(A16,tareas!A:A,tareas!G:G)</f>
+        <v>7</v>
+      </c>
       <c r="H16" s="21"/>
+      <c r="M16" s="16">
+        <f>E16</f>
+        <v>2</v>
+      </c>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="18"/>
-      <c r="B17" s="20"/>
-      <c r="E17" s="19"/>
-      <c r="G17" s="19"/>
+    <row r="17" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <v>61</v>
+      </c>
+      <c r="B17" s="20" t="str">
+        <f>LOOKUP(A17,tareas!A:A,tareas!B:B)</f>
+        <v>Elaborar la versión final del modelo físico de data.</v>
+      </c>
+      <c r="C17" s="17" t="str">
+        <f>LOOKUP(A17,tareas!A:A,tareas!D:D)</f>
+        <v>Se elaboró la versión final del modelo físico de data.</v>
+      </c>
+      <c r="D17" s="17" t="str">
+        <f>LOOKUP(A17,tareas!A:A,tareas!D:D)</f>
+        <v>Se elaboró la versión final del modelo físico de data.</v>
+      </c>
+      <c r="E17" s="19">
+        <f>LOOKUP(A17,tareas!A:A,tareas!E:E)</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="15">
+        <f>E17/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>2.8776978417266189E-2</v>
+      </c>
+      <c r="G17" s="19">
+        <f>LOOKUP(A17,tareas!A:A,tareas!G:G)</f>
+        <v>7</v>
+      </c>
       <c r="H17" s="21"/>
+      <c r="I17" s="16">
+        <f>E17</f>
+        <v>2</v>
+      </c>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20"/>
-      <c r="E18" s="19"/>
-      <c r="G18" s="19"/>
+    <row r="18" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>62</v>
+      </c>
+      <c r="B18" s="20" t="str">
+        <f>LOOKUP(A18,tareas!A:A,tareas!B:B)</f>
+        <v>Elaborar la versión final del diagrama de contexto de la arquitectura.</v>
+      </c>
+      <c r="C18" s="17" t="str">
+        <f>LOOKUP(A18,tareas!A:A,tareas!D:D)</f>
+        <v>Se elaboró la versión final del diagrama de contexto de la arquitectura.</v>
+      </c>
+      <c r="D18" s="17" t="str">
+        <f>LOOKUP(A18,tareas!A:A,tareas!D:D)</f>
+        <v>Se elaboró la versión final del diagrama de contexto de la arquitectura.</v>
+      </c>
+      <c r="E18" s="19">
+        <f>LOOKUP(A18,tareas!A:A,tareas!E:E)</f>
+        <v>3</v>
+      </c>
+      <c r="F18" s="15">
+        <f>E18/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>4.3165467625899283E-2</v>
+      </c>
+      <c r="G18" s="19">
+        <f>LOOKUP(A18,tareas!A:A,tareas!G:G)</f>
+        <v>7</v>
+      </c>
       <c r="H18" s="21"/>
+      <c r="J18" s="16">
+        <f>E18</f>
+        <v>3</v>
+      </c>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="18"/>
-      <c r="B19" s="20"/>
-      <c r="E19" s="19"/>
-      <c r="G19" s="19"/>
+    <row r="19" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <v>63</v>
+      </c>
+      <c r="B19" s="20" t="str">
+        <f>LOOKUP(A19,tareas!A:A,tareas!B:B)</f>
+        <v>Crear la versión final del documento de arquitectura.</v>
+      </c>
+      <c r="C19" s="17" t="str">
+        <f>LOOKUP(A19,tareas!A:A,tareas!D:D)</f>
+        <v>Se creó la versión final del documento de arquitectura.</v>
+      </c>
+      <c r="D19" s="17" t="str">
+        <f>LOOKUP(A19,tareas!A:A,tareas!D:D)</f>
+        <v>Se creó la versión final del documento de arquitectura.</v>
+      </c>
+      <c r="E19" s="19">
+        <f>LOOKUP(A19,tareas!A:A,tareas!E:E)</f>
+        <v>9</v>
+      </c>
+      <c r="F19" s="15">
+        <f>E19/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>0.12949640287769784</v>
+      </c>
+      <c r="G19" s="19">
+        <f>LOOKUP(A19,tareas!A:A,tareas!G:G)</f>
+        <v>7</v>
+      </c>
       <c r="H19" s="21"/>
+      <c r="I19" s="16">
+        <f>$E$19/3</f>
+        <v>3</v>
+      </c>
+      <c r="K19" s="16">
+        <f>$E$19/3</f>
+        <v>3</v>
+      </c>
+      <c r="M19" s="16">
+        <f>$E$19/3</f>
+        <v>3</v>
+      </c>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="18"/>
-      <c r="B20" s="20"/>
-      <c r="E20" s="19"/>
-      <c r="G20" s="19"/>
+    <row r="20" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>64</v>
+      </c>
+      <c r="B20" s="20" t="str">
+        <f>LOOKUP(A20,tareas!A:A,tareas!B:B)</f>
+        <v>Crear la agenda para la reunión #5 con el cliente.</v>
+      </c>
+      <c r="C20" s="17" t="str">
+        <f>LOOKUP(A20,tareas!A:A,tareas!D:D)</f>
+        <v>Se creó la agenda para la reunión #5 con el cliente.</v>
+      </c>
+      <c r="D20" s="17" t="str">
+        <f>LOOKUP(A20,tareas!A:A,tareas!D:D)</f>
+        <v>Se creó la agenda para la reunión #5 con el cliente.</v>
+      </c>
+      <c r="E20" s="19">
+        <f>LOOKUP(A20,tareas!A:A,tareas!E:E)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="15">
+        <f>E20/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>7.1942446043165471E-3</v>
+      </c>
+      <c r="G20" s="19">
+        <f>LOOKUP(A20,tareas!A:A,tareas!G:G)</f>
+        <v>7</v>
+      </c>
+      <c r="L20" s="16">
+        <f>E20</f>
+        <v>0.5</v>
+      </c>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="18"/>
-      <c r="B21" s="20"/>
-      <c r="E21" s="19"/>
-      <c r="G21" s="19"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
+        <v>65</v>
+      </c>
+      <c r="B21" s="20" t="str">
+        <f>LOOKUP(A21,tareas!A:A,tareas!B:B)</f>
+        <v>Reunión #5 con el cliente.</v>
+      </c>
+      <c r="C21" s="17" t="str">
+        <f>LOOKUP(A21,tareas!A:A,tareas!D:D)</f>
+        <v>Se creó la minuta de la reunión #5 con el cliente.</v>
+      </c>
+      <c r="D21" s="17" t="str">
+        <f>LOOKUP(A21,tareas!A:A,tareas!D:D)</f>
+        <v>Se creó la minuta de la reunión #5 con el cliente.</v>
+      </c>
+      <c r="E21" s="19">
+        <f>LOOKUP(A21,tareas!A:A,tareas!E:E)</f>
+        <v>2</v>
+      </c>
+      <c r="F21" s="15">
+        <f>E21/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>2.8776978417266189E-2</v>
+      </c>
+      <c r="G21" s="19">
+        <f>LOOKUP(A21,tareas!A:A,tareas!G:G)</f>
+        <v>7</v>
+      </c>
+      <c r="I21" s="16">
+        <f>$E$21/2</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="16">
+        <f>$E$21/2</f>
+        <v>1</v>
+      </c>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="18"/>
-      <c r="B22" s="20"/>
-      <c r="E22" s="19"/>
-      <c r="G22" s="19"/>
+    <row r="22" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>66</v>
+      </c>
+      <c r="B22" s="20" t="str">
+        <f>LOOKUP(A22,tareas!A:A,tareas!B:B)</f>
+        <v>Elaborar el reporte de cierre del ciclo #3.</v>
+      </c>
+      <c r="C22" s="17" t="str">
+        <f>LOOKUP(A22,tareas!A:A,tareas!D:D)</f>
+        <v>Cada miembro del equipo completó la forma PEER. Se creó el reporte del ciclo correspondiente. Se completaron las formas SUMP y SUMQ para el sistema y todos sus componentes.</v>
+      </c>
+      <c r="D22" s="17" t="str">
+        <f>LOOKUP(A22,tareas!A:A,tareas!D:D)</f>
+        <v>Cada miembro del equipo completó la forma PEER. Se creó el reporte del ciclo correspondiente. Se completaron las formas SUMP y SUMQ para el sistema y todos sus componentes.</v>
+      </c>
+      <c r="E22" s="19">
+        <f>LOOKUP(A22,tareas!A:A,tareas!E:E)</f>
+        <v>5</v>
+      </c>
+      <c r="F22" s="15">
+        <f>E22/SUM(tiempo!$J$7:'tiempo'!$J$8)</f>
+        <v>7.1942446043165464E-2</v>
+      </c>
+      <c r="G22" s="19">
+        <f>LOOKUP(A22,tareas!A:A,tareas!G:G)</f>
+        <v>7</v>
+      </c>
+      <c r="I22" s="16">
+        <f>$E$22/5</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" ref="J22:M22" si="3">$E$22/5</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="20"/>
       <c r="E23" s="19"/>
@@ -56325,14 +57602,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="2.7109375" style="32" customWidth="1"/>
@@ -56342,7 +57619,7 @@
     <col min="9" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="57">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -56364,7 +57641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f>ganancias!A2</f>
         <v>1</v>
@@ -56392,7 +57669,7 @@
         <v>0.23589743589743592</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>ganancias!A3</f>
         <v>2</v>
@@ -56420,7 +57697,7 @@
         <v>0.37435897435897436</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f>ganancias!A4</f>
         <v>3</v>
@@ -56460,14 +57737,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="2.7109375" style="32" customWidth="1"/>
@@ -56477,7 +57754,7 @@
     <col min="9" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="57">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -56499,7 +57776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f>ganancias!A5</f>
         <v>4</v>
@@ -56527,7 +57804,7 @@
         <v>0.36496350364963503</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f>ganancias!A6</f>
         <v>5</v>

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecvasro\workspace\pucmm\isc-434-t\ppr\tspi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecvasro\workspace\github\PPR\tspi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="516" activeTab="1"/>
+    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="516" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ganancias" sheetId="1" r:id="rId1"/>
@@ -1018,11 +1018,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1118757152"/>
-        <c:axId val="-1118756064"/>
+        <c:axId val="1990185696"/>
+        <c:axId val="1990193856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1118757152"/>
+        <c:axId val="1990185696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1118756064"/>
+        <c:crossAx val="1990193856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1039,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1118756064"/>
+        <c:axId val="1990193856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,7 +1050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1118757152"/>
+        <c:crossAx val="1990185696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1218,11 +1218,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1118753344"/>
-        <c:axId val="-1118751712"/>
+        <c:axId val="2105737008"/>
+        <c:axId val="2105749520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1118753344"/>
+        <c:axId val="2105737008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1118751712"/>
+        <c:crossAx val="2105749520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1239,7 +1239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1118751712"/>
+        <c:axId val="2105749520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1118753344"/>
+        <c:crossAx val="2105737008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1418,8 +1418,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-981170400"/>
-        <c:axId val="-981172576"/>
+        <c:axId val="2105751152"/>
+        <c:axId val="2105744080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1495,11 +1495,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-981170400"/>
-        <c:axId val="-981172576"/>
+        <c:axId val="2105751152"/>
+        <c:axId val="2105744080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-981170400"/>
+        <c:axId val="2105751152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1508,7 +1508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-981172576"/>
+        <c:crossAx val="2105744080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1516,7 +1516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-981172576"/>
+        <c:axId val="2105744080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,7 +1527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-981170400"/>
+        <c:crossAx val="2105751152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1639,11 +1639,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-981174752"/>
-        <c:axId val="-981179648"/>
+        <c:axId val="2105738096"/>
+        <c:axId val="2105748976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-981174752"/>
+        <c:axId val="2105738096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,7 +1652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-981179648"/>
+        <c:crossAx val="2105748976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1660,7 +1660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-981179648"/>
+        <c:axId val="2105748976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,14 +1671,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-981174752"/>
+        <c:crossAx val="2105738096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1791,11 +1790,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-981176928"/>
-        <c:axId val="-981176384"/>
+        <c:axId val="2105742992"/>
+        <c:axId val="2105738640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-981176928"/>
+        <c:axId val="2105742992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1804,7 +1803,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-981176384"/>
+        <c:crossAx val="2105738640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1812,7 +1811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-981176384"/>
+        <c:axId val="2105738640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,14 +1822,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-981176928"/>
+        <c:crossAx val="2105742992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1943,11 +1941,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-981177472"/>
-        <c:axId val="-981169312"/>
+        <c:axId val="2105745712"/>
+        <c:axId val="2105744624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-981177472"/>
+        <c:axId val="2105745712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,7 +1954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-981169312"/>
+        <c:crossAx val="2105744624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1964,7 +1962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-981169312"/>
+        <c:axId val="2105744624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,14 +1973,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-981177472"/>
+        <c:crossAx val="2105745712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2089,11 +2086,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-981174208"/>
-        <c:axId val="-981181280"/>
+        <c:axId val="2105746256"/>
+        <c:axId val="2105747888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-981174208"/>
+        <c:axId val="2105746256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2102,7 +2099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-981181280"/>
+        <c:crossAx val="2105747888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2110,7 +2107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-981181280"/>
+        <c:axId val="2105747888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,14 +2118,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-981174208"/>
+        <c:crossAx val="2105746256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2235,11 +2231,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-981167680"/>
-        <c:axId val="-981178560"/>
+        <c:axId val="2105740816"/>
+        <c:axId val="2105748432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-981167680"/>
+        <c:axId val="2105740816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,7 +2244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-981178560"/>
+        <c:crossAx val="2105748432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2256,7 +2252,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-981178560"/>
+        <c:axId val="2105748432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2267,14 +2263,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-981167680"/>
+        <c:crossAx val="2105740816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2838,8 +2833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3186,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3853,8 +3848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK69"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -1018,11 +1018,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1990185696"/>
-        <c:axId val="1990193856"/>
+        <c:axId val="-770839504"/>
+        <c:axId val="-770836784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1990185696"/>
+        <c:axId val="-770839504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1990193856"/>
+        <c:crossAx val="-770836784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1039,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1990193856"/>
+        <c:axId val="-770836784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,7 +1050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1990185696"/>
+        <c:crossAx val="-770839504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1218,11 +1218,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2105737008"/>
-        <c:axId val="2105749520"/>
+        <c:axId val="-770840048"/>
+        <c:axId val="-770830256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2105737008"/>
+        <c:axId val="-770840048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105749520"/>
+        <c:crossAx val="-770830256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1239,7 +1239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105749520"/>
+        <c:axId val="-770830256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105737008"/>
+        <c:crossAx val="-770840048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1418,8 +1418,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2105751152"/>
-        <c:axId val="2105744080"/>
+        <c:axId val="-770835152"/>
+        <c:axId val="-770833520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1495,11 +1495,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2105751152"/>
-        <c:axId val="2105744080"/>
+        <c:axId val="-770835152"/>
+        <c:axId val="-770833520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2105751152"/>
+        <c:axId val="-770835152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1508,7 +1508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105744080"/>
+        <c:crossAx val="-770833520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1516,7 +1516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105744080"/>
+        <c:axId val="-770833520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,7 +1527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105751152"/>
+        <c:crossAx val="-770835152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1639,11 +1639,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2105738096"/>
-        <c:axId val="2105748976"/>
+        <c:axId val="-770831888"/>
+        <c:axId val="-770826992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2105738096"/>
+        <c:axId val="-770831888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,7 +1652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105748976"/>
+        <c:crossAx val="-770826992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1660,7 +1660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105748976"/>
+        <c:axId val="-770826992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,13 +1671,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105738096"/>
+        <c:crossAx val="-770831888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1790,11 +1791,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2105742992"/>
-        <c:axId val="2105738640"/>
+        <c:axId val="-770829712"/>
+        <c:axId val="-770828080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2105742992"/>
+        <c:axId val="-770829712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,7 +1804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105738640"/>
+        <c:crossAx val="-770828080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1811,7 +1812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105738640"/>
+        <c:axId val="-770828080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,7 +1823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105742992"/>
+        <c:crossAx val="-770829712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1941,11 +1942,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2105745712"/>
-        <c:axId val="2105744624"/>
+        <c:axId val="-655027920"/>
+        <c:axId val="-655020304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2105745712"/>
+        <c:axId val="-655027920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,7 +1955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105744624"/>
+        <c:crossAx val="-655020304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1962,7 +1963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105744624"/>
+        <c:axId val="-655020304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1973,7 +1974,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105745712"/>
+        <c:crossAx val="-655027920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2086,11 +2087,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2105746256"/>
-        <c:axId val="2105747888"/>
+        <c:axId val="-655030640"/>
+        <c:axId val="-655035536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2105746256"/>
+        <c:axId val="-655030640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2099,7 +2100,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105747888"/>
+        <c:crossAx val="-655035536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2107,7 +2108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105747888"/>
+        <c:axId val="-655035536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,7 +2119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105746256"/>
+        <c:crossAx val="-655030640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2231,11 +2232,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2105740816"/>
-        <c:axId val="2105748432"/>
+        <c:axId val="-655023024"/>
+        <c:axId val="-655034992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2105740816"/>
+        <c:axId val="-655023024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2244,7 +2245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105748432"/>
+        <c:crossAx val="-655034992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2252,7 +2253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105748432"/>
+        <c:axId val="-655034992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,7 +2264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105740816"/>
+        <c:crossAx val="-655023024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2833,7 +2834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3181,7 +3182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -3848,8 +3849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="516" activeTab="2"/>
+    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ganancias" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,20 @@
     <sheet name="3" sheetId="6" r:id="rId6"/>
     <sheet name="1-ganancias" sheetId="7" r:id="rId7"/>
     <sheet name="2-ganancias" sheetId="8" r:id="rId8"/>
+    <sheet name="3-ganancias" sheetId="9" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Semana</t>
   </si>
@@ -561,6 +568,15 @@
   <si>
     <t>Se creó la versión final del documento de arquitectura.</t>
   </si>
+  <si>
+    <t>Realizar el lanzamiento del ciclo #4.</t>
+  </si>
+  <si>
+    <t>Definir la estrategía de desarrolo del ciclo #4.</t>
+  </si>
+  <si>
+    <t>Elaborar el plan del ciclo #4.</t>
+  </si>
 </sst>
 </file>
 
@@ -913,37 +929,37 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.15286624203821655</c:v>
+                  <c:v>0.14545454545454545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29511677282377918</c:v>
+                  <c:v>0.28080808080808084</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41401273885350315</c:v>
+                  <c:v>0.39393939393939398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56263269639065816</c:v>
+                  <c:v>0.53535353535353536</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70488322717622076</c:v>
+                  <c:v>0.6707070707070707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85138004246284493</c:v>
+                  <c:v>0.8101010101010101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>0.95151515151515154</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -971,37 +987,37 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9.7664543524416128E-2</c:v>
+                  <c:v>9.2929292929292931E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15498938428874734</c:v>
+                  <c:v>0.14747474747474748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30785562632696389</c:v>
+                  <c:v>0.29292929292929293</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41401273885350315</c:v>
+                  <c:v>0.39393939393939392</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58811040339702758</c:v>
+                  <c:v>0.55959595959595954</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69426751592356684</c:v>
+                  <c:v>0.72727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69426751592356684</c:v>
+                  <c:v>0.83030303030303032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69426751592356684</c:v>
+                  <c:v>0.88484848484848488</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69426751592356684</c:v>
+                  <c:v>0.88484848484848488</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.69426751592356684</c:v>
+                  <c:v>0.88484848484848488</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.69426751592356684</c:v>
+                  <c:v>0.88484848484848488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,11 +1034,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-770839504"/>
-        <c:axId val="-770836784"/>
+        <c:axId val="-1533631104"/>
+        <c:axId val="-1533631648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-770839504"/>
+        <c:axId val="-1533631104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-770836784"/>
+        <c:crossAx val="-1533631648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1039,7 +1055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-770836784"/>
+        <c:axId val="-1533631648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,7 +1066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-770839504"/>
+        <c:crossAx val="-1533631104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1067,6 +1083,195 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-ganancias'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje individual de ganancias estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3-ganancias'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3-ganancias'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.49640287769784164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50359712230215825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-ganancias'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje individual de ganancias obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3-ganancias'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3-ganancias'!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.23741007194244604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36690647482014388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15827338129496404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-1059557280"/>
+        <c:axId val="-1059555104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1059557280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1059555104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1059555104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1059557280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1115,28 +1320,28 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.15286624203821655</c:v>
+                  <c:v>0.14545454545454545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14225053078556263</c:v>
+                  <c:v>0.13535353535353536</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11889596602972398</c:v>
+                  <c:v>0.11313131313131312</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14861995753715498</c:v>
+                  <c:v>0.14141414141414141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14225053078556263</c:v>
+                  <c:v>0.13535353535353534</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1464968152866242</c:v>
+                  <c:v>0.13939393939393938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14861995753715498</c:v>
+                  <c:v>0.14141414141414141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.8484848484848492E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1173,28 +1378,28 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9.7664543524416128E-2</c:v>
+                  <c:v>9.2929292929292931E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7324840764331211E-2</c:v>
+                  <c:v>5.454545454545455E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15286624203821655</c:v>
+                  <c:v>0.14545454545454542</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10615711252653927</c:v>
+                  <c:v>0.10101010101010101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17409766454352441</c:v>
+                  <c:v>0.16565656565656561</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10615711252653928</c:v>
+                  <c:v>0.1676767676767677</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.10303030303030303</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.4545454545454543E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1218,11 +1423,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-770840048"/>
-        <c:axId val="-770830256"/>
+        <c:axId val="-1533627840"/>
+        <c:axId val="-1533625664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-770840048"/>
+        <c:axId val="-1533627840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-770830256"/>
+        <c:crossAx val="-1533625664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1239,7 +1444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-770830256"/>
+        <c:axId val="-1533625664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-770840048"/>
+        <c:crossAx val="-1533627840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1336,7 +1541,7 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1388,13 +1593,13 @@
                   <c:v>49.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>38.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>27.283333333333335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.2666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1418,8 +1623,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-770835152"/>
-        <c:axId val="-770833520"/>
+        <c:axId val="-1533630560"/>
+        <c:axId val="-1533629472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1495,11 +1700,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-770835152"/>
-        <c:axId val="-770833520"/>
+        <c:axId val="-1533630560"/>
+        <c:axId val="-1533629472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-770835152"/>
+        <c:axId val="-1533630560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1508,7 +1713,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-770833520"/>
+        <c:crossAx val="-1533629472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1516,7 +1721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-770833520"/>
+        <c:axId val="-1533629472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,7 +1732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-770835152"/>
+        <c:crossAx val="-1533630560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1604,7 +1809,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>235.5</c:v>
+                  <c:v>247.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1624,7 +1829,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>176.98333333333335</c:v>
+                  <c:v>248.3666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1639,11 +1844,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-770831888"/>
-        <c:axId val="-770826992"/>
+        <c:axId val="-1533636544"/>
+        <c:axId val="-1533633824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-770831888"/>
+        <c:axId val="-1533636544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,7 +1857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-770826992"/>
+        <c:crossAx val="-1533633824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1660,7 +1865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-770826992"/>
+        <c:axId val="-1533633824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,7 +1876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-770831888"/>
+        <c:crossAx val="-1533636544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1791,11 +1996,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-770829712"/>
-        <c:axId val="-770828080"/>
+        <c:axId val="-1533621312"/>
+        <c:axId val="-1533622944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-770829712"/>
+        <c:axId val="-1533621312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1804,7 +2009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-770828080"/>
+        <c:crossAx val="-1533622944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1812,7 +2017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-770828080"/>
+        <c:axId val="-1533622944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,13 +2028,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-770829712"/>
+        <c:crossAx val="-1533621312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1942,11 +2148,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-655027920"/>
-        <c:axId val="-655020304"/>
+        <c:axId val="-1533860320"/>
+        <c:axId val="-1393917312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-655027920"/>
+        <c:axId val="-1533860320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +2161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-655020304"/>
+        <c:crossAx val="-1393917312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1963,7 +2169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-655020304"/>
+        <c:axId val="-1393917312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1974,13 +2180,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-655027920"/>
+        <c:crossAx val="-1533860320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2087,11 +2294,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-655030640"/>
-        <c:axId val="-655035536"/>
+        <c:axId val="-1393916768"/>
+        <c:axId val="-1393907520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-655030640"/>
+        <c:axId val="-1393916768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,7 +2307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-655035536"/>
+        <c:crossAx val="-1393907520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2108,7 +2315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-655035536"/>
+        <c:axId val="-1393907520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,13 +2326,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-655030640"/>
+        <c:crossAx val="-1393916768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2232,11 +2440,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-655023024"/>
-        <c:axId val="-655034992"/>
+        <c:axId val="-1393921120"/>
+        <c:axId val="-1393909696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-655023024"/>
+        <c:axId val="-1393921120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,7 +2453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-655034992"/>
+        <c:crossAx val="-1393909696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2253,7 +2461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-655034992"/>
+        <c:axId val="-1393909696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2264,13 +2472,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-655023024"/>
+        <c:crossAx val="-1393921120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2280,6 +2489,195 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-ganancias'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje acumulado de ganancias estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3-ganancias'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3-ganancias'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.49640287769784164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3-ganancias'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje acumulado de ganancias obtenidas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3-ganancias'!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3-ganancias'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.23741007194244604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60431654676258995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76258992805755399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1059555648"/>
+        <c:axId val="-1059561088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1059555648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1059561088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1059561088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1059555648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2543,6 +2941,887 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="schedule"/>
+      <sheetName val="task"/>
+      <sheetName val="49"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Id</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Horas trabajadas</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>36</v>
+          </cell>
+          <cell r="B2">
+            <v>0.21666666666666667</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>46</v>
+          </cell>
+          <cell r="B3">
+            <v>0.45</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>47</v>
+          </cell>
+          <cell r="B4">
+            <v>1.8666666666666667</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>49</v>
+          </cell>
+          <cell r="B5">
+            <v>1.6666666666666667</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>50</v>
+          </cell>
+          <cell r="B6">
+            <v>0.98333333333333328</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>51</v>
+          </cell>
+          <cell r="B7">
+            <v>1.1499999999999999</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>54</v>
+          </cell>
+          <cell r="B8">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>56</v>
+          </cell>
+          <cell r="B9">
+            <v>1.6833333333333333</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>58</v>
+          </cell>
+          <cell r="B10">
+            <v>2.1333333333333333</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Semana</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Delta</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>6</v>
+          </cell>
+          <cell r="F2">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>6</v>
+          </cell>
+          <cell r="F3">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>6</v>
+          </cell>
+          <cell r="F4">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>6</v>
+          </cell>
+          <cell r="F5">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>6</v>
+          </cell>
+          <cell r="F6">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>6</v>
+          </cell>
+          <cell r="F7">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>6</v>
+          </cell>
+          <cell r="F8">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>6</v>
+          </cell>
+          <cell r="F9">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>6</v>
+          </cell>
+          <cell r="F10">
+            <v>69</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>6</v>
+          </cell>
+          <cell r="F11">
+            <v>101</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>7</v>
+          </cell>
+          <cell r="F12">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>7</v>
+          </cell>
+          <cell r="F13">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>7</v>
+          </cell>
+          <cell r="F14">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>7</v>
+          </cell>
+          <cell r="F15">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>7</v>
+          </cell>
+          <cell r="F16">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>7</v>
+          </cell>
+          <cell r="F17">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>7</v>
+          </cell>
+          <cell r="F18">
+            <v>24</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="schedule"/>
+      <sheetName val="task"/>
+      <sheetName val="logt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Id</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Horas trabajadas</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>63</v>
+          </cell>
+          <cell r="B2">
+            <v>2.75</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Semana</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Delta</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>6</v>
+          </cell>
+          <cell r="F2">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>6</v>
+          </cell>
+          <cell r="F3">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>6</v>
+          </cell>
+          <cell r="F4">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>6</v>
+          </cell>
+          <cell r="F5">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>6</v>
+          </cell>
+          <cell r="F6">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>6</v>
+          </cell>
+          <cell r="F7">
+            <v>78</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>7</v>
+          </cell>
+          <cell r="F8">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>7</v>
+          </cell>
+          <cell r="F9">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>7</v>
+          </cell>
+          <cell r="F10">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>7</v>
+          </cell>
+          <cell r="F11">
+            <v>180</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="schedule"/>
+      <sheetName val="task"/>
+      <sheetName val="logt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Id</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Horas trabajadas</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>46</v>
+          </cell>
+          <cell r="B2">
+            <v>0.45</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>47</v>
+          </cell>
+          <cell r="B3">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>48</v>
+          </cell>
+          <cell r="B4">
+            <v>7.2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>49</v>
+          </cell>
+          <cell r="B5">
+            <v>1.65</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>50</v>
+          </cell>
+          <cell r="B6">
+            <v>1.6333333333333333</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>51</v>
+          </cell>
+          <cell r="B7">
+            <v>1.1499999999999999</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>52</v>
+          </cell>
+          <cell r="B8">
+            <v>0.28333333333333333</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>53</v>
+          </cell>
+          <cell r="B9">
+            <v>0.55000000000000004</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>56</v>
+          </cell>
+          <cell r="B10">
+            <v>1.6833333333333333</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>58</v>
+          </cell>
+          <cell r="B11">
+            <v>4.4333333333333336</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>63</v>
+          </cell>
+          <cell r="B12">
+            <v>4.25</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Semana</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Delta</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>6</v>
+          </cell>
+          <cell r="F2">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>6</v>
+          </cell>
+          <cell r="F3">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>6</v>
+          </cell>
+          <cell r="F4">
+            <v>160</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>6</v>
+          </cell>
+          <cell r="F5">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>6</v>
+          </cell>
+          <cell r="F6">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>6</v>
+          </cell>
+          <cell r="F7">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>6</v>
+          </cell>
+          <cell r="F8">
+            <v>135</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>6</v>
+          </cell>
+          <cell r="F9">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>6</v>
+          </cell>
+          <cell r="F10">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>6</v>
+          </cell>
+          <cell r="F11">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>6</v>
+          </cell>
+          <cell r="F12">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>6</v>
+          </cell>
+          <cell r="F13">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>6</v>
+          </cell>
+          <cell r="F14">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>6</v>
+          </cell>
+          <cell r="F15">
+            <v>69</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>6</v>
+          </cell>
+          <cell r="F16">
+            <v>101</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>7</v>
+          </cell>
+          <cell r="F17">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>7</v>
+          </cell>
+          <cell r="F18">
+            <v>266</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>7</v>
+          </cell>
+          <cell r="F19">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>8</v>
+          </cell>
+          <cell r="F20">
+            <v>128</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>8</v>
+          </cell>
+          <cell r="F21">
+            <v>127</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>8</v>
+          </cell>
+          <cell r="F22">
+            <v>61</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="schedule"/>
+      <sheetName val="task"/>
+      <sheetName val="logt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Id</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Horas trabajadas</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>46</v>
+          </cell>
+          <cell r="B2">
+            <v>0.45</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>47</v>
+          </cell>
+          <cell r="B3">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>57</v>
+          </cell>
+          <cell r="B4">
+            <v>4.5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>58</v>
+          </cell>
+          <cell r="B5">
+            <v>1.5833333333333333</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>60</v>
+          </cell>
+          <cell r="B6">
+            <v>2.0833333333333335</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Semana</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Delta</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>6</v>
+          </cell>
+          <cell r="F2">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>6</v>
+          </cell>
+          <cell r="F3">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>6</v>
+          </cell>
+          <cell r="F4">
+            <v>125</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>6</v>
+          </cell>
+          <cell r="F5">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>6</v>
+          </cell>
+          <cell r="F6">
+            <v>160</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>7</v>
+          </cell>
+          <cell r="F7">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>7</v>
+          </cell>
+          <cell r="F8">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>7</v>
+          </cell>
+          <cell r="F9">
+            <v>85</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>7</v>
+          </cell>
+          <cell r="F10">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>7</v>
+          </cell>
+          <cell r="F11">
+            <v>105</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2834,8 +4113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2881,20 +4160,20 @@
       <c r="C2" s="37"/>
       <c r="D2" s="5">
         <f>SUMIF(tareas!$G:$G,A2,tareas!$F:$F)</f>
-        <v>0.15286624203821655</v>
+        <v>0.14545454545454545</v>
       </c>
       <c r="E2" s="6">
         <f>D2</f>
-        <v>0.15286624203821655</v>
+        <v>0.14545454545454545</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="6">
         <f>SUMIF(tareas!$J:$J,A2,tareas!$I:$I)</f>
-        <v>9.7664543524416128E-2</v>
+        <v>9.2929292929292931E-2</v>
       </c>
       <c r="H2" s="6">
         <f>G2</f>
-        <v>9.7664543524416128E-2</v>
+        <v>9.2929292929292931E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2908,20 +4187,20 @@
       <c r="C3" s="37"/>
       <c r="D3" s="5">
         <f>SUMIF(tareas!$G:$G,A3,tareas!$F:$F)</f>
-        <v>0.14225053078556263</v>
+        <v>0.13535353535353536</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E12" si="1">D3+E2</f>
-        <v>0.29511677282377918</v>
+        <v>0.28080808080808084</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="6">
         <f>SUMIF(tareas!$J:$J,A3,tareas!$I:$I)</f>
-        <v>5.7324840764331211E-2</v>
+        <v>5.454545454545455E-2</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H12" si="2">G3+H2</f>
-        <v>0.15498938428874734</v>
+        <v>0.14747474747474748</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2935,20 +4214,20 @@
       <c r="C4" s="37"/>
       <c r="D4" s="5">
         <f>SUMIF(tareas!$G:$G,A4,tareas!$F:$F)</f>
-        <v>0.11889596602972398</v>
+        <v>0.11313131313131312</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>0.41401273885350315</v>
+        <v>0.39393939393939398</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="6">
         <f>SUMIF(tareas!$J:$J,A4,tareas!$I:$I)</f>
-        <v>0.15286624203821655</v>
+        <v>0.14545454545454542</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="2"/>
-        <v>0.30785562632696389</v>
+        <v>0.29292929292929293</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2962,20 +4241,20 @@
       <c r="C5" s="37"/>
       <c r="D5" s="5">
         <f>SUMIF(tareas!$G:$G,A5,tareas!$F:$F)</f>
-        <v>0.14861995753715498</v>
+        <v>0.14141414141414141</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>0.56263269639065816</v>
+        <v>0.53535353535353536</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="6">
         <f>SUMIF(tareas!$J:$J,A5,tareas!$I:$I)</f>
-        <v>0.10615711252653927</v>
+        <v>0.10101010101010101</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="2"/>
-        <v>0.41401273885350315</v>
+        <v>0.39393939393939392</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2989,20 +4268,20 @@
       <c r="C6" s="37"/>
       <c r="D6" s="5">
         <f>SUMIF(tareas!$G:$G,A6,tareas!$F:$F)</f>
-        <v>0.14225053078556263</v>
+        <v>0.13535353535353534</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>0.70488322717622076</v>
+        <v>0.6707070707070707</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="6">
         <f>SUMIF(tareas!$J:$J,A6,tareas!$I:$I)</f>
-        <v>0.17409766454352441</v>
+        <v>0.16565656565656561</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="2"/>
-        <v>0.58811040339702758</v>
+        <v>0.55959595959595954</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3016,20 +4295,20 @@
       <c r="C7" s="37"/>
       <c r="D7" s="5">
         <f>SUMIF(tareas!$G:$G,A7,tareas!$F:$F)</f>
-        <v>0.1464968152866242</v>
+        <v>0.13939393939393938</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>0.85138004246284493</v>
+        <v>0.8101010101010101</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="6">
         <f>SUMIF(tareas!$J:$J,A7,tareas!$I:$I)</f>
-        <v>0.10615711252653928</v>
+        <v>0.1676767676767677</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="2"/>
-        <v>0.69426751592356684</v>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3043,20 +4322,20 @@
       <c r="C8" s="37"/>
       <c r="D8" s="5">
         <f>SUMIF(tareas!$G:$G,A8,tareas!$F:$F)</f>
-        <v>0.14861995753715498</v>
+        <v>0.14141414141414141</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
+        <v>0.95151515151515154</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="6">
         <f>SUMIF(tareas!$J:$J,A8,tareas!$I:$I)</f>
-        <v>0</v>
+        <v>0.10303030303030303</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="2"/>
-        <v>0.69426751592356684</v>
+        <v>0.83030303030303032</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3070,20 +4349,20 @@
       <c r="C9" s="37"/>
       <c r="D9" s="5">
         <f>SUMIF(tareas!$G:$G,A9,tareas!$F:$F)</f>
-        <v>0</v>
+        <v>4.8484848484848492E-2</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="6">
         <f>SUMIF(tareas!$J:$J,A9,tareas!$I:$I)</f>
-        <v>0</v>
+        <v>5.4545454545454543E-2</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>0.69426751592356684</v>
+        <v>0.88484848484848488</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3101,7 +4380,7 @@
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="6">
@@ -3110,7 +4389,7 @@
       </c>
       <c r="H10" s="6">
         <f t="shared" si="2"/>
-        <v>0.69426751592356684</v>
+        <v>0.88484848484848488</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3128,7 +4407,7 @@
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="6">
@@ -3137,7 +4416,7 @@
       </c>
       <c r="H11" s="6">
         <f t="shared" si="2"/>
-        <v>0.69426751592356684</v>
+        <v>0.88484848484848488</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3155,7 +4434,7 @@
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="6">
@@ -3164,7 +4443,7 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" si="2"/>
-        <v>0.69426751592356684</v>
+        <v>0.88484848484848488</v>
       </c>
     </row>
   </sheetData>
@@ -3182,8 +4461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3550,13 +4829,25 @@
         <v>34.5</v>
       </c>
       <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="M7" s="8">
+        <f>SUMIF('[1]49'!$B:$B,A7,'[1]49'!$F:$F)/60</f>
+        <v>8.0166666666666675</v>
+      </c>
+      <c r="N7" s="8">
+        <f>SUMIF([2]logt!$B:$B,A7,[2]logt!$F:$F)/60</f>
+        <v>8.7166666666666668</v>
+      </c>
+      <c r="O7" s="8">
+        <f>SUMIF([3]logt!$B:$B,A7,[3]logt!$F:$F)/60</f>
+        <v>14.4</v>
+      </c>
+      <c r="P7" s="8">
+        <f>SUMIF([4]logt!$B:$B,A7,[4]logt!$F:$F)/60</f>
+        <v>7.7</v>
+      </c>
       <c r="Q7" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38.833333333333336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3594,13 +4885,25 @@
         <v>35</v>
       </c>
       <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="M8" s="8">
+        <f>SUMIF('[1]49'!$B:$B,A8,'[1]49'!$F:$F)/60</f>
+        <v>5.2333333333333334</v>
+      </c>
+      <c r="N8" s="8">
+        <f>SUMIF([2]logt!$B:$B,A8,[2]logt!$F:$F)/60</f>
+        <v>7</v>
+      </c>
+      <c r="O8" s="8">
+        <f>SUMIF([3]logt!$B:$B,A8,[3]logt!$F:$F)/60</f>
+        <v>7.4666666666666668</v>
+      </c>
+      <c r="P8" s="8">
+        <f>SUMIF([4]logt!$B:$B,A8,[4]logt!$F:$F)/60</f>
+        <v>7.583333333333333</v>
+      </c>
       <c r="Q8" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27.283333333333335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -3635,16 +4938,28 @@
       </c>
       <c r="J9" s="8">
         <f>SUMIF(tareas!G:G,A9,tareas!E:E)</f>
+        <v>12</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8">
+        <f>SUMIF('[1]49'!$B:$B,A9,'[1]49'!$F:$F)/60</f>
         <v>0</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="N9" s="8">
+        <f>SUMIF([2]logt!$B:$B,A9,[2]logt!$F:$F)/60</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <f>SUMIF([3]logt!$B:$B,A9,[3]logt!$F:$F)/60</f>
+        <v>5.2666666666666666</v>
+      </c>
+      <c r="P9" s="8">
+        <f>SUMIF([4]logt!$B:$B,A9,[4]logt!$F:$F)/60</f>
+        <v>0</v>
+      </c>
       <c r="Q9" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.2666666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3806,7 +5121,7 @@
       </c>
       <c r="J14" s="7">
         <f>SUM(J2:J12)</f>
-        <v>235.5</v>
+        <v>247.5</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" ref="L14:Q14" si="3">SUM(L2:L12)</f>
@@ -3814,29 +5129,29 @@
       </c>
       <c r="M14" s="7">
         <f t="shared" si="3"/>
-        <v>29.926666666666666</v>
+        <v>43.176666666666669</v>
       </c>
       <c r="N14" s="7">
         <f t="shared" si="3"/>
-        <v>32.546666666666667</v>
+        <v>48.263333333333335</v>
       </c>
       <c r="O14" s="7">
         <f t="shared" si="3"/>
-        <v>33.623333333333335</v>
+        <v>60.756666666666668</v>
       </c>
       <c r="P14" s="7">
         <f t="shared" si="3"/>
-        <v>48.459999999999994</v>
+        <v>63.743333333333332</v>
       </c>
       <c r="Q14" s="7">
         <f t="shared" si="3"/>
-        <v>176.98333333333335</v>
+        <v>248.3666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J15" s="7">
         <f>J14-SUM(E14:I14)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3847,10 +5162,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK69"/>
+  <dimension ref="A1:AMK73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3912,14 +5227,14 @@
       </c>
       <c r="F2" s="15">
         <f>E2/tiempo!$J$14</f>
-        <v>3.1847133757961783E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="G2" s="18">
         <v>1</v>
       </c>
       <c r="I2" s="15">
         <f>IF(ISBLANK(LOOKUP(A2,'1'!$A:$A,'1'!$R:$R)),0,F2)</f>
-        <v>3.1847133757961783E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="J2" s="16">
         <f>LOOKUP(A2,'1'!$A:$A,'1'!$R:$R)</f>
@@ -4959,14 +6274,14 @@
       </c>
       <c r="F3" s="15">
         <f>E3/tiempo!$J$14</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="G3" s="18">
         <v>1</v>
       </c>
       <c r="I3" s="15">
         <f>IF(ISBLANK(LOOKUP(A3,'1'!$A:$A,'1'!$R:$R)),0,F3)</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="J3" s="16">
         <f>LOOKUP(A3,'1'!$A:$A,'1'!$R:$R)</f>
@@ -6006,14 +7321,14 @@
       </c>
       <c r="F4" s="15">
         <f>E4/tiempo!$J$14</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="G4" s="18">
         <v>1</v>
       </c>
       <c r="I4" s="15">
         <f>IF(ISBLANK(LOOKUP(A4,'1'!$A:$A,'1'!$R:$R)),0,F4)</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="J4" s="16">
         <f>LOOKUP(A4,'1'!$A:$A,'1'!$R:$R)</f>
@@ -7053,14 +8368,14 @@
       </c>
       <c r="F5" s="15">
         <f>E5/tiempo!$J$14</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="G5" s="18">
         <v>1</v>
       </c>
       <c r="I5" s="15">
         <f>IF(ISBLANK(LOOKUP(A5,'1'!$A:$A,'1'!$R:$R)),0,F5)</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="J5" s="16">
         <f>LOOKUP(A5,'1'!$A:$A,'1'!$R:$R)</f>
@@ -8097,14 +9412,14 @@
       </c>
       <c r="F6" s="15">
         <f>E6/tiempo!$J$14</f>
-        <v>2.1231422505307855E-3</v>
+        <v>2.0202020202020202E-3</v>
       </c>
       <c r="G6" s="22">
         <v>1</v>
       </c>
       <c r="I6" s="15">
         <f>IF(ISBLANK(LOOKUP(A6,'1'!$A:$A,'1'!$R:$R)),0,F6)</f>
-        <v>2.1231422505307855E-3</v>
+        <v>2.0202020202020202E-3</v>
       </c>
       <c r="J6" s="16">
         <f>LOOKUP(A6,'1'!$A:$A,'1'!$R:$R)</f>
@@ -9141,14 +10456,14 @@
       </c>
       <c r="F7" s="15">
         <f>E7/tiempo!$J$14</f>
-        <v>2.1231422505307855E-3</v>
+        <v>2.0202020202020202E-3</v>
       </c>
       <c r="G7" s="21">
         <v>1</v>
       </c>
       <c r="I7" s="15">
         <f>IF(ISBLANK(LOOKUP(A7,'1'!$A:$A,'1'!$R:$R)),0,F7)</f>
-        <v>2.1231422505307855E-3</v>
+        <v>2.0202020202020202E-3</v>
       </c>
       <c r="J7" s="16">
         <f>LOOKUP(A7,'1'!$A:$A,'1'!$R:$R)</f>
@@ -10188,14 +11503,14 @@
       </c>
       <c r="F8" s="15">
         <f>E8/tiempo!$J$14</f>
-        <v>2.1231422505307855E-3</v>
+        <v>2.0202020202020202E-3</v>
       </c>
       <c r="G8" s="21">
         <v>1</v>
       </c>
       <c r="I8" s="15">
         <f>IF(ISBLANK(LOOKUP(A8,'1'!$A:$A,'1'!$R:$R)),0,F8)</f>
-        <v>2.1231422505307855E-3</v>
+        <v>2.0202020202020202E-3</v>
       </c>
       <c r="J8" s="16">
         <f>LOOKUP(A8,'1'!$A:$A,'1'!$R:$R)</f>
@@ -11235,14 +12550,14 @@
       </c>
       <c r="F9" s="15">
         <f>E9/tiempo!$J$14</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="G9" s="21">
         <v>1</v>
       </c>
       <c r="I9" s="15">
         <f>IF(ISBLANK(LOOKUP(A9,'1'!$A:$A,'1'!$R:$R)),0,F9)</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="J9" s="16">
         <f>LOOKUP(A9,'1'!$A:$A,'1'!$R:$R)</f>
@@ -12279,14 +13594,14 @@
       </c>
       <c r="F10" s="15">
         <f>E10/tiempo!$J$14</f>
-        <v>1.2738853503184714E-2</v>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="G10" s="21">
         <v>1</v>
       </c>
       <c r="I10" s="15">
         <f>IF(ISBLANK(LOOKUP(A10,'1'!$A:$A,'1'!$R:$R)),0,F10)</f>
-        <v>1.2738853503184714E-2</v>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="J10" s="16">
         <f>LOOKUP(A10,'1'!$A:$A,'1'!$R:$R)</f>
@@ -13320,14 +14635,14 @@
       </c>
       <c r="F11" s="15">
         <f>E11/tiempo!$J$14</f>
-        <v>4.2462845010615709E-2</v>
+        <v>4.0404040404040407E-2</v>
       </c>
       <c r="G11" s="21">
         <v>1</v>
       </c>
       <c r="I11" s="15">
         <f>IF(ISBLANK(LOOKUP(A11,'1'!$A:$A,'1'!$R:$R)),0,F11)</f>
-        <v>4.2462845010615709E-2</v>
+        <v>4.0404040404040407E-2</v>
       </c>
       <c r="J11" s="16">
         <f>LOOKUP(A11,'1'!$A:$A,'1'!$R:$R)</f>
@@ -14361,14 +15676,14 @@
       </c>
       <c r="F12" s="15">
         <f>E12/tiempo!$J$14</f>
-        <v>6.3694267515923567E-2</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="G12" s="16">
         <v>2</v>
       </c>
       <c r="I12" s="15">
         <f>IF(ISBLANK(LOOKUP(A12,'1'!$A:$A,'1'!$R:$R)),0,F12)</f>
-        <v>6.3694267515923567E-2</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="J12" s="16">
         <f>LOOKUP(A12,'1'!$A:$A,'1'!$R:$R)</f>
@@ -15408,14 +16723,14 @@
       </c>
       <c r="F13" s="15">
         <f>E13/tiempo!$J$14</f>
-        <v>4.2462845010615709E-2</v>
+        <v>4.0404040404040407E-2</v>
       </c>
       <c r="G13" s="21">
         <v>2</v>
       </c>
       <c r="I13" s="15">
         <f>IF(ISBLANK(LOOKUP(A13,'1'!$A:$A,'1'!$R:$R)),0,F13)</f>
-        <v>4.2462845010615709E-2</v>
+        <v>4.0404040404040407E-2</v>
       </c>
       <c r="J13" s="16">
         <f>LOOKUP(A13,'1'!$A:$A,'1'!$R:$R)</f>
@@ -16455,14 +17770,14 @@
       </c>
       <c r="F14" s="15">
         <f>E14/tiempo!$J$14</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="G14" s="21">
         <v>2</v>
       </c>
       <c r="I14" s="15">
         <f>IF(ISBLANK(LOOKUP(A14,'1'!$A:$A,'1'!$R:$R)),0,F14)</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="J14" s="16">
         <f>LOOKUP(A14,'1'!$A:$A,'1'!$R:$R)</f>
@@ -17502,14 +18817,14 @@
       </c>
       <c r="F15" s="15">
         <f>E15/tiempo!$J$14</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="G15" s="21">
         <v>2</v>
       </c>
       <c r="I15" s="15">
         <f>IF(ISBLANK(LOOKUP(A15,'1'!$A:$A,'1'!$R:$R)),0,F15)</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="J15" s="16">
         <f>LOOKUP(A15,'1'!$A:$A,'1'!$R:$R)</f>
@@ -18549,14 +19864,14 @@
       </c>
       <c r="F16" s="15">
         <f>E16/tiempo!$J$14</f>
-        <v>1.6985138004246284E-2</v>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="G16" s="21">
         <v>2</v>
       </c>
       <c r="I16" s="15">
         <f>IF(ISBLANK(LOOKUP(A16,'1'!$A:$A,'1'!$R:$R)),0,F16)</f>
-        <v>1.6985138004246284E-2</v>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="J16" s="16">
         <f>LOOKUP(A16,'1'!$A:$A,'1'!$R:$R)</f>
@@ -19596,14 +20911,14 @@
       </c>
       <c r="F17" s="15">
         <f>E17/tiempo!$J$14</f>
-        <v>2.1231422505307855E-3</v>
+        <v>2.0202020202020202E-3</v>
       </c>
       <c r="G17" s="21">
         <v>2</v>
       </c>
       <c r="I17" s="15">
         <f>IF(ISBLANK(LOOKUP(A17,'1'!$A:$A,'1'!$R:$R)),0,F17)</f>
-        <v>2.1231422505307855E-3</v>
+        <v>2.0202020202020202E-3</v>
       </c>
       <c r="J17" s="16">
         <f>LOOKUP(A17,'1'!$A:$A,'1'!$R:$R)</f>
@@ -20643,14 +21958,14 @@
       </c>
       <c r="F18" s="15">
         <f>E18/tiempo!$J$14</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="G18" s="21">
         <v>3</v>
       </c>
       <c r="I18" s="15">
         <f>IF(ISBLANK(LOOKUP(A18,'1'!$A:$A,'1'!$R:$R)),0,F18)</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="J18" s="16">
         <f>LOOKUP(A18,'1'!$A:$A,'1'!$R:$R)</f>
@@ -21690,14 +23005,14 @@
       </c>
       <c r="F19" s="15">
         <f>E19/tiempo!$J$14</f>
-        <v>4.2462845010615709E-2</v>
+        <v>4.0404040404040407E-2</v>
       </c>
       <c r="G19" s="21">
         <v>3</v>
       </c>
       <c r="I19" s="15">
         <f>IF(ISBLANK(LOOKUP(A19,'1'!$A:$A,'1'!$R:$R)),0,F19)</f>
-        <v>4.2462845010615709E-2</v>
+        <v>4.0404040404040407E-2</v>
       </c>
       <c r="J19" s="16">
         <f>LOOKUP(A19,'1'!$A:$A,'1'!$R:$R)</f>
@@ -22737,14 +24052,14 @@
       </c>
       <c r="F20" s="15">
         <f>E20/tiempo!$J$14</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="G20" s="16">
         <v>3</v>
       </c>
       <c r="I20" s="15">
         <f>IF(ISBLANK(LOOKUP(A20,'1'!$A:$A,'1'!$R:$R)),0,F20)</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="J20" s="16">
         <f>LOOKUP(A20,'1'!$A:$A,'1'!$R:$R)</f>
@@ -23784,14 +25099,14 @@
       </c>
       <c r="F21" s="15">
         <f>E21/tiempo!$J$14</f>
-        <v>1.2738853503184714E-2</v>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="G21" s="16">
         <v>3</v>
       </c>
       <c r="I21" s="15">
         <f>IF(ISBLANK(LOOKUP(A21,'1'!$A:$A,'1'!$R:$R)),0,F21)</f>
-        <v>1.2738853503184714E-2</v>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="J21" s="16">
         <f>LOOKUP(A21,'1'!$A:$A,'1'!$R:$R)</f>
@@ -24831,14 +26146,14 @@
       </c>
       <c r="F22" s="15">
         <f>E22/tiempo!$J$14</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="G22" s="16">
         <v>3</v>
       </c>
       <c r="I22" s="15">
         <f>IF(ISBLANK(LOOKUP(A22,'1'!$A:$A,'1'!$R:$R)),0,F22)</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="J22" s="16">
         <f>LOOKUP(A22,'1'!$A:$A,'1'!$R:$R)</f>
@@ -25878,14 +27193,14 @@
       </c>
       <c r="F23" s="15">
         <f>E23/tiempo!$J$14</f>
-        <v>1.6985138004246284E-2</v>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="G23" s="16">
         <v>3</v>
       </c>
       <c r="I23" s="15">
         <f>IF(ISBLANK(LOOKUP(A23,'1'!$A:$A,'1'!$R:$R)),0,F23)</f>
-        <v>1.6985138004246284E-2</v>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="J23" s="16">
         <f>LOOKUP(A23,'1'!$A:$A,'1'!$R:$R)</f>
@@ -26925,14 +28240,14 @@
       </c>
       <c r="F24" s="15">
         <f>E24/tiempo!$J$14</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="G24" s="16">
         <v>3</v>
       </c>
       <c r="I24" s="15">
         <f>IF(ISBLANK(LOOKUP(A24,'1'!$A:$A,'1'!$R:$R)),0,F24)</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="J24" s="16">
         <f>LOOKUP(A24,'1'!$A:$A,'1'!$R:$R)</f>
@@ -28999,14 +30314,14 @@
       </c>
       <c r="F26" s="15">
         <f>E26/tiempo!$J$14</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="G26" s="16">
         <v>4</v>
       </c>
       <c r="I26" s="15">
         <f>IF(ISBLANK(LOOKUP(A26,'2'!$A:$A,'2'!$R:$R)),0,F26)</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="J26" s="16">
         <f>LOOKUP(A26,'2'!$A:$A,'2'!$R:$R)</f>
@@ -30046,14 +31361,14 @@
       </c>
       <c r="F27" s="15">
         <f>E27/tiempo!$J$14</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="G27" s="16">
         <v>4</v>
       </c>
       <c r="I27" s="15">
         <f>IF(ISBLANK(LOOKUP(A27,'2'!$A:$A,'2'!$R:$R)),0,F27)</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="J27" s="16">
         <f>LOOKUP(A27,'2'!$A:$A,'2'!$R:$R)</f>
@@ -31093,14 +32408,14 @@
       </c>
       <c r="F28" s="15">
         <f>E28/tiempo!$J$14</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="G28" s="16">
         <v>4</v>
       </c>
       <c r="I28" s="15">
         <f>IF(ISBLANK(LOOKUP(A28,'2'!$A:$A,'2'!$R:$R)),0,F28)</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="J28" s="16">
         <f>LOOKUP(A28,'2'!$A:$A,'2'!$R:$R)</f>
@@ -32137,14 +33452,14 @@
       </c>
       <c r="F29" s="15">
         <f>E29/tiempo!$J$14</f>
-        <v>2.1231422505307855E-3</v>
+        <v>2.0202020202020202E-3</v>
       </c>
       <c r="G29" s="16">
         <v>4</v>
       </c>
       <c r="I29" s="15">
         <f>IF(ISBLANK(LOOKUP(A29,'2'!$A:$A,'2'!$R:$R)),0,F29)</f>
-        <v>2.1231422505307855E-3</v>
+        <v>2.0202020202020202E-3</v>
       </c>
       <c r="J29" s="16">
         <f>LOOKUP(A29,'2'!$A:$A,'2'!$R:$R)</f>
@@ -33185,14 +34500,14 @@
       </c>
       <c r="F30" s="15">
         <f>E30/tiempo!$J$14</f>
-        <v>3.1847133757961783E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="G30" s="16">
         <v>4</v>
       </c>
       <c r="I30" s="15">
         <f>IF(ISBLANK(LOOKUP(A30,'2'!$A:$A,'2'!$R:$R)),0,F30)</f>
-        <v>3.1847133757961783E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="J30" s="16">
         <f>LOOKUP(A30,'2'!$A:$A,'2'!$R:$R)</f>
@@ -34232,14 +35547,14 @@
       </c>
       <c r="F31" s="15">
         <f>E31/tiempo!$J$14</f>
-        <v>2.1231422505307855E-3</v>
+        <v>2.0202020202020202E-3</v>
       </c>
       <c r="G31" s="16">
         <v>4</v>
       </c>
       <c r="I31" s="15">
         <f>IF(ISBLANK(LOOKUP(A31,'2'!$A:$A,'2'!$R:$R)),0,F31)</f>
-        <v>2.1231422505307855E-3</v>
+        <v>2.0202020202020202E-3</v>
       </c>
       <c r="J31" s="16">
         <f>LOOKUP(A31,'2'!$A:$A,'2'!$R:$R)</f>
@@ -35279,14 +36594,14 @@
       </c>
       <c r="F32" s="15">
         <f>E32/tiempo!$J$14</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="G32" s="16">
         <v>4</v>
       </c>
       <c r="I32" s="15">
         <f>IF(ISBLANK(LOOKUP(A32,'2'!$A:$A,'2'!$R:$R)),0,F32)</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="J32" s="16">
         <f>LOOKUP(A32,'2'!$A:$A,'2'!$R:$R)</f>
@@ -36323,14 +37638,14 @@
       </c>
       <c r="F33" s="15">
         <f>E33/tiempo!$J$14</f>
-        <v>1.2738853503184714E-2</v>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="G33" s="16">
         <v>4</v>
       </c>
       <c r="I33" s="15">
         <f>IF(ISBLANK(LOOKUP(A33,'2'!$A:$A,'2'!$R:$R)),0,F33)</f>
-        <v>1.2738853503184714E-2</v>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="J33" s="16">
         <f>LOOKUP(A33,'2'!$A:$A,'2'!$R:$R)</f>
@@ -37370,14 +38685,14 @@
       </c>
       <c r="F34" s="15">
         <f>E34/tiempo!$J$14</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="G34" s="16">
         <v>4</v>
       </c>
       <c r="I34" s="15">
         <f>IF(ISBLANK(LOOKUP(A34,'2'!$A:$A,'2'!$R:$R)),0,F34)</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="J34" s="16">
         <f>LOOKUP(A34,'2'!$A:$A,'2'!$R:$R)</f>
@@ -38417,14 +39732,14 @@
       </c>
       <c r="F35" s="15">
         <f>E35/tiempo!$J$14</f>
-        <v>2.1231422505307855E-3</v>
+        <v>2.0202020202020202E-3</v>
       </c>
       <c r="G35" s="16">
         <v>4</v>
       </c>
       <c r="I35" s="15">
         <f>IF(ISBLANK(LOOKUP(A35,'2'!$A:$A,'2'!$R:$R)),0,F35)</f>
-        <v>2.1231422505307855E-3</v>
+        <v>2.0202020202020202E-3</v>
       </c>
       <c r="J35" s="16">
         <f>LOOKUP(A35,'2'!$A:$A,'2'!$R:$R)</f>
@@ -39464,14 +40779,14 @@
       </c>
       <c r="F36" s="15">
         <f>E36/tiempo!$J$14</f>
-        <v>4.246284501061571E-3</v>
+        <v>4.0404040404040404E-3</v>
       </c>
       <c r="G36" s="16">
         <v>4</v>
       </c>
       <c r="I36" s="15">
         <f>IF(ISBLANK(LOOKUP(A36,'2'!$A:$A,'2'!$R:$R)),0,F36)</f>
-        <v>4.246284501061571E-3</v>
+        <v>4.0404040404040404E-3</v>
       </c>
       <c r="J36" s="16">
         <f>LOOKUP(A36,'2'!$A:$A,'2'!$R:$R)</f>
@@ -40511,14 +41826,14 @@
       </c>
       <c r="F37" s="15">
         <f>E37/tiempo!$J$14</f>
-        <v>1.2738853503184714E-2</v>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="G37" s="16">
         <v>4</v>
       </c>
       <c r="I37" s="15">
         <f>IF(ISBLANK(LOOKUP(A37,'2'!$A:$A,'2'!$R:$R)),0,F37)</f>
-        <v>1.2738853503184714E-2</v>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="J37" s="16">
         <f>LOOKUP(A37,'2'!$A:$A,'2'!$R:$R)</f>
@@ -41558,14 +42873,14 @@
       </c>
       <c r="F38" s="15">
         <f>E38/tiempo!$J$14</f>
-        <v>4.246284501061571E-3</v>
+        <v>4.0404040404040404E-3</v>
       </c>
       <c r="G38" s="16">
         <v>5</v>
       </c>
       <c r="I38" s="15">
         <f>IF(ISBLANK(LOOKUP(A38,'2'!$A:$A,'2'!$R:$R)),0,F38)</f>
-        <v>4.246284501061571E-3</v>
+        <v>4.0404040404040404E-3</v>
       </c>
       <c r="J38" s="16">
         <f>LOOKUP(A38,'2'!$A:$A,'2'!$R:$R)</f>
@@ -42605,14 +43920,14 @@
       </c>
       <c r="F39" s="15">
         <f>E39/tiempo!$J$14</f>
-        <v>1.6985138004246284E-2</v>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="G39" s="16">
         <v>5</v>
       </c>
       <c r="I39" s="15">
         <f>IF(ISBLANK(LOOKUP(A39,'2'!$A:$A,'2'!$R:$R)),0,F39)</f>
-        <v>1.6985138004246284E-2</v>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="J39" s="16">
         <f>LOOKUP(A39,'2'!$A:$A,'2'!$R:$R)</f>
@@ -43652,14 +44967,14 @@
       </c>
       <c r="F40" s="15">
         <f>E40/tiempo!$J$14</f>
-        <v>1.6985138004246284E-2</v>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="G40" s="16">
         <v>5</v>
       </c>
       <c r="I40" s="15">
         <f>IF(ISBLANK(LOOKUP(A40,'2'!$A:$A,'2'!$R:$R)),0,F40)</f>
-        <v>1.6985138004246284E-2</v>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="J40" s="16">
         <f>LOOKUP(A40,'2'!$A:$A,'2'!$R:$R)</f>
@@ -44699,12 +46014,19 @@
       </c>
       <c r="F41" s="15">
         <f>E41/tiempo!$J$14</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="G41" s="16">
         <v>5</v>
       </c>
-      <c r="I41" s="15"/>
+      <c r="I41" s="15">
+        <f>IF(ISBLANK(LOOKUP(A41,'2'!$A:$A,'2'!$R:$R)),0,F41)</f>
+        <v>8.0808080808080808E-3</v>
+      </c>
+      <c r="J41" s="16">
+        <f>LOOKUP(A41,'2'!$A:$A,'2'!$R:$R)</f>
+        <v>8</v>
+      </c>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
@@ -45739,12 +47061,19 @@
       </c>
       <c r="F42" s="15">
         <f>E42/tiempo!$J$14</f>
-        <v>2.1231422505307855E-3</v>
+        <v>2.0202020202020202E-3</v>
       </c>
       <c r="G42" s="16">
         <v>5</v>
       </c>
-      <c r="I42" s="15"/>
+      <c r="I42" s="15">
+        <f>IF(ISBLANK(LOOKUP(A42,'2'!$A:$A,'2'!$R:$R)),0,F42)</f>
+        <v>2.0202020202020202E-3</v>
+      </c>
+      <c r="J42" s="16">
+        <f>LOOKUP(A42,'2'!$A:$A,'2'!$R:$R)</f>
+        <v>8</v>
+      </c>
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
@@ -46776,14 +48105,14 @@
       </c>
       <c r="F43" s="15">
         <f>E43/tiempo!$J$14</f>
-        <v>1.6985138004246284E-2</v>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="G43" s="16">
         <v>5</v>
       </c>
       <c r="I43" s="15">
         <f>IF(ISBLANK(LOOKUP(A43,'2'!$A:$A,'2'!$R:$R)),0,F43)</f>
-        <v>1.6985138004246284E-2</v>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="J43" s="16">
         <f>LOOKUP(A43,'2'!$A:$A,'2'!$R:$R)</f>
@@ -47820,14 +49149,14 @@
       </c>
       <c r="F44" s="15">
         <f>E44/tiempo!$J$14</f>
-        <v>1.2738853503184714E-2</v>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="G44" s="16">
         <v>5</v>
       </c>
       <c r="I44" s="15">
         <f>IF(ISBLANK(LOOKUP(A44,'2'!$A:$A,'2'!$R:$R)),0,F44)</f>
-        <v>1.2738853503184714E-2</v>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="J44" s="16">
         <f>LOOKUP(A44,'2'!$A:$A,'2'!$R:$R)</f>
@@ -48867,14 +50196,14 @@
       </c>
       <c r="F45" s="15">
         <f>E45/tiempo!$J$14</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="G45" s="16">
         <v>5</v>
       </c>
       <c r="I45" s="15">
         <f>IF(ISBLANK(LOOKUP(A45,'2'!$A:$A,'2'!$R:$R)),0,F45)</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="J45" s="16">
         <f>LOOKUP(A45,'2'!$A:$A,'2'!$R:$R)</f>
@@ -49914,14 +51243,14 @@
       </c>
       <c r="F46" s="15">
         <f>E46/tiempo!$J$14</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="G46" s="16">
         <v>5</v>
       </c>
       <c r="I46" s="15">
         <f>IF(ISBLANK(LOOKUP(A46,'2'!$A:$A,'2'!$R:$R)),0,F46)</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="J46" s="16">
         <f>LOOKUP(A46,'2'!$A:$A,'2'!$R:$R)</f>
@@ -50961,14 +52290,14 @@
       </c>
       <c r="F47" s="15">
         <f>E47/tiempo!$J$14</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="G47" s="16">
         <v>5</v>
       </c>
       <c r="I47" s="15">
         <f>IF(ISBLANK(LOOKUP(A47,'2'!$A:$A,'2'!$R:$R)),0,F47)</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="J47" s="16">
         <f>LOOKUP(A47,'2'!$A:$A,'2'!$R:$R)</f>
@@ -53017,7 +54346,7 @@
       <c r="AMJ48" s="30"/>
       <c r="AMK48" s="30"/>
     </row>
-    <row r="49" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>46</v>
       </c>
@@ -53035,13 +54364,21 @@
       </c>
       <c r="F49" s="15">
         <f>E49/tiempo!$J$14</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="G49" s="16">
         <v>6</v>
       </c>
+      <c r="I49" s="15">
+        <f>IF(ISBLANK(LOOKUP(A49,'3'!$A:$A,'3'!$R:$R)),0,F49)</f>
+        <v>2.0202020202020204E-2</v>
+      </c>
+      <c r="J49" s="16">
+        <f>LOOKUP(A49,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="50" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>47</v>
       </c>
@@ -53059,13 +54396,21 @@
       </c>
       <c r="F50" s="15">
         <f>E50/tiempo!$J$14</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="G50" s="16">
         <v>6</v>
       </c>
+      <c r="I50" s="15">
+        <f>IF(ISBLANK(LOOKUP(A50,'3'!$A:$A,'3'!$R:$R)),0,F50)</f>
+        <v>2.0202020202020204E-2</v>
+      </c>
+      <c r="J50" s="16">
+        <f>LOOKUP(A50,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="51" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>48</v>
       </c>
@@ -53083,13 +54428,21 @@
       </c>
       <c r="F51" s="15">
         <f>E51/tiempo!$J$14</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="G51" s="16">
         <v>6</v>
       </c>
+      <c r="I51" s="15">
+        <f>IF(ISBLANK(LOOKUP(A51,'3'!$A:$A,'3'!$R:$R)),0,F51)</f>
+        <v>8.0808080808080808E-3</v>
+      </c>
+      <c r="J51" s="16">
+        <f>LOOKUP(A51,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>7</v>
+      </c>
     </row>
-    <row r="52" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>49</v>
       </c>
@@ -53107,13 +54460,21 @@
       </c>
       <c r="F52" s="15">
         <f>E52/tiempo!$J$14</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="G52" s="16">
         <v>6</v>
       </c>
+      <c r="I52" s="15">
+        <f>IF(ISBLANK(LOOKUP(A52,'3'!$A:$A,'3'!$R:$R)),0,F52)</f>
+        <v>8.0808080808080808E-3</v>
+      </c>
+      <c r="J52" s="16">
+        <f>LOOKUP(A52,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>7</v>
+      </c>
     </row>
-    <row r="53" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>50</v>
       </c>
@@ -53131,13 +54492,21 @@
       </c>
       <c r="F53" s="15">
         <f>E53/tiempo!$J$14</f>
-        <v>1.2738853503184714E-2</v>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="G53" s="16">
         <v>6</v>
       </c>
+      <c r="I53" s="15">
+        <f>IF(ISBLANK(LOOKUP(A53,'3'!$A:$A,'3'!$R:$R)),0,F53)</f>
+        <v>1.2121212121212121E-2</v>
+      </c>
+      <c r="J53" s="16">
+        <f>LOOKUP(A53,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>7</v>
+      </c>
     </row>
-    <row r="54" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>51</v>
       </c>
@@ -53155,13 +54524,21 @@
       </c>
       <c r="F54" s="15">
         <f>E54/tiempo!$J$14</f>
-        <v>1.2738853503184714E-2</v>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="G54" s="16">
         <v>6</v>
       </c>
+      <c r="I54" s="15">
+        <f>IF(ISBLANK(LOOKUP(A54,'3'!$A:$A,'3'!$R:$R)),0,F54)</f>
+        <v>1.2121212121212121E-2</v>
+      </c>
+      <c r="J54" s="16">
+        <f>LOOKUP(A54,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>7</v>
+      </c>
     </row>
-    <row r="55" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>52</v>
       </c>
@@ -53179,13 +54556,21 @@
       </c>
       <c r="F55" s="15">
         <f>E55/tiempo!$J$14</f>
-        <v>2.1231422505307855E-3</v>
+        <v>2.0202020202020202E-3</v>
       </c>
       <c r="G55" s="16">
         <v>6</v>
       </c>
+      <c r="I55" s="15">
+        <f>IF(ISBLANK(LOOKUP(A55,'3'!$A:$A,'3'!$R:$R)),0,F55)</f>
+        <v>2.0202020202020202E-3</v>
+      </c>
+      <c r="J55" s="16">
+        <f>LOOKUP(A55,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="56" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>53</v>
       </c>
@@ -53203,13 +54588,21 @@
       </c>
       <c r="F56" s="15">
         <f>E56/tiempo!$J$14</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="G56" s="16">
         <v>6</v>
       </c>
+      <c r="I56" s="15">
+        <f>IF(ISBLANK(LOOKUP(A56,'3'!$A:$A,'3'!$R:$R)),0,F56)</f>
+        <v>8.0808080808080808E-3</v>
+      </c>
+      <c r="J56" s="16">
+        <f>LOOKUP(A56,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="57" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>54</v>
       </c>
@@ -53227,13 +54620,21 @@
       </c>
       <c r="F57" s="15">
         <f>E57/tiempo!$J$14</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="G57" s="16">
         <v>6</v>
       </c>
+      <c r="I57" s="15">
+        <f>IF(ISBLANK(LOOKUP(A57,'3'!$A:$A,'3'!$R:$R)),0,F57)</f>
+        <v>8.0808080808080808E-3</v>
+      </c>
+      <c r="J57" s="16">
+        <f>LOOKUP(A57,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>7</v>
+      </c>
     </row>
-    <row r="58" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>55</v>
       </c>
@@ -53251,13 +54652,21 @@
       </c>
       <c r="F58" s="15">
         <f>E58/tiempo!$J$14</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="G58" s="16">
         <v>6</v>
       </c>
+      <c r="I58" s="15">
+        <f>IF(ISBLANK(LOOKUP(A58,'3'!$A:$A,'3'!$R:$R)),0,F58)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="16">
+        <f>LOOKUP(A58,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>56</v>
       </c>
@@ -53275,13 +54684,21 @@
       </c>
       <c r="F59" s="15">
         <f>E59/tiempo!$J$14</f>
-        <v>1.6985138004246284E-2</v>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="G59" s="16">
         <v>6</v>
       </c>
+      <c r="I59" s="15">
+        <f>IF(ISBLANK(LOOKUP(A59,'3'!$A:$A,'3'!$R:$R)),0,F59)</f>
+        <v>1.6161616161616162E-2</v>
+      </c>
+      <c r="J59" s="16">
+        <f>LOOKUP(A59,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="60" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
         <v>57</v>
       </c>
@@ -53296,13 +54713,21 @@
       </c>
       <c r="F60" s="15">
         <f>E60/tiempo!$J$14</f>
-        <v>1.6985138004246284E-2</v>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="G60" s="16">
         <v>6</v>
       </c>
+      <c r="I60" s="15">
+        <f>IF(ISBLANK(LOOKUP(A60,'3'!$A:$A,'3'!$R:$R)),0,F60)</f>
+        <v>1.6161616161616162E-2</v>
+      </c>
+      <c r="J60" s="16">
+        <f>LOOKUP(A60,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>7</v>
+      </c>
     </row>
-    <row r="61" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
         <v>58</v>
       </c>
@@ -53321,13 +54746,21 @@
       </c>
       <c r="F61" s="15">
         <f>E61/tiempo!$J$14</f>
-        <v>3.1847133757961783E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="G61" s="16">
         <v>7</v>
       </c>
+      <c r="I61" s="15">
+        <f>IF(ISBLANK(LOOKUP(A61,'3'!$A:$A,'3'!$R:$R)),0,F61)</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="J61" s="16">
+        <f>LOOKUP(A61,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>7</v>
+      </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
         <v>59</v>
       </c>
@@ -53339,13 +54772,21 @@
       </c>
       <c r="F62" s="15">
         <f>E62/tiempo!$J$14</f>
-        <v>1.6985138004246284E-2</v>
+        <v>1.6161616161616162E-2</v>
       </c>
       <c r="G62" s="16">
         <v>7</v>
       </c>
+      <c r="I62" s="15">
+        <f>IF(ISBLANK(LOOKUP(A62,'3'!$A:$A,'3'!$R:$R)),0,F62)</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="16">
+        <f>LOOKUP(A62,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>60</v>
       </c>
@@ -53363,13 +54804,21 @@
       </c>
       <c r="F63" s="15">
         <f>E63/tiempo!$J$14</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="G63" s="16">
         <v>7</v>
       </c>
+      <c r="I63" s="15">
+        <f>IF(ISBLANK(LOOKUP(A63,'3'!$A:$A,'3'!$R:$R)),0,F63)</f>
+        <v>8.0808080808080808E-3</v>
+      </c>
+      <c r="J63" s="16">
+        <f>LOOKUP(A63,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>7</v>
+      </c>
     </row>
-    <row r="64" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
         <v>61</v>
       </c>
@@ -53387,13 +54836,21 @@
       </c>
       <c r="F64" s="15">
         <f>E64/tiempo!$J$14</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="G64" s="16">
         <v>7</v>
       </c>
+      <c r="I64" s="15">
+        <f>IF(ISBLANK(LOOKUP(A64,'3'!$A:$A,'3'!$R:$R)),0,F64)</f>
+        <v>8.0808080808080808E-3</v>
+      </c>
+      <c r="J64" s="16">
+        <f>LOOKUP(A64,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="65" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
         <v>62</v>
       </c>
@@ -53411,13 +54868,21 @@
       </c>
       <c r="F65" s="15">
         <f>E65/tiempo!$J$14</f>
-        <v>1.2738853503184714E-2</v>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="G65" s="16">
         <v>7</v>
       </c>
+      <c r="I65" s="15">
+        <f>IF(ISBLANK(LOOKUP(A65,'3'!$A:$A,'3'!$R:$R)),0,F65)</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="16">
+        <f>LOOKUP(A65,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
         <v>63</v>
       </c>
@@ -53435,13 +54900,21 @@
       </c>
       <c r="F66" s="15">
         <f>E66/tiempo!$J$14</f>
-        <v>3.8216560509554139E-2</v>
+        <v>3.6363636363636362E-2</v>
       </c>
       <c r="G66" s="16">
         <v>7</v>
       </c>
+      <c r="I66" s="15">
+        <f>IF(ISBLANK(LOOKUP(A66,'3'!$A:$A,'3'!$R:$R)),0,F66)</f>
+        <v>3.6363636363636362E-2</v>
+      </c>
+      <c r="J66" s="16">
+        <f>LOOKUP(A66,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="67" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="16">
         <v>64</v>
       </c>
@@ -53459,13 +54932,21 @@
       </c>
       <c r="F67" s="15">
         <f>E67/tiempo!$J$14</f>
-        <v>2.1231422505307855E-3</v>
+        <v>2.0202020202020202E-3</v>
       </c>
       <c r="G67" s="16">
         <v>7</v>
       </c>
+      <c r="I67" s="15">
+        <f>IF(ISBLANK(LOOKUP(A67,'3'!$A:$A,'3'!$R:$R)),0,F67)</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="16">
+        <f>LOOKUP(A67,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A68" s="16">
         <v>65</v>
       </c>
@@ -53483,13 +54964,21 @@
       </c>
       <c r="F68" s="15">
         <f>E68/tiempo!$J$14</f>
-        <v>8.4925690021231421E-3</v>
+        <v>8.0808080808080808E-3</v>
       </c>
       <c r="G68" s="16">
         <v>7</v>
       </c>
+      <c r="I68" s="15">
+        <f>IF(ISBLANK(LOOKUP(A68,'3'!$A:$A,'3'!$R:$R)),0,F68)</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="16">
+        <f>LOOKUP(A68,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1025" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="16">
         <v>66</v>
       </c>
@@ -53507,10 +54996,1117 @@
       </c>
       <c r="F69" s="15">
         <f>E69/tiempo!$J$14</f>
-        <v>2.1231422505307854E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
       <c r="G69" s="16">
         <v>7</v>
+      </c>
+      <c r="I69" s="15">
+        <f>IF(ISBLANK(LOOKUP(A69,'3'!$A:$A,'3'!$R:$R)),0,F69)</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="16">
+        <f>LOOKUP(A69,'3'!$A:$A,'3'!$R:$R)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1025" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="29"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="30"/>
+      <c r="R70" s="30"/>
+      <c r="S70" s="30"/>
+      <c r="T70" s="30"/>
+      <c r="U70" s="30"/>
+      <c r="V70" s="30"/>
+      <c r="W70" s="30"/>
+      <c r="X70" s="30"/>
+      <c r="Y70" s="30"/>
+      <c r="Z70" s="30"/>
+      <c r="AA70" s="30"/>
+      <c r="AB70" s="30"/>
+      <c r="AC70" s="30"/>
+      <c r="AD70" s="30"/>
+      <c r="AE70" s="30"/>
+      <c r="AF70" s="30"/>
+      <c r="AG70" s="30"/>
+      <c r="AH70" s="30"/>
+      <c r="AI70" s="30"/>
+      <c r="AJ70" s="30"/>
+      <c r="AK70" s="30"/>
+      <c r="AL70" s="30"/>
+      <c r="AM70" s="30"/>
+      <c r="AN70" s="30"/>
+      <c r="AO70" s="30"/>
+      <c r="AP70" s="30"/>
+      <c r="AQ70" s="30"/>
+      <c r="AR70" s="30"/>
+      <c r="AS70" s="30"/>
+      <c r="AT70" s="30"/>
+      <c r="AU70" s="30"/>
+      <c r="AV70" s="30"/>
+      <c r="AW70" s="30"/>
+      <c r="AX70" s="30"/>
+      <c r="AY70" s="30"/>
+      <c r="AZ70" s="30"/>
+      <c r="BA70" s="30"/>
+      <c r="BB70" s="30"/>
+      <c r="BC70" s="30"/>
+      <c r="BD70" s="30"/>
+      <c r="BE70" s="30"/>
+      <c r="BF70" s="30"/>
+      <c r="BG70" s="30"/>
+      <c r="BH70" s="30"/>
+      <c r="BI70" s="30"/>
+      <c r="BJ70" s="30"/>
+      <c r="BK70" s="30"/>
+      <c r="BL70" s="30"/>
+      <c r="BM70" s="30"/>
+      <c r="BN70" s="30"/>
+      <c r="BO70" s="30"/>
+      <c r="BP70" s="30"/>
+      <c r="BQ70" s="30"/>
+      <c r="BR70" s="30"/>
+      <c r="BS70" s="30"/>
+      <c r="BT70" s="30"/>
+      <c r="BU70" s="30"/>
+      <c r="BV70" s="30"/>
+      <c r="BW70" s="30"/>
+      <c r="BX70" s="30"/>
+      <c r="BY70" s="30"/>
+      <c r="BZ70" s="30"/>
+      <c r="CA70" s="30"/>
+      <c r="CB70" s="30"/>
+      <c r="CC70" s="30"/>
+      <c r="CD70" s="30"/>
+      <c r="CE70" s="30"/>
+      <c r="CF70" s="30"/>
+      <c r="CG70" s="30"/>
+      <c r="CH70" s="30"/>
+      <c r="CI70" s="30"/>
+      <c r="CJ70" s="30"/>
+      <c r="CK70" s="30"/>
+      <c r="CL70" s="30"/>
+      <c r="CM70" s="30"/>
+      <c r="CN70" s="30"/>
+      <c r="CO70" s="30"/>
+      <c r="CP70" s="30"/>
+      <c r="CQ70" s="30"/>
+      <c r="CR70" s="30"/>
+      <c r="CS70" s="30"/>
+      <c r="CT70" s="30"/>
+      <c r="CU70" s="30"/>
+      <c r="CV70" s="30"/>
+      <c r="CW70" s="30"/>
+      <c r="CX70" s="30"/>
+      <c r="CY70" s="30"/>
+      <c r="CZ70" s="30"/>
+      <c r="DA70" s="30"/>
+      <c r="DB70" s="30"/>
+      <c r="DC70" s="30"/>
+      <c r="DD70" s="30"/>
+      <c r="DE70" s="30"/>
+      <c r="DF70" s="30"/>
+      <c r="DG70" s="30"/>
+      <c r="DH70" s="30"/>
+      <c r="DI70" s="30"/>
+      <c r="DJ70" s="30"/>
+      <c r="DK70" s="30"/>
+      <c r="DL70" s="30"/>
+      <c r="DM70" s="30"/>
+      <c r="DN70" s="30"/>
+      <c r="DO70" s="30"/>
+      <c r="DP70" s="30"/>
+      <c r="DQ70" s="30"/>
+      <c r="DR70" s="30"/>
+      <c r="DS70" s="30"/>
+      <c r="DT70" s="30"/>
+      <c r="DU70" s="30"/>
+      <c r="DV70" s="30"/>
+      <c r="DW70" s="30"/>
+      <c r="DX70" s="30"/>
+      <c r="DY70" s="30"/>
+      <c r="DZ70" s="30"/>
+      <c r="EA70" s="30"/>
+      <c r="EB70" s="30"/>
+      <c r="EC70" s="30"/>
+      <c r="ED70" s="30"/>
+      <c r="EE70" s="30"/>
+      <c r="EF70" s="30"/>
+      <c r="EG70" s="30"/>
+      <c r="EH70" s="30"/>
+      <c r="EI70" s="30"/>
+      <c r="EJ70" s="30"/>
+      <c r="EK70" s="30"/>
+      <c r="EL70" s="30"/>
+      <c r="EM70" s="30"/>
+      <c r="EN70" s="30"/>
+      <c r="EO70" s="30"/>
+      <c r="EP70" s="30"/>
+      <c r="EQ70" s="30"/>
+      <c r="ER70" s="30"/>
+      <c r="ES70" s="30"/>
+      <c r="ET70" s="30"/>
+      <c r="EU70" s="30"/>
+      <c r="EV70" s="30"/>
+      <c r="EW70" s="30"/>
+      <c r="EX70" s="30"/>
+      <c r="EY70" s="30"/>
+      <c r="EZ70" s="30"/>
+      <c r="FA70" s="30"/>
+      <c r="FB70" s="30"/>
+      <c r="FC70" s="30"/>
+      <c r="FD70" s="30"/>
+      <c r="FE70" s="30"/>
+      <c r="FF70" s="30"/>
+      <c r="FG70" s="30"/>
+      <c r="FH70" s="30"/>
+      <c r="FI70" s="30"/>
+      <c r="FJ70" s="30"/>
+      <c r="FK70" s="30"/>
+      <c r="FL70" s="30"/>
+      <c r="FM70" s="30"/>
+      <c r="FN70" s="30"/>
+      <c r="FO70" s="30"/>
+      <c r="FP70" s="30"/>
+      <c r="FQ70" s="30"/>
+      <c r="FR70" s="30"/>
+      <c r="FS70" s="30"/>
+      <c r="FT70" s="30"/>
+      <c r="FU70" s="30"/>
+      <c r="FV70" s="30"/>
+      <c r="FW70" s="30"/>
+      <c r="FX70" s="30"/>
+      <c r="FY70" s="30"/>
+      <c r="FZ70" s="30"/>
+      <c r="GA70" s="30"/>
+      <c r="GB70" s="30"/>
+      <c r="GC70" s="30"/>
+      <c r="GD70" s="30"/>
+      <c r="GE70" s="30"/>
+      <c r="GF70" s="30"/>
+      <c r="GG70" s="30"/>
+      <c r="GH70" s="30"/>
+      <c r="GI70" s="30"/>
+      <c r="GJ70" s="30"/>
+      <c r="GK70" s="30"/>
+      <c r="GL70" s="30"/>
+      <c r="GM70" s="30"/>
+      <c r="GN70" s="30"/>
+      <c r="GO70" s="30"/>
+      <c r="GP70" s="30"/>
+      <c r="GQ70" s="30"/>
+      <c r="GR70" s="30"/>
+      <c r="GS70" s="30"/>
+      <c r="GT70" s="30"/>
+      <c r="GU70" s="30"/>
+      <c r="GV70" s="30"/>
+      <c r="GW70" s="30"/>
+      <c r="GX70" s="30"/>
+      <c r="GY70" s="30"/>
+      <c r="GZ70" s="30"/>
+      <c r="HA70" s="30"/>
+      <c r="HB70" s="30"/>
+      <c r="HC70" s="30"/>
+      <c r="HD70" s="30"/>
+      <c r="HE70" s="30"/>
+      <c r="HF70" s="30"/>
+      <c r="HG70" s="30"/>
+      <c r="HH70" s="30"/>
+      <c r="HI70" s="30"/>
+      <c r="HJ70" s="30"/>
+      <c r="HK70" s="30"/>
+      <c r="HL70" s="30"/>
+      <c r="HM70" s="30"/>
+      <c r="HN70" s="30"/>
+      <c r="HO70" s="30"/>
+      <c r="HP70" s="30"/>
+      <c r="HQ70" s="30"/>
+      <c r="HR70" s="30"/>
+      <c r="HS70" s="30"/>
+      <c r="HT70" s="30"/>
+      <c r="HU70" s="30"/>
+      <c r="HV70" s="30"/>
+      <c r="HW70" s="30"/>
+      <c r="HX70" s="30"/>
+      <c r="HY70" s="30"/>
+      <c r="HZ70" s="30"/>
+      <c r="IA70" s="30"/>
+      <c r="IB70" s="30"/>
+      <c r="IC70" s="30"/>
+      <c r="ID70" s="30"/>
+      <c r="IE70" s="30"/>
+      <c r="IF70" s="30"/>
+      <c r="IG70" s="30"/>
+      <c r="IH70" s="30"/>
+      <c r="II70" s="30"/>
+      <c r="IJ70" s="30"/>
+      <c r="IK70" s="30"/>
+      <c r="IL70" s="30"/>
+      <c r="IM70" s="30"/>
+      <c r="IN70" s="30"/>
+      <c r="IO70" s="30"/>
+      <c r="IP70" s="30"/>
+      <c r="IQ70" s="30"/>
+      <c r="IR70" s="30"/>
+      <c r="IS70" s="30"/>
+      <c r="IT70" s="30"/>
+      <c r="IU70" s="30"/>
+      <c r="IV70" s="30"/>
+      <c r="IW70" s="30"/>
+      <c r="IX70" s="30"/>
+      <c r="IY70" s="30"/>
+      <c r="IZ70" s="30"/>
+      <c r="JA70" s="30"/>
+      <c r="JB70" s="30"/>
+      <c r="JC70" s="30"/>
+      <c r="JD70" s="30"/>
+      <c r="JE70" s="30"/>
+      <c r="JF70" s="30"/>
+      <c r="JG70" s="30"/>
+      <c r="JH70" s="30"/>
+      <c r="JI70" s="30"/>
+      <c r="JJ70" s="30"/>
+      <c r="JK70" s="30"/>
+      <c r="JL70" s="30"/>
+      <c r="JM70" s="30"/>
+      <c r="JN70" s="30"/>
+      <c r="JO70" s="30"/>
+      <c r="JP70" s="30"/>
+      <c r="JQ70" s="30"/>
+      <c r="JR70" s="30"/>
+      <c r="JS70" s="30"/>
+      <c r="JT70" s="30"/>
+      <c r="JU70" s="30"/>
+      <c r="JV70" s="30"/>
+      <c r="JW70" s="30"/>
+      <c r="JX70" s="30"/>
+      <c r="JY70" s="30"/>
+      <c r="JZ70" s="30"/>
+      <c r="KA70" s="30"/>
+      <c r="KB70" s="30"/>
+      <c r="KC70" s="30"/>
+      <c r="KD70" s="30"/>
+      <c r="KE70" s="30"/>
+      <c r="KF70" s="30"/>
+      <c r="KG70" s="30"/>
+      <c r="KH70" s="30"/>
+      <c r="KI70" s="30"/>
+      <c r="KJ70" s="30"/>
+      <c r="KK70" s="30"/>
+      <c r="KL70" s="30"/>
+      <c r="KM70" s="30"/>
+      <c r="KN70" s="30"/>
+      <c r="KO70" s="30"/>
+      <c r="KP70" s="30"/>
+      <c r="KQ70" s="30"/>
+      <c r="KR70" s="30"/>
+      <c r="KS70" s="30"/>
+      <c r="KT70" s="30"/>
+      <c r="KU70" s="30"/>
+      <c r="KV70" s="30"/>
+      <c r="KW70" s="30"/>
+      <c r="KX70" s="30"/>
+      <c r="KY70" s="30"/>
+      <c r="KZ70" s="30"/>
+      <c r="LA70" s="30"/>
+      <c r="LB70" s="30"/>
+      <c r="LC70" s="30"/>
+      <c r="LD70" s="30"/>
+      <c r="LE70" s="30"/>
+      <c r="LF70" s="30"/>
+      <c r="LG70" s="30"/>
+      <c r="LH70" s="30"/>
+      <c r="LI70" s="30"/>
+      <c r="LJ70" s="30"/>
+      <c r="LK70" s="30"/>
+      <c r="LL70" s="30"/>
+      <c r="LM70" s="30"/>
+      <c r="LN70" s="30"/>
+      <c r="LO70" s="30"/>
+      <c r="LP70" s="30"/>
+      <c r="LQ70" s="30"/>
+      <c r="LR70" s="30"/>
+      <c r="LS70" s="30"/>
+      <c r="LT70" s="30"/>
+      <c r="LU70" s="30"/>
+      <c r="LV70" s="30"/>
+      <c r="LW70" s="30"/>
+      <c r="LX70" s="30"/>
+      <c r="LY70" s="30"/>
+      <c r="LZ70" s="30"/>
+      <c r="MA70" s="30"/>
+      <c r="MB70" s="30"/>
+      <c r="MC70" s="30"/>
+      <c r="MD70" s="30"/>
+      <c r="ME70" s="30"/>
+      <c r="MF70" s="30"/>
+      <c r="MG70" s="30"/>
+      <c r="MH70" s="30"/>
+      <c r="MI70" s="30"/>
+      <c r="MJ70" s="30"/>
+      <c r="MK70" s="30"/>
+      <c r="ML70" s="30"/>
+      <c r="MM70" s="30"/>
+      <c r="MN70" s="30"/>
+      <c r="MO70" s="30"/>
+      <c r="MP70" s="30"/>
+      <c r="MQ70" s="30"/>
+      <c r="MR70" s="30"/>
+      <c r="MS70" s="30"/>
+      <c r="MT70" s="30"/>
+      <c r="MU70" s="30"/>
+      <c r="MV70" s="30"/>
+      <c r="MW70" s="30"/>
+      <c r="MX70" s="30"/>
+      <c r="MY70" s="30"/>
+      <c r="MZ70" s="30"/>
+      <c r="NA70" s="30"/>
+      <c r="NB70" s="30"/>
+      <c r="NC70" s="30"/>
+      <c r="ND70" s="30"/>
+      <c r="NE70" s="30"/>
+      <c r="NF70" s="30"/>
+      <c r="NG70" s="30"/>
+      <c r="NH70" s="30"/>
+      <c r="NI70" s="30"/>
+      <c r="NJ70" s="30"/>
+      <c r="NK70" s="30"/>
+      <c r="NL70" s="30"/>
+      <c r="NM70" s="30"/>
+      <c r="NN70" s="30"/>
+      <c r="NO70" s="30"/>
+      <c r="NP70" s="30"/>
+      <c r="NQ70" s="30"/>
+      <c r="NR70" s="30"/>
+      <c r="NS70" s="30"/>
+      <c r="NT70" s="30"/>
+      <c r="NU70" s="30"/>
+      <c r="NV70" s="30"/>
+      <c r="NW70" s="30"/>
+      <c r="NX70" s="30"/>
+      <c r="NY70" s="30"/>
+      <c r="NZ70" s="30"/>
+      <c r="OA70" s="30"/>
+      <c r="OB70" s="30"/>
+      <c r="OC70" s="30"/>
+      <c r="OD70" s="30"/>
+      <c r="OE70" s="30"/>
+      <c r="OF70" s="30"/>
+      <c r="OG70" s="30"/>
+      <c r="OH70" s="30"/>
+      <c r="OI70" s="30"/>
+      <c r="OJ70" s="30"/>
+      <c r="OK70" s="30"/>
+      <c r="OL70" s="30"/>
+      <c r="OM70" s="30"/>
+      <c r="ON70" s="30"/>
+      <c r="OO70" s="30"/>
+      <c r="OP70" s="30"/>
+      <c r="OQ70" s="30"/>
+      <c r="OR70" s="30"/>
+      <c r="OS70" s="30"/>
+      <c r="OT70" s="30"/>
+      <c r="OU70" s="30"/>
+      <c r="OV70" s="30"/>
+      <c r="OW70" s="30"/>
+      <c r="OX70" s="30"/>
+      <c r="OY70" s="30"/>
+      <c r="OZ70" s="30"/>
+      <c r="PA70" s="30"/>
+      <c r="PB70" s="30"/>
+      <c r="PC70" s="30"/>
+      <c r="PD70" s="30"/>
+      <c r="PE70" s="30"/>
+      <c r="PF70" s="30"/>
+      <c r="PG70" s="30"/>
+      <c r="PH70" s="30"/>
+      <c r="PI70" s="30"/>
+      <c r="PJ70" s="30"/>
+      <c r="PK70" s="30"/>
+      <c r="PL70" s="30"/>
+      <c r="PM70" s="30"/>
+      <c r="PN70" s="30"/>
+      <c r="PO70" s="30"/>
+      <c r="PP70" s="30"/>
+      <c r="PQ70" s="30"/>
+      <c r="PR70" s="30"/>
+      <c r="PS70" s="30"/>
+      <c r="PT70" s="30"/>
+      <c r="PU70" s="30"/>
+      <c r="PV70" s="30"/>
+      <c r="PW70" s="30"/>
+      <c r="PX70" s="30"/>
+      <c r="PY70" s="30"/>
+      <c r="PZ70" s="30"/>
+      <c r="QA70" s="30"/>
+      <c r="QB70" s="30"/>
+      <c r="QC70" s="30"/>
+      <c r="QD70" s="30"/>
+      <c r="QE70" s="30"/>
+      <c r="QF70" s="30"/>
+      <c r="QG70" s="30"/>
+      <c r="QH70" s="30"/>
+      <c r="QI70" s="30"/>
+      <c r="QJ70" s="30"/>
+      <c r="QK70" s="30"/>
+      <c r="QL70" s="30"/>
+      <c r="QM70" s="30"/>
+      <c r="QN70" s="30"/>
+      <c r="QO70" s="30"/>
+      <c r="QP70" s="30"/>
+      <c r="QQ70" s="30"/>
+      <c r="QR70" s="30"/>
+      <c r="QS70" s="30"/>
+      <c r="QT70" s="30"/>
+      <c r="QU70" s="30"/>
+      <c r="QV70" s="30"/>
+      <c r="QW70" s="30"/>
+      <c r="QX70" s="30"/>
+      <c r="QY70" s="30"/>
+      <c r="QZ70" s="30"/>
+      <c r="RA70" s="30"/>
+      <c r="RB70" s="30"/>
+      <c r="RC70" s="30"/>
+      <c r="RD70" s="30"/>
+      <c r="RE70" s="30"/>
+      <c r="RF70" s="30"/>
+      <c r="RG70" s="30"/>
+      <c r="RH70" s="30"/>
+      <c r="RI70" s="30"/>
+      <c r="RJ70" s="30"/>
+      <c r="RK70" s="30"/>
+      <c r="RL70" s="30"/>
+      <c r="RM70" s="30"/>
+      <c r="RN70" s="30"/>
+      <c r="RO70" s="30"/>
+      <c r="RP70" s="30"/>
+      <c r="RQ70" s="30"/>
+      <c r="RR70" s="30"/>
+      <c r="RS70" s="30"/>
+      <c r="RT70" s="30"/>
+      <c r="RU70" s="30"/>
+      <c r="RV70" s="30"/>
+      <c r="RW70" s="30"/>
+      <c r="RX70" s="30"/>
+      <c r="RY70" s="30"/>
+      <c r="RZ70" s="30"/>
+      <c r="SA70" s="30"/>
+      <c r="SB70" s="30"/>
+      <c r="SC70" s="30"/>
+      <c r="SD70" s="30"/>
+      <c r="SE70" s="30"/>
+      <c r="SF70" s="30"/>
+      <c r="SG70" s="30"/>
+      <c r="SH70" s="30"/>
+      <c r="SI70" s="30"/>
+      <c r="SJ70" s="30"/>
+      <c r="SK70" s="30"/>
+      <c r="SL70" s="30"/>
+      <c r="SM70" s="30"/>
+      <c r="SN70" s="30"/>
+      <c r="SO70" s="30"/>
+      <c r="SP70" s="30"/>
+      <c r="SQ70" s="30"/>
+      <c r="SR70" s="30"/>
+      <c r="SS70" s="30"/>
+      <c r="ST70" s="30"/>
+      <c r="SU70" s="30"/>
+      <c r="SV70" s="30"/>
+      <c r="SW70" s="30"/>
+      <c r="SX70" s="30"/>
+      <c r="SY70" s="30"/>
+      <c r="SZ70" s="30"/>
+      <c r="TA70" s="30"/>
+      <c r="TB70" s="30"/>
+      <c r="TC70" s="30"/>
+      <c r="TD70" s="30"/>
+      <c r="TE70" s="30"/>
+      <c r="TF70" s="30"/>
+      <c r="TG70" s="30"/>
+      <c r="TH70" s="30"/>
+      <c r="TI70" s="30"/>
+      <c r="TJ70" s="30"/>
+      <c r="TK70" s="30"/>
+      <c r="TL70" s="30"/>
+      <c r="TM70" s="30"/>
+      <c r="TN70" s="30"/>
+      <c r="TO70" s="30"/>
+      <c r="TP70" s="30"/>
+      <c r="TQ70" s="30"/>
+      <c r="TR70" s="30"/>
+      <c r="TS70" s="30"/>
+      <c r="TT70" s="30"/>
+      <c r="TU70" s="30"/>
+      <c r="TV70" s="30"/>
+      <c r="TW70" s="30"/>
+      <c r="TX70" s="30"/>
+      <c r="TY70" s="30"/>
+      <c r="TZ70" s="30"/>
+      <c r="UA70" s="30"/>
+      <c r="UB70" s="30"/>
+      <c r="UC70" s="30"/>
+      <c r="UD70" s="30"/>
+      <c r="UE70" s="30"/>
+      <c r="UF70" s="30"/>
+      <c r="UG70" s="30"/>
+      <c r="UH70" s="30"/>
+      <c r="UI70" s="30"/>
+      <c r="UJ70" s="30"/>
+      <c r="UK70" s="30"/>
+      <c r="UL70" s="30"/>
+      <c r="UM70" s="30"/>
+      <c r="UN70" s="30"/>
+      <c r="UO70" s="30"/>
+      <c r="UP70" s="30"/>
+      <c r="UQ70" s="30"/>
+      <c r="UR70" s="30"/>
+      <c r="US70" s="30"/>
+      <c r="UT70" s="30"/>
+      <c r="UU70" s="30"/>
+      <c r="UV70" s="30"/>
+      <c r="UW70" s="30"/>
+      <c r="UX70" s="30"/>
+      <c r="UY70" s="30"/>
+      <c r="UZ70" s="30"/>
+      <c r="VA70" s="30"/>
+      <c r="VB70" s="30"/>
+      <c r="VC70" s="30"/>
+      <c r="VD70" s="30"/>
+      <c r="VE70" s="30"/>
+      <c r="VF70" s="30"/>
+      <c r="VG70" s="30"/>
+      <c r="VH70" s="30"/>
+      <c r="VI70" s="30"/>
+      <c r="VJ70" s="30"/>
+      <c r="VK70" s="30"/>
+      <c r="VL70" s="30"/>
+      <c r="VM70" s="30"/>
+      <c r="VN70" s="30"/>
+      <c r="VO70" s="30"/>
+      <c r="VP70" s="30"/>
+      <c r="VQ70" s="30"/>
+      <c r="VR70" s="30"/>
+      <c r="VS70" s="30"/>
+      <c r="VT70" s="30"/>
+      <c r="VU70" s="30"/>
+      <c r="VV70" s="30"/>
+      <c r="VW70" s="30"/>
+      <c r="VX70" s="30"/>
+      <c r="VY70" s="30"/>
+      <c r="VZ70" s="30"/>
+      <c r="WA70" s="30"/>
+      <c r="WB70" s="30"/>
+      <c r="WC70" s="30"/>
+      <c r="WD70" s="30"/>
+      <c r="WE70" s="30"/>
+      <c r="WF70" s="30"/>
+      <c r="WG70" s="30"/>
+      <c r="WH70" s="30"/>
+      <c r="WI70" s="30"/>
+      <c r="WJ70" s="30"/>
+      <c r="WK70" s="30"/>
+      <c r="WL70" s="30"/>
+      <c r="WM70" s="30"/>
+      <c r="WN70" s="30"/>
+      <c r="WO70" s="30"/>
+      <c r="WP70" s="30"/>
+      <c r="WQ70" s="30"/>
+      <c r="WR70" s="30"/>
+      <c r="WS70" s="30"/>
+      <c r="WT70" s="30"/>
+      <c r="WU70" s="30"/>
+      <c r="WV70" s="30"/>
+      <c r="WW70" s="30"/>
+      <c r="WX70" s="30"/>
+      <c r="WY70" s="30"/>
+      <c r="WZ70" s="30"/>
+      <c r="XA70" s="30"/>
+      <c r="XB70" s="30"/>
+      <c r="XC70" s="30"/>
+      <c r="XD70" s="30"/>
+      <c r="XE70" s="30"/>
+      <c r="XF70" s="30"/>
+      <c r="XG70" s="30"/>
+      <c r="XH70" s="30"/>
+      <c r="XI70" s="30"/>
+      <c r="XJ70" s="30"/>
+      <c r="XK70" s="30"/>
+      <c r="XL70" s="30"/>
+      <c r="XM70" s="30"/>
+      <c r="XN70" s="30"/>
+      <c r="XO70" s="30"/>
+      <c r="XP70" s="30"/>
+      <c r="XQ70" s="30"/>
+      <c r="XR70" s="30"/>
+      <c r="XS70" s="30"/>
+      <c r="XT70" s="30"/>
+      <c r="XU70" s="30"/>
+      <c r="XV70" s="30"/>
+      <c r="XW70" s="30"/>
+      <c r="XX70" s="30"/>
+      <c r="XY70" s="30"/>
+      <c r="XZ70" s="30"/>
+      <c r="YA70" s="30"/>
+      <c r="YB70" s="30"/>
+      <c r="YC70" s="30"/>
+      <c r="YD70" s="30"/>
+      <c r="YE70" s="30"/>
+      <c r="YF70" s="30"/>
+      <c r="YG70" s="30"/>
+      <c r="YH70" s="30"/>
+      <c r="YI70" s="30"/>
+      <c r="YJ70" s="30"/>
+      <c r="YK70" s="30"/>
+      <c r="YL70" s="30"/>
+      <c r="YM70" s="30"/>
+      <c r="YN70" s="30"/>
+      <c r="YO70" s="30"/>
+      <c r="YP70" s="30"/>
+      <c r="YQ70" s="30"/>
+      <c r="YR70" s="30"/>
+      <c r="YS70" s="30"/>
+      <c r="YT70" s="30"/>
+      <c r="YU70" s="30"/>
+      <c r="YV70" s="30"/>
+      <c r="YW70" s="30"/>
+      <c r="YX70" s="30"/>
+      <c r="YY70" s="30"/>
+      <c r="YZ70" s="30"/>
+      <c r="ZA70" s="30"/>
+      <c r="ZB70" s="30"/>
+      <c r="ZC70" s="30"/>
+      <c r="ZD70" s="30"/>
+      <c r="ZE70" s="30"/>
+      <c r="ZF70" s="30"/>
+      <c r="ZG70" s="30"/>
+      <c r="ZH70" s="30"/>
+      <c r="ZI70" s="30"/>
+      <c r="ZJ70" s="30"/>
+      <c r="ZK70" s="30"/>
+      <c r="ZL70" s="30"/>
+      <c r="ZM70" s="30"/>
+      <c r="ZN70" s="30"/>
+      <c r="ZO70" s="30"/>
+      <c r="ZP70" s="30"/>
+      <c r="ZQ70" s="30"/>
+      <c r="ZR70" s="30"/>
+      <c r="ZS70" s="30"/>
+      <c r="ZT70" s="30"/>
+      <c r="ZU70" s="30"/>
+      <c r="ZV70" s="30"/>
+      <c r="ZW70" s="30"/>
+      <c r="ZX70" s="30"/>
+      <c r="ZY70" s="30"/>
+      <c r="ZZ70" s="30"/>
+      <c r="AAA70" s="30"/>
+      <c r="AAB70" s="30"/>
+      <c r="AAC70" s="30"/>
+      <c r="AAD70" s="30"/>
+      <c r="AAE70" s="30"/>
+      <c r="AAF70" s="30"/>
+      <c r="AAG70" s="30"/>
+      <c r="AAH70" s="30"/>
+      <c r="AAI70" s="30"/>
+      <c r="AAJ70" s="30"/>
+      <c r="AAK70" s="30"/>
+      <c r="AAL70" s="30"/>
+      <c r="AAM70" s="30"/>
+      <c r="AAN70" s="30"/>
+      <c r="AAO70" s="30"/>
+      <c r="AAP70" s="30"/>
+      <c r="AAQ70" s="30"/>
+      <c r="AAR70" s="30"/>
+      <c r="AAS70" s="30"/>
+      <c r="AAT70" s="30"/>
+      <c r="AAU70" s="30"/>
+      <c r="AAV70" s="30"/>
+      <c r="AAW70" s="30"/>
+      <c r="AAX70" s="30"/>
+      <c r="AAY70" s="30"/>
+      <c r="AAZ70" s="30"/>
+      <c r="ABA70" s="30"/>
+      <c r="ABB70" s="30"/>
+      <c r="ABC70" s="30"/>
+      <c r="ABD70" s="30"/>
+      <c r="ABE70" s="30"/>
+      <c r="ABF70" s="30"/>
+      <c r="ABG70" s="30"/>
+      <c r="ABH70" s="30"/>
+      <c r="ABI70" s="30"/>
+      <c r="ABJ70" s="30"/>
+      <c r="ABK70" s="30"/>
+      <c r="ABL70" s="30"/>
+      <c r="ABM70" s="30"/>
+      <c r="ABN70" s="30"/>
+      <c r="ABO70" s="30"/>
+      <c r="ABP70" s="30"/>
+      <c r="ABQ70" s="30"/>
+      <c r="ABR70" s="30"/>
+      <c r="ABS70" s="30"/>
+      <c r="ABT70" s="30"/>
+      <c r="ABU70" s="30"/>
+      <c r="ABV70" s="30"/>
+      <c r="ABW70" s="30"/>
+      <c r="ABX70" s="30"/>
+      <c r="ABY70" s="30"/>
+      <c r="ABZ70" s="30"/>
+      <c r="ACA70" s="30"/>
+      <c r="ACB70" s="30"/>
+      <c r="ACC70" s="30"/>
+      <c r="ACD70" s="30"/>
+      <c r="ACE70" s="30"/>
+      <c r="ACF70" s="30"/>
+      <c r="ACG70" s="30"/>
+      <c r="ACH70" s="30"/>
+      <c r="ACI70" s="30"/>
+      <c r="ACJ70" s="30"/>
+      <c r="ACK70" s="30"/>
+      <c r="ACL70" s="30"/>
+      <c r="ACM70" s="30"/>
+      <c r="ACN70" s="30"/>
+      <c r="ACO70" s="30"/>
+      <c r="ACP70" s="30"/>
+      <c r="ACQ70" s="30"/>
+      <c r="ACR70" s="30"/>
+      <c r="ACS70" s="30"/>
+      <c r="ACT70" s="30"/>
+      <c r="ACU70" s="30"/>
+      <c r="ACV70" s="30"/>
+      <c r="ACW70" s="30"/>
+      <c r="ACX70" s="30"/>
+      <c r="ACY70" s="30"/>
+      <c r="ACZ70" s="30"/>
+      <c r="ADA70" s="30"/>
+      <c r="ADB70" s="30"/>
+      <c r="ADC70" s="30"/>
+      <c r="ADD70" s="30"/>
+      <c r="ADE70" s="30"/>
+      <c r="ADF70" s="30"/>
+      <c r="ADG70" s="30"/>
+      <c r="ADH70" s="30"/>
+      <c r="ADI70" s="30"/>
+      <c r="ADJ70" s="30"/>
+      <c r="ADK70" s="30"/>
+      <c r="ADL70" s="30"/>
+      <c r="ADM70" s="30"/>
+      <c r="ADN70" s="30"/>
+      <c r="ADO70" s="30"/>
+      <c r="ADP70" s="30"/>
+      <c r="ADQ70" s="30"/>
+      <c r="ADR70" s="30"/>
+      <c r="ADS70" s="30"/>
+      <c r="ADT70" s="30"/>
+      <c r="ADU70" s="30"/>
+      <c r="ADV70" s="30"/>
+      <c r="ADW70" s="30"/>
+      <c r="ADX70" s="30"/>
+      <c r="ADY70" s="30"/>
+      <c r="ADZ70" s="30"/>
+      <c r="AEA70" s="30"/>
+      <c r="AEB70" s="30"/>
+      <c r="AEC70" s="30"/>
+      <c r="AED70" s="30"/>
+      <c r="AEE70" s="30"/>
+      <c r="AEF70" s="30"/>
+      <c r="AEG70" s="30"/>
+      <c r="AEH70" s="30"/>
+      <c r="AEI70" s="30"/>
+      <c r="AEJ70" s="30"/>
+      <c r="AEK70" s="30"/>
+      <c r="AEL70" s="30"/>
+      <c r="AEM70" s="30"/>
+      <c r="AEN70" s="30"/>
+      <c r="AEO70" s="30"/>
+      <c r="AEP70" s="30"/>
+      <c r="AEQ70" s="30"/>
+      <c r="AER70" s="30"/>
+      <c r="AES70" s="30"/>
+      <c r="AET70" s="30"/>
+      <c r="AEU70" s="30"/>
+      <c r="AEV70" s="30"/>
+      <c r="AEW70" s="30"/>
+      <c r="AEX70" s="30"/>
+      <c r="AEY70" s="30"/>
+      <c r="AEZ70" s="30"/>
+      <c r="AFA70" s="30"/>
+      <c r="AFB70" s="30"/>
+      <c r="AFC70" s="30"/>
+      <c r="AFD70" s="30"/>
+      <c r="AFE70" s="30"/>
+      <c r="AFF70" s="30"/>
+      <c r="AFG70" s="30"/>
+      <c r="AFH70" s="30"/>
+      <c r="AFI70" s="30"/>
+      <c r="AFJ70" s="30"/>
+      <c r="AFK70" s="30"/>
+      <c r="AFL70" s="30"/>
+      <c r="AFM70" s="30"/>
+      <c r="AFN70" s="30"/>
+      <c r="AFO70" s="30"/>
+      <c r="AFP70" s="30"/>
+      <c r="AFQ70" s="30"/>
+      <c r="AFR70" s="30"/>
+      <c r="AFS70" s="30"/>
+      <c r="AFT70" s="30"/>
+      <c r="AFU70" s="30"/>
+      <c r="AFV70" s="30"/>
+      <c r="AFW70" s="30"/>
+      <c r="AFX70" s="30"/>
+      <c r="AFY70" s="30"/>
+      <c r="AFZ70" s="30"/>
+      <c r="AGA70" s="30"/>
+      <c r="AGB70" s="30"/>
+      <c r="AGC70" s="30"/>
+      <c r="AGD70" s="30"/>
+      <c r="AGE70" s="30"/>
+      <c r="AGF70" s="30"/>
+      <c r="AGG70" s="30"/>
+      <c r="AGH70" s="30"/>
+      <c r="AGI70" s="30"/>
+      <c r="AGJ70" s="30"/>
+      <c r="AGK70" s="30"/>
+      <c r="AGL70" s="30"/>
+      <c r="AGM70" s="30"/>
+      <c r="AGN70" s="30"/>
+      <c r="AGO70" s="30"/>
+      <c r="AGP70" s="30"/>
+      <c r="AGQ70" s="30"/>
+      <c r="AGR70" s="30"/>
+      <c r="AGS70" s="30"/>
+      <c r="AGT70" s="30"/>
+      <c r="AGU70" s="30"/>
+      <c r="AGV70" s="30"/>
+      <c r="AGW70" s="30"/>
+      <c r="AGX70" s="30"/>
+      <c r="AGY70" s="30"/>
+      <c r="AGZ70" s="30"/>
+      <c r="AHA70" s="30"/>
+      <c r="AHB70" s="30"/>
+      <c r="AHC70" s="30"/>
+      <c r="AHD70" s="30"/>
+      <c r="AHE70" s="30"/>
+      <c r="AHF70" s="30"/>
+      <c r="AHG70" s="30"/>
+      <c r="AHH70" s="30"/>
+      <c r="AHI70" s="30"/>
+      <c r="AHJ70" s="30"/>
+      <c r="AHK70" s="30"/>
+      <c r="AHL70" s="30"/>
+      <c r="AHM70" s="30"/>
+      <c r="AHN70" s="30"/>
+      <c r="AHO70" s="30"/>
+      <c r="AHP70" s="30"/>
+      <c r="AHQ70" s="30"/>
+      <c r="AHR70" s="30"/>
+      <c r="AHS70" s="30"/>
+      <c r="AHT70" s="30"/>
+      <c r="AHU70" s="30"/>
+      <c r="AHV70" s="30"/>
+      <c r="AHW70" s="30"/>
+      <c r="AHX70" s="30"/>
+      <c r="AHY70" s="30"/>
+      <c r="AHZ70" s="30"/>
+      <c r="AIA70" s="30"/>
+      <c r="AIB70" s="30"/>
+      <c r="AIC70" s="30"/>
+      <c r="AID70" s="30"/>
+      <c r="AIE70" s="30"/>
+      <c r="AIF70" s="30"/>
+      <c r="AIG70" s="30"/>
+      <c r="AIH70" s="30"/>
+      <c r="AII70" s="30"/>
+      <c r="AIJ70" s="30"/>
+      <c r="AIK70" s="30"/>
+      <c r="AIL70" s="30"/>
+      <c r="AIM70" s="30"/>
+      <c r="AIN70" s="30"/>
+      <c r="AIO70" s="30"/>
+      <c r="AIP70" s="30"/>
+      <c r="AIQ70" s="30"/>
+      <c r="AIR70" s="30"/>
+      <c r="AIS70" s="30"/>
+      <c r="AIT70" s="30"/>
+      <c r="AIU70" s="30"/>
+      <c r="AIV70" s="30"/>
+      <c r="AIW70" s="30"/>
+      <c r="AIX70" s="30"/>
+      <c r="AIY70" s="30"/>
+      <c r="AIZ70" s="30"/>
+      <c r="AJA70" s="30"/>
+      <c r="AJB70" s="30"/>
+      <c r="AJC70" s="30"/>
+      <c r="AJD70" s="30"/>
+      <c r="AJE70" s="30"/>
+      <c r="AJF70" s="30"/>
+      <c r="AJG70" s="30"/>
+      <c r="AJH70" s="30"/>
+      <c r="AJI70" s="30"/>
+      <c r="AJJ70" s="30"/>
+      <c r="AJK70" s="30"/>
+      <c r="AJL70" s="30"/>
+      <c r="AJM70" s="30"/>
+      <c r="AJN70" s="30"/>
+      <c r="AJO70" s="30"/>
+      <c r="AJP70" s="30"/>
+      <c r="AJQ70" s="30"/>
+      <c r="AJR70" s="30"/>
+      <c r="AJS70" s="30"/>
+      <c r="AJT70" s="30"/>
+      <c r="AJU70" s="30"/>
+      <c r="AJV70" s="30"/>
+      <c r="AJW70" s="30"/>
+      <c r="AJX70" s="30"/>
+      <c r="AJY70" s="30"/>
+      <c r="AJZ70" s="30"/>
+      <c r="AKA70" s="30"/>
+      <c r="AKB70" s="30"/>
+      <c r="AKC70" s="30"/>
+      <c r="AKD70" s="30"/>
+      <c r="AKE70" s="30"/>
+      <c r="AKF70" s="30"/>
+      <c r="AKG70" s="30"/>
+      <c r="AKH70" s="30"/>
+      <c r="AKI70" s="30"/>
+      <c r="AKJ70" s="30"/>
+      <c r="AKK70" s="30"/>
+      <c r="AKL70" s="30"/>
+      <c r="AKM70" s="30"/>
+      <c r="AKN70" s="30"/>
+      <c r="AKO70" s="30"/>
+      <c r="AKP70" s="30"/>
+      <c r="AKQ70" s="30"/>
+      <c r="AKR70" s="30"/>
+      <c r="AKS70" s="30"/>
+      <c r="AKT70" s="30"/>
+      <c r="AKU70" s="30"/>
+      <c r="AKV70" s="30"/>
+      <c r="AKW70" s="30"/>
+      <c r="AKX70" s="30"/>
+      <c r="AKY70" s="30"/>
+      <c r="AKZ70" s="30"/>
+      <c r="ALA70" s="30"/>
+      <c r="ALB70" s="30"/>
+      <c r="ALC70" s="30"/>
+      <c r="ALD70" s="30"/>
+      <c r="ALE70" s="30"/>
+      <c r="ALF70" s="30"/>
+      <c r="ALG70" s="30"/>
+      <c r="ALH70" s="30"/>
+      <c r="ALI70" s="30"/>
+      <c r="ALJ70" s="30"/>
+      <c r="ALK70" s="30"/>
+      <c r="ALL70" s="30"/>
+      <c r="ALM70" s="30"/>
+      <c r="ALN70" s="30"/>
+      <c r="ALO70" s="30"/>
+      <c r="ALP70" s="30"/>
+      <c r="ALQ70" s="30"/>
+      <c r="ALR70" s="30"/>
+      <c r="ALS70" s="30"/>
+      <c r="ALT70" s="30"/>
+      <c r="ALU70" s="30"/>
+      <c r="ALV70" s="30"/>
+      <c r="ALW70" s="30"/>
+      <c r="ALX70" s="30"/>
+      <c r="ALY70" s="30"/>
+      <c r="ALZ70" s="30"/>
+      <c r="AMA70" s="30"/>
+      <c r="AMB70" s="30"/>
+      <c r="AMC70" s="30"/>
+      <c r="AMD70" s="30"/>
+      <c r="AME70" s="30"/>
+      <c r="AMF70" s="30"/>
+      <c r="AMG70" s="30"/>
+      <c r="AMH70" s="30"/>
+      <c r="AMI70" s="30"/>
+      <c r="AMJ70" s="30"/>
+      <c r="AMK70" s="30"/>
+    </row>
+    <row r="71" spans="1:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="16">
+        <v>67</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="16">
+        <v>5</v>
+      </c>
+      <c r="F71" s="15">
+        <f>E71/tiempo!$J$14</f>
+        <v>2.0202020202020204E-2</v>
+      </c>
+      <c r="G71" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1025" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="16">
+        <v>68</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="16">
+        <v>5</v>
+      </c>
+      <c r="F72" s="15">
+        <f>E72/tiempo!$J$14</f>
+        <v>2.0202020202020204E-2</v>
+      </c>
+      <c r="G72" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="16">
+        <v>69</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="16">
+        <v>2</v>
+      </c>
+      <c r="F73" s="15">
+        <f>E73/tiempo!$J$14</f>
+        <v>8.0808080808080808E-3</v>
+      </c>
+      <c r="G73" s="16">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -53527,8 +56123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK28"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView topLeftCell="E17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -55158,8 +57754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="E18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -56251,7 +58847,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="15"/>
+      <c r="Q17" s="15">
+        <f>F17</f>
+        <v>2.9197080291970802E-2</v>
+      </c>
+      <c r="R17" s="16">
+        <v>8</v>
+      </c>
       <c r="T17" s="16">
         <v>0</v>
       </c>
@@ -56305,7 +58907,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="15"/>
+      <c r="Q18" s="15">
+        <f>F18</f>
+        <v>7.2992700729927005E-3</v>
+      </c>
+      <c r="R18" s="16">
+        <v>8</v>
+      </c>
       <c r="T18" s="16">
         <v>0</v>
       </c>
@@ -56680,8 +59288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -56814,7 +59422,33 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q2" s="15"/>
+      <c r="P2" s="16">
+        <f>SUM(T2:X2)</f>
+        <v>1.35</v>
+      </c>
+      <c r="Q2" s="15">
+        <f>IF(NOT(ISBLANK(R2)),F2,0)</f>
+        <v>7.1942446043165464E-2</v>
+      </c>
+      <c r="R2" s="16">
+        <v>6</v>
+      </c>
+      <c r="U2" s="16">
+        <f>SUMIF([1]task!$A:$A,A2,[1]task!$B:$B)</f>
+        <v>0.45</v>
+      </c>
+      <c r="V2" s="16">
+        <f>SUMIF([2]task!$A:$A,A2,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="16">
+        <f>SUMIF([3]task!$A:$A,A2,[3]task!$B:$B)</f>
+        <v>0.45</v>
+      </c>
+      <c r="X2" s="16">
+        <f>SUMIF([4]task!$A:$A,A2,[4]task!$B:$B)</f>
+        <v>0.45</v>
+      </c>
     </row>
     <row r="3" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
@@ -56865,7 +59499,33 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q3" s="15"/>
+      <c r="P3" s="16">
+        <f t="shared" ref="P3:P22" si="2">SUM(T3:X3)</f>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="Q3" s="15">
+        <f t="shared" ref="Q3:Q22" si="3">IF(NOT(ISBLANK(R3)),F3,0)</f>
+        <v>7.1942446043165464E-2</v>
+      </c>
+      <c r="R3" s="16">
+        <v>6</v>
+      </c>
+      <c r="U3" s="16">
+        <f>SUMIF([1]task!$A:$A,A3,[1]task!$B:$B)</f>
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="V3" s="16">
+        <f>SUMIF([2]task!$A:$A,A3,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="16">
+        <f>SUMIF([3]task!$A:$A,A3,[3]task!$B:$B)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X3" s="16">
+        <f>SUMIF([4]task!$A:$A,A3,[4]task!$B:$B)</f>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="4" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
@@ -56900,7 +59560,33 @@
         <f>E4</f>
         <v>2</v>
       </c>
-      <c r="Q4" s="15"/>
+      <c r="P4" s="16">
+        <f t="shared" si="2"/>
+        <v>7.2</v>
+      </c>
+      <c r="Q4" s="15">
+        <f t="shared" si="3"/>
+        <v>2.8776978417266189E-2</v>
+      </c>
+      <c r="R4" s="16">
+        <v>7</v>
+      </c>
+      <c r="U4" s="16">
+        <f>SUMIF([1]task!$A:$A,A4,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="16">
+        <f>SUMIF([2]task!$A:$A,A4,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="16">
+        <f>SUMIF([3]task!$A:$A,A4,[3]task!$B:$B)</f>
+        <v>7.2</v>
+      </c>
+      <c r="X4" s="16">
+        <f>SUMIF([4]task!$A:$A,A4,[4]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
@@ -56935,7 +59621,33 @@
         <f>E5</f>
         <v>2</v>
       </c>
-      <c r="Q5" s="15"/>
+      <c r="P5" s="16">
+        <f t="shared" si="2"/>
+        <v>3.3166666666666664</v>
+      </c>
+      <c r="Q5" s="15">
+        <f t="shared" si="3"/>
+        <v>2.8776978417266189E-2</v>
+      </c>
+      <c r="R5" s="16">
+        <v>7</v>
+      </c>
+      <c r="U5" s="16">
+        <f>SUMIF([1]task!$A:$A,A5,[1]task!$B:$B)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="V5" s="16">
+        <f>SUMIF([2]task!$A:$A,A5,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="16">
+        <f>SUMIF([3]task!$A:$A,A5,[3]task!$B:$B)</f>
+        <v>1.65</v>
+      </c>
+      <c r="X5" s="16">
+        <f>SUMIF([4]task!$A:$A,A5,[4]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
@@ -56970,7 +59682,33 @@
         <f>E6</f>
         <v>3</v>
       </c>
-      <c r="Q6" s="15"/>
+      <c r="P6" s="16">
+        <f t="shared" si="2"/>
+        <v>2.6166666666666667</v>
+      </c>
+      <c r="Q6" s="15">
+        <f t="shared" si="3"/>
+        <v>4.3165467625899283E-2</v>
+      </c>
+      <c r="R6" s="16">
+        <v>7</v>
+      </c>
+      <c r="U6" s="16">
+        <f>SUMIF([1]task!$A:$A,A6,[1]task!$B:$B)</f>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="V6" s="16">
+        <f>SUMIF([2]task!$A:$A,A6,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="16">
+        <f>SUMIF([3]task!$A:$A,A6,[3]task!$B:$B)</f>
+        <v>1.6333333333333333</v>
+      </c>
+      <c r="X6" s="16">
+        <f>SUMIF([4]task!$A:$A,A6,[4]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
@@ -57005,7 +59743,33 @@
         <f>E7</f>
         <v>3</v>
       </c>
-      <c r="Q7" s="15"/>
+      <c r="P7" s="16">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q7" s="15">
+        <f t="shared" si="3"/>
+        <v>4.3165467625899283E-2</v>
+      </c>
+      <c r="R7" s="16">
+        <v>7</v>
+      </c>
+      <c r="U7" s="16">
+        <f>SUMIF([1]task!$A:$A,A7,[1]task!$B:$B)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="V7" s="16">
+        <f>SUMIF([2]task!$A:$A,A7,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="16">
+        <f>SUMIF([3]task!$A:$A,A7,[3]task!$B:$B)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="X7" s="16">
+        <f>SUMIF([4]task!$A:$A,A7,[4]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
@@ -57040,7 +59804,33 @@
         <f>E8</f>
         <v>0.5</v>
       </c>
-      <c r="Q8" s="15"/>
+      <c r="P8" s="16">
+        <f t="shared" si="2"/>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="Q8" s="15">
+        <f t="shared" si="3"/>
+        <v>7.1942446043165471E-3</v>
+      </c>
+      <c r="R8" s="16">
+        <v>6</v>
+      </c>
+      <c r="U8" s="16">
+        <f>SUMIF([1]task!$A:$A,A8,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <f>SUMIF([2]task!$A:$A,A8,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="16">
+        <f>SUMIF([3]task!$A:$A,A8,[3]task!$B:$B)</f>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="X8" s="16">
+        <f>SUMIF([4]task!$A:$A,A8,[4]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
@@ -57079,7 +59869,33 @@
         <f>$E$9/2</f>
         <v>1</v>
       </c>
-      <c r="Q9" s="15"/>
+      <c r="P9" s="16">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q9" s="15">
+        <f t="shared" si="3"/>
+        <v>2.8776978417266189E-2</v>
+      </c>
+      <c r="R9" s="16">
+        <v>6</v>
+      </c>
+      <c r="U9" s="16">
+        <f>SUMIF([1]task!$A:$A,A9,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <f>SUMIF([2]task!$A:$A,A9,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="16">
+        <f>SUMIF([3]task!$A:$A,A9,[3]task!$B:$B)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X9" s="16">
+        <f>SUMIF([4]task!$A:$A,A9,[4]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
@@ -57114,7 +59930,33 @@
         <f>E10</f>
         <v>2</v>
       </c>
-      <c r="Q10" s="15"/>
+      <c r="P10" s="16">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q10" s="15">
+        <f t="shared" si="3"/>
+        <v>2.8776978417266189E-2</v>
+      </c>
+      <c r="R10" s="16">
+        <v>7</v>
+      </c>
+      <c r="U10" s="16">
+        <f>SUMIF([1]task!$A:$A,A10,[1]task!$B:$B)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V10" s="16">
+        <f>SUMIF([2]task!$A:$A,A10,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="16">
+        <f>SUMIF([3]task!$A:$A,A10,[3]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="16">
+        <f>SUMIF([4]task!$A:$A,A10,[4]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
@@ -57149,7 +59991,30 @@
         <f>E11</f>
         <v>2</v>
       </c>
-      <c r="Q11" s="15"/>
+      <c r="P11" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="16">
+        <f>SUMIF([1]task!$A:$A,A11,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="16">
+        <f>SUMIF([2]task!$A:$A,A11,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="16">
+        <f>SUMIF([3]task!$A:$A,A11,[3]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="16">
+        <f>SUMIF([4]task!$A:$A,A11,[4]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
@@ -57187,7 +60052,33 @@
         <f>$E$12/2</f>
         <v>2</v>
       </c>
-      <c r="Q12" s="15"/>
+      <c r="P12" s="16">
+        <f t="shared" si="2"/>
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="Q12" s="15">
+        <f t="shared" si="3"/>
+        <v>5.7553956834532377E-2</v>
+      </c>
+      <c r="R12" s="16">
+        <v>6</v>
+      </c>
+      <c r="U12" s="16">
+        <f>SUMIF([1]task!$A:$A,A12,[1]task!$B:$B)</f>
+        <v>1.6833333333333333</v>
+      </c>
+      <c r="V12" s="16">
+        <f>SUMIF([2]task!$A:$A,A12,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="16">
+        <f>SUMIF([3]task!$A:$A,A12,[3]task!$B:$B)</f>
+        <v>1.6833333333333333</v>
+      </c>
+      <c r="X12" s="16">
+        <f>SUMIF([4]task!$A:$A,A12,[4]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
@@ -57222,7 +60113,33 @@
         <f>E13</f>
         <v>4</v>
       </c>
-      <c r="Q13" s="15"/>
+      <c r="P13" s="16">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="Q13" s="15">
+        <f t="shared" si="3"/>
+        <v>5.7553956834532377E-2</v>
+      </c>
+      <c r="R13" s="16">
+        <v>7</v>
+      </c>
+      <c r="U13" s="16">
+        <f>SUMIF([1]task!$A:$A,A13,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="16">
+        <f>SUMIF([2]task!$A:$A,A13,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="16">
+        <f>SUMIF([3]task!$A:$A,A13,[3]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="16">
+        <f>SUMIF([4]task!$A:$A,A13,[4]task!$B:$B)</f>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
@@ -57258,22 +60175,48 @@
         <v>1.5</v>
       </c>
       <c r="J14" s="16">
-        <f t="shared" ref="J14:M14" si="2">$E$14/5</f>
+        <f t="shared" ref="J14:M14" si="4">$E$14/5</f>
         <v>1.5</v>
       </c>
       <c r="K14" s="16">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="L14" s="16">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="P14" s="16">
         <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="L14" s="16">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="M14" s="16">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="Q14" s="15"/>
+        <v>8.15</v>
+      </c>
+      <c r="Q14" s="15">
+        <f t="shared" si="3"/>
+        <v>0.1079136690647482</v>
+      </c>
+      <c r="R14" s="16">
+        <v>7</v>
+      </c>
+      <c r="U14" s="16">
+        <f>SUMIF([1]task!$A:$A,A14,[1]task!$B:$B)</f>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="V14" s="16">
+        <f>SUMIF([2]task!$A:$A,A14,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="16">
+        <f>SUMIF([3]task!$A:$A,A14,[3]task!$B:$B)</f>
+        <v>4.4333333333333336</v>
+      </c>
+      <c r="X14" s="16">
+        <f>SUMIF([4]task!$A:$A,A14,[4]task!$B:$B)</f>
+        <v>1.5833333333333333</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
@@ -57308,7 +60251,30 @@
         <f>E15</f>
         <v>4</v>
       </c>
-      <c r="Q15" s="15"/>
+      <c r="P15" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="16">
+        <f>SUMIF([1]task!$A:$A,A15,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="16">
+        <f>SUMIF([2]task!$A:$A,A15,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="16">
+        <f>SUMIF([3]task!$A:$A,A15,[3]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="16">
+        <f>SUMIF([4]task!$A:$A,A15,[4]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
@@ -57343,9 +60309,35 @@
         <f>E16</f>
         <v>2</v>
       </c>
-      <c r="Q16" s="15"/>
+      <c r="P16" s="16">
+        <f t="shared" si="2"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="Q16" s="15">
+        <f t="shared" si="3"/>
+        <v>2.8776978417266189E-2</v>
+      </c>
+      <c r="R16" s="16">
+        <v>7</v>
+      </c>
+      <c r="U16" s="16">
+        <f>SUMIF([1]task!$A:$A,A16,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="16">
+        <f>SUMIF([2]task!$A:$A,A16,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="16">
+        <f>SUMIF([3]task!$A:$A,A16,[3]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="16">
+        <f>SUMIF([4]task!$A:$A,A16,[4]task!$B:$B)</f>
+        <v>2.0833333333333335</v>
+      </c>
     </row>
-    <row r="17" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>61</v>
       </c>
@@ -57378,9 +60370,35 @@
         <f>E17</f>
         <v>2</v>
       </c>
-      <c r="Q17" s="15"/>
+      <c r="P17" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="15">
+        <f t="shared" si="3"/>
+        <v>2.8776978417266189E-2</v>
+      </c>
+      <c r="R17" s="16">
+        <v>8</v>
+      </c>
+      <c r="U17" s="16">
+        <f>SUMIF([1]task!$A:$A,A17,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="16">
+        <f>SUMIF([2]task!$A:$A,A17,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="16">
+        <f>SUMIF([3]task!$A:$A,A17,[3]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="16">
+        <f>SUMIF([4]task!$A:$A,A17,[4]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>62</v>
       </c>
@@ -57413,9 +60431,32 @@
         <f>E18</f>
         <v>3</v>
       </c>
-      <c r="Q18" s="15"/>
+      <c r="P18" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="16">
+        <f>SUMIF([1]task!$A:$A,A18,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="16">
+        <f>SUMIF([2]task!$A:$A,A18,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="16">
+        <f>SUMIF([3]task!$A:$A,A18,[3]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="16">
+        <f>SUMIF([4]task!$A:$A,A18,[4]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>63</v>
       </c>
@@ -57456,9 +60497,35 @@
         <f>$E$19/3</f>
         <v>3</v>
       </c>
-      <c r="Q19" s="15"/>
+      <c r="P19" s="16">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Q19" s="15">
+        <f t="shared" si="3"/>
+        <v>0.12949640287769784</v>
+      </c>
+      <c r="R19" s="16">
+        <v>8</v>
+      </c>
+      <c r="U19" s="16">
+        <f>SUMIF([1]task!$A:$A,A19,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="16">
+        <f>SUMIF([2]task!$A:$A,A19,[2]task!$B:$B)</f>
+        <v>2.75</v>
+      </c>
+      <c r="W19" s="16">
+        <f>SUMIF([3]task!$A:$A,A19,[3]task!$B:$B)</f>
+        <v>4.25</v>
+      </c>
+      <c r="X19" s="16">
+        <f>SUMIF([4]task!$A:$A,A19,[4]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>64</v>
       </c>
@@ -57490,9 +60557,32 @@
         <f>E20</f>
         <v>0.5</v>
       </c>
-      <c r="Q20" s="15"/>
+      <c r="P20" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="16">
+        <f>SUMIF([1]task!$A:$A,A20,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="16">
+        <f>SUMIF([2]task!$A:$A,A20,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="16">
+        <f>SUMIF([3]task!$A:$A,A20,[3]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="16">
+        <f>SUMIF([4]task!$A:$A,A20,[4]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>65</v>
       </c>
@@ -57528,9 +60618,32 @@
         <f>$E$21/2</f>
         <v>1</v>
       </c>
-      <c r="Q21" s="15"/>
+      <c r="P21" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="16">
+        <f>SUMIF([1]task!$A:$A,A21,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="16">
+        <f>SUMIF([2]task!$A:$A,A21,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="16">
+        <f>SUMIF([3]task!$A:$A,A21,[3]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="16">
+        <f>SUMIF([4]task!$A:$A,A21,[4]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>66</v>
       </c>
@@ -57563,24 +60676,47 @@
         <v>1</v>
       </c>
       <c r="J22" s="16">
-        <f t="shared" ref="J22:M22" si="3">$E$22/5</f>
+        <f t="shared" ref="J22:M22" si="5">$E$22/5</f>
         <v>1</v>
       </c>
       <c r="K22" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L22" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P22" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L22" s="16">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="16">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q22" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="16">
+        <f>SUMIF([1]task!$A:$A,A22,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="16">
+        <f>SUMIF([2]task!$A:$A,A22,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="16">
+        <f>SUMIF([3]task!$A:$A,A22,[3]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="16">
+        <f>SUMIF([4]task!$A:$A,A22,[4]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="20"/>
       <c r="E23" s="19"/>
@@ -57736,7 +60872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -57837,4 +60973,137 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="32" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" style="32" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <f>ganancias!A7</f>
+        <v>6</v>
+      </c>
+      <c r="B2" s="4">
+        <f>LOOKUP(A2,ganancias!A:A,ganancias!B:B)</f>
+        <v>41937</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="5">
+        <f>SUMIF('3'!$G:$G,A2,'3'!$F:$F)</f>
+        <v>0.49640287769784164</v>
+      </c>
+      <c r="E2" s="6">
+        <f>D2</f>
+        <v>0.49640287769784164</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="6">
+        <f>SUMIF('3'!$R:$R,A2,'3'!$Q:$Q)</f>
+        <v>0.23741007194244604</v>
+      </c>
+      <c r="H2" s="6">
+        <f>G2</f>
+        <v>0.23741007194244604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <f>ganancias!A8</f>
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
+        <f>LOOKUP(A3,ganancias!A:A,ganancias!B:B)</f>
+        <v>41944</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="5">
+        <f>SUMIF('3'!$G:$G,A3,'3'!$F:$F)</f>
+        <v>0.50359712230215825</v>
+      </c>
+      <c r="E3" s="6">
+        <f>D3+E2</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="6">
+        <f>SUMIF('3'!$R:$R,A3,'3'!$Q:$Q)</f>
+        <v>0.36690647482014388</v>
+      </c>
+      <c r="H3" s="6">
+        <f>G3+H2</f>
+        <v>0.60431654676258995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <f>ganancias!A9</f>
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <f>LOOKUP(A4,ganancias!A:A,ganancias!B:B)</f>
+        <v>41951</v>
+      </c>
+      <c r="D4" s="5">
+        <f>SUMIF('3'!$G:$G,A4,'3'!$F:$F)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <f>D4+E3</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G4" s="6">
+        <f>SUMIF('3'!$R:$R,A4,'3'!$Q:$Q)</f>
+        <v>0.15827338129496404</v>
+      </c>
+      <c r="H4" s="6">
+        <f>G4+H3</f>
+        <v>0.76258992805755399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="585" activeTab="1"/>
+    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="585"/>
   </bookViews>
   <sheets>
     <sheet name="ganancias" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,6 @@
     <sheet name="2-ganancias" sheetId="8" r:id="rId8"/>
     <sheet name="3-ganancias" sheetId="9" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -1002,22 +996,22 @@
                   <c:v>0.55959595959595954</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72727272727272729</c:v>
+                  <c:v>0.73939393939393938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83030303030303032</c:v>
+                  <c:v>0.88686868686868681</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88484848484848488</c:v>
+                  <c:v>0.89696969696969686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88484848484848488</c:v>
+                  <c:v>0.89696969696969686</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88484848484848488</c:v>
+                  <c:v>0.89696969696969686</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88484848484848488</c:v>
+                  <c:v>0.89696969696969686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,11 +1028,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1533631104"/>
-        <c:axId val="-1533631648"/>
+        <c:axId val="108961296"/>
+        <c:axId val="108948784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1533631104"/>
+        <c:axId val="108961296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1533631648"/>
+        <c:crossAx val="108948784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1055,7 +1049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1533631648"/>
+        <c:axId val="108948784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,7 +1060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1533631104"/>
+        <c:crossAx val="108961296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1126,36 +1120,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'3-ganancias'!$A$2:$A$4</c:f>
+              <c:f>'3-ganancias'!$A$2:$A$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3-ganancias'!$D$2:$D$4</c:f>
+              <c:f>'3-ganancias'!$D$2:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0.49640287769784164</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.50359712230215825</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1178,36 +1166,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'3-ganancias'!$A$2:$A$4</c:f>
+              <c:f>'3-ganancias'!$A$2:$A$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3-ganancias'!$G$2:$G$4</c:f>
+              <c:f>'3-ganancias'!$G$2:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.23741007194244604</c:v>
+                  <c:v>0.2805755395683453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36690647482014388</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15827338129496404</c:v>
+                  <c:v>0.52517985611510787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,11 +1204,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1059557280"/>
-        <c:axId val="-1059555104"/>
+        <c:axId val="108931296"/>
+        <c:axId val="108939456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1059557280"/>
+        <c:axId val="108931296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,7 +1218,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1059555104"/>
+        <c:crossAx val="108939456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1244,7 +1226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1059555104"/>
+        <c:axId val="108939456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1255,7 +1237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1059557280"/>
+        <c:crossAx val="108931296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1393,13 +1375,13 @@
                   <c:v>0.16565656565656561</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1676767676767677</c:v>
+                  <c:v>0.17979797979797982</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10303030303030303</c:v>
+                  <c:v>0.14747474747474748</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4545454545454543E-2</c:v>
+                  <c:v>1.01010101010101E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1423,11 +1405,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1533627840"/>
-        <c:axId val="-1533625664"/>
+        <c:axId val="108958032"/>
+        <c:axId val="108951504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1533627840"/>
+        <c:axId val="108958032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1533625664"/>
+        <c:crossAx val="108951504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1444,7 +1426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1533625664"/>
+        <c:axId val="108951504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1533627840"/>
+        <c:crossAx val="108958032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1593,10 +1575,10 @@
                   <c:v>49.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.833333333333336</c:v>
+                  <c:v>46.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.283333333333335</c:v>
+                  <c:v>30.95</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.2666666666666666</c:v>
@@ -1623,8 +1605,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1533630560"/>
-        <c:axId val="-1533629472"/>
+        <c:axId val="108950416"/>
+        <c:axId val="108954224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1700,11 +1682,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1533630560"/>
-        <c:axId val="-1533629472"/>
+        <c:axId val="108950416"/>
+        <c:axId val="108954224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1533630560"/>
+        <c:axId val="108950416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,7 +1695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1533629472"/>
+        <c:crossAx val="108954224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1721,7 +1703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1533629472"/>
+        <c:axId val="108954224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +1714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1533630560"/>
+        <c:crossAx val="108950416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1829,7 +1811,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>248.3666666666667</c:v>
+                  <c:v>259.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1844,11 +1826,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1533636544"/>
-        <c:axId val="-1533633824"/>
+        <c:axId val="108959664"/>
+        <c:axId val="108956400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1533636544"/>
+        <c:axId val="108959664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,7 +1839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1533633824"/>
+        <c:crossAx val="108956400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1865,7 +1847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1533633824"/>
+        <c:axId val="108956400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,7 +1858,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1533636544"/>
+        <c:crossAx val="108959664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1996,11 +1978,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1533621312"/>
-        <c:axId val="-1533622944"/>
+        <c:axId val="108953136"/>
+        <c:axId val="108948240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1533621312"/>
+        <c:axId val="108953136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2009,7 +1991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1533622944"/>
+        <c:crossAx val="108948240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2017,7 +1999,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1533622944"/>
+        <c:axId val="108948240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2028,7 +2010,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1533621312"/>
+        <c:crossAx val="108953136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2148,11 +2130,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1533860320"/>
-        <c:axId val="-1393917312"/>
+        <c:axId val="108955312"/>
+        <c:axId val="108956944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1533860320"/>
+        <c:axId val="108955312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2161,7 +2143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1393917312"/>
+        <c:crossAx val="108956944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2169,7 +2151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1393917312"/>
+        <c:axId val="108956944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2180,7 +2162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1533860320"/>
+        <c:crossAx val="108955312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2294,11 +2276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1393916768"/>
-        <c:axId val="-1393907520"/>
+        <c:axId val="108935104"/>
+        <c:axId val="108934016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1393916768"/>
+        <c:axId val="108935104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,7 +2289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1393907520"/>
+        <c:crossAx val="108934016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2315,7 +2297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1393907520"/>
+        <c:axId val="108934016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2326,7 +2308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1393916768"/>
+        <c:crossAx val="108935104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2440,11 +2422,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1393921120"/>
-        <c:axId val="-1393909696"/>
+        <c:axId val="108940000"/>
+        <c:axId val="108944896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1393921120"/>
+        <c:axId val="108940000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2453,7 +2435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1393909696"/>
+        <c:crossAx val="108944896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2461,7 +2443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1393909696"/>
+        <c:axId val="108944896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2472,14 +2454,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1393921120"/>
+        <c:crossAx val="108940000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2530,35 +2511,29 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'3-ganancias'!$A$2:$A$4</c:f>
+              <c:f>'3-ganancias'!$A$2:$A$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3-ganancias'!$E$2:$E$4</c:f>
+              <c:f>'3-ganancias'!$E$2:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0.49640287769784164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>0.99999999999999989</c:v>
                 </c:pt>
               </c:numCache>
@@ -2582,36 +2557,30 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'3-ganancias'!$A$2:$A$4</c:f>
+              <c:f>'3-ganancias'!$A$2:$A$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3-ganancias'!$H$2:$H$4</c:f>
+              <c:f>'3-ganancias'!$H$2:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.23741007194244604</c:v>
+                  <c:v>0.2805755395683453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60431654676258995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76258992805755399</c:v>
+                  <c:v>0.80575539568345311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2628,11 +2597,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1059555648"/>
-        <c:axId val="-1059561088"/>
+        <c:axId val="108931840"/>
+        <c:axId val="108932928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1059555648"/>
+        <c:axId val="108931840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,7 +2611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1059561088"/>
+        <c:crossAx val="108932928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2650,7 +2619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1059561088"/>
+        <c:axId val="108932928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,7 +2630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1059555648"/>
+        <c:crossAx val="108931840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2949,13 +2918,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2981,13 +2950,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3010,818 +2979,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="schedule"/>
-      <sheetName val="task"/>
-      <sheetName val="49"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Id</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>Horas trabajadas</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>36</v>
-          </cell>
-          <cell r="B2">
-            <v>0.21666666666666667</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>46</v>
-          </cell>
-          <cell r="B3">
-            <v>0.45</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>47</v>
-          </cell>
-          <cell r="B4">
-            <v>1.8666666666666667</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>49</v>
-          </cell>
-          <cell r="B5">
-            <v>1.6666666666666667</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>50</v>
-          </cell>
-          <cell r="B6">
-            <v>0.98333333333333328</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>51</v>
-          </cell>
-          <cell r="B7">
-            <v>1.1499999999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>54</v>
-          </cell>
-          <cell r="B8">
-            <v>0.66666666666666663</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>56</v>
-          </cell>
-          <cell r="B9">
-            <v>1.6833333333333333</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>58</v>
-          </cell>
-          <cell r="B10">
-            <v>2.1333333333333333</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Semana</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Delta</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>6</v>
-          </cell>
-          <cell r="F2">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>6</v>
-          </cell>
-          <cell r="F3">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>6</v>
-          </cell>
-          <cell r="F4">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>6</v>
-          </cell>
-          <cell r="F5">
-            <v>42</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>6</v>
-          </cell>
-          <cell r="F6">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>6</v>
-          </cell>
-          <cell r="F7">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>6</v>
-          </cell>
-          <cell r="F8">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>6</v>
-          </cell>
-          <cell r="F9">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>6</v>
-          </cell>
-          <cell r="F10">
-            <v>69</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>6</v>
-          </cell>
-          <cell r="F11">
-            <v>101</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>7</v>
-          </cell>
-          <cell r="F12">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>7</v>
-          </cell>
-          <cell r="F13">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>7</v>
-          </cell>
-          <cell r="F14">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>7</v>
-          </cell>
-          <cell r="F15">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>7</v>
-          </cell>
-          <cell r="F16">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>7</v>
-          </cell>
-          <cell r="F17">
-            <v>58</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>7</v>
-          </cell>
-          <cell r="F18">
-            <v>24</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="schedule"/>
-      <sheetName val="task"/>
-      <sheetName val="logt"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Id</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>Horas trabajadas</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>63</v>
-          </cell>
-          <cell r="B2">
-            <v>2.75</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Semana</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Delta</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>6</v>
-          </cell>
-          <cell r="F2">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>6</v>
-          </cell>
-          <cell r="F3">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>6</v>
-          </cell>
-          <cell r="F4">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>6</v>
-          </cell>
-          <cell r="F5">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>6</v>
-          </cell>
-          <cell r="F6">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>6</v>
-          </cell>
-          <cell r="F7">
-            <v>78</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>7</v>
-          </cell>
-          <cell r="F8">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>7</v>
-          </cell>
-          <cell r="F9">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>7</v>
-          </cell>
-          <cell r="F10">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>7</v>
-          </cell>
-          <cell r="F11">
-            <v>180</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="schedule"/>
-      <sheetName val="task"/>
-      <sheetName val="logt"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Id</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>Horas trabajadas</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>46</v>
-          </cell>
-          <cell r="B2">
-            <v>0.45</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>47</v>
-          </cell>
-          <cell r="B3">
-            <v>0.66666666666666663</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>48</v>
-          </cell>
-          <cell r="B4">
-            <v>7.2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>49</v>
-          </cell>
-          <cell r="B5">
-            <v>1.65</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>50</v>
-          </cell>
-          <cell r="B6">
-            <v>1.6333333333333333</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>51</v>
-          </cell>
-          <cell r="B7">
-            <v>1.1499999999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>52</v>
-          </cell>
-          <cell r="B8">
-            <v>0.28333333333333333</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>53</v>
-          </cell>
-          <cell r="B9">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>56</v>
-          </cell>
-          <cell r="B10">
-            <v>1.6833333333333333</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>58</v>
-          </cell>
-          <cell r="B11">
-            <v>4.4333333333333336</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>63</v>
-          </cell>
-          <cell r="B12">
-            <v>4.25</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Semana</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Delta</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>6</v>
-          </cell>
-          <cell r="F2">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>6</v>
-          </cell>
-          <cell r="F3">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>6</v>
-          </cell>
-          <cell r="F4">
-            <v>160</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>6</v>
-          </cell>
-          <cell r="F5">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>6</v>
-          </cell>
-          <cell r="F6">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>6</v>
-          </cell>
-          <cell r="F7">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>6</v>
-          </cell>
-          <cell r="F8">
-            <v>135</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>6</v>
-          </cell>
-          <cell r="F9">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>6</v>
-          </cell>
-          <cell r="F10">
-            <v>39</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>6</v>
-          </cell>
-          <cell r="F11">
-            <v>39</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>6</v>
-          </cell>
-          <cell r="F12">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>6</v>
-          </cell>
-          <cell r="F13">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>6</v>
-          </cell>
-          <cell r="F14">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>6</v>
-          </cell>
-          <cell r="F15">
-            <v>69</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>6</v>
-          </cell>
-          <cell r="F16">
-            <v>101</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>7</v>
-          </cell>
-          <cell r="F17">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>7</v>
-          </cell>
-          <cell r="F18">
-            <v>266</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>7</v>
-          </cell>
-          <cell r="F19">
-            <v>130</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>8</v>
-          </cell>
-          <cell r="F20">
-            <v>128</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>8</v>
-          </cell>
-          <cell r="F21">
-            <v>127</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>8</v>
-          </cell>
-          <cell r="F22">
-            <v>61</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="schedule"/>
-      <sheetName val="task"/>
-      <sheetName val="logt"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Id</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>Horas trabajadas</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>46</v>
-          </cell>
-          <cell r="B2">
-            <v>0.45</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>47</v>
-          </cell>
-          <cell r="B3">
-            <v>0.66666666666666663</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>57</v>
-          </cell>
-          <cell r="B4">
-            <v>4.5</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>58</v>
-          </cell>
-          <cell r="B5">
-            <v>1.5833333333333333</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>60</v>
-          </cell>
-          <cell r="B6">
-            <v>2.0833333333333335</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Semana</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Delta</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>6</v>
-          </cell>
-          <cell r="F2">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>6</v>
-          </cell>
-          <cell r="F3">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>6</v>
-          </cell>
-          <cell r="F4">
-            <v>125</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>6</v>
-          </cell>
-          <cell r="F5">
-            <v>110</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>6</v>
-          </cell>
-          <cell r="F6">
-            <v>160</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>7</v>
-          </cell>
-          <cell r="F7">
-            <v>95</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>7</v>
-          </cell>
-          <cell r="F8">
-            <v>130</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>7</v>
-          </cell>
-          <cell r="F9">
-            <v>85</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>7</v>
-          </cell>
-          <cell r="F10">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>7</v>
-          </cell>
-          <cell r="F11">
-            <v>105</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4113,8 +3270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4304,11 +3461,11 @@
       <c r="F7" s="38"/>
       <c r="G7" s="6">
         <f>SUMIF(tareas!$J:$J,A7,tareas!$I:$I)</f>
-        <v>0.1676767676767677</v>
+        <v>0.17979797979797982</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="2"/>
-        <v>0.72727272727272729</v>
+        <v>0.73939393939393938</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -4331,11 +3488,11 @@
       <c r="F8" s="38"/>
       <c r="G8" s="6">
         <f>SUMIF(tareas!$J:$J,A8,tareas!$I:$I)</f>
-        <v>0.10303030303030303</v>
+        <v>0.14747474747474748</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="2"/>
-        <v>0.83030303030303032</v>
+        <v>0.88686868686868681</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -4358,11 +3515,11 @@
       <c r="F9" s="38"/>
       <c r="G9" s="6">
         <f>SUMIF(tareas!$J:$J,A9,tareas!$I:$I)</f>
-        <v>5.4545454545454543E-2</v>
+        <v>1.01010101010101E-2</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>0.88484848484848488</v>
+        <v>0.89696969696969686</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -4389,7 +3546,7 @@
       </c>
       <c r="H10" s="6">
         <f t="shared" si="2"/>
-        <v>0.88484848484848488</v>
+        <v>0.89696969696969686</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -4416,7 +3573,7 @@
       </c>
       <c r="H11" s="6">
         <f t="shared" si="2"/>
-        <v>0.88484848484848488</v>
+        <v>0.89696969696969686</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -4443,7 +3600,7 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" si="2"/>
-        <v>0.88484848484848488</v>
+        <v>0.89696969696969686</v>
       </c>
     </row>
   </sheetData>
@@ -4461,8 +3618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4828,26 +3985,24 @@
         <f>SUMIF(tareas!G:G,A7,tareas!E:E)</f>
         <v>34.5</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8">
+        <v>7.666666666666667</v>
+      </c>
       <c r="M7" s="8">
-        <f>SUMIF('[1]49'!$B:$B,A7,'[1]49'!$F:$F)/60</f>
         <v>8.0166666666666675</v>
       </c>
       <c r="N7" s="8">
-        <f>SUMIF([2]logt!$B:$B,A7,[2]logt!$F:$F)/60</f>
         <v>8.7166666666666668</v>
       </c>
       <c r="O7" s="8">
-        <f>SUMIF([3]logt!$B:$B,A7,[3]logt!$F:$F)/60</f>
         <v>14.4</v>
       </c>
       <c r="P7" s="8">
-        <f>SUMIF([4]logt!$B:$B,A7,[4]logt!$F:$F)/60</f>
         <v>7.7</v>
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="1"/>
-        <v>38.833333333333336</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -4884,26 +4039,24 @@
         <f>SUMIF(tareas!G:G,A8,tareas!E:E)</f>
         <v>35</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="8">
+        <v>3.6666666666666665</v>
+      </c>
       <c r="M8" s="8">
-        <f>SUMIF('[1]49'!$B:$B,A8,'[1]49'!$F:$F)/60</f>
         <v>5.2333333333333334</v>
       </c>
       <c r="N8" s="8">
-        <f>SUMIF([2]logt!$B:$B,A8,[2]logt!$F:$F)/60</f>
         <v>7</v>
       </c>
       <c r="O8" s="8">
-        <f>SUMIF([3]logt!$B:$B,A8,[3]logt!$F:$F)/60</f>
         <v>7.4666666666666668</v>
       </c>
       <c r="P8" s="8">
-        <f>SUMIF([4]logt!$B:$B,A8,[4]logt!$F:$F)/60</f>
         <v>7.583333333333333</v>
       </c>
       <c r="Q8" s="8">
         <f t="shared" si="1"/>
-        <v>27.283333333333335</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -4940,21 +4093,19 @@
         <f>SUMIF(tareas!G:G,A9,tareas!E:E)</f>
         <v>12</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
       <c r="M9" s="8">
-        <f>SUMIF('[1]49'!$B:$B,A9,'[1]49'!$F:$F)/60</f>
         <v>0</v>
       </c>
       <c r="N9" s="8">
-        <f>SUMIF([2]logt!$B:$B,A9,[2]logt!$F:$F)/60</f>
         <v>0</v>
       </c>
       <c r="O9" s="8">
-        <f>SUMIF([3]logt!$B:$B,A9,[3]logt!$F:$F)/60</f>
         <v>5.2666666666666666</v>
       </c>
       <c r="P9" s="8">
-        <f>SUMIF([4]logt!$B:$B,A9,[4]logt!$F:$F)/60</f>
         <v>0</v>
       </c>
       <c r="Q9" s="8">
@@ -5125,7 +4276,7 @@
       </c>
       <c r="L14" s="7">
         <f t="shared" ref="L14:Q14" si="3">SUM(L2:L12)</f>
-        <v>32.426666666666669</v>
+        <v>43.76</v>
       </c>
       <c r="M14" s="7">
         <f t="shared" si="3"/>
@@ -5145,7 +4296,7 @@
       </c>
       <c r="Q14" s="7">
         <f t="shared" si="3"/>
-        <v>248.3666666666667</v>
+        <v>259.7</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -5164,8 +4315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK73"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView topLeftCell="C64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -54847,7 +53998,7 @@
       </c>
       <c r="J64" s="16">
         <f>LOOKUP(A64,'3'!$A:$A,'3'!$R:$R)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
@@ -54875,11 +54026,11 @@
       </c>
       <c r="I65" s="15">
         <f>IF(ISBLANK(LOOKUP(A65,'3'!$A:$A,'3'!$R:$R)),0,F65)</f>
-        <v>0</v>
+        <v>1.2121212121212121E-2</v>
       </c>
       <c r="J65" s="16">
         <f>LOOKUP(A65,'3'!$A:$A,'3'!$R:$R)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
@@ -54911,7 +54062,7 @@
       </c>
       <c r="J66" s="16">
         <f>LOOKUP(A66,'3'!$A:$A,'3'!$R:$R)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:1025" ht="25.5" x14ac:dyDescent="0.2">
@@ -59288,8 +58439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -59424,7 +58575,7 @@
       </c>
       <c r="P2" s="16">
         <f>SUM(T2:X2)</f>
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" s="15">
         <f>IF(NOT(ISBLANK(R2)),F2,0)</f>
@@ -59433,20 +58584,19 @@
       <c r="R2" s="16">
         <v>6</v>
       </c>
+      <c r="T2" s="16">
+        <v>0.45</v>
+      </c>
       <c r="U2" s="16">
-        <f>SUMIF([1]task!$A:$A,A2,[1]task!$B:$B)</f>
         <v>0.45</v>
       </c>
       <c r="V2" s="16">
-        <f>SUMIF([2]task!$A:$A,A2,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W2" s="16">
-        <f>SUMIF([3]task!$A:$A,A2,[3]task!$B:$B)</f>
         <v>0.45</v>
       </c>
       <c r="X2" s="16">
-        <f>SUMIF([4]task!$A:$A,A2,[4]task!$B:$B)</f>
         <v>0.45</v>
       </c>
     </row>
@@ -59501,7 +58651,7 @@
       </c>
       <c r="P3" s="16">
         <f t="shared" ref="P3:P22" si="2">SUM(T3:X3)</f>
-        <v>3.1999999999999997</v>
+        <v>4.3666666666666663</v>
       </c>
       <c r="Q3" s="15">
         <f t="shared" ref="Q3:Q22" si="3">IF(NOT(ISBLANK(R3)),F3,0)</f>
@@ -59510,20 +58660,19 @@
       <c r="R3" s="16">
         <v>6</v>
       </c>
+      <c r="T3" s="16">
+        <v>1.1666666666666667</v>
+      </c>
       <c r="U3" s="16">
-        <f>SUMIF([1]task!$A:$A,A3,[1]task!$B:$B)</f>
         <v>1.8666666666666667</v>
       </c>
       <c r="V3" s="16">
-        <f>SUMIF([2]task!$A:$A,A3,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W3" s="16">
-        <f>SUMIF([3]task!$A:$A,A3,[3]task!$B:$B)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="X3" s="16">
-        <f>SUMIF([4]task!$A:$A,A3,[4]task!$B:$B)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -59571,20 +58720,19 @@
       <c r="R4" s="16">
         <v>7</v>
       </c>
+      <c r="T4" s="16">
+        <v>0</v>
+      </c>
       <c r="U4" s="16">
-        <f>SUMIF([1]task!$A:$A,A4,[1]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="V4" s="16">
-        <f>SUMIF([2]task!$A:$A,A4,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W4" s="16">
-        <f>SUMIF([3]task!$A:$A,A4,[3]task!$B:$B)</f>
         <v>7.2</v>
       </c>
       <c r="X4" s="16">
-        <f>SUMIF([4]task!$A:$A,A4,[4]task!$B:$B)</f>
         <v>0</v>
       </c>
     </row>
@@ -59632,20 +58780,19 @@
       <c r="R5" s="16">
         <v>7</v>
       </c>
+      <c r="T5" s="16">
+        <v>0</v>
+      </c>
       <c r="U5" s="16">
-        <f>SUMIF([1]task!$A:$A,A5,[1]task!$B:$B)</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="V5" s="16">
-        <f>SUMIF([2]task!$A:$A,A5,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W5" s="16">
-        <f>SUMIF([3]task!$A:$A,A5,[3]task!$B:$B)</f>
         <v>1.65</v>
       </c>
       <c r="X5" s="16">
-        <f>SUMIF([4]task!$A:$A,A5,[4]task!$B:$B)</f>
         <v>0</v>
       </c>
     </row>
@@ -59693,20 +58840,19 @@
       <c r="R6" s="16">
         <v>7</v>
       </c>
+      <c r="T6" s="16">
+        <v>0</v>
+      </c>
       <c r="U6" s="16">
-        <f>SUMIF([1]task!$A:$A,A6,[1]task!$B:$B)</f>
         <v>0.98333333333333328</v>
       </c>
       <c r="V6" s="16">
-        <f>SUMIF([2]task!$A:$A,A6,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W6" s="16">
-        <f>SUMIF([3]task!$A:$A,A6,[3]task!$B:$B)</f>
         <v>1.6333333333333333</v>
       </c>
       <c r="X6" s="16">
-        <f>SUMIF([4]task!$A:$A,A6,[4]task!$B:$B)</f>
         <v>0</v>
       </c>
     </row>
@@ -59754,20 +58900,19 @@
       <c r="R7" s="16">
         <v>7</v>
       </c>
+      <c r="T7" s="16">
+        <v>0</v>
+      </c>
       <c r="U7" s="16">
-        <f>SUMIF([1]task!$A:$A,A7,[1]task!$B:$B)</f>
         <v>1.1499999999999999</v>
       </c>
       <c r="V7" s="16">
-        <f>SUMIF([2]task!$A:$A,A7,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W7" s="16">
-        <f>SUMIF([3]task!$A:$A,A7,[3]task!$B:$B)</f>
         <v>1.1499999999999999</v>
       </c>
       <c r="X7" s="16">
-        <f>SUMIF([4]task!$A:$A,A7,[4]task!$B:$B)</f>
         <v>0</v>
       </c>
     </row>
@@ -59815,20 +58960,19 @@
       <c r="R8" s="16">
         <v>6</v>
       </c>
+      <c r="T8" s="16">
+        <v>0</v>
+      </c>
       <c r="U8" s="16">
-        <f>SUMIF([1]task!$A:$A,A8,[1]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="V8" s="16">
-        <f>SUMIF([2]task!$A:$A,A8,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W8" s="16">
-        <f>SUMIF([3]task!$A:$A,A8,[3]task!$B:$B)</f>
         <v>0.28333333333333333</v>
       </c>
       <c r="X8" s="16">
-        <f>SUMIF([4]task!$A:$A,A8,[4]task!$B:$B)</f>
         <v>0</v>
       </c>
     </row>
@@ -59871,7 +59015,7 @@
       </c>
       <c r="P9" s="16">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q9" s="15">
         <f t="shared" si="3"/>
@@ -59880,20 +59024,19 @@
       <c r="R9" s="16">
         <v>6</v>
       </c>
+      <c r="T9" s="16">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="U9" s="16">
-        <f>SUMIF([1]task!$A:$A,A9,[1]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="V9" s="16">
-        <f>SUMIF([2]task!$A:$A,A9,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W9" s="16">
-        <f>SUMIF([3]task!$A:$A,A9,[3]task!$B:$B)</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="X9" s="16">
-        <f>SUMIF([4]task!$A:$A,A9,[4]task!$B:$B)</f>
         <v>0</v>
       </c>
     </row>
@@ -59941,20 +59084,19 @@
       <c r="R10" s="16">
         <v>7</v>
       </c>
+      <c r="T10" s="16">
+        <v>0</v>
+      </c>
       <c r="U10" s="16">
-        <f>SUMIF([1]task!$A:$A,A10,[1]task!$B:$B)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="V10" s="16">
-        <f>SUMIF([2]task!$A:$A,A10,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W10" s="16">
-        <f>SUMIF([3]task!$A:$A,A10,[3]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="X10" s="16">
-        <f>SUMIF([4]task!$A:$A,A10,[4]task!$B:$B)</f>
         <v>0</v>
       </c>
     </row>
@@ -59999,20 +59141,19 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="T11" s="16">
+        <v>0</v>
+      </c>
       <c r="U11" s="16">
-        <f>SUMIF([1]task!$A:$A,A11,[1]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="V11" s="16">
-        <f>SUMIF([2]task!$A:$A,A11,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W11" s="16">
-        <f>SUMIF([3]task!$A:$A,A11,[3]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="X11" s="16">
-        <f>SUMIF([4]task!$A:$A,A11,[4]task!$B:$B)</f>
         <v>0</v>
       </c>
     </row>
@@ -60063,20 +59204,19 @@
       <c r="R12" s="16">
         <v>6</v>
       </c>
+      <c r="T12" s="16">
+        <v>0</v>
+      </c>
       <c r="U12" s="16">
-        <f>SUMIF([1]task!$A:$A,A12,[1]task!$B:$B)</f>
         <v>1.6833333333333333</v>
       </c>
       <c r="V12" s="16">
-        <f>SUMIF([2]task!$A:$A,A12,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W12" s="16">
-        <f>SUMIF([3]task!$A:$A,A12,[3]task!$B:$B)</f>
         <v>1.6833333333333333</v>
       </c>
       <c r="X12" s="16">
-        <f>SUMIF([4]task!$A:$A,A12,[4]task!$B:$B)</f>
         <v>0</v>
       </c>
     </row>
@@ -60115,7 +59255,7 @@
       </c>
       <c r="P13" s="16">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q13" s="15">
         <f t="shared" si="3"/>
@@ -60124,20 +59264,19 @@
       <c r="R13" s="16">
         <v>7</v>
       </c>
+      <c r="T13" s="16">
+        <v>4</v>
+      </c>
       <c r="U13" s="16">
-        <f>SUMIF([1]task!$A:$A,A13,[1]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="V13" s="16">
-        <f>SUMIF([2]task!$A:$A,A13,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W13" s="16">
-        <f>SUMIF([3]task!$A:$A,A13,[3]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="X13" s="16">
-        <f>SUMIF([4]task!$A:$A,A13,[4]task!$B:$B)</f>
         <v>4.5</v>
       </c>
     </row>
@@ -60192,7 +59331,7 @@
       </c>
       <c r="P14" s="16">
         <f t="shared" si="2"/>
-        <v>8.15</v>
+        <v>9.65</v>
       </c>
       <c r="Q14" s="15">
         <f t="shared" si="3"/>
@@ -60201,20 +59340,19 @@
       <c r="R14" s="16">
         <v>7</v>
       </c>
+      <c r="T14" s="16">
+        <v>1.5</v>
+      </c>
       <c r="U14" s="16">
-        <f>SUMIF([1]task!$A:$A,A14,[1]task!$B:$B)</f>
         <v>2.1333333333333333</v>
       </c>
       <c r="V14" s="16">
-        <f>SUMIF([2]task!$A:$A,A14,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W14" s="16">
-        <f>SUMIF([3]task!$A:$A,A14,[3]task!$B:$B)</f>
         <v>4.4333333333333336</v>
       </c>
       <c r="X14" s="16">
-        <f>SUMIF([4]task!$A:$A,A14,[4]task!$B:$B)</f>
         <v>1.5833333333333333</v>
       </c>
     </row>
@@ -60259,20 +59397,19 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="T15" s="16">
+        <v>0</v>
+      </c>
       <c r="U15" s="16">
-        <f>SUMIF([1]task!$A:$A,A15,[1]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="V15" s="16">
-        <f>SUMIF([2]task!$A:$A,A15,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W15" s="16">
-        <f>SUMIF([3]task!$A:$A,A15,[3]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="X15" s="16">
-        <f>SUMIF([4]task!$A:$A,A15,[4]task!$B:$B)</f>
         <v>0</v>
       </c>
     </row>
@@ -60320,20 +59457,19 @@
       <c r="R16" s="16">
         <v>7</v>
       </c>
+      <c r="T16" s="16">
+        <v>0</v>
+      </c>
       <c r="U16" s="16">
-        <f>SUMIF([1]task!$A:$A,A16,[1]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="V16" s="16">
-        <f>SUMIF([2]task!$A:$A,A16,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W16" s="16">
-        <f>SUMIF([3]task!$A:$A,A16,[3]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="X16" s="16">
-        <f>SUMIF([4]task!$A:$A,A16,[4]task!$B:$B)</f>
         <v>2.0833333333333335</v>
       </c>
     </row>
@@ -60372,29 +59508,28 @@
       </c>
       <c r="P17" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q17" s="15">
         <f t="shared" si="3"/>
         <v>2.8776978417266189E-2</v>
       </c>
       <c r="R17" s="16">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="T17" s="16">
+        <v>1.5</v>
       </c>
       <c r="U17" s="16">
-        <f>SUMIF([1]task!$A:$A,A17,[1]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="V17" s="16">
-        <f>SUMIF([2]task!$A:$A,A17,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W17" s="16">
-        <f>SUMIF([3]task!$A:$A,A17,[3]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="X17" s="16">
-        <f>SUMIF([4]task!$A:$A,A17,[4]task!$B:$B)</f>
         <v>0</v>
       </c>
     </row>
@@ -60437,22 +59572,24 @@
       </c>
       <c r="Q18" s="15">
         <f t="shared" si="3"/>
+        <v>4.3165467625899283E-2</v>
+      </c>
+      <c r="R18" s="16">
+        <v>6</v>
+      </c>
+      <c r="T18" s="16">
         <v>0</v>
       </c>
       <c r="U18" s="16">
-        <f>SUMIF([1]task!$A:$A,A18,[1]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="V18" s="16">
-        <f>SUMIF([2]task!$A:$A,A18,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W18" s="16">
-        <f>SUMIF([3]task!$A:$A,A18,[3]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="X18" s="16">
-        <f>SUMIF([4]task!$A:$A,A18,[4]task!$B:$B)</f>
         <v>0</v>
       </c>
     </row>
@@ -60506,22 +59643,21 @@
         <v>0.12949640287769784</v>
       </c>
       <c r="R19" s="16">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="T19" s="16">
+        <v>0</v>
       </c>
       <c r="U19" s="16">
-        <f>SUMIF([1]task!$A:$A,A19,[1]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="V19" s="16">
-        <f>SUMIF([2]task!$A:$A,A19,[2]task!$B:$B)</f>
         <v>2.75</v>
       </c>
       <c r="W19" s="16">
-        <f>SUMIF([3]task!$A:$A,A19,[3]task!$B:$B)</f>
         <v>4.25</v>
       </c>
       <c r="X19" s="16">
-        <f>SUMIF([4]task!$A:$A,A19,[4]task!$B:$B)</f>
         <v>0</v>
       </c>
     </row>
@@ -60565,20 +59701,19 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="T20" s="16">
+        <v>0</v>
+      </c>
       <c r="U20" s="16">
-        <f>SUMIF([1]task!$A:$A,A20,[1]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="V20" s="16">
-        <f>SUMIF([2]task!$A:$A,A20,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W20" s="16">
-        <f>SUMIF([3]task!$A:$A,A20,[3]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="X20" s="16">
-        <f>SUMIF([4]task!$A:$A,A20,[4]task!$B:$B)</f>
         <v>0</v>
       </c>
     </row>
@@ -60626,20 +59761,19 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="T21" s="16">
+        <v>0</v>
+      </c>
       <c r="U21" s="16">
-        <f>SUMIF([1]task!$A:$A,A21,[1]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="V21" s="16">
-        <f>SUMIF([2]task!$A:$A,A21,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W21" s="16">
-        <f>SUMIF([3]task!$A:$A,A21,[3]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="X21" s="16">
-        <f>SUMIF([4]task!$A:$A,A21,[4]task!$B:$B)</f>
         <v>0</v>
       </c>
     </row>
@@ -60699,20 +59833,19 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="T22" s="16">
+        <v>0</v>
+      </c>
       <c r="U22" s="16">
-        <f>SUMIF([1]task!$A:$A,A22,[1]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="V22" s="16">
-        <f>SUMIF([2]task!$A:$A,A22,[2]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="W22" s="16">
-        <f>SUMIF([3]task!$A:$A,A22,[3]task!$B:$B)</f>
         <v>0</v>
       </c>
       <c r="X22" s="16">
-        <f>SUMIF([4]task!$A:$A,A22,[4]task!$B:$B)</f>
         <v>0</v>
       </c>
     </row>
@@ -60977,10 +60110,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -61036,11 +60169,11 @@
       <c r="F2" s="38"/>
       <c r="G2" s="6">
         <f>SUMIF('3'!$R:$R,A2,'3'!$Q:$Q)</f>
-        <v>0.23741007194244604</v>
+        <v>0.2805755395683453</v>
       </c>
       <c r="H2" s="6">
         <f>G2</f>
-        <v>0.23741007194244604</v>
+        <v>0.2805755395683453</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -61064,37 +60197,11 @@
       <c r="F3" s="38"/>
       <c r="G3" s="6">
         <f>SUMIF('3'!$R:$R,A3,'3'!$Q:$Q)</f>
-        <v>0.36690647482014388</v>
+        <v>0.52517985611510787</v>
       </c>
       <c r="H3" s="6">
         <f>G3+H2</f>
-        <v>0.60431654676258995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <f>ganancias!A9</f>
-        <v>8</v>
-      </c>
-      <c r="B4" s="4">
-        <f>LOOKUP(A4,ganancias!A:A,ganancias!B:B)</f>
-        <v>41951</v>
-      </c>
-      <c r="D4" s="5">
-        <f>SUMIF('3'!$G:$G,A4,'3'!$F:$F)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <f>D4+E3</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="G4" s="6">
-        <f>SUMIF('3'!$R:$R,A4,'3'!$Q:$Q)</f>
-        <v>0.15827338129496404</v>
-      </c>
-      <c r="H4" s="6">
-        <f>G4+H3</f>
-        <v>0.76258992805755399</v>
+        <v>0.80575539568345311</v>
       </c>
     </row>
   </sheetData>

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -2509,6 +2509,29 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'3-ganancias'!$A$2:$A$3</c:f>
@@ -2555,6 +2578,29 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'3-ganancias'!$A$2:$A$3</c:f>
@@ -2588,8 +2634,9 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3270,7 +3317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -3618,8 +3665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -60112,8 +60159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="585"/>
+    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="585" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ganancias" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="182">
   <si>
     <t>Semana</t>
   </si>
@@ -571,6 +571,9 @@
   <si>
     <t>Elaborar el plan del ciclo #4.</t>
   </si>
+  <si>
+    <t>Desarrollar la funcionalidad que permite establecer la disponibilidad en horas por día a los recursos.</t>
+  </si>
 </sst>
 </file>
 
@@ -1028,11 +1031,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108961296"/>
-        <c:axId val="108948784"/>
+        <c:axId val="983940736"/>
+        <c:axId val="983934752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108961296"/>
+        <c:axId val="983940736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108948784"/>
+        <c:crossAx val="983934752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1049,7 +1052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108948784"/>
+        <c:axId val="983934752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,7 +1063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108961296"/>
+        <c:crossAx val="983940736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1204,11 +1207,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108931296"/>
-        <c:axId val="108939456"/>
+        <c:axId val="1106562096"/>
+        <c:axId val="1106564816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108931296"/>
+        <c:axId val="1106562096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,7 +1221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108939456"/>
+        <c:crossAx val="1106564816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1226,7 +1229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108939456"/>
+        <c:axId val="1106564816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108931296"/>
+        <c:crossAx val="1106562096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1405,11 +1408,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108958032"/>
-        <c:axId val="108951504"/>
+        <c:axId val="983931488"/>
+        <c:axId val="983932032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108958032"/>
+        <c:axId val="983931488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +1421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108951504"/>
+        <c:crossAx val="983932032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1426,7 +1429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108951504"/>
+        <c:axId val="983932032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,7 +1440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108958032"/>
+        <c:crossAx val="983931488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1605,8 +1608,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108950416"/>
-        <c:axId val="108954224"/>
+        <c:axId val="983935840"/>
+        <c:axId val="983936384"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1682,11 +1685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108950416"/>
-        <c:axId val="108954224"/>
+        <c:axId val="983935840"/>
+        <c:axId val="983936384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108950416"/>
+        <c:axId val="983935840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,7 +1698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108954224"/>
+        <c:crossAx val="983936384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1703,7 +1706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108954224"/>
+        <c:axId val="983936384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,7 +1717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108950416"/>
+        <c:crossAx val="983935840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1826,11 +1829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108959664"/>
-        <c:axId val="108956400"/>
+        <c:axId val="983926592"/>
+        <c:axId val="983938016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108959664"/>
+        <c:axId val="983926592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1839,7 +1842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108956400"/>
+        <c:crossAx val="983938016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1847,7 +1850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108956400"/>
+        <c:axId val="983938016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,7 +1861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108959664"/>
+        <c:crossAx val="983926592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1978,11 +1981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108953136"/>
-        <c:axId val="108948240"/>
+        <c:axId val="983938560"/>
+        <c:axId val="983940192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108953136"/>
+        <c:axId val="983938560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,7 +1994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108948240"/>
+        <c:crossAx val="983940192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1999,7 +2002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108948240"/>
+        <c:axId val="983940192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,7 +2013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108953136"/>
+        <c:crossAx val="983938560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2130,11 +2133,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108955312"/>
-        <c:axId val="108956944"/>
+        <c:axId val="983928768"/>
+        <c:axId val="1106561552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108955312"/>
+        <c:axId val="983928768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2143,7 +2146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108956944"/>
+        <c:crossAx val="1106561552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2151,7 +2154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108956944"/>
+        <c:axId val="1106561552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,7 +2165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108955312"/>
+        <c:crossAx val="983928768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2276,11 +2279,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108935104"/>
-        <c:axId val="108934016"/>
+        <c:axId val="1106558832"/>
+        <c:axId val="1106566448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108935104"/>
+        <c:axId val="1106558832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,7 +2292,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108934016"/>
+        <c:crossAx val="1106566448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2297,7 +2300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108934016"/>
+        <c:axId val="1106566448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,7 +2311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108935104"/>
+        <c:crossAx val="1106558832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2422,11 +2425,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108940000"/>
-        <c:axId val="108944896"/>
+        <c:axId val="1106571344"/>
+        <c:axId val="1106567536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108940000"/>
+        <c:axId val="1106571344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2435,7 +2438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108944896"/>
+        <c:crossAx val="1106567536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2443,7 +2446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108944896"/>
+        <c:axId val="1106567536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2454,7 +2457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108940000"/>
+        <c:crossAx val="1106571344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2644,11 +2647,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108931840"/>
-        <c:axId val="108932928"/>
+        <c:axId val="1106569168"/>
+        <c:axId val="1106563184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108931840"/>
+        <c:axId val="1106569168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2658,7 +2661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108932928"/>
+        <c:crossAx val="1106563184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2666,7 +2669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108932928"/>
+        <c:axId val="1106563184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2677,7 +2680,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108931840"/>
+        <c:crossAx val="1106569168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3317,8 +3320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3665,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4360,10 +4363,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK73"/>
+  <dimension ref="A1:AMK75"/>
   <sheetViews>
-    <sheetView topLeftCell="C64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -55307,6 +55310,19 @@
         <v>8</v>
       </c>
     </row>
+    <row r="74" spans="1:1025" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="16">
+        <v>70</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A75" s="16">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -60159,8 +60175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/tspi/plan.xlsx
+++ b/tspi/plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="585" activeTab="1"/>
+    <workbookView xWindow="9705" yWindow="-15" windowWidth="9540" windowHeight="3690" tabRatio="585" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ganancias" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="3" sheetId="6" r:id="rId6"/>
     <sheet name="4" sheetId="10" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -1093,16 +1097,16 @@
                   <c:v>0.67068965517241375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.67931034482758612</c:v>
+                  <c:v>0.69655172413793098</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67931034482758612</c:v>
+                  <c:v>0.69655172413793098</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67931034482758612</c:v>
+                  <c:v>0.69655172413793098</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67931034482758612</c:v>
+                  <c:v>0.69655172413793098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,11 +1123,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-647361120"/>
-        <c:axId val="-647357856"/>
+        <c:axId val="1397358752"/>
+        <c:axId val="1397345152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-647361120"/>
+        <c:axId val="1397358752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,7 +1136,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-647357856"/>
+        <c:crossAx val="1397345152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1140,7 +1144,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-647357856"/>
+        <c:axId val="1397345152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,14 +1155,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-647361120"/>
+        <c:crossAx val="1397358752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1295,7 +1298,7 @@
                   <c:v>0.12586206896551724</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6206896551724137E-3</c:v>
+                  <c:v>2.5862068965517241E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1319,11 +1322,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-647360032"/>
-        <c:axId val="-647348064"/>
+        <c:axId val="1397351680"/>
+        <c:axId val="1397353856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-647360032"/>
+        <c:axId val="1397351680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +1335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-647348064"/>
+        <c:crossAx val="1397353856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1340,7 +1343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-647348064"/>
+        <c:axId val="1397353856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,14 +1354,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-647360032"/>
+        <c:crossAx val="1397351680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1495,7 +1497,7 @@
                   <c:v>30.95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1519,8 +1521,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-647355680"/>
-        <c:axId val="-647354048"/>
+        <c:axId val="1397346784"/>
+        <c:axId val="1397352768"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1596,11 +1598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-647355680"/>
-        <c:axId val="-647354048"/>
+        <c:axId val="1397346784"/>
+        <c:axId val="1397352768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-647355680"/>
+        <c:axId val="1397346784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1609,7 +1611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-647354048"/>
+        <c:crossAx val="1397352768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1617,7 +1619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-647354048"/>
+        <c:axId val="1397352768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1628,7 +1630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-647355680"/>
+        <c:crossAx val="1397346784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1725,7 +1727,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>259.7</c:v>
+                  <c:v>254.43333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1740,11 +1742,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-647347520"/>
-        <c:axId val="-647362752"/>
+        <c:axId val="1397356576"/>
+        <c:axId val="1397354944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-647347520"/>
+        <c:axId val="1397356576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,7 +1755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-647362752"/>
+        <c:crossAx val="1397354944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1761,7 +1763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-647362752"/>
+        <c:axId val="1397354944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1772,7 +1774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-647347520"/>
+        <c:crossAx val="1397356576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1922,6 +1924,106 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="schedule"/>
+      <sheetName val="task"/>
+      <sheetName val="logt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Id</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Horas trabajadas</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>61</v>
+          </cell>
+          <cell r="B2">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>65</v>
+          </cell>
+          <cell r="B3">
+            <v>1.6333333333333333</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="schedule"/>
+      <sheetName val="task"/>
+      <sheetName val="logt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Id</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Horas trabajadas</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>64</v>
+          </cell>
+          <cell r="B2">
+            <v>1.4</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>62</v>
+          </cell>
+          <cell r="B3">
+            <v>0.48333333333333334</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>60</v>
+          </cell>
+          <cell r="B4">
+            <v>4.25</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>61</v>
+          </cell>
+          <cell r="B5">
+            <v>0.46666666666666667</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2458,11 +2560,11 @@
       <c r="F9" s="38"/>
       <c r="G9" s="6">
         <f>SUMIF(tareas!$J:$J,A9,tareas!$I:$I)</f>
-        <v>8.6206896551724137E-3</v>
+        <v>2.5862068965517241E-2</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>0.67931034482758612</v>
+        <v>0.69655172413793098</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2489,7 +2591,7 @@
       </c>
       <c r="H10" s="6">
         <f t="shared" si="2"/>
-        <v>0.67931034482758612</v>
+        <v>0.69655172413793098</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2516,7 +2618,7 @@
       </c>
       <c r="H11" s="6">
         <f t="shared" si="2"/>
-        <v>0.67931034482758612</v>
+        <v>0.69655172413793098</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2543,7 +2645,7 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" si="2"/>
-        <v>0.67931034482758612</v>
+        <v>0.69655172413793098</v>
       </c>
     </row>
   </sheetData>
@@ -2561,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3046,14 +3148,14 @@
         <v>0</v>
       </c>
       <c r="O9" s="8">
-        <v>5.2666666666666666</v>
+        <v>0</v>
       </c>
       <c r="P9" s="8">
         <v>0</v>
       </c>
       <c r="Q9" s="8">
         <f t="shared" si="1"/>
-        <v>5.2666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3231,7 +3333,7 @@
       </c>
       <c r="O14" s="7">
         <f t="shared" si="3"/>
-        <v>60.756666666666668</v>
+        <v>55.49</v>
       </c>
       <c r="P14" s="7">
         <f t="shared" si="3"/>
@@ -3239,7 +3341,7 @@
       </c>
       <c r="Q14" s="7">
         <f t="shared" si="3"/>
-        <v>259.7</v>
+        <v>254.43333333333334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -3258,8 +3360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK82"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView topLeftCell="C58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -50919,11 +51021,11 @@
       </c>
       <c r="I64" s="15">
         <f>LOOKUP(A64,'3'!A:A,'3'!Q:Q)</f>
-        <v>0</v>
+        <v>1.7241379310344827E-2</v>
       </c>
       <c r="J64" s="16">
         <f>LOOKUP(A64,'3'!$A:$A,'3'!$R:$R)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:1025" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -55388,8 +55490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="K8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -56603,23 +56705,27 @@
       </c>
       <c r="P19" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="Q19" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.7241379310344827E-2</v>
+      </c>
+      <c r="R19" s="16">
+        <v>8</v>
       </c>
       <c r="T19" s="16">
         <v>0</v>
       </c>
       <c r="U19" s="16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V19" s="16">
         <v>0</v>
       </c>
       <c r="W19" s="16">
-        <v>0</v>
+        <f>28/60</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="X19" s="16">
         <v>0</v>
@@ -56646,8 +56752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView topLeftCell="E9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -56780,7 +56886,25 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q2" s="15"/>
+      <c r="P2" s="16">
+        <f>SUM(T2:X2)</f>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="Q2" s="15">
+        <f t="shared" ref="Q2:Q18" si="1">IF(NOT(ISBLANK(R2)),F2,0)</f>
+        <v>1.7241379310344827E-2</v>
+      </c>
+      <c r="R2" s="16">
+        <v>9</v>
+      </c>
+      <c r="U2" s="16">
+        <f>SUMIF([1]task!$A:$A,A2,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="16">
+        <f>SUMIF([2]task!$A:$A,A2,[2]task!$B:$B)</f>
+        <v>0.48333333333333334</v>
+      </c>
     </row>
     <row r="3" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
@@ -56816,22 +56940,37 @@
         <v>1</v>
       </c>
       <c r="J3" s="16">
-        <f t="shared" ref="J3:M3" si="1">$E$3/5</f>
+        <f t="shared" ref="J3:M3" si="2">$E$3/5</f>
         <v>1</v>
       </c>
       <c r="K3" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L3" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P3" s="16">
+        <f t="shared" ref="P3:P18" si="3">SUM(T3:X3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L3" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M3" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q3" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="16">
+        <f>SUMIF([1]task!$A:$A,A3,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="16">
+        <f>SUMIF([2]task!$A:$A,A3,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
@@ -56866,7 +57005,25 @@
         <f>E4</f>
         <v>2</v>
       </c>
-      <c r="Q4" s="15"/>
+      <c r="P4" s="16">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q4" s="15">
+        <f t="shared" si="1"/>
+        <v>6.8965517241379309E-3</v>
+      </c>
+      <c r="R4" s="16">
+        <v>9</v>
+      </c>
+      <c r="U4" s="16">
+        <f>SUMIF([1]task!$A:$A,A4,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="16">
+        <f>SUMIF([2]task!$A:$A,A4,[2]task!$B:$B)</f>
+        <v>1.4</v>
+      </c>
     </row>
     <row r="5" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
@@ -56901,7 +57058,25 @@
         <f>E5</f>
         <v>3</v>
       </c>
-      <c r="Q5" s="15"/>
+      <c r="P5" s="16">
+        <f t="shared" si="3"/>
+        <v>1.6333333333333333</v>
+      </c>
+      <c r="Q5" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0344827586206896E-2</v>
+      </c>
+      <c r="R5" s="16">
+        <v>9</v>
+      </c>
+      <c r="U5" s="16">
+        <f>SUMIF([1]task!$A:$A,A5,[1]task!$B:$B)</f>
+        <v>1.6333333333333333</v>
+      </c>
+      <c r="W5" s="16">
+        <f>SUMIF([2]task!$A:$A,A5,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
@@ -56936,7 +57111,22 @@
         <f>E6</f>
         <v>3</v>
       </c>
-      <c r="Q6" s="15"/>
+      <c r="P6" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="16">
+        <f>SUMIF([1]task!$A:$A,A6,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="16">
+        <f>SUMIF([2]task!$A:$A,A6,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
@@ -56971,7 +57161,22 @@
         <f>E7</f>
         <v>1.5</v>
       </c>
-      <c r="Q7" s="15"/>
+      <c r="P7" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="16">
+        <f>SUMIF([1]task!$A:$A,A7,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="16">
+        <f>SUMIF([2]task!$A:$A,A7,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
@@ -57006,7 +57211,22 @@
         <f>E8</f>
         <v>3</v>
       </c>
-      <c r="Q8" s="15"/>
+      <c r="P8" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="16">
+        <f>SUMIF([1]task!$A:$A,A8,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="16">
+        <f>SUMIF([2]task!$A:$A,A8,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
@@ -57041,7 +57261,22 @@
         <f>E9</f>
         <v>1.5</v>
       </c>
-      <c r="Q9" s="15"/>
+      <c r="P9" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
+        <f>SUMIF([1]task!$A:$A,A9,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="16">
+        <f>SUMIF([2]task!$A:$A,A9,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
@@ -57080,9 +57315,24 @@
         <f>E10/2</f>
         <v>4</v>
       </c>
-      <c r="Q10" s="15"/>
+      <c r="P10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="16">
+        <f>SUMIF([1]task!$A:$A,A10,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="16">
+        <f>SUMIF([2]task!$A:$A,A10,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>71</v>
       </c>
@@ -57114,7 +57364,22 @@
         <f>E11</f>
         <v>3</v>
       </c>
-      <c r="Q11" s="15"/>
+      <c r="P11" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="16">
+        <f>SUMIF([1]task!$A:$A,A11,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="16">
+        <f>SUMIF([2]task!$A:$A,A11,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
@@ -57153,7 +57418,22 @@
         <f>E12/2</f>
         <v>5</v>
       </c>
-      <c r="Q12" s="15"/>
+      <c r="P12" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="16">
+        <f>SUMIF([1]task!$A:$A,A12,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="16">
+        <f>SUMIF([2]task!$A:$A,A12,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
@@ -57188,7 +57468,22 @@
         <f>E13</f>
         <v>3</v>
       </c>
-      <c r="Q13" s="15"/>
+      <c r="P13" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="16">
+        <f>SUMIF([1]task!$A:$A,A13,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="16">
+        <f>SUMIF([2]task!$A:$A,A13,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
@@ -57227,7 +57522,22 @@
         <f>E14/2</f>
         <v>7.5</v>
       </c>
-      <c r="Q14" s="15"/>
+      <c r="P14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="16">
+        <f>SUMIF([1]task!$A:$A,A14,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="16">
+        <f>SUMIF([2]task!$A:$A,A14,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
@@ -57262,7 +57572,22 @@
         <f>E15</f>
         <v>3</v>
       </c>
-      <c r="Q15" s="15"/>
+      <c r="P15" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="16">
+        <f>SUMIF([1]task!$A:$A,A15,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="16">
+        <f>SUMIF([2]task!$A:$A,A15,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
@@ -57301,9 +57626,24 @@
         <f>E16/2</f>
         <v>5</v>
       </c>
-      <c r="Q16" s="15"/>
+      <c r="P16" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="16">
+        <f>SUMIF([1]task!$A:$A,A16,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="16">
+        <f>SUMIF([2]task!$A:$A,A16,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>77</v>
       </c>
@@ -57336,9 +57676,24 @@
         <f>E17</f>
         <v>3</v>
       </c>
-      <c r="Q17" s="15"/>
+      <c r="P17" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="16">
+        <f>SUMIF([1]task!$A:$A,A17,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="16">
+        <f>SUMIF([2]task!$A:$A,A17,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>78</v>
       </c>
@@ -57372,31 +57727,46 @@
         <v>1</v>
       </c>
       <c r="J18" s="16">
-        <f t="shared" ref="J18:M18" si="2">$E$18/5</f>
+        <f t="shared" ref="J18:M18" si="4">$E$18/5</f>
         <v>1</v>
       </c>
       <c r="K18" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M18" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="15"/>
+      <c r="P18" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="16">
+        <f>SUMIF([1]task!$A:$A,A18,[1]task!$B:$B)</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="16">
+        <f>SUMIF([2]task!$A:$A,A18,[2]task!$B:$B)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="20"/>
       <c r="E19" s="19"/>
       <c r="G19" s="19"/>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="20"/>
       <c r="E20" s="19"/>
